--- a/Docs/Content/HungryDragonContent_Offers.xlsx
+++ b/Docs/Content/HungryDragonContent_Offers.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10210"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aortin/Documents/UBI/FD/Client/Docs/Content/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{6A82CA15-AF8F-B94E-A079-912B071E57A8}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38400" yWindow="0" windowWidth="38400" windowHeight="21600"/>
+    <workbookView xWindow="38400" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="51">
   <si>
     <t>OFFER PACKS DEFINITIONS</t>
   </si>
@@ -152,12 +153,39 @@
   </si>
   <si>
     <t>endDate</t>
+  </si>
+  <si>
+    <t>[iapSku]</t>
+  </si>
+  <si>
+    <t>com.ubisoft.hungrydragon.offer_pack_2</t>
+  </si>
+  <si>
+    <t>com.ubisoft.hungrydragon.offer_pack_3</t>
+  </si>
+  <si>
+    <t>com.ubisoft.hungrydragon.offer_pack_4</t>
+  </si>
+  <si>
+    <t>com.ubisoft.hungrydragon.offer_pack_1</t>
+  </si>
+  <si>
+    <t>[tidName]</t>
+  </si>
+  <si>
+    <t>TID_OFFER_PACK_MEGA</t>
+  </si>
+  <si>
+    <t>TID_OFFER_PACK_SUPER</t>
+  </si>
+  <si>
+    <t>TID_OFFER_PACK_BASIC</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -279,7 +307,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -359,11 +387,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -411,11 +465,169 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="22">
+  <dxfs count="24">
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FFDCE6F1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="6"/>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="6"/>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="6"/>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="6"/>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="6"/>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FFDCE6F1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -887,83 +1099,6 @@
         <bottom/>
       </border>
     </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="6"/>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="6"/>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="6"/>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="6"/>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="6"/>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -978,20 +1113,22 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="offerPacksDefinitions" displayName="offerPacksDefinitions" ref="B4:L31" totalsRowShown="0" headerRowDxfId="14" dataDxfId="12" headerRowBorderDxfId="13" tableBorderDxfId="11">
-  <autoFilter ref="B4:L31"/>
-  <tableColumns count="11">
-    <tableColumn id="1" name="{offerPacksDefinitions}" dataDxfId="10"/>
-    <tableColumn id="2" name="[sku]" dataDxfId="9"/>
-    <tableColumn id="15" name="[paramValue]" dataDxfId="8"/>
-    <tableColumn id="7" name="[itemType]" dataDxfId="7"/>
-    <tableColumn id="8" name="[itemAmount]" dataDxfId="6"/>
-    <tableColumn id="9" name="[itemSku]" dataDxfId="5"/>
-    <tableColumn id="23" name="[itemFeatured]" dataDxfId="4"/>
-    <tableColumn id="22" name="[minAppVersion]" dataDxfId="3"/>
-    <tableColumn id="4" name="[order]" dataDxfId="2"/>
-    <tableColumn id="24" name="[refPrice]" dataDxfId="1"/>
-    <tableColumn id="6" name="[discount]" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="offerPacksDefinitions" displayName="offerPacksDefinitions" ref="B4:N31" totalsRowShown="0" headerRowDxfId="23" dataDxfId="21" headerRowBorderDxfId="22" tableBorderDxfId="20">
+  <autoFilter ref="B4:N31" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <tableColumns count="13">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="{offerPacksDefinitions}" dataDxfId="19"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="[sku]" dataDxfId="18"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="[paramValue]" dataDxfId="17"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="[itemType]" dataDxfId="16"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="[itemAmount]" dataDxfId="15"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="[itemSku]" dataDxfId="14"/>
+    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0000-000017000000}" name="[itemFeatured]" dataDxfId="13"/>
+    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0000-000016000000}" name="[minAppVersion]" dataDxfId="12"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="[order]" dataDxfId="11"/>
+    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0000-000018000000}" name="[refPrice]" dataDxfId="10"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="[discount]" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{EC30BFE9-93AC-B341-A6DF-2464A465E69D}" name="[iapSku]" dataDxfId="8"/>
+    <tableColumn id="5" xr3:uid="{CAF1E60A-0F22-9F48-B595-4C0BDBEE3450}" name="[tidName]" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1293,11 +1430,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:P31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" zoomScale="131" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="N26" sqref="N26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1312,6 +1449,8 @@
     <col min="8" max="9" width="13" customWidth="1"/>
     <col min="10" max="10" width="11" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11.5" customWidth="1"/>
+    <col min="13" max="13" width="36.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="20.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
@@ -1382,6 +1521,12 @@
       <c r="L4" s="3" t="s">
         <v>5</v>
       </c>
+      <c r="M4" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B5" s="5" t="s">
@@ -1407,6 +1552,12 @@
       <c r="L5" s="12">
         <v>0.5</v>
       </c>
+      <c r="M5" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="N5" s="17" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B6" s="5" t="s">
@@ -1432,6 +1583,8 @@
       <c r="J6" s="6"/>
       <c r="K6" s="6"/>
       <c r="L6" s="6"/>
+      <c r="M6" s="18"/>
+      <c r="N6" s="18"/>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B7" s="5" t="s">
@@ -1453,6 +1606,8 @@
       <c r="J7" s="6"/>
       <c r="K7" s="6"/>
       <c r="L7" s="6"/>
+      <c r="M7" s="18"/>
+      <c r="N7" s="18"/>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B8" s="5" t="s">
@@ -1474,6 +1629,8 @@
       <c r="J8" s="6"/>
       <c r="K8" s="6"/>
       <c r="L8" s="13"/>
+      <c r="M8" s="18"/>
+      <c r="N8" s="18"/>
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B9" s="5" t="s">
@@ -1493,6 +1650,8 @@
       <c r="J9" s="6"/>
       <c r="K9" s="6"/>
       <c r="L9" s="6"/>
+      <c r="M9" s="18"/>
+      <c r="N9" s="18"/>
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B10" s="5" t="s">
@@ -1512,6 +1671,8 @@
       <c r="J10" s="6"/>
       <c r="K10" s="6"/>
       <c r="L10" s="6"/>
+      <c r="M10" s="18"/>
+      <c r="N10" s="18"/>
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B11" s="5" t="s">
@@ -1531,6 +1692,8 @@
       <c r="J11" s="6"/>
       <c r="K11" s="6"/>
       <c r="L11" s="6"/>
+      <c r="M11" s="18"/>
+      <c r="N11" s="18"/>
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B12" s="5" t="s">
@@ -1550,6 +1713,8 @@
       <c r="J12" s="6"/>
       <c r="K12" s="6"/>
       <c r="L12" s="6"/>
+      <c r="M12" s="18"/>
+      <c r="N12" s="18"/>
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B13" s="5" t="s">
@@ -1569,6 +1734,8 @@
       <c r="J13" s="6"/>
       <c r="K13" s="6"/>
       <c r="L13" s="13"/>
+      <c r="M13" s="18"/>
+      <c r="N13" s="18"/>
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B14" s="5" t="s">
@@ -1588,6 +1755,8 @@
       <c r="J14" s="6"/>
       <c r="K14" s="6"/>
       <c r="L14" s="13"/>
+      <c r="M14" s="18"/>
+      <c r="N14" s="18"/>
     </row>
     <row r="15" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B15" s="5" t="s">
@@ -1613,6 +1782,12 @@
       <c r="L15" s="12">
         <v>0.75</v>
       </c>
+      <c r="M15" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="N15" s="18" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="16" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B16" s="5" t="s">
@@ -1636,8 +1811,10 @@
       <c r="J16" s="6"/>
       <c r="K16" s="6"/>
       <c r="L16" s="6"/>
-    </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="18"/>
+      <c r="N16" s="18"/>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B17" s="5" t="s">
         <v>6</v>
       </c>
@@ -1657,8 +1834,10 @@
       <c r="J17" s="6"/>
       <c r="K17" s="6"/>
       <c r="L17" s="6"/>
-    </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M17" s="18"/>
+      <c r="N17" s="18"/>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B18" s="5" t="s">
         <v>6</v>
       </c>
@@ -1678,8 +1857,10 @@
       <c r="J18" s="6"/>
       <c r="K18" s="6"/>
       <c r="L18" s="13"/>
-    </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M18" s="18"/>
+      <c r="N18" s="18"/>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B19" s="5" t="s">
         <v>17</v>
       </c>
@@ -1697,8 +1878,10 @@
       <c r="J19" s="6"/>
       <c r="K19" s="6"/>
       <c r="L19" s="6"/>
-    </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="18"/>
+      <c r="N19" s="18"/>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B20" s="5" t="s">
         <v>17</v>
       </c>
@@ -1716,8 +1899,10 @@
       <c r="J20" s="6"/>
       <c r="K20" s="6"/>
       <c r="L20" s="6"/>
-    </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M20" s="18"/>
+      <c r="N20" s="18"/>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B21" s="5" t="s">
         <v>17</v>
       </c>
@@ -1735,8 +1920,10 @@
       <c r="J21" s="6"/>
       <c r="K21" s="6"/>
       <c r="L21" s="6"/>
-    </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="18"/>
+      <c r="N21" s="18"/>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B22" s="5" t="s">
         <v>17</v>
       </c>
@@ -1754,8 +1941,10 @@
       <c r="J22" s="6"/>
       <c r="K22" s="6"/>
       <c r="L22" s="6"/>
-    </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M22" s="18"/>
+      <c r="N22" s="18"/>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B23" s="5" t="s">
         <v>17</v>
       </c>
@@ -1773,8 +1962,10 @@
       <c r="J23" s="6"/>
       <c r="K23" s="6"/>
       <c r="L23" s="13"/>
-    </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M23" s="18"/>
+      <c r="N23" s="18"/>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B24" s="5" t="s">
         <v>17</v>
       </c>
@@ -1792,8 +1983,10 @@
       <c r="J24" s="6"/>
       <c r="K24" s="6"/>
       <c r="L24" s="13"/>
-    </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M24" s="18"/>
+      <c r="N24" s="18"/>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B25" s="5" t="s">
         <v>3</v>
       </c>
@@ -1817,8 +2010,14 @@
       <c r="L25" s="12">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M25" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="N25" s="18" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B26" s="5" t="s">
         <v>6</v>
       </c>
@@ -1838,8 +2037,10 @@
       <c r="J26" s="6"/>
       <c r="K26" s="6"/>
       <c r="L26" s="13"/>
-    </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M26" s="18"/>
+      <c r="N26" s="18"/>
+    </row>
+    <row r="27" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B27" s="5" t="s">
         <v>6</v>
       </c>
@@ -1859,8 +2060,10 @@
       <c r="J27" s="6"/>
       <c r="K27" s="6"/>
       <c r="L27" s="13"/>
-    </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M27" s="18"/>
+      <c r="N27" s="18"/>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B28" s="5" t="s">
         <v>17</v>
       </c>
@@ -1878,8 +2081,10 @@
       <c r="J28" s="6"/>
       <c r="K28" s="6"/>
       <c r="L28" s="13"/>
-    </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M28" s="18"/>
+      <c r="N28" s="18"/>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B29" s="5" t="s">
         <v>3</v>
       </c>
@@ -1903,8 +2108,14 @@
       <c r="L29" s="12">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M29" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="N29" s="18" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B30" s="5" t="s">
         <v>6</v>
       </c>
@@ -1926,8 +2137,10 @@
       <c r="J30" s="6"/>
       <c r="K30" s="6"/>
       <c r="L30" s="13"/>
-    </row>
-    <row r="31" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M30" s="18"/>
+      <c r="N30" s="18"/>
+    </row>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B31" s="5" t="s">
         <v>17</v>
       </c>
@@ -1945,51 +2158,53 @@
       <c r="J31" s="6"/>
       <c r="K31" s="6"/>
       <c r="L31" s="13"/>
+      <c r="M31" s="19"/>
+      <c r="N31" s="19"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="I5:L31">
-    <cfRule type="expression" dxfId="21" priority="9">
+  <conditionalFormatting sqref="I5:N31">
+    <cfRule type="expression" dxfId="7" priority="9">
       <formula>$B5&lt;&gt;"&lt;Definition&gt;"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E5:H22 F23:H23 E24:H31">
-    <cfRule type="expression" dxfId="20" priority="8">
+    <cfRule type="expression" dxfId="6" priority="8">
       <formula>$B5&lt;&gt;"&lt;Item&gt;"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5:D14 D25:D31">
-    <cfRule type="expression" dxfId="19" priority="7">
+    <cfRule type="expression" dxfId="5" priority="7">
       <formula>$B5&lt;&gt;"&lt;Param&gt;"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15:D24">
-    <cfRule type="expression" dxfId="18" priority="4">
+    <cfRule type="expression" dxfId="4" priority="4">
       <formula>$B15&lt;&gt;"&lt;Param&gt;"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B23:D23 B5:L22 F23:L23 B24:L31">
-    <cfRule type="expression" dxfId="17" priority="3">
+  <conditionalFormatting sqref="B23:D23 B5:L22 F23:L23 B24:L31 M5:N31">
+    <cfRule type="expression" dxfId="3" priority="3">
       <formula>$B5="&lt;Definition&gt;"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E23">
-    <cfRule type="expression" dxfId="16" priority="2">
+    <cfRule type="expression" dxfId="2" priority="2">
       <formula>$B23&lt;&gt;"&lt;Item&gt;"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E23">
-    <cfRule type="expression" dxfId="15" priority="1">
+    <cfRule type="expression" dxfId="1" priority="1">
       <formula>$B23="&lt;Definition&gt;"</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5:B31">
+  <dataValidations disablePrompts="1" count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5:B31" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"&lt;Definition&gt;,&lt;Item&gt;,&lt;Param&gt;"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="C5:C31">
+    <dataValidation type="list" allowBlank="1" sqref="C5:C31" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"featured,startDate,endDate,countriesAllowed,countriesExcluded,gamesPlayed,frequency,maxViews,zone,payerType,minSpent,dragonOwned,dragonUnlocked,scBalanceRange,hcBalanceRange,openedEggs,petsOwnedCount,petsOwned,progressionRange,skinsUnlocked,skinsOwned"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E5:E22 E24:E31">
+    <dataValidation type="list" allowBlank="1" sqref="E5:E22 E24:E31" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>"sc,pc,gf,egg,pet,skin"</formula1>
     </dataValidation>
   </dataValidations>

--- a/Docs/Content/HungryDragonContent_Offers.xlsx
+++ b/Docs/Content/HungryDragonContent_Offers.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10319"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aortin/Documents/UBI/FD/Client/Docs/Content/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{6A82CA15-AF8F-B94E-A079-912B071E57A8}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{C96F9033-5749-F447-9523-85F9E05BEDB5}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38400" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="ValidationData" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913" calcMode="manual"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="74">
   <si>
     <t>OFFER PACKS DEFINITIONS</t>
   </si>
@@ -106,12 +107,6 @@
   </si>
   <si>
     <t>dragonSelection</t>
-  </si>
-  <si>
-    <t>offer_pack_test_1</t>
-  </si>
-  <si>
-    <t>offer_pack_test_2</t>
   </si>
   <si>
     <t>egg</t>
@@ -127,9 +122,6 @@
 Use a tool like https://www.epochconverter.com/ for timestamps</t>
   </si>
   <si>
-    <t>offer_pack_test_3</t>
-  </si>
-  <si>
     <t>[refPrice]</t>
   </si>
   <si>
@@ -137,9 +129,6 @@
   </si>
   <si>
     <t>gamesPlayed</t>
-  </si>
-  <si>
-    <t>offer_pack_test_4</t>
   </si>
   <si>
     <t>openedEggs</t>
@@ -180,13 +169,94 @@
   </si>
   <si>
     <t>TID_OFFER_PACK_BASIC</t>
+  </si>
+  <si>
+    <t>Segmentation Parameters</t>
+  </si>
+  <si>
+    <t>Item Types</t>
+  </si>
+  <si>
+    <t>countriesAllowed</t>
+  </si>
+  <si>
+    <t>countriesExcluded</t>
+  </si>
+  <si>
+    <t>payerType</t>
+  </si>
+  <si>
+    <t>minSpent</t>
+  </si>
+  <si>
+    <t>dragonOwned</t>
+  </si>
+  <si>
+    <t>dragonUnlocked</t>
+  </si>
+  <si>
+    <t>scBalanceRange</t>
+  </si>
+  <si>
+    <t>hcBalanceRange</t>
+  </si>
+  <si>
+    <t>petsOwnedCount</t>
+  </si>
+  <si>
+    <t>petsOwned</t>
+  </si>
+  <si>
+    <t>progressionRange</t>
+  </si>
+  <si>
+    <t>skinsUnlocked</t>
+  </si>
+  <si>
+    <t>skinsOwned</t>
+  </si>
+  <si>
+    <t>skinsNotOwned</t>
+  </si>
+  <si>
+    <t>petsNotOwned</t>
+  </si>
+  <si>
+    <t>dragonNotOwned</t>
+  </si>
+  <si>
+    <t>gf</t>
+  </si>
+  <si>
+    <t>skin</t>
+  </si>
+  <si>
+    <t>offer_pack_test_2items</t>
+  </si>
+  <si>
+    <t>offer_pack_test_egg</t>
+  </si>
+  <si>
+    <t>offer_pack_test_pet</t>
+  </si>
+  <si>
+    <t>offer_pack_test_1item</t>
+  </si>
+  <si>
+    <t>offer_pack_test_skin</t>
+  </si>
+  <si>
+    <t>dragon_chinese_3</t>
+  </si>
+  <si>
+    <t>dragon_chinese</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -239,6 +309,14 @@
     <font>
       <i/>
       <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -417,7 +495,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -474,11 +552,288 @@
     <xf numFmtId="0" fontId="4" fillId="8" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="24">
+  <dxfs count="42">
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="6"/>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="6"/>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="6"/>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="6"/>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="6"/>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="6"/>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="6"/>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="6"/>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="6"/>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="6"/>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="6"/>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="6"/>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="6"/>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="6"/>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="6"/>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="6"/>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="6"/>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="6"/>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -514,83 +869,6 @@
           <color auto="1"/>
         </bottom>
       </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="6"/>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="6"/>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="6"/>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="6"/>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="6"/>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <font>
@@ -1113,22 +1391,22 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="offerPacksDefinitions" displayName="offerPacksDefinitions" ref="B4:N31" totalsRowShown="0" headerRowDxfId="23" dataDxfId="21" headerRowBorderDxfId="22" tableBorderDxfId="20">
-  <autoFilter ref="B4:N31" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="offerPacksDefinitions" displayName="offerPacksDefinitions" ref="B4:N44" totalsRowShown="0" headerRowDxfId="41" dataDxfId="39" headerRowBorderDxfId="40" tableBorderDxfId="38">
+  <autoFilter ref="B4:N44" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="{offerPacksDefinitions}" dataDxfId="19"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="[sku]" dataDxfId="18"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="[paramValue]" dataDxfId="17"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="[itemType]" dataDxfId="16"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="[itemAmount]" dataDxfId="15"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="[itemSku]" dataDxfId="14"/>
-    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0000-000017000000}" name="[itemFeatured]" dataDxfId="13"/>
-    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0000-000016000000}" name="[minAppVersion]" dataDxfId="12"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="[order]" dataDxfId="11"/>
-    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0000-000018000000}" name="[refPrice]" dataDxfId="10"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="[discount]" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{EC30BFE9-93AC-B341-A6DF-2464A465E69D}" name="[iapSku]" dataDxfId="8"/>
-    <tableColumn id="5" xr3:uid="{CAF1E60A-0F22-9F48-B595-4C0BDBEE3450}" name="[tidName]" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="{offerPacksDefinitions}" dataDxfId="37"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="[sku]" dataDxfId="36"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="[paramValue]" dataDxfId="35"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="[itemType]" dataDxfId="34"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="[itemAmount]" dataDxfId="33"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="[itemSku]" dataDxfId="32"/>
+    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0000-000017000000}" name="[itemFeatured]" dataDxfId="31"/>
+    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0000-000016000000}" name="[minAppVersion]" dataDxfId="30"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="[order]" dataDxfId="29"/>
+    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0000-000018000000}" name="[refPrice]" dataDxfId="28"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="[discount]" dataDxfId="27"/>
+    <tableColumn id="3" xr3:uid="{EC30BFE9-93AC-B341-A6DF-2464A465E69D}" name="[iapSku]" dataDxfId="26"/>
+    <tableColumn id="5" xr3:uid="{CAF1E60A-0F22-9F48-B595-4C0BDBEE3450}" name="[tidName]" dataDxfId="25"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1431,10 +1709,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:P31"/>
+  <dimension ref="B1:P44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="131" workbookViewId="0">
-      <selection activeCell="N26" sqref="N26"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="131" workbookViewId="0">
+      <selection activeCell="L27" sqref="L27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1445,7 +1723,7 @@
     <col min="4" max="4" width="29" customWidth="1"/>
     <col min="5" max="5" width="11.33203125" customWidth="1"/>
     <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.83203125" customWidth="1"/>
+    <col min="7" max="7" width="14.83203125" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="13" customWidth="1"/>
     <col min="10" max="10" width="11" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11.5" customWidth="1"/>
@@ -1475,16 +1753,16 @@
     </row>
     <row r="3" spans="2:16" s="16" customFormat="1" ht="182" x14ac:dyDescent="0.2">
       <c r="D3" s="16" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="J3" s="16" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="K3" s="16" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="L3" s="16" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="2:16" ht="112" x14ac:dyDescent="0.2">
@@ -1516,16 +1794,16 @@
         <v>2</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="L4" s="3" t="s">
         <v>5</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.2">
@@ -1533,7 +1811,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>27</v>
+        <v>69</v>
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="10"/>
@@ -1553,10 +1831,10 @@
         <v>0.5</v>
       </c>
       <c r="M5" s="17" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="N5" s="17" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.2">
@@ -1595,10 +1873,10 @@
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="11" t="s">
-        <v>19</v>
+        <v>65</v>
       </c>
       <c r="F7" s="11">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="G7" s="11"/>
       <c r="H7" s="15"/>
@@ -1658,7 +1936,7 @@
         <v>17</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D10" s="7">
         <v>1519057687</v>
@@ -1679,10 +1957,10 @@
         <v>17</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D11" s="7">
-        <v>1519835287</v>
+        <v>1522257000</v>
       </c>
       <c r="E11" s="11"/>
       <c r="F11" s="11"/>
@@ -1760,76 +2038,76 @@
     </row>
     <row r="15" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B15" s="5" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="D15" s="7"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
+        <v>63</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
       <c r="H15" s="15"/>
-      <c r="I15" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="J15" s="6">
-        <v>1</v>
-      </c>
-      <c r="K15" s="6">
-        <v>200</v>
-      </c>
-      <c r="L15" s="12">
-        <v>0.75</v>
-      </c>
-      <c r="M15" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="N15" s="18" t="s">
-        <v>48</v>
-      </c>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="13"/>
+      <c r="M15" s="18"/>
+      <c r="N15" s="18"/>
     </row>
     <row r="16" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B16" s="5" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>7</v>
+        <v>68</v>
       </c>
       <c r="D16" s="7"/>
-      <c r="E16" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="F16" s="10">
-        <v>2</v>
-      </c>
-      <c r="G16" s="10" t="s">
-        <v>35</v>
-      </c>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
       <c r="H16" s="15"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
-      <c r="K16" s="6"/>
-      <c r="L16" s="6"/>
-      <c r="M16" s="18"/>
-      <c r="N16" s="18"/>
+      <c r="I16" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="J16" s="6">
+        <v>1</v>
+      </c>
+      <c r="K16" s="6">
+        <v>200</v>
+      </c>
+      <c r="L16" s="12">
+        <v>0.75</v>
+      </c>
+      <c r="M16" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="N16" s="18" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="17" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B17" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D17" s="7"/>
-      <c r="E17" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="F17" s="11">
-        <v>100</v>
-      </c>
-      <c r="G17" s="11"/>
-      <c r="H17" s="15"/>
+      <c r="E17" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="F17" s="10">
+        <v>2</v>
+      </c>
+      <c r="G17" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="H17" s="15" t="b">
+        <v>1</v>
+      </c>
       <c r="I17" s="6"/>
       <c r="J17" s="6"/>
       <c r="K17" s="6"/>
@@ -1842,42 +2120,44 @@
         <v>6</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="D18" s="7"/>
       <c r="E18" s="11" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F18" s="11">
-        <v>10000</v>
+        <v>100</v>
       </c>
       <c r="G18" s="11"/>
       <c r="H18" s="15"/>
       <c r="I18" s="6"/>
       <c r="J18" s="6"/>
       <c r="K18" s="6"/>
-      <c r="L18" s="13"/>
+      <c r="L18" s="6"/>
       <c r="M18" s="18"/>
       <c r="N18" s="18"/>
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B19" s="5" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="D19" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
+        <v>20</v>
+      </c>
+      <c r="D19" s="7"/>
+      <c r="E19" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F19" s="11">
+        <v>10000</v>
+      </c>
       <c r="G19" s="11"/>
       <c r="H19" s="15"/>
       <c r="I19" s="6"/>
       <c r="J19" s="6"/>
       <c r="K19" s="6"/>
-      <c r="L19" s="6"/>
+      <c r="L19" s="13"/>
       <c r="M19" s="18"/>
       <c r="N19" s="18"/>
     </row>
@@ -1886,10 +2166,10 @@
         <v>17</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="D20" s="7">
-        <v>1519230487</v>
+        <v>15</v>
+      </c>
+      <c r="D20" s="7" t="b">
+        <v>1</v>
       </c>
       <c r="E20" s="11"/>
       <c r="F20" s="11"/>
@@ -1907,10 +2187,10 @@
         <v>17</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D21" s="7">
-        <v>1519576087</v>
+        <v>1519230487</v>
       </c>
       <c r="E21" s="11"/>
       <c r="F21" s="11"/>
@@ -1928,10 +2208,10 @@
         <v>17</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="D22" s="7">
-        <v>10</v>
+        <v>1522257000</v>
       </c>
       <c r="E22" s="11"/>
       <c r="F22" s="11"/>
@@ -1949,10 +2229,10 @@
         <v>17</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D23" s="7">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E23" s="11"/>
       <c r="F23" s="11"/>
@@ -1961,7 +2241,7 @@
       <c r="I23" s="6"/>
       <c r="J23" s="6"/>
       <c r="K23" s="6"/>
-      <c r="L23" s="13"/>
+      <c r="L23" s="6"/>
       <c r="M23" s="18"/>
       <c r="N23" s="18"/>
     </row>
@@ -1970,10 +2250,10 @@
         <v>17</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="D24" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
+      </c>
+      <c r="D24" s="7">
+        <v>2</v>
       </c>
       <c r="E24" s="11"/>
       <c r="F24" s="11"/>
@@ -1988,155 +2268,147 @@
     </row>
     <row r="25" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B25" s="5" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="D25" s="7"/>
+        <v>25</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>26</v>
+      </c>
       <c r="E25" s="11"/>
       <c r="F25" s="11"/>
       <c r="G25" s="11"/>
       <c r="H25" s="15"/>
-      <c r="I25" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="J25" s="6">
-        <v>2</v>
-      </c>
-      <c r="K25" s="6">
-        <v>50</v>
-      </c>
-      <c r="L25" s="12">
-        <v>0.25</v>
-      </c>
-      <c r="M25" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="N25" s="18" t="s">
-        <v>50</v>
-      </c>
+      <c r="I25" s="6"/>
+      <c r="J25" s="6"/>
+      <c r="K25" s="6"/>
+      <c r="L25" s="13"/>
+      <c r="M25" s="18"/>
+      <c r="N25" s="18"/>
     </row>
     <row r="26" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B26" s="5" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>7</v>
+        <v>71</v>
       </c>
       <c r="D26" s="7"/>
-      <c r="E26" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="F26" s="11">
-        <v>50</v>
-      </c>
-      <c r="G26" s="11"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
       <c r="H26" s="15"/>
-      <c r="I26" s="6"/>
-      <c r="J26" s="6"/>
-      <c r="K26" s="6"/>
-      <c r="L26" s="13"/>
-      <c r="M26" s="18"/>
-      <c r="N26" s="18"/>
+      <c r="I26" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="J26" s="6">
+        <v>1</v>
+      </c>
+      <c r="K26" s="6">
+        <v>200</v>
+      </c>
+      <c r="L26" s="12">
+        <v>0.3</v>
+      </c>
+      <c r="M26" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="N26" s="18" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="27" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B27" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C27" s="14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D27" s="7"/>
-      <c r="E27" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="F27" s="11">
-        <v>5000</v>
-      </c>
-      <c r="G27" s="11"/>
-      <c r="H27" s="15"/>
+      <c r="E27" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="F27" s="10">
+        <v>1</v>
+      </c>
+      <c r="G27" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="H27" s="15" t="b">
+        <v>1</v>
+      </c>
       <c r="I27" s="6"/>
       <c r="J27" s="6"/>
       <c r="K27" s="6"/>
-      <c r="L27" s="13"/>
+      <c r="L27" s="6"/>
       <c r="M27" s="18"/>
       <c r="N27" s="18"/>
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B28" s="5" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="C28" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="D28" s="7">
-        <v>5</v>
-      </c>
-      <c r="E28" s="11"/>
-      <c r="F28" s="11"/>
+        <v>8</v>
+      </c>
+      <c r="D28" s="7"/>
+      <c r="E28" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="F28" s="11">
+        <v>100</v>
+      </c>
       <c r="G28" s="11"/>
       <c r="H28" s="15"/>
       <c r="I28" s="6"/>
       <c r="J28" s="6"/>
       <c r="K28" s="6"/>
-      <c r="L28" s="13"/>
+      <c r="L28" s="6"/>
       <c r="M28" s="18"/>
       <c r="N28" s="18"/>
     </row>
     <row r="29" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B29" s="5" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C29" s="14" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="D29" s="7"/>
-      <c r="E29" s="11"/>
-      <c r="F29" s="11"/>
+      <c r="E29" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F29" s="11">
+        <v>10000</v>
+      </c>
       <c r="G29" s="11"/>
       <c r="H29" s="15"/>
-      <c r="I29" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="J29" s="6">
-        <v>3</v>
-      </c>
-      <c r="K29" s="6">
-        <v>20</v>
-      </c>
-      <c r="L29" s="12">
-        <v>0.1</v>
-      </c>
-      <c r="M29" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="N29" s="18" t="s">
-        <v>49</v>
-      </c>
+      <c r="I29" s="6"/>
+      <c r="J29" s="6"/>
+      <c r="K29" s="6"/>
+      <c r="L29" s="13"/>
+      <c r="M29" s="18"/>
+      <c r="N29" s="18"/>
     </row>
     <row r="30" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B30" s="5" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="C30" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="D30" s="7"/>
-      <c r="E30" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="F30" s="11">
-        <v>5</v>
-      </c>
-      <c r="G30" s="11" t="s">
-        <v>35</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="D30" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="11"/>
       <c r="H30" s="15"/>
       <c r="I30" s="6"/>
       <c r="J30" s="6"/>
       <c r="K30" s="6"/>
-      <c r="L30" s="13"/>
+      <c r="L30" s="6"/>
       <c r="M30" s="18"/>
       <c r="N30" s="18"/>
     </row>
@@ -2145,10 +2417,10 @@
         <v>17</v>
       </c>
       <c r="C31" s="14" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D31" s="7">
-        <v>3</v>
+        <v>1519230487</v>
       </c>
       <c r="E31" s="11"/>
       <c r="F31" s="11"/>
@@ -2157,55 +2429,440 @@
       <c r="I31" s="6"/>
       <c r="J31" s="6"/>
       <c r="K31" s="6"/>
-      <c r="L31" s="13"/>
-      <c r="M31" s="19"/>
-      <c r="N31" s="19"/>
+      <c r="L31" s="6"/>
+      <c r="M31" s="18"/>
+      <c r="N31" s="18"/>
+    </row>
+    <row r="32" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B32" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C32" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="D32" s="7">
+        <v>1522257000</v>
+      </c>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="11"/>
+      <c r="H32" s="15"/>
+      <c r="I32" s="6"/>
+      <c r="J32" s="6"/>
+      <c r="K32" s="6"/>
+      <c r="L32" s="6"/>
+      <c r="M32" s="18"/>
+      <c r="N32" s="18"/>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B33" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C33" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D33" s="7">
+        <v>10</v>
+      </c>
+      <c r="E33" s="11"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="11"/>
+      <c r="H33" s="15"/>
+      <c r="I33" s="6"/>
+      <c r="J33" s="6"/>
+      <c r="K33" s="6"/>
+      <c r="L33" s="6"/>
+      <c r="M33" s="18"/>
+      <c r="N33" s="18"/>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B34" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C34" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D34" s="7">
+        <v>2</v>
+      </c>
+      <c r="E34" s="11"/>
+      <c r="F34" s="11"/>
+      <c r="G34" s="11"/>
+      <c r="H34" s="15"/>
+      <c r="I34" s="6"/>
+      <c r="J34" s="6"/>
+      <c r="K34" s="6"/>
+      <c r="L34" s="13"/>
+      <c r="M34" s="18"/>
+      <c r="N34" s="18"/>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B35" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C35" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E35" s="11"/>
+      <c r="F35" s="11"/>
+      <c r="G35" s="11"/>
+      <c r="H35" s="15"/>
+      <c r="I35" s="6"/>
+      <c r="J35" s="6"/>
+      <c r="K35" s="6"/>
+      <c r="L35" s="13"/>
+      <c r="M35" s="18"/>
+      <c r="N35" s="18"/>
+    </row>
+    <row r="36" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B36" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C36" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="E36" s="11"/>
+      <c r="F36" s="11"/>
+      <c r="G36" s="11"/>
+      <c r="H36" s="15"/>
+      <c r="I36" s="6"/>
+      <c r="J36" s="6"/>
+      <c r="K36" s="6"/>
+      <c r="L36" s="13"/>
+      <c r="M36" s="18"/>
+      <c r="N36" s="18"/>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B37" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C37" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="E37" s="11"/>
+      <c r="F37" s="11"/>
+      <c r="G37" s="11"/>
+      <c r="H37" s="15"/>
+      <c r="I37" s="6"/>
+      <c r="J37" s="6"/>
+      <c r="K37" s="6"/>
+      <c r="L37" s="13"/>
+      <c r="M37" s="18"/>
+      <c r="N37" s="18"/>
+    </row>
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B38" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C38" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="D38" s="7"/>
+      <c r="E38" s="11"/>
+      <c r="F38" s="11"/>
+      <c r="G38" s="11"/>
+      <c r="H38" s="15"/>
+      <c r="I38" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="J38" s="6">
+        <v>2</v>
+      </c>
+      <c r="K38" s="6">
+        <v>50</v>
+      </c>
+      <c r="L38" s="12">
+        <v>0.25</v>
+      </c>
+      <c r="M38" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="N38" s="18" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B39" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C39" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D39" s="7"/>
+      <c r="E39" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="F39" s="11">
+        <v>50</v>
+      </c>
+      <c r="G39" s="11"/>
+      <c r="H39" s="15"/>
+      <c r="I39" s="6"/>
+      <c r="J39" s="6"/>
+      <c r="K39" s="6"/>
+      <c r="L39" s="13"/>
+      <c r="M39" s="18"/>
+      <c r="N39" s="18"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B40" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C40" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D40" s="7"/>
+      <c r="E40" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F40" s="11">
+        <v>5000</v>
+      </c>
+      <c r="G40" s="11"/>
+      <c r="H40" s="15"/>
+      <c r="I40" s="6"/>
+      <c r="J40" s="6"/>
+      <c r="K40" s="6"/>
+      <c r="L40" s="13"/>
+      <c r="M40" s="18"/>
+      <c r="N40" s="18"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B41" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C41" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="D41" s="7">
+        <v>5</v>
+      </c>
+      <c r="E41" s="11"/>
+      <c r="F41" s="11"/>
+      <c r="G41" s="11"/>
+      <c r="H41" s="15"/>
+      <c r="I41" s="6"/>
+      <c r="J41" s="6"/>
+      <c r="K41" s="6"/>
+      <c r="L41" s="13"/>
+      <c r="M41" s="18"/>
+      <c r="N41" s="18"/>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B42" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C42" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="D42" s="7"/>
+      <c r="E42" s="11"/>
+      <c r="F42" s="11"/>
+      <c r="G42" s="11"/>
+      <c r="H42" s="15"/>
+      <c r="I42" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="J42" s="6">
+        <v>3</v>
+      </c>
+      <c r="K42" s="6">
+        <v>20</v>
+      </c>
+      <c r="L42" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="M42" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="N42" s="18" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B43" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C43" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D43" s="7"/>
+      <c r="E43" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F43" s="11">
+        <v>5</v>
+      </c>
+      <c r="G43" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="H43" s="15"/>
+      <c r="I43" s="6"/>
+      <c r="J43" s="6"/>
+      <c r="K43" s="6"/>
+      <c r="L43" s="13"/>
+      <c r="M43" s="18"/>
+      <c r="N43" s="18"/>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B44" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C44" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="D44" s="7">
+        <v>3</v>
+      </c>
+      <c r="E44" s="11"/>
+      <c r="F44" s="11"/>
+      <c r="G44" s="11"/>
+      <c r="H44" s="15"/>
+      <c r="I44" s="6"/>
+      <c r="J44" s="6"/>
+      <c r="K44" s="6"/>
+      <c r="L44" s="13"/>
+      <c r="M44" s="19"/>
+      <c r="N44" s="19"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="I5:N31">
-    <cfRule type="expression" dxfId="7" priority="9">
+  <conditionalFormatting sqref="I5:N13 I15:N25 I38:N44">
+    <cfRule type="expression" dxfId="24" priority="27">
       <formula>$B5&lt;&gt;"&lt;Definition&gt;"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E5:H22 F23:H23 E24:H31">
-    <cfRule type="expression" dxfId="6" priority="8">
+  <conditionalFormatting sqref="E5:H13 F24:H24 E15:H23 E25:H25 E38:H44">
+    <cfRule type="expression" dxfId="23" priority="26">
       <formula>$B5&lt;&gt;"&lt;Item&gt;"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D5:D14 D25:D31">
-    <cfRule type="expression" dxfId="5" priority="7">
+  <conditionalFormatting sqref="D5:D13 D15 D38:D44">
+    <cfRule type="expression" dxfId="22" priority="25">
       <formula>$B5&lt;&gt;"&lt;Param&gt;"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D15:D24">
-    <cfRule type="expression" dxfId="4" priority="4">
-      <formula>$B15&lt;&gt;"&lt;Param&gt;"</formula>
+  <conditionalFormatting sqref="D16:D25">
+    <cfRule type="expression" dxfId="21" priority="22">
+      <formula>$B16&lt;&gt;"&lt;Param&gt;"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B23:D23 B5:L22 F23:L23 B24:L31 M5:N31">
-    <cfRule type="expression" dxfId="3" priority="3">
+  <conditionalFormatting sqref="B24:D24 F24:L24 B5:N13 B15:L23 B25:L25 M15:N25 B38:N44">
+    <cfRule type="expression" dxfId="20" priority="21">
       <formula>$B5="&lt;Definition&gt;"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E23">
-    <cfRule type="expression" dxfId="2" priority="2">
-      <formula>$B23&lt;&gt;"&lt;Item&gt;"</formula>
+  <conditionalFormatting sqref="E24">
+    <cfRule type="expression" dxfId="19" priority="20">
+      <formula>$B24&lt;&gt;"&lt;Item&gt;"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E23">
-    <cfRule type="expression" dxfId="1" priority="1">
-      <formula>$B23="&lt;Definition&gt;"</formula>
+  <conditionalFormatting sqref="E24">
+    <cfRule type="expression" dxfId="18" priority="19">
+      <formula>$B24="&lt;Definition&gt;"</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations disablePrompts="1" count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5:B31" xr:uid="{00000000-0002-0000-0000-000000000000}">
+  <conditionalFormatting sqref="I14:N14">
+    <cfRule type="expression" dxfId="17" priority="18">
+      <formula>$B14&lt;&gt;"&lt;Definition&gt;"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E14:H14">
+    <cfRule type="expression" dxfId="16" priority="17">
+      <formula>$B14&lt;&gt;"&lt;Item&gt;"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D14">
+    <cfRule type="expression" dxfId="15" priority="16">
+      <formula>$B14&lt;&gt;"&lt;Param&gt;"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B14:N14">
+    <cfRule type="expression" dxfId="14" priority="15">
+      <formula>$B14="&lt;Definition&gt;"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I26:N34 I37:N37">
+    <cfRule type="expression" dxfId="13" priority="14">
+      <formula>$B26&lt;&gt;"&lt;Definition&gt;"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F34:H34 E26:H33 E37:H37">
+    <cfRule type="expression" dxfId="12" priority="13">
+      <formula>$B26&lt;&gt;"&lt;Item&gt;"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D26:D34 D37">
+    <cfRule type="expression" dxfId="11" priority="12">
+      <formula>$B26&lt;&gt;"&lt;Param&gt;"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B34:D34 F34:L34 B26:L33 M26:N34 B37:N37">
+    <cfRule type="expression" dxfId="10" priority="11">
+      <formula>$B26="&lt;Definition&gt;"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E34">
+    <cfRule type="expression" dxfId="9" priority="10">
+      <formula>$B34&lt;&gt;"&lt;Item&gt;"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E34">
+    <cfRule type="expression" dxfId="8" priority="9">
+      <formula>$B34="&lt;Definition&gt;"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I35:N35">
+    <cfRule type="expression" dxfId="7" priority="8">
+      <formula>$B35&lt;&gt;"&lt;Definition&gt;"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E35:H35">
+    <cfRule type="expression" dxfId="6" priority="7">
+      <formula>$B35&lt;&gt;"&lt;Item&gt;"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D35">
+    <cfRule type="expression" dxfId="5" priority="6">
+      <formula>$B35&lt;&gt;"&lt;Param&gt;"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B35:N35">
+    <cfRule type="expression" dxfId="4" priority="5">
+      <formula>$B35="&lt;Definition&gt;"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I36:N36">
+    <cfRule type="expression" dxfId="3" priority="4">
+      <formula>$B36&lt;&gt;"&lt;Definition&gt;"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E36:H36">
+    <cfRule type="expression" dxfId="2" priority="3">
+      <formula>$B36&lt;&gt;"&lt;Item&gt;"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D36">
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>$B36&lt;&gt;"&lt;Param&gt;"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B36:N36">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>$B36="&lt;Definition&gt;"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5:B44" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"&lt;Definition&gt;,&lt;Item&gt;,&lt;Param&gt;"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="C5:C31" xr:uid="{00000000-0002-0000-0000-000001000000}">
-      <formula1>"featured,startDate,endDate,countriesAllowed,countriesExcluded,gamesPlayed,frequency,maxViews,zone,payerType,minSpent,dragonOwned,dragonUnlocked,scBalanceRange,hcBalanceRange,openedEggs,petsOwnedCount,petsOwned,progressionRange,skinsUnlocked,skinsOwned"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E5:E22 E24:E31" xr:uid="{00000000-0002-0000-0000-000002000000}">
-      <formula1>"sc,pc,gf,egg,pet,skin"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2213,5 +2870,210 @@
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{6B978484-C36D-FE48-9BB2-8C5B7593D4D5}">
+          <x14:formula1>
+            <xm:f>ValidationData!$B$4:$B$9</xm:f>
+          </x14:formula1>
+          <xm:sqref>E5:E44</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" xr:uid="{B0D0AF8C-4D09-EC43-BF46-CC111321D414}">
+          <x14:formula1>
+            <xm:f>ValidationData!$D$4:$D$31</xm:f>
+          </x14:formula1>
+          <xm:sqref>C5:C44</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5DFF118-E2C0-E64C-BF6C-DD3AD8042DF7}">
+  <dimension ref="B2:D31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="23" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B2" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D3" s="20"/>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="21" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="21" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D6" s="21" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="21"/>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>66</v>
+      </c>
+      <c r="D9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D11" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D12" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D14" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D16" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D17" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D18" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="19" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D19" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="20" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D20" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="21" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D21" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="22" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D22" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="23" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D23" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="24" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D24" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="25" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D25" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="26" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D26" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="27" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D27" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="28" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D28" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="29" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D29" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="30" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D30" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="31" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D31" t="s">
+        <v>62</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/Docs/Content/HungryDragonContent_Offers.xlsx
+++ b/Docs/Content/HungryDragonContent_Offers.xlsx
@@ -8,13 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aortin/Documents/UBI/FD/Client/Docs/Content/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{C96F9033-5749-F447-9523-85F9E05BEDB5}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{7297086F-3DD4-7542-A532-E86AE4187E92}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38400" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38400" yWindow="0" windowWidth="38400" windowHeight="21600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="ValidationData" sheetId="2" r:id="rId2"/>
+    <sheet name="Packs" sheetId="3" r:id="rId1"/>
+    <sheet name="Items" sheetId="4" r:id="rId2"/>
+    <sheet name="OLD" sheetId="1" r:id="rId3"/>
+    <sheet name="ValidationData" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913" calcMode="manual"/>
   <extLst>
@@ -26,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="166">
   <si>
     <t>OFFER PACKS DEFINITIONS</t>
   </si>
@@ -250,13 +252,289 @@
   </si>
   <si>
     <t>dragon_chinese</t>
+  </si>
+  <si>
+    <t>offerPacksDefinitions_OLD</t>
+  </si>
+  <si>
+    <t>[enabled]</t>
+  </si>
+  <si>
+    <t>offer_pack_1</t>
+  </si>
+  <si>
+    <t>[featured]</t>
+  </si>
+  <si>
+    <t>[startDate]</t>
+  </si>
+  <si>
+    <t>[endDate]</t>
+  </si>
+  <si>
+    <t>[countriesAllowed]</t>
+  </si>
+  <si>
+    <t>[countriesExcluded]</t>
+  </si>
+  <si>
+    <t>[gamesPlayed]</t>
+  </si>
+  <si>
+    <t>[frequency]</t>
+  </si>
+  <si>
+    <t>[maxViews]</t>
+  </si>
+  <si>
+    <t>[zone]</t>
+  </si>
+  <si>
+    <t>[payerType]</t>
+  </si>
+  <si>
+    <t>[minSpent]</t>
+  </si>
+  <si>
+    <t>[dragonUnlocked]</t>
+  </si>
+  <si>
+    <t>[dragonOwned]</t>
+  </si>
+  <si>
+    <t>[dragonNotOwned]</t>
+  </si>
+  <si>
+    <t>[scBalanceRange]</t>
+  </si>
+  <si>
+    <t>[hcBalanceRange]</t>
+  </si>
+  <si>
+    <t>[openedEggs]</t>
+  </si>
+  <si>
+    <t>[petsOwnedCount]</t>
+  </si>
+  <si>
+    <t>[petsOwned]</t>
+  </si>
+  <si>
+    <t>[petsNotOwned]</t>
+  </si>
+  <si>
+    <t>[progressionRange]</t>
+  </si>
+  <si>
+    <t>[skinsUnlocked]</t>
+  </si>
+  <si>
+    <t>[skinsOwned]</t>
+  </si>
+  <si>
+    <t>4.99</t>
+  </si>
+  <si>
+    <t>Check Confluence doc for each parameter's format.</t>
+  </si>
+  <si>
+    <t>Use a tool like https://www.epochconverter.com/ for timestamps</t>
+  </si>
+  <si>
+    <t>offer_pack_2</t>
+  </si>
+  <si>
+    <t>offer_pack_3</t>
+  </si>
+  <si>
+    <t>offer_pack_4</t>
+  </si>
+  <si>
+    <t>offer_pack_5</t>
+  </si>
+  <si>
+    <t>offer_pack_6</t>
+  </si>
+  <si>
+    <t>offer_pack_7</t>
+  </si>
+  <si>
+    <t>offer_pack_8</t>
+  </si>
+  <si>
+    <t>offer_pack_9</t>
+  </si>
+  <si>
+    <t>offer_pack_10</t>
+  </si>
+  <si>
+    <t>offer_pack_11</t>
+  </si>
+  <si>
+    <t>offer_pack_12</t>
+  </si>
+  <si>
+    <t>com.ubisoft.hungrydragon.offer_pack_5</t>
+  </si>
+  <si>
+    <t>com.ubisoft.hungrydragon.offer_pack_6</t>
+  </si>
+  <si>
+    <t>com.ubisoft.hungrydragon.offer_pack_7</t>
+  </si>
+  <si>
+    <t>com.ubisoft.hungrydragon.offer_pack_8</t>
+  </si>
+  <si>
+    <t>com.ubisoft.hungrydragon.offer_pack_9</t>
+  </si>
+  <si>
+    <t>com.ubisoft.hungrydragon.offer_pack_10</t>
+  </si>
+  <si>
+    <t>com.ubisoft.hungrydragon.offer_pack_11</t>
+  </si>
+  <si>
+    <t>com.ubisoft.hungrydragon.offer_pack_12</t>
+  </si>
+  <si>
+    <t>1.4.1</t>
+  </si>
+  <si>
+    <t>{offerItemsDefinitions}</t>
+  </si>
+  <si>
+    <t>[item1]</t>
+  </si>
+  <si>
+    <t>[item2]</t>
+  </si>
+  <si>
+    <t>[item3]</t>
+  </si>
+  <si>
+    <t>[skinsNotOwned]</t>
+  </si>
+  <si>
+    <t>[type]</t>
+  </si>
+  <si>
+    <t>[amount]</t>
+  </si>
+  <si>
+    <t>offer_item_1</t>
+  </si>
+  <si>
+    <t>offer_item_2</t>
+  </si>
+  <si>
+    <t>offer_item_3</t>
+  </si>
+  <si>
+    <t>offer_item_4</t>
+  </si>
+  <si>
+    <t>offer_item_5</t>
+  </si>
+  <si>
+    <t>offer_item_6</t>
+  </si>
+  <si>
+    <t>offer_item_7</t>
+  </si>
+  <si>
+    <t>offer_item_8</t>
+  </si>
+  <si>
+    <t>offer_item_9</t>
+  </si>
+  <si>
+    <t>offer_item_10</t>
+  </si>
+  <si>
+    <t>offer_item_11</t>
+  </si>
+  <si>
+    <t>offer_item_12</t>
+  </si>
+  <si>
+    <t>offer_item_13</t>
+  </si>
+  <si>
+    <t>offer_item_14</t>
+  </si>
+  <si>
+    <t>offer_item_15</t>
+  </si>
+  <si>
+    <t>offer_item_16</t>
+  </si>
+  <si>
+    <t>offer_item_17</t>
+  </si>
+  <si>
+    <t>offer_item_18</t>
+  </si>
+  <si>
+    <t>offer_item_19</t>
+  </si>
+  <si>
+    <t>offer_item_20</t>
+  </si>
+  <si>
+    <t>offer_item_21</t>
+  </si>
+  <si>
+    <t>offer_item_22</t>
+  </si>
+  <si>
+    <t>offer_item_23</t>
+  </si>
+  <si>
+    <t>offer_item_24</t>
+  </si>
+  <si>
+    <t>offer_item_25</t>
+  </si>
+  <si>
+    <t>offer_item_26</t>
+  </si>
+  <si>
+    <t>offer_item_27</t>
+  </si>
+  <si>
+    <t>offer_item_28</t>
+  </si>
+  <si>
+    <t>offer_item_29</t>
+  </si>
+  <si>
+    <t>offer_item_30</t>
+  </si>
+  <si>
+    <t>offer_item_31</t>
+  </si>
+  <si>
+    <t>offer_item_32</t>
+  </si>
+  <si>
+    <t>offer_item_33</t>
+  </si>
+  <si>
+    <t>offer_item_34</t>
+  </si>
+  <si>
+    <t>offer_item_35</t>
+  </si>
+  <si>
+    <t>offer_item_36</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -322,8 +600,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -384,8 +670,32 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFAA8ED0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE3DAEF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -491,11 +801,81 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -554,11 +934,102 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="45" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="45"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="42">
+  <dxfs count="89">
     <dxf>
       <font>
         <b/>
@@ -1377,8 +1848,1746 @@
         <bottom/>
       </border>
     </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="13" formatCode="0%"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FFDCE6F1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FFDCE6F1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FFDCE6F1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FFDCE6F1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FFDCE6F1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FFDCE6F1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FFDCE6F1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FFDCE6F1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FFDCE6F1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FFDCE6F1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FFDCE6F1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FFDCE6F1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FFDCE6F1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FFDCE6F1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FFDCE6F1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FFDCE6F1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FFDCE6F1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FFDCE6F1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FFDCE6F1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFE3DAEF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFE3DAEF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFE3DAEF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFE3DAEF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="13" formatCode="0%"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FF95B3D7"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="45" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFE3DAEF"/>
+      <color rgb="FFAA8ED0"/>
+      <color rgb="FFC88ED0"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1391,10 +3600,70 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="offerPacksDefinitions" displayName="offerPacksDefinitions" ref="B4:N44" totalsRowShown="0" headerRowDxfId="41" dataDxfId="39" headerRowBorderDxfId="40" tableBorderDxfId="38">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{ED1A36F1-C81C-E240-B69D-05233E25FFBE}" name="offerPacksDefinitions" displayName="offerPacksDefinitions" ref="B2:AK14" totalsRowShown="0" headerRowDxfId="88" headerRowBorderDxfId="87" tableBorderDxfId="86">
+  <autoFilter ref="B2:AK14" xr:uid="{4F9A3A4D-2285-5F44-B96F-898511E3F95B}"/>
+  <tableColumns count="36">
+    <tableColumn id="1" xr3:uid="{5AA55AC3-7CB6-FC44-B07D-F51D2A78CC7F}" name="{offerPacksDefinitions}" dataDxfId="85"/>
+    <tableColumn id="2" xr3:uid="{769B23B4-E9A6-284B-90FD-39F89B1ACB9C}" name="[sku]" dataDxfId="84"/>
+    <tableColumn id="3" xr3:uid="{C2ECF4B3-5C1E-FA40-B693-9309C7BCA56C}" name="[enabled]" dataDxfId="83"/>
+    <tableColumn id="4" xr3:uid="{775C3509-403A-644A-86AD-77F63EA7574E}" name="[item1]" dataDxfId="82"/>
+    <tableColumn id="5" xr3:uid="{93FE19D6-1AD6-614B-A400-0C80FB077313}" name="[item2]" dataDxfId="81"/>
+    <tableColumn id="6" xr3:uid="{9A9C4E04-C2C4-9A4E-8267-2ED259FD6396}" name="[item3]" dataDxfId="80"/>
+    <tableColumn id="7" xr3:uid="{3DF96E69-A350-B74B-87E8-962A5358D4FE}" name="[order]" dataDxfId="79"/>
+    <tableColumn id="8" xr3:uid="{960853A1-6A63-CE44-AAA8-91A8A20AF5D0}" name="[refPrice]" dataDxfId="78"/>
+    <tableColumn id="9" xr3:uid="{686163E9-209F-D64B-8FC7-4F6917B59535}" name="[discount]" dataDxfId="77"/>
+    <tableColumn id="10" xr3:uid="{70F61F4A-125E-6643-9427-3AF37756BF1D}" name="[iapSku]" dataDxfId="76"/>
+    <tableColumn id="11" xr3:uid="{392047DC-2DF0-A248-BD8D-C510711B2715}" name="[tidName]" dataDxfId="75"/>
+    <tableColumn id="12" xr3:uid="{1A9730B6-30B6-1C4D-942F-461C1D96445D}" name="[featured]" dataDxfId="74"/>
+    <tableColumn id="13" xr3:uid="{4E307595-D830-8545-8566-5F0470CF29AB}" name="[maxViews]" dataDxfId="73"/>
+    <tableColumn id="14" xr3:uid="{FB4C12FD-07EB-1F4B-93B8-AD797245A23C}" name="[zone]" dataDxfId="72"/>
+    <tableColumn id="15" xr3:uid="{8D2DE5F3-FBDD-604E-A6FB-081C887B0E61}" name="[frequency]" dataDxfId="71"/>
+    <tableColumn id="16" xr3:uid="{3E5B5816-0024-0E47-AAF3-D9442AABDBC4}" name="[startDate]" dataDxfId="70"/>
+    <tableColumn id="17" xr3:uid="{6F9129DD-4054-AB4D-9D66-876B6196FB57}" name="[endDate]" dataDxfId="69"/>
+    <tableColumn id="18" xr3:uid="{3D155EBB-7C6E-4C4C-B541-2CE516975490}" name="[minAppVersion]" dataDxfId="68"/>
+    <tableColumn id="19" xr3:uid="{D3F1299F-F88F-D141-8EB7-0BFF97FC7451}" name="[countriesAllowed]" dataDxfId="67"/>
+    <tableColumn id="20" xr3:uid="{4BD03573-B9AE-E142-B845-87458F1C146E}" name="[countriesExcluded]" dataDxfId="66"/>
+    <tableColumn id="21" xr3:uid="{B7105B3F-72DE-C14C-9A41-5EC27FCB4916}" name="[gamesPlayed]" dataDxfId="65"/>
+    <tableColumn id="22" xr3:uid="{87DF1AE4-1EE5-E54B-AD5A-C43DE78722FA}" name="[payerType]" dataDxfId="64"/>
+    <tableColumn id="23" xr3:uid="{7DF15487-16A4-C64D-9B10-94ACDAA98F79}" name="[minSpent]" dataDxfId="63"/>
+    <tableColumn id="24" xr3:uid="{F92FED66-4C4F-A946-8E91-8023959BBA02}" name="[dragonUnlocked]" dataDxfId="62"/>
+    <tableColumn id="25" xr3:uid="{14A8C544-806C-354E-9E67-F45B793458A6}" name="[dragonOwned]" dataDxfId="61"/>
+    <tableColumn id="26" xr3:uid="{438DC746-388B-B04F-945D-53D911FFA0F7}" name="[dragonNotOwned]" dataDxfId="60"/>
+    <tableColumn id="27" xr3:uid="{0695E1EC-C75A-3646-8FA9-71A912B6B9AC}" name="[scBalanceRange]" dataDxfId="59"/>
+    <tableColumn id="28" xr3:uid="{2E794ABE-BB5B-1B46-BC02-2A0CA0443719}" name="[hcBalanceRange]" dataDxfId="58"/>
+    <tableColumn id="29" xr3:uid="{AA2978B6-89A3-8A4A-8060-29A4779643D5}" name="[openedEggs]" dataDxfId="57"/>
+    <tableColumn id="30" xr3:uid="{F1B00789-E048-674E-AE95-47F1DF292AC1}" name="[petsOwnedCount]" dataDxfId="56"/>
+    <tableColumn id="31" xr3:uid="{897170A1-2C50-9C4E-8236-A916C2ED996F}" name="[petsOwned]" dataDxfId="55"/>
+    <tableColumn id="32" xr3:uid="{779EAF2B-15DF-414D-9D3D-DEF167C11DBA}" name="[petsNotOwned]" dataDxfId="54"/>
+    <tableColumn id="33" xr3:uid="{4A6A119E-C556-EB4E-880F-1E1B883AC642}" name="[progressionRange]" dataDxfId="53"/>
+    <tableColumn id="34" xr3:uid="{AD71F6AD-47E0-5543-B2E3-10FCB940B2C0}" name="[skinsUnlocked]" dataDxfId="52"/>
+    <tableColumn id="35" xr3:uid="{A84F0E68-2635-2342-8D34-F24736CE36B2}" name="[skinsOwned]" dataDxfId="51"/>
+    <tableColumn id="36" xr3:uid="{3817307B-BA2C-4E4D-B2A1-ABCA643213CA}" name="[skinsNotOwned]" dataDxfId="50"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{04610754-5ED0-5E41-B954-7462132FFEC2}" name="offerItemsDefinitions" displayName="offerItemsDefinitions" ref="B2:G38" totalsRowShown="0" headerRowBorderDxfId="49" tableBorderDxfId="48">
+  <autoFilter ref="B2:G38" xr:uid="{D4C0794A-5423-DF44-BB3E-4FEE91E963EF}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{CDFF9D76-676F-CD42-843F-D81014EF49E4}" name="{offerItemsDefinitions}" dataDxfId="47"/>
+    <tableColumn id="2" xr3:uid="{4332E9A8-FF36-0946-B7F9-01362FCB91F0}" name="[sku]" dataDxfId="46"/>
+    <tableColumn id="3" xr3:uid="{6F915615-A632-534B-9CEC-EF0355B21B34}" name="[featured]" dataDxfId="45"/>
+    <tableColumn id="4" xr3:uid="{9CA5F155-FA3C-C148-8CA8-8B53398F8C04}" name="[type]" dataDxfId="44"/>
+    <tableColumn id="5" xr3:uid="{DEB48AFA-7AB3-E14F-9F10-B40C4A5D5330}" name="[amount]" dataDxfId="43"/>
+    <tableColumn id="6" xr3:uid="{07284125-DDB0-ED4B-84EA-A93ECC9950CD}" name="[itemSku]" dataDxfId="42"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="offerPacksDefinitions_OLD" displayName="offerPacksDefinitions_OLD" ref="B4:N44" totalsRowShown="0" headerRowDxfId="41" dataDxfId="39" headerRowBorderDxfId="40" tableBorderDxfId="38">
   <autoFilter ref="B4:N44" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="{offerPacksDefinitions}" dataDxfId="37"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="offerPacksDefinitions_OLD" dataDxfId="37"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="[sku]" dataDxfId="36"/>
     <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="[paramValue]" dataDxfId="35"/>
     <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="[itemType]" dataDxfId="34"/>
@@ -1708,11 +3977,1409 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C213BC37-2D64-1C49-9206-ADFE266D60BF}">
+  <dimension ref="B1:AK14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M11" sqref="M11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="4" customWidth="1"/>
+    <col min="2" max="2" width="15" customWidth="1"/>
+    <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5" customWidth="1"/>
+    <col min="9" max="10" width="12.1640625" customWidth="1"/>
+    <col min="11" max="11" width="37" customWidth="1"/>
+    <col min="12" max="12" width="30.33203125" customWidth="1"/>
+    <col min="13" max="13" width="13" customWidth="1"/>
+    <col min="14" max="14" width="14.5" customWidth="1"/>
+    <col min="16" max="16" width="14.6640625" customWidth="1"/>
+    <col min="17" max="17" width="13.6640625" customWidth="1"/>
+    <col min="18" max="18" width="13" customWidth="1"/>
+    <col min="19" max="19" width="20" customWidth="1"/>
+    <col min="20" max="20" width="21.83203125" customWidth="1"/>
+    <col min="21" max="21" width="22.83203125" customWidth="1"/>
+    <col min="22" max="22" width="17.6640625" customWidth="1"/>
+    <col min="23" max="23" width="15" customWidth="1"/>
+    <col min="24" max="24" width="14.1640625" customWidth="1"/>
+    <col min="25" max="25" width="21.1640625" customWidth="1"/>
+    <col min="26" max="26" width="18.83203125" customWidth="1"/>
+    <col min="27" max="27" width="22.5" customWidth="1"/>
+    <col min="28" max="28" width="20.5" customWidth="1"/>
+    <col min="29" max="29" width="21" customWidth="1"/>
+    <col min="30" max="30" width="16.6640625" customWidth="1"/>
+    <col min="31" max="31" width="22" customWidth="1"/>
+    <col min="32" max="32" width="15.83203125" customWidth="1"/>
+    <col min="33" max="33" width="19.6640625" customWidth="1"/>
+    <col min="34" max="34" width="22.33203125" customWidth="1"/>
+    <col min="35" max="35" width="19" customWidth="1"/>
+    <col min="36" max="36" width="16.5" customWidth="1"/>
+    <col min="37" max="37" width="20.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:37" s="26" customFormat="1" ht="154" x14ac:dyDescent="0.2">
+      <c r="H1" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="J1" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q1" s="52" t="s">
+        <v>102</v>
+      </c>
+      <c r="R1" s="52"/>
+      <c r="S1" s="51" t="s">
+        <v>101</v>
+      </c>
+      <c r="T1" s="51"/>
+      <c r="U1" s="51"/>
+      <c r="V1" s="51"/>
+      <c r="W1" s="51"/>
+      <c r="X1" s="51"/>
+      <c r="Y1" s="51"/>
+      <c r="Z1" s="51"/>
+      <c r="AA1" s="51"/>
+      <c r="AB1" s="51"/>
+      <c r="AC1" s="51"/>
+      <c r="AD1" s="51"/>
+      <c r="AE1" s="51"/>
+      <c r="AF1" s="51"/>
+      <c r="AG1" s="51"/>
+      <c r="AH1" s="51"/>
+      <c r="AI1" s="51"/>
+      <c r="AJ1" s="51"/>
+      <c r="AK1" s="51"/>
+    </row>
+    <row r="2" spans="2:37" ht="112" x14ac:dyDescent="0.2">
+      <c r="B2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="M2" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="N2" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="O2" s="25" t="s">
+        <v>85</v>
+      </c>
+      <c r="P2" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q2" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="R2" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="S2" s="39" t="s">
+        <v>13</v>
+      </c>
+      <c r="T2" s="39" t="s">
+        <v>80</v>
+      </c>
+      <c r="U2" s="39" t="s">
+        <v>81</v>
+      </c>
+      <c r="V2" s="39" t="s">
+        <v>82</v>
+      </c>
+      <c r="W2" s="39" t="s">
+        <v>86</v>
+      </c>
+      <c r="X2" s="39" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y2" s="39" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z2" s="39" t="s">
+        <v>89</v>
+      </c>
+      <c r="AA2" s="39" t="s">
+        <v>90</v>
+      </c>
+      <c r="AB2" s="39" t="s">
+        <v>91</v>
+      </c>
+      <c r="AC2" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="AD2" s="39" t="s">
+        <v>93</v>
+      </c>
+      <c r="AE2" s="39" t="s">
+        <v>94</v>
+      </c>
+      <c r="AF2" s="39" t="s">
+        <v>95</v>
+      </c>
+      <c r="AG2" s="39" t="s">
+        <v>96</v>
+      </c>
+      <c r="AH2" s="39" t="s">
+        <v>97</v>
+      </c>
+      <c r="AI2" s="39" t="s">
+        <v>98</v>
+      </c>
+      <c r="AJ2" s="39" t="s">
+        <v>99</v>
+      </c>
+      <c r="AK2" s="40" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="3" spans="2:37" x14ac:dyDescent="0.2">
+      <c r="B3" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="D3" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="29">
+        <v>0</v>
+      </c>
+      <c r="I3" s="30" t="s">
+        <v>100</v>
+      </c>
+      <c r="J3" s="31">
+        <v>0.5</v>
+      </c>
+      <c r="K3" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="L3" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="M3" s="44"/>
+      <c r="N3" s="44"/>
+      <c r="O3" s="44"/>
+      <c r="P3" s="45"/>
+      <c r="Q3" s="46"/>
+      <c r="R3" s="46"/>
+      <c r="S3" s="47" t="s">
+        <v>122</v>
+      </c>
+      <c r="T3" s="47"/>
+      <c r="U3" s="47"/>
+      <c r="V3" s="47"/>
+      <c r="W3" s="48"/>
+      <c r="X3" s="48"/>
+      <c r="Y3" s="47"/>
+      <c r="Z3" s="47"/>
+      <c r="AA3" s="47"/>
+      <c r="AB3" s="47"/>
+      <c r="AC3" s="48"/>
+      <c r="AD3" s="48"/>
+      <c r="AE3" s="47"/>
+      <c r="AF3" s="47"/>
+      <c r="AG3" s="47"/>
+      <c r="AH3" s="47"/>
+      <c r="AI3" s="48"/>
+      <c r="AJ3" s="48"/>
+      <c r="AK3" s="49"/>
+    </row>
+    <row r="4" spans="2:37" x14ac:dyDescent="0.2">
+      <c r="B4" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="28" t="s">
+        <v>103</v>
+      </c>
+      <c r="D4" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="29">
+        <v>0</v>
+      </c>
+      <c r="I4" s="30" t="s">
+        <v>100</v>
+      </c>
+      <c r="J4" s="31">
+        <v>0.5</v>
+      </c>
+      <c r="K4" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="L4" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="M4" s="44"/>
+      <c r="N4" s="44"/>
+      <c r="O4" s="44"/>
+      <c r="P4" s="45"/>
+      <c r="Q4" s="46"/>
+      <c r="R4" s="46"/>
+      <c r="S4" s="47" t="s">
+        <v>122</v>
+      </c>
+      <c r="T4" s="47"/>
+      <c r="U4" s="47"/>
+      <c r="V4" s="47"/>
+      <c r="W4" s="48"/>
+      <c r="X4" s="48"/>
+      <c r="Y4" s="47"/>
+      <c r="Z4" s="47"/>
+      <c r="AA4" s="47"/>
+      <c r="AB4" s="47"/>
+      <c r="AC4" s="48"/>
+      <c r="AD4" s="48"/>
+      <c r="AE4" s="47"/>
+      <c r="AF4" s="47"/>
+      <c r="AG4" s="47"/>
+      <c r="AH4" s="47"/>
+      <c r="AI4" s="48"/>
+      <c r="AJ4" s="48"/>
+      <c r="AK4" s="49"/>
+    </row>
+    <row r="5" spans="2:37" x14ac:dyDescent="0.2">
+      <c r="B5" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="D5" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="29">
+        <v>0</v>
+      </c>
+      <c r="I5" s="30" t="s">
+        <v>100</v>
+      </c>
+      <c r="J5" s="31">
+        <v>0.5</v>
+      </c>
+      <c r="K5" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="L5" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="M5" s="44"/>
+      <c r="N5" s="44"/>
+      <c r="O5" s="44"/>
+      <c r="P5" s="45"/>
+      <c r="Q5" s="46"/>
+      <c r="R5" s="46"/>
+      <c r="S5" s="47" t="s">
+        <v>122</v>
+      </c>
+      <c r="T5" s="47"/>
+      <c r="U5" s="47"/>
+      <c r="V5" s="47"/>
+      <c r="W5" s="48"/>
+      <c r="X5" s="48"/>
+      <c r="Y5" s="47"/>
+      <c r="Z5" s="47"/>
+      <c r="AA5" s="47"/>
+      <c r="AB5" s="47"/>
+      <c r="AC5" s="48"/>
+      <c r="AD5" s="48"/>
+      <c r="AE5" s="47"/>
+      <c r="AF5" s="47"/>
+      <c r="AG5" s="47"/>
+      <c r="AH5" s="47"/>
+      <c r="AI5" s="48"/>
+      <c r="AJ5" s="48"/>
+      <c r="AK5" s="49"/>
+    </row>
+    <row r="6" spans="2:37" x14ac:dyDescent="0.2">
+      <c r="B6" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="28" t="s">
+        <v>105</v>
+      </c>
+      <c r="D6" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="29">
+        <v>0</v>
+      </c>
+      <c r="I6" s="30" t="s">
+        <v>100</v>
+      </c>
+      <c r="J6" s="31">
+        <v>0.5</v>
+      </c>
+      <c r="K6" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="L6" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="M6" s="44"/>
+      <c r="N6" s="44"/>
+      <c r="O6" s="44"/>
+      <c r="P6" s="45"/>
+      <c r="Q6" s="46"/>
+      <c r="R6" s="46"/>
+      <c r="S6" s="47" t="s">
+        <v>122</v>
+      </c>
+      <c r="T6" s="47"/>
+      <c r="U6" s="47"/>
+      <c r="V6" s="47"/>
+      <c r="W6" s="48"/>
+      <c r="X6" s="48"/>
+      <c r="Y6" s="47"/>
+      <c r="Z6" s="47"/>
+      <c r="AA6" s="47"/>
+      <c r="AB6" s="47"/>
+      <c r="AC6" s="48"/>
+      <c r="AD6" s="48"/>
+      <c r="AE6" s="47"/>
+      <c r="AF6" s="47"/>
+      <c r="AG6" s="47"/>
+      <c r="AH6" s="47"/>
+      <c r="AI6" s="48"/>
+      <c r="AJ6" s="48"/>
+      <c r="AK6" s="49"/>
+    </row>
+    <row r="7" spans="2:37" x14ac:dyDescent="0.2">
+      <c r="B7" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="28" t="s">
+        <v>106</v>
+      </c>
+      <c r="D7" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="29">
+        <v>0</v>
+      </c>
+      <c r="I7" s="30" t="s">
+        <v>100</v>
+      </c>
+      <c r="J7" s="31">
+        <v>0.5</v>
+      </c>
+      <c r="K7" s="27" t="s">
+        <v>114</v>
+      </c>
+      <c r="L7" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="M7" s="44"/>
+      <c r="N7" s="44"/>
+      <c r="O7" s="44"/>
+      <c r="P7" s="45"/>
+      <c r="Q7" s="46"/>
+      <c r="R7" s="46"/>
+      <c r="S7" s="47" t="s">
+        <v>122</v>
+      </c>
+      <c r="T7" s="47"/>
+      <c r="U7" s="47"/>
+      <c r="V7" s="47"/>
+      <c r="W7" s="48"/>
+      <c r="X7" s="48"/>
+      <c r="Y7" s="47"/>
+      <c r="Z7" s="47"/>
+      <c r="AA7" s="47"/>
+      <c r="AB7" s="47"/>
+      <c r="AC7" s="48"/>
+      <c r="AD7" s="48"/>
+      <c r="AE7" s="47"/>
+      <c r="AF7" s="47"/>
+      <c r="AG7" s="47"/>
+      <c r="AH7" s="47"/>
+      <c r="AI7" s="48"/>
+      <c r="AJ7" s="48"/>
+      <c r="AK7" s="49"/>
+    </row>
+    <row r="8" spans="2:37" x14ac:dyDescent="0.2">
+      <c r="B8" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="28" t="s">
+        <v>107</v>
+      </c>
+      <c r="D8" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="29">
+        <v>0</v>
+      </c>
+      <c r="I8" s="30" t="s">
+        <v>100</v>
+      </c>
+      <c r="J8" s="31">
+        <v>0.5</v>
+      </c>
+      <c r="K8" s="27" t="s">
+        <v>115</v>
+      </c>
+      <c r="L8" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="M8" s="44"/>
+      <c r="N8" s="44"/>
+      <c r="O8" s="44"/>
+      <c r="P8" s="45"/>
+      <c r="Q8" s="46"/>
+      <c r="R8" s="46"/>
+      <c r="S8" s="47" t="s">
+        <v>122</v>
+      </c>
+      <c r="T8" s="47"/>
+      <c r="U8" s="47"/>
+      <c r="V8" s="47"/>
+      <c r="W8" s="48"/>
+      <c r="X8" s="48"/>
+      <c r="Y8" s="47"/>
+      <c r="Z8" s="47"/>
+      <c r="AA8" s="47"/>
+      <c r="AB8" s="47"/>
+      <c r="AC8" s="48"/>
+      <c r="AD8" s="48"/>
+      <c r="AE8" s="47"/>
+      <c r="AF8" s="47"/>
+      <c r="AG8" s="47"/>
+      <c r="AH8" s="47"/>
+      <c r="AI8" s="48"/>
+      <c r="AJ8" s="48"/>
+      <c r="AK8" s="49"/>
+    </row>
+    <row r="9" spans="2:37" x14ac:dyDescent="0.2">
+      <c r="B9" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="D9" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="29">
+        <v>0</v>
+      </c>
+      <c r="I9" s="30" t="s">
+        <v>100</v>
+      </c>
+      <c r="J9" s="31">
+        <v>0.5</v>
+      </c>
+      <c r="K9" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="L9" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="M9" s="44"/>
+      <c r="N9" s="44"/>
+      <c r="O9" s="44"/>
+      <c r="P9" s="45"/>
+      <c r="Q9" s="46"/>
+      <c r="R9" s="46"/>
+      <c r="S9" s="47" t="s">
+        <v>122</v>
+      </c>
+      <c r="T9" s="47"/>
+      <c r="U9" s="47"/>
+      <c r="V9" s="47"/>
+      <c r="W9" s="48"/>
+      <c r="X9" s="48"/>
+      <c r="Y9" s="47"/>
+      <c r="Z9" s="47"/>
+      <c r="AA9" s="47"/>
+      <c r="AB9" s="47"/>
+      <c r="AC9" s="48"/>
+      <c r="AD9" s="48"/>
+      <c r="AE9" s="47"/>
+      <c r="AF9" s="47"/>
+      <c r="AG9" s="47"/>
+      <c r="AH9" s="47"/>
+      <c r="AI9" s="48"/>
+      <c r="AJ9" s="48"/>
+      <c r="AK9" s="49"/>
+    </row>
+    <row r="10" spans="2:37" x14ac:dyDescent="0.2">
+      <c r="B10" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="28" t="s">
+        <v>109</v>
+      </c>
+      <c r="D10" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="29">
+        <v>0</v>
+      </c>
+      <c r="I10" s="30" t="s">
+        <v>100</v>
+      </c>
+      <c r="J10" s="31">
+        <v>0.5</v>
+      </c>
+      <c r="K10" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="L10" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="M10" s="44"/>
+      <c r="N10" s="44"/>
+      <c r="O10" s="44"/>
+      <c r="P10" s="45"/>
+      <c r="Q10" s="46"/>
+      <c r="R10" s="46"/>
+      <c r="S10" s="47" t="s">
+        <v>122</v>
+      </c>
+      <c r="T10" s="47"/>
+      <c r="U10" s="47"/>
+      <c r="V10" s="47"/>
+      <c r="W10" s="48"/>
+      <c r="X10" s="48"/>
+      <c r="Y10" s="47"/>
+      <c r="Z10" s="47"/>
+      <c r="AA10" s="47"/>
+      <c r="AB10" s="47"/>
+      <c r="AC10" s="48"/>
+      <c r="AD10" s="48"/>
+      <c r="AE10" s="47"/>
+      <c r="AF10" s="47"/>
+      <c r="AG10" s="47"/>
+      <c r="AH10" s="47"/>
+      <c r="AI10" s="48"/>
+      <c r="AJ10" s="48"/>
+      <c r="AK10" s="49"/>
+    </row>
+    <row r="11" spans="2:37" x14ac:dyDescent="0.2">
+      <c r="B11" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="D11" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="29">
+        <v>0</v>
+      </c>
+      <c r="I11" s="30" t="s">
+        <v>100</v>
+      </c>
+      <c r="J11" s="31">
+        <v>0.5</v>
+      </c>
+      <c r="K11" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="L11" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="M11" s="44"/>
+      <c r="N11" s="44"/>
+      <c r="O11" s="44"/>
+      <c r="P11" s="45"/>
+      <c r="Q11" s="46"/>
+      <c r="R11" s="46"/>
+      <c r="S11" s="47" t="s">
+        <v>122</v>
+      </c>
+      <c r="T11" s="47"/>
+      <c r="U11" s="47"/>
+      <c r="V11" s="47"/>
+      <c r="W11" s="48"/>
+      <c r="X11" s="48"/>
+      <c r="Y11" s="47"/>
+      <c r="Z11" s="47"/>
+      <c r="AA11" s="47"/>
+      <c r="AB11" s="47"/>
+      <c r="AC11" s="48"/>
+      <c r="AD11" s="48"/>
+      <c r="AE11" s="47"/>
+      <c r="AF11" s="47"/>
+      <c r="AG11" s="47"/>
+      <c r="AH11" s="47"/>
+      <c r="AI11" s="48"/>
+      <c r="AJ11" s="48"/>
+      <c r="AK11" s="49"/>
+    </row>
+    <row r="12" spans="2:37" x14ac:dyDescent="0.2">
+      <c r="B12" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="28" t="s">
+        <v>111</v>
+      </c>
+      <c r="D12" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="29">
+        <v>0</v>
+      </c>
+      <c r="I12" s="30" t="s">
+        <v>100</v>
+      </c>
+      <c r="J12" s="31">
+        <v>0.5</v>
+      </c>
+      <c r="K12" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="L12" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="M12" s="44"/>
+      <c r="N12" s="44"/>
+      <c r="O12" s="44"/>
+      <c r="P12" s="45"/>
+      <c r="Q12" s="46"/>
+      <c r="R12" s="46"/>
+      <c r="S12" s="47" t="s">
+        <v>122</v>
+      </c>
+      <c r="T12" s="47"/>
+      <c r="U12" s="47"/>
+      <c r="V12" s="47"/>
+      <c r="W12" s="48"/>
+      <c r="X12" s="48"/>
+      <c r="Y12" s="47"/>
+      <c r="Z12" s="47"/>
+      <c r="AA12" s="47"/>
+      <c r="AB12" s="47"/>
+      <c r="AC12" s="48"/>
+      <c r="AD12" s="48"/>
+      <c r="AE12" s="47"/>
+      <c r="AF12" s="47"/>
+      <c r="AG12" s="47"/>
+      <c r="AH12" s="47"/>
+      <c r="AI12" s="48"/>
+      <c r="AJ12" s="48"/>
+      <c r="AK12" s="49"/>
+    </row>
+    <row r="13" spans="2:37" x14ac:dyDescent="0.2">
+      <c r="B13" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="28" t="s">
+        <v>112</v>
+      </c>
+      <c r="D13" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="29">
+        <v>0</v>
+      </c>
+      <c r="I13" s="30" t="s">
+        <v>100</v>
+      </c>
+      <c r="J13" s="31">
+        <v>0.5</v>
+      </c>
+      <c r="K13" s="27" t="s">
+        <v>120</v>
+      </c>
+      <c r="L13" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="M13" s="44"/>
+      <c r="N13" s="44"/>
+      <c r="O13" s="44"/>
+      <c r="P13" s="45"/>
+      <c r="Q13" s="46"/>
+      <c r="R13" s="46"/>
+      <c r="S13" s="47" t="s">
+        <v>122</v>
+      </c>
+      <c r="T13" s="47"/>
+      <c r="U13" s="47"/>
+      <c r="V13" s="47"/>
+      <c r="W13" s="48"/>
+      <c r="X13" s="48"/>
+      <c r="Y13" s="47"/>
+      <c r="Z13" s="47"/>
+      <c r="AA13" s="47"/>
+      <c r="AB13" s="47"/>
+      <c r="AC13" s="48"/>
+      <c r="AD13" s="48"/>
+      <c r="AE13" s="47"/>
+      <c r="AF13" s="47"/>
+      <c r="AG13" s="47"/>
+      <c r="AH13" s="47"/>
+      <c r="AI13" s="48"/>
+      <c r="AJ13" s="48"/>
+      <c r="AK13" s="49"/>
+    </row>
+    <row r="14" spans="2:37" x14ac:dyDescent="0.2">
+      <c r="B14" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="34" t="s">
+        <v>113</v>
+      </c>
+      <c r="D14" s="35" t="b">
+        <v>0</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="36">
+        <v>0</v>
+      </c>
+      <c r="I14" s="41" t="s">
+        <v>100</v>
+      </c>
+      <c r="J14" s="38">
+        <v>0.5</v>
+      </c>
+      <c r="K14" s="42" t="s">
+        <v>121</v>
+      </c>
+      <c r="L14" s="43" t="s">
+        <v>44</v>
+      </c>
+      <c r="M14" s="50"/>
+      <c r="N14" s="44"/>
+      <c r="O14" s="44"/>
+      <c r="P14" s="45"/>
+      <c r="Q14" s="46"/>
+      <c r="R14" s="46"/>
+      <c r="S14" s="47" t="s">
+        <v>122</v>
+      </c>
+      <c r="T14" s="47"/>
+      <c r="U14" s="47"/>
+      <c r="V14" s="47"/>
+      <c r="W14" s="48"/>
+      <c r="X14" s="48"/>
+      <c r="Y14" s="47"/>
+      <c r="Z14" s="47"/>
+      <c r="AA14" s="47"/>
+      <c r="AB14" s="47"/>
+      <c r="AC14" s="48"/>
+      <c r="AD14" s="48"/>
+      <c r="AE14" s="47"/>
+      <c r="AF14" s="47"/>
+      <c r="AG14" s="47"/>
+      <c r="AH14" s="47"/>
+      <c r="AI14" s="48"/>
+      <c r="AJ14" s="48"/>
+      <c r="AK14" s="49"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="S1:AK1"/>
+    <mergeCell ref="Q1:R1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED217350-C2FE-AD4B-876A-D4EF0AF3C693}">
+  <dimension ref="B1:G38"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="4" customWidth="1"/>
+    <col min="2" max="2" width="13.5" customWidth="1"/>
+    <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13" customWidth="1"/>
+    <col min="6" max="6" width="12.33203125" customWidth="1"/>
+    <col min="7" max="7" width="12.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:7" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+    </row>
+    <row r="2" spans="2:7" ht="112" x14ac:dyDescent="0.2">
+      <c r="B2" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B3" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="28" t="s">
+        <v>130</v>
+      </c>
+      <c r="D3" s="22"/>
+      <c r="E3" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="32">
+        <v>1</v>
+      </c>
+      <c r="G3" s="31"/>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B4" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="28" t="s">
+        <v>131</v>
+      </c>
+      <c r="D4" s="22"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="31"/>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B5" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="28" t="s">
+        <v>132</v>
+      </c>
+      <c r="D5" s="22"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="32"/>
+      <c r="G5" s="31"/>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B6" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="D6" s="22"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="32"/>
+      <c r="G6" s="31"/>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B7" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="28" t="s">
+        <v>134</v>
+      </c>
+      <c r="D7" s="22"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="32"/>
+      <c r="G7" s="31"/>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B8" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="28" t="s">
+        <v>135</v>
+      </c>
+      <c r="D8" s="22"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="32"/>
+      <c r="G8" s="31"/>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B9" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="28" t="s">
+        <v>136</v>
+      </c>
+      <c r="D9" s="22"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="32"/>
+      <c r="G9" s="31"/>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B10" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="28" t="s">
+        <v>137</v>
+      </c>
+      <c r="D10" s="22"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="31"/>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B11" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="28" t="s">
+        <v>138</v>
+      </c>
+      <c r="D11" s="22"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="32"/>
+      <c r="G11" s="31"/>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B12" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="28" t="s">
+        <v>139</v>
+      </c>
+      <c r="D12" s="22"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="32"/>
+      <c r="G12" s="31"/>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B13" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="28" t="s">
+        <v>140</v>
+      </c>
+      <c r="D13" s="22"/>
+      <c r="E13" s="29"/>
+      <c r="F13" s="32"/>
+      <c r="G13" s="31"/>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B14" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="28" t="s">
+        <v>141</v>
+      </c>
+      <c r="D14" s="22"/>
+      <c r="E14" s="29"/>
+      <c r="F14" s="32"/>
+      <c r="G14" s="31"/>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B15" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="28" t="s">
+        <v>142</v>
+      </c>
+      <c r="D15" s="22"/>
+      <c r="E15" s="29"/>
+      <c r="F15" s="32"/>
+      <c r="G15" s="31"/>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B16" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" s="28" t="s">
+        <v>143</v>
+      </c>
+      <c r="D16" s="22"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="32"/>
+      <c r="G16" s="31"/>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B17" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" s="28" t="s">
+        <v>144</v>
+      </c>
+      <c r="D17" s="22"/>
+      <c r="E17" s="29"/>
+      <c r="F17" s="32"/>
+      <c r="G17" s="31"/>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B18" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="28" t="s">
+        <v>145</v>
+      </c>
+      <c r="D18" s="22"/>
+      <c r="E18" s="29"/>
+      <c r="F18" s="32"/>
+      <c r="G18" s="31"/>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B19" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" s="28" t="s">
+        <v>146</v>
+      </c>
+      <c r="D19" s="22"/>
+      <c r="E19" s="29"/>
+      <c r="F19" s="32"/>
+      <c r="G19" s="31"/>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B20" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C20" s="28" t="s">
+        <v>147</v>
+      </c>
+      <c r="D20" s="22"/>
+      <c r="E20" s="29"/>
+      <c r="F20" s="32"/>
+      <c r="G20" s="31"/>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B21" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21" s="28" t="s">
+        <v>148</v>
+      </c>
+      <c r="D21" s="22"/>
+      <c r="E21" s="29"/>
+      <c r="F21" s="32"/>
+      <c r="G21" s="31"/>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B22" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C22" s="28" t="s">
+        <v>149</v>
+      </c>
+      <c r="D22" s="22"/>
+      <c r="E22" s="29"/>
+      <c r="F22" s="32"/>
+      <c r="G22" s="31"/>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B23" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23" s="28" t="s">
+        <v>150</v>
+      </c>
+      <c r="D23" s="22"/>
+      <c r="E23" s="29"/>
+      <c r="F23" s="32"/>
+      <c r="G23" s="31"/>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B24" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C24" s="28" t="s">
+        <v>151</v>
+      </c>
+      <c r="D24" s="22"/>
+      <c r="E24" s="29"/>
+      <c r="F24" s="32"/>
+      <c r="G24" s="31"/>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B25" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C25" s="28" t="s">
+        <v>152</v>
+      </c>
+      <c r="D25" s="22"/>
+      <c r="E25" s="29"/>
+      <c r="F25" s="32"/>
+      <c r="G25" s="31"/>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B26" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C26" s="28" t="s">
+        <v>153</v>
+      </c>
+      <c r="D26" s="22"/>
+      <c r="E26" s="29"/>
+      <c r="F26" s="32"/>
+      <c r="G26" s="31"/>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B27" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="28" t="s">
+        <v>154</v>
+      </c>
+      <c r="D27" s="22"/>
+      <c r="E27" s="29"/>
+      <c r="F27" s="32"/>
+      <c r="G27" s="31"/>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B28" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C28" s="28" t="s">
+        <v>155</v>
+      </c>
+      <c r="D28" s="22"/>
+      <c r="E28" s="29"/>
+      <c r="F28" s="32"/>
+      <c r="G28" s="31"/>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B29" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C29" s="28" t="s">
+        <v>156</v>
+      </c>
+      <c r="D29" s="22"/>
+      <c r="E29" s="29"/>
+      <c r="F29" s="32"/>
+      <c r="G29" s="31"/>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B30" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C30" s="28" t="s">
+        <v>157</v>
+      </c>
+      <c r="D30" s="22"/>
+      <c r="E30" s="29"/>
+      <c r="F30" s="32"/>
+      <c r="G30" s="31"/>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B31" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C31" s="28" t="s">
+        <v>158</v>
+      </c>
+      <c r="D31" s="22"/>
+      <c r="E31" s="29"/>
+      <c r="F31" s="32"/>
+      <c r="G31" s="31"/>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B32" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C32" s="28" t="s">
+        <v>159</v>
+      </c>
+      <c r="D32" s="22"/>
+      <c r="E32" s="29"/>
+      <c r="F32" s="32"/>
+      <c r="G32" s="31"/>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B33" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33" s="28" t="s">
+        <v>160</v>
+      </c>
+      <c r="D33" s="22"/>
+      <c r="E33" s="29"/>
+      <c r="F33" s="32"/>
+      <c r="G33" s="31"/>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B34" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C34" s="28" t="s">
+        <v>161</v>
+      </c>
+      <c r="D34" s="22"/>
+      <c r="E34" s="29"/>
+      <c r="F34" s="32"/>
+      <c r="G34" s="31"/>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B35" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C35" s="28" t="s">
+        <v>162</v>
+      </c>
+      <c r="D35" s="22"/>
+      <c r="E35" s="29"/>
+      <c r="F35" s="32"/>
+      <c r="G35" s="31"/>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B36" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C36" s="28" t="s">
+        <v>163</v>
+      </c>
+      <c r="D36" s="22"/>
+      <c r="E36" s="29"/>
+      <c r="F36" s="32"/>
+      <c r="G36" s="31"/>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B37" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C37" s="28" t="s">
+        <v>164</v>
+      </c>
+      <c r="D37" s="22"/>
+      <c r="E37" s="29"/>
+      <c r="F37" s="32"/>
+      <c r="G37" s="31"/>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B38" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="C38" s="34" t="s">
+        <v>165</v>
+      </c>
+      <c r="D38" s="35"/>
+      <c r="E38" s="29"/>
+      <c r="F38" s="37"/>
+      <c r="G38" s="31"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" xr:uid="{82F0CDD5-614E-894D-B344-C4AC23E531DA}">
+          <x14:formula1>
+            <xm:f>ValidationData!$B$4:$B$9</xm:f>
+          </x14:formula1>
+          <xm:sqref>E3:E38</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:P44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="131" workbookViewId="0">
-      <selection activeCell="L27" sqref="L27"/>
+    <sheetView zoomScale="131" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1765,9 +5432,9 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="2:16" ht="112" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:16" ht="127" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
-        <v>4</v>
+        <v>74</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>1</v>
@@ -2891,12 +6558,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5DFF118-E2C0-E64C-BF6C-DD3AD8042DF7}">
   <dimension ref="B2:D31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+      <selection activeCell="D8" sqref="D8:D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/Docs/Content/HungryDragonContent_Offers.xlsx
+++ b/Docs/Content/HungryDragonContent_Offers.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10319"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aortin/Documents/UBI/FD/Client/Docs/Content/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hsemroud\Documents\Dragon\Docs\Content\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{7297086F-3DD4-7542-A532-E86AE4187E92}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38400" yWindow="0" windowWidth="38400" windowHeight="21600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38400" yWindow="0" windowWidth="38400" windowHeight="21600" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Packs" sheetId="3" r:id="rId1"/>
@@ -28,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="163">
   <si>
     <t>OFFER PACKS DEFINITIONS</t>
   </si>
@@ -260,9 +259,6 @@
     <t>[enabled]</t>
   </si>
   <si>
-    <t>offer_pack_1</t>
-  </si>
-  <si>
     <t>[featured]</t>
   </si>
   <si>
@@ -341,63 +337,6 @@
     <t>Use a tool like https://www.epochconverter.com/ for timestamps</t>
   </si>
   <si>
-    <t>offer_pack_2</t>
-  </si>
-  <si>
-    <t>offer_pack_3</t>
-  </si>
-  <si>
-    <t>offer_pack_4</t>
-  </si>
-  <si>
-    <t>offer_pack_5</t>
-  </si>
-  <si>
-    <t>offer_pack_6</t>
-  </si>
-  <si>
-    <t>offer_pack_7</t>
-  </si>
-  <si>
-    <t>offer_pack_8</t>
-  </si>
-  <si>
-    <t>offer_pack_9</t>
-  </si>
-  <si>
-    <t>offer_pack_10</t>
-  </si>
-  <si>
-    <t>offer_pack_11</t>
-  </si>
-  <si>
-    <t>offer_pack_12</t>
-  </si>
-  <si>
-    <t>com.ubisoft.hungrydragon.offer_pack_5</t>
-  </si>
-  <si>
-    <t>com.ubisoft.hungrydragon.offer_pack_6</t>
-  </si>
-  <si>
-    <t>com.ubisoft.hungrydragon.offer_pack_7</t>
-  </si>
-  <si>
-    <t>com.ubisoft.hungrydragon.offer_pack_8</t>
-  </si>
-  <si>
-    <t>com.ubisoft.hungrydragon.offer_pack_9</t>
-  </si>
-  <si>
-    <t>com.ubisoft.hungrydragon.offer_pack_10</t>
-  </si>
-  <si>
-    <t>com.ubisoft.hungrydragon.offer_pack_11</t>
-  </si>
-  <si>
-    <t>com.ubisoft.hungrydragon.offer_pack_12</t>
-  </si>
-  <si>
     <t>1.4.1</t>
   </si>
   <si>
@@ -425,118 +364,176 @@
     <t>offer_item_1</t>
   </si>
   <si>
-    <t>offer_item_2</t>
-  </si>
-  <si>
-    <t>offer_item_3</t>
-  </si>
-  <si>
-    <t>offer_item_4</t>
-  </si>
-  <si>
-    <t>offer_item_5</t>
-  </si>
-  <si>
-    <t>offer_item_6</t>
-  </si>
-  <si>
-    <t>offer_item_7</t>
-  </si>
-  <si>
-    <t>offer_item_8</t>
-  </si>
-  <si>
-    <t>offer_item_9</t>
-  </si>
-  <si>
-    <t>offer_item_10</t>
-  </si>
-  <si>
-    <t>offer_item_11</t>
-  </si>
-  <si>
-    <t>offer_item_12</t>
-  </si>
-  <si>
-    <t>offer_item_13</t>
-  </si>
-  <si>
-    <t>offer_item_14</t>
-  </si>
-  <si>
-    <t>offer_item_15</t>
-  </si>
-  <si>
-    <t>offer_item_16</t>
-  </si>
-  <si>
-    <t>offer_item_17</t>
-  </si>
-  <si>
-    <t>offer_item_18</t>
-  </si>
-  <si>
-    <t>offer_item_19</t>
-  </si>
-  <si>
-    <t>offer_item_20</t>
-  </si>
-  <si>
-    <t>offer_item_21</t>
-  </si>
-  <si>
-    <t>offer_item_22</t>
-  </si>
-  <si>
-    <t>offer_item_23</t>
-  </si>
-  <si>
-    <t>offer_item_24</t>
-  </si>
-  <si>
-    <t>offer_item_25</t>
-  </si>
-  <si>
-    <t>offer_item_26</t>
-  </si>
-  <si>
-    <t>offer_item_27</t>
-  </si>
-  <si>
-    <t>offer_item_28</t>
-  </si>
-  <si>
-    <t>offer_item_29</t>
-  </si>
-  <si>
-    <t>offer_item_30</t>
-  </si>
-  <si>
-    <t>offer_item_31</t>
-  </si>
-  <si>
-    <t>offer_item_32</t>
-  </si>
-  <si>
-    <t>offer_item_33</t>
-  </si>
-  <si>
-    <t>offer_item_34</t>
-  </si>
-  <si>
-    <t>offer_item_35</t>
-  </si>
-  <si>
-    <t>offer_item_36</t>
+    <t>pet_28</t>
+  </si>
+  <si>
+    <t>pet_29</t>
+  </si>
+  <si>
+    <t>pet_35</t>
+  </si>
+  <si>
+    <t>com.ubisoft.hungrydragon.starterpack</t>
+  </si>
+  <si>
+    <t>com.ubisoft.hungrydragon.intermediatepack</t>
+  </si>
+  <si>
+    <t>com.ubisoft.hungrydragon.advancedpack</t>
+  </si>
+  <si>
+    <t>com.ubisoft.hungrydragon.progressionpack1</t>
+  </si>
+  <si>
+    <t>com.ubisoft.hungrydragon.progressionpack2</t>
+  </si>
+  <si>
+    <t>com.ubisoft.hungrydragon.progressionpack3</t>
+  </si>
+  <si>
+    <t>com.ubisoft.hungrydragon.seasonalpack1</t>
+  </si>
+  <si>
+    <t>com.ubisoft.hungrydragon.seasonalpack2</t>
+  </si>
+  <si>
+    <t>com.ubisoft.hungrydragon.seasonalpack3</t>
+  </si>
+  <si>
+    <t>com.ubisoft.hungrydragon.campaign1promo2</t>
+  </si>
+  <si>
+    <t>com.ubisoft.hungrydragon.campaign1promo5</t>
+  </si>
+  <si>
+    <t>com.ubisoft.hungrydragon.campaign1promo10</t>
+  </si>
+  <si>
+    <t>com.ubisoft.hungrydragon.campaign1promo20</t>
+  </si>
+  <si>
+    <t>com.ubisoft.hungrydragon.campaign1promo40</t>
+  </si>
+  <si>
+    <t>com.ubisoft.hungrydragon.campaign1promo60</t>
+  </si>
+  <si>
+    <t>com.ubisoft.hungrydragon.campaign2promo2</t>
+  </si>
+  <si>
+    <t>com.ubisoft.hungrydragon.campaign2promo5</t>
+  </si>
+  <si>
+    <t>com.ubisoft.hungrydragon.campaign2promo10</t>
+  </si>
+  <si>
+    <t>com.ubisoft.hungrydragon.campaign2promo20</t>
+  </si>
+  <si>
+    <t>com.ubisoft.hungrydragon.campaign2promo40</t>
+  </si>
+  <si>
+    <t>com.ubisoft.hungrydragon.campaign2promo60</t>
+  </si>
+  <si>
+    <t>1.99</t>
+  </si>
+  <si>
+    <t>9.99</t>
+  </si>
+  <si>
+    <t>19.99</t>
+  </si>
+  <si>
+    <t>39.99</t>
+  </si>
+  <si>
+    <t>59.99</t>
+  </si>
+  <si>
+    <t>starterPack</t>
+  </si>
+  <si>
+    <t>intermediatePack</t>
+  </si>
+  <si>
+    <t>advancedPack</t>
+  </si>
+  <si>
+    <t>progressionPack1</t>
+  </si>
+  <si>
+    <t>progressionPack2</t>
+  </si>
+  <si>
+    <t>progressionPack3</t>
+  </si>
+  <si>
+    <t>seasonalPack1</t>
+  </si>
+  <si>
+    <t>seasonalPack2</t>
+  </si>
+  <si>
+    <t>seasonalPack3</t>
+  </si>
+  <si>
+    <t>campaign1Promo2</t>
+  </si>
+  <si>
+    <t>campaign1Promo5</t>
+  </si>
+  <si>
+    <t>campaign1Promo10</t>
+  </si>
+  <si>
+    <t>campaign1Promo20</t>
+  </si>
+  <si>
+    <t>campaign1Promo40</t>
+  </si>
+  <si>
+    <t>campaign1Promo60</t>
+  </si>
+  <si>
+    <t>campaign2Promo2</t>
+  </si>
+  <si>
+    <t>campaign2Promo5</t>
+  </si>
+  <si>
+    <t>campaign2Promo10</t>
+  </si>
+  <si>
+    <t>campaign2Promo20</t>
+  </si>
+  <si>
+    <t>campaign2Promo40</t>
+  </si>
+  <si>
+    <t>campaign2Promo60</t>
+  </si>
+  <si>
+    <t>pet_36</t>
+  </si>
+  <si>
+    <t>egg_offer</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -695,7 +692,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -846,28 +843,8 @@
       </left>
       <right/>
       <top style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -877,152 +854,152 @@
   </cellStyleXfs>
   <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="45"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="45"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="45"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="45" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="45"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="5" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="45"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="45" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="5" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="6" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="6" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="45"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="9" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="45"/>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="45"/>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="5" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1030,281 +1007,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="89">
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="6"/>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="6"/>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="6"/>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="6"/>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="6"/>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="6"/>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="6"/>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="6"/>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="6"/>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="6"/>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="6"/>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="6"/>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="6"/>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="6"/>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="6"/>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="6"/>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="6"/>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="6"/>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -1315,7 +1017,6 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -1351,7 +1052,6 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -1387,7 +1087,6 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -1427,7 +1126,6 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <fill>
@@ -1468,7 +1166,6 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <fill>
@@ -1507,7 +1204,6 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <fill>
@@ -1546,7 +1242,6 @@
         <sz val="11"/>
         <color auto="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <fill>
@@ -1577,7 +1272,6 @@
         <sz val="11"/>
         <color auto="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <fill>
@@ -1612,7 +1306,6 @@
         <sz val="11"/>
         <color auto="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <fill>
@@ -1651,7 +1344,6 @@
         <sz val="11"/>
         <color auto="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <fill>
@@ -1690,7 +1382,6 @@
         <sz val="11"/>
         <color auto="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -1726,7 +1417,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <fill>
@@ -1763,7 +1453,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <fill>
@@ -1802,7 +1491,6 @@
         <vertAlign val="baseline"/>
         <sz val="11"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
     </dxf>
@@ -1827,7 +1515,6 @@
         <sz val="14"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <fill>
@@ -1847,6 +1534,281 @@
         <top/>
         <bottom/>
       </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="6"/>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="6"/>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="6"/>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="6"/>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="6"/>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="6"/>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="6"/>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="6"/>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="6"/>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="6"/>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="6"/>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="6"/>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="6"/>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="6"/>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="6"/>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="6"/>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="6"/>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="6"/>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -1862,7 +1824,6 @@
         <sz val="11"/>
         <color auto="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="13" formatCode="0%"/>
@@ -1902,7 +1863,6 @@
         <sz val="11"/>
         <color auto="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -1942,7 +1902,6 @@
         <sz val="11"/>
         <color auto="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <fill>
@@ -1981,7 +1940,6 @@
         <sz val="11"/>
         <color auto="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -2021,9 +1979,9 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -2060,7 +2018,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <fill>
@@ -2122,7 +2079,6 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -2160,7 +2116,6 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -2200,7 +2155,6 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -2240,7 +2194,6 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -2280,7 +2233,6 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -2320,7 +2272,6 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -2360,7 +2311,6 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -2400,7 +2350,6 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -2440,7 +2389,6 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -2480,7 +2428,6 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -2520,7 +2467,6 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -2560,7 +2506,6 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -2600,7 +2545,6 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -2640,7 +2584,6 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -2680,7 +2623,6 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -2720,7 +2662,6 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -2760,7 +2701,6 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -2800,7 +2740,6 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -2840,7 +2779,6 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -2880,7 +2818,6 @@
         <sz val="11"/>
         <color auto="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <fill>
@@ -2917,7 +2854,6 @@
         <sz val="11"/>
         <color auto="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <fill>
@@ -2954,7 +2890,6 @@
         <sz val="11"/>
         <color auto="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <fill>
@@ -2991,7 +2926,6 @@
         <sz val="11"/>
         <color auto="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <fill>
@@ -3030,7 +2964,6 @@
         <sz val="11"/>
         <color auto="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <fill>
@@ -3069,7 +3002,6 @@
         <sz val="11"/>
         <color auto="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <fill>
@@ -3108,7 +3040,6 @@
         <sz val="11"/>
         <color auto="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <fill>
@@ -3147,7 +3078,6 @@
         <sz val="11"/>
         <color auto="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <fill>
@@ -3184,7 +3114,6 @@
         <sz val="11"/>
         <color auto="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="13" formatCode="0%"/>
@@ -3224,7 +3153,6 @@
         <sz val="11"/>
         <color auto="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="2" formatCode="0.00"/>
@@ -3264,7 +3192,6 @@
         <sz val="11"/>
         <color auto="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <fill>
@@ -3303,7 +3230,6 @@
         <sz val="11"/>
         <color auto="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -3341,7 +3267,6 @@
         <sz val="11"/>
         <color auto="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -3379,7 +3304,6 @@
         <sz val="11"/>
         <color auto="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -3417,7 +3341,6 @@
         <sz val="11"/>
         <color auto="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -3457,7 +3380,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <fill>
@@ -3496,7 +3418,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <fill>
@@ -3558,7 +3479,6 @@
         <sz val="14"/>
         <color auto="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <fill>
@@ -3600,82 +3520,87 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{ED1A36F1-C81C-E240-B69D-05233E25FFBE}" name="offerPacksDefinitions" displayName="offerPacksDefinitions" ref="B2:AK14" totalsRowShown="0" headerRowDxfId="88" headerRowBorderDxfId="87" tableBorderDxfId="86">
-  <autoFilter ref="B2:AK14" xr:uid="{4F9A3A4D-2285-5F44-B96F-898511E3F95B}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="offerPacksDefinitions" displayName="offerPacksDefinitions" ref="B2:AK23" totalsRowShown="0" headerRowDxfId="88" headerRowBorderDxfId="87" tableBorderDxfId="86">
+  <autoFilter ref="B2:AK23"/>
   <tableColumns count="36">
-    <tableColumn id="1" xr3:uid="{5AA55AC3-7CB6-FC44-B07D-F51D2A78CC7F}" name="{offerPacksDefinitions}" dataDxfId="85"/>
-    <tableColumn id="2" xr3:uid="{769B23B4-E9A6-284B-90FD-39F89B1ACB9C}" name="[sku]" dataDxfId="84"/>
-    <tableColumn id="3" xr3:uid="{C2ECF4B3-5C1E-FA40-B693-9309C7BCA56C}" name="[enabled]" dataDxfId="83"/>
-    <tableColumn id="4" xr3:uid="{775C3509-403A-644A-86AD-77F63EA7574E}" name="[item1]" dataDxfId="82"/>
-    <tableColumn id="5" xr3:uid="{93FE19D6-1AD6-614B-A400-0C80FB077313}" name="[item2]" dataDxfId="81"/>
-    <tableColumn id="6" xr3:uid="{9A9C4E04-C2C4-9A4E-8267-2ED259FD6396}" name="[item3]" dataDxfId="80"/>
-    <tableColumn id="7" xr3:uid="{3DF96E69-A350-B74B-87E8-962A5358D4FE}" name="[order]" dataDxfId="79"/>
-    <tableColumn id="8" xr3:uid="{960853A1-6A63-CE44-AAA8-91A8A20AF5D0}" name="[refPrice]" dataDxfId="78"/>
-    <tableColumn id="9" xr3:uid="{686163E9-209F-D64B-8FC7-4F6917B59535}" name="[discount]" dataDxfId="77"/>
-    <tableColumn id="10" xr3:uid="{70F61F4A-125E-6643-9427-3AF37756BF1D}" name="[iapSku]" dataDxfId="76"/>
-    <tableColumn id="11" xr3:uid="{392047DC-2DF0-A248-BD8D-C510711B2715}" name="[tidName]" dataDxfId="75"/>
-    <tableColumn id="12" xr3:uid="{1A9730B6-30B6-1C4D-942F-461C1D96445D}" name="[featured]" dataDxfId="74"/>
-    <tableColumn id="13" xr3:uid="{4E307595-D830-8545-8566-5F0470CF29AB}" name="[maxViews]" dataDxfId="73"/>
-    <tableColumn id="14" xr3:uid="{FB4C12FD-07EB-1F4B-93B8-AD797245A23C}" name="[zone]" dataDxfId="72"/>
-    <tableColumn id="15" xr3:uid="{8D2DE5F3-FBDD-604E-A6FB-081C887B0E61}" name="[frequency]" dataDxfId="71"/>
-    <tableColumn id="16" xr3:uid="{3E5B5816-0024-0E47-AAF3-D9442AABDBC4}" name="[startDate]" dataDxfId="70"/>
-    <tableColumn id="17" xr3:uid="{6F9129DD-4054-AB4D-9D66-876B6196FB57}" name="[endDate]" dataDxfId="69"/>
-    <tableColumn id="18" xr3:uid="{3D155EBB-7C6E-4C4C-B541-2CE516975490}" name="[minAppVersion]" dataDxfId="68"/>
-    <tableColumn id="19" xr3:uid="{D3F1299F-F88F-D141-8EB7-0BFF97FC7451}" name="[countriesAllowed]" dataDxfId="67"/>
-    <tableColumn id="20" xr3:uid="{4BD03573-B9AE-E142-B845-87458F1C146E}" name="[countriesExcluded]" dataDxfId="66"/>
-    <tableColumn id="21" xr3:uid="{B7105B3F-72DE-C14C-9A41-5EC27FCB4916}" name="[gamesPlayed]" dataDxfId="65"/>
-    <tableColumn id="22" xr3:uid="{87DF1AE4-1EE5-E54B-AD5A-C43DE78722FA}" name="[payerType]" dataDxfId="64"/>
-    <tableColumn id="23" xr3:uid="{7DF15487-16A4-C64D-9B10-94ACDAA98F79}" name="[minSpent]" dataDxfId="63"/>
-    <tableColumn id="24" xr3:uid="{F92FED66-4C4F-A946-8E91-8023959BBA02}" name="[dragonUnlocked]" dataDxfId="62"/>
-    <tableColumn id="25" xr3:uid="{14A8C544-806C-354E-9E67-F45B793458A6}" name="[dragonOwned]" dataDxfId="61"/>
-    <tableColumn id="26" xr3:uid="{438DC746-388B-B04F-945D-53D911FFA0F7}" name="[dragonNotOwned]" dataDxfId="60"/>
-    <tableColumn id="27" xr3:uid="{0695E1EC-C75A-3646-8FA9-71A912B6B9AC}" name="[scBalanceRange]" dataDxfId="59"/>
-    <tableColumn id="28" xr3:uid="{2E794ABE-BB5B-1B46-BC02-2A0CA0443719}" name="[hcBalanceRange]" dataDxfId="58"/>
-    <tableColumn id="29" xr3:uid="{AA2978B6-89A3-8A4A-8060-29A4779643D5}" name="[openedEggs]" dataDxfId="57"/>
-    <tableColumn id="30" xr3:uid="{F1B00789-E048-674E-AE95-47F1DF292AC1}" name="[petsOwnedCount]" dataDxfId="56"/>
-    <tableColumn id="31" xr3:uid="{897170A1-2C50-9C4E-8236-A916C2ED996F}" name="[petsOwned]" dataDxfId="55"/>
-    <tableColumn id="32" xr3:uid="{779EAF2B-15DF-414D-9D3D-DEF167C11DBA}" name="[petsNotOwned]" dataDxfId="54"/>
-    <tableColumn id="33" xr3:uid="{4A6A119E-C556-EB4E-880F-1E1B883AC642}" name="[progressionRange]" dataDxfId="53"/>
-    <tableColumn id="34" xr3:uid="{AD71F6AD-47E0-5543-B2E3-10FCB940B2C0}" name="[skinsUnlocked]" dataDxfId="52"/>
-    <tableColumn id="35" xr3:uid="{A84F0E68-2635-2342-8D34-F24736CE36B2}" name="[skinsOwned]" dataDxfId="51"/>
-    <tableColumn id="36" xr3:uid="{3817307B-BA2C-4E4D-B2A1-ABCA643213CA}" name="[skinsNotOwned]" dataDxfId="50"/>
+    <tableColumn id="1" name="{offerPacksDefinitions}" dataDxfId="85"/>
+    <tableColumn id="2" name="[sku]" dataDxfId="84"/>
+    <tableColumn id="3" name="[enabled]" dataDxfId="83"/>
+    <tableColumn id="4" name="[item1]" dataDxfId="82"/>
+    <tableColumn id="5" name="[item2]" dataDxfId="81"/>
+    <tableColumn id="6" name="[item3]" dataDxfId="80"/>
+    <tableColumn id="7" name="[order]" dataDxfId="79"/>
+    <tableColumn id="8" name="[refPrice]" dataDxfId="78"/>
+    <tableColumn id="9" name="[discount]" dataDxfId="77"/>
+    <tableColumn id="10" name="[iapSku]" dataDxfId="76"/>
+    <tableColumn id="11" name="[tidName]" dataDxfId="75"/>
+    <tableColumn id="12" name="[featured]" dataDxfId="74"/>
+    <tableColumn id="13" name="[maxViews]" dataDxfId="73"/>
+    <tableColumn id="14" name="[zone]" dataDxfId="72"/>
+    <tableColumn id="15" name="[frequency]" dataDxfId="71"/>
+    <tableColumn id="16" name="[startDate]" dataDxfId="70"/>
+    <tableColumn id="17" name="[endDate]" dataDxfId="69"/>
+    <tableColumn id="18" name="[minAppVersion]" dataDxfId="68"/>
+    <tableColumn id="19" name="[countriesAllowed]" dataDxfId="67"/>
+    <tableColumn id="20" name="[countriesExcluded]" dataDxfId="66"/>
+    <tableColumn id="21" name="[gamesPlayed]" dataDxfId="65"/>
+    <tableColumn id="22" name="[payerType]" dataDxfId="64"/>
+    <tableColumn id="23" name="[minSpent]" dataDxfId="63"/>
+    <tableColumn id="24" name="[dragonUnlocked]" dataDxfId="62"/>
+    <tableColumn id="25" name="[dragonOwned]" dataDxfId="61"/>
+    <tableColumn id="26" name="[dragonNotOwned]" dataDxfId="60"/>
+    <tableColumn id="27" name="[scBalanceRange]" dataDxfId="59"/>
+    <tableColumn id="28" name="[hcBalanceRange]" dataDxfId="58"/>
+    <tableColumn id="29" name="[openedEggs]" dataDxfId="57"/>
+    <tableColumn id="30" name="[petsOwnedCount]" dataDxfId="56"/>
+    <tableColumn id="31" name="[petsOwned]" dataDxfId="55"/>
+    <tableColumn id="32" name="[petsNotOwned]" dataDxfId="54"/>
+    <tableColumn id="33" name="[progressionRange]" dataDxfId="53"/>
+    <tableColumn id="34" name="[skinsUnlocked]" dataDxfId="52"/>
+    <tableColumn id="35" name="[skinsOwned]" dataDxfId="51"/>
+    <tableColumn id="36" name="[skinsNotOwned]" dataDxfId="50"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{04610754-5ED0-5E41-B954-7462132FFEC2}" name="offerItemsDefinitions" displayName="offerItemsDefinitions" ref="B2:G38" totalsRowShown="0" headerRowBorderDxfId="49" tableBorderDxfId="48">
-  <autoFilter ref="B2:G38" xr:uid="{D4C0794A-5423-DF44-BB3E-4FEE91E963EF}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="offerItemsDefinitions" displayName="offerItemsDefinitions" ref="B2:G38" totalsRowShown="0" headerRowBorderDxfId="49" tableBorderDxfId="48">
+  <autoFilter ref="B2:G38"/>
+  <sortState ref="B3:G38">
+    <sortCondition ref="E2:E38"/>
+  </sortState>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{CDFF9D76-676F-CD42-843F-D81014EF49E4}" name="{offerItemsDefinitions}" dataDxfId="47"/>
-    <tableColumn id="2" xr3:uid="{4332E9A8-FF36-0946-B7F9-01362FCB91F0}" name="[sku]" dataDxfId="46"/>
-    <tableColumn id="3" xr3:uid="{6F915615-A632-534B-9CEC-EF0355B21B34}" name="[featured]" dataDxfId="45"/>
-    <tableColumn id="4" xr3:uid="{9CA5F155-FA3C-C148-8CA8-8B53398F8C04}" name="[type]" dataDxfId="44"/>
-    <tableColumn id="5" xr3:uid="{DEB48AFA-7AB3-E14F-9F10-B40C4A5D5330}" name="[amount]" dataDxfId="43"/>
-    <tableColumn id="6" xr3:uid="{07284125-DDB0-ED4B-84EA-A93ECC9950CD}" name="[itemSku]" dataDxfId="42"/>
+    <tableColumn id="1" name="{offerItemsDefinitions}" dataDxfId="47"/>
+    <tableColumn id="2" name="[sku]" dataDxfId="46">
+      <calculatedColumnFormula>IF(offerItemsDefinitions[[#This Row],['[type']]]="",CONCATENATE("offer_item_",ROW(C3)),CONCATENATE("offer_item_",IF(offerItemsDefinitions[[#This Row],['[featured']]],"featured_",""),offerItemsDefinitions[[#This Row],['[type']]],"_",offerItemsDefinitions[[#This Row],['[amount']]],IF(offerItemsDefinitions[[#This Row],['[itemSku']]]="","","_"),offerItemsDefinitions[[#This Row],['[itemSku']]]))</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" name="[featured]" dataDxfId="45"/>
+    <tableColumn id="4" name="[type]" dataDxfId="44"/>
+    <tableColumn id="5" name="[amount]" dataDxfId="43"/>
+    <tableColumn id="6" name="[itemSku]" dataDxfId="42"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="offerPacksDefinitions_OLD" displayName="offerPacksDefinitions_OLD" ref="B4:N44" totalsRowShown="0" headerRowDxfId="41" dataDxfId="39" headerRowBorderDxfId="40" tableBorderDxfId="38">
-  <autoFilter ref="B4:N44" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="offerPacksDefinitions_OLD" displayName="offerPacksDefinitions_OLD" ref="B4:N44" totalsRowShown="0" headerRowDxfId="16" dataDxfId="14" headerRowBorderDxfId="15" tableBorderDxfId="13">
+  <autoFilter ref="B4:N44"/>
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="offerPacksDefinitions_OLD" dataDxfId="37"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="[sku]" dataDxfId="36"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="[paramValue]" dataDxfId="35"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="[itemType]" dataDxfId="34"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="[itemAmount]" dataDxfId="33"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="[itemSku]" dataDxfId="32"/>
-    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0000-000017000000}" name="[itemFeatured]" dataDxfId="31"/>
-    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0000-000016000000}" name="[minAppVersion]" dataDxfId="30"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="[order]" dataDxfId="29"/>
-    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0000-000018000000}" name="[refPrice]" dataDxfId="28"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="[discount]" dataDxfId="27"/>
-    <tableColumn id="3" xr3:uid="{EC30BFE9-93AC-B341-A6DF-2464A465E69D}" name="[iapSku]" dataDxfId="26"/>
-    <tableColumn id="5" xr3:uid="{CAF1E60A-0F22-9F48-B595-4C0BDBEE3450}" name="[tidName]" dataDxfId="25"/>
+    <tableColumn id="1" name="offerPacksDefinitions_OLD" dataDxfId="12"/>
+    <tableColumn id="2" name="[sku]" dataDxfId="11"/>
+    <tableColumn id="15" name="[paramValue]" dataDxfId="10"/>
+    <tableColumn id="7" name="[itemType]" dataDxfId="9"/>
+    <tableColumn id="8" name="[itemAmount]" dataDxfId="8"/>
+    <tableColumn id="9" name="[itemSku]" dataDxfId="7"/>
+    <tableColumn id="23" name="[itemFeatured]" dataDxfId="6"/>
+    <tableColumn id="22" name="[minAppVersion]" dataDxfId="5"/>
+    <tableColumn id="4" name="[order]" dataDxfId="4"/>
+    <tableColumn id="24" name="[refPrice]" dataDxfId="3"/>
+    <tableColumn id="6" name="[discount]" dataDxfId="2"/>
+    <tableColumn id="3" name="[iapSku]" dataDxfId="1"/>
+    <tableColumn id="5" name="[tidName]" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3977,49 +3902,49 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C213BC37-2D64-1C49-9206-ADFE266D60BF}">
-  <dimension ref="B1:AK14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:AK23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="S15" sqref="S15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.5" customWidth="1"/>
-    <col min="9" max="10" width="12.1640625" customWidth="1"/>
+    <col min="9" max="10" width="12.125" customWidth="1"/>
     <col min="11" max="11" width="37" customWidth="1"/>
-    <col min="12" max="12" width="30.33203125" customWidth="1"/>
+    <col min="12" max="12" width="30.375" customWidth="1"/>
     <col min="13" max="13" width="13" customWidth="1"/>
     <col min="14" max="14" width="14.5" customWidth="1"/>
-    <col min="16" max="16" width="14.6640625" customWidth="1"/>
-    <col min="17" max="17" width="13.6640625" customWidth="1"/>
+    <col min="16" max="16" width="14.625" customWidth="1"/>
+    <col min="17" max="17" width="13.625" customWidth="1"/>
     <col min="18" max="18" width="13" customWidth="1"/>
     <col min="19" max="19" width="20" customWidth="1"/>
-    <col min="20" max="20" width="21.83203125" customWidth="1"/>
-    <col min="21" max="21" width="22.83203125" customWidth="1"/>
-    <col min="22" max="22" width="17.6640625" customWidth="1"/>
+    <col min="20" max="20" width="21.875" customWidth="1"/>
+    <col min="21" max="21" width="22.875" customWidth="1"/>
+    <col min="22" max="22" width="17.625" customWidth="1"/>
     <col min="23" max="23" width="15" customWidth="1"/>
-    <col min="24" max="24" width="14.1640625" customWidth="1"/>
-    <col min="25" max="25" width="21.1640625" customWidth="1"/>
-    <col min="26" max="26" width="18.83203125" customWidth="1"/>
+    <col min="24" max="24" width="14.125" customWidth="1"/>
+    <col min="25" max="25" width="21.125" customWidth="1"/>
+    <col min="26" max="26" width="18.875" customWidth="1"/>
     <col min="27" max="27" width="22.5" customWidth="1"/>
     <col min="28" max="28" width="20.5" customWidth="1"/>
     <col min="29" max="29" width="21" customWidth="1"/>
-    <col min="30" max="30" width="16.6640625" customWidth="1"/>
+    <col min="30" max="30" width="16.625" customWidth="1"/>
     <col min="31" max="31" width="22" customWidth="1"/>
-    <col min="32" max="32" width="15.83203125" customWidth="1"/>
-    <col min="33" max="33" width="19.6640625" customWidth="1"/>
-    <col min="34" max="34" width="22.33203125" customWidth="1"/>
+    <col min="32" max="32" width="15.875" customWidth="1"/>
+    <col min="33" max="33" width="19.625" customWidth="1"/>
+    <col min="34" max="34" width="22.375" customWidth="1"/>
     <col min="35" max="35" width="19" customWidth="1"/>
     <col min="36" max="36" width="16.5" customWidth="1"/>
-    <col min="37" max="37" width="20.33203125" customWidth="1"/>
+    <col min="37" max="37" width="20.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:37" s="26" customFormat="1" ht="154" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:37" s="26" customFormat="1" ht="141" x14ac:dyDescent="0.25">
       <c r="H1" s="16" t="s">
         <v>29</v>
       </c>
@@ -4030,11 +3955,11 @@
         <v>28</v>
       </c>
       <c r="Q1" s="52" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="R1" s="52"/>
       <c r="S1" s="51" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="T1" s="51"/>
       <c r="U1" s="51"/>
@@ -4055,7 +3980,7 @@
       <c r="AJ1" s="51"/>
       <c r="AK1" s="51"/>
     </row>
-    <row r="2" spans="2:37" ht="112" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:37" ht="114.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
@@ -4066,13 +3991,13 @@
         <v>75</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>124</v>
+        <v>104</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>125</v>
+        <v>105</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>126</v>
+        <v>106</v>
       </c>
       <c r="H2" s="8" t="s">
         <v>2</v>
@@ -4090,93 +4015,93 @@
         <v>43</v>
       </c>
       <c r="M2" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="N2" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="O2" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="P2" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q2" s="24" t="s">
         <v>77</v>
       </c>
-      <c r="N2" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="O2" s="25" t="s">
+      <c r="R2" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="S2" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="T2" s="37" t="s">
+        <v>79</v>
+      </c>
+      <c r="U2" s="37" t="s">
+        <v>80</v>
+      </c>
+      <c r="V2" s="37" t="s">
+        <v>81</v>
+      </c>
+      <c r="W2" s="37" t="s">
         <v>85</v>
       </c>
-      <c r="P2" s="25" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q2" s="24" t="s">
-        <v>78</v>
-      </c>
-      <c r="R2" s="24" t="s">
-        <v>79</v>
-      </c>
-      <c r="S2" s="39" t="s">
-        <v>13</v>
-      </c>
-      <c r="T2" s="39" t="s">
-        <v>80</v>
-      </c>
-      <c r="U2" s="39" t="s">
-        <v>81</v>
-      </c>
-      <c r="V2" s="39" t="s">
-        <v>82</v>
-      </c>
-      <c r="W2" s="39" t="s">
+      <c r="X2" s="37" t="s">
         <v>86</v>
       </c>
-      <c r="X2" s="39" t="s">
+      <c r="Y2" s="37" t="s">
         <v>87</v>
       </c>
-      <c r="Y2" s="39" t="s">
+      <c r="Z2" s="37" t="s">
         <v>88</v>
       </c>
-      <c r="Z2" s="39" t="s">
+      <c r="AA2" s="37" t="s">
         <v>89</v>
       </c>
-      <c r="AA2" s="39" t="s">
+      <c r="AB2" s="37" t="s">
         <v>90</v>
       </c>
-      <c r="AB2" s="39" t="s">
+      <c r="AC2" s="37" t="s">
         <v>91</v>
       </c>
-      <c r="AC2" s="39" t="s">
+      <c r="AD2" s="37" t="s">
         <v>92</v>
       </c>
-      <c r="AD2" s="39" t="s">
+      <c r="AE2" s="37" t="s">
         <v>93</v>
       </c>
-      <c r="AE2" s="39" t="s">
+      <c r="AF2" s="37" t="s">
         <v>94</v>
       </c>
-      <c r="AF2" s="39" t="s">
+      <c r="AG2" s="37" t="s">
         <v>95</v>
       </c>
-      <c r="AG2" s="39" t="s">
+      <c r="AH2" s="37" t="s">
         <v>96</v>
       </c>
-      <c r="AH2" s="39" t="s">
+      <c r="AI2" s="37" t="s">
         <v>97</v>
       </c>
-      <c r="AI2" s="39" t="s">
+      <c r="AJ2" s="37" t="s">
         <v>98</v>
       </c>
-      <c r="AJ2" s="39" t="s">
-        <v>99</v>
-      </c>
-      <c r="AK2" s="40" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="3" spans="2:37" x14ac:dyDescent="0.2">
+      <c r="AK2" s="38" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="3" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B3" s="14" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="28" t="s">
-        <v>76</v>
+        <v>140</v>
       </c>
       <c r="D3" s="22" t="b">
         <v>0</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
@@ -4184,57 +4109,57 @@
         <v>0</v>
       </c>
       <c r="I3" s="30" t="s">
-        <v>100</v>
+        <v>135</v>
       </c>
       <c r="J3" s="31">
         <v>0.5</v>
       </c>
       <c r="K3" s="27" t="s">
-        <v>42</v>
+        <v>114</v>
       </c>
       <c r="L3" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="M3" s="44"/>
-      <c r="N3" s="44"/>
-      <c r="O3" s="44"/>
-      <c r="P3" s="45"/>
-      <c r="Q3" s="46"/>
-      <c r="R3" s="46"/>
-      <c r="S3" s="47" t="s">
-        <v>122</v>
-      </c>
-      <c r="T3" s="47"/>
-      <c r="U3" s="47"/>
-      <c r="V3" s="47"/>
-      <c r="W3" s="48"/>
-      <c r="X3" s="48"/>
-      <c r="Y3" s="47"/>
-      <c r="Z3" s="47"/>
-      <c r="AA3" s="47"/>
-      <c r="AB3" s="47"/>
-      <c r="AC3" s="48"/>
-      <c r="AD3" s="48"/>
-      <c r="AE3" s="47"/>
-      <c r="AF3" s="47"/>
-      <c r="AG3" s="47"/>
-      <c r="AH3" s="47"/>
-      <c r="AI3" s="48"/>
-      <c r="AJ3" s="48"/>
-      <c r="AK3" s="49"/>
-    </row>
-    <row r="4" spans="2:37" x14ac:dyDescent="0.2">
+      <c r="M3" s="40"/>
+      <c r="N3" s="40"/>
+      <c r="O3" s="40"/>
+      <c r="P3" s="41"/>
+      <c r="Q3" s="42"/>
+      <c r="R3" s="42"/>
+      <c r="S3" s="43" t="s">
+        <v>102</v>
+      </c>
+      <c r="T3" s="43"/>
+      <c r="U3" s="43"/>
+      <c r="V3" s="43"/>
+      <c r="W3" s="44"/>
+      <c r="X3" s="44"/>
+      <c r="Y3" s="43"/>
+      <c r="Z3" s="43"/>
+      <c r="AA3" s="43"/>
+      <c r="AB3" s="43"/>
+      <c r="AC3" s="44"/>
+      <c r="AD3" s="44"/>
+      <c r="AE3" s="43"/>
+      <c r="AF3" s="43"/>
+      <c r="AG3" s="43"/>
+      <c r="AH3" s="43"/>
+      <c r="AI3" s="44"/>
+      <c r="AJ3" s="44"/>
+      <c r="AK3" s="45"/>
+    </row>
+    <row r="4" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B4" s="14" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="28" t="s">
-        <v>103</v>
+        <v>141</v>
       </c>
       <c r="D4" s="22" t="b">
         <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
@@ -4242,57 +4167,57 @@
         <v>0</v>
       </c>
       <c r="I4" s="30" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J4" s="31">
         <v>0.5</v>
       </c>
       <c r="K4" s="27" t="s">
-        <v>39</v>
+        <v>115</v>
       </c>
       <c r="L4" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="M4" s="44"/>
-      <c r="N4" s="44"/>
-      <c r="O4" s="44"/>
-      <c r="P4" s="45"/>
-      <c r="Q4" s="46"/>
-      <c r="R4" s="46"/>
-      <c r="S4" s="47" t="s">
-        <v>122</v>
-      </c>
-      <c r="T4" s="47"/>
-      <c r="U4" s="47"/>
-      <c r="V4" s="47"/>
-      <c r="W4" s="48"/>
-      <c r="X4" s="48"/>
-      <c r="Y4" s="47"/>
-      <c r="Z4" s="47"/>
-      <c r="AA4" s="47"/>
-      <c r="AB4" s="47"/>
-      <c r="AC4" s="48"/>
-      <c r="AD4" s="48"/>
-      <c r="AE4" s="47"/>
-      <c r="AF4" s="47"/>
-      <c r="AG4" s="47"/>
-      <c r="AH4" s="47"/>
-      <c r="AI4" s="48"/>
-      <c r="AJ4" s="48"/>
-      <c r="AK4" s="49"/>
-    </row>
-    <row r="5" spans="2:37" x14ac:dyDescent="0.2">
+      <c r="M4" s="40"/>
+      <c r="N4" s="40"/>
+      <c r="O4" s="40"/>
+      <c r="P4" s="41"/>
+      <c r="Q4" s="42"/>
+      <c r="R4" s="42"/>
+      <c r="S4" s="43" t="s">
+        <v>102</v>
+      </c>
+      <c r="T4" s="43"/>
+      <c r="U4" s="43"/>
+      <c r="V4" s="43"/>
+      <c r="W4" s="44"/>
+      <c r="X4" s="44"/>
+      <c r="Y4" s="43"/>
+      <c r="Z4" s="43"/>
+      <c r="AA4" s="43"/>
+      <c r="AB4" s="43"/>
+      <c r="AC4" s="44"/>
+      <c r="AD4" s="44"/>
+      <c r="AE4" s="43"/>
+      <c r="AF4" s="43"/>
+      <c r="AG4" s="43"/>
+      <c r="AH4" s="43"/>
+      <c r="AI4" s="44"/>
+      <c r="AJ4" s="44"/>
+      <c r="AK4" s="45"/>
+    </row>
+    <row r="5" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B5" s="14" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="28" t="s">
-        <v>104</v>
+        <v>142</v>
       </c>
       <c r="D5" s="22" t="b">
         <v>0</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
@@ -4300,57 +4225,57 @@
         <v>0</v>
       </c>
       <c r="I5" s="30" t="s">
-        <v>100</v>
+        <v>136</v>
       </c>
       <c r="J5" s="31">
         <v>0.5</v>
       </c>
       <c r="K5" s="27" t="s">
-        <v>40</v>
+        <v>116</v>
       </c>
       <c r="L5" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="M5" s="44"/>
-      <c r="N5" s="44"/>
-      <c r="O5" s="44"/>
-      <c r="P5" s="45"/>
-      <c r="Q5" s="46"/>
-      <c r="R5" s="46"/>
-      <c r="S5" s="47" t="s">
-        <v>122</v>
-      </c>
-      <c r="T5" s="47"/>
-      <c r="U5" s="47"/>
-      <c r="V5" s="47"/>
-      <c r="W5" s="48"/>
-      <c r="X5" s="48"/>
-      <c r="Y5" s="47"/>
-      <c r="Z5" s="47"/>
-      <c r="AA5" s="47"/>
-      <c r="AB5" s="47"/>
-      <c r="AC5" s="48"/>
-      <c r="AD5" s="48"/>
-      <c r="AE5" s="47"/>
-      <c r="AF5" s="47"/>
-      <c r="AG5" s="47"/>
-      <c r="AH5" s="47"/>
-      <c r="AI5" s="48"/>
-      <c r="AJ5" s="48"/>
-      <c r="AK5" s="49"/>
-    </row>
-    <row r="6" spans="2:37" x14ac:dyDescent="0.2">
+      <c r="M5" s="40"/>
+      <c r="N5" s="40"/>
+      <c r="O5" s="40"/>
+      <c r="P5" s="41"/>
+      <c r="Q5" s="42"/>
+      <c r="R5" s="42"/>
+      <c r="S5" s="43" t="s">
+        <v>102</v>
+      </c>
+      <c r="T5" s="43"/>
+      <c r="U5" s="43"/>
+      <c r="V5" s="43"/>
+      <c r="W5" s="44"/>
+      <c r="X5" s="44"/>
+      <c r="Y5" s="43"/>
+      <c r="Z5" s="43"/>
+      <c r="AA5" s="43"/>
+      <c r="AB5" s="43"/>
+      <c r="AC5" s="44"/>
+      <c r="AD5" s="44"/>
+      <c r="AE5" s="43"/>
+      <c r="AF5" s="43"/>
+      <c r="AG5" s="43"/>
+      <c r="AH5" s="43"/>
+      <c r="AI5" s="44"/>
+      <c r="AJ5" s="44"/>
+      <c r="AK5" s="45"/>
+    </row>
+    <row r="6" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B6" s="14" t="s">
         <v>3</v>
       </c>
       <c r="C6" s="28" t="s">
-        <v>105</v>
+        <v>143</v>
       </c>
       <c r="D6" s="22" t="b">
         <v>0</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
@@ -4358,57 +4283,57 @@
         <v>0</v>
       </c>
       <c r="I6" s="30" t="s">
-        <v>100</v>
+        <v>135</v>
       </c>
       <c r="J6" s="31">
         <v>0.5</v>
       </c>
       <c r="K6" s="27" t="s">
-        <v>41</v>
+        <v>117</v>
       </c>
       <c r="L6" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="M6" s="44"/>
-      <c r="N6" s="44"/>
-      <c r="O6" s="44"/>
-      <c r="P6" s="45"/>
-      <c r="Q6" s="46"/>
-      <c r="R6" s="46"/>
-      <c r="S6" s="47" t="s">
-        <v>122</v>
-      </c>
-      <c r="T6" s="47"/>
-      <c r="U6" s="47"/>
-      <c r="V6" s="47"/>
-      <c r="W6" s="48"/>
-      <c r="X6" s="48"/>
-      <c r="Y6" s="47"/>
-      <c r="Z6" s="47"/>
-      <c r="AA6" s="47"/>
-      <c r="AB6" s="47"/>
-      <c r="AC6" s="48"/>
-      <c r="AD6" s="48"/>
-      <c r="AE6" s="47"/>
-      <c r="AF6" s="47"/>
-      <c r="AG6" s="47"/>
-      <c r="AH6" s="47"/>
-      <c r="AI6" s="48"/>
-      <c r="AJ6" s="48"/>
-      <c r="AK6" s="49"/>
-    </row>
-    <row r="7" spans="2:37" x14ac:dyDescent="0.2">
+      <c r="M6" s="40"/>
+      <c r="N6" s="40"/>
+      <c r="O6" s="40"/>
+      <c r="P6" s="41"/>
+      <c r="Q6" s="42"/>
+      <c r="R6" s="42"/>
+      <c r="S6" s="43" t="s">
+        <v>102</v>
+      </c>
+      <c r="T6" s="43"/>
+      <c r="U6" s="43"/>
+      <c r="V6" s="43"/>
+      <c r="W6" s="44"/>
+      <c r="X6" s="44"/>
+      <c r="Y6" s="43"/>
+      <c r="Z6" s="43"/>
+      <c r="AA6" s="43"/>
+      <c r="AB6" s="43"/>
+      <c r="AC6" s="44"/>
+      <c r="AD6" s="44"/>
+      <c r="AE6" s="43"/>
+      <c r="AF6" s="43"/>
+      <c r="AG6" s="43"/>
+      <c r="AH6" s="43"/>
+      <c r="AI6" s="44"/>
+      <c r="AJ6" s="44"/>
+      <c r="AK6" s="45"/>
+    </row>
+    <row r="7" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B7" s="14" t="s">
         <v>3</v>
       </c>
       <c r="C7" s="28" t="s">
-        <v>106</v>
+        <v>144</v>
       </c>
       <c r="D7" s="22" t="b">
         <v>0</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
@@ -4416,57 +4341,57 @@
         <v>0</v>
       </c>
       <c r="I7" s="30" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J7" s="31">
         <v>0.5</v>
       </c>
       <c r="K7" s="27" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="L7" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="M7" s="44"/>
-      <c r="N7" s="44"/>
-      <c r="O7" s="44"/>
-      <c r="P7" s="45"/>
-      <c r="Q7" s="46"/>
-      <c r="R7" s="46"/>
-      <c r="S7" s="47" t="s">
-        <v>122</v>
-      </c>
-      <c r="T7" s="47"/>
-      <c r="U7" s="47"/>
-      <c r="V7" s="47"/>
-      <c r="W7" s="48"/>
-      <c r="X7" s="48"/>
-      <c r="Y7" s="47"/>
-      <c r="Z7" s="47"/>
-      <c r="AA7" s="47"/>
-      <c r="AB7" s="47"/>
-      <c r="AC7" s="48"/>
-      <c r="AD7" s="48"/>
-      <c r="AE7" s="47"/>
-      <c r="AF7" s="47"/>
-      <c r="AG7" s="47"/>
-      <c r="AH7" s="47"/>
-      <c r="AI7" s="48"/>
-      <c r="AJ7" s="48"/>
-      <c r="AK7" s="49"/>
-    </row>
-    <row r="8" spans="2:37" x14ac:dyDescent="0.2">
+      <c r="M7" s="40"/>
+      <c r="N7" s="40"/>
+      <c r="O7" s="40"/>
+      <c r="P7" s="41"/>
+      <c r="Q7" s="42"/>
+      <c r="R7" s="42"/>
+      <c r="S7" s="43" t="s">
+        <v>102</v>
+      </c>
+      <c r="T7" s="43"/>
+      <c r="U7" s="43"/>
+      <c r="V7" s="43"/>
+      <c r="W7" s="44"/>
+      <c r="X7" s="44"/>
+      <c r="Y7" s="43"/>
+      <c r="Z7" s="43"/>
+      <c r="AA7" s="43"/>
+      <c r="AB7" s="43"/>
+      <c r="AC7" s="44"/>
+      <c r="AD7" s="44"/>
+      <c r="AE7" s="43"/>
+      <c r="AF7" s="43"/>
+      <c r="AG7" s="43"/>
+      <c r="AH7" s="43"/>
+      <c r="AI7" s="44"/>
+      <c r="AJ7" s="44"/>
+      <c r="AK7" s="45"/>
+    </row>
+    <row r="8" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
         <v>3</v>
       </c>
       <c r="C8" s="28" t="s">
-        <v>107</v>
+        <v>145</v>
       </c>
       <c r="D8" s="22" t="b">
         <v>0</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
@@ -4474,57 +4399,57 @@
         <v>0</v>
       </c>
       <c r="I8" s="30" t="s">
-        <v>100</v>
+        <v>136</v>
       </c>
       <c r="J8" s="31">
         <v>0.5</v>
       </c>
       <c r="K8" s="27" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="L8" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="M8" s="44"/>
-      <c r="N8" s="44"/>
-      <c r="O8" s="44"/>
-      <c r="P8" s="45"/>
-      <c r="Q8" s="46"/>
-      <c r="R8" s="46"/>
-      <c r="S8" s="47" t="s">
-        <v>122</v>
-      </c>
-      <c r="T8" s="47"/>
-      <c r="U8" s="47"/>
-      <c r="V8" s="47"/>
-      <c r="W8" s="48"/>
-      <c r="X8" s="48"/>
-      <c r="Y8" s="47"/>
-      <c r="Z8" s="47"/>
-      <c r="AA8" s="47"/>
-      <c r="AB8" s="47"/>
-      <c r="AC8" s="48"/>
-      <c r="AD8" s="48"/>
-      <c r="AE8" s="47"/>
-      <c r="AF8" s="47"/>
-      <c r="AG8" s="47"/>
-      <c r="AH8" s="47"/>
-      <c r="AI8" s="48"/>
-      <c r="AJ8" s="48"/>
-      <c r="AK8" s="49"/>
-    </row>
-    <row r="9" spans="2:37" x14ac:dyDescent="0.2">
+      <c r="M8" s="40"/>
+      <c r="N8" s="40"/>
+      <c r="O8" s="40"/>
+      <c r="P8" s="41"/>
+      <c r="Q8" s="42"/>
+      <c r="R8" s="42"/>
+      <c r="S8" s="43" t="s">
+        <v>102</v>
+      </c>
+      <c r="T8" s="43"/>
+      <c r="U8" s="43"/>
+      <c r="V8" s="43"/>
+      <c r="W8" s="44"/>
+      <c r="X8" s="44"/>
+      <c r="Y8" s="43"/>
+      <c r="Z8" s="43"/>
+      <c r="AA8" s="43"/>
+      <c r="AB8" s="43"/>
+      <c r="AC8" s="44"/>
+      <c r="AD8" s="44"/>
+      <c r="AE8" s="43"/>
+      <c r="AF8" s="43"/>
+      <c r="AG8" s="43"/>
+      <c r="AH8" s="43"/>
+      <c r="AI8" s="44"/>
+      <c r="AJ8" s="44"/>
+      <c r="AK8" s="45"/>
+    </row>
+    <row r="9" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B9" s="14" t="s">
         <v>3</v>
       </c>
       <c r="C9" s="28" t="s">
-        <v>108</v>
+        <v>146</v>
       </c>
       <c r="D9" s="22" t="b">
         <v>0</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
@@ -4532,57 +4457,57 @@
         <v>0</v>
       </c>
       <c r="I9" s="30" t="s">
-        <v>100</v>
+        <v>135</v>
       </c>
       <c r="J9" s="31">
         <v>0.5</v>
       </c>
       <c r="K9" s="27" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="L9" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="M9" s="44"/>
-      <c r="N9" s="44"/>
-      <c r="O9" s="44"/>
-      <c r="P9" s="45"/>
-      <c r="Q9" s="46"/>
-      <c r="R9" s="46"/>
-      <c r="S9" s="47" t="s">
-        <v>122</v>
-      </c>
-      <c r="T9" s="47"/>
-      <c r="U9" s="47"/>
-      <c r="V9" s="47"/>
-      <c r="W9" s="48"/>
-      <c r="X9" s="48"/>
-      <c r="Y9" s="47"/>
-      <c r="Z9" s="47"/>
-      <c r="AA9" s="47"/>
-      <c r="AB9" s="47"/>
-      <c r="AC9" s="48"/>
-      <c r="AD9" s="48"/>
-      <c r="AE9" s="47"/>
-      <c r="AF9" s="47"/>
-      <c r="AG9" s="47"/>
-      <c r="AH9" s="47"/>
-      <c r="AI9" s="48"/>
-      <c r="AJ9" s="48"/>
-      <c r="AK9" s="49"/>
-    </row>
-    <row r="10" spans="2:37" x14ac:dyDescent="0.2">
+      <c r="M9" s="40"/>
+      <c r="N9" s="40"/>
+      <c r="O9" s="40"/>
+      <c r="P9" s="41"/>
+      <c r="Q9" s="42"/>
+      <c r="R9" s="42"/>
+      <c r="S9" s="43" t="s">
+        <v>102</v>
+      </c>
+      <c r="T9" s="43"/>
+      <c r="U9" s="43"/>
+      <c r="V9" s="43"/>
+      <c r="W9" s="44"/>
+      <c r="X9" s="44"/>
+      <c r="Y9" s="43"/>
+      <c r="Z9" s="43"/>
+      <c r="AA9" s="43"/>
+      <c r="AB9" s="43"/>
+      <c r="AC9" s="44"/>
+      <c r="AD9" s="44"/>
+      <c r="AE9" s="43"/>
+      <c r="AF9" s="43"/>
+      <c r="AG9" s="43"/>
+      <c r="AH9" s="43"/>
+      <c r="AI9" s="44"/>
+      <c r="AJ9" s="44"/>
+      <c r="AK9" s="45"/>
+    </row>
+    <row r="10" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B10" s="14" t="s">
         <v>3</v>
       </c>
       <c r="C10" s="28" t="s">
-        <v>109</v>
+        <v>147</v>
       </c>
       <c r="D10" s="22" t="b">
         <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
@@ -4590,57 +4515,57 @@
         <v>0</v>
       </c>
       <c r="I10" s="30" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J10" s="31">
         <v>0.5</v>
       </c>
       <c r="K10" s="27" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="L10" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="M10" s="44"/>
-      <c r="N10" s="44"/>
-      <c r="O10" s="44"/>
-      <c r="P10" s="45"/>
-      <c r="Q10" s="46"/>
-      <c r="R10" s="46"/>
-      <c r="S10" s="47" t="s">
-        <v>122</v>
-      </c>
-      <c r="T10" s="47"/>
-      <c r="U10" s="47"/>
-      <c r="V10" s="47"/>
-      <c r="W10" s="48"/>
-      <c r="X10" s="48"/>
-      <c r="Y10" s="47"/>
-      <c r="Z10" s="47"/>
-      <c r="AA10" s="47"/>
-      <c r="AB10" s="47"/>
-      <c r="AC10" s="48"/>
-      <c r="AD10" s="48"/>
-      <c r="AE10" s="47"/>
-      <c r="AF10" s="47"/>
-      <c r="AG10" s="47"/>
-      <c r="AH10" s="47"/>
-      <c r="AI10" s="48"/>
-      <c r="AJ10" s="48"/>
-      <c r="AK10" s="49"/>
-    </row>
-    <row r="11" spans="2:37" x14ac:dyDescent="0.2">
+      <c r="M10" s="40"/>
+      <c r="N10" s="40"/>
+      <c r="O10" s="40"/>
+      <c r="P10" s="41"/>
+      <c r="Q10" s="42"/>
+      <c r="R10" s="42"/>
+      <c r="S10" s="43" t="s">
+        <v>102</v>
+      </c>
+      <c r="T10" s="43"/>
+      <c r="U10" s="43"/>
+      <c r="V10" s="43"/>
+      <c r="W10" s="44"/>
+      <c r="X10" s="44"/>
+      <c r="Y10" s="43"/>
+      <c r="Z10" s="43"/>
+      <c r="AA10" s="43"/>
+      <c r="AB10" s="43"/>
+      <c r="AC10" s="44"/>
+      <c r="AD10" s="44"/>
+      <c r="AE10" s="43"/>
+      <c r="AF10" s="43"/>
+      <c r="AG10" s="43"/>
+      <c r="AH10" s="43"/>
+      <c r="AI10" s="44"/>
+      <c r="AJ10" s="44"/>
+      <c r="AK10" s="45"/>
+    </row>
+    <row r="11" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B11" s="14" t="s">
         <v>3</v>
       </c>
       <c r="C11" s="28" t="s">
+        <v>148</v>
+      </c>
+      <c r="D11" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="E11" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="D11" s="22" t="b">
-        <v>0</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>130</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -4648,57 +4573,57 @@
         <v>0</v>
       </c>
       <c r="I11" s="30" t="s">
-        <v>100</v>
+        <v>136</v>
       </c>
       <c r="J11" s="31">
         <v>0.5</v>
       </c>
       <c r="K11" s="27" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="L11" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="M11" s="44"/>
-      <c r="N11" s="44"/>
-      <c r="O11" s="44"/>
-      <c r="P11" s="45"/>
-      <c r="Q11" s="46"/>
-      <c r="R11" s="46"/>
-      <c r="S11" s="47" t="s">
-        <v>122</v>
-      </c>
-      <c r="T11" s="47"/>
-      <c r="U11" s="47"/>
-      <c r="V11" s="47"/>
-      <c r="W11" s="48"/>
-      <c r="X11" s="48"/>
-      <c r="Y11" s="47"/>
-      <c r="Z11" s="47"/>
-      <c r="AA11" s="47"/>
-      <c r="AB11" s="47"/>
-      <c r="AC11" s="48"/>
-      <c r="AD11" s="48"/>
-      <c r="AE11" s="47"/>
-      <c r="AF11" s="47"/>
-      <c r="AG11" s="47"/>
-      <c r="AH11" s="47"/>
-      <c r="AI11" s="48"/>
-      <c r="AJ11" s="48"/>
-      <c r="AK11" s="49"/>
-    </row>
-    <row r="12" spans="2:37" x14ac:dyDescent="0.2">
+      <c r="M11" s="40"/>
+      <c r="N11" s="40"/>
+      <c r="O11" s="40"/>
+      <c r="P11" s="41"/>
+      <c r="Q11" s="42"/>
+      <c r="R11" s="42"/>
+      <c r="S11" s="43" t="s">
+        <v>102</v>
+      </c>
+      <c r="T11" s="43"/>
+      <c r="U11" s="43"/>
+      <c r="V11" s="43"/>
+      <c r="W11" s="44"/>
+      <c r="X11" s="44"/>
+      <c r="Y11" s="43"/>
+      <c r="Z11" s="43"/>
+      <c r="AA11" s="43"/>
+      <c r="AB11" s="43"/>
+      <c r="AC11" s="44"/>
+      <c r="AD11" s="44"/>
+      <c r="AE11" s="43"/>
+      <c r="AF11" s="43"/>
+      <c r="AG11" s="43"/>
+      <c r="AH11" s="43"/>
+      <c r="AI11" s="44"/>
+      <c r="AJ11" s="44"/>
+      <c r="AK11" s="45"/>
+    </row>
+    <row r="12" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B12" s="14" t="s">
         <v>3</v>
       </c>
       <c r="C12" s="28" t="s">
-        <v>111</v>
+        <v>149</v>
       </c>
       <c r="D12" s="22" t="b">
         <v>0</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
@@ -4706,57 +4631,57 @@
         <v>0</v>
       </c>
       <c r="I12" s="30" t="s">
-        <v>100</v>
+        <v>135</v>
       </c>
       <c r="J12" s="31">
         <v>0.5</v>
       </c>
       <c r="K12" s="27" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="L12" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="M12" s="44"/>
-      <c r="N12" s="44"/>
-      <c r="O12" s="44"/>
-      <c r="P12" s="45"/>
-      <c r="Q12" s="46"/>
-      <c r="R12" s="46"/>
-      <c r="S12" s="47" t="s">
-        <v>122</v>
-      </c>
-      <c r="T12" s="47"/>
-      <c r="U12" s="47"/>
-      <c r="V12" s="47"/>
-      <c r="W12" s="48"/>
-      <c r="X12" s="48"/>
-      <c r="Y12" s="47"/>
-      <c r="Z12" s="47"/>
-      <c r="AA12" s="47"/>
-      <c r="AB12" s="47"/>
-      <c r="AC12" s="48"/>
-      <c r="AD12" s="48"/>
-      <c r="AE12" s="47"/>
-      <c r="AF12" s="47"/>
-      <c r="AG12" s="47"/>
-      <c r="AH12" s="47"/>
-      <c r="AI12" s="48"/>
-      <c r="AJ12" s="48"/>
-      <c r="AK12" s="49"/>
-    </row>
-    <row r="13" spans="2:37" x14ac:dyDescent="0.2">
+      <c r="M12" s="40"/>
+      <c r="N12" s="40"/>
+      <c r="O12" s="40"/>
+      <c r="P12" s="41"/>
+      <c r="Q12" s="42"/>
+      <c r="R12" s="42"/>
+      <c r="S12" s="43" t="s">
+        <v>102</v>
+      </c>
+      <c r="T12" s="43"/>
+      <c r="U12" s="43"/>
+      <c r="V12" s="43"/>
+      <c r="W12" s="44"/>
+      <c r="X12" s="44"/>
+      <c r="Y12" s="43"/>
+      <c r="Z12" s="43"/>
+      <c r="AA12" s="43"/>
+      <c r="AB12" s="43"/>
+      <c r="AC12" s="44"/>
+      <c r="AD12" s="44"/>
+      <c r="AE12" s="43"/>
+      <c r="AF12" s="43"/>
+      <c r="AG12" s="43"/>
+      <c r="AH12" s="43"/>
+      <c r="AI12" s="44"/>
+      <c r="AJ12" s="44"/>
+      <c r="AK12" s="45"/>
+    </row>
+    <row r="13" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B13" s="14" t="s">
         <v>3</v>
       </c>
       <c r="C13" s="28" t="s">
-        <v>112</v>
+        <v>150</v>
       </c>
       <c r="D13" s="22" t="b">
         <v>0</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
@@ -4764,102 +4689,624 @@
         <v>0</v>
       </c>
       <c r="I13" s="30" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J13" s="31">
         <v>0.5</v>
       </c>
       <c r="K13" s="27" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="L13" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="M13" s="44"/>
-      <c r="N13" s="44"/>
-      <c r="O13" s="44"/>
-      <c r="P13" s="45"/>
-      <c r="Q13" s="46"/>
-      <c r="R13" s="46"/>
-      <c r="S13" s="47" t="s">
-        <v>122</v>
-      </c>
-      <c r="T13" s="47"/>
-      <c r="U13" s="47"/>
-      <c r="V13" s="47"/>
-      <c r="W13" s="48"/>
-      <c r="X13" s="48"/>
-      <c r="Y13" s="47"/>
-      <c r="Z13" s="47"/>
-      <c r="AA13" s="47"/>
-      <c r="AB13" s="47"/>
-      <c r="AC13" s="48"/>
-      <c r="AD13" s="48"/>
-      <c r="AE13" s="47"/>
-      <c r="AF13" s="47"/>
-      <c r="AG13" s="47"/>
-      <c r="AH13" s="47"/>
-      <c r="AI13" s="48"/>
-      <c r="AJ13" s="48"/>
-      <c r="AK13" s="49"/>
-    </row>
-    <row r="14" spans="2:37" x14ac:dyDescent="0.2">
-      <c r="B14" s="33" t="s">
+      <c r="M13" s="40"/>
+      <c r="N13" s="40"/>
+      <c r="O13" s="40"/>
+      <c r="P13" s="41"/>
+      <c r="Q13" s="42"/>
+      <c r="R13" s="42"/>
+      <c r="S13" s="43" t="s">
+        <v>102</v>
+      </c>
+      <c r="T13" s="43"/>
+      <c r="U13" s="43"/>
+      <c r="V13" s="43"/>
+      <c r="W13" s="44"/>
+      <c r="X13" s="44"/>
+      <c r="Y13" s="43"/>
+      <c r="Z13" s="43"/>
+      <c r="AA13" s="43"/>
+      <c r="AB13" s="43"/>
+      <c r="AC13" s="44"/>
+      <c r="AD13" s="44"/>
+      <c r="AE13" s="43"/>
+      <c r="AF13" s="43"/>
+      <c r="AG13" s="43"/>
+      <c r="AH13" s="43"/>
+      <c r="AI13" s="44"/>
+      <c r="AJ13" s="44"/>
+      <c r="AK13" s="45"/>
+    </row>
+    <row r="14" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="B14" s="14" t="s">
         <v>3</v>
       </c>
       <c r="C14" s="34" t="s">
-        <v>113</v>
-      </c>
-      <c r="D14" s="35" t="b">
+        <v>151</v>
+      </c>
+      <c r="D14" s="22" t="b">
         <v>0</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
-      <c r="H14" s="36">
-        <v>0</v>
-      </c>
-      <c r="I14" s="41" t="s">
-        <v>100</v>
-      </c>
-      <c r="J14" s="38">
+      <c r="H14" s="35">
+        <v>0</v>
+      </c>
+      <c r="I14" s="39" t="s">
+        <v>136</v>
+      </c>
+      <c r="J14" s="31">
         <v>0.5</v>
       </c>
-      <c r="K14" s="42" t="s">
-        <v>121</v>
-      </c>
-      <c r="L14" s="43" t="s">
+      <c r="K14" s="27" t="s">
+        <v>125</v>
+      </c>
+      <c r="L14" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="M14" s="50"/>
-      <c r="N14" s="44"/>
-      <c r="O14" s="44"/>
-      <c r="P14" s="45"/>
-      <c r="Q14" s="46"/>
-      <c r="R14" s="46"/>
-      <c r="S14" s="47" t="s">
-        <v>122</v>
-      </c>
-      <c r="T14" s="47"/>
-      <c r="U14" s="47"/>
-      <c r="V14" s="47"/>
-      <c r="W14" s="48"/>
-      <c r="X14" s="48"/>
-      <c r="Y14" s="47"/>
-      <c r="Z14" s="47"/>
-      <c r="AA14" s="47"/>
-      <c r="AB14" s="47"/>
-      <c r="AC14" s="48"/>
-      <c r="AD14" s="48"/>
-      <c r="AE14" s="47"/>
-      <c r="AF14" s="47"/>
-      <c r="AG14" s="47"/>
-      <c r="AH14" s="47"/>
-      <c r="AI14" s="48"/>
-      <c r="AJ14" s="48"/>
-      <c r="AK14" s="49"/>
+      <c r="M14" s="46"/>
+      <c r="N14" s="40"/>
+      <c r="O14" s="40"/>
+      <c r="P14" s="41"/>
+      <c r="Q14" s="42"/>
+      <c r="R14" s="42"/>
+      <c r="S14" s="43" t="s">
+        <v>102</v>
+      </c>
+      <c r="T14" s="43"/>
+      <c r="U14" s="43"/>
+      <c r="V14" s="43"/>
+      <c r="W14" s="44"/>
+      <c r="X14" s="44"/>
+      <c r="Y14" s="43"/>
+      <c r="Z14" s="43"/>
+      <c r="AA14" s="43"/>
+      <c r="AB14" s="43"/>
+      <c r="AC14" s="44"/>
+      <c r="AD14" s="44"/>
+      <c r="AE14" s="43"/>
+      <c r="AF14" s="43"/>
+      <c r="AG14" s="43"/>
+      <c r="AH14" s="43"/>
+      <c r="AI14" s="44"/>
+      <c r="AJ14" s="44"/>
+      <c r="AK14" s="45"/>
+    </row>
+    <row r="15" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="B15" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="34" t="s">
+        <v>152</v>
+      </c>
+      <c r="D15" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="35">
+        <v>0</v>
+      </c>
+      <c r="I15" s="39" t="s">
+        <v>137</v>
+      </c>
+      <c r="J15" s="31">
+        <v>0.5</v>
+      </c>
+      <c r="K15" s="27" t="s">
+        <v>126</v>
+      </c>
+      <c r="L15" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="M15" s="46"/>
+      <c r="N15" s="40"/>
+      <c r="O15" s="40"/>
+      <c r="P15" s="41"/>
+      <c r="Q15" s="42"/>
+      <c r="R15" s="42"/>
+      <c r="S15" s="43" t="s">
+        <v>102</v>
+      </c>
+      <c r="T15" s="43"/>
+      <c r="U15" s="43"/>
+      <c r="V15" s="43"/>
+      <c r="W15" s="44"/>
+      <c r="X15" s="44"/>
+      <c r="Y15" s="43"/>
+      <c r="Z15" s="43"/>
+      <c r="AA15" s="43"/>
+      <c r="AB15" s="43"/>
+      <c r="AC15" s="44"/>
+      <c r="AD15" s="44"/>
+      <c r="AE15" s="43"/>
+      <c r="AF15" s="43"/>
+      <c r="AG15" s="43"/>
+      <c r="AH15" s="43"/>
+      <c r="AI15" s="44"/>
+      <c r="AJ15" s="44"/>
+      <c r="AK15" s="45"/>
+    </row>
+    <row r="16" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="B16" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" s="34" t="s">
+        <v>153</v>
+      </c>
+      <c r="D16" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="35">
+        <v>0</v>
+      </c>
+      <c r="I16" s="39" t="s">
+        <v>138</v>
+      </c>
+      <c r="J16" s="31">
+        <v>0.5</v>
+      </c>
+      <c r="K16" s="27" t="s">
+        <v>127</v>
+      </c>
+      <c r="L16" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="M16" s="46"/>
+      <c r="N16" s="40"/>
+      <c r="O16" s="40"/>
+      <c r="P16" s="41"/>
+      <c r="Q16" s="42"/>
+      <c r="R16" s="42"/>
+      <c r="S16" s="43" t="s">
+        <v>102</v>
+      </c>
+      <c r="T16" s="43"/>
+      <c r="U16" s="43"/>
+      <c r="V16" s="43"/>
+      <c r="W16" s="44"/>
+      <c r="X16" s="44"/>
+      <c r="Y16" s="43"/>
+      <c r="Z16" s="43"/>
+      <c r="AA16" s="43"/>
+      <c r="AB16" s="43"/>
+      <c r="AC16" s="44"/>
+      <c r="AD16" s="44"/>
+      <c r="AE16" s="43"/>
+      <c r="AF16" s="43"/>
+      <c r="AG16" s="43"/>
+      <c r="AH16" s="43"/>
+      <c r="AI16" s="44"/>
+      <c r="AJ16" s="44"/>
+      <c r="AK16" s="45"/>
+    </row>
+    <row r="17" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="B17" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" s="34" t="s">
+        <v>154</v>
+      </c>
+      <c r="D17" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="35">
+        <v>0</v>
+      </c>
+      <c r="I17" s="39" t="s">
+        <v>139</v>
+      </c>
+      <c r="J17" s="31">
+        <v>0.5</v>
+      </c>
+      <c r="K17" s="27" t="s">
+        <v>128</v>
+      </c>
+      <c r="L17" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="M17" s="46"/>
+      <c r="N17" s="40"/>
+      <c r="O17" s="40"/>
+      <c r="P17" s="41"/>
+      <c r="Q17" s="42"/>
+      <c r="R17" s="42"/>
+      <c r="S17" s="43" t="s">
+        <v>102</v>
+      </c>
+      <c r="T17" s="43"/>
+      <c r="U17" s="43"/>
+      <c r="V17" s="43"/>
+      <c r="W17" s="44"/>
+      <c r="X17" s="44"/>
+      <c r="Y17" s="43"/>
+      <c r="Z17" s="43"/>
+      <c r="AA17" s="43"/>
+      <c r="AB17" s="43"/>
+      <c r="AC17" s="44"/>
+      <c r="AD17" s="44"/>
+      <c r="AE17" s="43"/>
+      <c r="AF17" s="43"/>
+      <c r="AG17" s="43"/>
+      <c r="AH17" s="43"/>
+      <c r="AI17" s="44"/>
+      <c r="AJ17" s="44"/>
+      <c r="AK17" s="45"/>
+    </row>
+    <row r="18" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="B18" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="34" t="s">
+        <v>155</v>
+      </c>
+      <c r="D18" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="35">
+        <v>0</v>
+      </c>
+      <c r="I18" s="39" t="s">
+        <v>135</v>
+      </c>
+      <c r="J18" s="31">
+        <v>0.5</v>
+      </c>
+      <c r="K18" s="27" t="s">
+        <v>129</v>
+      </c>
+      <c r="L18" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="M18" s="46"/>
+      <c r="N18" s="40"/>
+      <c r="O18" s="40"/>
+      <c r="P18" s="41"/>
+      <c r="Q18" s="42"/>
+      <c r="R18" s="42"/>
+      <c r="S18" s="43" t="s">
+        <v>102</v>
+      </c>
+      <c r="T18" s="43"/>
+      <c r="U18" s="43"/>
+      <c r="V18" s="43"/>
+      <c r="W18" s="44"/>
+      <c r="X18" s="44"/>
+      <c r="Y18" s="43"/>
+      <c r="Z18" s="43"/>
+      <c r="AA18" s="43"/>
+      <c r="AB18" s="43"/>
+      <c r="AC18" s="44"/>
+      <c r="AD18" s="44"/>
+      <c r="AE18" s="43"/>
+      <c r="AF18" s="43"/>
+      <c r="AG18" s="43"/>
+      <c r="AH18" s="43"/>
+      <c r="AI18" s="44"/>
+      <c r="AJ18" s="44"/>
+      <c r="AK18" s="45"/>
+    </row>
+    <row r="19" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="B19" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" s="34" t="s">
+        <v>156</v>
+      </c>
+      <c r="D19" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="35">
+        <v>0</v>
+      </c>
+      <c r="I19" s="39" t="s">
+        <v>99</v>
+      </c>
+      <c r="J19" s="31">
+        <v>0.5</v>
+      </c>
+      <c r="K19" s="27" t="s">
+        <v>130</v>
+      </c>
+      <c r="L19" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="M19" s="46"/>
+      <c r="N19" s="40"/>
+      <c r="O19" s="40"/>
+      <c r="P19" s="41"/>
+      <c r="Q19" s="42"/>
+      <c r="R19" s="42"/>
+      <c r="S19" s="43" t="s">
+        <v>102</v>
+      </c>
+      <c r="T19" s="43"/>
+      <c r="U19" s="43"/>
+      <c r="V19" s="43"/>
+      <c r="W19" s="44"/>
+      <c r="X19" s="44"/>
+      <c r="Y19" s="43"/>
+      <c r="Z19" s="43"/>
+      <c r="AA19" s="43"/>
+      <c r="AB19" s="43"/>
+      <c r="AC19" s="44"/>
+      <c r="AD19" s="44"/>
+      <c r="AE19" s="43"/>
+      <c r="AF19" s="43"/>
+      <c r="AG19" s="43"/>
+      <c r="AH19" s="43"/>
+      <c r="AI19" s="44"/>
+      <c r="AJ19" s="44"/>
+      <c r="AK19" s="45"/>
+    </row>
+    <row r="20" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="B20" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C20" s="34" t="s">
+        <v>157</v>
+      </c>
+      <c r="D20" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="35">
+        <v>0</v>
+      </c>
+      <c r="I20" s="39" t="s">
+        <v>136</v>
+      </c>
+      <c r="J20" s="31">
+        <v>0.5</v>
+      </c>
+      <c r="K20" s="27" t="s">
+        <v>131</v>
+      </c>
+      <c r="L20" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="M20" s="46"/>
+      <c r="N20" s="40"/>
+      <c r="O20" s="40"/>
+      <c r="P20" s="41"/>
+      <c r="Q20" s="42"/>
+      <c r="R20" s="42"/>
+      <c r="S20" s="43" t="s">
+        <v>102</v>
+      </c>
+      <c r="T20" s="43"/>
+      <c r="U20" s="43"/>
+      <c r="V20" s="43"/>
+      <c r="W20" s="44"/>
+      <c r="X20" s="44"/>
+      <c r="Y20" s="43"/>
+      <c r="Z20" s="43"/>
+      <c r="AA20" s="43"/>
+      <c r="AB20" s="43"/>
+      <c r="AC20" s="44"/>
+      <c r="AD20" s="44"/>
+      <c r="AE20" s="43"/>
+      <c r="AF20" s="43"/>
+      <c r="AG20" s="43"/>
+      <c r="AH20" s="43"/>
+      <c r="AI20" s="44"/>
+      <c r="AJ20" s="44"/>
+      <c r="AK20" s="45"/>
+    </row>
+    <row r="21" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="B21" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21" s="34" t="s">
+        <v>158</v>
+      </c>
+      <c r="D21" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="35">
+        <v>0</v>
+      </c>
+      <c r="I21" s="39" t="s">
+        <v>137</v>
+      </c>
+      <c r="J21" s="31">
+        <v>0.5</v>
+      </c>
+      <c r="K21" s="27" t="s">
+        <v>132</v>
+      </c>
+      <c r="L21" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="M21" s="46"/>
+      <c r="N21" s="40"/>
+      <c r="O21" s="40"/>
+      <c r="P21" s="41"/>
+      <c r="Q21" s="42"/>
+      <c r="R21" s="42"/>
+      <c r="S21" s="43" t="s">
+        <v>102</v>
+      </c>
+      <c r="T21" s="43"/>
+      <c r="U21" s="43"/>
+      <c r="V21" s="43"/>
+      <c r="W21" s="44"/>
+      <c r="X21" s="44"/>
+      <c r="Y21" s="43"/>
+      <c r="Z21" s="43"/>
+      <c r="AA21" s="43"/>
+      <c r="AB21" s="43"/>
+      <c r="AC21" s="44"/>
+      <c r="AD21" s="44"/>
+      <c r="AE21" s="43"/>
+      <c r="AF21" s="43"/>
+      <c r="AG21" s="43"/>
+      <c r="AH21" s="43"/>
+      <c r="AI21" s="44"/>
+      <c r="AJ21" s="44"/>
+      <c r="AK21" s="45"/>
+    </row>
+    <row r="22" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="B22" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C22" s="34" t="s">
+        <v>159</v>
+      </c>
+      <c r="D22" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="35">
+        <v>0</v>
+      </c>
+      <c r="I22" s="39" t="s">
+        <v>138</v>
+      </c>
+      <c r="J22" s="31">
+        <v>0.5</v>
+      </c>
+      <c r="K22" s="27" t="s">
+        <v>133</v>
+      </c>
+      <c r="L22" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="M22" s="46"/>
+      <c r="N22" s="40"/>
+      <c r="O22" s="40"/>
+      <c r="P22" s="41"/>
+      <c r="Q22" s="42"/>
+      <c r="R22" s="42"/>
+      <c r="S22" s="43" t="s">
+        <v>102</v>
+      </c>
+      <c r="T22" s="43"/>
+      <c r="U22" s="43"/>
+      <c r="V22" s="43"/>
+      <c r="W22" s="44"/>
+      <c r="X22" s="44"/>
+      <c r="Y22" s="43"/>
+      <c r="Z22" s="43"/>
+      <c r="AA22" s="43"/>
+      <c r="AB22" s="43"/>
+      <c r="AC22" s="44"/>
+      <c r="AD22" s="44"/>
+      <c r="AE22" s="43"/>
+      <c r="AF22" s="43"/>
+      <c r="AG22" s="43"/>
+      <c r="AH22" s="43"/>
+      <c r="AI22" s="44"/>
+      <c r="AJ22" s="44"/>
+      <c r="AK22" s="45"/>
+    </row>
+    <row r="23" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="B23" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23" s="47" t="s">
+        <v>160</v>
+      </c>
+      <c r="D23" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="35">
+        <v>0</v>
+      </c>
+      <c r="I23" s="30" t="s">
+        <v>139</v>
+      </c>
+      <c r="J23" s="31">
+        <v>0.5</v>
+      </c>
+      <c r="K23" s="27" t="s">
+        <v>134</v>
+      </c>
+      <c r="L23" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="M23" s="48"/>
+      <c r="N23" s="48"/>
+      <c r="O23" s="48"/>
+      <c r="P23" s="49"/>
+      <c r="Q23" s="50"/>
+      <c r="R23" s="50"/>
+      <c r="S23" s="43" t="s">
+        <v>102</v>
+      </c>
+      <c r="T23" s="43"/>
+      <c r="U23" s="43"/>
+      <c r="V23" s="43"/>
+      <c r="W23" s="44"/>
+      <c r="X23" s="44"/>
+      <c r="Y23" s="43"/>
+      <c r="Z23" s="43"/>
+      <c r="AA23" s="43"/>
+      <c r="AB23" s="43"/>
+      <c r="AC23" s="44"/>
+      <c r="AD23" s="44"/>
+      <c r="AE23" s="43"/>
+      <c r="AF23" s="43"/>
+      <c r="AG23" s="43"/>
+      <c r="AH23" s="43"/>
+      <c r="AI23" s="44"/>
+      <c r="AJ23" s="44"/>
+      <c r="AK23" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -4875,494 +5322,712 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED217350-C2FE-AD4B-876A-D4EF0AF3C693}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:G38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4" customWidth="1"/>
     <col min="2" max="2" width="13.5" customWidth="1"/>
-    <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1"/>
-    <col min="6" max="6" width="12.33203125" customWidth="1"/>
-    <col min="7" max="7" width="12.6640625" customWidth="1"/>
+    <col min="6" max="6" width="12.375" customWidth="1"/>
+    <col min="7" max="7" width="12.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:7" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E1" s="16"/>
       <c r="F1" s="16"/>
       <c r="G1" s="16"/>
     </row>
-    <row r="2" spans="2:7" ht="112" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:7" ht="115.5" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
-        <v>123</v>
+        <v>103</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>128</v>
+        <v>108</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>129</v>
+        <v>109</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B3" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="28" t="s">
-        <v>130</v>
-      </c>
-      <c r="D3" s="22"/>
+      <c r="C3" s="28" t="str">
+        <f>IF(offerItemsDefinitions[[#This Row],['[type']]]="",CONCATENATE("offer_item_",ROW(C3)),CONCATENATE("offer_item_",IF(offerItemsDefinitions[[#This Row],['[featured']]],"featured_",""),offerItemsDefinitions[[#This Row],['[type']]],"_",offerItemsDefinitions[[#This Row],['[amount']]],IF(offerItemsDefinitions[[#This Row],['[itemSku']]]="","","_"),offerItemsDefinitions[[#This Row],['[itemSku']]]))</f>
+        <v>offer_item_egg_4_egg_offer</v>
+      </c>
+      <c r="D3" s="22" t="b">
+        <v>0</v>
+      </c>
       <c r="E3" s="29" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="F3" s="32">
-        <v>1</v>
-      </c>
-      <c r="G3" s="31"/>
-    </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+      <c r="G3" s="31" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B4" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="28" t="s">
-        <v>131</v>
-      </c>
-      <c r="D4" s="22"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="31"/>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C4" s="28" t="str">
+        <f>IF(offerItemsDefinitions[[#This Row],['[type']]]="",CONCATENATE("offer_item_",ROW(C4)),CONCATENATE("offer_item_",IF(offerItemsDefinitions[[#This Row],['[featured']]],"featured_",""),offerItemsDefinitions[[#This Row],['[type']]],"_",offerItemsDefinitions[[#This Row],['[amount']]],IF(offerItemsDefinitions[[#This Row],['[itemSku']]]="","","_"),offerItemsDefinitions[[#This Row],['[itemSku']]]))</f>
+        <v>offer_item_egg_3_egg_offer</v>
+      </c>
+      <c r="D4" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="E4" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" s="32">
+        <v>3</v>
+      </c>
+      <c r="G4" s="31" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B5" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="28" t="s">
-        <v>132</v>
-      </c>
-      <c r="D5" s="22"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="32"/>
-      <c r="G5" s="31"/>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C5" s="28" t="str">
+        <f>IF(offerItemsDefinitions[[#This Row],['[type']]]="",CONCATENATE("offer_item_",ROW(C5)),CONCATENATE("offer_item_",IF(offerItemsDefinitions[[#This Row],['[featured']]],"featured_",""),offerItemsDefinitions[[#This Row],['[type']]],"_",offerItemsDefinitions[[#This Row],['[amount']]],IF(offerItemsDefinitions[[#This Row],['[itemSku']]]="","","_"),offerItemsDefinitions[[#This Row],['[itemSku']]]))</f>
+        <v>offer_item_egg_2_egg_offer</v>
+      </c>
+      <c r="D5" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="E5" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" s="32">
+        <v>2</v>
+      </c>
+      <c r="G5" s="31" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B6" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="28" t="s">
-        <v>133</v>
-      </c>
-      <c r="D6" s="22"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="32"/>
-      <c r="G6" s="31"/>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C6" s="28" t="str">
+        <f>IF(offerItemsDefinitions[[#This Row],['[type']]]="",CONCATENATE("offer_item_",ROW(C6)),CONCATENATE("offer_item_",IF(offerItemsDefinitions[[#This Row],['[featured']]],"featured_",""),offerItemsDefinitions[[#This Row],['[type']]],"_",offerItemsDefinitions[[#This Row],['[amount']]],IF(offerItemsDefinitions[[#This Row],['[itemSku']]]="","","_"),offerItemsDefinitions[[#This Row],['[itemSku']]]))</f>
+        <v>offer_item_egg_1_egg_offer</v>
+      </c>
+      <c r="D6" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="E6" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" s="32">
+        <v>1</v>
+      </c>
+      <c r="G6" s="31" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B7" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="28" t="s">
-        <v>134</v>
-      </c>
-      <c r="D7" s="22"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="32"/>
-      <c r="G7" s="31"/>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C7" s="28" t="str">
+        <f>IF(offerItemsDefinitions[[#This Row],['[type']]]="",CONCATENATE("offer_item_",ROW(C7)),CONCATENATE("offer_item_",IF(offerItemsDefinitions[[#This Row],['[featured']]],"featured_",""),offerItemsDefinitions[[#This Row],['[type']]],"_",offerItemsDefinitions[[#This Row],['[amount']]],IF(offerItemsDefinitions[[#This Row],['[itemSku']]]="","","_"),offerItemsDefinitions[[#This Row],['[itemSku']]]))</f>
+        <v>offer_item_featured_egg_3_egg_offer</v>
+      </c>
+      <c r="D7" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="E7" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" s="32">
+        <v>3</v>
+      </c>
+      <c r="G7" s="31" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="28" t="s">
-        <v>135</v>
-      </c>
-      <c r="D8" s="22"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="32"/>
+      <c r="C8" s="28" t="str">
+        <f>IF(offerItemsDefinitions[[#This Row],['[type']]]="",CONCATENATE("offer_item_",ROW(C8)),CONCATENATE("offer_item_",IF(offerItemsDefinitions[[#This Row],['[featured']]],"featured_",""),offerItemsDefinitions[[#This Row],['[type']]],"_",offerItemsDefinitions[[#This Row],['[amount']]],IF(offerItemsDefinitions[[#This Row],['[itemSku']]]="","","_"),offerItemsDefinitions[[#This Row],['[itemSku']]]))</f>
+        <v>offer_item_pc_200</v>
+      </c>
+      <c r="D8" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="E8" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" s="32">
+        <v>200</v>
+      </c>
       <c r="G8" s="31"/>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B9" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="28" t="s">
-        <v>136</v>
-      </c>
-      <c r="D9" s="22"/>
-      <c r="E9" s="29"/>
-      <c r="F9" s="32"/>
+      <c r="C9" s="28" t="str">
+        <f>IF(offerItemsDefinitions[[#This Row],['[type']]]="",CONCATENATE("offer_item_",ROW(C9)),CONCATENATE("offer_item_",IF(offerItemsDefinitions[[#This Row],['[featured']]],"featured_",""),offerItemsDefinitions[[#This Row],['[type']]],"_",offerItemsDefinitions[[#This Row],['[amount']]],IF(offerItemsDefinitions[[#This Row],['[itemSku']]]="","","_"),offerItemsDefinitions[[#This Row],['[itemSku']]]))</f>
+        <v>offer_item_pc_30</v>
+      </c>
+      <c r="D9" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="E9" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="32">
+        <v>30</v>
+      </c>
       <c r="G9" s="31"/>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B10" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="28" t="s">
-        <v>137</v>
-      </c>
-      <c r="D10" s="22"/>
-      <c r="E10" s="29"/>
-      <c r="F10" s="32"/>
+      <c r="C10" s="28" t="str">
+        <f>IF(offerItemsDefinitions[[#This Row],['[type']]]="",CONCATENATE("offer_item_",ROW(C10)),CONCATENATE("offer_item_",IF(offerItemsDefinitions[[#This Row],['[featured']]],"featured_",""),offerItemsDefinitions[[#This Row],['[type']]],"_",offerItemsDefinitions[[#This Row],['[amount']]],IF(offerItemsDefinitions[[#This Row],['[itemSku']]]="","","_"),offerItemsDefinitions[[#This Row],['[itemSku']]]))</f>
+        <v>offer_item_pc_70</v>
+      </c>
+      <c r="D10" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="E10" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" s="32">
+        <v>70</v>
+      </c>
       <c r="G10" s="31"/>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B11" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="28" t="s">
-        <v>138</v>
-      </c>
-      <c r="D11" s="22"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="32"/>
+      <c r="C11" s="28" t="str">
+        <f>IF(offerItemsDefinitions[[#This Row],['[type']]]="",CONCATENATE("offer_item_",ROW(C11)),CONCATENATE("offer_item_",IF(offerItemsDefinitions[[#This Row],['[featured']]],"featured_",""),offerItemsDefinitions[[#This Row],['[type']]],"_",offerItemsDefinitions[[#This Row],['[amount']]],IF(offerItemsDefinitions[[#This Row],['[itemSku']]]="","","_"),offerItemsDefinitions[[#This Row],['[itemSku']]]))</f>
+        <v>offer_item_pc_40</v>
+      </c>
+      <c r="D11" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="E11" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" s="32">
+        <v>40</v>
+      </c>
       <c r="G11" s="31"/>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B12" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="C12" s="28" t="s">
-        <v>139</v>
-      </c>
-      <c r="D12" s="22"/>
-      <c r="E12" s="29"/>
-      <c r="F12" s="32"/>
+      <c r="C12" s="28" t="str">
+        <f>IF(offerItemsDefinitions[[#This Row],['[type']]]="",CONCATENATE("offer_item_",ROW(C12)),CONCATENATE("offer_item_",IF(offerItemsDefinitions[[#This Row],['[featured']]],"featured_",""),offerItemsDefinitions[[#This Row],['[type']]],"_",offerItemsDefinitions[[#This Row],['[amount']]],IF(offerItemsDefinitions[[#This Row],['[itemSku']]]="","","_"),offerItemsDefinitions[[#This Row],['[itemSku']]]))</f>
+        <v>offer_item_pc_80</v>
+      </c>
+      <c r="D12" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="E12" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" s="32">
+        <v>80</v>
+      </c>
       <c r="G12" s="31"/>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B13" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="28" t="s">
-        <v>140</v>
-      </c>
-      <c r="D13" s="22"/>
-      <c r="E13" s="29"/>
-      <c r="F13" s="32"/>
+      <c r="C13" s="28" t="str">
+        <f>IF(offerItemsDefinitions[[#This Row],['[type']]]="",CONCATENATE("offer_item_",ROW(C13)),CONCATENATE("offer_item_",IF(offerItemsDefinitions[[#This Row],['[featured']]],"featured_",""),offerItemsDefinitions[[#This Row],['[type']]],"_",offerItemsDefinitions[[#This Row],['[amount']]],IF(offerItemsDefinitions[[#This Row],['[itemSku']]]="","","_"),offerItemsDefinitions[[#This Row],['[itemSku']]]))</f>
+        <v>offer_item_pc_125</v>
+      </c>
+      <c r="D13" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="E13" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="F13" s="32">
+        <v>125</v>
+      </c>
       <c r="G13" s="31"/>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B14" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="C14" s="28" t="s">
-        <v>141</v>
-      </c>
-      <c r="D14" s="22"/>
-      <c r="E14" s="29"/>
-      <c r="F14" s="32"/>
+      <c r="C14" s="28" t="str">
+        <f>IF(offerItemsDefinitions[[#This Row],['[type']]]="",CONCATENATE("offer_item_",ROW(C14)),CONCATENATE("offer_item_",IF(offerItemsDefinitions[[#This Row],['[featured']]],"featured_",""),offerItemsDefinitions[[#This Row],['[type']]],"_",offerItemsDefinitions[[#This Row],['[amount']]],IF(offerItemsDefinitions[[#This Row],['[itemSku']]]="","","_"),offerItemsDefinitions[[#This Row],['[itemSku']]]))</f>
+        <v>offer_item_pc_120</v>
+      </c>
+      <c r="D14" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="E14" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="F14" s="32">
+        <v>120</v>
+      </c>
       <c r="G14" s="31"/>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B15" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="C15" s="28" t="s">
-        <v>142</v>
-      </c>
-      <c r="D15" s="22"/>
-      <c r="E15" s="29"/>
-      <c r="F15" s="32"/>
+      <c r="C15" s="28" t="str">
+        <f>IF(offerItemsDefinitions[[#This Row],['[type']]]="",CONCATENATE("offer_item_",ROW(C15)),CONCATENATE("offer_item_",IF(offerItemsDefinitions[[#This Row],['[featured']]],"featured_",""),offerItemsDefinitions[[#This Row],['[type']]],"_",offerItemsDefinitions[[#This Row],['[amount']]],IF(offerItemsDefinitions[[#This Row],['[itemSku']]]="","","_"),offerItemsDefinitions[[#This Row],['[itemSku']]]))</f>
+        <v>offer_item_pc_140</v>
+      </c>
+      <c r="D15" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="E15" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="32">
+        <v>140</v>
+      </c>
       <c r="G15" s="31"/>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B16" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="C16" s="28" t="s">
-        <v>143</v>
-      </c>
-      <c r="D16" s="22"/>
-      <c r="E16" s="29"/>
-      <c r="F16" s="32"/>
-      <c r="G16" s="31"/>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C16" s="28" t="str">
+        <f>IF(offerItemsDefinitions[[#This Row],['[type']]]="",CONCATENATE("offer_item_",ROW(C16)),CONCATENATE("offer_item_",IF(offerItemsDefinitions[[#This Row],['[featured']]],"featured_",""),offerItemsDefinitions[[#This Row],['[type']]],"_",offerItemsDefinitions[[#This Row],['[amount']]],IF(offerItemsDefinitions[[#This Row],['[itemSku']]]="","","_"),offerItemsDefinitions[[#This Row],['[itemSku']]]))</f>
+        <v>offer_item_pet_1_pet_28</v>
+      </c>
+      <c r="D16" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="E16" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="F16" s="32">
+        <v>1</v>
+      </c>
+      <c r="G16" s="31" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B17" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="C17" s="28" t="s">
-        <v>144</v>
-      </c>
-      <c r="D17" s="22"/>
-      <c r="E17" s="29"/>
-      <c r="F17" s="32"/>
-      <c r="G17" s="31"/>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C17" s="28" t="str">
+        <f>IF(offerItemsDefinitions[[#This Row],['[type']]]="",CONCATENATE("offer_item_",ROW(C17)),CONCATENATE("offer_item_",IF(offerItemsDefinitions[[#This Row],['[featured']]],"featured_",""),offerItemsDefinitions[[#This Row],['[type']]],"_",offerItemsDefinitions[[#This Row],['[amount']]],IF(offerItemsDefinitions[[#This Row],['[itemSku']]]="","","_"),offerItemsDefinitions[[#This Row],['[itemSku']]]))</f>
+        <v>offer_item_pet_1_pet_29</v>
+      </c>
+      <c r="D17" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="E17" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="F17" s="32">
+        <v>1</v>
+      </c>
+      <c r="G17" s="31" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B18" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="C18" s="28" t="s">
-        <v>145</v>
-      </c>
-      <c r="D18" s="22"/>
-      <c r="E18" s="29"/>
-      <c r="F18" s="32"/>
-      <c r="G18" s="31"/>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C18" s="28" t="str">
+        <f>IF(offerItemsDefinitions[[#This Row],['[type']]]="",CONCATENATE("offer_item_",ROW(C18)),CONCATENATE("offer_item_",IF(offerItemsDefinitions[[#This Row],['[featured']]],"featured_",""),offerItemsDefinitions[[#This Row],['[type']]],"_",offerItemsDefinitions[[#This Row],['[amount']]],IF(offerItemsDefinitions[[#This Row],['[itemSku']]]="","","_"),offerItemsDefinitions[[#This Row],['[itemSku']]]))</f>
+        <v>offer_item_pet_1_pet_35</v>
+      </c>
+      <c r="D18" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="E18" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="F18" s="32">
+        <v>1</v>
+      </c>
+      <c r="G18" s="31" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B19" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="C19" s="28" t="s">
-        <v>146</v>
-      </c>
-      <c r="D19" s="22"/>
-      <c r="E19" s="29"/>
-      <c r="F19" s="32"/>
-      <c r="G19" s="31"/>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C19" s="28" t="str">
+        <f>IF(offerItemsDefinitions[[#This Row],['[type']]]="",CONCATENATE("offer_item_",ROW(C19)),CONCATENATE("offer_item_",IF(offerItemsDefinitions[[#This Row],['[featured']]],"featured_",""),offerItemsDefinitions[[#This Row],['[type']]],"_",offerItemsDefinitions[[#This Row],['[amount']]],IF(offerItemsDefinitions[[#This Row],['[itemSku']]]="","","_"),offerItemsDefinitions[[#This Row],['[itemSku']]]))</f>
+        <v>offer_item_pet_1_pet_36</v>
+      </c>
+      <c r="D19" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="E19" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="F19" s="32">
+        <v>1</v>
+      </c>
+      <c r="G19" s="31" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B20" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="C20" s="28" t="s">
-        <v>147</v>
-      </c>
-      <c r="D20" s="22"/>
-      <c r="E20" s="29"/>
-      <c r="F20" s="32"/>
+      <c r="C20" s="28" t="str">
+        <f>IF(offerItemsDefinitions[[#This Row],['[type']]]="",CONCATENATE("offer_item_",ROW(C20)),CONCATENATE("offer_item_",IF(offerItemsDefinitions[[#This Row],['[featured']]],"featured_",""),offerItemsDefinitions[[#This Row],['[type']]],"_",offerItemsDefinitions[[#This Row],['[amount']]],IF(offerItemsDefinitions[[#This Row],['[itemSku']]]="","","_"),offerItemsDefinitions[[#This Row],['[itemSku']]]))</f>
+        <v>offer_item_sc_40000</v>
+      </c>
+      <c r="D20" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="E20" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="F20" s="32">
+        <v>40000</v>
+      </c>
       <c r="G20" s="31"/>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B21" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="C21" s="28" t="s">
-        <v>148</v>
-      </c>
-      <c r="D21" s="22"/>
-      <c r="E21" s="29"/>
-      <c r="F21" s="32"/>
+      <c r="C21" s="28" t="str">
+        <f>IF(offerItemsDefinitions[[#This Row],['[type']]]="",CONCATENATE("offer_item_",ROW(C21)),CONCATENATE("offer_item_",IF(offerItemsDefinitions[[#This Row],['[featured']]],"featured_",""),offerItemsDefinitions[[#This Row],['[type']]],"_",offerItemsDefinitions[[#This Row],['[amount']]],IF(offerItemsDefinitions[[#This Row],['[itemSku']]]="","","_"),offerItemsDefinitions[[#This Row],['[itemSku']]]))</f>
+        <v>offer_item_sc_100000</v>
+      </c>
+      <c r="D21" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="E21" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="F21" s="32">
+        <v>100000</v>
+      </c>
       <c r="G21" s="31"/>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B22" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="C22" s="28" t="s">
-        <v>149</v>
-      </c>
-      <c r="D22" s="22"/>
-      <c r="E22" s="29"/>
-      <c r="F22" s="32"/>
+      <c r="C22" s="28" t="str">
+        <f>IF(offerItemsDefinitions[[#This Row],['[type']]]="",CONCATENATE("offer_item_",ROW(C22)),CONCATENATE("offer_item_",IF(offerItemsDefinitions[[#This Row],['[featured']]],"featured_",""),offerItemsDefinitions[[#This Row],['[type']]],"_",offerItemsDefinitions[[#This Row],['[amount']]],IF(offerItemsDefinitions[[#This Row],['[itemSku']]]="","","_"),offerItemsDefinitions[[#This Row],['[itemSku']]]))</f>
+        <v>offer_item_sc_200000</v>
+      </c>
+      <c r="D22" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="E22" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="F22" s="32">
+        <v>200000</v>
+      </c>
       <c r="G22" s="31"/>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B23" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="C23" s="28" t="s">
-        <v>150</v>
-      </c>
-      <c r="D23" s="22"/>
-      <c r="E23" s="29"/>
-      <c r="F23" s="32"/>
+      <c r="C23" s="28" t="str">
+        <f>IF(offerItemsDefinitions[[#This Row],['[type']]]="",CONCATENATE("offer_item_",ROW(C23)),CONCATENATE("offer_item_",IF(offerItemsDefinitions[[#This Row],['[featured']]],"featured_",""),offerItemsDefinitions[[#This Row],['[type']]],"_",offerItemsDefinitions[[#This Row],['[amount']]],IF(offerItemsDefinitions[[#This Row],['[itemSku']]]="","","_"),offerItemsDefinitions[[#This Row],['[itemSku']]]))</f>
+        <v>offer_item_sc_500000</v>
+      </c>
+      <c r="D23" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="E23" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="F23" s="32">
+        <v>500000</v>
+      </c>
       <c r="G23" s="31"/>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B24" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="C24" s="28" t="s">
-        <v>151</v>
-      </c>
-      <c r="D24" s="22"/>
-      <c r="E24" s="29"/>
-      <c r="F24" s="32"/>
+      <c r="C24" s="28" t="str">
+        <f>IF(offerItemsDefinitions[[#This Row],['[type']]]="",CONCATENATE("offer_item_",ROW(C24)),CONCATENATE("offer_item_",IF(offerItemsDefinitions[[#This Row],['[featured']]],"featured_",""),offerItemsDefinitions[[#This Row],['[type']]],"_",offerItemsDefinitions[[#This Row],['[amount']]],IF(offerItemsDefinitions[[#This Row],['[itemSku']]]="","","_"),offerItemsDefinitions[[#This Row],['[itemSku']]]))</f>
+        <v>offer_item_sc_30000</v>
+      </c>
+      <c r="D24" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="E24" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="F24" s="32">
+        <v>30000</v>
+      </c>
       <c r="G24" s="31"/>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B25" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="C25" s="28" t="s">
-        <v>152</v>
-      </c>
-      <c r="D25" s="22"/>
-      <c r="E25" s="29"/>
-      <c r="F25" s="32"/>
+      <c r="C25" s="28" t="str">
+        <f>IF(offerItemsDefinitions[[#This Row],['[type']]]="",CONCATENATE("offer_item_",ROW(C25)),CONCATENATE("offer_item_",IF(offerItemsDefinitions[[#This Row],['[featured']]],"featured_",""),offerItemsDefinitions[[#This Row],['[type']]],"_",offerItemsDefinitions[[#This Row],['[amount']]],IF(offerItemsDefinitions[[#This Row],['[itemSku']]]="","","_"),offerItemsDefinitions[[#This Row],['[itemSku']]]))</f>
+        <v>offer_item_sc_80000</v>
+      </c>
+      <c r="D25" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="E25" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="F25" s="32">
+        <v>80000</v>
+      </c>
       <c r="G25" s="31"/>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B26" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="C26" s="28" t="s">
-        <v>153</v>
-      </c>
-      <c r="D26" s="22"/>
-      <c r="E26" s="29"/>
-      <c r="F26" s="32"/>
+      <c r="C26" s="28" t="str">
+        <f>IF(offerItemsDefinitions[[#This Row],['[type']]]="",CONCATENATE("offer_item_",ROW(C26)),CONCATENATE("offer_item_",IF(offerItemsDefinitions[[#This Row],['[featured']]],"featured_",""),offerItemsDefinitions[[#This Row],['[type']]],"_",offerItemsDefinitions[[#This Row],['[amount']]],IF(offerItemsDefinitions[[#This Row],['[itemSku']]]="","","_"),offerItemsDefinitions[[#This Row],['[itemSku']]]))</f>
+        <v>offer_item_sc_50000</v>
+      </c>
+      <c r="D26" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="E26" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="F26" s="32">
+        <v>50000</v>
+      </c>
       <c r="G26" s="31"/>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B27" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="C27" s="28" t="s">
-        <v>154</v>
-      </c>
-      <c r="D27" s="22"/>
+      <c r="C27" s="28" t="str">
+        <f>IF(offerItemsDefinitions[[#This Row],['[type']]]="",CONCATENATE("offer_item_",ROW(C27)),CONCATENATE("offer_item_",IF(offerItemsDefinitions[[#This Row],['[featured']]],"featured_",""),offerItemsDefinitions[[#This Row],['[type']]],"_",offerItemsDefinitions[[#This Row],['[amount']]],IF(offerItemsDefinitions[[#This Row],['[itemSku']]]="","","_"),offerItemsDefinitions[[#This Row],['[itemSku']]]))</f>
+        <v>offer_item_27</v>
+      </c>
+      <c r="D27" s="22" t="b">
+        <v>0</v>
+      </c>
       <c r="E27" s="29"/>
       <c r="F27" s="32"/>
       <c r="G27" s="31"/>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B28" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="C28" s="28" t="s">
-        <v>155</v>
-      </c>
-      <c r="D28" s="22"/>
+      <c r="C28" s="28" t="str">
+        <f>IF(offerItemsDefinitions[[#This Row],['[type']]]="",CONCATENATE("offer_item_",ROW(C28)),CONCATENATE("offer_item_",IF(offerItemsDefinitions[[#This Row],['[featured']]],"featured_",""),offerItemsDefinitions[[#This Row],['[type']]],"_",offerItemsDefinitions[[#This Row],['[amount']]],IF(offerItemsDefinitions[[#This Row],['[itemSku']]]="","","_"),offerItemsDefinitions[[#This Row],['[itemSku']]]))</f>
+        <v>offer_item_28</v>
+      </c>
+      <c r="D28" s="22" t="b">
+        <v>0</v>
+      </c>
       <c r="E28" s="29"/>
       <c r="F28" s="32"/>
       <c r="G28" s="31"/>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B29" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="C29" s="28" t="s">
-        <v>156</v>
-      </c>
-      <c r="D29" s="22"/>
+      <c r="C29" s="28" t="str">
+        <f>IF(offerItemsDefinitions[[#This Row],['[type']]]="",CONCATENATE("offer_item_",ROW(C29)),CONCATENATE("offer_item_",IF(offerItemsDefinitions[[#This Row],['[featured']]],"featured_",""),offerItemsDefinitions[[#This Row],['[type']]],"_",offerItemsDefinitions[[#This Row],['[amount']]],IF(offerItemsDefinitions[[#This Row],['[itemSku']]]="","","_"),offerItemsDefinitions[[#This Row],['[itemSku']]]))</f>
+        <v>offer_item_29</v>
+      </c>
+      <c r="D29" s="22" t="b">
+        <v>0</v>
+      </c>
       <c r="E29" s="29"/>
       <c r="F29" s="32"/>
       <c r="G29" s="31"/>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B30" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="C30" s="28" t="s">
-        <v>157</v>
-      </c>
-      <c r="D30" s="22"/>
+      <c r="C30" s="28" t="str">
+        <f>IF(offerItemsDefinitions[[#This Row],['[type']]]="",CONCATENATE("offer_item_",ROW(C30)),CONCATENATE("offer_item_",IF(offerItemsDefinitions[[#This Row],['[featured']]],"featured_",""),offerItemsDefinitions[[#This Row],['[type']]],"_",offerItemsDefinitions[[#This Row],['[amount']]],IF(offerItemsDefinitions[[#This Row],['[itemSku']]]="","","_"),offerItemsDefinitions[[#This Row],['[itemSku']]]))</f>
+        <v>offer_item_30</v>
+      </c>
+      <c r="D30" s="22" t="b">
+        <v>0</v>
+      </c>
       <c r="E30" s="29"/>
       <c r="F30" s="32"/>
       <c r="G30" s="31"/>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B31" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="C31" s="28" t="s">
-        <v>158</v>
-      </c>
-      <c r="D31" s="22"/>
+      <c r="C31" s="28" t="str">
+        <f>IF(offerItemsDefinitions[[#This Row],['[type']]]="",CONCATENATE("offer_item_",ROW(C31)),CONCATENATE("offer_item_",IF(offerItemsDefinitions[[#This Row],['[featured']]],"featured_",""),offerItemsDefinitions[[#This Row],['[type']]],"_",offerItemsDefinitions[[#This Row],['[amount']]],IF(offerItemsDefinitions[[#This Row],['[itemSku']]]="","","_"),offerItemsDefinitions[[#This Row],['[itemSku']]]))</f>
+        <v>offer_item_31</v>
+      </c>
+      <c r="D31" s="22" t="b">
+        <v>0</v>
+      </c>
       <c r="E31" s="29"/>
       <c r="F31" s="32"/>
       <c r="G31" s="31"/>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B32" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="C32" s="28" t="s">
-        <v>159</v>
-      </c>
-      <c r="D32" s="22"/>
+      <c r="C32" s="28" t="str">
+        <f>IF(offerItemsDefinitions[[#This Row],['[type']]]="",CONCATENATE("offer_item_",ROW(C32)),CONCATENATE("offer_item_",IF(offerItemsDefinitions[[#This Row],['[featured']]],"featured_",""),offerItemsDefinitions[[#This Row],['[type']]],"_",offerItemsDefinitions[[#This Row],['[amount']]],IF(offerItemsDefinitions[[#This Row],['[itemSku']]]="","","_"),offerItemsDefinitions[[#This Row],['[itemSku']]]))</f>
+        <v>offer_item_32</v>
+      </c>
+      <c r="D32" s="22" t="b">
+        <v>0</v>
+      </c>
       <c r="E32" s="29"/>
       <c r="F32" s="32"/>
       <c r="G32" s="31"/>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B33" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="C33" s="28" t="s">
-        <v>160</v>
-      </c>
-      <c r="D33" s="22"/>
+      <c r="C33" s="28" t="str">
+        <f>IF(offerItemsDefinitions[[#This Row],['[type']]]="",CONCATENATE("offer_item_",ROW(C33)),CONCATENATE("offer_item_",IF(offerItemsDefinitions[[#This Row],['[featured']]],"featured_",""),offerItemsDefinitions[[#This Row],['[type']]],"_",offerItemsDefinitions[[#This Row],['[amount']]],IF(offerItemsDefinitions[[#This Row],['[itemSku']]]="","","_"),offerItemsDefinitions[[#This Row],['[itemSku']]]))</f>
+        <v>offer_item_33</v>
+      </c>
+      <c r="D33" s="22" t="b">
+        <v>0</v>
+      </c>
       <c r="E33" s="29"/>
       <c r="F33" s="32"/>
       <c r="G33" s="31"/>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B34" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="C34" s="28" t="s">
-        <v>161</v>
-      </c>
-      <c r="D34" s="22"/>
+      <c r="C34" s="28" t="str">
+        <f>IF(offerItemsDefinitions[[#This Row],['[type']]]="",CONCATENATE("offer_item_",ROW(C34)),CONCATENATE("offer_item_",IF(offerItemsDefinitions[[#This Row],['[featured']]],"featured_",""),offerItemsDefinitions[[#This Row],['[type']]],"_",offerItemsDefinitions[[#This Row],['[amount']]],IF(offerItemsDefinitions[[#This Row],['[itemSku']]]="","","_"),offerItemsDefinitions[[#This Row],['[itemSku']]]))</f>
+        <v>offer_item_34</v>
+      </c>
+      <c r="D34" s="22" t="b">
+        <v>0</v>
+      </c>
       <c r="E34" s="29"/>
       <c r="F34" s="32"/>
       <c r="G34" s="31"/>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B35" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="C35" s="28" t="s">
-        <v>162</v>
-      </c>
-      <c r="D35" s="22"/>
+      <c r="C35" s="28" t="str">
+        <f>IF(offerItemsDefinitions[[#This Row],['[type']]]="",CONCATENATE("offer_item_",ROW(C35)),CONCATENATE("offer_item_",IF(offerItemsDefinitions[[#This Row],['[featured']]],"featured_",""),offerItemsDefinitions[[#This Row],['[type']]],"_",offerItemsDefinitions[[#This Row],['[amount']]],IF(offerItemsDefinitions[[#This Row],['[itemSku']]]="","","_"),offerItemsDefinitions[[#This Row],['[itemSku']]]))</f>
+        <v>offer_item_35</v>
+      </c>
+      <c r="D35" s="22" t="b">
+        <v>0</v>
+      </c>
       <c r="E35" s="29"/>
       <c r="F35" s="32"/>
       <c r="G35" s="31"/>
     </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B36" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="C36" s="28" t="s">
-        <v>163</v>
-      </c>
-      <c r="D36" s="22"/>
+      <c r="C36" s="28" t="str">
+        <f>IF(offerItemsDefinitions[[#This Row],['[type']]]="",CONCATENATE("offer_item_",ROW(C36)),CONCATENATE("offer_item_",IF(offerItemsDefinitions[[#This Row],['[featured']]],"featured_",""),offerItemsDefinitions[[#This Row],['[type']]],"_",offerItemsDefinitions[[#This Row],['[amount']]],IF(offerItemsDefinitions[[#This Row],['[itemSku']]]="","","_"),offerItemsDefinitions[[#This Row],['[itemSku']]]))</f>
+        <v>offer_item_36</v>
+      </c>
+      <c r="D36" s="22" t="b">
+        <v>0</v>
+      </c>
       <c r="E36" s="29"/>
       <c r="F36" s="32"/>
       <c r="G36" s="31"/>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B37" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="C37" s="28" t="s">
-        <v>164</v>
-      </c>
-      <c r="D37" s="22"/>
+      <c r="C37" s="28" t="str">
+        <f>IF(offerItemsDefinitions[[#This Row],['[type']]]="",CONCATENATE("offer_item_",ROW(C37)),CONCATENATE("offer_item_",IF(offerItemsDefinitions[[#This Row],['[featured']]],"featured_",""),offerItemsDefinitions[[#This Row],['[type']]],"_",offerItemsDefinitions[[#This Row],['[amount']]],IF(offerItemsDefinitions[[#This Row],['[itemSku']]]="","","_"),offerItemsDefinitions[[#This Row],['[itemSku']]]))</f>
+        <v>offer_item_37</v>
+      </c>
+      <c r="D37" s="22" t="b">
+        <v>0</v>
+      </c>
       <c r="E37" s="29"/>
       <c r="F37" s="32"/>
       <c r="G37" s="31"/>
     </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B38" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="C38" s="34" t="s">
-        <v>165</v>
-      </c>
-      <c r="D38" s="35"/>
+      <c r="C38" s="28" t="str">
+        <f>IF(offerItemsDefinitions[[#This Row],['[type']]]="",CONCATENATE("offer_item_",ROW(C38)),CONCATENATE("offer_item_",IF(offerItemsDefinitions[[#This Row],['[featured']]],"featured_",""),offerItemsDefinitions[[#This Row],['[type']]],"_",offerItemsDefinitions[[#This Row],['[amount']]],IF(offerItemsDefinitions[[#This Row],['[itemSku']]]="","","_"),offerItemsDefinitions[[#This Row],['[itemSku']]]))</f>
+        <v>offer_item_38</v>
+      </c>
+      <c r="D38" s="22" t="b">
+        <v>0</v>
+      </c>
       <c r="E38" s="29"/>
-      <c r="F38" s="37"/>
+      <c r="F38" s="36"/>
       <c r="G38" s="31"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" xr:uid="{82F0CDD5-614E-894D-B344-C4AC23E531DA}">
+        <x14:dataValidation type="list" allowBlank="1">
           <x14:formula1>
             <xm:f>ValidationData!$B$4:$B$9</xm:f>
           </x14:formula1>
@@ -5375,31 +6040,31 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:P44"/>
   <sheetViews>
     <sheetView zoomScale="131" workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.83203125" customWidth="1"/>
+    <col min="1" max="1" width="4.875" customWidth="1"/>
     <col min="2" max="2" width="19" customWidth="1"/>
     <col min="3" max="3" width="25.5" customWidth="1"/>
     <col min="4" max="4" width="29" customWidth="1"/>
-    <col min="5" max="5" width="11.33203125" customWidth="1"/>
+    <col min="5" max="5" width="11.375" customWidth="1"/>
     <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.875" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="13" customWidth="1"/>
     <col min="10" max="10" width="11" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11.5" customWidth="1"/>
     <col min="13" max="13" width="36.5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="20.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:16" ht="24" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:16" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -5418,7 +6083,7 @@
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
-    <row r="3" spans="2:16" s="16" customFormat="1" ht="182" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:16" s="16" customFormat="1" ht="153" x14ac:dyDescent="0.2">
       <c r="D3" s="16" t="s">
         <v>30</v>
       </c>
@@ -5432,7 +6097,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="2:16" ht="127" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:16" ht="129.75" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
         <v>74</v>
       </c>
@@ -5473,7 +6138,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B5" s="5" t="s">
         <v>3</v>
       </c>
@@ -5504,7 +6169,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B6" s="5" t="s">
         <v>6</v>
       </c>
@@ -5531,7 +6196,7 @@
       <c r="M6" s="18"/>
       <c r="N6" s="18"/>
     </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B7" s="5" t="s">
         <v>6</v>
       </c>
@@ -5554,7 +6219,7 @@
       <c r="M7" s="18"/>
       <c r="N7" s="18"/>
     </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B8" s="5" t="s">
         <v>6</v>
       </c>
@@ -5577,7 +6242,7 @@
       <c r="M8" s="18"/>
       <c r="N8" s="18"/>
     </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B9" s="5" t="s">
         <v>17</v>
       </c>
@@ -5598,7 +6263,7 @@
       <c r="M9" s="18"/>
       <c r="N9" s="18"/>
     </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B10" s="5" t="s">
         <v>17</v>
       </c>
@@ -5619,7 +6284,7 @@
       <c r="M10" s="18"/>
       <c r="N10" s="18"/>
     </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B11" s="5" t="s">
         <v>17</v>
       </c>
@@ -5640,7 +6305,7 @@
       <c r="M11" s="18"/>
       <c r="N11" s="18"/>
     </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B12" s="5" t="s">
         <v>17</v>
       </c>
@@ -5661,7 +6326,7 @@
       <c r="M12" s="18"/>
       <c r="N12" s="18"/>
     </row>
-    <row r="13" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B13" s="5" t="s">
         <v>17</v>
       </c>
@@ -5682,7 +6347,7 @@
       <c r="M13" s="18"/>
       <c r="N13" s="18"/>
     </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B14" s="5" t="s">
         <v>17</v>
       </c>
@@ -5703,7 +6368,7 @@
       <c r="M14" s="18"/>
       <c r="N14" s="18"/>
     </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B15" s="5" t="s">
         <v>17</v>
       </c>
@@ -5724,7 +6389,7 @@
       <c r="M15" s="18"/>
       <c r="N15" s="18"/>
     </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B16" s="5" t="s">
         <v>3</v>
       </c>
@@ -5755,7 +6420,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B17" s="5" t="s">
         <v>6</v>
       </c>
@@ -5782,7 +6447,7 @@
       <c r="M17" s="18"/>
       <c r="N17" s="18"/>
     </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B18" s="5" t="s">
         <v>6</v>
       </c>
@@ -5805,7 +6470,7 @@
       <c r="M18" s="18"/>
       <c r="N18" s="18"/>
     </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B19" s="5" t="s">
         <v>6</v>
       </c>
@@ -5828,7 +6493,7 @@
       <c r="M19" s="18"/>
       <c r="N19" s="18"/>
     </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B20" s="5" t="s">
         <v>17</v>
       </c>
@@ -5849,7 +6514,7 @@
       <c r="M20" s="18"/>
       <c r="N20" s="18"/>
     </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B21" s="5" t="s">
         <v>17</v>
       </c>
@@ -5870,7 +6535,7 @@
       <c r="M21" s="18"/>
       <c r="N21" s="18"/>
     </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B22" s="5" t="s">
         <v>17</v>
       </c>
@@ -5891,7 +6556,7 @@
       <c r="M22" s="18"/>
       <c r="N22" s="18"/>
     </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B23" s="5" t="s">
         <v>17</v>
       </c>
@@ -5912,7 +6577,7 @@
       <c r="M23" s="18"/>
       <c r="N23" s="18"/>
     </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B24" s="5" t="s">
         <v>17</v>
       </c>
@@ -5933,7 +6598,7 @@
       <c r="M24" s="18"/>
       <c r="N24" s="18"/>
     </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B25" s="5" t="s">
         <v>17</v>
       </c>
@@ -5954,7 +6619,7 @@
       <c r="M25" s="18"/>
       <c r="N25" s="18"/>
     </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B26" s="5" t="s">
         <v>3</v>
       </c>
@@ -5985,7 +6650,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B27" s="5" t="s">
         <v>6</v>
       </c>
@@ -6012,7 +6677,7 @@
       <c r="M27" s="18"/>
       <c r="N27" s="18"/>
     </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B28" s="5" t="s">
         <v>6</v>
       </c>
@@ -6035,7 +6700,7 @@
       <c r="M28" s="18"/>
       <c r="N28" s="18"/>
     </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B29" s="5" t="s">
         <v>6</v>
       </c>
@@ -6058,7 +6723,7 @@
       <c r="M29" s="18"/>
       <c r="N29" s="18"/>
     </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B30" s="5" t="s">
         <v>17</v>
       </c>
@@ -6079,7 +6744,7 @@
       <c r="M30" s="18"/>
       <c r="N30" s="18"/>
     </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B31" s="5" t="s">
         <v>17</v>
       </c>
@@ -6100,7 +6765,7 @@
       <c r="M31" s="18"/>
       <c r="N31" s="18"/>
     </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B32" s="5" t="s">
         <v>17</v>
       </c>
@@ -6121,7 +6786,7 @@
       <c r="M32" s="18"/>
       <c r="N32" s="18"/>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B33" s="5" t="s">
         <v>17</v>
       </c>
@@ -6142,7 +6807,7 @@
       <c r="M33" s="18"/>
       <c r="N33" s="18"/>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B34" s="5" t="s">
         <v>17</v>
       </c>
@@ -6163,7 +6828,7 @@
       <c r="M34" s="18"/>
       <c r="N34" s="18"/>
     </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B35" s="5" t="s">
         <v>17</v>
       </c>
@@ -6184,7 +6849,7 @@
       <c r="M35" s="18"/>
       <c r="N35" s="18"/>
     </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B36" s="5" t="s">
         <v>17</v>
       </c>
@@ -6205,7 +6870,7 @@
       <c r="M36" s="18"/>
       <c r="N36" s="18"/>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B37" s="5" t="s">
         <v>17</v>
       </c>
@@ -6226,7 +6891,7 @@
       <c r="M37" s="18"/>
       <c r="N37" s="18"/>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B38" s="5" t="s">
         <v>3</v>
       </c>
@@ -6257,7 +6922,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B39" s="5" t="s">
         <v>6</v>
       </c>
@@ -6280,7 +6945,7 @@
       <c r="M39" s="18"/>
       <c r="N39" s="18"/>
     </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B40" s="5" t="s">
         <v>6</v>
       </c>
@@ -6303,7 +6968,7 @@
       <c r="M40" s="18"/>
       <c r="N40" s="18"/>
     </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B41" s="5" t="s">
         <v>17</v>
       </c>
@@ -6324,7 +6989,7 @@
       <c r="M41" s="18"/>
       <c r="N41" s="18"/>
     </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B42" s="5" t="s">
         <v>3</v>
       </c>
@@ -6355,7 +7020,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B43" s="5" t="s">
         <v>6</v>
       </c>
@@ -6380,7 +7045,7 @@
       <c r="M43" s="18"/>
       <c r="N43" s="18"/>
     </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B44" s="5" t="s">
         <v>17</v>
       </c>
@@ -6403,132 +7068,132 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="I5:N13 I15:N25 I38:N44">
-    <cfRule type="expression" dxfId="24" priority="27">
+    <cfRule type="expression" dxfId="41" priority="27">
       <formula>$B5&lt;&gt;"&lt;Definition&gt;"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E5:H13 F24:H24 E15:H23 E25:H25 E38:H44">
-    <cfRule type="expression" dxfId="23" priority="26">
+    <cfRule type="expression" dxfId="40" priority="26">
       <formula>$B5&lt;&gt;"&lt;Item&gt;"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5:D13 D15 D38:D44">
-    <cfRule type="expression" dxfId="22" priority="25">
+    <cfRule type="expression" dxfId="39" priority="25">
       <formula>$B5&lt;&gt;"&lt;Param&gt;"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16:D25">
-    <cfRule type="expression" dxfId="21" priority="22">
+    <cfRule type="expression" dxfId="38" priority="22">
       <formula>$B16&lt;&gt;"&lt;Param&gt;"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B24:D24 F24:L24 B5:N13 B15:L23 B25:L25 M15:N25 B38:N44">
-    <cfRule type="expression" dxfId="20" priority="21">
+    <cfRule type="expression" dxfId="37" priority="21">
       <formula>$B5="&lt;Definition&gt;"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E24">
-    <cfRule type="expression" dxfId="19" priority="20">
+    <cfRule type="expression" dxfId="36" priority="20">
       <formula>$B24&lt;&gt;"&lt;Item&gt;"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E24">
-    <cfRule type="expression" dxfId="18" priority="19">
+    <cfRule type="expression" dxfId="35" priority="19">
       <formula>$B24="&lt;Definition&gt;"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I14:N14">
-    <cfRule type="expression" dxfId="17" priority="18">
+    <cfRule type="expression" dxfId="34" priority="18">
       <formula>$B14&lt;&gt;"&lt;Definition&gt;"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E14:H14">
-    <cfRule type="expression" dxfId="16" priority="17">
+    <cfRule type="expression" dxfId="33" priority="17">
       <formula>$B14&lt;&gt;"&lt;Item&gt;"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D14">
-    <cfRule type="expression" dxfId="15" priority="16">
+    <cfRule type="expression" dxfId="32" priority="16">
       <formula>$B14&lt;&gt;"&lt;Param&gt;"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B14:N14">
-    <cfRule type="expression" dxfId="14" priority="15">
+    <cfRule type="expression" dxfId="31" priority="15">
       <formula>$B14="&lt;Definition&gt;"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I26:N34 I37:N37">
-    <cfRule type="expression" dxfId="13" priority="14">
+    <cfRule type="expression" dxfId="30" priority="14">
       <formula>$B26&lt;&gt;"&lt;Definition&gt;"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F34:H34 E26:H33 E37:H37">
-    <cfRule type="expression" dxfId="12" priority="13">
+    <cfRule type="expression" dxfId="29" priority="13">
       <formula>$B26&lt;&gt;"&lt;Item&gt;"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D26:D34 D37">
-    <cfRule type="expression" dxfId="11" priority="12">
+    <cfRule type="expression" dxfId="28" priority="12">
       <formula>$B26&lt;&gt;"&lt;Param&gt;"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B34:D34 F34:L34 B26:L33 M26:N34 B37:N37">
-    <cfRule type="expression" dxfId="10" priority="11">
+    <cfRule type="expression" dxfId="27" priority="11">
       <formula>$B26="&lt;Definition&gt;"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E34">
-    <cfRule type="expression" dxfId="9" priority="10">
+    <cfRule type="expression" dxfId="26" priority="10">
       <formula>$B34&lt;&gt;"&lt;Item&gt;"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E34">
-    <cfRule type="expression" dxfId="8" priority="9">
+    <cfRule type="expression" dxfId="25" priority="9">
       <formula>$B34="&lt;Definition&gt;"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I35:N35">
-    <cfRule type="expression" dxfId="7" priority="8">
+    <cfRule type="expression" dxfId="24" priority="8">
       <formula>$B35&lt;&gt;"&lt;Definition&gt;"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E35:H35">
-    <cfRule type="expression" dxfId="6" priority="7">
+    <cfRule type="expression" dxfId="23" priority="7">
       <formula>$B35&lt;&gt;"&lt;Item&gt;"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D35">
-    <cfRule type="expression" dxfId="5" priority="6">
+    <cfRule type="expression" dxfId="22" priority="6">
       <formula>$B35&lt;&gt;"&lt;Param&gt;"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B35:N35">
-    <cfRule type="expression" dxfId="4" priority="5">
+    <cfRule type="expression" dxfId="21" priority="5">
       <formula>$B35="&lt;Definition&gt;"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I36:N36">
-    <cfRule type="expression" dxfId="3" priority="4">
+    <cfRule type="expression" dxfId="20" priority="4">
       <formula>$B36&lt;&gt;"&lt;Definition&gt;"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E36:H36">
-    <cfRule type="expression" dxfId="2" priority="3">
+    <cfRule type="expression" dxfId="19" priority="3">
       <formula>$B36&lt;&gt;"&lt;Item&gt;"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D36">
-    <cfRule type="expression" dxfId="1" priority="2">
+    <cfRule type="expression" dxfId="18" priority="2">
       <formula>$B36&lt;&gt;"&lt;Param&gt;"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B36:N36">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="17" priority="1">
       <formula>$B36="&lt;Definition&gt;"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5:B44" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5:B44">
       <formula1>"&lt;Definition&gt;,&lt;Item&gt;,&lt;Param&gt;"</formula1>
     </dataValidation>
   </dataValidations>
@@ -6540,13 +7205,13 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{6B978484-C36D-FE48-9BB2-8C5B7593D4D5}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>ValidationData!$B$4:$B$9</xm:f>
           </x14:formula1>
           <xm:sqref>E5:E44</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" xr:uid="{B0D0AF8C-4D09-EC43-BF46-CC111321D414}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>ValidationData!$D$4:$D$31</xm:f>
           </x14:formula1>
@@ -6559,19 +7224,19 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5DFF118-E2C0-E64C-BF6C-DD3AD8042DF7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:D31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8:D31"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="23" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B2" s="20" t="s">
         <v>48</v>
       </c>
@@ -6580,10 +7245,10 @@
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D3" s="20"/>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>21</v>
       </c>
@@ -6591,7 +7256,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>19</v>
       </c>
@@ -6599,7 +7264,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>65</v>
       </c>
@@ -6607,13 +7272,13 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>27</v>
       </c>
       <c r="D7" s="21"/>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>18</v>
       </c>
@@ -6621,7 +7286,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>66</v>
       </c>
@@ -6629,112 +7294,112 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D10" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D11" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D12" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D13" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D14" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D15" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D16" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D17" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="18" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D18" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="19" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D19" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="20" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D20" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="21" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D21" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="22" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D22" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="23" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D23" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="24" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D24" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="25" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D25" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="26" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D26" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="27" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D27" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="28" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D28" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="29" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D29" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="30" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D30" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="31" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D31" t="s">
         <v>62</v>
       </c>

--- a/Docs/Content/HungryDragonContent_Offers.xlsx
+++ b/Docs/Content/HungryDragonContent_Offers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aortin/Documents/UBI/FD/Client/Docs/Content/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{16B4A06E-827D-6E4D-8E49-97E0A2879879}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{A92521A6-DE04-194A-94AF-711B8D26C269}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38400" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1038" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1039" uniqueCount="163">
   <si>
     <t>OFFER PACKS DEFINITIONS</t>
   </si>
@@ -515,6 +515,9 @@
   </si>
   <si>
     <t>[item3Sku]</t>
+  </si>
+  <si>
+    <t>[purchaseLimit]</t>
   </si>
 </sst>
 </file>
@@ -882,7 +885,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -990,12 +993,6 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1023,286 +1020,20 @@
     <xf numFmtId="0" fontId="6" fillId="22" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="88">
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="6"/>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="6"/>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="6"/>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="6"/>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="6"/>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="6"/>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="6"/>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="6"/>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="6"/>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="6"/>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="6"/>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="6"/>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="6"/>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="6"/>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="6"/>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="6"/>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="6"/>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="6"/>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="89">
     <dxf>
       <font>
         <b val="0"/>
@@ -1324,7 +1055,7 @@
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
-          <bgColor rgb="FFFFEDB3"/>
+          <bgColor rgb="FFFFCCCC"/>
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1339,6 +1070,1952 @@
         </bottom>
         <vertical/>
         <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="6"/>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="6"/>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="6"/>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="6"/>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="6"/>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="6"/>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="6"/>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="6"/>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="6"/>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="6"/>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="6"/>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="6"/>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="6"/>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="6"/>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="6"/>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="6"/>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="6"/>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="6"/>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FFDCE6F1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FFDCE6F1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FFDCE6F1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FFDCE6F1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FFDCE6F1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FFDCE6F1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="7" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="45" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FFDCE6F1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FFDCE6F1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FFDCE6F1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FFDCE6F1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FFDCE6F1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FFDCE6F1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FFDCE6F1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FFDCE6F1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FFDCE6F1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FFDCE6F1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FFDCE6F1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FFDCE6F1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FFDCE6F1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FFDCE6F1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FFDCE6F1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FFDCE6F1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FFDCE6F1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FFDCE6F1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FFDCE6F1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFE3DAEF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFE3DAEF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFE3DAEF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFE3DAEF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="13" formatCode="0%"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -1389,21 +3066,58 @@
         <sz val="11"/>
         <color auto="1"/>
         <name val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
+          <bgColor rgb="FFFFF9E6"/>
         </patternFill>
       </fill>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
-        <right/>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFF9E6"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
         <bottom style="thin">
           <color auto="1"/>
         </bottom>
@@ -1430,42 +3144,7 @@
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
-          <bgColor rgb="FFFFF9E6"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top/>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFF9E6"/>
+          <bgColor rgb="FFFFF2CC"/>
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1530,42 +3209,6 @@
         <sz val="11"/>
         <color auto="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFF2CC"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top/>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -1708,6 +3351,44 @@
         <sz val="11"/>
         <color auto="1"/>
         <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFEDB3"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -1767,1643 +3448,6 @@
         <bottom style="thin">
           <color auto="1"/>
         </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top/>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FFDCE6F1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top/>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFE3DAEF"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top/>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FFDCE6F1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FFDCE6F1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FFDCE6F1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FFDCE6F1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FFDCE6F1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FFDCE6F1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="7" tint="0.39997558519241921"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="45" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FFDCE6F1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FFDCE6F1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FFDCE6F1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FFDCE6F1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FFDCE6F1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FFDCE6F1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FFDCE6F1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FFDCE6F1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FFDCE6F1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FFDCE6F1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FFDCE6F1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FFDCE6F1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FFDCE6F1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FFDCE6F1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FFDCE6F1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FFDCE6F1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FFDCE6F1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FFDCE6F1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFE3DAEF"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFE3DAEF"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFE3DAEF"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="13" formatCode="0%"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -3529,74 +3573,75 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="offerPacksDefinitions" displayName="offerPacksDefinitions" ref="B2:AR23" totalsRowShown="0" headerRowDxfId="87" headerRowBorderDxfId="86" tableBorderDxfId="85">
-  <autoFilter ref="B2:AR23" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
-  <tableColumns count="43">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="{offerPacksDefinitions}" dataDxfId="84"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="[sku]" dataDxfId="37"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="[enabled]" dataDxfId="36"/>
-    <tableColumn id="38" xr3:uid="{549D4FA4-F5FE-7E41-8EE1-D5AC64E6CC50}" name="[item1Featured]" dataDxfId="25"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="[item1Type]" dataDxfId="35"/>
-    <tableColumn id="37" xr3:uid="{5FB302D5-DFC3-434A-B077-2D1D2138B668}" name="[item1Amount]" dataDxfId="34"/>
-    <tableColumn id="40" xr3:uid="{6455B275-094E-2345-9FD4-2C5DC35C6A9F}" name="[item1Sku]" dataDxfId="33"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="[item2Type]" dataDxfId="32"/>
-    <tableColumn id="41" xr3:uid="{ED68C080-ED0B-9E43-B505-291AD4921579}" name="[item2Amount]" dataDxfId="31"/>
-    <tableColumn id="42" xr3:uid="{BFF33F2B-41F5-5A4C-93AB-DEB983FA7B88}" name="[item2Sku]" dataDxfId="30"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="[item3Type]" dataDxfId="29"/>
-    <tableColumn id="43" xr3:uid="{3E8BF91C-560F-7741-8332-6A6D5E4E61A3}" name="[item3Amount]" dataDxfId="28"/>
-    <tableColumn id="44" xr3:uid="{4BD3AFA7-A608-A344-82A9-163AFF411CC3}" name="[item3Sku]" dataDxfId="26"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="[order]" dataDxfId="27"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="[refPrice]" dataDxfId="83"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="[discount]" dataDxfId="82"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="[iapSku]" dataDxfId="81"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="[tidName]" dataDxfId="80"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="[featured]" dataDxfId="79"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="[maxViews]" dataDxfId="78"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="[zone]" dataDxfId="77"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="[frequency]" dataDxfId="41"/>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="[startDate]" dataDxfId="40"/>
-    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="[endDate]" dataDxfId="38"/>
-    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="[minAppVersion]" dataDxfId="39"/>
-    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="[countriesAllowed]" dataDxfId="76"/>
-    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0000-000014000000}" name="[countriesExcluded]" dataDxfId="75"/>
-    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" name="[gamesPlayed]" dataDxfId="74"/>
-    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0000-000016000000}" name="[payerType]" dataDxfId="73"/>
-    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0000-000017000000}" name="[minSpent]" dataDxfId="72"/>
-    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0000-000018000000}" name="[dragonUnlocked]" dataDxfId="71"/>
-    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0000-000019000000}" name="[dragonOwned]" dataDxfId="70"/>
-    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0000-00001A000000}" name="[dragonNotOwned]" dataDxfId="69"/>
-    <tableColumn id="27" xr3:uid="{00000000-0010-0000-0000-00001B000000}" name="[scBalanceRange]" dataDxfId="68"/>
-    <tableColumn id="28" xr3:uid="{00000000-0010-0000-0000-00001C000000}" name="[hcBalanceRange]" dataDxfId="67"/>
-    <tableColumn id="29" xr3:uid="{00000000-0010-0000-0000-00001D000000}" name="[openedEggs]" dataDxfId="66"/>
-    <tableColumn id="30" xr3:uid="{00000000-0010-0000-0000-00001E000000}" name="[petsOwnedCount]" dataDxfId="65"/>
-    <tableColumn id="31" xr3:uid="{00000000-0010-0000-0000-00001F000000}" name="[petsOwned]" dataDxfId="64"/>
-    <tableColumn id="32" xr3:uid="{00000000-0010-0000-0000-000020000000}" name="[petsNotOwned]" dataDxfId="63"/>
-    <tableColumn id="33" xr3:uid="{00000000-0010-0000-0000-000021000000}" name="[progressionRange]" dataDxfId="62"/>
-    <tableColumn id="34" xr3:uid="{00000000-0010-0000-0000-000022000000}" name="[skinsUnlocked]" dataDxfId="61"/>
-    <tableColumn id="35" xr3:uid="{00000000-0010-0000-0000-000023000000}" name="[skinsOwned]" dataDxfId="60"/>
-    <tableColumn id="36" xr3:uid="{00000000-0010-0000-0000-000024000000}" name="[skinsNotOwned]" dataDxfId="59"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="offerPacksDefinitions" displayName="offerPacksDefinitions" ref="B2:AS23" totalsRowShown="0" headerRowDxfId="88" headerRowBorderDxfId="87" tableBorderDxfId="86">
+  <autoFilter ref="B2:AS23" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+  <tableColumns count="44">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="{offerPacksDefinitions}" dataDxfId="85"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="[sku]" dataDxfId="84"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="[enabled]" dataDxfId="83"/>
+    <tableColumn id="39" xr3:uid="{BDE36CE7-C3EE-CF46-9E65-256BF79847A1}" name="[purchaseLimit]" dataDxfId="0"/>
+    <tableColumn id="38" xr3:uid="{549D4FA4-F5FE-7E41-8EE1-D5AC64E6CC50}" name="[item1Featured]" dataDxfId="82"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="[item1Type]" dataDxfId="81"/>
+    <tableColumn id="37" xr3:uid="{5FB302D5-DFC3-434A-B077-2D1D2138B668}" name="[item1Amount]" dataDxfId="80"/>
+    <tableColumn id="40" xr3:uid="{6455B275-094E-2345-9FD4-2C5DC35C6A9F}" name="[item1Sku]" dataDxfId="79"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="[item2Type]" dataDxfId="78"/>
+    <tableColumn id="41" xr3:uid="{ED68C080-ED0B-9E43-B505-291AD4921579}" name="[item2Amount]" dataDxfId="77"/>
+    <tableColumn id="42" xr3:uid="{BFF33F2B-41F5-5A4C-93AB-DEB983FA7B88}" name="[item2Sku]" dataDxfId="76"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="[item3Type]" dataDxfId="75"/>
+    <tableColumn id="43" xr3:uid="{3E8BF91C-560F-7741-8332-6A6D5E4E61A3}" name="[item3Amount]" dataDxfId="74"/>
+    <tableColumn id="44" xr3:uid="{4BD3AFA7-A608-A344-82A9-163AFF411CC3}" name="[item3Sku]" dataDxfId="73"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="[order]" dataDxfId="72"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="[refPrice]" dataDxfId="71"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="[discount]" dataDxfId="70"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="[iapSku]" dataDxfId="69"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="[tidName]" dataDxfId="68"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="[featured]" dataDxfId="67"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="[maxViews]" dataDxfId="66"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="[zone]" dataDxfId="65"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="[frequency]" dataDxfId="64"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="[startDate]" dataDxfId="63"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="[endDate]" dataDxfId="62"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="[minAppVersion]" dataDxfId="61"/>
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="[countriesAllowed]" dataDxfId="60"/>
+    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0000-000014000000}" name="[countriesExcluded]" dataDxfId="59"/>
+    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" name="[gamesPlayed]" dataDxfId="58"/>
+    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0000-000016000000}" name="[payerType]" dataDxfId="57"/>
+    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0000-000017000000}" name="[minSpent]" dataDxfId="56"/>
+    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0000-000018000000}" name="[dragonUnlocked]" dataDxfId="55"/>
+    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0000-000019000000}" name="[dragonOwned]" dataDxfId="54"/>
+    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0000-00001A000000}" name="[dragonNotOwned]" dataDxfId="53"/>
+    <tableColumn id="27" xr3:uid="{00000000-0010-0000-0000-00001B000000}" name="[scBalanceRange]" dataDxfId="52"/>
+    <tableColumn id="28" xr3:uid="{00000000-0010-0000-0000-00001C000000}" name="[hcBalanceRange]" dataDxfId="51"/>
+    <tableColumn id="29" xr3:uid="{00000000-0010-0000-0000-00001D000000}" name="[openedEggs]" dataDxfId="50"/>
+    <tableColumn id="30" xr3:uid="{00000000-0010-0000-0000-00001E000000}" name="[petsOwnedCount]" dataDxfId="49"/>
+    <tableColumn id="31" xr3:uid="{00000000-0010-0000-0000-00001F000000}" name="[petsOwned]" dataDxfId="48"/>
+    <tableColumn id="32" xr3:uid="{00000000-0010-0000-0000-000020000000}" name="[petsNotOwned]" dataDxfId="47"/>
+    <tableColumn id="33" xr3:uid="{00000000-0010-0000-0000-000021000000}" name="[progressionRange]" dataDxfId="46"/>
+    <tableColumn id="34" xr3:uid="{00000000-0010-0000-0000-000022000000}" name="[skinsUnlocked]" dataDxfId="45"/>
+    <tableColumn id="35" xr3:uid="{00000000-0010-0000-0000-000023000000}" name="[skinsOwned]" dataDxfId="44"/>
+    <tableColumn id="36" xr3:uid="{00000000-0010-0000-0000-000024000000}" name="[skinsNotOwned]" dataDxfId="43"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="offerPacksDefinitions_OLD" displayName="offerPacksDefinitions_OLD" ref="B4:N44" totalsRowShown="0" headerRowDxfId="58" dataDxfId="56" headerRowBorderDxfId="57" tableBorderDxfId="55">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="offerPacksDefinitions_OLD" displayName="offerPacksDefinitions_OLD" ref="B4:N44" totalsRowShown="0" headerRowDxfId="42" dataDxfId="40" headerRowBorderDxfId="41" tableBorderDxfId="39">
   <autoFilter ref="B4:N44" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="offerPacksDefinitions_OLD" dataDxfId="54"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="[sku]" dataDxfId="53"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0200-00000F000000}" name="[paramValue]" dataDxfId="52"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0200-000007000000}" name="[itemType]" dataDxfId="51"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0200-000008000000}" name="[itemAmount]" dataDxfId="50"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0200-000009000000}" name="[itemSku]" dataDxfId="49"/>
-    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0200-000017000000}" name="[itemFeatured]" dataDxfId="48"/>
-    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0200-000016000000}" name="[minAppVersion]" dataDxfId="47"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="[order]" dataDxfId="46"/>
-    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0200-000018000000}" name="[refPrice]" dataDxfId="45"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="[discount]" dataDxfId="44"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="[iapSku]" dataDxfId="43"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="[tidName]" dataDxfId="42"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="offerPacksDefinitions_OLD" dataDxfId="38"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="[sku]" dataDxfId="37"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0200-00000F000000}" name="[paramValue]" dataDxfId="36"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0200-000007000000}" name="[itemType]" dataDxfId="35"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0200-000008000000}" name="[itemAmount]" dataDxfId="34"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0200-000009000000}" name="[itemSku]" dataDxfId="33"/>
+    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0200-000017000000}" name="[itemFeatured]" dataDxfId="32"/>
+    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0200-000016000000}" name="[minAppVersion]" dataDxfId="31"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="[order]" dataDxfId="30"/>
+    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0200-000018000000}" name="[refPrice]" dataDxfId="29"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="[discount]" dataDxfId="28"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="[iapSku]" dataDxfId="27"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="[tidName]" dataDxfId="26"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3899,10 +3944,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:AR23"/>
+  <dimension ref="B1:AS23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="N26" sqref="N26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3922,7 +3967,7 @@
     <col min="27" max="44" width="5.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:44" s="25" customFormat="1" ht="140" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:45" s="25" customFormat="1" ht="140" x14ac:dyDescent="0.2">
       <c r="O1" s="16" t="s">
         <v>29</v>
       </c>
@@ -3932,221 +3977,224 @@
       <c r="Q1" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="X1" s="40" t="s">
+      <c r="X1" s="48" t="s">
         <v>101</v>
       </c>
-      <c r="Y1" s="40"/>
-      <c r="Z1" s="39" t="s">
+      <c r="Y1" s="48"/>
+      <c r="Z1" s="49" t="s">
         <v>100</v>
       </c>
-      <c r="AA1" s="39"/>
-      <c r="AB1" s="39"/>
-      <c r="AC1" s="39"/>
-      <c r="AD1" s="39"/>
-      <c r="AE1" s="39"/>
-      <c r="AF1" s="39"/>
-      <c r="AG1" s="39"/>
-      <c r="AH1" s="39"/>
-      <c r="AI1" s="39"/>
-      <c r="AJ1" s="39"/>
-      <c r="AK1" s="39"/>
-      <c r="AL1" s="39"/>
-      <c r="AM1" s="39"/>
-      <c r="AN1" s="39"/>
-      <c r="AO1" s="39"/>
-      <c r="AP1" s="39"/>
-      <c r="AQ1" s="39"/>
-      <c r="AR1" s="39"/>
-    </row>
-    <row r="2" spans="2:44" ht="112" x14ac:dyDescent="0.2">
+      <c r="AA1" s="49"/>
+      <c r="AB1" s="49"/>
+      <c r="AC1" s="49"/>
+      <c r="AD1" s="49"/>
+      <c r="AE1" s="49"/>
+      <c r="AF1" s="49"/>
+      <c r="AG1" s="49"/>
+      <c r="AH1" s="49"/>
+      <c r="AI1" s="49"/>
+      <c r="AJ1" s="49"/>
+      <c r="AK1" s="49"/>
+      <c r="AL1" s="49"/>
+      <c r="AM1" s="49"/>
+      <c r="AN1" s="49"/>
+      <c r="AO1" s="49"/>
+      <c r="AP1" s="49"/>
+      <c r="AQ1" s="49"/>
+      <c r="AR1" s="49"/>
+    </row>
+    <row r="2" spans="2:45" ht="112" x14ac:dyDescent="0.2">
       <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="43" t="s">
+      <c r="D2" s="41" t="s">
         <v>75</v>
       </c>
-      <c r="E2" s="46" t="s">
+      <c r="E2" s="41" t="s">
+        <v>162</v>
+      </c>
+      <c r="F2" s="44" t="s">
         <v>155</v>
       </c>
-      <c r="F2" s="46" t="s">
+      <c r="G2" s="44" t="s">
         <v>152</v>
       </c>
-      <c r="G2" s="46" t="s">
+      <c r="H2" s="44" t="s">
         <v>153</v>
       </c>
-      <c r="H2" s="46" t="s">
+      <c r="I2" s="44" t="s">
         <v>154</v>
       </c>
-      <c r="I2" s="47" t="s">
+      <c r="J2" s="45" t="s">
         <v>156</v>
       </c>
-      <c r="J2" s="47" t="s">
+      <c r="K2" s="45" t="s">
         <v>157</v>
       </c>
-      <c r="K2" s="47" t="s">
+      <c r="L2" s="45" t="s">
         <v>158</v>
       </c>
-      <c r="L2" s="48" t="s">
+      <c r="M2" s="46" t="s">
         <v>159</v>
       </c>
-      <c r="M2" s="48" t="s">
+      <c r="N2" s="46" t="s">
         <v>160</v>
       </c>
-      <c r="N2" s="48" t="s">
+      <c r="O2" s="46" t="s">
         <v>161</v>
       </c>
-      <c r="O2" s="8" t="s">
+      <c r="P2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="P2" s="8" t="s">
+      <c r="Q2" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="Q2" s="4" t="s">
+      <c r="R2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="R2" s="4" t="s">
+      <c r="S2" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="S2" s="4" t="s">
+      <c r="T2" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="T2" s="24" t="s">
+      <c r="U2" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="U2" s="24" t="s">
+      <c r="V2" s="24" t="s">
         <v>83</v>
       </c>
-      <c r="V2" s="24" t="s">
+      <c r="W2" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="W2" s="24" t="s">
+      <c r="X2" s="24" t="s">
         <v>82</v>
       </c>
-      <c r="X2" s="23" t="s">
+      <c r="Y2" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="Y2" s="23" t="s">
+      <c r="Z2" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="Z2" s="33" t="s">
+      <c r="AA2" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="AA2" s="33" t="s">
+      <c r="AB2" s="33" t="s">
         <v>79</v>
       </c>
-      <c r="AB2" s="33" t="s">
+      <c r="AC2" s="33" t="s">
         <v>80</v>
       </c>
-      <c r="AC2" s="33" t="s">
+      <c r="AD2" s="33" t="s">
         <v>81</v>
       </c>
-      <c r="AD2" s="33" t="s">
+      <c r="AE2" s="33" t="s">
         <v>85</v>
       </c>
-      <c r="AE2" s="33" t="s">
+      <c r="AF2" s="33" t="s">
         <v>86</v>
       </c>
-      <c r="AF2" s="33" t="s">
+      <c r="AG2" s="33" t="s">
         <v>87</v>
       </c>
-      <c r="AG2" s="33" t="s">
+      <c r="AH2" s="33" t="s">
         <v>88</v>
       </c>
-      <c r="AH2" s="33" t="s">
+      <c r="AI2" s="33" t="s">
         <v>89</v>
       </c>
-      <c r="AI2" s="33" t="s">
+      <c r="AJ2" s="33" t="s">
         <v>90</v>
       </c>
-      <c r="AJ2" s="33" t="s">
+      <c r="AK2" s="33" t="s">
         <v>91</v>
       </c>
-      <c r="AK2" s="33" t="s">
+      <c r="AL2" s="33" t="s">
         <v>92</v>
       </c>
-      <c r="AL2" s="33" t="s">
+      <c r="AM2" s="33" t="s">
         <v>93</v>
       </c>
-      <c r="AM2" s="33" t="s">
+      <c r="AN2" s="33" t="s">
         <v>94</v>
       </c>
-      <c r="AN2" s="33" t="s">
+      <c r="AO2" s="33" t="s">
         <v>95</v>
       </c>
-      <c r="AO2" s="33" t="s">
+      <c r="AP2" s="33" t="s">
         <v>96</v>
       </c>
-      <c r="AP2" s="33" t="s">
+      <c r="AQ2" s="33" t="s">
         <v>97</v>
       </c>
-      <c r="AQ2" s="33" t="s">
+      <c r="AR2" s="33" t="s">
         <v>98</v>
       </c>
-      <c r="AR2" s="34" t="s">
+      <c r="AS2" s="34" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="3" spans="2:44" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:45" x14ac:dyDescent="0.2">
       <c r="B3" s="14" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="27" t="s">
         <v>130</v>
       </c>
-      <c r="D3" s="42" t="b">
+      <c r="D3" s="40" t="b">
         <v>0</v>
       </c>
-      <c r="E3" s="45" t="b">
+      <c r="E3" s="50">
+        <v>1</v>
+      </c>
+      <c r="F3" s="43" t="b">
         <v>0</v>
       </c>
-      <c r="F3" s="45" t="s">
-        <v>151</v>
-      </c>
-      <c r="G3" s="45" t="s">
-        <v>151</v>
-      </c>
-      <c r="H3" s="45" t="s">
-        <v>151</v>
-      </c>
-      <c r="I3" s="49" t="s">
-        <v>151</v>
-      </c>
-      <c r="J3" s="49" t="s">
-        <v>151</v>
-      </c>
-      <c r="K3" s="49" t="s">
-        <v>151</v>
-      </c>
-      <c r="L3" s="44" t="s">
-        <v>151</v>
-      </c>
-      <c r="M3" s="44" t="s">
-        <v>151</v>
-      </c>
-      <c r="N3" s="44" t="s">
-        <v>151</v>
-      </c>
-      <c r="O3" s="28">
+      <c r="G3" s="43" t="s">
+        <v>151</v>
+      </c>
+      <c r="H3" s="43" t="s">
+        <v>151</v>
+      </c>
+      <c r="I3" s="43" t="s">
+        <v>151</v>
+      </c>
+      <c r="J3" s="47" t="s">
+        <v>151</v>
+      </c>
+      <c r="K3" s="47" t="s">
+        <v>151</v>
+      </c>
+      <c r="L3" s="47" t="s">
+        <v>151</v>
+      </c>
+      <c r="M3" s="42" t="s">
+        <v>151</v>
+      </c>
+      <c r="N3" s="42" t="s">
+        <v>151</v>
+      </c>
+      <c r="O3" s="42" t="s">
+        <v>151</v>
+      </c>
+      <c r="P3" s="28">
         <v>0</v>
       </c>
-      <c r="P3" s="29" t="s">
+      <c r="Q3" s="29" t="s">
         <v>125</v>
       </c>
-      <c r="Q3" s="30">
+      <c r="R3" s="30">
         <v>0.5</v>
       </c>
-      <c r="R3" s="26" t="s">
+      <c r="S3" s="26" t="s">
         <v>104</v>
       </c>
-      <c r="S3" s="22" t="s">
+      <c r="T3" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="T3" s="36" t="s">
-        <v>151</v>
-      </c>
       <c r="U3" s="36" t="s">
         <v>151</v>
       </c>
@@ -4156,18 +4204,18 @@
       <c r="W3" s="36" t="s">
         <v>151</v>
       </c>
-      <c r="X3" s="41" t="s">
-        <v>151</v>
-      </c>
-      <c r="Y3" s="41" t="s">
-        <v>151</v>
-      </c>
-      <c r="Z3" s="37" t="s">
+      <c r="X3" s="36" t="s">
+        <v>151</v>
+      </c>
+      <c r="Y3" s="39" t="s">
+        <v>151</v>
+      </c>
+      <c r="Z3" s="39" t="s">
+        <v>151</v>
+      </c>
+      <c r="AA3" s="37" t="s">
         <v>102</v>
       </c>
-      <c r="AA3" s="37" t="s">
-        <v>151</v>
-      </c>
       <c r="AB3" s="37" t="s">
         <v>151</v>
       </c>
@@ -4219,65 +4267,68 @@
       <c r="AR3" s="37" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="4" spans="2:44" x14ac:dyDescent="0.2">
+      <c r="AS3" s="37" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="4" spans="2:45" x14ac:dyDescent="0.2">
       <c r="B4" s="14" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="27" t="s">
         <v>131</v>
       </c>
-      <c r="D4" s="42" t="b">
+      <c r="D4" s="40" t="b">
         <v>0</v>
       </c>
-      <c r="E4" s="45" t="b">
+      <c r="E4" s="50">
+        <v>1</v>
+      </c>
+      <c r="F4" s="43" t="b">
         <v>0</v>
       </c>
-      <c r="F4" s="45" t="s">
-        <v>151</v>
-      </c>
-      <c r="G4" s="45" t="s">
-        <v>151</v>
-      </c>
-      <c r="H4" s="45" t="s">
-        <v>151</v>
-      </c>
-      <c r="I4" s="49" t="s">
-        <v>151</v>
-      </c>
-      <c r="J4" s="49" t="s">
-        <v>151</v>
-      </c>
-      <c r="K4" s="49" t="s">
-        <v>151</v>
-      </c>
-      <c r="L4" s="44" t="s">
-        <v>151</v>
-      </c>
-      <c r="M4" s="44" t="s">
-        <v>151</v>
-      </c>
-      <c r="N4" s="44" t="s">
-        <v>151</v>
-      </c>
-      <c r="O4" s="28">
+      <c r="G4" s="43" t="s">
+        <v>151</v>
+      </c>
+      <c r="H4" s="43" t="s">
+        <v>151</v>
+      </c>
+      <c r="I4" s="43" t="s">
+        <v>151</v>
+      </c>
+      <c r="J4" s="47" t="s">
+        <v>151</v>
+      </c>
+      <c r="K4" s="47" t="s">
+        <v>151</v>
+      </c>
+      <c r="L4" s="47" t="s">
+        <v>151</v>
+      </c>
+      <c r="M4" s="42" t="s">
+        <v>151</v>
+      </c>
+      <c r="N4" s="42" t="s">
+        <v>151</v>
+      </c>
+      <c r="O4" s="42" t="s">
+        <v>151</v>
+      </c>
+      <c r="P4" s="28">
         <v>0</v>
       </c>
-      <c r="P4" s="29" t="s">
+      <c r="Q4" s="29" t="s">
         <v>99</v>
       </c>
-      <c r="Q4" s="30">
+      <c r="R4" s="30">
         <v>0.5</v>
       </c>
-      <c r="R4" s="26" t="s">
+      <c r="S4" s="26" t="s">
         <v>105</v>
       </c>
-      <c r="S4" s="22" t="s">
+      <c r="T4" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="T4" s="36" t="s">
-        <v>151</v>
-      </c>
       <c r="U4" s="36" t="s">
         <v>151</v>
       </c>
@@ -4287,18 +4338,18 @@
       <c r="W4" s="36" t="s">
         <v>151</v>
       </c>
-      <c r="X4" s="41" t="s">
-        <v>151</v>
-      </c>
-      <c r="Y4" s="41" t="s">
-        <v>151</v>
-      </c>
-      <c r="Z4" s="37" t="s">
+      <c r="X4" s="36" t="s">
+        <v>151</v>
+      </c>
+      <c r="Y4" s="39" t="s">
+        <v>151</v>
+      </c>
+      <c r="Z4" s="39" t="s">
+        <v>151</v>
+      </c>
+      <c r="AA4" s="37" t="s">
         <v>102</v>
       </c>
-      <c r="AA4" s="37" t="s">
-        <v>151</v>
-      </c>
       <c r="AB4" s="37" t="s">
         <v>151</v>
       </c>
@@ -4350,65 +4401,68 @@
       <c r="AR4" s="37" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="5" spans="2:44" x14ac:dyDescent="0.2">
+      <c r="AS4" s="37" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="5" spans="2:45" x14ac:dyDescent="0.2">
       <c r="B5" s="14" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="27" t="s">
         <v>132</v>
       </c>
-      <c r="D5" s="42" t="b">
+      <c r="D5" s="40" t="b">
         <v>0</v>
       </c>
-      <c r="E5" s="45" t="b">
+      <c r="E5" s="50">
+        <v>1</v>
+      </c>
+      <c r="F5" s="43" t="b">
         <v>0</v>
       </c>
-      <c r="F5" s="45" t="s">
-        <v>151</v>
-      </c>
-      <c r="G5" s="45" t="s">
-        <v>151</v>
-      </c>
-      <c r="H5" s="45" t="s">
-        <v>151</v>
-      </c>
-      <c r="I5" s="49" t="s">
-        <v>151</v>
-      </c>
-      <c r="J5" s="49" t="s">
-        <v>151</v>
-      </c>
-      <c r="K5" s="49" t="s">
-        <v>151</v>
-      </c>
-      <c r="L5" s="44" t="s">
-        <v>151</v>
-      </c>
-      <c r="M5" s="44" t="s">
-        <v>151</v>
-      </c>
-      <c r="N5" s="44" t="s">
-        <v>151</v>
-      </c>
-      <c r="O5" s="28">
+      <c r="G5" s="43" t="s">
+        <v>151</v>
+      </c>
+      <c r="H5" s="43" t="s">
+        <v>151</v>
+      </c>
+      <c r="I5" s="43" t="s">
+        <v>151</v>
+      </c>
+      <c r="J5" s="47" t="s">
+        <v>151</v>
+      </c>
+      <c r="K5" s="47" t="s">
+        <v>151</v>
+      </c>
+      <c r="L5" s="47" t="s">
+        <v>151</v>
+      </c>
+      <c r="M5" s="42" t="s">
+        <v>151</v>
+      </c>
+      <c r="N5" s="42" t="s">
+        <v>151</v>
+      </c>
+      <c r="O5" s="42" t="s">
+        <v>151</v>
+      </c>
+      <c r="P5" s="28">
         <v>0</v>
       </c>
-      <c r="P5" s="29" t="s">
+      <c r="Q5" s="29" t="s">
         <v>126</v>
       </c>
-      <c r="Q5" s="30">
+      <c r="R5" s="30">
         <v>0.5</v>
       </c>
-      <c r="R5" s="26" t="s">
+      <c r="S5" s="26" t="s">
         <v>106</v>
       </c>
-      <c r="S5" s="22" t="s">
+      <c r="T5" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="T5" s="36" t="s">
-        <v>151</v>
-      </c>
       <c r="U5" s="36" t="s">
         <v>151</v>
       </c>
@@ -4418,18 +4472,18 @@
       <c r="W5" s="36" t="s">
         <v>151</v>
       </c>
-      <c r="X5" s="41" t="s">
-        <v>151</v>
-      </c>
-      <c r="Y5" s="41" t="s">
-        <v>151</v>
-      </c>
-      <c r="Z5" s="37" t="s">
+      <c r="X5" s="36" t="s">
+        <v>151</v>
+      </c>
+      <c r="Y5" s="39" t="s">
+        <v>151</v>
+      </c>
+      <c r="Z5" s="39" t="s">
+        <v>151</v>
+      </c>
+      <c r="AA5" s="37" t="s">
         <v>102</v>
       </c>
-      <c r="AA5" s="37" t="s">
-        <v>151</v>
-      </c>
       <c r="AB5" s="37" t="s">
         <v>151</v>
       </c>
@@ -4481,65 +4535,68 @@
       <c r="AR5" s="37" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="6" spans="2:44" x14ac:dyDescent="0.2">
+      <c r="AS5" s="37" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="6" spans="2:45" x14ac:dyDescent="0.2">
       <c r="B6" s="14" t="s">
         <v>3</v>
       </c>
       <c r="C6" s="27" t="s">
         <v>133</v>
       </c>
-      <c r="D6" s="42" t="b">
+      <c r="D6" s="40" t="b">
         <v>0</v>
       </c>
-      <c r="E6" s="45" t="b">
+      <c r="E6" s="50">
+        <v>1</v>
+      </c>
+      <c r="F6" s="43" t="b">
         <v>0</v>
       </c>
-      <c r="F6" s="45" t="s">
-        <v>151</v>
-      </c>
-      <c r="G6" s="45" t="s">
-        <v>151</v>
-      </c>
-      <c r="H6" s="45" t="s">
-        <v>151</v>
-      </c>
-      <c r="I6" s="49" t="s">
-        <v>151</v>
-      </c>
-      <c r="J6" s="49" t="s">
-        <v>151</v>
-      </c>
-      <c r="K6" s="49" t="s">
-        <v>151</v>
-      </c>
-      <c r="L6" s="44" t="s">
-        <v>151</v>
-      </c>
-      <c r="M6" s="44" t="s">
-        <v>151</v>
-      </c>
-      <c r="N6" s="44" t="s">
-        <v>151</v>
-      </c>
-      <c r="O6" s="28">
+      <c r="G6" s="43" t="s">
+        <v>151</v>
+      </c>
+      <c r="H6" s="43" t="s">
+        <v>151</v>
+      </c>
+      <c r="I6" s="43" t="s">
+        <v>151</v>
+      </c>
+      <c r="J6" s="47" t="s">
+        <v>151</v>
+      </c>
+      <c r="K6" s="47" t="s">
+        <v>151</v>
+      </c>
+      <c r="L6" s="47" t="s">
+        <v>151</v>
+      </c>
+      <c r="M6" s="42" t="s">
+        <v>151</v>
+      </c>
+      <c r="N6" s="42" t="s">
+        <v>151</v>
+      </c>
+      <c r="O6" s="42" t="s">
+        <v>151</v>
+      </c>
+      <c r="P6" s="28">
         <v>0</v>
       </c>
-      <c r="P6" s="29" t="s">
+      <c r="Q6" s="29" t="s">
         <v>125</v>
       </c>
-      <c r="Q6" s="30">
+      <c r="R6" s="30">
         <v>0.5</v>
       </c>
-      <c r="R6" s="26" t="s">
+      <c r="S6" s="26" t="s">
         <v>107</v>
       </c>
-      <c r="S6" s="22" t="s">
+      <c r="T6" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="T6" s="36" t="s">
-        <v>151</v>
-      </c>
       <c r="U6" s="36" t="s">
         <v>151</v>
       </c>
@@ -4549,18 +4606,18 @@
       <c r="W6" s="36" t="s">
         <v>151</v>
       </c>
-      <c r="X6" s="41" t="s">
-        <v>151</v>
-      </c>
-      <c r="Y6" s="41" t="s">
-        <v>151</v>
-      </c>
-      <c r="Z6" s="37" t="s">
+      <c r="X6" s="36" t="s">
+        <v>151</v>
+      </c>
+      <c r="Y6" s="39" t="s">
+        <v>151</v>
+      </c>
+      <c r="Z6" s="39" t="s">
+        <v>151</v>
+      </c>
+      <c r="AA6" s="37" t="s">
         <v>102</v>
       </c>
-      <c r="AA6" s="37" t="s">
-        <v>151</v>
-      </c>
       <c r="AB6" s="37" t="s">
         <v>151</v>
       </c>
@@ -4612,65 +4669,68 @@
       <c r="AR6" s="37" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="7" spans="2:44" x14ac:dyDescent="0.2">
+      <c r="AS6" s="37" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="7" spans="2:45" x14ac:dyDescent="0.2">
       <c r="B7" s="14" t="s">
         <v>3</v>
       </c>
       <c r="C7" s="27" t="s">
         <v>134</v>
       </c>
-      <c r="D7" s="42" t="b">
+      <c r="D7" s="40" t="b">
         <v>0</v>
       </c>
-      <c r="E7" s="45" t="b">
+      <c r="E7" s="50">
+        <v>1</v>
+      </c>
+      <c r="F7" s="43" t="b">
         <v>0</v>
       </c>
-      <c r="F7" s="45" t="s">
-        <v>151</v>
-      </c>
-      <c r="G7" s="45" t="s">
-        <v>151</v>
-      </c>
-      <c r="H7" s="45" t="s">
-        <v>151</v>
-      </c>
-      <c r="I7" s="49" t="s">
-        <v>151</v>
-      </c>
-      <c r="J7" s="49" t="s">
-        <v>151</v>
-      </c>
-      <c r="K7" s="49" t="s">
-        <v>151</v>
-      </c>
-      <c r="L7" s="44" t="s">
-        <v>151</v>
-      </c>
-      <c r="M7" s="44" t="s">
-        <v>151</v>
-      </c>
-      <c r="N7" s="44" t="s">
-        <v>151</v>
-      </c>
-      <c r="O7" s="28">
+      <c r="G7" s="43" t="s">
+        <v>151</v>
+      </c>
+      <c r="H7" s="43" t="s">
+        <v>151</v>
+      </c>
+      <c r="I7" s="43" t="s">
+        <v>151</v>
+      </c>
+      <c r="J7" s="47" t="s">
+        <v>151</v>
+      </c>
+      <c r="K7" s="47" t="s">
+        <v>151</v>
+      </c>
+      <c r="L7" s="47" t="s">
+        <v>151</v>
+      </c>
+      <c r="M7" s="42" t="s">
+        <v>151</v>
+      </c>
+      <c r="N7" s="42" t="s">
+        <v>151</v>
+      </c>
+      <c r="O7" s="42" t="s">
+        <v>151</v>
+      </c>
+      <c r="P7" s="28">
         <v>0</v>
       </c>
-      <c r="P7" s="29" t="s">
+      <c r="Q7" s="29" t="s">
         <v>99</v>
       </c>
-      <c r="Q7" s="30">
+      <c r="R7" s="30">
         <v>0.5</v>
       </c>
-      <c r="R7" s="26" t="s">
+      <c r="S7" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="S7" s="22" t="s">
+      <c r="T7" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="T7" s="36" t="s">
-        <v>151</v>
-      </c>
       <c r="U7" s="36" t="s">
         <v>151</v>
       </c>
@@ -4680,18 +4740,18 @@
       <c r="W7" s="36" t="s">
         <v>151</v>
       </c>
-      <c r="X7" s="41" t="s">
-        <v>151</v>
-      </c>
-      <c r="Y7" s="41" t="s">
-        <v>151</v>
-      </c>
-      <c r="Z7" s="37" t="s">
+      <c r="X7" s="36" t="s">
+        <v>151</v>
+      </c>
+      <c r="Y7" s="39" t="s">
+        <v>151</v>
+      </c>
+      <c r="Z7" s="39" t="s">
+        <v>151</v>
+      </c>
+      <c r="AA7" s="37" t="s">
         <v>102</v>
       </c>
-      <c r="AA7" s="37" t="s">
-        <v>151</v>
-      </c>
       <c r="AB7" s="37" t="s">
         <v>151</v>
       </c>
@@ -4743,65 +4803,68 @@
       <c r="AR7" s="37" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="8" spans="2:44" x14ac:dyDescent="0.2">
+      <c r="AS7" s="37" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="8" spans="2:45" x14ac:dyDescent="0.2">
       <c r="B8" s="14" t="s">
         <v>3</v>
       </c>
       <c r="C8" s="27" t="s">
         <v>135</v>
       </c>
-      <c r="D8" s="42" t="b">
+      <c r="D8" s="40" t="b">
         <v>0</v>
       </c>
-      <c r="E8" s="45" t="b">
+      <c r="E8" s="50">
+        <v>1</v>
+      </c>
+      <c r="F8" s="43" t="b">
         <v>0</v>
       </c>
-      <c r="F8" s="45" t="s">
-        <v>151</v>
-      </c>
-      <c r="G8" s="45" t="s">
-        <v>151</v>
-      </c>
-      <c r="H8" s="45" t="s">
-        <v>151</v>
-      </c>
-      <c r="I8" s="49" t="s">
-        <v>151</v>
-      </c>
-      <c r="J8" s="49" t="s">
-        <v>151</v>
-      </c>
-      <c r="K8" s="49" t="s">
-        <v>151</v>
-      </c>
-      <c r="L8" s="44" t="s">
-        <v>151</v>
-      </c>
-      <c r="M8" s="44" t="s">
-        <v>151</v>
-      </c>
-      <c r="N8" s="44" t="s">
-        <v>151</v>
-      </c>
-      <c r="O8" s="28">
+      <c r="G8" s="43" t="s">
+        <v>151</v>
+      </c>
+      <c r="H8" s="43" t="s">
+        <v>151</v>
+      </c>
+      <c r="I8" s="43" t="s">
+        <v>151</v>
+      </c>
+      <c r="J8" s="47" t="s">
+        <v>151</v>
+      </c>
+      <c r="K8" s="47" t="s">
+        <v>151</v>
+      </c>
+      <c r="L8" s="47" t="s">
+        <v>151</v>
+      </c>
+      <c r="M8" s="42" t="s">
+        <v>151</v>
+      </c>
+      <c r="N8" s="42" t="s">
+        <v>151</v>
+      </c>
+      <c r="O8" s="42" t="s">
+        <v>151</v>
+      </c>
+      <c r="P8" s="28">
         <v>0</v>
       </c>
-      <c r="P8" s="29" t="s">
+      <c r="Q8" s="29" t="s">
         <v>126</v>
       </c>
-      <c r="Q8" s="30">
+      <c r="R8" s="30">
         <v>0.5</v>
       </c>
-      <c r="R8" s="26" t="s">
+      <c r="S8" s="26" t="s">
         <v>109</v>
       </c>
-      <c r="S8" s="22" t="s">
+      <c r="T8" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="T8" s="36" t="s">
-        <v>151</v>
-      </c>
       <c r="U8" s="36" t="s">
         <v>151</v>
       </c>
@@ -4811,18 +4874,18 @@
       <c r="W8" s="36" t="s">
         <v>151</v>
       </c>
-      <c r="X8" s="41" t="s">
-        <v>151</v>
-      </c>
-      <c r="Y8" s="41" t="s">
-        <v>151</v>
-      </c>
-      <c r="Z8" s="37" t="s">
+      <c r="X8" s="36" t="s">
+        <v>151</v>
+      </c>
+      <c r="Y8" s="39" t="s">
+        <v>151</v>
+      </c>
+      <c r="Z8" s="39" t="s">
+        <v>151</v>
+      </c>
+      <c r="AA8" s="37" t="s">
         <v>102</v>
       </c>
-      <c r="AA8" s="37" t="s">
-        <v>151</v>
-      </c>
       <c r="AB8" s="37" t="s">
         <v>151</v>
       </c>
@@ -4874,65 +4937,68 @@
       <c r="AR8" s="37" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="9" spans="2:44" x14ac:dyDescent="0.2">
+      <c r="AS8" s="37" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="9" spans="2:45" x14ac:dyDescent="0.2">
       <c r="B9" s="14" t="s">
         <v>3</v>
       </c>
       <c r="C9" s="27" t="s">
         <v>136</v>
       </c>
-      <c r="D9" s="42" t="b">
+      <c r="D9" s="40" t="b">
         <v>0</v>
       </c>
-      <c r="E9" s="45" t="b">
+      <c r="E9" s="50">
+        <v>1</v>
+      </c>
+      <c r="F9" s="43" t="b">
         <v>0</v>
       </c>
-      <c r="F9" s="45" t="s">
-        <v>151</v>
-      </c>
-      <c r="G9" s="45" t="s">
-        <v>151</v>
-      </c>
-      <c r="H9" s="45" t="s">
-        <v>151</v>
-      </c>
-      <c r="I9" s="49" t="s">
-        <v>151</v>
-      </c>
-      <c r="J9" s="49" t="s">
-        <v>151</v>
-      </c>
-      <c r="K9" s="49" t="s">
-        <v>151</v>
-      </c>
-      <c r="L9" s="44" t="s">
-        <v>151</v>
-      </c>
-      <c r="M9" s="44" t="s">
-        <v>151</v>
-      </c>
-      <c r="N9" s="44" t="s">
-        <v>151</v>
-      </c>
-      <c r="O9" s="28">
+      <c r="G9" s="43" t="s">
+        <v>151</v>
+      </c>
+      <c r="H9" s="43" t="s">
+        <v>151</v>
+      </c>
+      <c r="I9" s="43" t="s">
+        <v>151</v>
+      </c>
+      <c r="J9" s="47" t="s">
+        <v>151</v>
+      </c>
+      <c r="K9" s="47" t="s">
+        <v>151</v>
+      </c>
+      <c r="L9" s="47" t="s">
+        <v>151</v>
+      </c>
+      <c r="M9" s="42" t="s">
+        <v>151</v>
+      </c>
+      <c r="N9" s="42" t="s">
+        <v>151</v>
+      </c>
+      <c r="O9" s="42" t="s">
+        <v>151</v>
+      </c>
+      <c r="P9" s="28">
         <v>0</v>
       </c>
-      <c r="P9" s="29" t="s">
+      <c r="Q9" s="29" t="s">
         <v>125</v>
       </c>
-      <c r="Q9" s="30">
+      <c r="R9" s="30">
         <v>0.5</v>
       </c>
-      <c r="R9" s="26" t="s">
+      <c r="S9" s="26" t="s">
         <v>110</v>
       </c>
-      <c r="S9" s="22" t="s">
+      <c r="T9" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="T9" s="36" t="s">
-        <v>151</v>
-      </c>
       <c r="U9" s="36" t="s">
         <v>151</v>
       </c>
@@ -4942,18 +5008,18 @@
       <c r="W9" s="36" t="s">
         <v>151</v>
       </c>
-      <c r="X9" s="41" t="s">
-        <v>151</v>
-      </c>
-      <c r="Y9" s="41" t="s">
-        <v>151</v>
-      </c>
-      <c r="Z9" s="37" t="s">
+      <c r="X9" s="36" t="s">
+        <v>151</v>
+      </c>
+      <c r="Y9" s="39" t="s">
+        <v>151</v>
+      </c>
+      <c r="Z9" s="39" t="s">
+        <v>151</v>
+      </c>
+      <c r="AA9" s="37" t="s">
         <v>102</v>
       </c>
-      <c r="AA9" s="37" t="s">
-        <v>151</v>
-      </c>
       <c r="AB9" s="37" t="s">
         <v>151</v>
       </c>
@@ -5005,65 +5071,68 @@
       <c r="AR9" s="37" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="10" spans="2:44" x14ac:dyDescent="0.2">
+      <c r="AS9" s="37" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="10" spans="2:45" x14ac:dyDescent="0.2">
       <c r="B10" s="14" t="s">
         <v>3</v>
       </c>
       <c r="C10" s="27" t="s">
         <v>137</v>
       </c>
-      <c r="D10" s="42" t="b">
+      <c r="D10" s="40" t="b">
         <v>0</v>
       </c>
-      <c r="E10" s="45" t="b">
+      <c r="E10" s="50">
+        <v>1</v>
+      </c>
+      <c r="F10" s="43" t="b">
         <v>0</v>
       </c>
-      <c r="F10" s="45" t="s">
-        <v>151</v>
-      </c>
-      <c r="G10" s="45" t="s">
-        <v>151</v>
-      </c>
-      <c r="H10" s="45" t="s">
-        <v>151</v>
-      </c>
-      <c r="I10" s="49" t="s">
-        <v>151</v>
-      </c>
-      <c r="J10" s="49" t="s">
-        <v>151</v>
-      </c>
-      <c r="K10" s="49" t="s">
-        <v>151</v>
-      </c>
-      <c r="L10" s="44" t="s">
-        <v>151</v>
-      </c>
-      <c r="M10" s="44" t="s">
-        <v>151</v>
-      </c>
-      <c r="N10" s="44" t="s">
-        <v>151</v>
-      </c>
-      <c r="O10" s="28">
+      <c r="G10" s="43" t="s">
+        <v>151</v>
+      </c>
+      <c r="H10" s="43" t="s">
+        <v>151</v>
+      </c>
+      <c r="I10" s="43" t="s">
+        <v>151</v>
+      </c>
+      <c r="J10" s="47" t="s">
+        <v>151</v>
+      </c>
+      <c r="K10" s="47" t="s">
+        <v>151</v>
+      </c>
+      <c r="L10" s="47" t="s">
+        <v>151</v>
+      </c>
+      <c r="M10" s="42" t="s">
+        <v>151</v>
+      </c>
+      <c r="N10" s="42" t="s">
+        <v>151</v>
+      </c>
+      <c r="O10" s="42" t="s">
+        <v>151</v>
+      </c>
+      <c r="P10" s="28">
         <v>0</v>
       </c>
-      <c r="P10" s="29" t="s">
+      <c r="Q10" s="29" t="s">
         <v>99</v>
       </c>
-      <c r="Q10" s="30">
+      <c r="R10" s="30">
         <v>0.5</v>
       </c>
-      <c r="R10" s="26" t="s">
+      <c r="S10" s="26" t="s">
         <v>111</v>
       </c>
-      <c r="S10" s="22" t="s">
+      <c r="T10" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="T10" s="36" t="s">
-        <v>151</v>
-      </c>
       <c r="U10" s="36" t="s">
         <v>151</v>
       </c>
@@ -5073,18 +5142,18 @@
       <c r="W10" s="36" t="s">
         <v>151</v>
       </c>
-      <c r="X10" s="41" t="s">
-        <v>151</v>
-      </c>
-      <c r="Y10" s="41" t="s">
-        <v>151</v>
-      </c>
-      <c r="Z10" s="37" t="s">
+      <c r="X10" s="36" t="s">
+        <v>151</v>
+      </c>
+      <c r="Y10" s="39" t="s">
+        <v>151</v>
+      </c>
+      <c r="Z10" s="39" t="s">
+        <v>151</v>
+      </c>
+      <c r="AA10" s="37" t="s">
         <v>102</v>
       </c>
-      <c r="AA10" s="37" t="s">
-        <v>151</v>
-      </c>
       <c r="AB10" s="37" t="s">
         <v>151</v>
       </c>
@@ -5136,65 +5205,68 @@
       <c r="AR10" s="37" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="11" spans="2:44" x14ac:dyDescent="0.2">
+      <c r="AS10" s="37" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="11" spans="2:45" x14ac:dyDescent="0.2">
       <c r="B11" s="14" t="s">
         <v>3</v>
       </c>
       <c r="C11" s="27" t="s">
         <v>138</v>
       </c>
-      <c r="D11" s="42" t="b">
+      <c r="D11" s="40" t="b">
         <v>0</v>
       </c>
-      <c r="E11" s="45" t="b">
+      <c r="E11" s="50">
+        <v>1</v>
+      </c>
+      <c r="F11" s="43" t="b">
         <v>0</v>
       </c>
-      <c r="F11" s="45" t="s">
-        <v>151</v>
-      </c>
-      <c r="G11" s="45" t="s">
-        <v>151</v>
-      </c>
-      <c r="H11" s="45" t="s">
-        <v>151</v>
-      </c>
-      <c r="I11" s="49" t="s">
-        <v>151</v>
-      </c>
-      <c r="J11" s="49" t="s">
-        <v>151</v>
-      </c>
-      <c r="K11" s="49" t="s">
-        <v>151</v>
-      </c>
-      <c r="L11" s="44" t="s">
-        <v>151</v>
-      </c>
-      <c r="M11" s="44" t="s">
-        <v>151</v>
-      </c>
-      <c r="N11" s="44" t="s">
-        <v>151</v>
-      </c>
-      <c r="O11" s="28">
+      <c r="G11" s="43" t="s">
+        <v>151</v>
+      </c>
+      <c r="H11" s="43" t="s">
+        <v>151</v>
+      </c>
+      <c r="I11" s="43" t="s">
+        <v>151</v>
+      </c>
+      <c r="J11" s="47" t="s">
+        <v>151</v>
+      </c>
+      <c r="K11" s="47" t="s">
+        <v>151</v>
+      </c>
+      <c r="L11" s="47" t="s">
+        <v>151</v>
+      </c>
+      <c r="M11" s="42" t="s">
+        <v>151</v>
+      </c>
+      <c r="N11" s="42" t="s">
+        <v>151</v>
+      </c>
+      <c r="O11" s="42" t="s">
+        <v>151</v>
+      </c>
+      <c r="P11" s="28">
         <v>0</v>
       </c>
-      <c r="P11" s="29" t="s">
+      <c r="Q11" s="29" t="s">
         <v>126</v>
       </c>
-      <c r="Q11" s="30">
+      <c r="R11" s="30">
         <v>0.5</v>
       </c>
-      <c r="R11" s="26" t="s">
+      <c r="S11" s="26" t="s">
         <v>112</v>
       </c>
-      <c r="S11" s="22" t="s">
+      <c r="T11" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="T11" s="36" t="s">
-        <v>151</v>
-      </c>
       <c r="U11" s="36" t="s">
         <v>151</v>
       </c>
@@ -5204,18 +5276,18 @@
       <c r="W11" s="36" t="s">
         <v>151</v>
       </c>
-      <c r="X11" s="41" t="s">
-        <v>151</v>
-      </c>
-      <c r="Y11" s="41" t="s">
-        <v>151</v>
-      </c>
-      <c r="Z11" s="37" t="s">
+      <c r="X11" s="36" t="s">
+        <v>151</v>
+      </c>
+      <c r="Y11" s="39" t="s">
+        <v>151</v>
+      </c>
+      <c r="Z11" s="39" t="s">
+        <v>151</v>
+      </c>
+      <c r="AA11" s="37" t="s">
         <v>102</v>
       </c>
-      <c r="AA11" s="37" t="s">
-        <v>151</v>
-      </c>
       <c r="AB11" s="37" t="s">
         <v>151</v>
       </c>
@@ -5267,65 +5339,68 @@
       <c r="AR11" s="37" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="12" spans="2:44" x14ac:dyDescent="0.2">
+      <c r="AS11" s="37" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="12" spans="2:45" x14ac:dyDescent="0.2">
       <c r="B12" s="14" t="s">
         <v>3</v>
       </c>
       <c r="C12" s="27" t="s">
         <v>139</v>
       </c>
-      <c r="D12" s="42" t="b">
+      <c r="D12" s="40" t="b">
         <v>0</v>
       </c>
-      <c r="E12" s="45" t="b">
+      <c r="E12" s="50">
+        <v>1</v>
+      </c>
+      <c r="F12" s="43" t="b">
         <v>0</v>
       </c>
-      <c r="F12" s="45" t="s">
-        <v>151</v>
-      </c>
-      <c r="G12" s="45" t="s">
-        <v>151</v>
-      </c>
-      <c r="H12" s="45" t="s">
-        <v>151</v>
-      </c>
-      <c r="I12" s="49" t="s">
-        <v>151</v>
-      </c>
-      <c r="J12" s="49" t="s">
-        <v>151</v>
-      </c>
-      <c r="K12" s="49" t="s">
-        <v>151</v>
-      </c>
-      <c r="L12" s="44" t="s">
-        <v>151</v>
-      </c>
-      <c r="M12" s="44" t="s">
-        <v>151</v>
-      </c>
-      <c r="N12" s="44" t="s">
-        <v>151</v>
-      </c>
-      <c r="O12" s="28">
+      <c r="G12" s="43" t="s">
+        <v>151</v>
+      </c>
+      <c r="H12" s="43" t="s">
+        <v>151</v>
+      </c>
+      <c r="I12" s="43" t="s">
+        <v>151</v>
+      </c>
+      <c r="J12" s="47" t="s">
+        <v>151</v>
+      </c>
+      <c r="K12" s="47" t="s">
+        <v>151</v>
+      </c>
+      <c r="L12" s="47" t="s">
+        <v>151</v>
+      </c>
+      <c r="M12" s="42" t="s">
+        <v>151</v>
+      </c>
+      <c r="N12" s="42" t="s">
+        <v>151</v>
+      </c>
+      <c r="O12" s="42" t="s">
+        <v>151</v>
+      </c>
+      <c r="P12" s="28">
         <v>0</v>
       </c>
-      <c r="P12" s="29" t="s">
+      <c r="Q12" s="29" t="s">
         <v>125</v>
       </c>
-      <c r="Q12" s="30">
+      <c r="R12" s="30">
         <v>0.5</v>
       </c>
-      <c r="R12" s="26" t="s">
+      <c r="S12" s="26" t="s">
         <v>113</v>
       </c>
-      <c r="S12" s="22" t="s">
+      <c r="T12" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="T12" s="36" t="s">
-        <v>151</v>
-      </c>
       <c r="U12" s="36" t="s">
         <v>151</v>
       </c>
@@ -5335,18 +5410,18 @@
       <c r="W12" s="36" t="s">
         <v>151</v>
       </c>
-      <c r="X12" s="41" t="s">
-        <v>151</v>
-      </c>
-      <c r="Y12" s="41" t="s">
-        <v>151</v>
-      </c>
-      <c r="Z12" s="37" t="s">
+      <c r="X12" s="36" t="s">
+        <v>151</v>
+      </c>
+      <c r="Y12" s="39" t="s">
+        <v>151</v>
+      </c>
+      <c r="Z12" s="39" t="s">
+        <v>151</v>
+      </c>
+      <c r="AA12" s="37" t="s">
         <v>102</v>
       </c>
-      <c r="AA12" s="37" t="s">
-        <v>151</v>
-      </c>
       <c r="AB12" s="37" t="s">
         <v>151</v>
       </c>
@@ -5398,65 +5473,68 @@
       <c r="AR12" s="37" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="13" spans="2:44" x14ac:dyDescent="0.2">
+      <c r="AS12" s="37" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="13" spans="2:45" x14ac:dyDescent="0.2">
       <c r="B13" s="14" t="s">
         <v>3</v>
       </c>
       <c r="C13" s="27" t="s">
         <v>140</v>
       </c>
-      <c r="D13" s="42" t="b">
+      <c r="D13" s="40" t="b">
         <v>0</v>
       </c>
-      <c r="E13" s="45" t="b">
+      <c r="E13" s="50">
+        <v>1</v>
+      </c>
+      <c r="F13" s="43" t="b">
         <v>0</v>
       </c>
-      <c r="F13" s="45" t="s">
-        <v>151</v>
-      </c>
-      <c r="G13" s="45" t="s">
-        <v>151</v>
-      </c>
-      <c r="H13" s="45" t="s">
-        <v>151</v>
-      </c>
-      <c r="I13" s="49" t="s">
-        <v>151</v>
-      </c>
-      <c r="J13" s="49" t="s">
-        <v>151</v>
-      </c>
-      <c r="K13" s="49" t="s">
-        <v>151</v>
-      </c>
-      <c r="L13" s="44" t="s">
-        <v>151</v>
-      </c>
-      <c r="M13" s="44" t="s">
-        <v>151</v>
-      </c>
-      <c r="N13" s="44" t="s">
-        <v>151</v>
-      </c>
-      <c r="O13" s="28">
+      <c r="G13" s="43" t="s">
+        <v>151</v>
+      </c>
+      <c r="H13" s="43" t="s">
+        <v>151</v>
+      </c>
+      <c r="I13" s="43" t="s">
+        <v>151</v>
+      </c>
+      <c r="J13" s="47" t="s">
+        <v>151</v>
+      </c>
+      <c r="K13" s="47" t="s">
+        <v>151</v>
+      </c>
+      <c r="L13" s="47" t="s">
+        <v>151</v>
+      </c>
+      <c r="M13" s="42" t="s">
+        <v>151</v>
+      </c>
+      <c r="N13" s="42" t="s">
+        <v>151</v>
+      </c>
+      <c r="O13" s="42" t="s">
+        <v>151</v>
+      </c>
+      <c r="P13" s="28">
         <v>0</v>
       </c>
-      <c r="P13" s="29" t="s">
+      <c r="Q13" s="29" t="s">
         <v>99</v>
       </c>
-      <c r="Q13" s="30">
+      <c r="R13" s="30">
         <v>0.5</v>
       </c>
-      <c r="R13" s="26" t="s">
+      <c r="S13" s="26" t="s">
         <v>114</v>
       </c>
-      <c r="S13" s="22" t="s">
+      <c r="T13" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="T13" s="36" t="s">
-        <v>151</v>
-      </c>
       <c r="U13" s="36" t="s">
         <v>151</v>
       </c>
@@ -5466,18 +5544,18 @@
       <c r="W13" s="36" t="s">
         <v>151</v>
       </c>
-      <c r="X13" s="41" t="s">
-        <v>151</v>
-      </c>
-      <c r="Y13" s="41" t="s">
-        <v>151</v>
-      </c>
-      <c r="Z13" s="37" t="s">
+      <c r="X13" s="36" t="s">
+        <v>151</v>
+      </c>
+      <c r="Y13" s="39" t="s">
+        <v>151</v>
+      </c>
+      <c r="Z13" s="39" t="s">
+        <v>151</v>
+      </c>
+      <c r="AA13" s="37" t="s">
         <v>102</v>
       </c>
-      <c r="AA13" s="37" t="s">
-        <v>151</v>
-      </c>
       <c r="AB13" s="37" t="s">
         <v>151</v>
       </c>
@@ -5529,65 +5607,68 @@
       <c r="AR13" s="37" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="14" spans="2:44" x14ac:dyDescent="0.2">
+      <c r="AS13" s="37" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="14" spans="2:45" x14ac:dyDescent="0.2">
       <c r="B14" s="14" t="s">
         <v>3</v>
       </c>
       <c r="C14" s="31" t="s">
         <v>141</v>
       </c>
-      <c r="D14" s="42" t="b">
+      <c r="D14" s="40" t="b">
         <v>0</v>
       </c>
-      <c r="E14" s="45" t="b">
+      <c r="E14" s="50">
+        <v>1</v>
+      </c>
+      <c r="F14" s="43" t="b">
         <v>0</v>
       </c>
-      <c r="F14" s="45" t="s">
-        <v>151</v>
-      </c>
-      <c r="G14" s="45" t="s">
-        <v>151</v>
-      </c>
-      <c r="H14" s="45" t="s">
-        <v>151</v>
-      </c>
-      <c r="I14" s="49" t="s">
-        <v>151</v>
-      </c>
-      <c r="J14" s="49" t="s">
-        <v>151</v>
-      </c>
-      <c r="K14" s="49" t="s">
-        <v>151</v>
-      </c>
-      <c r="L14" s="44" t="s">
-        <v>151</v>
-      </c>
-      <c r="M14" s="44" t="s">
-        <v>151</v>
-      </c>
-      <c r="N14" s="44" t="s">
-        <v>151</v>
-      </c>
-      <c r="O14" s="32">
+      <c r="G14" s="43" t="s">
+        <v>151</v>
+      </c>
+      <c r="H14" s="43" t="s">
+        <v>151</v>
+      </c>
+      <c r="I14" s="43" t="s">
+        <v>151</v>
+      </c>
+      <c r="J14" s="47" t="s">
+        <v>151</v>
+      </c>
+      <c r="K14" s="47" t="s">
+        <v>151</v>
+      </c>
+      <c r="L14" s="47" t="s">
+        <v>151</v>
+      </c>
+      <c r="M14" s="42" t="s">
+        <v>151</v>
+      </c>
+      <c r="N14" s="42" t="s">
+        <v>151</v>
+      </c>
+      <c r="O14" s="42" t="s">
+        <v>151</v>
+      </c>
+      <c r="P14" s="32">
         <v>0</v>
       </c>
-      <c r="P14" s="35" t="s">
+      <c r="Q14" s="35" t="s">
         <v>126</v>
       </c>
-      <c r="Q14" s="30">
+      <c r="R14" s="30">
         <v>0.5</v>
       </c>
-      <c r="R14" s="26" t="s">
+      <c r="S14" s="26" t="s">
         <v>115</v>
       </c>
-      <c r="S14" s="22" t="s">
+      <c r="T14" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="T14" s="36" t="s">
-        <v>151</v>
-      </c>
       <c r="U14" s="36" t="s">
         <v>151</v>
       </c>
@@ -5597,18 +5678,18 @@
       <c r="W14" s="36" t="s">
         <v>151</v>
       </c>
-      <c r="X14" s="41" t="s">
-        <v>151</v>
-      </c>
-      <c r="Y14" s="41" t="s">
-        <v>151</v>
-      </c>
-      <c r="Z14" s="37" t="s">
+      <c r="X14" s="36" t="s">
+        <v>151</v>
+      </c>
+      <c r="Y14" s="39" t="s">
+        <v>151</v>
+      </c>
+      <c r="Z14" s="39" t="s">
+        <v>151</v>
+      </c>
+      <c r="AA14" s="37" t="s">
         <v>102</v>
       </c>
-      <c r="AA14" s="37" t="s">
-        <v>151</v>
-      </c>
       <c r="AB14" s="37" t="s">
         <v>151</v>
       </c>
@@ -5660,65 +5741,68 @@
       <c r="AR14" s="37" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="15" spans="2:44" x14ac:dyDescent="0.2">
+      <c r="AS14" s="37" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="15" spans="2:45" x14ac:dyDescent="0.2">
       <c r="B15" s="14" t="s">
         <v>3</v>
       </c>
       <c r="C15" s="31" t="s">
         <v>142</v>
       </c>
-      <c r="D15" s="42" t="b">
+      <c r="D15" s="40" t="b">
         <v>0</v>
       </c>
-      <c r="E15" s="45" t="b">
+      <c r="E15" s="50">
+        <v>1</v>
+      </c>
+      <c r="F15" s="43" t="b">
         <v>0</v>
       </c>
-      <c r="F15" s="45" t="s">
-        <v>151</v>
-      </c>
-      <c r="G15" s="45" t="s">
-        <v>151</v>
-      </c>
-      <c r="H15" s="45" t="s">
-        <v>151</v>
-      </c>
-      <c r="I15" s="49" t="s">
-        <v>151</v>
-      </c>
-      <c r="J15" s="49" t="s">
-        <v>151</v>
-      </c>
-      <c r="K15" s="49" t="s">
-        <v>151</v>
-      </c>
-      <c r="L15" s="44" t="s">
-        <v>151</v>
-      </c>
-      <c r="M15" s="44" t="s">
-        <v>151</v>
-      </c>
-      <c r="N15" s="44" t="s">
-        <v>151</v>
-      </c>
-      <c r="O15" s="32">
+      <c r="G15" s="43" t="s">
+        <v>151</v>
+      </c>
+      <c r="H15" s="43" t="s">
+        <v>151</v>
+      </c>
+      <c r="I15" s="43" t="s">
+        <v>151</v>
+      </c>
+      <c r="J15" s="47" t="s">
+        <v>151</v>
+      </c>
+      <c r="K15" s="47" t="s">
+        <v>151</v>
+      </c>
+      <c r="L15" s="47" t="s">
+        <v>151</v>
+      </c>
+      <c r="M15" s="42" t="s">
+        <v>151</v>
+      </c>
+      <c r="N15" s="42" t="s">
+        <v>151</v>
+      </c>
+      <c r="O15" s="42" t="s">
+        <v>151</v>
+      </c>
+      <c r="P15" s="32">
         <v>0</v>
       </c>
-      <c r="P15" s="35" t="s">
+      <c r="Q15" s="35" t="s">
         <v>127</v>
       </c>
-      <c r="Q15" s="30">
+      <c r="R15" s="30">
         <v>0.5</v>
       </c>
-      <c r="R15" s="26" t="s">
+      <c r="S15" s="26" t="s">
         <v>116</v>
       </c>
-      <c r="S15" s="22" t="s">
+      <c r="T15" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="T15" s="36" t="s">
-        <v>151</v>
-      </c>
       <c r="U15" s="36" t="s">
         <v>151</v>
       </c>
@@ -5728,18 +5812,18 @@
       <c r="W15" s="36" t="s">
         <v>151</v>
       </c>
-      <c r="X15" s="41" t="s">
-        <v>151</v>
-      </c>
-      <c r="Y15" s="41" t="s">
-        <v>151</v>
-      </c>
-      <c r="Z15" s="37" t="s">
+      <c r="X15" s="36" t="s">
+        <v>151</v>
+      </c>
+      <c r="Y15" s="39" t="s">
+        <v>151</v>
+      </c>
+      <c r="Z15" s="39" t="s">
+        <v>151</v>
+      </c>
+      <c r="AA15" s="37" t="s">
         <v>102</v>
       </c>
-      <c r="AA15" s="37" t="s">
-        <v>151</v>
-      </c>
       <c r="AB15" s="37" t="s">
         <v>151</v>
       </c>
@@ -5791,65 +5875,68 @@
       <c r="AR15" s="37" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="16" spans="2:44" x14ac:dyDescent="0.2">
+      <c r="AS15" s="37" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="16" spans="2:45" x14ac:dyDescent="0.2">
       <c r="B16" s="14" t="s">
         <v>3</v>
       </c>
       <c r="C16" s="31" t="s">
         <v>143</v>
       </c>
-      <c r="D16" s="42" t="b">
+      <c r="D16" s="40" t="b">
         <v>0</v>
       </c>
-      <c r="E16" s="45" t="b">
+      <c r="E16" s="50">
+        <v>1</v>
+      </c>
+      <c r="F16" s="43" t="b">
         <v>0</v>
       </c>
-      <c r="F16" s="45" t="s">
-        <v>151</v>
-      </c>
-      <c r="G16" s="45" t="s">
-        <v>151</v>
-      </c>
-      <c r="H16" s="45" t="s">
-        <v>151</v>
-      </c>
-      <c r="I16" s="49" t="s">
-        <v>151</v>
-      </c>
-      <c r="J16" s="49" t="s">
-        <v>151</v>
-      </c>
-      <c r="K16" s="49" t="s">
-        <v>151</v>
-      </c>
-      <c r="L16" s="44" t="s">
-        <v>151</v>
-      </c>
-      <c r="M16" s="44" t="s">
-        <v>151</v>
-      </c>
-      <c r="N16" s="44" t="s">
-        <v>151</v>
-      </c>
-      <c r="O16" s="32">
+      <c r="G16" s="43" t="s">
+        <v>151</v>
+      </c>
+      <c r="H16" s="43" t="s">
+        <v>151</v>
+      </c>
+      <c r="I16" s="43" t="s">
+        <v>151</v>
+      </c>
+      <c r="J16" s="47" t="s">
+        <v>151</v>
+      </c>
+      <c r="K16" s="47" t="s">
+        <v>151</v>
+      </c>
+      <c r="L16" s="47" t="s">
+        <v>151</v>
+      </c>
+      <c r="M16" s="42" t="s">
+        <v>151</v>
+      </c>
+      <c r="N16" s="42" t="s">
+        <v>151</v>
+      </c>
+      <c r="O16" s="42" t="s">
+        <v>151</v>
+      </c>
+      <c r="P16" s="32">
         <v>0</v>
       </c>
-      <c r="P16" s="35" t="s">
+      <c r="Q16" s="35" t="s">
         <v>128</v>
       </c>
-      <c r="Q16" s="30">
+      <c r="R16" s="30">
         <v>0.5</v>
       </c>
-      <c r="R16" s="26" t="s">
+      <c r="S16" s="26" t="s">
         <v>117</v>
       </c>
-      <c r="S16" s="22" t="s">
+      <c r="T16" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="T16" s="36" t="s">
-        <v>151</v>
-      </c>
       <c r="U16" s="36" t="s">
         <v>151</v>
       </c>
@@ -5859,18 +5946,18 @@
       <c r="W16" s="36" t="s">
         <v>151</v>
       </c>
-      <c r="X16" s="41" t="s">
-        <v>151</v>
-      </c>
-      <c r="Y16" s="41" t="s">
-        <v>151</v>
-      </c>
-      <c r="Z16" s="37" t="s">
+      <c r="X16" s="36" t="s">
+        <v>151</v>
+      </c>
+      <c r="Y16" s="39" t="s">
+        <v>151</v>
+      </c>
+      <c r="Z16" s="39" t="s">
+        <v>151</v>
+      </c>
+      <c r="AA16" s="37" t="s">
         <v>102</v>
       </c>
-      <c r="AA16" s="37" t="s">
-        <v>151</v>
-      </c>
       <c r="AB16" s="37" t="s">
         <v>151</v>
       </c>
@@ -5922,65 +6009,68 @@
       <c r="AR16" s="37" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="17" spans="2:44" x14ac:dyDescent="0.2">
+      <c r="AS16" s="37" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="17" spans="2:45" x14ac:dyDescent="0.2">
       <c r="B17" s="14" t="s">
         <v>3</v>
       </c>
       <c r="C17" s="31" t="s">
         <v>144</v>
       </c>
-      <c r="D17" s="42" t="b">
+      <c r="D17" s="40" t="b">
         <v>0</v>
       </c>
-      <c r="E17" s="45" t="b">
+      <c r="E17" s="50">
+        <v>1</v>
+      </c>
+      <c r="F17" s="43" t="b">
         <v>0</v>
       </c>
-      <c r="F17" s="45" t="s">
-        <v>151</v>
-      </c>
-      <c r="G17" s="45" t="s">
-        <v>151</v>
-      </c>
-      <c r="H17" s="45" t="s">
-        <v>151</v>
-      </c>
-      <c r="I17" s="49" t="s">
-        <v>151</v>
-      </c>
-      <c r="J17" s="49" t="s">
-        <v>151</v>
-      </c>
-      <c r="K17" s="49" t="s">
-        <v>151</v>
-      </c>
-      <c r="L17" s="44" t="s">
-        <v>151</v>
-      </c>
-      <c r="M17" s="44" t="s">
-        <v>151</v>
-      </c>
-      <c r="N17" s="44" t="s">
-        <v>151</v>
-      </c>
-      <c r="O17" s="32">
+      <c r="G17" s="43" t="s">
+        <v>151</v>
+      </c>
+      <c r="H17" s="43" t="s">
+        <v>151</v>
+      </c>
+      <c r="I17" s="43" t="s">
+        <v>151</v>
+      </c>
+      <c r="J17" s="47" t="s">
+        <v>151</v>
+      </c>
+      <c r="K17" s="47" t="s">
+        <v>151</v>
+      </c>
+      <c r="L17" s="47" t="s">
+        <v>151</v>
+      </c>
+      <c r="M17" s="42" t="s">
+        <v>151</v>
+      </c>
+      <c r="N17" s="42" t="s">
+        <v>151</v>
+      </c>
+      <c r="O17" s="42" t="s">
+        <v>151</v>
+      </c>
+      <c r="P17" s="32">
         <v>0</v>
       </c>
-      <c r="P17" s="35" t="s">
+      <c r="Q17" s="35" t="s">
         <v>129</v>
       </c>
-      <c r="Q17" s="30">
+      <c r="R17" s="30">
         <v>0.5</v>
       </c>
-      <c r="R17" s="26" t="s">
+      <c r="S17" s="26" t="s">
         <v>118</v>
       </c>
-      <c r="S17" s="22" t="s">
+      <c r="T17" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="T17" s="36" t="s">
-        <v>151</v>
-      </c>
       <c r="U17" s="36" t="s">
         <v>151</v>
       </c>
@@ -5990,18 +6080,18 @@
       <c r="W17" s="36" t="s">
         <v>151</v>
       </c>
-      <c r="X17" s="41" t="s">
-        <v>151</v>
-      </c>
-      <c r="Y17" s="41" t="s">
-        <v>151</v>
-      </c>
-      <c r="Z17" s="37" t="s">
+      <c r="X17" s="36" t="s">
+        <v>151</v>
+      </c>
+      <c r="Y17" s="39" t="s">
+        <v>151</v>
+      </c>
+      <c r="Z17" s="39" t="s">
+        <v>151</v>
+      </c>
+      <c r="AA17" s="37" t="s">
         <v>102</v>
       </c>
-      <c r="AA17" s="37" t="s">
-        <v>151</v>
-      </c>
       <c r="AB17" s="37" t="s">
         <v>151</v>
       </c>
@@ -6053,65 +6143,68 @@
       <c r="AR17" s="37" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="18" spans="2:44" x14ac:dyDescent="0.2">
+      <c r="AS17" s="37" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="18" spans="2:45" x14ac:dyDescent="0.2">
       <c r="B18" s="14" t="s">
         <v>3</v>
       </c>
       <c r="C18" s="31" t="s">
         <v>145</v>
       </c>
-      <c r="D18" s="42" t="b">
+      <c r="D18" s="40" t="b">
         <v>0</v>
       </c>
-      <c r="E18" s="45" t="b">
+      <c r="E18" s="50">
+        <v>1</v>
+      </c>
+      <c r="F18" s="43" t="b">
         <v>0</v>
       </c>
-      <c r="F18" s="45" t="s">
-        <v>151</v>
-      </c>
-      <c r="G18" s="45" t="s">
-        <v>151</v>
-      </c>
-      <c r="H18" s="45" t="s">
-        <v>151</v>
-      </c>
-      <c r="I18" s="49" t="s">
-        <v>151</v>
-      </c>
-      <c r="J18" s="49" t="s">
-        <v>151</v>
-      </c>
-      <c r="K18" s="49" t="s">
-        <v>151</v>
-      </c>
-      <c r="L18" s="44" t="s">
-        <v>151</v>
-      </c>
-      <c r="M18" s="44" t="s">
-        <v>151</v>
-      </c>
-      <c r="N18" s="44" t="s">
-        <v>151</v>
-      </c>
-      <c r="O18" s="32">
+      <c r="G18" s="43" t="s">
+        <v>151</v>
+      </c>
+      <c r="H18" s="43" t="s">
+        <v>151</v>
+      </c>
+      <c r="I18" s="43" t="s">
+        <v>151</v>
+      </c>
+      <c r="J18" s="47" t="s">
+        <v>151</v>
+      </c>
+      <c r="K18" s="47" t="s">
+        <v>151</v>
+      </c>
+      <c r="L18" s="47" t="s">
+        <v>151</v>
+      </c>
+      <c r="M18" s="42" t="s">
+        <v>151</v>
+      </c>
+      <c r="N18" s="42" t="s">
+        <v>151</v>
+      </c>
+      <c r="O18" s="42" t="s">
+        <v>151</v>
+      </c>
+      <c r="P18" s="32">
         <v>0</v>
       </c>
-      <c r="P18" s="35" t="s">
+      <c r="Q18" s="35" t="s">
         <v>125</v>
       </c>
-      <c r="Q18" s="30">
+      <c r="R18" s="30">
         <v>0.5</v>
       </c>
-      <c r="R18" s="26" t="s">
+      <c r="S18" s="26" t="s">
         <v>119</v>
       </c>
-      <c r="S18" s="22" t="s">
+      <c r="T18" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="T18" s="36" t="s">
-        <v>151</v>
-      </c>
       <c r="U18" s="36" t="s">
         <v>151</v>
       </c>
@@ -6121,18 +6214,18 @@
       <c r="W18" s="36" t="s">
         <v>151</v>
       </c>
-      <c r="X18" s="41" t="s">
-        <v>151</v>
-      </c>
-      <c r="Y18" s="41" t="s">
-        <v>151</v>
-      </c>
-      <c r="Z18" s="37" t="s">
+      <c r="X18" s="36" t="s">
+        <v>151</v>
+      </c>
+      <c r="Y18" s="39" t="s">
+        <v>151</v>
+      </c>
+      <c r="Z18" s="39" t="s">
+        <v>151</v>
+      </c>
+      <c r="AA18" s="37" t="s">
         <v>102</v>
       </c>
-      <c r="AA18" s="37" t="s">
-        <v>151</v>
-      </c>
       <c r="AB18" s="37" t="s">
         <v>151</v>
       </c>
@@ -6184,65 +6277,68 @@
       <c r="AR18" s="37" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="19" spans="2:44" x14ac:dyDescent="0.2">
+      <c r="AS18" s="37" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="19" spans="2:45" x14ac:dyDescent="0.2">
       <c r="B19" s="14" t="s">
         <v>3</v>
       </c>
       <c r="C19" s="31" t="s">
         <v>146</v>
       </c>
-      <c r="D19" s="42" t="b">
+      <c r="D19" s="40" t="b">
         <v>0</v>
       </c>
-      <c r="E19" s="45" t="b">
+      <c r="E19" s="50">
+        <v>1</v>
+      </c>
+      <c r="F19" s="43" t="b">
         <v>0</v>
       </c>
-      <c r="F19" s="45" t="s">
-        <v>151</v>
-      </c>
-      <c r="G19" s="45" t="s">
-        <v>151</v>
-      </c>
-      <c r="H19" s="45" t="s">
-        <v>151</v>
-      </c>
-      <c r="I19" s="49" t="s">
-        <v>151</v>
-      </c>
-      <c r="J19" s="49" t="s">
-        <v>151</v>
-      </c>
-      <c r="K19" s="49" t="s">
-        <v>151</v>
-      </c>
-      <c r="L19" s="44" t="s">
-        <v>151</v>
-      </c>
-      <c r="M19" s="44" t="s">
-        <v>151</v>
-      </c>
-      <c r="N19" s="44" t="s">
-        <v>151</v>
-      </c>
-      <c r="O19" s="32">
+      <c r="G19" s="43" t="s">
+        <v>151</v>
+      </c>
+      <c r="H19" s="43" t="s">
+        <v>151</v>
+      </c>
+      <c r="I19" s="43" t="s">
+        <v>151</v>
+      </c>
+      <c r="J19" s="47" t="s">
+        <v>151</v>
+      </c>
+      <c r="K19" s="47" t="s">
+        <v>151</v>
+      </c>
+      <c r="L19" s="47" t="s">
+        <v>151</v>
+      </c>
+      <c r="M19" s="42" t="s">
+        <v>151</v>
+      </c>
+      <c r="N19" s="42" t="s">
+        <v>151</v>
+      </c>
+      <c r="O19" s="42" t="s">
+        <v>151</v>
+      </c>
+      <c r="P19" s="32">
         <v>0</v>
       </c>
-      <c r="P19" s="35" t="s">
+      <c r="Q19" s="35" t="s">
         <v>99</v>
       </c>
-      <c r="Q19" s="30">
+      <c r="R19" s="30">
         <v>0.5</v>
       </c>
-      <c r="R19" s="26" t="s">
+      <c r="S19" s="26" t="s">
         <v>120</v>
       </c>
-      <c r="S19" s="22" t="s">
+      <c r="T19" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="T19" s="36" t="s">
-        <v>151</v>
-      </c>
       <c r="U19" s="36" t="s">
         <v>151</v>
       </c>
@@ -6252,18 +6348,18 @@
       <c r="W19" s="36" t="s">
         <v>151</v>
       </c>
-      <c r="X19" s="41" t="s">
-        <v>151</v>
-      </c>
-      <c r="Y19" s="41" t="s">
-        <v>151</v>
-      </c>
-      <c r="Z19" s="37" t="s">
+      <c r="X19" s="36" t="s">
+        <v>151</v>
+      </c>
+      <c r="Y19" s="39" t="s">
+        <v>151</v>
+      </c>
+      <c r="Z19" s="39" t="s">
+        <v>151</v>
+      </c>
+      <c r="AA19" s="37" t="s">
         <v>102</v>
       </c>
-      <c r="AA19" s="37" t="s">
-        <v>151</v>
-      </c>
       <c r="AB19" s="37" t="s">
         <v>151</v>
       </c>
@@ -6315,65 +6411,68 @@
       <c r="AR19" s="37" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="20" spans="2:44" x14ac:dyDescent="0.2">
+      <c r="AS19" s="37" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="20" spans="2:45" x14ac:dyDescent="0.2">
       <c r="B20" s="14" t="s">
         <v>3</v>
       </c>
       <c r="C20" s="31" t="s">
         <v>147</v>
       </c>
-      <c r="D20" s="42" t="b">
+      <c r="D20" s="40" t="b">
         <v>0</v>
       </c>
-      <c r="E20" s="45" t="b">
+      <c r="E20" s="50">
+        <v>1</v>
+      </c>
+      <c r="F20" s="43" t="b">
         <v>0</v>
       </c>
-      <c r="F20" s="45" t="s">
-        <v>151</v>
-      </c>
-      <c r="G20" s="45" t="s">
-        <v>151</v>
-      </c>
-      <c r="H20" s="45" t="s">
-        <v>151</v>
-      </c>
-      <c r="I20" s="49" t="s">
-        <v>151</v>
-      </c>
-      <c r="J20" s="49" t="s">
-        <v>151</v>
-      </c>
-      <c r="K20" s="49" t="s">
-        <v>151</v>
-      </c>
-      <c r="L20" s="44" t="s">
-        <v>151</v>
-      </c>
-      <c r="M20" s="44" t="s">
-        <v>151</v>
-      </c>
-      <c r="N20" s="44" t="s">
-        <v>151</v>
-      </c>
-      <c r="O20" s="32">
+      <c r="G20" s="43" t="s">
+        <v>151</v>
+      </c>
+      <c r="H20" s="43" t="s">
+        <v>151</v>
+      </c>
+      <c r="I20" s="43" t="s">
+        <v>151</v>
+      </c>
+      <c r="J20" s="47" t="s">
+        <v>151</v>
+      </c>
+      <c r="K20" s="47" t="s">
+        <v>151</v>
+      </c>
+      <c r="L20" s="47" t="s">
+        <v>151</v>
+      </c>
+      <c r="M20" s="42" t="s">
+        <v>151</v>
+      </c>
+      <c r="N20" s="42" t="s">
+        <v>151</v>
+      </c>
+      <c r="O20" s="42" t="s">
+        <v>151</v>
+      </c>
+      <c r="P20" s="32">
         <v>0</v>
       </c>
-      <c r="P20" s="35" t="s">
+      <c r="Q20" s="35" t="s">
         <v>126</v>
       </c>
-      <c r="Q20" s="30">
+      <c r="R20" s="30">
         <v>0.5</v>
       </c>
-      <c r="R20" s="26" t="s">
+      <c r="S20" s="26" t="s">
         <v>121</v>
       </c>
-      <c r="S20" s="22" t="s">
+      <c r="T20" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="T20" s="36" t="s">
-        <v>151</v>
-      </c>
       <c r="U20" s="36" t="s">
         <v>151</v>
       </c>
@@ -6383,18 +6482,18 @@
       <c r="W20" s="36" t="s">
         <v>151</v>
       </c>
-      <c r="X20" s="41" t="s">
-        <v>151</v>
-      </c>
-      <c r="Y20" s="41" t="s">
-        <v>151</v>
-      </c>
-      <c r="Z20" s="37" t="s">
+      <c r="X20" s="36" t="s">
+        <v>151</v>
+      </c>
+      <c r="Y20" s="39" t="s">
+        <v>151</v>
+      </c>
+      <c r="Z20" s="39" t="s">
+        <v>151</v>
+      </c>
+      <c r="AA20" s="37" t="s">
         <v>102</v>
       </c>
-      <c r="AA20" s="37" t="s">
-        <v>151</v>
-      </c>
       <c r="AB20" s="37" t="s">
         <v>151</v>
       </c>
@@ -6446,65 +6545,68 @@
       <c r="AR20" s="37" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="21" spans="2:44" x14ac:dyDescent="0.2">
+      <c r="AS20" s="37" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="21" spans="2:45" x14ac:dyDescent="0.2">
       <c r="B21" s="14" t="s">
         <v>3</v>
       </c>
       <c r="C21" s="31" t="s">
         <v>148</v>
       </c>
-      <c r="D21" s="42" t="b">
+      <c r="D21" s="40" t="b">
         <v>0</v>
       </c>
-      <c r="E21" s="45" t="b">
+      <c r="E21" s="50">
+        <v>1</v>
+      </c>
+      <c r="F21" s="43" t="b">
         <v>0</v>
       </c>
-      <c r="F21" s="45" t="s">
-        <v>151</v>
-      </c>
-      <c r="G21" s="45" t="s">
-        <v>151</v>
-      </c>
-      <c r="H21" s="45" t="s">
-        <v>151</v>
-      </c>
-      <c r="I21" s="49" t="s">
-        <v>151</v>
-      </c>
-      <c r="J21" s="49" t="s">
-        <v>151</v>
-      </c>
-      <c r="K21" s="49" t="s">
-        <v>151</v>
-      </c>
-      <c r="L21" s="44" t="s">
-        <v>151</v>
-      </c>
-      <c r="M21" s="44" t="s">
-        <v>151</v>
-      </c>
-      <c r="N21" s="44" t="s">
-        <v>151</v>
-      </c>
-      <c r="O21" s="32">
+      <c r="G21" s="43" t="s">
+        <v>151</v>
+      </c>
+      <c r="H21" s="43" t="s">
+        <v>151</v>
+      </c>
+      <c r="I21" s="43" t="s">
+        <v>151</v>
+      </c>
+      <c r="J21" s="47" t="s">
+        <v>151</v>
+      </c>
+      <c r="K21" s="47" t="s">
+        <v>151</v>
+      </c>
+      <c r="L21" s="47" t="s">
+        <v>151</v>
+      </c>
+      <c r="M21" s="42" t="s">
+        <v>151</v>
+      </c>
+      <c r="N21" s="42" t="s">
+        <v>151</v>
+      </c>
+      <c r="O21" s="42" t="s">
+        <v>151</v>
+      </c>
+      <c r="P21" s="32">
         <v>0</v>
       </c>
-      <c r="P21" s="35" t="s">
+      <c r="Q21" s="35" t="s">
         <v>127</v>
       </c>
-      <c r="Q21" s="30">
+      <c r="R21" s="30">
         <v>0.5</v>
       </c>
-      <c r="R21" s="26" t="s">
+      <c r="S21" s="26" t="s">
         <v>122</v>
       </c>
-      <c r="S21" s="22" t="s">
+      <c r="T21" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="T21" s="36" t="s">
-        <v>151</v>
-      </c>
       <c r="U21" s="36" t="s">
         <v>151</v>
       </c>
@@ -6514,18 +6616,18 @@
       <c r="W21" s="36" t="s">
         <v>151</v>
       </c>
-      <c r="X21" s="41" t="s">
-        <v>151</v>
-      </c>
-      <c r="Y21" s="41" t="s">
-        <v>151</v>
-      </c>
-      <c r="Z21" s="37" t="s">
+      <c r="X21" s="36" t="s">
+        <v>151</v>
+      </c>
+      <c r="Y21" s="39" t="s">
+        <v>151</v>
+      </c>
+      <c r="Z21" s="39" t="s">
+        <v>151</v>
+      </c>
+      <c r="AA21" s="37" t="s">
         <v>102</v>
       </c>
-      <c r="AA21" s="37" t="s">
-        <v>151</v>
-      </c>
       <c r="AB21" s="37" t="s">
         <v>151</v>
       </c>
@@ -6577,65 +6679,68 @@
       <c r="AR21" s="37" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="22" spans="2:44" x14ac:dyDescent="0.2">
+      <c r="AS21" s="37" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="22" spans="2:45" x14ac:dyDescent="0.2">
       <c r="B22" s="14" t="s">
         <v>3</v>
       </c>
       <c r="C22" s="31" t="s">
         <v>149</v>
       </c>
-      <c r="D22" s="42" t="b">
+      <c r="D22" s="40" t="b">
         <v>0</v>
       </c>
-      <c r="E22" s="45" t="b">
+      <c r="E22" s="50">
+        <v>1</v>
+      </c>
+      <c r="F22" s="43" t="b">
         <v>0</v>
       </c>
-      <c r="F22" s="45" t="s">
-        <v>151</v>
-      </c>
-      <c r="G22" s="45" t="s">
-        <v>151</v>
-      </c>
-      <c r="H22" s="45" t="s">
-        <v>151</v>
-      </c>
-      <c r="I22" s="49" t="s">
-        <v>151</v>
-      </c>
-      <c r="J22" s="49" t="s">
-        <v>151</v>
-      </c>
-      <c r="K22" s="49" t="s">
-        <v>151</v>
-      </c>
-      <c r="L22" s="44" t="s">
-        <v>151</v>
-      </c>
-      <c r="M22" s="44" t="s">
-        <v>151</v>
-      </c>
-      <c r="N22" s="44" t="s">
-        <v>151</v>
-      </c>
-      <c r="O22" s="32">
+      <c r="G22" s="43" t="s">
+        <v>151</v>
+      </c>
+      <c r="H22" s="43" t="s">
+        <v>151</v>
+      </c>
+      <c r="I22" s="43" t="s">
+        <v>151</v>
+      </c>
+      <c r="J22" s="47" t="s">
+        <v>151</v>
+      </c>
+      <c r="K22" s="47" t="s">
+        <v>151</v>
+      </c>
+      <c r="L22" s="47" t="s">
+        <v>151</v>
+      </c>
+      <c r="M22" s="42" t="s">
+        <v>151</v>
+      </c>
+      <c r="N22" s="42" t="s">
+        <v>151</v>
+      </c>
+      <c r="O22" s="42" t="s">
+        <v>151</v>
+      </c>
+      <c r="P22" s="32">
         <v>0</v>
       </c>
-      <c r="P22" s="35" t="s">
+      <c r="Q22" s="35" t="s">
         <v>128</v>
       </c>
-      <c r="Q22" s="30">
+      <c r="R22" s="30">
         <v>0.5</v>
       </c>
-      <c r="R22" s="26" t="s">
+      <c r="S22" s="26" t="s">
         <v>123</v>
       </c>
-      <c r="S22" s="22" t="s">
+      <c r="T22" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="T22" s="36" t="s">
-        <v>151</v>
-      </c>
       <c r="U22" s="36" t="s">
         <v>151</v>
       </c>
@@ -6645,18 +6750,18 @@
       <c r="W22" s="36" t="s">
         <v>151</v>
       </c>
-      <c r="X22" s="41" t="s">
-        <v>151</v>
-      </c>
-      <c r="Y22" s="41" t="s">
-        <v>151</v>
-      </c>
-      <c r="Z22" s="37" t="s">
+      <c r="X22" s="36" t="s">
+        <v>151</v>
+      </c>
+      <c r="Y22" s="39" t="s">
+        <v>151</v>
+      </c>
+      <c r="Z22" s="39" t="s">
+        <v>151</v>
+      </c>
+      <c r="AA22" s="37" t="s">
         <v>102</v>
       </c>
-      <c r="AA22" s="37" t="s">
-        <v>151</v>
-      </c>
       <c r="AB22" s="37" t="s">
         <v>151</v>
       </c>
@@ -6708,65 +6813,68 @@
       <c r="AR22" s="37" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="23" spans="2:44" x14ac:dyDescent="0.2">
+      <c r="AS22" s="37" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="23" spans="2:45" x14ac:dyDescent="0.2">
       <c r="B23" s="14" t="s">
         <v>3</v>
       </c>
       <c r="C23" s="38" t="s">
         <v>150</v>
       </c>
-      <c r="D23" s="42" t="b">
+      <c r="D23" s="40" t="b">
         <v>0</v>
       </c>
-      <c r="E23" s="45" t="b">
+      <c r="E23" s="50">
+        <v>1</v>
+      </c>
+      <c r="F23" s="43" t="b">
         <v>0</v>
       </c>
-      <c r="F23" s="45" t="s">
-        <v>151</v>
-      </c>
-      <c r="G23" s="45" t="s">
-        <v>151</v>
-      </c>
-      <c r="H23" s="45" t="s">
-        <v>151</v>
-      </c>
-      <c r="I23" s="49" t="s">
-        <v>151</v>
-      </c>
-      <c r="J23" s="49" t="s">
-        <v>151</v>
-      </c>
-      <c r="K23" s="49" t="s">
-        <v>151</v>
-      </c>
-      <c r="L23" s="44" t="s">
-        <v>151</v>
-      </c>
-      <c r="M23" s="44" t="s">
-        <v>151</v>
-      </c>
-      <c r="N23" s="44" t="s">
-        <v>151</v>
-      </c>
-      <c r="O23" s="32">
+      <c r="G23" s="43" t="s">
+        <v>151</v>
+      </c>
+      <c r="H23" s="43" t="s">
+        <v>151</v>
+      </c>
+      <c r="I23" s="43" t="s">
+        <v>151</v>
+      </c>
+      <c r="J23" s="47" t="s">
+        <v>151</v>
+      </c>
+      <c r="K23" s="47" t="s">
+        <v>151</v>
+      </c>
+      <c r="L23" s="47" t="s">
+        <v>151</v>
+      </c>
+      <c r="M23" s="42" t="s">
+        <v>151</v>
+      </c>
+      <c r="N23" s="42" t="s">
+        <v>151</v>
+      </c>
+      <c r="O23" s="42" t="s">
+        <v>151</v>
+      </c>
+      <c r="P23" s="32">
         <v>0</v>
       </c>
-      <c r="P23" s="29" t="s">
+      <c r="Q23" s="29" t="s">
         <v>129</v>
       </c>
-      <c r="Q23" s="30">
+      <c r="R23" s="30">
         <v>0.5</v>
       </c>
-      <c r="R23" s="26" t="s">
+      <c r="S23" s="26" t="s">
         <v>124</v>
       </c>
-      <c r="S23" s="22" t="s">
+      <c r="T23" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="T23" s="36" t="s">
-        <v>151</v>
-      </c>
       <c r="U23" s="36" t="s">
         <v>151</v>
       </c>
@@ -6776,18 +6884,18 @@
       <c r="W23" s="36" t="s">
         <v>151</v>
       </c>
-      <c r="X23" s="41" t="s">
-        <v>151</v>
-      </c>
-      <c r="Y23" s="41" t="s">
-        <v>151</v>
-      </c>
-      <c r="Z23" s="37" t="s">
+      <c r="X23" s="36" t="s">
+        <v>151</v>
+      </c>
+      <c r="Y23" s="39" t="s">
+        <v>151</v>
+      </c>
+      <c r="Z23" s="39" t="s">
+        <v>151</v>
+      </c>
+      <c r="AA23" s="37" t="s">
         <v>102</v>
       </c>
-      <c r="AA23" s="37" t="s">
-        <v>151</v>
-      </c>
       <c r="AB23" s="37" t="s">
         <v>151</v>
       </c>
@@ -6837,6 +6945,9 @@
         <v>151</v>
       </c>
       <c r="AR23" s="37" t="s">
+        <v>151</v>
+      </c>
+      <c r="AS23" s="37" t="s">
         <v>151</v>
       </c>
     </row>
@@ -7882,127 +7993,127 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="I5:N13 I15:N25 I38:N44">
-    <cfRule type="expression" dxfId="24" priority="27">
+    <cfRule type="expression" dxfId="25" priority="27">
       <formula>$B5&lt;&gt;"&lt;Definition&gt;"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E5:H13 F24:H24 E15:H23 E25:H25 E38:H44">
-    <cfRule type="expression" dxfId="23" priority="26">
+    <cfRule type="expression" dxfId="24" priority="26">
       <formula>$B5&lt;&gt;"&lt;Item&gt;"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5:D13 D15 D38:D44">
-    <cfRule type="expression" dxfId="22" priority="25">
+    <cfRule type="expression" dxfId="23" priority="25">
       <formula>$B5&lt;&gt;"&lt;Param&gt;"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16:D25">
-    <cfRule type="expression" dxfId="21" priority="22">
+    <cfRule type="expression" dxfId="22" priority="22">
       <formula>$B16&lt;&gt;"&lt;Param&gt;"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B24:D24 F24:L24 B5:N13 B15:L23 B25:L25 M15:N25 B38:N44">
-    <cfRule type="expression" dxfId="20" priority="21">
+    <cfRule type="expression" dxfId="21" priority="21">
       <formula>$B5="&lt;Definition&gt;"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E24">
-    <cfRule type="expression" dxfId="19" priority="20">
+    <cfRule type="expression" dxfId="20" priority="20">
       <formula>$B24&lt;&gt;"&lt;Item&gt;"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E24">
-    <cfRule type="expression" dxfId="18" priority="19">
+    <cfRule type="expression" dxfId="19" priority="19">
       <formula>$B24="&lt;Definition&gt;"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I14:N14">
-    <cfRule type="expression" dxfId="17" priority="18">
+    <cfRule type="expression" dxfId="18" priority="18">
       <formula>$B14&lt;&gt;"&lt;Definition&gt;"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E14:H14">
-    <cfRule type="expression" dxfId="16" priority="17">
+    <cfRule type="expression" dxfId="17" priority="17">
       <formula>$B14&lt;&gt;"&lt;Item&gt;"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D14">
-    <cfRule type="expression" dxfId="15" priority="16">
+    <cfRule type="expression" dxfId="16" priority="16">
       <formula>$B14&lt;&gt;"&lt;Param&gt;"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B14:N14">
-    <cfRule type="expression" dxfId="14" priority="15">
+    <cfRule type="expression" dxfId="15" priority="15">
       <formula>$B14="&lt;Definition&gt;"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I26:N34 I37:N37">
-    <cfRule type="expression" dxfId="13" priority="14">
+    <cfRule type="expression" dxfId="14" priority="14">
       <formula>$B26&lt;&gt;"&lt;Definition&gt;"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F34:H34 E26:H33 E37:H37">
-    <cfRule type="expression" dxfId="12" priority="13">
+    <cfRule type="expression" dxfId="13" priority="13">
       <formula>$B26&lt;&gt;"&lt;Item&gt;"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D26:D34 D37">
-    <cfRule type="expression" dxfId="11" priority="12">
+    <cfRule type="expression" dxfId="12" priority="12">
       <formula>$B26&lt;&gt;"&lt;Param&gt;"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B34:D34 F34:L34 B26:L33 M26:N34 B37:N37">
-    <cfRule type="expression" dxfId="10" priority="11">
+    <cfRule type="expression" dxfId="11" priority="11">
       <formula>$B26="&lt;Definition&gt;"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E34">
-    <cfRule type="expression" dxfId="9" priority="10">
+    <cfRule type="expression" dxfId="10" priority="10">
       <formula>$B34&lt;&gt;"&lt;Item&gt;"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E34">
-    <cfRule type="expression" dxfId="8" priority="9">
+    <cfRule type="expression" dxfId="9" priority="9">
       <formula>$B34="&lt;Definition&gt;"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I35:N35">
-    <cfRule type="expression" dxfId="7" priority="8">
+    <cfRule type="expression" dxfId="8" priority="8">
       <formula>$B35&lt;&gt;"&lt;Definition&gt;"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E35:H35">
-    <cfRule type="expression" dxfId="6" priority="7">
+    <cfRule type="expression" dxfId="7" priority="7">
       <formula>$B35&lt;&gt;"&lt;Item&gt;"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D35">
-    <cfRule type="expression" dxfId="5" priority="6">
+    <cfRule type="expression" dxfId="6" priority="6">
       <formula>$B35&lt;&gt;"&lt;Param&gt;"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B35:N35">
-    <cfRule type="expression" dxfId="4" priority="5">
+    <cfRule type="expression" dxfId="5" priority="5">
       <formula>$B35="&lt;Definition&gt;"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I36:N36">
-    <cfRule type="expression" dxfId="3" priority="4">
+    <cfRule type="expression" dxfId="4" priority="4">
       <formula>$B36&lt;&gt;"&lt;Definition&gt;"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E36:H36">
-    <cfRule type="expression" dxfId="2" priority="3">
+    <cfRule type="expression" dxfId="3" priority="3">
       <formula>$B36&lt;&gt;"&lt;Item&gt;"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D36">
-    <cfRule type="expression" dxfId="1" priority="2">
+    <cfRule type="expression" dxfId="2" priority="2">
       <formula>$B36&lt;&gt;"&lt;Param&gt;"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B36:N36">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="1" priority="1">
       <formula>$B36="&lt;Definition&gt;"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Docs/Content/HungryDragonContent_Offers.xlsx
+++ b/Docs/Content/HungryDragonContent_Offers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aortin/Documents/UBI/FD/Client/Docs/Content/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{A92521A6-DE04-194A-94AF-711B8D26C269}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{F3D4640E-2DAE-5A46-A783-C2ACF30BA6EE}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38400" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1039" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1061" uniqueCount="164">
   <si>
     <t>OFFER PACKS DEFINITIONS</t>
   </si>
@@ -518,6 +518,9 @@
   </si>
   <si>
     <t>[purchaseLimit]</t>
+  </si>
+  <si>
+    <t>[uniqueId]</t>
   </si>
 </sst>
 </file>
@@ -740,7 +743,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -881,11 +884,20 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1020,20 +1032,2068 @@
     <xf numFmtId="0" fontId="6" fillId="22" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="89">
+  <dxfs count="90">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFCCCC"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="6"/>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="6"/>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="6"/>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="6"/>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="6"/>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="6"/>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="6"/>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="6"/>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="6"/>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="6"/>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="6"/>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="6"/>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="6"/>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="6"/>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="6"/>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="6"/>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="6"/>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="6"/>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FFDCE6F1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FFDCE6F1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FFDCE6F1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FFDCE6F1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FFDCE6F1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FFDCE6F1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="7" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="45" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FFDCE6F1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FFDCE6F1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FFDCE6F1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FFDCE6F1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FFDCE6F1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FFDCE6F1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FFDCE6F1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FFDCE6F1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FFDCE6F1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FFDCE6F1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FFDCE6F1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FFDCE6F1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FFDCE6F1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FFDCE6F1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FFDCE6F1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FFDCE6F1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FFDCE6F1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FFDCE6F1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FFDCE6F1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFE3DAEF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFE3DAEF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFE3DAEF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFE3DAEF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="13" formatCode="0%"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1055,1964 +3115,14 @@
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
-          <bgColor rgb="FFFFCCCC"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="6"/>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="6"/>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="6"/>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="6"/>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="6"/>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="6"/>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="6"/>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="6"/>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="6"/>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="6"/>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="6"/>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="6"/>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="6"/>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="6"/>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="6"/>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="6"/>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="6"/>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="6"/>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FFDCE6F1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FFDCE6F1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FFDCE6F1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FFDCE6F1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FFDCE6F1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FFDCE6F1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+          <bgColor rgb="FFFFF9E6"/>
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="7" tint="0.39997558519241921"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="45" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FFDCE6F1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FFDCE6F1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FFDCE6F1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FFDCE6F1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FFDCE6F1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FFDCE6F1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FFDCE6F1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FFDCE6F1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FFDCE6F1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FFDCE6F1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FFDCE6F1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FFDCE6F1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FFDCE6F1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FFDCE6F1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FFDCE6F1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FFDCE6F1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FFDCE6F1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FFDCE6F1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FFDCE6F1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top/>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top/>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFE3DAEF"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top/>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFE3DAEF"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFE3DAEF"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFE3DAEF"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
         <right/>
         <top/>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="13" formatCode="0%"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
         <bottom style="thin">
           <color auto="1"/>
         </bottom>
@@ -3045,7 +3155,44 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
-        <right/>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFF9E6"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
         <top/>
         <bottom style="thin">
           <color auto="1"/>
@@ -3073,42 +3220,7 @@
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
-          <bgColor rgb="FFFFF9E6"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top/>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFF9E6"/>
+          <bgColor rgb="FFFFF2CC"/>
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -3173,42 +3285,6 @@
         <sz val="11"/>
         <color auto="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFF2CC"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top/>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -3389,6 +3465,7 @@
         <sz val="11"/>
         <color auto="1"/>
         <name val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -3399,55 +3476,17 @@
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color auto="1"/>
         </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
+        <right/>
+        <top/>
         <bottom style="thin">
           <color auto="1"/>
         </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -3573,75 +3612,76 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="offerPacksDefinitions" displayName="offerPacksDefinitions" ref="B2:AS23" totalsRowShown="0" headerRowDxfId="88" headerRowBorderDxfId="87" tableBorderDxfId="86">
-  <autoFilter ref="B2:AS23" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
-  <tableColumns count="44">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="{offerPacksDefinitions}" dataDxfId="85"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="[sku]" dataDxfId="84"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="[enabled]" dataDxfId="83"/>
-    <tableColumn id="39" xr3:uid="{BDE36CE7-C3EE-CF46-9E65-256BF79847A1}" name="[purchaseLimit]" dataDxfId="0"/>
-    <tableColumn id="38" xr3:uid="{549D4FA4-F5FE-7E41-8EE1-D5AC64E6CC50}" name="[item1Featured]" dataDxfId="82"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="[item1Type]" dataDxfId="81"/>
-    <tableColumn id="37" xr3:uid="{5FB302D5-DFC3-434A-B077-2D1D2138B668}" name="[item1Amount]" dataDxfId="80"/>
-    <tableColumn id="40" xr3:uid="{6455B275-094E-2345-9FD4-2C5DC35C6A9F}" name="[item1Sku]" dataDxfId="79"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="[item2Type]" dataDxfId="78"/>
-    <tableColumn id="41" xr3:uid="{ED68C080-ED0B-9E43-B505-291AD4921579}" name="[item2Amount]" dataDxfId="77"/>
-    <tableColumn id="42" xr3:uid="{BFF33F2B-41F5-5A4C-93AB-DEB983FA7B88}" name="[item2Sku]" dataDxfId="76"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="[item3Type]" dataDxfId="75"/>
-    <tableColumn id="43" xr3:uid="{3E8BF91C-560F-7741-8332-6A6D5E4E61A3}" name="[item3Amount]" dataDxfId="74"/>
-    <tableColumn id="44" xr3:uid="{4BD3AFA7-A608-A344-82A9-163AFF411CC3}" name="[item3Sku]" dataDxfId="73"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="[order]" dataDxfId="72"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="[refPrice]" dataDxfId="71"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="[discount]" dataDxfId="70"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="[iapSku]" dataDxfId="69"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="[tidName]" dataDxfId="68"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="[featured]" dataDxfId="67"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="[maxViews]" dataDxfId="66"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="[zone]" dataDxfId="65"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="[frequency]" dataDxfId="64"/>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="[startDate]" dataDxfId="63"/>
-    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="[endDate]" dataDxfId="62"/>
-    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="[minAppVersion]" dataDxfId="61"/>
-    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="[countriesAllowed]" dataDxfId="60"/>
-    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0000-000014000000}" name="[countriesExcluded]" dataDxfId="59"/>
-    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" name="[gamesPlayed]" dataDxfId="58"/>
-    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0000-000016000000}" name="[payerType]" dataDxfId="57"/>
-    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0000-000017000000}" name="[minSpent]" dataDxfId="56"/>
-    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0000-000018000000}" name="[dragonUnlocked]" dataDxfId="55"/>
-    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0000-000019000000}" name="[dragonOwned]" dataDxfId="54"/>
-    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0000-00001A000000}" name="[dragonNotOwned]" dataDxfId="53"/>
-    <tableColumn id="27" xr3:uid="{00000000-0010-0000-0000-00001B000000}" name="[scBalanceRange]" dataDxfId="52"/>
-    <tableColumn id="28" xr3:uid="{00000000-0010-0000-0000-00001C000000}" name="[hcBalanceRange]" dataDxfId="51"/>
-    <tableColumn id="29" xr3:uid="{00000000-0010-0000-0000-00001D000000}" name="[openedEggs]" dataDxfId="50"/>
-    <tableColumn id="30" xr3:uid="{00000000-0010-0000-0000-00001E000000}" name="[petsOwnedCount]" dataDxfId="49"/>
-    <tableColumn id="31" xr3:uid="{00000000-0010-0000-0000-00001F000000}" name="[petsOwned]" dataDxfId="48"/>
-    <tableColumn id="32" xr3:uid="{00000000-0010-0000-0000-000020000000}" name="[petsNotOwned]" dataDxfId="47"/>
-    <tableColumn id="33" xr3:uid="{00000000-0010-0000-0000-000021000000}" name="[progressionRange]" dataDxfId="46"/>
-    <tableColumn id="34" xr3:uid="{00000000-0010-0000-0000-000022000000}" name="[skinsUnlocked]" dataDxfId="45"/>
-    <tableColumn id="35" xr3:uid="{00000000-0010-0000-0000-000023000000}" name="[skinsOwned]" dataDxfId="44"/>
-    <tableColumn id="36" xr3:uid="{00000000-0010-0000-0000-000024000000}" name="[skinsNotOwned]" dataDxfId="43"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="offerPacksDefinitions" displayName="offerPacksDefinitions" ref="B2:AT23" totalsRowShown="0" headerRowDxfId="89" headerRowBorderDxfId="88" tableBorderDxfId="87">
+  <autoFilter ref="B2:AT23" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+  <tableColumns count="45">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="{offerPacksDefinitions}" dataDxfId="86"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="[sku]" dataDxfId="2"/>
+    <tableColumn id="45" xr3:uid="{44CF430E-7666-B44F-8C90-8B9AFA5061FC}" name="[uniqueId]" dataDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="[enabled]" dataDxfId="1"/>
+    <tableColumn id="39" xr3:uid="{BDE36CE7-C3EE-CF46-9E65-256BF79847A1}" name="[purchaseLimit]" dataDxfId="85"/>
+    <tableColumn id="38" xr3:uid="{549D4FA4-F5FE-7E41-8EE1-D5AC64E6CC50}" name="[item1Featured]" dataDxfId="84"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="[item1Type]" dataDxfId="83"/>
+    <tableColumn id="37" xr3:uid="{5FB302D5-DFC3-434A-B077-2D1D2138B668}" name="[item1Amount]" dataDxfId="82"/>
+    <tableColumn id="40" xr3:uid="{6455B275-094E-2345-9FD4-2C5DC35C6A9F}" name="[item1Sku]" dataDxfId="81"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="[item2Type]" dataDxfId="80"/>
+    <tableColumn id="41" xr3:uid="{ED68C080-ED0B-9E43-B505-291AD4921579}" name="[item2Amount]" dataDxfId="79"/>
+    <tableColumn id="42" xr3:uid="{BFF33F2B-41F5-5A4C-93AB-DEB983FA7B88}" name="[item2Sku]" dataDxfId="78"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="[item3Type]" dataDxfId="77"/>
+    <tableColumn id="43" xr3:uid="{3E8BF91C-560F-7741-8332-6A6D5E4E61A3}" name="[item3Amount]" dataDxfId="76"/>
+    <tableColumn id="44" xr3:uid="{4BD3AFA7-A608-A344-82A9-163AFF411CC3}" name="[item3Sku]" dataDxfId="75"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="[order]" dataDxfId="74"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="[refPrice]" dataDxfId="73"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="[discount]" dataDxfId="72"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="[iapSku]" dataDxfId="71"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="[tidName]" dataDxfId="70"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="[featured]" dataDxfId="69"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="[maxViews]" dataDxfId="68"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="[zone]" dataDxfId="67"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="[frequency]" dataDxfId="66"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="[startDate]" dataDxfId="65"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="[endDate]" dataDxfId="64"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="[minAppVersion]" dataDxfId="63"/>
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="[countriesAllowed]" dataDxfId="62"/>
+    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0000-000014000000}" name="[countriesExcluded]" dataDxfId="61"/>
+    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" name="[gamesPlayed]" dataDxfId="60"/>
+    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0000-000016000000}" name="[payerType]" dataDxfId="59"/>
+    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0000-000017000000}" name="[minSpent]" dataDxfId="58"/>
+    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0000-000018000000}" name="[dragonUnlocked]" dataDxfId="57"/>
+    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0000-000019000000}" name="[dragonOwned]" dataDxfId="56"/>
+    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0000-00001A000000}" name="[dragonNotOwned]" dataDxfId="55"/>
+    <tableColumn id="27" xr3:uid="{00000000-0010-0000-0000-00001B000000}" name="[scBalanceRange]" dataDxfId="54"/>
+    <tableColumn id="28" xr3:uid="{00000000-0010-0000-0000-00001C000000}" name="[hcBalanceRange]" dataDxfId="53"/>
+    <tableColumn id="29" xr3:uid="{00000000-0010-0000-0000-00001D000000}" name="[openedEggs]" dataDxfId="52"/>
+    <tableColumn id="30" xr3:uid="{00000000-0010-0000-0000-00001E000000}" name="[petsOwnedCount]" dataDxfId="51"/>
+    <tableColumn id="31" xr3:uid="{00000000-0010-0000-0000-00001F000000}" name="[petsOwned]" dataDxfId="50"/>
+    <tableColumn id="32" xr3:uid="{00000000-0010-0000-0000-000020000000}" name="[petsNotOwned]" dataDxfId="49"/>
+    <tableColumn id="33" xr3:uid="{00000000-0010-0000-0000-000021000000}" name="[progressionRange]" dataDxfId="48"/>
+    <tableColumn id="34" xr3:uid="{00000000-0010-0000-0000-000022000000}" name="[skinsUnlocked]" dataDxfId="47"/>
+    <tableColumn id="35" xr3:uid="{00000000-0010-0000-0000-000023000000}" name="[skinsOwned]" dataDxfId="46"/>
+    <tableColumn id="36" xr3:uid="{00000000-0010-0000-0000-000024000000}" name="[skinsNotOwned]" dataDxfId="45"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="offerPacksDefinitions_OLD" displayName="offerPacksDefinitions_OLD" ref="B4:N44" totalsRowShown="0" headerRowDxfId="42" dataDxfId="40" headerRowBorderDxfId="41" tableBorderDxfId="39">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="offerPacksDefinitions_OLD" displayName="offerPacksDefinitions_OLD" ref="B4:N44" totalsRowShown="0" headerRowDxfId="44" dataDxfId="42" headerRowBorderDxfId="43" tableBorderDxfId="41">
   <autoFilter ref="B4:N44" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="offerPacksDefinitions_OLD" dataDxfId="38"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="[sku]" dataDxfId="37"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0200-00000F000000}" name="[paramValue]" dataDxfId="36"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0200-000007000000}" name="[itemType]" dataDxfId="35"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0200-000008000000}" name="[itemAmount]" dataDxfId="34"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0200-000009000000}" name="[itemSku]" dataDxfId="33"/>
-    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0200-000017000000}" name="[itemFeatured]" dataDxfId="32"/>
-    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0200-000016000000}" name="[minAppVersion]" dataDxfId="31"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="[order]" dataDxfId="30"/>
-    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0200-000018000000}" name="[refPrice]" dataDxfId="29"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="[discount]" dataDxfId="28"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="[iapSku]" dataDxfId="27"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="[tidName]" dataDxfId="26"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="offerPacksDefinitions_OLD" dataDxfId="40"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="[sku]" dataDxfId="39"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0200-00000F000000}" name="[paramValue]" dataDxfId="38"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0200-000007000000}" name="[itemType]" dataDxfId="37"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0200-000008000000}" name="[itemAmount]" dataDxfId="36"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0200-000009000000}" name="[itemSku]" dataDxfId="35"/>
+    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0200-000017000000}" name="[itemFeatured]" dataDxfId="34"/>
+    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0200-000016000000}" name="[minAppVersion]" dataDxfId="33"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="[order]" dataDxfId="32"/>
+    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0200-000018000000}" name="[refPrice]" dataDxfId="31"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="[discount]" dataDxfId="30"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="[iapSku]" dataDxfId="29"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="[tidName]" dataDxfId="28"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3944,10 +3984,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:AS23"/>
+  <dimension ref="B1:AT23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N26" sqref="N26"/>
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3955,214 +3995,218 @@
     <col min="1" max="1" width="4" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
     <col min="3" max="3" width="27.83203125" customWidth="1"/>
-    <col min="4" max="4" width="12.5" customWidth="1"/>
-    <col min="5" max="5" width="11.83203125" customWidth="1"/>
-    <col min="6" max="14" width="5.83203125" customWidth="1"/>
-    <col min="16" max="16" width="14.6640625" customWidth="1"/>
-    <col min="17" max="17" width="13.6640625" customWidth="1"/>
-    <col min="18" max="18" width="38.33203125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="26" customWidth="1"/>
-    <col min="20" max="25" width="5.83203125" customWidth="1"/>
-    <col min="26" max="26" width="18.83203125" customWidth="1"/>
-    <col min="27" max="44" width="5.83203125" customWidth="1"/>
+    <col min="4" max="4" width="6.83203125" customWidth="1"/>
+    <col min="5" max="5" width="12.5" customWidth="1"/>
+    <col min="6" max="6" width="11.83203125" customWidth="1"/>
+    <col min="7" max="15" width="5.83203125" customWidth="1"/>
+    <col min="17" max="17" width="14.6640625" customWidth="1"/>
+    <col min="18" max="18" width="13.6640625" customWidth="1"/>
+    <col min="19" max="19" width="38.33203125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="26" customWidth="1"/>
+    <col min="21" max="26" width="5.83203125" customWidth="1"/>
+    <col min="27" max="27" width="18.83203125" customWidth="1"/>
+    <col min="28" max="45" width="5.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:45" s="25" customFormat="1" ht="140" x14ac:dyDescent="0.2">
-      <c r="O1" s="16" t="s">
+    <row r="1" spans="2:46" s="25" customFormat="1" ht="126" x14ac:dyDescent="0.2">
+      <c r="Q1" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="P1" s="16" t="s">
+      <c r="R1" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="Q1" s="16" t="s">
+      <c r="S1" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="X1" s="48" t="s">
+      <c r="Z1" s="49" t="s">
         <v>101</v>
       </c>
-      <c r="Y1" s="48"/>
-      <c r="Z1" s="49" t="s">
+      <c r="AA1" s="49"/>
+      <c r="AB1" s="50" t="s">
         <v>100</v>
       </c>
-      <c r="AA1" s="49"/>
-      <c r="AB1" s="49"/>
-      <c r="AC1" s="49"/>
-      <c r="AD1" s="49"/>
-      <c r="AE1" s="49"/>
-      <c r="AF1" s="49"/>
-      <c r="AG1" s="49"/>
-      <c r="AH1" s="49"/>
-      <c r="AI1" s="49"/>
-      <c r="AJ1" s="49"/>
-      <c r="AK1" s="49"/>
-      <c r="AL1" s="49"/>
-      <c r="AM1" s="49"/>
-      <c r="AN1" s="49"/>
-      <c r="AO1" s="49"/>
-      <c r="AP1" s="49"/>
-      <c r="AQ1" s="49"/>
-      <c r="AR1" s="49"/>
-    </row>
-    <row r="2" spans="2:45" ht="112" x14ac:dyDescent="0.2">
+      <c r="AC1" s="50"/>
+      <c r="AD1" s="50"/>
+      <c r="AE1" s="50"/>
+      <c r="AF1" s="50"/>
+      <c r="AG1" s="50"/>
+      <c r="AH1" s="50"/>
+      <c r="AI1" s="50"/>
+      <c r="AJ1" s="50"/>
+      <c r="AK1" s="50"/>
+      <c r="AL1" s="50"/>
+      <c r="AM1" s="50"/>
+      <c r="AN1" s="50"/>
+      <c r="AO1" s="50"/>
+      <c r="AP1" s="50"/>
+      <c r="AQ1" s="50"/>
+      <c r="AR1" s="50"/>
+      <c r="AS1" s="50"/>
+      <c r="AT1" s="50"/>
+    </row>
+    <row r="2" spans="2:46" ht="112" x14ac:dyDescent="0.2">
       <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="41" t="s">
+      <c r="D2" s="51" t="s">
+        <v>163</v>
+      </c>
+      <c r="E2" s="41" t="s">
         <v>75</v>
       </c>
-      <c r="E2" s="41" t="s">
+      <c r="F2" s="41" t="s">
         <v>162</v>
       </c>
-      <c r="F2" s="44" t="s">
+      <c r="G2" s="44" t="s">
         <v>155</v>
       </c>
-      <c r="G2" s="44" t="s">
+      <c r="H2" s="44" t="s">
         <v>152</v>
       </c>
-      <c r="H2" s="44" t="s">
+      <c r="I2" s="44" t="s">
         <v>153</v>
       </c>
-      <c r="I2" s="44" t="s">
+      <c r="J2" s="44" t="s">
         <v>154</v>
       </c>
-      <c r="J2" s="45" t="s">
+      <c r="K2" s="45" t="s">
         <v>156</v>
       </c>
-      <c r="K2" s="45" t="s">
+      <c r="L2" s="45" t="s">
         <v>157</v>
       </c>
-      <c r="L2" s="45" t="s">
+      <c r="M2" s="45" t="s">
         <v>158</v>
       </c>
-      <c r="M2" s="46" t="s">
+      <c r="N2" s="46" t="s">
         <v>159</v>
       </c>
-      <c r="N2" s="46" t="s">
+      <c r="O2" s="46" t="s">
         <v>160</v>
       </c>
-      <c r="O2" s="46" t="s">
+      <c r="P2" s="46" t="s">
         <v>161</v>
       </c>
-      <c r="P2" s="8" t="s">
+      <c r="Q2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="Q2" s="8" t="s">
+      <c r="R2" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="R2" s="4" t="s">
+      <c r="S2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="S2" s="4" t="s">
+      <c r="T2" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="T2" s="4" t="s">
+      <c r="U2" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="U2" s="24" t="s">
+      <c r="V2" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="V2" s="24" t="s">
+      <c r="W2" s="24" t="s">
         <v>83</v>
       </c>
-      <c r="W2" s="24" t="s">
+      <c r="X2" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="X2" s="24" t="s">
+      <c r="Y2" s="24" t="s">
         <v>82</v>
       </c>
-      <c r="Y2" s="23" t="s">
+      <c r="Z2" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="Z2" s="23" t="s">
+      <c r="AA2" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="AA2" s="33" t="s">
+      <c r="AB2" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="AB2" s="33" t="s">
+      <c r="AC2" s="33" t="s">
         <v>79</v>
       </c>
-      <c r="AC2" s="33" t="s">
+      <c r="AD2" s="33" t="s">
         <v>80</v>
       </c>
-      <c r="AD2" s="33" t="s">
+      <c r="AE2" s="33" t="s">
         <v>81</v>
       </c>
-      <c r="AE2" s="33" t="s">
+      <c r="AF2" s="33" t="s">
         <v>85</v>
       </c>
-      <c r="AF2" s="33" t="s">
+      <c r="AG2" s="33" t="s">
         <v>86</v>
       </c>
-      <c r="AG2" s="33" t="s">
+      <c r="AH2" s="33" t="s">
         <v>87</v>
       </c>
-      <c r="AH2" s="33" t="s">
+      <c r="AI2" s="33" t="s">
         <v>88</v>
       </c>
-      <c r="AI2" s="33" t="s">
+      <c r="AJ2" s="33" t="s">
         <v>89</v>
       </c>
-      <c r="AJ2" s="33" t="s">
+      <c r="AK2" s="33" t="s">
         <v>90</v>
       </c>
-      <c r="AK2" s="33" t="s">
+      <c r="AL2" s="33" t="s">
         <v>91</v>
       </c>
-      <c r="AL2" s="33" t="s">
+      <c r="AM2" s="33" t="s">
         <v>92</v>
       </c>
-      <c r="AM2" s="33" t="s">
+      <c r="AN2" s="33" t="s">
         <v>93</v>
       </c>
-      <c r="AN2" s="33" t="s">
+      <c r="AO2" s="33" t="s">
         <v>94</v>
       </c>
-      <c r="AO2" s="33" t="s">
+      <c r="AP2" s="33" t="s">
         <v>95</v>
       </c>
-      <c r="AP2" s="33" t="s">
+      <c r="AQ2" s="33" t="s">
         <v>96</v>
       </c>
-      <c r="AQ2" s="33" t="s">
+      <c r="AR2" s="33" t="s">
         <v>97</v>
       </c>
-      <c r="AR2" s="33" t="s">
+      <c r="AS2" s="33" t="s">
         <v>98</v>
       </c>
-      <c r="AS2" s="34" t="s">
+      <c r="AT2" s="34" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="3" spans="2:45" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:46" x14ac:dyDescent="0.2">
       <c r="B3" s="14" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="27" t="s">
         <v>130</v>
       </c>
-      <c r="D3" s="40" t="b">
+      <c r="D3" s="52" t="s">
+        <v>151</v>
+      </c>
+      <c r="E3" s="40" t="b">
         <v>0</v>
       </c>
-      <c r="E3" s="50">
+      <c r="F3" s="48">
         <v>1</v>
       </c>
-      <c r="F3" s="43" t="b">
+      <c r="G3" s="43" t="b">
         <v>0</v>
       </c>
-      <c r="G3" s="43" t="s">
-        <v>151</v>
-      </c>
       <c r="H3" s="43" t="s">
         <v>151</v>
       </c>
       <c r="I3" s="43" t="s">
         <v>151</v>
       </c>
-      <c r="J3" s="47" t="s">
+      <c r="J3" s="43" t="s">
         <v>151</v>
       </c>
       <c r="K3" s="47" t="s">
@@ -4171,7 +4215,7 @@
       <c r="L3" s="47" t="s">
         <v>151</v>
       </c>
-      <c r="M3" s="42" t="s">
+      <c r="M3" s="47" t="s">
         <v>151</v>
       </c>
       <c r="N3" s="42" t="s">
@@ -4180,24 +4224,24 @@
       <c r="O3" s="42" t="s">
         <v>151</v>
       </c>
-      <c r="P3" s="28">
+      <c r="P3" s="42" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q3" s="28">
         <v>0</v>
       </c>
-      <c r="Q3" s="29" t="s">
+      <c r="R3" s="29" t="s">
         <v>125</v>
       </c>
-      <c r="R3" s="30">
+      <c r="S3" s="30">
         <v>0.5</v>
       </c>
-      <c r="S3" s="26" t="s">
+      <c r="T3" s="26" t="s">
         <v>104</v>
       </c>
-      <c r="T3" s="22" t="s">
+      <c r="U3" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="U3" s="36" t="s">
-        <v>151</v>
-      </c>
       <c r="V3" s="36" t="s">
         <v>151</v>
       </c>
@@ -4207,18 +4251,18 @@
       <c r="X3" s="36" t="s">
         <v>151</v>
       </c>
-      <c r="Y3" s="39" t="s">
+      <c r="Y3" s="36" t="s">
         <v>151</v>
       </c>
       <c r="Z3" s="39" t="s">
         <v>151</v>
       </c>
-      <c r="AA3" s="37" t="s">
+      <c r="AA3" s="39" t="s">
+        <v>151</v>
+      </c>
+      <c r="AB3" s="37" t="s">
         <v>102</v>
       </c>
-      <c r="AB3" s="37" t="s">
-        <v>151</v>
-      </c>
       <c r="AC3" s="37" t="s">
         <v>151</v>
       </c>
@@ -4270,33 +4314,36 @@
       <c r="AS3" s="37" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="4" spans="2:45" x14ac:dyDescent="0.2">
+      <c r="AT3" s="37" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="4" spans="2:46" x14ac:dyDescent="0.2">
       <c r="B4" s="14" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="27" t="s">
         <v>131</v>
       </c>
-      <c r="D4" s="40" t="b">
+      <c r="D4" s="52" t="s">
+        <v>151</v>
+      </c>
+      <c r="E4" s="40" t="b">
         <v>0</v>
       </c>
-      <c r="E4" s="50">
+      <c r="F4" s="48">
         <v>1</v>
       </c>
-      <c r="F4" s="43" t="b">
+      <c r="G4" s="43" t="b">
         <v>0</v>
       </c>
-      <c r="G4" s="43" t="s">
-        <v>151</v>
-      </c>
       <c r="H4" s="43" t="s">
         <v>151</v>
       </c>
       <c r="I4" s="43" t="s">
         <v>151</v>
       </c>
-      <c r="J4" s="47" t="s">
+      <c r="J4" s="43" t="s">
         <v>151</v>
       </c>
       <c r="K4" s="47" t="s">
@@ -4305,7 +4352,7 @@
       <c r="L4" s="47" t="s">
         <v>151</v>
       </c>
-      <c r="M4" s="42" t="s">
+      <c r="M4" s="47" t="s">
         <v>151</v>
       </c>
       <c r="N4" s="42" t="s">
@@ -4314,24 +4361,24 @@
       <c r="O4" s="42" t="s">
         <v>151</v>
       </c>
-      <c r="P4" s="28">
+      <c r="P4" s="42" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q4" s="28">
         <v>0</v>
       </c>
-      <c r="Q4" s="29" t="s">
+      <c r="R4" s="29" t="s">
         <v>99</v>
       </c>
-      <c r="R4" s="30">
+      <c r="S4" s="30">
         <v>0.5</v>
       </c>
-      <c r="S4" s="26" t="s">
+      <c r="T4" s="26" t="s">
         <v>105</v>
       </c>
-      <c r="T4" s="22" t="s">
+      <c r="U4" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="U4" s="36" t="s">
-        <v>151</v>
-      </c>
       <c r="V4" s="36" t="s">
         <v>151</v>
       </c>
@@ -4341,18 +4388,18 @@
       <c r="X4" s="36" t="s">
         <v>151</v>
       </c>
-      <c r="Y4" s="39" t="s">
+      <c r="Y4" s="36" t="s">
         <v>151</v>
       </c>
       <c r="Z4" s="39" t="s">
         <v>151</v>
       </c>
-      <c r="AA4" s="37" t="s">
+      <c r="AA4" s="39" t="s">
+        <v>151</v>
+      </c>
+      <c r="AB4" s="37" t="s">
         <v>102</v>
       </c>
-      <c r="AB4" s="37" t="s">
-        <v>151</v>
-      </c>
       <c r="AC4" s="37" t="s">
         <v>151</v>
       </c>
@@ -4404,33 +4451,36 @@
       <c r="AS4" s="37" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="5" spans="2:45" x14ac:dyDescent="0.2">
+      <c r="AT4" s="37" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="5" spans="2:46" x14ac:dyDescent="0.2">
       <c r="B5" s="14" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="27" t="s">
         <v>132</v>
       </c>
-      <c r="D5" s="40" t="b">
+      <c r="D5" s="52" t="s">
+        <v>151</v>
+      </c>
+      <c r="E5" s="40" t="b">
         <v>0</v>
       </c>
-      <c r="E5" s="50">
+      <c r="F5" s="48">
         <v>1</v>
       </c>
-      <c r="F5" s="43" t="b">
+      <c r="G5" s="43" t="b">
         <v>0</v>
       </c>
-      <c r="G5" s="43" t="s">
-        <v>151</v>
-      </c>
       <c r="H5" s="43" t="s">
         <v>151</v>
       </c>
       <c r="I5" s="43" t="s">
         <v>151</v>
       </c>
-      <c r="J5" s="47" t="s">
+      <c r="J5" s="43" t="s">
         <v>151</v>
       </c>
       <c r="K5" s="47" t="s">
@@ -4439,7 +4489,7 @@
       <c r="L5" s="47" t="s">
         <v>151</v>
       </c>
-      <c r="M5" s="42" t="s">
+      <c r="M5" s="47" t="s">
         <v>151</v>
       </c>
       <c r="N5" s="42" t="s">
@@ -4448,24 +4498,24 @@
       <c r="O5" s="42" t="s">
         <v>151</v>
       </c>
-      <c r="P5" s="28">
+      <c r="P5" s="42" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q5" s="28">
         <v>0</v>
       </c>
-      <c r="Q5" s="29" t="s">
+      <c r="R5" s="29" t="s">
         <v>126</v>
       </c>
-      <c r="R5" s="30">
+      <c r="S5" s="30">
         <v>0.5</v>
       </c>
-      <c r="S5" s="26" t="s">
+      <c r="T5" s="26" t="s">
         <v>106</v>
       </c>
-      <c r="T5" s="22" t="s">
+      <c r="U5" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="U5" s="36" t="s">
-        <v>151</v>
-      </c>
       <c r="V5" s="36" t="s">
         <v>151</v>
       </c>
@@ -4475,18 +4525,18 @@
       <c r="X5" s="36" t="s">
         <v>151</v>
       </c>
-      <c r="Y5" s="39" t="s">
+      <c r="Y5" s="36" t="s">
         <v>151</v>
       </c>
       <c r="Z5" s="39" t="s">
         <v>151</v>
       </c>
-      <c r="AA5" s="37" t="s">
+      <c r="AA5" s="39" t="s">
+        <v>151</v>
+      </c>
+      <c r="AB5" s="37" t="s">
         <v>102</v>
       </c>
-      <c r="AB5" s="37" t="s">
-        <v>151</v>
-      </c>
       <c r="AC5" s="37" t="s">
         <v>151</v>
       </c>
@@ -4538,33 +4588,36 @@
       <c r="AS5" s="37" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="6" spans="2:45" x14ac:dyDescent="0.2">
+      <c r="AT5" s="37" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="6" spans="2:46" x14ac:dyDescent="0.2">
       <c r="B6" s="14" t="s">
         <v>3</v>
       </c>
       <c r="C6" s="27" t="s">
         <v>133</v>
       </c>
-      <c r="D6" s="40" t="b">
+      <c r="D6" s="52" t="s">
+        <v>151</v>
+      </c>
+      <c r="E6" s="40" t="b">
         <v>0</v>
       </c>
-      <c r="E6" s="50">
+      <c r="F6" s="48">
         <v>1</v>
       </c>
-      <c r="F6" s="43" t="b">
+      <c r="G6" s="43" t="b">
         <v>0</v>
       </c>
-      <c r="G6" s="43" t="s">
-        <v>151</v>
-      </c>
       <c r="H6" s="43" t="s">
         <v>151</v>
       </c>
       <c r="I6" s="43" t="s">
         <v>151</v>
       </c>
-      <c r="J6" s="47" t="s">
+      <c r="J6" s="43" t="s">
         <v>151</v>
       </c>
       <c r="K6" s="47" t="s">
@@ -4573,7 +4626,7 @@
       <c r="L6" s="47" t="s">
         <v>151</v>
       </c>
-      <c r="M6" s="42" t="s">
+      <c r="M6" s="47" t="s">
         <v>151</v>
       </c>
       <c r="N6" s="42" t="s">
@@ -4582,24 +4635,24 @@
       <c r="O6" s="42" t="s">
         <v>151</v>
       </c>
-      <c r="P6" s="28">
+      <c r="P6" s="42" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q6" s="28">
         <v>0</v>
       </c>
-      <c r="Q6" s="29" t="s">
+      <c r="R6" s="29" t="s">
         <v>125</v>
       </c>
-      <c r="R6" s="30">
+      <c r="S6" s="30">
         <v>0.5</v>
       </c>
-      <c r="S6" s="26" t="s">
+      <c r="T6" s="26" t="s">
         <v>107</v>
       </c>
-      <c r="T6" s="22" t="s">
+      <c r="U6" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="U6" s="36" t="s">
-        <v>151</v>
-      </c>
       <c r="V6" s="36" t="s">
         <v>151</v>
       </c>
@@ -4609,18 +4662,18 @@
       <c r="X6" s="36" t="s">
         <v>151</v>
       </c>
-      <c r="Y6" s="39" t="s">
+      <c r="Y6" s="36" t="s">
         <v>151</v>
       </c>
       <c r="Z6" s="39" t="s">
         <v>151</v>
       </c>
-      <c r="AA6" s="37" t="s">
+      <c r="AA6" s="39" t="s">
+        <v>151</v>
+      </c>
+      <c r="AB6" s="37" t="s">
         <v>102</v>
       </c>
-      <c r="AB6" s="37" t="s">
-        <v>151</v>
-      </c>
       <c r="AC6" s="37" t="s">
         <v>151</v>
       </c>
@@ -4672,33 +4725,36 @@
       <c r="AS6" s="37" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="7" spans="2:45" x14ac:dyDescent="0.2">
+      <c r="AT6" s="37" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="7" spans="2:46" x14ac:dyDescent="0.2">
       <c r="B7" s="14" t="s">
         <v>3</v>
       </c>
       <c r="C7" s="27" t="s">
         <v>134</v>
       </c>
-      <c r="D7" s="40" t="b">
+      <c r="D7" s="52" t="s">
+        <v>151</v>
+      </c>
+      <c r="E7" s="40" t="b">
         <v>0</v>
       </c>
-      <c r="E7" s="50">
+      <c r="F7" s="48">
         <v>1</v>
       </c>
-      <c r="F7" s="43" t="b">
+      <c r="G7" s="43" t="b">
         <v>0</v>
       </c>
-      <c r="G7" s="43" t="s">
-        <v>151</v>
-      </c>
       <c r="H7" s="43" t="s">
         <v>151</v>
       </c>
       <c r="I7" s="43" t="s">
         <v>151</v>
       </c>
-      <c r="J7" s="47" t="s">
+      <c r="J7" s="43" t="s">
         <v>151</v>
       </c>
       <c r="K7" s="47" t="s">
@@ -4707,7 +4763,7 @@
       <c r="L7" s="47" t="s">
         <v>151</v>
       </c>
-      <c r="M7" s="42" t="s">
+      <c r="M7" s="47" t="s">
         <v>151</v>
       </c>
       <c r="N7" s="42" t="s">
@@ -4716,24 +4772,24 @@
       <c r="O7" s="42" t="s">
         <v>151</v>
       </c>
-      <c r="P7" s="28">
+      <c r="P7" s="42" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q7" s="28">
         <v>0</v>
       </c>
-      <c r="Q7" s="29" t="s">
+      <c r="R7" s="29" t="s">
         <v>99</v>
       </c>
-      <c r="R7" s="30">
+      <c r="S7" s="30">
         <v>0.5</v>
       </c>
-      <c r="S7" s="26" t="s">
+      <c r="T7" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="T7" s="22" t="s">
+      <c r="U7" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="U7" s="36" t="s">
-        <v>151</v>
-      </c>
       <c r="V7" s="36" t="s">
         <v>151</v>
       </c>
@@ -4743,18 +4799,18 @@
       <c r="X7" s="36" t="s">
         <v>151</v>
       </c>
-      <c r="Y7" s="39" t="s">
+      <c r="Y7" s="36" t="s">
         <v>151</v>
       </c>
       <c r="Z7" s="39" t="s">
         <v>151</v>
       </c>
-      <c r="AA7" s="37" t="s">
+      <c r="AA7" s="39" t="s">
+        <v>151</v>
+      </c>
+      <c r="AB7" s="37" t="s">
         <v>102</v>
       </c>
-      <c r="AB7" s="37" t="s">
-        <v>151</v>
-      </c>
       <c r="AC7" s="37" t="s">
         <v>151</v>
       </c>
@@ -4806,33 +4862,36 @@
       <c r="AS7" s="37" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="8" spans="2:45" x14ac:dyDescent="0.2">
+      <c r="AT7" s="37" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="8" spans="2:46" x14ac:dyDescent="0.2">
       <c r="B8" s="14" t="s">
         <v>3</v>
       </c>
       <c r="C8" s="27" t="s">
         <v>135</v>
       </c>
-      <c r="D8" s="40" t="b">
+      <c r="D8" s="52" t="s">
+        <v>151</v>
+      </c>
+      <c r="E8" s="40" t="b">
         <v>0</v>
       </c>
-      <c r="E8" s="50">
+      <c r="F8" s="48">
         <v>1</v>
       </c>
-      <c r="F8" s="43" t="b">
+      <c r="G8" s="43" t="b">
         <v>0</v>
       </c>
-      <c r="G8" s="43" t="s">
-        <v>151</v>
-      </c>
       <c r="H8" s="43" t="s">
         <v>151</v>
       </c>
       <c r="I8" s="43" t="s">
         <v>151</v>
       </c>
-      <c r="J8" s="47" t="s">
+      <c r="J8" s="43" t="s">
         <v>151</v>
       </c>
       <c r="K8" s="47" t="s">
@@ -4841,7 +4900,7 @@
       <c r="L8" s="47" t="s">
         <v>151</v>
       </c>
-      <c r="M8" s="42" t="s">
+      <c r="M8" s="47" t="s">
         <v>151</v>
       </c>
       <c r="N8" s="42" t="s">
@@ -4850,24 +4909,24 @@
       <c r="O8" s="42" t="s">
         <v>151</v>
       </c>
-      <c r="P8" s="28">
+      <c r="P8" s="42" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q8" s="28">
         <v>0</v>
       </c>
-      <c r="Q8" s="29" t="s">
+      <c r="R8" s="29" t="s">
         <v>126</v>
       </c>
-      <c r="R8" s="30">
+      <c r="S8" s="30">
         <v>0.5</v>
       </c>
-      <c r="S8" s="26" t="s">
+      <c r="T8" s="26" t="s">
         <v>109</v>
       </c>
-      <c r="T8" s="22" t="s">
+      <c r="U8" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="U8" s="36" t="s">
-        <v>151</v>
-      </c>
       <c r="V8" s="36" t="s">
         <v>151</v>
       </c>
@@ -4877,18 +4936,18 @@
       <c r="X8" s="36" t="s">
         <v>151</v>
       </c>
-      <c r="Y8" s="39" t="s">
+      <c r="Y8" s="36" t="s">
         <v>151</v>
       </c>
       <c r="Z8" s="39" t="s">
         <v>151</v>
       </c>
-      <c r="AA8" s="37" t="s">
+      <c r="AA8" s="39" t="s">
+        <v>151</v>
+      </c>
+      <c r="AB8" s="37" t="s">
         <v>102</v>
       </c>
-      <c r="AB8" s="37" t="s">
-        <v>151</v>
-      </c>
       <c r="AC8" s="37" t="s">
         <v>151</v>
       </c>
@@ -4940,33 +4999,36 @@
       <c r="AS8" s="37" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="9" spans="2:45" x14ac:dyDescent="0.2">
+      <c r="AT8" s="37" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="9" spans="2:46" x14ac:dyDescent="0.2">
       <c r="B9" s="14" t="s">
         <v>3</v>
       </c>
       <c r="C9" s="27" t="s">
         <v>136</v>
       </c>
-      <c r="D9" s="40" t="b">
+      <c r="D9" s="52" t="s">
+        <v>151</v>
+      </c>
+      <c r="E9" s="40" t="b">
         <v>0</v>
       </c>
-      <c r="E9" s="50">
+      <c r="F9" s="48">
         <v>1</v>
       </c>
-      <c r="F9" s="43" t="b">
+      <c r="G9" s="43" t="b">
         <v>0</v>
       </c>
-      <c r="G9" s="43" t="s">
-        <v>151</v>
-      </c>
       <c r="H9" s="43" t="s">
         <v>151</v>
       </c>
       <c r="I9" s="43" t="s">
         <v>151</v>
       </c>
-      <c r="J9" s="47" t="s">
+      <c r="J9" s="43" t="s">
         <v>151</v>
       </c>
       <c r="K9" s="47" t="s">
@@ -4975,7 +5037,7 @@
       <c r="L9" s="47" t="s">
         <v>151</v>
       </c>
-      <c r="M9" s="42" t="s">
+      <c r="M9" s="47" t="s">
         <v>151</v>
       </c>
       <c r="N9" s="42" t="s">
@@ -4984,24 +5046,24 @@
       <c r="O9" s="42" t="s">
         <v>151</v>
       </c>
-      <c r="P9" s="28">
+      <c r="P9" s="42" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q9" s="28">
         <v>0</v>
       </c>
-      <c r="Q9" s="29" t="s">
+      <c r="R9" s="29" t="s">
         <v>125</v>
       </c>
-      <c r="R9" s="30">
+      <c r="S9" s="30">
         <v>0.5</v>
       </c>
-      <c r="S9" s="26" t="s">
+      <c r="T9" s="26" t="s">
         <v>110</v>
       </c>
-      <c r="T9" s="22" t="s">
+      <c r="U9" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="U9" s="36" t="s">
-        <v>151</v>
-      </c>
       <c r="V9" s="36" t="s">
         <v>151</v>
       </c>
@@ -5011,18 +5073,18 @@
       <c r="X9" s="36" t="s">
         <v>151</v>
       </c>
-      <c r="Y9" s="39" t="s">
+      <c r="Y9" s="36" t="s">
         <v>151</v>
       </c>
       <c r="Z9" s="39" t="s">
         <v>151</v>
       </c>
-      <c r="AA9" s="37" t="s">
+      <c r="AA9" s="39" t="s">
+        <v>151</v>
+      </c>
+      <c r="AB9" s="37" t="s">
         <v>102</v>
       </c>
-      <c r="AB9" s="37" t="s">
-        <v>151</v>
-      </c>
       <c r="AC9" s="37" t="s">
         <v>151</v>
       </c>
@@ -5074,33 +5136,36 @@
       <c r="AS9" s="37" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="10" spans="2:45" x14ac:dyDescent="0.2">
+      <c r="AT9" s="37" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="10" spans="2:46" x14ac:dyDescent="0.2">
       <c r="B10" s="14" t="s">
         <v>3</v>
       </c>
       <c r="C10" s="27" t="s">
         <v>137</v>
       </c>
-      <c r="D10" s="40" t="b">
+      <c r="D10" s="52" t="s">
+        <v>151</v>
+      </c>
+      <c r="E10" s="40" t="b">
         <v>0</v>
       </c>
-      <c r="E10" s="50">
+      <c r="F10" s="48">
         <v>1</v>
       </c>
-      <c r="F10" s="43" t="b">
+      <c r="G10" s="43" t="b">
         <v>0</v>
       </c>
-      <c r="G10" s="43" t="s">
-        <v>151</v>
-      </c>
       <c r="H10" s="43" t="s">
         <v>151</v>
       </c>
       <c r="I10" s="43" t="s">
         <v>151</v>
       </c>
-      <c r="J10" s="47" t="s">
+      <c r="J10" s="43" t="s">
         <v>151</v>
       </c>
       <c r="K10" s="47" t="s">
@@ -5109,7 +5174,7 @@
       <c r="L10" s="47" t="s">
         <v>151</v>
       </c>
-      <c r="M10" s="42" t="s">
+      <c r="M10" s="47" t="s">
         <v>151</v>
       </c>
       <c r="N10" s="42" t="s">
@@ -5118,24 +5183,24 @@
       <c r="O10" s="42" t="s">
         <v>151</v>
       </c>
-      <c r="P10" s="28">
+      <c r="P10" s="42" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q10" s="28">
         <v>0</v>
       </c>
-      <c r="Q10" s="29" t="s">
+      <c r="R10" s="29" t="s">
         <v>99</v>
       </c>
-      <c r="R10" s="30">
+      <c r="S10" s="30">
         <v>0.5</v>
       </c>
-      <c r="S10" s="26" t="s">
+      <c r="T10" s="26" t="s">
         <v>111</v>
       </c>
-      <c r="T10" s="22" t="s">
+      <c r="U10" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="U10" s="36" t="s">
-        <v>151</v>
-      </c>
       <c r="V10" s="36" t="s">
         <v>151</v>
       </c>
@@ -5145,18 +5210,18 @@
       <c r="X10" s="36" t="s">
         <v>151</v>
       </c>
-      <c r="Y10" s="39" t="s">
+      <c r="Y10" s="36" t="s">
         <v>151</v>
       </c>
       <c r="Z10" s="39" t="s">
         <v>151</v>
       </c>
-      <c r="AA10" s="37" t="s">
+      <c r="AA10" s="39" t="s">
+        <v>151</v>
+      </c>
+      <c r="AB10" s="37" t="s">
         <v>102</v>
       </c>
-      <c r="AB10" s="37" t="s">
-        <v>151</v>
-      </c>
       <c r="AC10" s="37" t="s">
         <v>151</v>
       </c>
@@ -5208,33 +5273,36 @@
       <c r="AS10" s="37" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="11" spans="2:45" x14ac:dyDescent="0.2">
+      <c r="AT10" s="37" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="11" spans="2:46" x14ac:dyDescent="0.2">
       <c r="B11" s="14" t="s">
         <v>3</v>
       </c>
       <c r="C11" s="27" t="s">
         <v>138</v>
       </c>
-      <c r="D11" s="40" t="b">
+      <c r="D11" s="52" t="s">
+        <v>151</v>
+      </c>
+      <c r="E11" s="40" t="b">
         <v>0</v>
       </c>
-      <c r="E11" s="50">
+      <c r="F11" s="48">
         <v>1</v>
       </c>
-      <c r="F11" s="43" t="b">
+      <c r="G11" s="43" t="b">
         <v>0</v>
       </c>
-      <c r="G11" s="43" t="s">
-        <v>151</v>
-      </c>
       <c r="H11" s="43" t="s">
         <v>151</v>
       </c>
       <c r="I11" s="43" t="s">
         <v>151</v>
       </c>
-      <c r="J11" s="47" t="s">
+      <c r="J11" s="43" t="s">
         <v>151</v>
       </c>
       <c r="K11" s="47" t="s">
@@ -5243,7 +5311,7 @@
       <c r="L11" s="47" t="s">
         <v>151</v>
       </c>
-      <c r="M11" s="42" t="s">
+      <c r="M11" s="47" t="s">
         <v>151</v>
       </c>
       <c r="N11" s="42" t="s">
@@ -5252,24 +5320,24 @@
       <c r="O11" s="42" t="s">
         <v>151</v>
       </c>
-      <c r="P11" s="28">
+      <c r="P11" s="42" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q11" s="28">
         <v>0</v>
       </c>
-      <c r="Q11" s="29" t="s">
+      <c r="R11" s="29" t="s">
         <v>126</v>
       </c>
-      <c r="R11" s="30">
+      <c r="S11" s="30">
         <v>0.5</v>
       </c>
-      <c r="S11" s="26" t="s">
+      <c r="T11" s="26" t="s">
         <v>112</v>
       </c>
-      <c r="T11" s="22" t="s">
+      <c r="U11" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="U11" s="36" t="s">
-        <v>151</v>
-      </c>
       <c r="V11" s="36" t="s">
         <v>151</v>
       </c>
@@ -5279,18 +5347,18 @@
       <c r="X11" s="36" t="s">
         <v>151</v>
       </c>
-      <c r="Y11" s="39" t="s">
+      <c r="Y11" s="36" t="s">
         <v>151</v>
       </c>
       <c r="Z11" s="39" t="s">
         <v>151</v>
       </c>
-      <c r="AA11" s="37" t="s">
+      <c r="AA11" s="39" t="s">
+        <v>151</v>
+      </c>
+      <c r="AB11" s="37" t="s">
         <v>102</v>
       </c>
-      <c r="AB11" s="37" t="s">
-        <v>151</v>
-      </c>
       <c r="AC11" s="37" t="s">
         <v>151</v>
       </c>
@@ -5342,33 +5410,36 @@
       <c r="AS11" s="37" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="12" spans="2:45" x14ac:dyDescent="0.2">
+      <c r="AT11" s="37" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="12" spans="2:46" x14ac:dyDescent="0.2">
       <c r="B12" s="14" t="s">
         <v>3</v>
       </c>
       <c r="C12" s="27" t="s">
         <v>139</v>
       </c>
-      <c r="D12" s="40" t="b">
+      <c r="D12" s="52" t="s">
+        <v>151</v>
+      </c>
+      <c r="E12" s="40" t="b">
         <v>0</v>
       </c>
-      <c r="E12" s="50">
+      <c r="F12" s="48">
         <v>1</v>
       </c>
-      <c r="F12" s="43" t="b">
+      <c r="G12" s="43" t="b">
         <v>0</v>
       </c>
-      <c r="G12" s="43" t="s">
-        <v>151</v>
-      </c>
       <c r="H12" s="43" t="s">
         <v>151</v>
       </c>
       <c r="I12" s="43" t="s">
         <v>151</v>
       </c>
-      <c r="J12" s="47" t="s">
+      <c r="J12" s="43" t="s">
         <v>151</v>
       </c>
       <c r="K12" s="47" t="s">
@@ -5377,7 +5448,7 @@
       <c r="L12" s="47" t="s">
         <v>151</v>
       </c>
-      <c r="M12" s="42" t="s">
+      <c r="M12" s="47" t="s">
         <v>151</v>
       </c>
       <c r="N12" s="42" t="s">
@@ -5386,24 +5457,24 @@
       <c r="O12" s="42" t="s">
         <v>151</v>
       </c>
-      <c r="P12" s="28">
+      <c r="P12" s="42" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q12" s="28">
         <v>0</v>
       </c>
-      <c r="Q12" s="29" t="s">
+      <c r="R12" s="29" t="s">
         <v>125</v>
       </c>
-      <c r="R12" s="30">
+      <c r="S12" s="30">
         <v>0.5</v>
       </c>
-      <c r="S12" s="26" t="s">
+      <c r="T12" s="26" t="s">
         <v>113</v>
       </c>
-      <c r="T12" s="22" t="s">
+      <c r="U12" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="U12" s="36" t="s">
-        <v>151</v>
-      </c>
       <c r="V12" s="36" t="s">
         <v>151</v>
       </c>
@@ -5413,18 +5484,18 @@
       <c r="X12" s="36" t="s">
         <v>151</v>
       </c>
-      <c r="Y12" s="39" t="s">
+      <c r="Y12" s="36" t="s">
         <v>151</v>
       </c>
       <c r="Z12" s="39" t="s">
         <v>151</v>
       </c>
-      <c r="AA12" s="37" t="s">
+      <c r="AA12" s="39" t="s">
+        <v>151</v>
+      </c>
+      <c r="AB12" s="37" t="s">
         <v>102</v>
       </c>
-      <c r="AB12" s="37" t="s">
-        <v>151</v>
-      </c>
       <c r="AC12" s="37" t="s">
         <v>151</v>
       </c>
@@ -5476,33 +5547,36 @@
       <c r="AS12" s="37" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="13" spans="2:45" x14ac:dyDescent="0.2">
+      <c r="AT12" s="37" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="13" spans="2:46" x14ac:dyDescent="0.2">
       <c r="B13" s="14" t="s">
         <v>3</v>
       </c>
       <c r="C13" s="27" t="s">
         <v>140</v>
       </c>
-      <c r="D13" s="40" t="b">
+      <c r="D13" s="52" t="s">
+        <v>151</v>
+      </c>
+      <c r="E13" s="40" t="b">
         <v>0</v>
       </c>
-      <c r="E13" s="50">
+      <c r="F13" s="48">
         <v>1</v>
       </c>
-      <c r="F13" s="43" t="b">
+      <c r="G13" s="43" t="b">
         <v>0</v>
       </c>
-      <c r="G13" s="43" t="s">
-        <v>151</v>
-      </c>
       <c r="H13" s="43" t="s">
         <v>151</v>
       </c>
       <c r="I13" s="43" t="s">
         <v>151</v>
       </c>
-      <c r="J13" s="47" t="s">
+      <c r="J13" s="43" t="s">
         <v>151</v>
       </c>
       <c r="K13" s="47" t="s">
@@ -5511,7 +5585,7 @@
       <c r="L13" s="47" t="s">
         <v>151</v>
       </c>
-      <c r="M13" s="42" t="s">
+      <c r="M13" s="47" t="s">
         <v>151</v>
       </c>
       <c r="N13" s="42" t="s">
@@ -5520,24 +5594,24 @@
       <c r="O13" s="42" t="s">
         <v>151</v>
       </c>
-      <c r="P13" s="28">
+      <c r="P13" s="42" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q13" s="28">
         <v>0</v>
       </c>
-      <c r="Q13" s="29" t="s">
+      <c r="R13" s="29" t="s">
         <v>99</v>
       </c>
-      <c r="R13" s="30">
+      <c r="S13" s="30">
         <v>0.5</v>
       </c>
-      <c r="S13" s="26" t="s">
+      <c r="T13" s="26" t="s">
         <v>114</v>
       </c>
-      <c r="T13" s="22" t="s">
+      <c r="U13" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="U13" s="36" t="s">
-        <v>151</v>
-      </c>
       <c r="V13" s="36" t="s">
         <v>151</v>
       </c>
@@ -5547,18 +5621,18 @@
       <c r="X13" s="36" t="s">
         <v>151</v>
       </c>
-      <c r="Y13" s="39" t="s">
+      <c r="Y13" s="36" t="s">
         <v>151</v>
       </c>
       <c r="Z13" s="39" t="s">
         <v>151</v>
       </c>
-      <c r="AA13" s="37" t="s">
+      <c r="AA13" s="39" t="s">
+        <v>151</v>
+      </c>
+      <c r="AB13" s="37" t="s">
         <v>102</v>
       </c>
-      <c r="AB13" s="37" t="s">
-        <v>151</v>
-      </c>
       <c r="AC13" s="37" t="s">
         <v>151</v>
       </c>
@@ -5610,33 +5684,36 @@
       <c r="AS13" s="37" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="14" spans="2:45" x14ac:dyDescent="0.2">
+      <c r="AT13" s="37" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="14" spans="2:46" x14ac:dyDescent="0.2">
       <c r="B14" s="14" t="s">
         <v>3</v>
       </c>
       <c r="C14" s="31" t="s">
         <v>141</v>
       </c>
-      <c r="D14" s="40" t="b">
+      <c r="D14" s="52" t="s">
+        <v>151</v>
+      </c>
+      <c r="E14" s="40" t="b">
         <v>0</v>
       </c>
-      <c r="E14" s="50">
+      <c r="F14" s="48">
         <v>1</v>
       </c>
-      <c r="F14" s="43" t="b">
+      <c r="G14" s="43" t="b">
         <v>0</v>
       </c>
-      <c r="G14" s="43" t="s">
-        <v>151</v>
-      </c>
       <c r="H14" s="43" t="s">
         <v>151</v>
       </c>
       <c r="I14" s="43" t="s">
         <v>151</v>
       </c>
-      <c r="J14" s="47" t="s">
+      <c r="J14" s="43" t="s">
         <v>151</v>
       </c>
       <c r="K14" s="47" t="s">
@@ -5645,7 +5722,7 @@
       <c r="L14" s="47" t="s">
         <v>151</v>
       </c>
-      <c r="M14" s="42" t="s">
+      <c r="M14" s="47" t="s">
         <v>151</v>
       </c>
       <c r="N14" s="42" t="s">
@@ -5654,24 +5731,24 @@
       <c r="O14" s="42" t="s">
         <v>151</v>
       </c>
-      <c r="P14" s="32">
+      <c r="P14" s="42" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q14" s="32">
         <v>0</v>
       </c>
-      <c r="Q14" s="35" t="s">
+      <c r="R14" s="35" t="s">
         <v>126</v>
       </c>
-      <c r="R14" s="30">
+      <c r="S14" s="30">
         <v>0.5</v>
       </c>
-      <c r="S14" s="26" t="s">
+      <c r="T14" s="26" t="s">
         <v>115</v>
       </c>
-      <c r="T14" s="22" t="s">
+      <c r="U14" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="U14" s="36" t="s">
-        <v>151</v>
-      </c>
       <c r="V14" s="36" t="s">
         <v>151</v>
       </c>
@@ -5681,18 +5758,18 @@
       <c r="X14" s="36" t="s">
         <v>151</v>
       </c>
-      <c r="Y14" s="39" t="s">
+      <c r="Y14" s="36" t="s">
         <v>151</v>
       </c>
       <c r="Z14" s="39" t="s">
         <v>151</v>
       </c>
-      <c r="AA14" s="37" t="s">
+      <c r="AA14" s="39" t="s">
+        <v>151</v>
+      </c>
+      <c r="AB14" s="37" t="s">
         <v>102</v>
       </c>
-      <c r="AB14" s="37" t="s">
-        <v>151</v>
-      </c>
       <c r="AC14" s="37" t="s">
         <v>151</v>
       </c>
@@ -5744,33 +5821,36 @@
       <c r="AS14" s="37" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="15" spans="2:45" x14ac:dyDescent="0.2">
+      <c r="AT14" s="37" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="15" spans="2:46" x14ac:dyDescent="0.2">
       <c r="B15" s="14" t="s">
         <v>3</v>
       </c>
       <c r="C15" s="31" t="s">
         <v>142</v>
       </c>
-      <c r="D15" s="40" t="b">
+      <c r="D15" s="52" t="s">
+        <v>151</v>
+      </c>
+      <c r="E15" s="40" t="b">
         <v>0</v>
       </c>
-      <c r="E15" s="50">
+      <c r="F15" s="48">
         <v>1</v>
       </c>
-      <c r="F15" s="43" t="b">
+      <c r="G15" s="43" t="b">
         <v>0</v>
       </c>
-      <c r="G15" s="43" t="s">
-        <v>151</v>
-      </c>
       <c r="H15" s="43" t="s">
         <v>151</v>
       </c>
       <c r="I15" s="43" t="s">
         <v>151</v>
       </c>
-      <c r="J15" s="47" t="s">
+      <c r="J15" s="43" t="s">
         <v>151</v>
       </c>
       <c r="K15" s="47" t="s">
@@ -5779,7 +5859,7 @@
       <c r="L15" s="47" t="s">
         <v>151</v>
       </c>
-      <c r="M15" s="42" t="s">
+      <c r="M15" s="47" t="s">
         <v>151</v>
       </c>
       <c r="N15" s="42" t="s">
@@ -5788,24 +5868,24 @@
       <c r="O15" s="42" t="s">
         <v>151</v>
       </c>
-      <c r="P15" s="32">
+      <c r="P15" s="42" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q15" s="32">
         <v>0</v>
       </c>
-      <c r="Q15" s="35" t="s">
+      <c r="R15" s="35" t="s">
         <v>127</v>
       </c>
-      <c r="R15" s="30">
+      <c r="S15" s="30">
         <v>0.5</v>
       </c>
-      <c r="S15" s="26" t="s">
+      <c r="T15" s="26" t="s">
         <v>116</v>
       </c>
-      <c r="T15" s="22" t="s">
+      <c r="U15" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="U15" s="36" t="s">
-        <v>151</v>
-      </c>
       <c r="V15" s="36" t="s">
         <v>151</v>
       </c>
@@ -5815,18 +5895,18 @@
       <c r="X15" s="36" t="s">
         <v>151</v>
       </c>
-      <c r="Y15" s="39" t="s">
+      <c r="Y15" s="36" t="s">
         <v>151</v>
       </c>
       <c r="Z15" s="39" t="s">
         <v>151</v>
       </c>
-      <c r="AA15" s="37" t="s">
+      <c r="AA15" s="39" t="s">
+        <v>151</v>
+      </c>
+      <c r="AB15" s="37" t="s">
         <v>102</v>
       </c>
-      <c r="AB15" s="37" t="s">
-        <v>151</v>
-      </c>
       <c r="AC15" s="37" t="s">
         <v>151</v>
       </c>
@@ -5878,33 +5958,36 @@
       <c r="AS15" s="37" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="16" spans="2:45" x14ac:dyDescent="0.2">
+      <c r="AT15" s="37" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="16" spans="2:46" x14ac:dyDescent="0.2">
       <c r="B16" s="14" t="s">
         <v>3</v>
       </c>
       <c r="C16" s="31" t="s">
         <v>143</v>
       </c>
-      <c r="D16" s="40" t="b">
+      <c r="D16" s="52" t="s">
+        <v>151</v>
+      </c>
+      <c r="E16" s="40" t="b">
         <v>0</v>
       </c>
-      <c r="E16" s="50">
+      <c r="F16" s="48">
         <v>1</v>
       </c>
-      <c r="F16" s="43" t="b">
+      <c r="G16" s="43" t="b">
         <v>0</v>
       </c>
-      <c r="G16" s="43" t="s">
-        <v>151</v>
-      </c>
       <c r="H16" s="43" t="s">
         <v>151</v>
       </c>
       <c r="I16" s="43" t="s">
         <v>151</v>
       </c>
-      <c r="J16" s="47" t="s">
+      <c r="J16" s="43" t="s">
         <v>151</v>
       </c>
       <c r="K16" s="47" t="s">
@@ -5913,7 +5996,7 @@
       <c r="L16" s="47" t="s">
         <v>151</v>
       </c>
-      <c r="M16" s="42" t="s">
+      <c r="M16" s="47" t="s">
         <v>151</v>
       </c>
       <c r="N16" s="42" t="s">
@@ -5922,24 +6005,24 @@
       <c r="O16" s="42" t="s">
         <v>151</v>
       </c>
-      <c r="P16" s="32">
+      <c r="P16" s="42" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q16" s="32">
         <v>0</v>
       </c>
-      <c r="Q16" s="35" t="s">
+      <c r="R16" s="35" t="s">
         <v>128</v>
       </c>
-      <c r="R16" s="30">
+      <c r="S16" s="30">
         <v>0.5</v>
       </c>
-      <c r="S16" s="26" t="s">
+      <c r="T16" s="26" t="s">
         <v>117</v>
       </c>
-      <c r="T16" s="22" t="s">
+      <c r="U16" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="U16" s="36" t="s">
-        <v>151</v>
-      </c>
       <c r="V16" s="36" t="s">
         <v>151</v>
       </c>
@@ -5949,18 +6032,18 @@
       <c r="X16" s="36" t="s">
         <v>151</v>
       </c>
-      <c r="Y16" s="39" t="s">
+      <c r="Y16" s="36" t="s">
         <v>151</v>
       </c>
       <c r="Z16" s="39" t="s">
         <v>151</v>
       </c>
-      <c r="AA16" s="37" t="s">
+      <c r="AA16" s="39" t="s">
+        <v>151</v>
+      </c>
+      <c r="AB16" s="37" t="s">
         <v>102</v>
       </c>
-      <c r="AB16" s="37" t="s">
-        <v>151</v>
-      </c>
       <c r="AC16" s="37" t="s">
         <v>151</v>
       </c>
@@ -6012,33 +6095,36 @@
       <c r="AS16" s="37" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="17" spans="2:45" x14ac:dyDescent="0.2">
+      <c r="AT16" s="37" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="17" spans="2:46" x14ac:dyDescent="0.2">
       <c r="B17" s="14" t="s">
         <v>3</v>
       </c>
       <c r="C17" s="31" t="s">
         <v>144</v>
       </c>
-      <c r="D17" s="40" t="b">
+      <c r="D17" s="52" t="s">
+        <v>151</v>
+      </c>
+      <c r="E17" s="40" t="b">
         <v>0</v>
       </c>
-      <c r="E17" s="50">
+      <c r="F17" s="48">
         <v>1</v>
       </c>
-      <c r="F17" s="43" t="b">
+      <c r="G17" s="43" t="b">
         <v>0</v>
       </c>
-      <c r="G17" s="43" t="s">
-        <v>151</v>
-      </c>
       <c r="H17" s="43" t="s">
         <v>151</v>
       </c>
       <c r="I17" s="43" t="s">
         <v>151</v>
       </c>
-      <c r="J17" s="47" t="s">
+      <c r="J17" s="43" t="s">
         <v>151</v>
       </c>
       <c r="K17" s="47" t="s">
@@ -6047,7 +6133,7 @@
       <c r="L17" s="47" t="s">
         <v>151</v>
       </c>
-      <c r="M17" s="42" t="s">
+      <c r="M17" s="47" t="s">
         <v>151</v>
       </c>
       <c r="N17" s="42" t="s">
@@ -6056,24 +6142,24 @@
       <c r="O17" s="42" t="s">
         <v>151</v>
       </c>
-      <c r="P17" s="32">
+      <c r="P17" s="42" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q17" s="32">
         <v>0</v>
       </c>
-      <c r="Q17" s="35" t="s">
+      <c r="R17" s="35" t="s">
         <v>129</v>
       </c>
-      <c r="R17" s="30">
+      <c r="S17" s="30">
         <v>0.5</v>
       </c>
-      <c r="S17" s="26" t="s">
+      <c r="T17" s="26" t="s">
         <v>118</v>
       </c>
-      <c r="T17" s="22" t="s">
+      <c r="U17" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="U17" s="36" t="s">
-        <v>151</v>
-      </c>
       <c r="V17" s="36" t="s">
         <v>151</v>
       </c>
@@ -6083,18 +6169,18 @@
       <c r="X17" s="36" t="s">
         <v>151</v>
       </c>
-      <c r="Y17" s="39" t="s">
+      <c r="Y17" s="36" t="s">
         <v>151</v>
       </c>
       <c r="Z17" s="39" t="s">
         <v>151</v>
       </c>
-      <c r="AA17" s="37" t="s">
+      <c r="AA17" s="39" t="s">
+        <v>151</v>
+      </c>
+      <c r="AB17" s="37" t="s">
         <v>102</v>
       </c>
-      <c r="AB17" s="37" t="s">
-        <v>151</v>
-      </c>
       <c r="AC17" s="37" t="s">
         <v>151</v>
       </c>
@@ -6146,33 +6232,36 @@
       <c r="AS17" s="37" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="18" spans="2:45" x14ac:dyDescent="0.2">
+      <c r="AT17" s="37" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="18" spans="2:46" x14ac:dyDescent="0.2">
       <c r="B18" s="14" t="s">
         <v>3</v>
       </c>
       <c r="C18" s="31" t="s">
         <v>145</v>
       </c>
-      <c r="D18" s="40" t="b">
+      <c r="D18" s="52" t="s">
+        <v>151</v>
+      </c>
+      <c r="E18" s="40" t="b">
         <v>0</v>
       </c>
-      <c r="E18" s="50">
+      <c r="F18" s="48">
         <v>1</v>
       </c>
-      <c r="F18" s="43" t="b">
+      <c r="G18" s="43" t="b">
         <v>0</v>
       </c>
-      <c r="G18" s="43" t="s">
-        <v>151</v>
-      </c>
       <c r="H18" s="43" t="s">
         <v>151</v>
       </c>
       <c r="I18" s="43" t="s">
         <v>151</v>
       </c>
-      <c r="J18" s="47" t="s">
+      <c r="J18" s="43" t="s">
         <v>151</v>
       </c>
       <c r="K18" s="47" t="s">
@@ -6181,7 +6270,7 @@
       <c r="L18" s="47" t="s">
         <v>151</v>
       </c>
-      <c r="M18" s="42" t="s">
+      <c r="M18" s="47" t="s">
         <v>151</v>
       </c>
       <c r="N18" s="42" t="s">
@@ -6190,24 +6279,24 @@
       <c r="O18" s="42" t="s">
         <v>151</v>
       </c>
-      <c r="P18" s="32">
+      <c r="P18" s="42" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q18" s="32">
         <v>0</v>
       </c>
-      <c r="Q18" s="35" t="s">
+      <c r="R18" s="35" t="s">
         <v>125</v>
       </c>
-      <c r="R18" s="30">
+      <c r="S18" s="30">
         <v>0.5</v>
       </c>
-      <c r="S18" s="26" t="s">
+      <c r="T18" s="26" t="s">
         <v>119</v>
       </c>
-      <c r="T18" s="22" t="s">
+      <c r="U18" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="U18" s="36" t="s">
-        <v>151</v>
-      </c>
       <c r="V18" s="36" t="s">
         <v>151</v>
       </c>
@@ -6217,18 +6306,18 @@
       <c r="X18" s="36" t="s">
         <v>151</v>
       </c>
-      <c r="Y18" s="39" t="s">
+      <c r="Y18" s="36" t="s">
         <v>151</v>
       </c>
       <c r="Z18" s="39" t="s">
         <v>151</v>
       </c>
-      <c r="AA18" s="37" t="s">
+      <c r="AA18" s="39" t="s">
+        <v>151</v>
+      </c>
+      <c r="AB18" s="37" t="s">
         <v>102</v>
       </c>
-      <c r="AB18" s="37" t="s">
-        <v>151</v>
-      </c>
       <c r="AC18" s="37" t="s">
         <v>151</v>
       </c>
@@ -6280,33 +6369,36 @@
       <c r="AS18" s="37" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="19" spans="2:45" x14ac:dyDescent="0.2">
+      <c r="AT18" s="37" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="19" spans="2:46" x14ac:dyDescent="0.2">
       <c r="B19" s="14" t="s">
         <v>3</v>
       </c>
       <c r="C19" s="31" t="s">
         <v>146</v>
       </c>
-      <c r="D19" s="40" t="b">
+      <c r="D19" s="52" t="s">
+        <v>151</v>
+      </c>
+      <c r="E19" s="40" t="b">
         <v>0</v>
       </c>
-      <c r="E19" s="50">
+      <c r="F19" s="48">
         <v>1</v>
       </c>
-      <c r="F19" s="43" t="b">
+      <c r="G19" s="43" t="b">
         <v>0</v>
       </c>
-      <c r="G19" s="43" t="s">
-        <v>151</v>
-      </c>
       <c r="H19" s="43" t="s">
         <v>151</v>
       </c>
       <c r="I19" s="43" t="s">
         <v>151</v>
       </c>
-      <c r="J19" s="47" t="s">
+      <c r="J19" s="43" t="s">
         <v>151</v>
       </c>
       <c r="K19" s="47" t="s">
@@ -6315,7 +6407,7 @@
       <c r="L19" s="47" t="s">
         <v>151</v>
       </c>
-      <c r="M19" s="42" t="s">
+      <c r="M19" s="47" t="s">
         <v>151</v>
       </c>
       <c r="N19" s="42" t="s">
@@ -6324,24 +6416,24 @@
       <c r="O19" s="42" t="s">
         <v>151</v>
       </c>
-      <c r="P19" s="32">
+      <c r="P19" s="42" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q19" s="32">
         <v>0</v>
       </c>
-      <c r="Q19" s="35" t="s">
+      <c r="R19" s="35" t="s">
         <v>99</v>
       </c>
-      <c r="R19" s="30">
+      <c r="S19" s="30">
         <v>0.5</v>
       </c>
-      <c r="S19" s="26" t="s">
+      <c r="T19" s="26" t="s">
         <v>120</v>
       </c>
-      <c r="T19" s="22" t="s">
+      <c r="U19" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="U19" s="36" t="s">
-        <v>151</v>
-      </c>
       <c r="V19" s="36" t="s">
         <v>151</v>
       </c>
@@ -6351,18 +6443,18 @@
       <c r="X19" s="36" t="s">
         <v>151</v>
       </c>
-      <c r="Y19" s="39" t="s">
+      <c r="Y19" s="36" t="s">
         <v>151</v>
       </c>
       <c r="Z19" s="39" t="s">
         <v>151</v>
       </c>
-      <c r="AA19" s="37" t="s">
+      <c r="AA19" s="39" t="s">
+        <v>151</v>
+      </c>
+      <c r="AB19" s="37" t="s">
         <v>102</v>
       </c>
-      <c r="AB19" s="37" t="s">
-        <v>151</v>
-      </c>
       <c r="AC19" s="37" t="s">
         <v>151</v>
       </c>
@@ -6414,33 +6506,36 @@
       <c r="AS19" s="37" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="20" spans="2:45" x14ac:dyDescent="0.2">
+      <c r="AT19" s="37" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="20" spans="2:46" x14ac:dyDescent="0.2">
       <c r="B20" s="14" t="s">
         <v>3</v>
       </c>
       <c r="C20" s="31" t="s">
         <v>147</v>
       </c>
-      <c r="D20" s="40" t="b">
+      <c r="D20" s="52" t="s">
+        <v>151</v>
+      </c>
+      <c r="E20" s="40" t="b">
         <v>0</v>
       </c>
-      <c r="E20" s="50">
+      <c r="F20" s="48">
         <v>1</v>
       </c>
-      <c r="F20" s="43" t="b">
+      <c r="G20" s="43" t="b">
         <v>0</v>
       </c>
-      <c r="G20" s="43" t="s">
-        <v>151</v>
-      </c>
       <c r="H20" s="43" t="s">
         <v>151</v>
       </c>
       <c r="I20" s="43" t="s">
         <v>151</v>
       </c>
-      <c r="J20" s="47" t="s">
+      <c r="J20" s="43" t="s">
         <v>151</v>
       </c>
       <c r="K20" s="47" t="s">
@@ -6449,7 +6544,7 @@
       <c r="L20" s="47" t="s">
         <v>151</v>
       </c>
-      <c r="M20" s="42" t="s">
+      <c r="M20" s="47" t="s">
         <v>151</v>
       </c>
       <c r="N20" s="42" t="s">
@@ -6458,24 +6553,24 @@
       <c r="O20" s="42" t="s">
         <v>151</v>
       </c>
-      <c r="P20" s="32">
+      <c r="P20" s="42" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q20" s="32">
         <v>0</v>
       </c>
-      <c r="Q20" s="35" t="s">
+      <c r="R20" s="35" t="s">
         <v>126</v>
       </c>
-      <c r="R20" s="30">
+      <c r="S20" s="30">
         <v>0.5</v>
       </c>
-      <c r="S20" s="26" t="s">
+      <c r="T20" s="26" t="s">
         <v>121</v>
       </c>
-      <c r="T20" s="22" t="s">
+      <c r="U20" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="U20" s="36" t="s">
-        <v>151</v>
-      </c>
       <c r="V20" s="36" t="s">
         <v>151</v>
       </c>
@@ -6485,18 +6580,18 @@
       <c r="X20" s="36" t="s">
         <v>151</v>
       </c>
-      <c r="Y20" s="39" t="s">
+      <c r="Y20" s="36" t="s">
         <v>151</v>
       </c>
       <c r="Z20" s="39" t="s">
         <v>151</v>
       </c>
-      <c r="AA20" s="37" t="s">
+      <c r="AA20" s="39" t="s">
+        <v>151</v>
+      </c>
+      <c r="AB20" s="37" t="s">
         <v>102</v>
       </c>
-      <c r="AB20" s="37" t="s">
-        <v>151</v>
-      </c>
       <c r="AC20" s="37" t="s">
         <v>151</v>
       </c>
@@ -6548,33 +6643,36 @@
       <c r="AS20" s="37" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="21" spans="2:45" x14ac:dyDescent="0.2">
+      <c r="AT20" s="37" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="21" spans="2:46" x14ac:dyDescent="0.2">
       <c r="B21" s="14" t="s">
         <v>3</v>
       </c>
       <c r="C21" s="31" t="s">
         <v>148</v>
       </c>
-      <c r="D21" s="40" t="b">
+      <c r="D21" s="52" t="s">
+        <v>151</v>
+      </c>
+      <c r="E21" s="40" t="b">
         <v>0</v>
       </c>
-      <c r="E21" s="50">
+      <c r="F21" s="48">
         <v>1</v>
       </c>
-      <c r="F21" s="43" t="b">
+      <c r="G21" s="43" t="b">
         <v>0</v>
       </c>
-      <c r="G21" s="43" t="s">
-        <v>151</v>
-      </c>
       <c r="H21" s="43" t="s">
         <v>151</v>
       </c>
       <c r="I21" s="43" t="s">
         <v>151</v>
       </c>
-      <c r="J21" s="47" t="s">
+      <c r="J21" s="43" t="s">
         <v>151</v>
       </c>
       <c r="K21" s="47" t="s">
@@ -6583,7 +6681,7 @@
       <c r="L21" s="47" t="s">
         <v>151</v>
       </c>
-      <c r="M21" s="42" t="s">
+      <c r="M21" s="47" t="s">
         <v>151</v>
       </c>
       <c r="N21" s="42" t="s">
@@ -6592,24 +6690,24 @@
       <c r="O21" s="42" t="s">
         <v>151</v>
       </c>
-      <c r="P21" s="32">
+      <c r="P21" s="42" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q21" s="32">
         <v>0</v>
       </c>
-      <c r="Q21" s="35" t="s">
+      <c r="R21" s="35" t="s">
         <v>127</v>
       </c>
-      <c r="R21" s="30">
+      <c r="S21" s="30">
         <v>0.5</v>
       </c>
-      <c r="S21" s="26" t="s">
+      <c r="T21" s="26" t="s">
         <v>122</v>
       </c>
-      <c r="T21" s="22" t="s">
+      <c r="U21" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="U21" s="36" t="s">
-        <v>151</v>
-      </c>
       <c r="V21" s="36" t="s">
         <v>151</v>
       </c>
@@ -6619,18 +6717,18 @@
       <c r="X21" s="36" t="s">
         <v>151</v>
       </c>
-      <c r="Y21" s="39" t="s">
+      <c r="Y21" s="36" t="s">
         <v>151</v>
       </c>
       <c r="Z21" s="39" t="s">
         <v>151</v>
       </c>
-      <c r="AA21" s="37" t="s">
+      <c r="AA21" s="39" t="s">
+        <v>151</v>
+      </c>
+      <c r="AB21" s="37" t="s">
         <v>102</v>
       </c>
-      <c r="AB21" s="37" t="s">
-        <v>151</v>
-      </c>
       <c r="AC21" s="37" t="s">
         <v>151</v>
       </c>
@@ -6682,33 +6780,36 @@
       <c r="AS21" s="37" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="22" spans="2:45" x14ac:dyDescent="0.2">
+      <c r="AT21" s="37" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="22" spans="2:46" x14ac:dyDescent="0.2">
       <c r="B22" s="14" t="s">
         <v>3</v>
       </c>
       <c r="C22" s="31" t="s">
         <v>149</v>
       </c>
-      <c r="D22" s="40" t="b">
+      <c r="D22" s="52" t="s">
+        <v>151</v>
+      </c>
+      <c r="E22" s="40" t="b">
         <v>0</v>
       </c>
-      <c r="E22" s="50">
+      <c r="F22" s="48">
         <v>1</v>
       </c>
-      <c r="F22" s="43" t="b">
+      <c r="G22" s="43" t="b">
         <v>0</v>
       </c>
-      <c r="G22" s="43" t="s">
-        <v>151</v>
-      </c>
       <c r="H22" s="43" t="s">
         <v>151</v>
       </c>
       <c r="I22" s="43" t="s">
         <v>151</v>
       </c>
-      <c r="J22" s="47" t="s">
+      <c r="J22" s="43" t="s">
         <v>151</v>
       </c>
       <c r="K22" s="47" t="s">
@@ -6717,7 +6818,7 @@
       <c r="L22" s="47" t="s">
         <v>151</v>
       </c>
-      <c r="M22" s="42" t="s">
+      <c r="M22" s="47" t="s">
         <v>151</v>
       </c>
       <c r="N22" s="42" t="s">
@@ -6726,24 +6827,24 @@
       <c r="O22" s="42" t="s">
         <v>151</v>
       </c>
-      <c r="P22" s="32">
+      <c r="P22" s="42" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q22" s="32">
         <v>0</v>
       </c>
-      <c r="Q22" s="35" t="s">
+      <c r="R22" s="35" t="s">
         <v>128</v>
       </c>
-      <c r="R22" s="30">
+      <c r="S22" s="30">
         <v>0.5</v>
       </c>
-      <c r="S22" s="26" t="s">
+      <c r="T22" s="26" t="s">
         <v>123</v>
       </c>
-      <c r="T22" s="22" t="s">
+      <c r="U22" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="U22" s="36" t="s">
-        <v>151</v>
-      </c>
       <c r="V22" s="36" t="s">
         <v>151</v>
       </c>
@@ -6753,18 +6854,18 @@
       <c r="X22" s="36" t="s">
         <v>151</v>
       </c>
-      <c r="Y22" s="39" t="s">
+      <c r="Y22" s="36" t="s">
         <v>151</v>
       </c>
       <c r="Z22" s="39" t="s">
         <v>151</v>
       </c>
-      <c r="AA22" s="37" t="s">
+      <c r="AA22" s="39" t="s">
+        <v>151</v>
+      </c>
+      <c r="AB22" s="37" t="s">
         <v>102</v>
       </c>
-      <c r="AB22" s="37" t="s">
-        <v>151</v>
-      </c>
       <c r="AC22" s="37" t="s">
         <v>151</v>
       </c>
@@ -6816,33 +6917,36 @@
       <c r="AS22" s="37" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="23" spans="2:45" x14ac:dyDescent="0.2">
+      <c r="AT22" s="37" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="23" spans="2:46" x14ac:dyDescent="0.2">
       <c r="B23" s="14" t="s">
         <v>3</v>
       </c>
       <c r="C23" s="38" t="s">
         <v>150</v>
       </c>
-      <c r="D23" s="40" t="b">
+      <c r="D23" s="52" t="s">
+        <v>151</v>
+      </c>
+      <c r="E23" s="40" t="b">
         <v>0</v>
       </c>
-      <c r="E23" s="50">
+      <c r="F23" s="48">
         <v>1</v>
       </c>
-      <c r="F23" s="43" t="b">
+      <c r="G23" s="43" t="b">
         <v>0</v>
       </c>
-      <c r="G23" s="43" t="s">
-        <v>151</v>
-      </c>
       <c r="H23" s="43" t="s">
         <v>151</v>
       </c>
       <c r="I23" s="43" t="s">
         <v>151</v>
       </c>
-      <c r="J23" s="47" t="s">
+      <c r="J23" s="43" t="s">
         <v>151</v>
       </c>
       <c r="K23" s="47" t="s">
@@ -6851,7 +6955,7 @@
       <c r="L23" s="47" t="s">
         <v>151</v>
       </c>
-      <c r="M23" s="42" t="s">
+      <c r="M23" s="47" t="s">
         <v>151</v>
       </c>
       <c r="N23" s="42" t="s">
@@ -6860,24 +6964,24 @@
       <c r="O23" s="42" t="s">
         <v>151</v>
       </c>
-      <c r="P23" s="32">
+      <c r="P23" s="42" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q23" s="32">
         <v>0</v>
       </c>
-      <c r="Q23" s="29" t="s">
+      <c r="R23" s="29" t="s">
         <v>129</v>
       </c>
-      <c r="R23" s="30">
+      <c r="S23" s="30">
         <v>0.5</v>
       </c>
-      <c r="S23" s="26" t="s">
+      <c r="T23" s="26" t="s">
         <v>124</v>
       </c>
-      <c r="T23" s="22" t="s">
+      <c r="U23" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="U23" s="36" t="s">
-        <v>151</v>
-      </c>
       <c r="V23" s="36" t="s">
         <v>151</v>
       </c>
@@ -6887,18 +6991,18 @@
       <c r="X23" s="36" t="s">
         <v>151</v>
       </c>
-      <c r="Y23" s="39" t="s">
+      <c r="Y23" s="36" t="s">
         <v>151</v>
       </c>
       <c r="Z23" s="39" t="s">
         <v>151</v>
       </c>
-      <c r="AA23" s="37" t="s">
+      <c r="AA23" s="39" t="s">
+        <v>151</v>
+      </c>
+      <c r="AB23" s="37" t="s">
         <v>102</v>
       </c>
-      <c r="AB23" s="37" t="s">
-        <v>151</v>
-      </c>
       <c r="AC23" s="37" t="s">
         <v>151</v>
       </c>
@@ -6948,13 +7052,16 @@
         <v>151</v>
       </c>
       <c r="AS23" s="37" t="s">
+        <v>151</v>
+      </c>
+      <c r="AT23" s="37" t="s">
         <v>151</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="X1:Y1"/>
-    <mergeCell ref="Z1:AR1"/>
+    <mergeCell ref="Z1:AA1"/>
+    <mergeCell ref="AB1:AT1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -7993,127 +8100,127 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="I5:N13 I15:N25 I38:N44">
-    <cfRule type="expression" dxfId="25" priority="27">
+    <cfRule type="expression" dxfId="27" priority="27">
       <formula>$B5&lt;&gt;"&lt;Definition&gt;"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E5:H13 F24:H24 E15:H23 E25:H25 E38:H44">
-    <cfRule type="expression" dxfId="24" priority="26">
+    <cfRule type="expression" dxfId="26" priority="26">
       <formula>$B5&lt;&gt;"&lt;Item&gt;"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5:D13 D15 D38:D44">
-    <cfRule type="expression" dxfId="23" priority="25">
+    <cfRule type="expression" dxfId="25" priority="25">
       <formula>$B5&lt;&gt;"&lt;Param&gt;"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16:D25">
-    <cfRule type="expression" dxfId="22" priority="22">
+    <cfRule type="expression" dxfId="24" priority="22">
       <formula>$B16&lt;&gt;"&lt;Param&gt;"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B24:D24 F24:L24 B5:N13 B15:L23 B25:L25 M15:N25 B38:N44">
-    <cfRule type="expression" dxfId="21" priority="21">
+    <cfRule type="expression" dxfId="23" priority="21">
       <formula>$B5="&lt;Definition&gt;"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E24">
-    <cfRule type="expression" dxfId="20" priority="20">
+    <cfRule type="expression" dxfId="22" priority="20">
       <formula>$B24&lt;&gt;"&lt;Item&gt;"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E24">
-    <cfRule type="expression" dxfId="19" priority="19">
+    <cfRule type="expression" dxfId="21" priority="19">
       <formula>$B24="&lt;Definition&gt;"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I14:N14">
-    <cfRule type="expression" dxfId="18" priority="18">
+    <cfRule type="expression" dxfId="20" priority="18">
       <formula>$B14&lt;&gt;"&lt;Definition&gt;"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E14:H14">
-    <cfRule type="expression" dxfId="17" priority="17">
+    <cfRule type="expression" dxfId="19" priority="17">
       <formula>$B14&lt;&gt;"&lt;Item&gt;"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D14">
-    <cfRule type="expression" dxfId="16" priority="16">
+    <cfRule type="expression" dxfId="18" priority="16">
       <formula>$B14&lt;&gt;"&lt;Param&gt;"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B14:N14">
-    <cfRule type="expression" dxfId="15" priority="15">
+    <cfRule type="expression" dxfId="17" priority="15">
       <formula>$B14="&lt;Definition&gt;"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I26:N34 I37:N37">
-    <cfRule type="expression" dxfId="14" priority="14">
+    <cfRule type="expression" dxfId="16" priority="14">
       <formula>$B26&lt;&gt;"&lt;Definition&gt;"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F34:H34 E26:H33 E37:H37">
-    <cfRule type="expression" dxfId="13" priority="13">
+    <cfRule type="expression" dxfId="15" priority="13">
       <formula>$B26&lt;&gt;"&lt;Item&gt;"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D26:D34 D37">
-    <cfRule type="expression" dxfId="12" priority="12">
+    <cfRule type="expression" dxfId="14" priority="12">
       <formula>$B26&lt;&gt;"&lt;Param&gt;"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B34:D34 F34:L34 B26:L33 M26:N34 B37:N37">
-    <cfRule type="expression" dxfId="11" priority="11">
+    <cfRule type="expression" dxfId="13" priority="11">
       <formula>$B26="&lt;Definition&gt;"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E34">
-    <cfRule type="expression" dxfId="10" priority="10">
+    <cfRule type="expression" dxfId="12" priority="10">
       <formula>$B34&lt;&gt;"&lt;Item&gt;"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E34">
-    <cfRule type="expression" dxfId="9" priority="9">
+    <cfRule type="expression" dxfId="11" priority="9">
       <formula>$B34="&lt;Definition&gt;"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I35:N35">
-    <cfRule type="expression" dxfId="8" priority="8">
+    <cfRule type="expression" dxfId="10" priority="8">
       <formula>$B35&lt;&gt;"&lt;Definition&gt;"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E35:H35">
-    <cfRule type="expression" dxfId="7" priority="7">
+    <cfRule type="expression" dxfId="9" priority="7">
       <formula>$B35&lt;&gt;"&lt;Item&gt;"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D35">
-    <cfRule type="expression" dxfId="6" priority="6">
+    <cfRule type="expression" dxfId="8" priority="6">
       <formula>$B35&lt;&gt;"&lt;Param&gt;"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B35:N35">
-    <cfRule type="expression" dxfId="5" priority="5">
+    <cfRule type="expression" dxfId="7" priority="5">
       <formula>$B35="&lt;Definition&gt;"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I36:N36">
-    <cfRule type="expression" dxfId="4" priority="4">
+    <cfRule type="expression" dxfId="6" priority="4">
       <formula>$B36&lt;&gt;"&lt;Definition&gt;"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E36:H36">
-    <cfRule type="expression" dxfId="3" priority="3">
+    <cfRule type="expression" dxfId="5" priority="3">
       <formula>$B36&lt;&gt;"&lt;Item&gt;"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D36">
-    <cfRule type="expression" dxfId="2" priority="2">
+    <cfRule type="expression" dxfId="4" priority="2">
       <formula>$B36&lt;&gt;"&lt;Param&gt;"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B36:N36">
-    <cfRule type="expression" dxfId="1" priority="1">
+    <cfRule type="expression" dxfId="3" priority="1">
       <formula>$B36="&lt;Definition&gt;"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Docs/Content/HungryDragonContent_Offers.xlsx
+++ b/Docs/Content/HungryDragonContent_Offers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aortin/Documents/UBI/FD/Client/Docs/Content/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{F3D4640E-2DAE-5A46-A783-C2ACF30BA6EE}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{F9C48722-F3B0-A84B-B401-9FBFABCE125C}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38400" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1061" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1083" uniqueCount="165">
   <si>
     <t>OFFER PACKS DEFINITIONS</t>
   </si>
@@ -521,6 +521,9 @@
   </si>
   <si>
     <t>[uniqueId]</t>
+  </si>
+  <si>
+    <t>[durationMinutes]</t>
   </si>
 </sst>
 </file>
@@ -897,7 +900,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1038,20 +1041,2443 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="45"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="90">
+  <dxfs count="91">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="6"/>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="6"/>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="6"/>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="6"/>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="6"/>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="6"/>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="6"/>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="6"/>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="6"/>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="6"/>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="6"/>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="6"/>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="6"/>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="6"/>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="6"/>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="6"/>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="6"/>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="6"/>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FFDCE6F1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FFDCE6F1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FFDCE6F1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FFDCE6F1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FFDCE6F1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FFDCE6F1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="7" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="45" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FFDCE6F1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FFDCE6F1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FFDCE6F1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FFDCE6F1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FFDCE6F1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FFDCE6F1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FFDCE6F1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FFDCE6F1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FFDCE6F1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FFDCE6F1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FFDCE6F1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FFDCE6F1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FFDCE6F1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FFDCE6F1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FFDCE6F1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FFDCE6F1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FFDCE6F1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FFDCE6F1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FFDCE6F1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFE3DAEF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFE3DAEF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFE3DAEF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFE3DAEF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="13" formatCode="0%"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFF9E6"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFF9E6"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFF9E6"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFF2CC"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFF2CC"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFF2CC"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFEDB3"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFEDB3"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFEDB3"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFEDB3"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFCCCC"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFCCCC"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1089,43 +3515,6 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFCCCC"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
         <color theme="1"/>
         <name val="Calibri"/>
         <scheme val="minor"/>
@@ -1146,2347 +3535,6 @@
         <bottom style="thin">
           <color auto="1"/>
         </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="6"/>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="6"/>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="6"/>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="6"/>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="6"/>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="6"/>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="6"/>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="6"/>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="6"/>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="6"/>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="6"/>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="6"/>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="6"/>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="6"/>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="6"/>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="6"/>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="6"/>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="6"/>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FFDCE6F1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FFDCE6F1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FFDCE6F1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FFDCE6F1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FFDCE6F1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FFDCE6F1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="7" tint="0.39997558519241921"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="45" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FFDCE6F1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FFDCE6F1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FFDCE6F1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FFDCE6F1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FFDCE6F1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FFDCE6F1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FFDCE6F1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FFDCE6F1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FFDCE6F1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FFDCE6F1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FFDCE6F1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FFDCE6F1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FFDCE6F1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FFDCE6F1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FFDCE6F1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FFDCE6F1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FFDCE6F1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FFDCE6F1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FFDCE6F1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top/>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top/>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFE3DAEF"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top/>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFE3DAEF"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFE3DAEF"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFE3DAEF"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="13" formatCode="0%"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFF9E6"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFF9E6"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top/>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFF9E6"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top/>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFF2CC"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top/>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFF2CC"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top/>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFF2CC"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top/>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFEDB3"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top/>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFEDB3"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top/>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFEDB3"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top/>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFEDB3"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFCCCC"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -3612,76 +3660,77 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="offerPacksDefinitions" displayName="offerPacksDefinitions" ref="B2:AT23" totalsRowShown="0" headerRowDxfId="89" headerRowBorderDxfId="88" tableBorderDxfId="87">
-  <autoFilter ref="B2:AT23" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
-  <tableColumns count="45">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="{offerPacksDefinitions}" dataDxfId="86"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="[sku]" dataDxfId="2"/>
-    <tableColumn id="45" xr3:uid="{44CF430E-7666-B44F-8C90-8B9AFA5061FC}" name="[uniqueId]" dataDxfId="0"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="[enabled]" dataDxfId="1"/>
-    <tableColumn id="39" xr3:uid="{BDE36CE7-C3EE-CF46-9E65-256BF79847A1}" name="[purchaseLimit]" dataDxfId="85"/>
-    <tableColumn id="38" xr3:uid="{549D4FA4-F5FE-7E41-8EE1-D5AC64E6CC50}" name="[item1Featured]" dataDxfId="84"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="[item1Type]" dataDxfId="83"/>
-    <tableColumn id="37" xr3:uid="{5FB302D5-DFC3-434A-B077-2D1D2138B668}" name="[item1Amount]" dataDxfId="82"/>
-    <tableColumn id="40" xr3:uid="{6455B275-094E-2345-9FD4-2C5DC35C6A9F}" name="[item1Sku]" dataDxfId="81"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="[item2Type]" dataDxfId="80"/>
-    <tableColumn id="41" xr3:uid="{ED68C080-ED0B-9E43-B505-291AD4921579}" name="[item2Amount]" dataDxfId="79"/>
-    <tableColumn id="42" xr3:uid="{BFF33F2B-41F5-5A4C-93AB-DEB983FA7B88}" name="[item2Sku]" dataDxfId="78"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="[item3Type]" dataDxfId="77"/>
-    <tableColumn id="43" xr3:uid="{3E8BF91C-560F-7741-8332-6A6D5E4E61A3}" name="[item3Amount]" dataDxfId="76"/>
-    <tableColumn id="44" xr3:uid="{4BD3AFA7-A608-A344-82A9-163AFF411CC3}" name="[item3Sku]" dataDxfId="75"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="[order]" dataDxfId="74"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="[refPrice]" dataDxfId="73"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="[discount]" dataDxfId="72"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="[iapSku]" dataDxfId="71"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="[tidName]" dataDxfId="70"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="[featured]" dataDxfId="69"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="[maxViews]" dataDxfId="68"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="[zone]" dataDxfId="67"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="[frequency]" dataDxfId="66"/>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="[startDate]" dataDxfId="65"/>
-    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="[endDate]" dataDxfId="64"/>
-    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="[minAppVersion]" dataDxfId="63"/>
-    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="[countriesAllowed]" dataDxfId="62"/>
-    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0000-000014000000}" name="[countriesExcluded]" dataDxfId="61"/>
-    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" name="[gamesPlayed]" dataDxfId="60"/>
-    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0000-000016000000}" name="[payerType]" dataDxfId="59"/>
-    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0000-000017000000}" name="[minSpent]" dataDxfId="58"/>
-    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0000-000018000000}" name="[dragonUnlocked]" dataDxfId="57"/>
-    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0000-000019000000}" name="[dragonOwned]" dataDxfId="56"/>
-    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0000-00001A000000}" name="[dragonNotOwned]" dataDxfId="55"/>
-    <tableColumn id="27" xr3:uid="{00000000-0010-0000-0000-00001B000000}" name="[scBalanceRange]" dataDxfId="54"/>
-    <tableColumn id="28" xr3:uid="{00000000-0010-0000-0000-00001C000000}" name="[hcBalanceRange]" dataDxfId="53"/>
-    <tableColumn id="29" xr3:uid="{00000000-0010-0000-0000-00001D000000}" name="[openedEggs]" dataDxfId="52"/>
-    <tableColumn id="30" xr3:uid="{00000000-0010-0000-0000-00001E000000}" name="[petsOwnedCount]" dataDxfId="51"/>
-    <tableColumn id="31" xr3:uid="{00000000-0010-0000-0000-00001F000000}" name="[petsOwned]" dataDxfId="50"/>
-    <tableColumn id="32" xr3:uid="{00000000-0010-0000-0000-000020000000}" name="[petsNotOwned]" dataDxfId="49"/>
-    <tableColumn id="33" xr3:uid="{00000000-0010-0000-0000-000021000000}" name="[progressionRange]" dataDxfId="48"/>
-    <tableColumn id="34" xr3:uid="{00000000-0010-0000-0000-000022000000}" name="[skinsUnlocked]" dataDxfId="47"/>
-    <tableColumn id="35" xr3:uid="{00000000-0010-0000-0000-000023000000}" name="[skinsOwned]" dataDxfId="46"/>
-    <tableColumn id="36" xr3:uid="{00000000-0010-0000-0000-000024000000}" name="[skinsNotOwned]" dataDxfId="45"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="offerPacksDefinitions" displayName="offerPacksDefinitions" ref="B2:AU23" totalsRowShown="0" headerRowDxfId="90" headerRowBorderDxfId="89" tableBorderDxfId="88">
+  <autoFilter ref="B2:AU23" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+  <tableColumns count="46">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="{offerPacksDefinitions}" dataDxfId="87"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="[sku]" dataDxfId="86"/>
+    <tableColumn id="45" xr3:uid="{44CF430E-7666-B44F-8C90-8B9AFA5061FC}" name="[uniqueId]" dataDxfId="85"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="[enabled]" dataDxfId="84"/>
+    <tableColumn id="39" xr3:uid="{BDE36CE7-C3EE-CF46-9E65-256BF79847A1}" name="[purchaseLimit]" dataDxfId="83"/>
+    <tableColumn id="38" xr3:uid="{549D4FA4-F5FE-7E41-8EE1-D5AC64E6CC50}" name="[item1Featured]" dataDxfId="82"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="[item1Type]" dataDxfId="81"/>
+    <tableColumn id="37" xr3:uid="{5FB302D5-DFC3-434A-B077-2D1D2138B668}" name="[item1Amount]" dataDxfId="80"/>
+    <tableColumn id="40" xr3:uid="{6455B275-094E-2345-9FD4-2C5DC35C6A9F}" name="[item1Sku]" dataDxfId="79"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="[item2Type]" dataDxfId="78"/>
+    <tableColumn id="41" xr3:uid="{ED68C080-ED0B-9E43-B505-291AD4921579}" name="[item2Amount]" dataDxfId="77"/>
+    <tableColumn id="42" xr3:uid="{BFF33F2B-41F5-5A4C-93AB-DEB983FA7B88}" name="[item2Sku]" dataDxfId="76"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="[item3Type]" dataDxfId="75"/>
+    <tableColumn id="43" xr3:uid="{3E8BF91C-560F-7741-8332-6A6D5E4E61A3}" name="[item3Amount]" dataDxfId="74"/>
+    <tableColumn id="44" xr3:uid="{4BD3AFA7-A608-A344-82A9-163AFF411CC3}" name="[item3Sku]" dataDxfId="73"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="[order]" dataDxfId="72"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="[refPrice]" dataDxfId="71"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="[discount]" dataDxfId="70"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="[iapSku]" dataDxfId="69"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="[tidName]" dataDxfId="68"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="[featured]" dataDxfId="67"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="[maxViews]" dataDxfId="66"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="[zone]" dataDxfId="65"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="[frequency]" dataDxfId="64"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="[startDate]" dataDxfId="63"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="[endDate]" dataDxfId="62"/>
+    <tableColumn id="46" xr3:uid="{F0E8F3EC-0A78-E14A-AE70-991D0323870C}" name="[durationMinutes]" dataDxfId="0"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="[minAppVersion]" dataDxfId="61"/>
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="[countriesAllowed]" dataDxfId="60"/>
+    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0000-000014000000}" name="[countriesExcluded]" dataDxfId="59"/>
+    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" name="[gamesPlayed]" dataDxfId="58"/>
+    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0000-000016000000}" name="[payerType]" dataDxfId="57"/>
+    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0000-000017000000}" name="[minSpent]" dataDxfId="56"/>
+    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0000-000018000000}" name="[dragonUnlocked]" dataDxfId="55"/>
+    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0000-000019000000}" name="[dragonOwned]" dataDxfId="54"/>
+    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0000-00001A000000}" name="[dragonNotOwned]" dataDxfId="53"/>
+    <tableColumn id="27" xr3:uid="{00000000-0010-0000-0000-00001B000000}" name="[scBalanceRange]" dataDxfId="52"/>
+    <tableColumn id="28" xr3:uid="{00000000-0010-0000-0000-00001C000000}" name="[hcBalanceRange]" dataDxfId="51"/>
+    <tableColumn id="29" xr3:uid="{00000000-0010-0000-0000-00001D000000}" name="[openedEggs]" dataDxfId="50"/>
+    <tableColumn id="30" xr3:uid="{00000000-0010-0000-0000-00001E000000}" name="[petsOwnedCount]" dataDxfId="49"/>
+    <tableColumn id="31" xr3:uid="{00000000-0010-0000-0000-00001F000000}" name="[petsOwned]" dataDxfId="48"/>
+    <tableColumn id="32" xr3:uid="{00000000-0010-0000-0000-000020000000}" name="[petsNotOwned]" dataDxfId="47"/>
+    <tableColumn id="33" xr3:uid="{00000000-0010-0000-0000-000021000000}" name="[progressionRange]" dataDxfId="46"/>
+    <tableColumn id="34" xr3:uid="{00000000-0010-0000-0000-000022000000}" name="[skinsUnlocked]" dataDxfId="45"/>
+    <tableColumn id="35" xr3:uid="{00000000-0010-0000-0000-000023000000}" name="[skinsOwned]" dataDxfId="44"/>
+    <tableColumn id="36" xr3:uid="{00000000-0010-0000-0000-000024000000}" name="[skinsNotOwned]" dataDxfId="43"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="offerPacksDefinitions_OLD" displayName="offerPacksDefinitions_OLD" ref="B4:N44" totalsRowShown="0" headerRowDxfId="44" dataDxfId="42" headerRowBorderDxfId="43" tableBorderDxfId="41">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="offerPacksDefinitions_OLD" displayName="offerPacksDefinitions_OLD" ref="B4:N44" totalsRowShown="0" headerRowDxfId="42" dataDxfId="40" headerRowBorderDxfId="41" tableBorderDxfId="39">
   <autoFilter ref="B4:N44" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="offerPacksDefinitions_OLD" dataDxfId="40"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="[sku]" dataDxfId="39"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0200-00000F000000}" name="[paramValue]" dataDxfId="38"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0200-000007000000}" name="[itemType]" dataDxfId="37"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0200-000008000000}" name="[itemAmount]" dataDxfId="36"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0200-000009000000}" name="[itemSku]" dataDxfId="35"/>
-    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0200-000017000000}" name="[itemFeatured]" dataDxfId="34"/>
-    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0200-000016000000}" name="[minAppVersion]" dataDxfId="33"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="[order]" dataDxfId="32"/>
-    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0200-000018000000}" name="[refPrice]" dataDxfId="31"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="[discount]" dataDxfId="30"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="[iapSku]" dataDxfId="29"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="[tidName]" dataDxfId="28"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="offerPacksDefinitions_OLD" dataDxfId="38"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="[sku]" dataDxfId="37"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0200-00000F000000}" name="[paramValue]" dataDxfId="36"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0200-000007000000}" name="[itemType]" dataDxfId="35"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0200-000008000000}" name="[itemAmount]" dataDxfId="34"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0200-000009000000}" name="[itemSku]" dataDxfId="33"/>
+    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0200-000017000000}" name="[itemFeatured]" dataDxfId="32"/>
+    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0200-000016000000}" name="[minAppVersion]" dataDxfId="31"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="[order]" dataDxfId="30"/>
+    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0200-000018000000}" name="[refPrice]" dataDxfId="29"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="[discount]" dataDxfId="28"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="[iapSku]" dataDxfId="27"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="[tidName]" dataDxfId="26"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3984,10 +4033,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:AT23"/>
+  <dimension ref="B1:AU23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="AB1" sqref="AB1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3995,20 +4044,14 @@
     <col min="1" max="1" width="4" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
     <col min="3" max="3" width="27.83203125" customWidth="1"/>
-    <col min="4" max="4" width="6.83203125" customWidth="1"/>
-    <col min="5" max="5" width="12.5" customWidth="1"/>
-    <col min="6" max="6" width="11.83203125" customWidth="1"/>
-    <col min="7" max="15" width="5.83203125" customWidth="1"/>
-    <col min="17" max="17" width="14.6640625" customWidth="1"/>
-    <col min="18" max="18" width="13.6640625" customWidth="1"/>
-    <col min="19" max="19" width="38.33203125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="26" customWidth="1"/>
-    <col min="21" max="26" width="5.83203125" customWidth="1"/>
-    <col min="27" max="27" width="18.83203125" customWidth="1"/>
-    <col min="28" max="45" width="5.83203125" customWidth="1"/>
+    <col min="4" max="16" width="5.83203125" customWidth="1"/>
+    <col min="17" max="19" width="14.83203125" customWidth="1"/>
+    <col min="20" max="20" width="40.83203125" customWidth="1"/>
+    <col min="21" max="21" width="25.83203125" customWidth="1"/>
+    <col min="22" max="47" width="5.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:46" s="25" customFormat="1" ht="126" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:47" s="25" customFormat="1" ht="126" x14ac:dyDescent="0.2">
       <c r="Q1" s="16" t="s">
         <v>29</v>
       </c>
@@ -4018,40 +4061,41 @@
       <c r="S1" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="Z1" s="49" t="s">
+      <c r="Z1" s="52" t="s">
         <v>101</v>
       </c>
-      <c r="AA1" s="49"/>
-      <c r="AB1" s="50" t="s">
+      <c r="AA1" s="52"/>
+      <c r="AB1" s="49"/>
+      <c r="AC1" s="53" t="s">
         <v>100</v>
       </c>
-      <c r="AC1" s="50"/>
-      <c r="AD1" s="50"/>
-      <c r="AE1" s="50"/>
-      <c r="AF1" s="50"/>
-      <c r="AG1" s="50"/>
-      <c r="AH1" s="50"/>
-      <c r="AI1" s="50"/>
-      <c r="AJ1" s="50"/>
-      <c r="AK1" s="50"/>
-      <c r="AL1" s="50"/>
-      <c r="AM1" s="50"/>
-      <c r="AN1" s="50"/>
-      <c r="AO1" s="50"/>
-      <c r="AP1" s="50"/>
-      <c r="AQ1" s="50"/>
-      <c r="AR1" s="50"/>
-      <c r="AS1" s="50"/>
-      <c r="AT1" s="50"/>
-    </row>
-    <row r="2" spans="2:46" ht="112" x14ac:dyDescent="0.2">
+      <c r="AD1" s="53"/>
+      <c r="AE1" s="53"/>
+      <c r="AF1" s="53"/>
+      <c r="AG1" s="53"/>
+      <c r="AH1" s="53"/>
+      <c r="AI1" s="53"/>
+      <c r="AJ1" s="53"/>
+      <c r="AK1" s="53"/>
+      <c r="AL1" s="53"/>
+      <c r="AM1" s="53"/>
+      <c r="AN1" s="53"/>
+      <c r="AO1" s="53"/>
+      <c r="AP1" s="53"/>
+      <c r="AQ1" s="53"/>
+      <c r="AR1" s="53"/>
+      <c r="AS1" s="53"/>
+      <c r="AT1" s="53"/>
+      <c r="AU1" s="53"/>
+    </row>
+    <row r="2" spans="2:47" ht="112" x14ac:dyDescent="0.2">
       <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="51" t="s">
+      <c r="D2" s="50" t="s">
         <v>163</v>
       </c>
       <c r="E2" s="41" t="s">
@@ -4123,72 +4167,75 @@
       <c r="AA2" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="AB2" s="33" t="s">
+      <c r="AB2" s="23" t="s">
+        <v>164</v>
+      </c>
+      <c r="AC2" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="AC2" s="33" t="s">
+      <c r="AD2" s="33" t="s">
         <v>79</v>
       </c>
-      <c r="AD2" s="33" t="s">
+      <c r="AE2" s="33" t="s">
         <v>80</v>
       </c>
-      <c r="AE2" s="33" t="s">
+      <c r="AF2" s="33" t="s">
         <v>81</v>
       </c>
-      <c r="AF2" s="33" t="s">
+      <c r="AG2" s="33" t="s">
         <v>85</v>
       </c>
-      <c r="AG2" s="33" t="s">
+      <c r="AH2" s="33" t="s">
         <v>86</v>
       </c>
-      <c r="AH2" s="33" t="s">
+      <c r="AI2" s="33" t="s">
         <v>87</v>
       </c>
-      <c r="AI2" s="33" t="s">
+      <c r="AJ2" s="33" t="s">
         <v>88</v>
       </c>
-      <c r="AJ2" s="33" t="s">
+      <c r="AK2" s="33" t="s">
         <v>89</v>
       </c>
-      <c r="AK2" s="33" t="s">
+      <c r="AL2" s="33" t="s">
         <v>90</v>
       </c>
-      <c r="AL2" s="33" t="s">
+      <c r="AM2" s="33" t="s">
         <v>91</v>
       </c>
-      <c r="AM2" s="33" t="s">
+      <c r="AN2" s="33" t="s">
         <v>92</v>
       </c>
-      <c r="AN2" s="33" t="s">
+      <c r="AO2" s="33" t="s">
         <v>93</v>
       </c>
-      <c r="AO2" s="33" t="s">
+      <c r="AP2" s="33" t="s">
         <v>94</v>
       </c>
-      <c r="AP2" s="33" t="s">
+      <c r="AQ2" s="33" t="s">
         <v>95</v>
       </c>
-      <c r="AQ2" s="33" t="s">
+      <c r="AR2" s="33" t="s">
         <v>96</v>
       </c>
-      <c r="AR2" s="33" t="s">
+      <c r="AS2" s="33" t="s">
         <v>97</v>
       </c>
-      <c r="AS2" s="33" t="s">
+      <c r="AT2" s="33" t="s">
         <v>98</v>
       </c>
-      <c r="AT2" s="34" t="s">
+      <c r="AU2" s="34" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="3" spans="2:46" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:47" x14ac:dyDescent="0.2">
       <c r="B3" s="14" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="27" t="s">
         <v>130</v>
       </c>
-      <c r="D3" s="52" t="s">
+      <c r="D3" s="51" t="s">
         <v>151</v>
       </c>
       <c r="E3" s="40" t="b">
@@ -4260,12 +4307,12 @@
       <c r="AA3" s="39" t="s">
         <v>151</v>
       </c>
-      <c r="AB3" s="37" t="s">
+      <c r="AB3" s="39" t="s">
+        <v>151</v>
+      </c>
+      <c r="AC3" s="37" t="s">
         <v>102</v>
       </c>
-      <c r="AC3" s="37" t="s">
-        <v>151</v>
-      </c>
       <c r="AD3" s="37" t="s">
         <v>151</v>
       </c>
@@ -4317,15 +4364,18 @@
       <c r="AT3" s="37" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="4" spans="2:46" x14ac:dyDescent="0.2">
+      <c r="AU3" s="37" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="4" spans="2:47" x14ac:dyDescent="0.2">
       <c r="B4" s="14" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="27" t="s">
         <v>131</v>
       </c>
-      <c r="D4" s="52" t="s">
+      <c r="D4" s="51" t="s">
         <v>151</v>
       </c>
       <c r="E4" s="40" t="b">
@@ -4397,12 +4447,12 @@
       <c r="AA4" s="39" t="s">
         <v>151</v>
       </c>
-      <c r="AB4" s="37" t="s">
+      <c r="AB4" s="39" t="s">
+        <v>151</v>
+      </c>
+      <c r="AC4" s="37" t="s">
         <v>102</v>
       </c>
-      <c r="AC4" s="37" t="s">
-        <v>151</v>
-      </c>
       <c r="AD4" s="37" t="s">
         <v>151</v>
       </c>
@@ -4454,15 +4504,18 @@
       <c r="AT4" s="37" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="5" spans="2:46" x14ac:dyDescent="0.2">
+      <c r="AU4" s="37" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="5" spans="2:47" x14ac:dyDescent="0.2">
       <c r="B5" s="14" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="27" t="s">
         <v>132</v>
       </c>
-      <c r="D5" s="52" t="s">
+      <c r="D5" s="51" t="s">
         <v>151</v>
       </c>
       <c r="E5" s="40" t="b">
@@ -4534,12 +4587,12 @@
       <c r="AA5" s="39" t="s">
         <v>151</v>
       </c>
-      <c r="AB5" s="37" t="s">
+      <c r="AB5" s="39" t="s">
+        <v>151</v>
+      </c>
+      <c r="AC5" s="37" t="s">
         <v>102</v>
       </c>
-      <c r="AC5" s="37" t="s">
-        <v>151</v>
-      </c>
       <c r="AD5" s="37" t="s">
         <v>151</v>
       </c>
@@ -4591,15 +4644,18 @@
       <c r="AT5" s="37" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="6" spans="2:46" x14ac:dyDescent="0.2">
+      <c r="AU5" s="37" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="6" spans="2:47" x14ac:dyDescent="0.2">
       <c r="B6" s="14" t="s">
         <v>3</v>
       </c>
       <c r="C6" s="27" t="s">
         <v>133</v>
       </c>
-      <c r="D6" s="52" t="s">
+      <c r="D6" s="51" t="s">
         <v>151</v>
       </c>
       <c r="E6" s="40" t="b">
@@ -4671,12 +4727,12 @@
       <c r="AA6" s="39" t="s">
         <v>151</v>
       </c>
-      <c r="AB6" s="37" t="s">
+      <c r="AB6" s="54" t="s">
+        <v>151</v>
+      </c>
+      <c r="AC6" s="37" t="s">
         <v>102</v>
       </c>
-      <c r="AC6" s="37" t="s">
-        <v>151</v>
-      </c>
       <c r="AD6" s="37" t="s">
         <v>151</v>
       </c>
@@ -4728,15 +4784,18 @@
       <c r="AT6" s="37" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="7" spans="2:46" x14ac:dyDescent="0.2">
+      <c r="AU6" s="37" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="7" spans="2:47" x14ac:dyDescent="0.2">
       <c r="B7" s="14" t="s">
         <v>3</v>
       </c>
       <c r="C7" s="27" t="s">
         <v>134</v>
       </c>
-      <c r="D7" s="52" t="s">
+      <c r="D7" s="51" t="s">
         <v>151</v>
       </c>
       <c r="E7" s="40" t="b">
@@ -4808,12 +4867,12 @@
       <c r="AA7" s="39" t="s">
         <v>151</v>
       </c>
-      <c r="AB7" s="37" t="s">
+      <c r="AB7" s="39" t="s">
+        <v>151</v>
+      </c>
+      <c r="AC7" s="37" t="s">
         <v>102</v>
       </c>
-      <c r="AC7" s="37" t="s">
-        <v>151</v>
-      </c>
       <c r="AD7" s="37" t="s">
         <v>151</v>
       </c>
@@ -4865,15 +4924,18 @@
       <c r="AT7" s="37" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="8" spans="2:46" x14ac:dyDescent="0.2">
+      <c r="AU7" s="37" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="8" spans="2:47" x14ac:dyDescent="0.2">
       <c r="B8" s="14" t="s">
         <v>3</v>
       </c>
       <c r="C8" s="27" t="s">
         <v>135</v>
       </c>
-      <c r="D8" s="52" t="s">
+      <c r="D8" s="51" t="s">
         <v>151</v>
       </c>
       <c r="E8" s="40" t="b">
@@ -4945,12 +5007,12 @@
       <c r="AA8" s="39" t="s">
         <v>151</v>
       </c>
-      <c r="AB8" s="37" t="s">
+      <c r="AB8" s="39" t="s">
+        <v>151</v>
+      </c>
+      <c r="AC8" s="37" t="s">
         <v>102</v>
       </c>
-      <c r="AC8" s="37" t="s">
-        <v>151</v>
-      </c>
       <c r="AD8" s="37" t="s">
         <v>151</v>
       </c>
@@ -5002,15 +5064,18 @@
       <c r="AT8" s="37" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="9" spans="2:46" x14ac:dyDescent="0.2">
+      <c r="AU8" s="37" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="9" spans="2:47" x14ac:dyDescent="0.2">
       <c r="B9" s="14" t="s">
         <v>3</v>
       </c>
       <c r="C9" s="27" t="s">
         <v>136</v>
       </c>
-      <c r="D9" s="52" t="s">
+      <c r="D9" s="51" t="s">
         <v>151</v>
       </c>
       <c r="E9" s="40" t="b">
@@ -5082,12 +5147,12 @@
       <c r="AA9" s="39" t="s">
         <v>151</v>
       </c>
-      <c r="AB9" s="37" t="s">
+      <c r="AB9" s="39" t="s">
+        <v>151</v>
+      </c>
+      <c r="AC9" s="37" t="s">
         <v>102</v>
       </c>
-      <c r="AC9" s="37" t="s">
-        <v>151</v>
-      </c>
       <c r="AD9" s="37" t="s">
         <v>151</v>
       </c>
@@ -5139,15 +5204,18 @@
       <c r="AT9" s="37" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="10" spans="2:46" x14ac:dyDescent="0.2">
+      <c r="AU9" s="37" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="10" spans="2:47" x14ac:dyDescent="0.2">
       <c r="B10" s="14" t="s">
         <v>3</v>
       </c>
       <c r="C10" s="27" t="s">
         <v>137</v>
       </c>
-      <c r="D10" s="52" t="s">
+      <c r="D10" s="51" t="s">
         <v>151</v>
       </c>
       <c r="E10" s="40" t="b">
@@ -5219,12 +5287,12 @@
       <c r="AA10" s="39" t="s">
         <v>151</v>
       </c>
-      <c r="AB10" s="37" t="s">
+      <c r="AB10" s="39" t="s">
+        <v>151</v>
+      </c>
+      <c r="AC10" s="37" t="s">
         <v>102</v>
       </c>
-      <c r="AC10" s="37" t="s">
-        <v>151</v>
-      </c>
       <c r="AD10" s="37" t="s">
         <v>151</v>
       </c>
@@ -5276,15 +5344,18 @@
       <c r="AT10" s="37" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="11" spans="2:46" x14ac:dyDescent="0.2">
+      <c r="AU10" s="37" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="11" spans="2:47" x14ac:dyDescent="0.2">
       <c r="B11" s="14" t="s">
         <v>3</v>
       </c>
       <c r="C11" s="27" t="s">
         <v>138</v>
       </c>
-      <c r="D11" s="52" t="s">
+      <c r="D11" s="51" t="s">
         <v>151</v>
       </c>
       <c r="E11" s="40" t="b">
@@ -5356,12 +5427,12 @@
       <c r="AA11" s="39" t="s">
         <v>151</v>
       </c>
-      <c r="AB11" s="37" t="s">
+      <c r="AB11" s="39" t="s">
+        <v>151</v>
+      </c>
+      <c r="AC11" s="37" t="s">
         <v>102</v>
       </c>
-      <c r="AC11" s="37" t="s">
-        <v>151</v>
-      </c>
       <c r="AD11" s="37" t="s">
         <v>151</v>
       </c>
@@ -5413,15 +5484,18 @@
       <c r="AT11" s="37" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="12" spans="2:46" x14ac:dyDescent="0.2">
+      <c r="AU11" s="37" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="12" spans="2:47" x14ac:dyDescent="0.2">
       <c r="B12" s="14" t="s">
         <v>3</v>
       </c>
       <c r="C12" s="27" t="s">
         <v>139</v>
       </c>
-      <c r="D12" s="52" t="s">
+      <c r="D12" s="51" t="s">
         <v>151</v>
       </c>
       <c r="E12" s="40" t="b">
@@ -5493,12 +5567,12 @@
       <c r="AA12" s="39" t="s">
         <v>151</v>
       </c>
-      <c r="AB12" s="37" t="s">
+      <c r="AB12" s="39" t="s">
+        <v>151</v>
+      </c>
+      <c r="AC12" s="37" t="s">
         <v>102</v>
       </c>
-      <c r="AC12" s="37" t="s">
-        <v>151</v>
-      </c>
       <c r="AD12" s="37" t="s">
         <v>151</v>
       </c>
@@ -5550,15 +5624,18 @@
       <c r="AT12" s="37" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="13" spans="2:46" x14ac:dyDescent="0.2">
+      <c r="AU12" s="37" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="13" spans="2:47" x14ac:dyDescent="0.2">
       <c r="B13" s="14" t="s">
         <v>3</v>
       </c>
       <c r="C13" s="27" t="s">
         <v>140</v>
       </c>
-      <c r="D13" s="52" t="s">
+      <c r="D13" s="51" t="s">
         <v>151</v>
       </c>
       <c r="E13" s="40" t="b">
@@ -5630,12 +5707,12 @@
       <c r="AA13" s="39" t="s">
         <v>151</v>
       </c>
-      <c r="AB13" s="37" t="s">
+      <c r="AB13" s="39" t="s">
+        <v>151</v>
+      </c>
+      <c r="AC13" s="37" t="s">
         <v>102</v>
       </c>
-      <c r="AC13" s="37" t="s">
-        <v>151</v>
-      </c>
       <c r="AD13" s="37" t="s">
         <v>151</v>
       </c>
@@ -5687,15 +5764,18 @@
       <c r="AT13" s="37" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="14" spans="2:46" x14ac:dyDescent="0.2">
+      <c r="AU13" s="37" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="14" spans="2:47" x14ac:dyDescent="0.2">
       <c r="B14" s="14" t="s">
         <v>3</v>
       </c>
       <c r="C14" s="31" t="s">
         <v>141</v>
       </c>
-      <c r="D14" s="52" t="s">
+      <c r="D14" s="51" t="s">
         <v>151</v>
       </c>
       <c r="E14" s="40" t="b">
@@ -5767,12 +5847,12 @@
       <c r="AA14" s="39" t="s">
         <v>151</v>
       </c>
-      <c r="AB14" s="37" t="s">
+      <c r="AB14" s="39" t="s">
+        <v>151</v>
+      </c>
+      <c r="AC14" s="37" t="s">
         <v>102</v>
       </c>
-      <c r="AC14" s="37" t="s">
-        <v>151</v>
-      </c>
       <c r="AD14" s="37" t="s">
         <v>151</v>
       </c>
@@ -5824,15 +5904,18 @@
       <c r="AT14" s="37" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="15" spans="2:46" x14ac:dyDescent="0.2">
+      <c r="AU14" s="37" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="15" spans="2:47" x14ac:dyDescent="0.2">
       <c r="B15" s="14" t="s">
         <v>3</v>
       </c>
       <c r="C15" s="31" t="s">
         <v>142</v>
       </c>
-      <c r="D15" s="52" t="s">
+      <c r="D15" s="51" t="s">
         <v>151</v>
       </c>
       <c r="E15" s="40" t="b">
@@ -5904,12 +5987,12 @@
       <c r="AA15" s="39" t="s">
         <v>151</v>
       </c>
-      <c r="AB15" s="37" t="s">
+      <c r="AB15" s="39" t="s">
+        <v>151</v>
+      </c>
+      <c r="AC15" s="37" t="s">
         <v>102</v>
       </c>
-      <c r="AC15" s="37" t="s">
-        <v>151</v>
-      </c>
       <c r="AD15" s="37" t="s">
         <v>151</v>
       </c>
@@ -5961,15 +6044,18 @@
       <c r="AT15" s="37" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="16" spans="2:46" x14ac:dyDescent="0.2">
+      <c r="AU15" s="37" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="16" spans="2:47" x14ac:dyDescent="0.2">
       <c r="B16" s="14" t="s">
         <v>3</v>
       </c>
       <c r="C16" s="31" t="s">
         <v>143</v>
       </c>
-      <c r="D16" s="52" t="s">
+      <c r="D16" s="51" t="s">
         <v>151</v>
       </c>
       <c r="E16" s="40" t="b">
@@ -6041,12 +6127,12 @@
       <c r="AA16" s="39" t="s">
         <v>151</v>
       </c>
-      <c r="AB16" s="37" t="s">
+      <c r="AB16" s="39" t="s">
+        <v>151</v>
+      </c>
+      <c r="AC16" s="37" t="s">
         <v>102</v>
       </c>
-      <c r="AC16" s="37" t="s">
-        <v>151</v>
-      </c>
       <c r="AD16" s="37" t="s">
         <v>151</v>
       </c>
@@ -6098,15 +6184,18 @@
       <c r="AT16" s="37" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="17" spans="2:46" x14ac:dyDescent="0.2">
+      <c r="AU16" s="37" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="17" spans="2:47" x14ac:dyDescent="0.2">
       <c r="B17" s="14" t="s">
         <v>3</v>
       </c>
       <c r="C17" s="31" t="s">
         <v>144</v>
       </c>
-      <c r="D17" s="52" t="s">
+      <c r="D17" s="51" t="s">
         <v>151</v>
       </c>
       <c r="E17" s="40" t="b">
@@ -6178,12 +6267,12 @@
       <c r="AA17" s="39" t="s">
         <v>151</v>
       </c>
-      <c r="AB17" s="37" t="s">
+      <c r="AB17" s="39" t="s">
+        <v>151</v>
+      </c>
+      <c r="AC17" s="37" t="s">
         <v>102</v>
       </c>
-      <c r="AC17" s="37" t="s">
-        <v>151</v>
-      </c>
       <c r="AD17" s="37" t="s">
         <v>151</v>
       </c>
@@ -6235,15 +6324,18 @@
       <c r="AT17" s="37" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="18" spans="2:46" x14ac:dyDescent="0.2">
+      <c r="AU17" s="37" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="18" spans="2:47" x14ac:dyDescent="0.2">
       <c r="B18" s="14" t="s">
         <v>3</v>
       </c>
       <c r="C18" s="31" t="s">
         <v>145</v>
       </c>
-      <c r="D18" s="52" t="s">
+      <c r="D18" s="51" t="s">
         <v>151</v>
       </c>
       <c r="E18" s="40" t="b">
@@ -6315,12 +6407,12 @@
       <c r="AA18" s="39" t="s">
         <v>151</v>
       </c>
-      <c r="AB18" s="37" t="s">
+      <c r="AB18" s="39" t="s">
+        <v>151</v>
+      </c>
+      <c r="AC18" s="37" t="s">
         <v>102</v>
       </c>
-      <c r="AC18" s="37" t="s">
-        <v>151</v>
-      </c>
       <c r="AD18" s="37" t="s">
         <v>151</v>
       </c>
@@ -6372,15 +6464,18 @@
       <c r="AT18" s="37" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="19" spans="2:46" x14ac:dyDescent="0.2">
+      <c r="AU18" s="37" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="19" spans="2:47" x14ac:dyDescent="0.2">
       <c r="B19" s="14" t="s">
         <v>3</v>
       </c>
       <c r="C19" s="31" t="s">
         <v>146</v>
       </c>
-      <c r="D19" s="52" t="s">
+      <c r="D19" s="51" t="s">
         <v>151</v>
       </c>
       <c r="E19" s="40" t="b">
@@ -6452,12 +6547,12 @@
       <c r="AA19" s="39" t="s">
         <v>151</v>
       </c>
-      <c r="AB19" s="37" t="s">
+      <c r="AB19" s="39" t="s">
+        <v>151</v>
+      </c>
+      <c r="AC19" s="37" t="s">
         <v>102</v>
       </c>
-      <c r="AC19" s="37" t="s">
-        <v>151</v>
-      </c>
       <c r="AD19" s="37" t="s">
         <v>151</v>
       </c>
@@ -6509,15 +6604,18 @@
       <c r="AT19" s="37" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="20" spans="2:46" x14ac:dyDescent="0.2">
+      <c r="AU19" s="37" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="20" spans="2:47" x14ac:dyDescent="0.2">
       <c r="B20" s="14" t="s">
         <v>3</v>
       </c>
       <c r="C20" s="31" t="s">
         <v>147</v>
       </c>
-      <c r="D20" s="52" t="s">
+      <c r="D20" s="51" t="s">
         <v>151</v>
       </c>
       <c r="E20" s="40" t="b">
@@ -6589,12 +6687,12 @@
       <c r="AA20" s="39" t="s">
         <v>151</v>
       </c>
-      <c r="AB20" s="37" t="s">
+      <c r="AB20" s="39" t="s">
+        <v>151</v>
+      </c>
+      <c r="AC20" s="37" t="s">
         <v>102</v>
       </c>
-      <c r="AC20" s="37" t="s">
-        <v>151</v>
-      </c>
       <c r="AD20" s="37" t="s">
         <v>151</v>
       </c>
@@ -6646,15 +6744,18 @@
       <c r="AT20" s="37" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="21" spans="2:46" x14ac:dyDescent="0.2">
+      <c r="AU20" s="37" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="21" spans="2:47" x14ac:dyDescent="0.2">
       <c r="B21" s="14" t="s">
         <v>3</v>
       </c>
       <c r="C21" s="31" t="s">
         <v>148</v>
       </c>
-      <c r="D21" s="52" t="s">
+      <c r="D21" s="51" t="s">
         <v>151</v>
       </c>
       <c r="E21" s="40" t="b">
@@ -6726,12 +6827,12 @@
       <c r="AA21" s="39" t="s">
         <v>151</v>
       </c>
-      <c r="AB21" s="37" t="s">
+      <c r="AB21" s="39" t="s">
+        <v>151</v>
+      </c>
+      <c r="AC21" s="37" t="s">
         <v>102</v>
       </c>
-      <c r="AC21" s="37" t="s">
-        <v>151</v>
-      </c>
       <c r="AD21" s="37" t="s">
         <v>151</v>
       </c>
@@ -6783,15 +6884,18 @@
       <c r="AT21" s="37" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="22" spans="2:46" x14ac:dyDescent="0.2">
+      <c r="AU21" s="37" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="22" spans="2:47" x14ac:dyDescent="0.2">
       <c r="B22" s="14" t="s">
         <v>3</v>
       </c>
       <c r="C22" s="31" t="s">
         <v>149</v>
       </c>
-      <c r="D22" s="52" t="s">
+      <c r="D22" s="51" t="s">
         <v>151</v>
       </c>
       <c r="E22" s="40" t="b">
@@ -6863,12 +6967,12 @@
       <c r="AA22" s="39" t="s">
         <v>151</v>
       </c>
-      <c r="AB22" s="37" t="s">
+      <c r="AB22" s="39" t="s">
+        <v>151</v>
+      </c>
+      <c r="AC22" s="37" t="s">
         <v>102</v>
       </c>
-      <c r="AC22" s="37" t="s">
-        <v>151</v>
-      </c>
       <c r="AD22" s="37" t="s">
         <v>151</v>
       </c>
@@ -6920,15 +7024,18 @@
       <c r="AT22" s="37" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="23" spans="2:46" x14ac:dyDescent="0.2">
+      <c r="AU22" s="37" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="23" spans="2:47" x14ac:dyDescent="0.2">
       <c r="B23" s="14" t="s">
         <v>3</v>
       </c>
       <c r="C23" s="38" t="s">
         <v>150</v>
       </c>
-      <c r="D23" s="52" t="s">
+      <c r="D23" s="51" t="s">
         <v>151</v>
       </c>
       <c r="E23" s="40" t="b">
@@ -7000,12 +7107,12 @@
       <c r="AA23" s="39" t="s">
         <v>151</v>
       </c>
-      <c r="AB23" s="37" t="s">
+      <c r="AB23" s="39" t="s">
+        <v>151</v>
+      </c>
+      <c r="AC23" s="37" t="s">
         <v>102</v>
       </c>
-      <c r="AC23" s="37" t="s">
-        <v>151</v>
-      </c>
       <c r="AD23" s="37" t="s">
         <v>151</v>
       </c>
@@ -7055,13 +7162,16 @@
         <v>151</v>
       </c>
       <c r="AT23" s="37" t="s">
+        <v>151</v>
+      </c>
+      <c r="AU23" s="37" t="s">
         <v>151</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="Z1:AA1"/>
-    <mergeCell ref="AB1:AT1"/>
+    <mergeCell ref="AC1:AU1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -8100,127 +8210,127 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="I5:N13 I15:N25 I38:N44">
-    <cfRule type="expression" dxfId="27" priority="27">
+    <cfRule type="expression" dxfId="25" priority="27">
       <formula>$B5&lt;&gt;"&lt;Definition&gt;"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E5:H13 F24:H24 E15:H23 E25:H25 E38:H44">
-    <cfRule type="expression" dxfId="26" priority="26">
+    <cfRule type="expression" dxfId="24" priority="26">
       <formula>$B5&lt;&gt;"&lt;Item&gt;"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5:D13 D15 D38:D44">
-    <cfRule type="expression" dxfId="25" priority="25">
+    <cfRule type="expression" dxfId="23" priority="25">
       <formula>$B5&lt;&gt;"&lt;Param&gt;"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16:D25">
-    <cfRule type="expression" dxfId="24" priority="22">
+    <cfRule type="expression" dxfId="22" priority="22">
       <formula>$B16&lt;&gt;"&lt;Param&gt;"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B24:D24 F24:L24 B5:N13 B15:L23 B25:L25 M15:N25 B38:N44">
-    <cfRule type="expression" dxfId="23" priority="21">
+    <cfRule type="expression" dxfId="21" priority="21">
       <formula>$B5="&lt;Definition&gt;"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E24">
-    <cfRule type="expression" dxfId="22" priority="20">
+    <cfRule type="expression" dxfId="20" priority="20">
       <formula>$B24&lt;&gt;"&lt;Item&gt;"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E24">
-    <cfRule type="expression" dxfId="21" priority="19">
+    <cfRule type="expression" dxfId="19" priority="19">
       <formula>$B24="&lt;Definition&gt;"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I14:N14">
-    <cfRule type="expression" dxfId="20" priority="18">
+    <cfRule type="expression" dxfId="18" priority="18">
       <formula>$B14&lt;&gt;"&lt;Definition&gt;"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E14:H14">
-    <cfRule type="expression" dxfId="19" priority="17">
+    <cfRule type="expression" dxfId="17" priority="17">
       <formula>$B14&lt;&gt;"&lt;Item&gt;"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D14">
-    <cfRule type="expression" dxfId="18" priority="16">
+    <cfRule type="expression" dxfId="16" priority="16">
       <formula>$B14&lt;&gt;"&lt;Param&gt;"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B14:N14">
-    <cfRule type="expression" dxfId="17" priority="15">
+    <cfRule type="expression" dxfId="15" priority="15">
       <formula>$B14="&lt;Definition&gt;"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I26:N34 I37:N37">
-    <cfRule type="expression" dxfId="16" priority="14">
+    <cfRule type="expression" dxfId="14" priority="14">
       <formula>$B26&lt;&gt;"&lt;Definition&gt;"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F34:H34 E26:H33 E37:H37">
-    <cfRule type="expression" dxfId="15" priority="13">
+    <cfRule type="expression" dxfId="13" priority="13">
       <formula>$B26&lt;&gt;"&lt;Item&gt;"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D26:D34 D37">
-    <cfRule type="expression" dxfId="14" priority="12">
+    <cfRule type="expression" dxfId="12" priority="12">
       <formula>$B26&lt;&gt;"&lt;Param&gt;"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B34:D34 F34:L34 B26:L33 M26:N34 B37:N37">
-    <cfRule type="expression" dxfId="13" priority="11">
+    <cfRule type="expression" dxfId="11" priority="11">
       <formula>$B26="&lt;Definition&gt;"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E34">
-    <cfRule type="expression" dxfId="12" priority="10">
+    <cfRule type="expression" dxfId="10" priority="10">
       <formula>$B34&lt;&gt;"&lt;Item&gt;"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E34">
-    <cfRule type="expression" dxfId="11" priority="9">
+    <cfRule type="expression" dxfId="9" priority="9">
       <formula>$B34="&lt;Definition&gt;"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I35:N35">
-    <cfRule type="expression" dxfId="10" priority="8">
+    <cfRule type="expression" dxfId="8" priority="8">
       <formula>$B35&lt;&gt;"&lt;Definition&gt;"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E35:H35">
-    <cfRule type="expression" dxfId="9" priority="7">
+    <cfRule type="expression" dxfId="7" priority="7">
       <formula>$B35&lt;&gt;"&lt;Item&gt;"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D35">
-    <cfRule type="expression" dxfId="8" priority="6">
+    <cfRule type="expression" dxfId="6" priority="6">
       <formula>$B35&lt;&gt;"&lt;Param&gt;"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B35:N35">
-    <cfRule type="expression" dxfId="7" priority="5">
+    <cfRule type="expression" dxfId="5" priority="5">
       <formula>$B35="&lt;Definition&gt;"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I36:N36">
-    <cfRule type="expression" dxfId="6" priority="4">
+    <cfRule type="expression" dxfId="4" priority="4">
       <formula>$B36&lt;&gt;"&lt;Definition&gt;"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E36:H36">
-    <cfRule type="expression" dxfId="5" priority="3">
+    <cfRule type="expression" dxfId="3" priority="3">
       <formula>$B36&lt;&gt;"&lt;Item&gt;"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D36">
-    <cfRule type="expression" dxfId="4" priority="2">
+    <cfRule type="expression" dxfId="2" priority="2">
       <formula>$B36&lt;&gt;"&lt;Param&gt;"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B36:N36">
-    <cfRule type="expression" dxfId="3" priority="1">
+    <cfRule type="expression" dxfId="1" priority="1">
       <formula>$B36="&lt;Definition&gt;"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Docs/Content/HungryDragonContent_Offers.xlsx
+++ b/Docs/Content/HungryDragonContent_Offers.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10410"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aortin/Documents/UBI/FD/Client/Docs/Content/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hsemroud\Documents\Dragon\Docs\Content\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{F9C48722-F3B0-A84B-B401-9FBFABCE125C}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38400" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38400" yWindow="0" windowWidth="38400" windowHeight="21600"/>
   </bookViews>
   <sheets>
     <sheet name="Packs" sheetId="3" r:id="rId1"/>
     <sheet name="OLD" sheetId="1" r:id="rId2"/>
     <sheet name="ValidationData" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913" calcMode="manual"/>
+  <calcPr calcId="162913" calcOnSave="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1083" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1391" uniqueCount="198">
   <si>
     <t>OFFER PACKS DEFINITIONS</t>
   </si>
@@ -524,12 +523,111 @@
   </si>
   <si>
     <t>[durationMinutes]</t>
+  </si>
+  <si>
+    <t>intermediatePackPet</t>
+  </si>
+  <si>
+    <t>currencyCatchupPack1</t>
+  </si>
+  <si>
+    <t>valueGatchaPack</t>
+  </si>
+  <si>
+    <t>valueCurrencyPack</t>
+  </si>
+  <si>
+    <t>smallGatchaPack</t>
+  </si>
+  <si>
+    <t>smallCurrencyPack</t>
+  </si>
+  <si>
+    <t>megaGatchaPack</t>
+  </si>
+  <si>
+    <t>currencyCatchupPack2</t>
+  </si>
+  <si>
+    <t>megaHCPackClassic</t>
+  </si>
+  <si>
+    <t>0.8</t>
+  </si>
+  <si>
+    <t>0.6</t>
+  </si>
+  <si>
+    <t>0.5</t>
+  </si>
+  <si>
+    <t>0.7</t>
+  </si>
+  <si>
+    <t>0.9</t>
+  </si>
+  <si>
+    <t>com.ubisoft.hungrydragon.intermediatepackpet</t>
+  </si>
+  <si>
+    <t>com.ubisoft.hungrydragon.currencycatchuppack1</t>
+  </si>
+  <si>
+    <t>com.ubisoft.hungrydragon.valuegatchapack</t>
+  </si>
+  <si>
+    <t>com.ubisoft.hungrydragon.valuecurrencypack</t>
+  </si>
+  <si>
+    <t>com.ubisoft.hungrydragon.smallgatchapack</t>
+  </si>
+  <si>
+    <t>com.ubisoft.hungrydragon.smallcurrencypack</t>
+  </si>
+  <si>
+    <t>com.ubisoft.hungrydragon.megagatchapack</t>
+  </si>
+  <si>
+    <t>com.ubisoft.hungrydragon.currencycatchuppack2</t>
+  </si>
+  <si>
+    <t>com.ubisoft.hungrydragon.megahcpackclassic</t>
+  </si>
+  <si>
+    <t>pet_34</t>
+  </si>
+  <si>
+    <t>egg_offer</t>
+  </si>
+  <si>
+    <t>nonPayer</t>
+  </si>
+  <si>
+    <t>payer</t>
+  </si>
+  <si>
+    <t>30:999</t>
+  </si>
+  <si>
+    <t>38:999</t>
+  </si>
+  <si>
+    <t>44:999</t>
+  </si>
+  <si>
+    <t>53:999</t>
+  </si>
+  <si>
+    <t>69:999</t>
+  </si>
+  <si>
+    <t>TID_OFFER_PACK_INTERMEDIATE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -612,7 +710,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="23">
+  <fills count="25">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -745,8 +843,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="13">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -896,11 +1006,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1047,13 +1168,46 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="23" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="23" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1061,45 +1215,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="91">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
     <dxf>
       <font>
         <b/>
@@ -2663,6 +2778,44 @@
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
         <right style="thin">
@@ -3060,7 +3213,6 @@
         <sz val="11"/>
         <color auto="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -3074,42 +3226,6 @@
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
         <right/>
-        <top/>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFF9E6"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
         <top/>
         <bottom style="thin">
           <color auto="1"/>
@@ -3165,50 +3281,13 @@
         <sz val="11"/>
         <color auto="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
-          <bgColor rgb="FFFFF2CC"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top/>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFF2CC"/>
+          <bgColor rgb="FFFFF9E6"/>
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -3272,14 +3351,13 @@
         <sz val="11"/>
         <color auto="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
-          <bgColor rgb="FFFFEDB3"/>
+          <bgColor rgb="FFFFF2CC"/>
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -3308,14 +3386,13 @@
         <sz val="11"/>
         <color auto="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
-          <bgColor rgb="FFFFEDB3"/>
+          <bgColor rgb="FFFFF2CC"/>
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -3379,7 +3456,76 @@
         <sz val="11"/>
         <color auto="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFEDB3"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFEDB3"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -3417,7 +3563,6 @@
         <sz val="11"/>
         <color auto="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -3492,7 +3637,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <fill>
@@ -3660,77 +3804,77 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="offerPacksDefinitions" displayName="offerPacksDefinitions" ref="B2:AU23" totalsRowShown="0" headerRowDxfId="90" headerRowBorderDxfId="89" tableBorderDxfId="88">
-  <autoFilter ref="B2:AU23" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="offerPacksDefinitions" displayName="offerPacksDefinitions" ref="B2:AU32" totalsRowShown="0" headerRowDxfId="90" headerRowBorderDxfId="89" tableBorderDxfId="88">
+  <autoFilter ref="B2:AU32"/>
   <tableColumns count="46">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="{offerPacksDefinitions}" dataDxfId="87"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="[sku]" dataDxfId="86"/>
-    <tableColumn id="45" xr3:uid="{44CF430E-7666-B44F-8C90-8B9AFA5061FC}" name="[uniqueId]" dataDxfId="85"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="[enabled]" dataDxfId="84"/>
-    <tableColumn id="39" xr3:uid="{BDE36CE7-C3EE-CF46-9E65-256BF79847A1}" name="[purchaseLimit]" dataDxfId="83"/>
-    <tableColumn id="38" xr3:uid="{549D4FA4-F5FE-7E41-8EE1-D5AC64E6CC50}" name="[item1Featured]" dataDxfId="82"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="[item1Type]" dataDxfId="81"/>
-    <tableColumn id="37" xr3:uid="{5FB302D5-DFC3-434A-B077-2D1D2138B668}" name="[item1Amount]" dataDxfId="80"/>
-    <tableColumn id="40" xr3:uid="{6455B275-094E-2345-9FD4-2C5DC35C6A9F}" name="[item1Sku]" dataDxfId="79"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="[item2Type]" dataDxfId="78"/>
-    <tableColumn id="41" xr3:uid="{ED68C080-ED0B-9E43-B505-291AD4921579}" name="[item2Amount]" dataDxfId="77"/>
-    <tableColumn id="42" xr3:uid="{BFF33F2B-41F5-5A4C-93AB-DEB983FA7B88}" name="[item2Sku]" dataDxfId="76"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="[item3Type]" dataDxfId="75"/>
-    <tableColumn id="43" xr3:uid="{3E8BF91C-560F-7741-8332-6A6D5E4E61A3}" name="[item3Amount]" dataDxfId="74"/>
-    <tableColumn id="44" xr3:uid="{4BD3AFA7-A608-A344-82A9-163AFF411CC3}" name="[item3Sku]" dataDxfId="73"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="[order]" dataDxfId="72"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="[refPrice]" dataDxfId="71"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="[discount]" dataDxfId="70"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="[iapSku]" dataDxfId="69"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="[tidName]" dataDxfId="68"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="[featured]" dataDxfId="67"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="[maxViews]" dataDxfId="66"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="[zone]" dataDxfId="65"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="[frequency]" dataDxfId="64"/>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="[startDate]" dataDxfId="63"/>
-    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="[endDate]" dataDxfId="62"/>
-    <tableColumn id="46" xr3:uid="{F0E8F3EC-0A78-E14A-AE70-991D0323870C}" name="[durationMinutes]" dataDxfId="0"/>
-    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="[minAppVersion]" dataDxfId="61"/>
-    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="[countriesAllowed]" dataDxfId="60"/>
-    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0000-000014000000}" name="[countriesExcluded]" dataDxfId="59"/>
-    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" name="[gamesPlayed]" dataDxfId="58"/>
-    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0000-000016000000}" name="[payerType]" dataDxfId="57"/>
-    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0000-000017000000}" name="[minSpent]" dataDxfId="56"/>
-    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0000-000018000000}" name="[dragonUnlocked]" dataDxfId="55"/>
-    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0000-000019000000}" name="[dragonOwned]" dataDxfId="54"/>
-    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0000-00001A000000}" name="[dragonNotOwned]" dataDxfId="53"/>
-    <tableColumn id="27" xr3:uid="{00000000-0010-0000-0000-00001B000000}" name="[scBalanceRange]" dataDxfId="52"/>
-    <tableColumn id="28" xr3:uid="{00000000-0010-0000-0000-00001C000000}" name="[hcBalanceRange]" dataDxfId="51"/>
-    <tableColumn id="29" xr3:uid="{00000000-0010-0000-0000-00001D000000}" name="[openedEggs]" dataDxfId="50"/>
-    <tableColumn id="30" xr3:uid="{00000000-0010-0000-0000-00001E000000}" name="[petsOwnedCount]" dataDxfId="49"/>
-    <tableColumn id="31" xr3:uid="{00000000-0010-0000-0000-00001F000000}" name="[petsOwned]" dataDxfId="48"/>
-    <tableColumn id="32" xr3:uid="{00000000-0010-0000-0000-000020000000}" name="[petsNotOwned]" dataDxfId="47"/>
-    <tableColumn id="33" xr3:uid="{00000000-0010-0000-0000-000021000000}" name="[progressionRange]" dataDxfId="46"/>
-    <tableColumn id="34" xr3:uid="{00000000-0010-0000-0000-000022000000}" name="[skinsUnlocked]" dataDxfId="45"/>
-    <tableColumn id="35" xr3:uid="{00000000-0010-0000-0000-000023000000}" name="[skinsOwned]" dataDxfId="44"/>
-    <tableColumn id="36" xr3:uid="{00000000-0010-0000-0000-000024000000}" name="[skinsNotOwned]" dataDxfId="43"/>
+    <tableColumn id="1" name="{offerPacksDefinitions}" dataDxfId="87"/>
+    <tableColumn id="2" name="[sku]" dataDxfId="86"/>
+    <tableColumn id="45" name="[uniqueId]" dataDxfId="85"/>
+    <tableColumn id="3" name="[enabled]" dataDxfId="84"/>
+    <tableColumn id="39" name="[purchaseLimit]" dataDxfId="83"/>
+    <tableColumn id="38" name="[item1Featured]" dataDxfId="82"/>
+    <tableColumn id="4" name="[item1Type]" dataDxfId="81"/>
+    <tableColumn id="37" name="[item1Amount]" dataDxfId="80"/>
+    <tableColumn id="40" name="[item1Sku]" dataDxfId="79"/>
+    <tableColumn id="5" name="[item2Type]" dataDxfId="78"/>
+    <tableColumn id="41" name="[item2Amount]" dataDxfId="77"/>
+    <tableColumn id="42" name="[item2Sku]" dataDxfId="76"/>
+    <tableColumn id="6" name="[item3Type]" dataDxfId="75"/>
+    <tableColumn id="43" name="[item3Amount]" dataDxfId="74"/>
+    <tableColumn id="44" name="[item3Sku]" dataDxfId="73"/>
+    <tableColumn id="7" name="[order]" dataDxfId="72"/>
+    <tableColumn id="8" name="[refPrice]" dataDxfId="71"/>
+    <tableColumn id="9" name="[discount]" dataDxfId="70"/>
+    <tableColumn id="10" name="[iapSku]" dataDxfId="69"/>
+    <tableColumn id="11" name="[tidName]" dataDxfId="68"/>
+    <tableColumn id="12" name="[featured]" dataDxfId="67"/>
+    <tableColumn id="13" name="[maxViews]" dataDxfId="66"/>
+    <tableColumn id="14" name="[zone]" dataDxfId="65"/>
+    <tableColumn id="15" name="[frequency]" dataDxfId="64"/>
+    <tableColumn id="16" name="[startDate]" dataDxfId="63"/>
+    <tableColumn id="17" name="[endDate]" dataDxfId="62"/>
+    <tableColumn id="46" name="[durationMinutes]" dataDxfId="61"/>
+    <tableColumn id="18" name="[minAppVersion]" dataDxfId="60"/>
+    <tableColumn id="19" name="[countriesAllowed]" dataDxfId="59"/>
+    <tableColumn id="20" name="[countriesExcluded]" dataDxfId="58"/>
+    <tableColumn id="21" name="[gamesPlayed]" dataDxfId="57"/>
+    <tableColumn id="22" name="[payerType]" dataDxfId="56"/>
+    <tableColumn id="23" name="[minSpent]" dataDxfId="55"/>
+    <tableColumn id="24" name="[dragonUnlocked]" dataDxfId="54"/>
+    <tableColumn id="25" name="[dragonOwned]" dataDxfId="53"/>
+    <tableColumn id="26" name="[dragonNotOwned]" dataDxfId="52"/>
+    <tableColumn id="27" name="[scBalanceRange]" dataDxfId="51"/>
+    <tableColumn id="28" name="[hcBalanceRange]" dataDxfId="50"/>
+    <tableColumn id="29" name="[openedEggs]" dataDxfId="49"/>
+    <tableColumn id="30" name="[petsOwnedCount]" dataDxfId="48"/>
+    <tableColumn id="31" name="[petsOwned]" dataDxfId="47"/>
+    <tableColumn id="32" name="[petsNotOwned]" dataDxfId="46"/>
+    <tableColumn id="33" name="[progressionRange]" dataDxfId="45"/>
+    <tableColumn id="34" name="[skinsUnlocked]" dataDxfId="44"/>
+    <tableColumn id="35" name="[skinsOwned]" dataDxfId="43"/>
+    <tableColumn id="36" name="[skinsNotOwned]" dataDxfId="42"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="offerPacksDefinitions_OLD" displayName="offerPacksDefinitions_OLD" ref="B4:N44" totalsRowShown="0" headerRowDxfId="42" dataDxfId="40" headerRowBorderDxfId="41" tableBorderDxfId="39">
-  <autoFilter ref="B4:N44" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="offerPacksDefinitions_OLD" displayName="offerPacksDefinitions_OLD" ref="B4:N44" totalsRowShown="0" headerRowDxfId="41" dataDxfId="39" headerRowBorderDxfId="40" tableBorderDxfId="38">
+  <autoFilter ref="B4:N44"/>
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="offerPacksDefinitions_OLD" dataDxfId="38"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="[sku]" dataDxfId="37"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0200-00000F000000}" name="[paramValue]" dataDxfId="36"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0200-000007000000}" name="[itemType]" dataDxfId="35"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0200-000008000000}" name="[itemAmount]" dataDxfId="34"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0200-000009000000}" name="[itemSku]" dataDxfId="33"/>
-    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0200-000017000000}" name="[itemFeatured]" dataDxfId="32"/>
-    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0200-000016000000}" name="[minAppVersion]" dataDxfId="31"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="[order]" dataDxfId="30"/>
-    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0200-000018000000}" name="[refPrice]" dataDxfId="29"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="[discount]" dataDxfId="28"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="[iapSku]" dataDxfId="27"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="[tidName]" dataDxfId="26"/>
+    <tableColumn id="1" name="offerPacksDefinitions_OLD" dataDxfId="37"/>
+    <tableColumn id="2" name="[sku]" dataDxfId="36"/>
+    <tableColumn id="15" name="[paramValue]" dataDxfId="35"/>
+    <tableColumn id="7" name="[itemType]" dataDxfId="34"/>
+    <tableColumn id="8" name="[itemAmount]" dataDxfId="33"/>
+    <tableColumn id="9" name="[itemSku]" dataDxfId="32"/>
+    <tableColumn id="23" name="[itemFeatured]" dataDxfId="31"/>
+    <tableColumn id="22" name="[minAppVersion]" dataDxfId="30"/>
+    <tableColumn id="4" name="[order]" dataDxfId="29"/>
+    <tableColumn id="24" name="[refPrice]" dataDxfId="28"/>
+    <tableColumn id="6" name="[discount]" dataDxfId="27"/>
+    <tableColumn id="3" name="[iapSku]" dataDxfId="26"/>
+    <tableColumn id="5" name="[tidName]" dataDxfId="25"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4032,26 +4176,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:AU23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:AU32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="AB1" sqref="AB1"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4" customWidth="1"/>
-    <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="27.83203125" customWidth="1"/>
-    <col min="4" max="16" width="5.83203125" customWidth="1"/>
-    <col min="17" max="19" width="14.83203125" customWidth="1"/>
-    <col min="20" max="20" width="40.83203125" customWidth="1"/>
-    <col min="21" max="21" width="25.83203125" customWidth="1"/>
-    <col min="22" max="47" width="5.83203125" customWidth="1"/>
+    <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="9" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9" bestFit="1" customWidth="1"/>
+    <col min="11" max="16" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.75" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.25" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="39.75" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="19.875" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="13.625" bestFit="1" customWidth="1"/>
+    <col min="25" max="32" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="8.25" bestFit="1" customWidth="1"/>
+    <col min="34" max="47" width="7.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:47" s="25" customFormat="1" ht="126" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:47" s="25" customFormat="1" ht="115.5" x14ac:dyDescent="0.25">
       <c r="Q1" s="16" t="s">
         <v>29</v>
       </c>
@@ -4061,34 +4213,34 @@
       <c r="S1" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="Z1" s="52" t="s">
+      <c r="Z1" s="53" t="s">
         <v>101</v>
       </c>
-      <c r="AA1" s="52"/>
+      <c r="AA1" s="53"/>
       <c r="AB1" s="49"/>
-      <c r="AC1" s="53" t="s">
+      <c r="AC1" s="54" t="s">
         <v>100</v>
       </c>
-      <c r="AD1" s="53"/>
-      <c r="AE1" s="53"/>
-      <c r="AF1" s="53"/>
-      <c r="AG1" s="53"/>
-      <c r="AH1" s="53"/>
-      <c r="AI1" s="53"/>
-      <c r="AJ1" s="53"/>
-      <c r="AK1" s="53"/>
-      <c r="AL1" s="53"/>
-      <c r="AM1" s="53"/>
-      <c r="AN1" s="53"/>
-      <c r="AO1" s="53"/>
-      <c r="AP1" s="53"/>
-      <c r="AQ1" s="53"/>
-      <c r="AR1" s="53"/>
-      <c r="AS1" s="53"/>
-      <c r="AT1" s="53"/>
-      <c r="AU1" s="53"/>
-    </row>
-    <row r="2" spans="2:47" ht="112" x14ac:dyDescent="0.2">
+      <c r="AD1" s="54"/>
+      <c r="AE1" s="54"/>
+      <c r="AF1" s="54"/>
+      <c r="AG1" s="54"/>
+      <c r="AH1" s="54"/>
+      <c r="AI1" s="54"/>
+      <c r="AJ1" s="54"/>
+      <c r="AK1" s="54"/>
+      <c r="AL1" s="54"/>
+      <c r="AM1" s="54"/>
+      <c r="AN1" s="54"/>
+      <c r="AO1" s="54"/>
+      <c r="AP1" s="54"/>
+      <c r="AQ1" s="54"/>
+      <c r="AR1" s="54"/>
+      <c r="AS1" s="54"/>
+      <c r="AT1" s="54"/>
+      <c r="AU1" s="54"/>
+    </row>
+    <row r="2" spans="2:47" ht="114.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
@@ -4228,7 +4380,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="3" spans="2:47" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:47" x14ac:dyDescent="0.25">
       <c r="B3" s="14" t="s">
         <v>3</v>
       </c>
@@ -4296,7 +4448,7 @@
         <v>151</v>
       </c>
       <c r="X3" s="36" t="s">
-        <v>151</v>
+        <v>26</v>
       </c>
       <c r="Y3" s="36" t="s">
         <v>151</v>
@@ -4368,12 +4520,12 @@
         <v>151</v>
       </c>
     </row>
-    <row r="4" spans="2:47" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:47" x14ac:dyDescent="0.25">
       <c r="B4" s="14" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="27" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D4" s="51" t="s">
         <v>151</v>
@@ -4418,13 +4570,13 @@
         <v>0</v>
       </c>
       <c r="R4" s="29" t="s">
-        <v>99</v>
+        <v>126</v>
       </c>
       <c r="S4" s="30">
         <v>0.5</v>
       </c>
       <c r="T4" s="26" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="U4" s="22" t="s">
         <v>44</v>
@@ -4436,7 +4588,7 @@
         <v>151</v>
       </c>
       <c r="X4" s="36" t="s">
-        <v>151</v>
+        <v>26</v>
       </c>
       <c r="Y4" s="36" t="s">
         <v>151</v>
@@ -4508,12 +4660,12 @@
         <v>151</v>
       </c>
     </row>
-    <row r="5" spans="2:47" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:47" x14ac:dyDescent="0.25">
       <c r="B5" s="14" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="27" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D5" s="51" t="s">
         <v>151</v>
@@ -4558,13 +4710,13 @@
         <v>0</v>
       </c>
       <c r="R5" s="29" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="S5" s="30">
         <v>0.5</v>
       </c>
       <c r="T5" s="26" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="U5" s="22" t="s">
         <v>44</v>
@@ -4576,7 +4728,7 @@
         <v>151</v>
       </c>
       <c r="X5" s="36" t="s">
-        <v>151</v>
+        <v>26</v>
       </c>
       <c r="Y5" s="36" t="s">
         <v>151</v>
@@ -4587,7 +4739,7 @@
       <c r="AA5" s="39" t="s">
         <v>151</v>
       </c>
-      <c r="AB5" s="39" t="s">
+      <c r="AB5" s="52" t="s">
         <v>151</v>
       </c>
       <c r="AC5" s="37" t="s">
@@ -4648,12 +4800,12 @@
         <v>151</v>
       </c>
     </row>
-    <row r="6" spans="2:47" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:47" x14ac:dyDescent="0.25">
       <c r="B6" s="14" t="s">
         <v>3</v>
       </c>
       <c r="C6" s="27" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D6" s="51" t="s">
         <v>151</v>
@@ -4698,13 +4850,13 @@
         <v>0</v>
       </c>
       <c r="R6" s="29" t="s">
-        <v>125</v>
+        <v>99</v>
       </c>
       <c r="S6" s="30">
         <v>0.5</v>
       </c>
       <c r="T6" s="26" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="U6" s="22" t="s">
         <v>44</v>
@@ -4716,7 +4868,7 @@
         <v>151</v>
       </c>
       <c r="X6" s="36" t="s">
-        <v>151</v>
+        <v>26</v>
       </c>
       <c r="Y6" s="36" t="s">
         <v>151</v>
@@ -4727,7 +4879,7 @@
       <c r="AA6" s="39" t="s">
         <v>151</v>
       </c>
-      <c r="AB6" s="54" t="s">
+      <c r="AB6" s="39" t="s">
         <v>151</v>
       </c>
       <c r="AC6" s="37" t="s">
@@ -4788,12 +4940,12 @@
         <v>151</v>
       </c>
     </row>
-    <row r="7" spans="2:47" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:47" x14ac:dyDescent="0.25">
       <c r="B7" s="14" t="s">
         <v>3</v>
       </c>
       <c r="C7" s="27" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D7" s="51" t="s">
         <v>151</v>
@@ -4838,13 +4990,13 @@
         <v>0</v>
       </c>
       <c r="R7" s="29" t="s">
-        <v>99</v>
+        <v>126</v>
       </c>
       <c r="S7" s="30">
         <v>0.5</v>
       </c>
       <c r="T7" s="26" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="U7" s="22" t="s">
         <v>44</v>
@@ -4856,7 +5008,7 @@
         <v>151</v>
       </c>
       <c r="X7" s="36" t="s">
-        <v>151</v>
+        <v>26</v>
       </c>
       <c r="Y7" s="36" t="s">
         <v>151</v>
@@ -4928,12 +5080,12 @@
         <v>151</v>
       </c>
     </row>
-    <row r="8" spans="2:47" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:47" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
         <v>3</v>
       </c>
       <c r="C8" s="27" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D8" s="51" t="s">
         <v>151</v>
@@ -4978,13 +5130,13 @@
         <v>0</v>
       </c>
       <c r="R8" s="29" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="S8" s="30">
         <v>0.5</v>
       </c>
       <c r="T8" s="26" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="U8" s="22" t="s">
         <v>44</v>
@@ -4996,7 +5148,7 @@
         <v>151</v>
       </c>
       <c r="X8" s="36" t="s">
-        <v>151</v>
+        <v>26</v>
       </c>
       <c r="Y8" s="36" t="s">
         <v>151</v>
@@ -5068,12 +5220,12 @@
         <v>151</v>
       </c>
     </row>
-    <row r="9" spans="2:47" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:47" x14ac:dyDescent="0.25">
       <c r="B9" s="14" t="s">
         <v>3</v>
       </c>
       <c r="C9" s="27" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D9" s="51" t="s">
         <v>151</v>
@@ -5118,13 +5270,13 @@
         <v>0</v>
       </c>
       <c r="R9" s="29" t="s">
-        <v>125</v>
+        <v>99</v>
       </c>
       <c r="S9" s="30">
         <v>0.5</v>
       </c>
       <c r="T9" s="26" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="U9" s="22" t="s">
         <v>44</v>
@@ -5136,7 +5288,7 @@
         <v>151</v>
       </c>
       <c r="X9" s="36" t="s">
-        <v>151</v>
+        <v>26</v>
       </c>
       <c r="Y9" s="36" t="s">
         <v>151</v>
@@ -5208,12 +5360,12 @@
         <v>151</v>
       </c>
     </row>
-    <row r="10" spans="2:47" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:47" x14ac:dyDescent="0.25">
       <c r="B10" s="14" t="s">
         <v>3</v>
       </c>
       <c r="C10" s="27" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D10" s="51" t="s">
         <v>151</v>
@@ -5258,13 +5410,13 @@
         <v>0</v>
       </c>
       <c r="R10" s="29" t="s">
-        <v>99</v>
+        <v>126</v>
       </c>
       <c r="S10" s="30">
         <v>0.5</v>
       </c>
       <c r="T10" s="26" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="U10" s="22" t="s">
         <v>44</v>
@@ -5276,7 +5428,7 @@
         <v>151</v>
       </c>
       <c r="X10" s="36" t="s">
-        <v>151</v>
+        <v>26</v>
       </c>
       <c r="Y10" s="36" t="s">
         <v>151</v>
@@ -5348,12 +5500,12 @@
         <v>151</v>
       </c>
     </row>
-    <row r="11" spans="2:47" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:47" x14ac:dyDescent="0.25">
       <c r="B11" s="14" t="s">
         <v>3</v>
       </c>
       <c r="C11" s="27" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D11" s="51" t="s">
         <v>151</v>
@@ -5398,13 +5550,13 @@
         <v>0</v>
       </c>
       <c r="R11" s="29" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="S11" s="30">
         <v>0.5</v>
       </c>
       <c r="T11" s="26" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="U11" s="22" t="s">
         <v>44</v>
@@ -5416,7 +5568,7 @@
         <v>151</v>
       </c>
       <c r="X11" s="36" t="s">
-        <v>151</v>
+        <v>26</v>
       </c>
       <c r="Y11" s="36" t="s">
         <v>151</v>
@@ -5488,12 +5640,12 @@
         <v>151</v>
       </c>
     </row>
-    <row r="12" spans="2:47" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:47" x14ac:dyDescent="0.25">
       <c r="B12" s="14" t="s">
         <v>3</v>
       </c>
       <c r="C12" s="27" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D12" s="51" t="s">
         <v>151</v>
@@ -5538,13 +5690,13 @@
         <v>0</v>
       </c>
       <c r="R12" s="29" t="s">
-        <v>125</v>
+        <v>99</v>
       </c>
       <c r="S12" s="30">
         <v>0.5</v>
       </c>
       <c r="T12" s="26" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="U12" s="22" t="s">
         <v>44</v>
@@ -5556,7 +5708,7 @@
         <v>151</v>
       </c>
       <c r="X12" s="36" t="s">
-        <v>151</v>
+        <v>26</v>
       </c>
       <c r="Y12" s="36" t="s">
         <v>151</v>
@@ -5628,12 +5780,12 @@
         <v>151</v>
       </c>
     </row>
-    <row r="13" spans="2:47" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:47" x14ac:dyDescent="0.25">
       <c r="B13" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="27" t="s">
-        <v>140</v>
+      <c r="C13" s="31" t="s">
+        <v>141</v>
       </c>
       <c r="D13" s="51" t="s">
         <v>151</v>
@@ -5674,17 +5826,17 @@
       <c r="P13" s="42" t="s">
         <v>151</v>
       </c>
-      <c r="Q13" s="28">
+      <c r="Q13" s="32">
         <v>0</v>
       </c>
-      <c r="R13" s="29" t="s">
-        <v>99</v>
+      <c r="R13" s="35" t="s">
+        <v>126</v>
       </c>
       <c r="S13" s="30">
         <v>0.5</v>
       </c>
       <c r="T13" s="26" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="U13" s="22" t="s">
         <v>44</v>
@@ -5696,7 +5848,7 @@
         <v>151</v>
       </c>
       <c r="X13" s="36" t="s">
-        <v>151</v>
+        <v>26</v>
       </c>
       <c r="Y13" s="36" t="s">
         <v>151</v>
@@ -5768,12 +5920,12 @@
         <v>151</v>
       </c>
     </row>
-    <row r="14" spans="2:47" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:47" x14ac:dyDescent="0.25">
       <c r="B14" s="14" t="s">
         <v>3</v>
       </c>
       <c r="C14" s="31" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D14" s="51" t="s">
         <v>151</v>
@@ -5818,13 +5970,13 @@
         <v>0</v>
       </c>
       <c r="R14" s="35" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="S14" s="30">
         <v>0.5</v>
       </c>
       <c r="T14" s="26" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="U14" s="22" t="s">
         <v>44</v>
@@ -5836,7 +5988,7 @@
         <v>151</v>
       </c>
       <c r="X14" s="36" t="s">
-        <v>151</v>
+        <v>26</v>
       </c>
       <c r="Y14" s="36" t="s">
         <v>151</v>
@@ -5908,12 +6060,12 @@
         <v>151</v>
       </c>
     </row>
-    <row r="15" spans="2:47" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:47" x14ac:dyDescent="0.25">
       <c r="B15" s="14" t="s">
         <v>3</v>
       </c>
       <c r="C15" s="31" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D15" s="51" t="s">
         <v>151</v>
@@ -5958,13 +6110,13 @@
         <v>0</v>
       </c>
       <c r="R15" s="35" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="S15" s="30">
         <v>0.5</v>
       </c>
       <c r="T15" s="26" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="U15" s="22" t="s">
         <v>44</v>
@@ -5976,7 +6128,7 @@
         <v>151</v>
       </c>
       <c r="X15" s="36" t="s">
-        <v>151</v>
+        <v>26</v>
       </c>
       <c r="Y15" s="36" t="s">
         <v>151</v>
@@ -6048,12 +6200,12 @@
         <v>151</v>
       </c>
     </row>
-    <row r="16" spans="2:47" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:47" x14ac:dyDescent="0.25">
       <c r="B16" s="14" t="s">
         <v>3</v>
       </c>
       <c r="C16" s="31" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D16" s="51" t="s">
         <v>151</v>
@@ -6098,13 +6250,13 @@
         <v>0</v>
       </c>
       <c r="R16" s="35" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="S16" s="30">
         <v>0.5</v>
       </c>
       <c r="T16" s="26" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="U16" s="22" t="s">
         <v>44</v>
@@ -6116,7 +6268,7 @@
         <v>151</v>
       </c>
       <c r="X16" s="36" t="s">
-        <v>151</v>
+        <v>26</v>
       </c>
       <c r="Y16" s="36" t="s">
         <v>151</v>
@@ -6188,12 +6340,12 @@
         <v>151</v>
       </c>
     </row>
-    <row r="17" spans="2:47" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:47" x14ac:dyDescent="0.25">
       <c r="B17" s="14" t="s">
         <v>3</v>
       </c>
       <c r="C17" s="31" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D17" s="51" t="s">
         <v>151</v>
@@ -6238,13 +6390,13 @@
         <v>0</v>
       </c>
       <c r="R17" s="35" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="S17" s="30">
         <v>0.5</v>
       </c>
       <c r="T17" s="26" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="U17" s="22" t="s">
         <v>44</v>
@@ -6256,7 +6408,7 @@
         <v>151</v>
       </c>
       <c r="X17" s="36" t="s">
-        <v>151</v>
+        <v>26</v>
       </c>
       <c r="Y17" s="36" t="s">
         <v>151</v>
@@ -6328,12 +6480,12 @@
         <v>151</v>
       </c>
     </row>
-    <row r="18" spans="2:47" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:47" x14ac:dyDescent="0.25">
       <c r="B18" s="14" t="s">
         <v>3</v>
       </c>
       <c r="C18" s="31" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D18" s="51" t="s">
         <v>151</v>
@@ -6378,13 +6530,13 @@
         <v>0</v>
       </c>
       <c r="R18" s="35" t="s">
-        <v>125</v>
+        <v>99</v>
       </c>
       <c r="S18" s="30">
         <v>0.5</v>
       </c>
       <c r="T18" s="26" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="U18" s="22" t="s">
         <v>44</v>
@@ -6396,7 +6548,7 @@
         <v>151</v>
       </c>
       <c r="X18" s="36" t="s">
-        <v>151</v>
+        <v>26</v>
       </c>
       <c r="Y18" s="36" t="s">
         <v>151</v>
@@ -6468,12 +6620,12 @@
         <v>151</v>
       </c>
     </row>
-    <row r="19" spans="2:47" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:47" x14ac:dyDescent="0.25">
       <c r="B19" s="14" t="s">
         <v>3</v>
       </c>
       <c r="C19" s="31" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D19" s="51" t="s">
         <v>151</v>
@@ -6518,13 +6670,13 @@
         <v>0</v>
       </c>
       <c r="R19" s="35" t="s">
-        <v>99</v>
+        <v>126</v>
       </c>
       <c r="S19" s="30">
         <v>0.5</v>
       </c>
       <c r="T19" s="26" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="U19" s="22" t="s">
         <v>44</v>
@@ -6536,7 +6688,7 @@
         <v>151</v>
       </c>
       <c r="X19" s="36" t="s">
-        <v>151</v>
+        <v>26</v>
       </c>
       <c r="Y19" s="36" t="s">
         <v>151</v>
@@ -6608,12 +6760,12 @@
         <v>151</v>
       </c>
     </row>
-    <row r="20" spans="2:47" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:47" x14ac:dyDescent="0.25">
       <c r="B20" s="14" t="s">
         <v>3</v>
       </c>
       <c r="C20" s="31" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D20" s="51" t="s">
         <v>151</v>
@@ -6658,13 +6810,13 @@
         <v>0</v>
       </c>
       <c r="R20" s="35" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="S20" s="30">
         <v>0.5</v>
       </c>
       <c r="T20" s="26" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="U20" s="22" t="s">
         <v>44</v>
@@ -6676,7 +6828,7 @@
         <v>151</v>
       </c>
       <c r="X20" s="36" t="s">
-        <v>151</v>
+        <v>26</v>
       </c>
       <c r="Y20" s="36" t="s">
         <v>151</v>
@@ -6748,12 +6900,12 @@
         <v>151</v>
       </c>
     </row>
-    <row r="21" spans="2:47" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:47" x14ac:dyDescent="0.25">
       <c r="B21" s="14" t="s">
         <v>3</v>
       </c>
       <c r="C21" s="31" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D21" s="51" t="s">
         <v>151</v>
@@ -6798,13 +6950,13 @@
         <v>0</v>
       </c>
       <c r="R21" s="35" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="S21" s="30">
         <v>0.5</v>
       </c>
       <c r="T21" s="26" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="U21" s="22" t="s">
         <v>44</v>
@@ -6816,7 +6968,7 @@
         <v>151</v>
       </c>
       <c r="X21" s="36" t="s">
-        <v>151</v>
+        <v>26</v>
       </c>
       <c r="Y21" s="36" t="s">
         <v>151</v>
@@ -6888,12 +7040,12 @@
         <v>151</v>
       </c>
     </row>
-    <row r="22" spans="2:47" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:47" x14ac:dyDescent="0.25">
       <c r="B22" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="C22" s="31" t="s">
-        <v>149</v>
+      <c r="C22" s="38" t="s">
+        <v>150</v>
       </c>
       <c r="D22" s="51" t="s">
         <v>151</v>
@@ -6937,14 +7089,14 @@
       <c r="Q22" s="32">
         <v>0</v>
       </c>
-      <c r="R22" s="35" t="s">
-        <v>128</v>
+      <c r="R22" s="29" t="s">
+        <v>129</v>
       </c>
       <c r="S22" s="30">
         <v>0.5</v>
       </c>
       <c r="T22" s="26" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="U22" s="22" t="s">
         <v>44</v>
@@ -6956,7 +7108,7 @@
         <v>151</v>
       </c>
       <c r="X22" s="36" t="s">
-        <v>151</v>
+        <v>26</v>
       </c>
       <c r="Y22" s="36" t="s">
         <v>151</v>
@@ -7028,143 +7180,1397 @@
         <v>151</v>
       </c>
     </row>
-    <row r="23" spans="2:47" x14ac:dyDescent="0.2">
-      <c r="B23" s="14" t="s">
+    <row r="23" spans="2:47" x14ac:dyDescent="0.25">
+      <c r="B23" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="C23" s="38" t="s">
-        <v>150</v>
-      </c>
-      <c r="D23" s="51" t="s">
-        <v>151</v>
-      </c>
-      <c r="E23" s="40" t="b">
+      <c r="C23" s="56" t="s">
+        <v>165</v>
+      </c>
+      <c r="D23" s="57" t="s">
+        <v>165</v>
+      </c>
+      <c r="E23" s="58" t="b">
+        <v>1</v>
+      </c>
+      <c r="F23" s="58">
+        <v>1</v>
+      </c>
+      <c r="G23" s="58" t="b">
+        <v>1</v>
+      </c>
+      <c r="H23" s="58" t="s">
+        <v>18</v>
+      </c>
+      <c r="I23" s="58">
+        <v>1</v>
+      </c>
+      <c r="J23" s="58" t="s">
+        <v>188</v>
+      </c>
+      <c r="K23" s="58" t="s">
+        <v>19</v>
+      </c>
+      <c r="L23" s="58">
+        <v>60</v>
+      </c>
+      <c r="M23" s="58" t="s">
+        <v>151</v>
+      </c>
+      <c r="N23" s="58" t="s">
+        <v>151</v>
+      </c>
+      <c r="O23" s="58" t="s">
+        <v>151</v>
+      </c>
+      <c r="P23" s="58" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q23" s="59">
         <v>0</v>
       </c>
-      <c r="F23" s="48">
+      <c r="R23" s="60" t="s">
+        <v>99</v>
+      </c>
+      <c r="S23" s="61" t="s">
+        <v>174</v>
+      </c>
+      <c r="T23" s="62" t="s">
+        <v>179</v>
+      </c>
+      <c r="U23" s="63" t="s">
+        <v>197</v>
+      </c>
+      <c r="V23" s="64" t="s">
+        <v>151</v>
+      </c>
+      <c r="W23" s="64">
+        <v>0</v>
+      </c>
+      <c r="X23" s="64" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y23" s="64">
+        <v>10</v>
+      </c>
+      <c r="Z23" s="64" t="s">
+        <v>151</v>
+      </c>
+      <c r="AA23" s="64" t="s">
+        <v>151</v>
+      </c>
+      <c r="AB23" s="64" t="s">
+        <v>151</v>
+      </c>
+      <c r="AC23" s="65">
+        <v>1.6</v>
+      </c>
+      <c r="AD23" s="65" t="s">
+        <v>151</v>
+      </c>
+      <c r="AE23" s="65" t="s">
+        <v>151</v>
+      </c>
+      <c r="AF23" s="65">
+        <v>4</v>
+      </c>
+      <c r="AG23" s="65" t="s">
+        <v>151</v>
+      </c>
+      <c r="AH23" s="65" t="s">
+        <v>151</v>
+      </c>
+      <c r="AI23" s="65" t="s">
+        <v>151</v>
+      </c>
+      <c r="AJ23" s="65" t="s">
+        <v>151</v>
+      </c>
+      <c r="AK23" s="65" t="s">
+        <v>151</v>
+      </c>
+      <c r="AL23" s="65" t="s">
+        <v>151</v>
+      </c>
+      <c r="AM23" s="65" t="s">
+        <v>151</v>
+      </c>
+      <c r="AN23" s="65"/>
+      <c r="AO23" s="65" t="s">
+        <v>151</v>
+      </c>
+      <c r="AP23" s="65" t="s">
+        <v>188</v>
+      </c>
+      <c r="AQ23" s="65" t="s">
+        <v>151</v>
+      </c>
+      <c r="AR23" s="65" t="s">
+        <v>192</v>
+      </c>
+      <c r="AS23" s="65" t="s">
+        <v>151</v>
+      </c>
+      <c r="AT23" s="65" t="s">
+        <v>151</v>
+      </c>
+      <c r="AU23" s="65" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="24" spans="2:47" x14ac:dyDescent="0.25">
+      <c r="B24" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C24" s="38" t="s">
+        <v>131</v>
+      </c>
+      <c r="D24" s="51" t="s">
+        <v>131</v>
+      </c>
+      <c r="E24" s="40" t="b">
         <v>1</v>
       </c>
-      <c r="G23" s="43" t="b">
+      <c r="F24" s="48">
+        <v>1</v>
+      </c>
+      <c r="G24" s="43" t="b">
+        <v>1</v>
+      </c>
+      <c r="H24" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="I24" s="43">
+        <v>4</v>
+      </c>
+      <c r="J24" s="43" t="s">
+        <v>189</v>
+      </c>
+      <c r="K24" s="47" t="s">
+        <v>21</v>
+      </c>
+      <c r="L24" s="47">
+        <v>3000</v>
+      </c>
+      <c r="M24" s="47" t="s">
+        <v>151</v>
+      </c>
+      <c r="N24" s="42" t="s">
+        <v>151</v>
+      </c>
+      <c r="O24" s="42" t="s">
+        <v>151</v>
+      </c>
+      <c r="P24" s="42" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q24" s="32">
         <v>0</v>
       </c>
-      <c r="H23" s="43" t="s">
-        <v>151</v>
-      </c>
-      <c r="I23" s="43" t="s">
-        <v>151</v>
-      </c>
-      <c r="J23" s="43" t="s">
-        <v>151</v>
-      </c>
-      <c r="K23" s="47" t="s">
-        <v>151</v>
-      </c>
-      <c r="L23" s="47" t="s">
-        <v>151</v>
-      </c>
-      <c r="M23" s="47" t="s">
-        <v>151</v>
-      </c>
-      <c r="N23" s="42" t="s">
-        <v>151</v>
-      </c>
-      <c r="O23" s="42" t="s">
-        <v>151</v>
-      </c>
-      <c r="P23" s="42" t="s">
-        <v>151</v>
-      </c>
-      <c r="Q23" s="32">
+      <c r="R24" s="29" t="s">
+        <v>99</v>
+      </c>
+      <c r="S24" s="30" t="s">
+        <v>175</v>
+      </c>
+      <c r="T24" s="26" t="s">
+        <v>105</v>
+      </c>
+      <c r="U24" s="22" t="s">
+        <v>197</v>
+      </c>
+      <c r="V24" s="36" t="s">
+        <v>151</v>
+      </c>
+      <c r="W24" s="36">
         <v>0</v>
       </c>
-      <c r="R23" s="29" t="s">
-        <v>129</v>
-      </c>
-      <c r="S23" s="30">
-        <v>0.5</v>
-      </c>
-      <c r="T23" s="26" t="s">
-        <v>124</v>
-      </c>
-      <c r="U23" s="22" t="s">
+      <c r="X24" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y24" s="36">
+        <v>10</v>
+      </c>
+      <c r="Z24" s="39" t="s">
+        <v>151</v>
+      </c>
+      <c r="AA24" s="39" t="s">
+        <v>151</v>
+      </c>
+      <c r="AB24" s="39" t="s">
+        <v>151</v>
+      </c>
+      <c r="AC24" s="37">
+        <v>1.6</v>
+      </c>
+      <c r="AD24" s="37" t="s">
+        <v>151</v>
+      </c>
+      <c r="AE24" s="37" t="s">
+        <v>151</v>
+      </c>
+      <c r="AF24" s="37">
+        <v>4</v>
+      </c>
+      <c r="AG24" s="37" t="s">
+        <v>151</v>
+      </c>
+      <c r="AH24" s="37" t="s">
+        <v>151</v>
+      </c>
+      <c r="AI24" s="37" t="s">
+        <v>151</v>
+      </c>
+      <c r="AJ24" s="37" t="s">
+        <v>151</v>
+      </c>
+      <c r="AK24" s="37" t="s">
+        <v>151</v>
+      </c>
+      <c r="AL24" s="37" t="s">
+        <v>151</v>
+      </c>
+      <c r="AM24" s="37" t="s">
+        <v>151</v>
+      </c>
+      <c r="AN24" s="37">
+        <v>10</v>
+      </c>
+      <c r="AO24" s="37" t="s">
+        <v>151</v>
+      </c>
+      <c r="AP24" s="37" t="s">
+        <v>151</v>
+      </c>
+      <c r="AQ24" s="37" t="s">
+        <v>151</v>
+      </c>
+      <c r="AR24" s="37" t="s">
+        <v>192</v>
+      </c>
+      <c r="AS24" s="37" t="s">
+        <v>151</v>
+      </c>
+      <c r="AT24" s="37" t="s">
+        <v>151</v>
+      </c>
+      <c r="AU24" s="37" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="25" spans="2:47" x14ac:dyDescent="0.25">
+      <c r="B25" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C25" s="38" t="s">
+        <v>166</v>
+      </c>
+      <c r="D25" s="51" t="s">
+        <v>166</v>
+      </c>
+      <c r="E25" s="40" t="b">
+        <v>1</v>
+      </c>
+      <c r="F25" s="48">
+        <v>1</v>
+      </c>
+      <c r="G25" s="43" t="b">
+        <v>1</v>
+      </c>
+      <c r="H25" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="I25" s="43">
+        <v>50000</v>
+      </c>
+      <c r="J25" s="43" t="s">
+        <v>151</v>
+      </c>
+      <c r="K25" s="47" t="s">
+        <v>19</v>
+      </c>
+      <c r="L25" s="47">
+        <v>60</v>
+      </c>
+      <c r="M25" s="47" t="s">
+        <v>151</v>
+      </c>
+      <c r="N25" s="42" t="s">
+        <v>151</v>
+      </c>
+      <c r="O25" s="42" t="s">
+        <v>151</v>
+      </c>
+      <c r="P25" s="42" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q25" s="32">
+        <v>0</v>
+      </c>
+      <c r="R25" s="29" t="s">
+        <v>99</v>
+      </c>
+      <c r="S25" s="30" t="s">
+        <v>176</v>
+      </c>
+      <c r="T25" s="26" t="s">
+        <v>180</v>
+      </c>
+      <c r="U25" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="V25" s="36" t="s">
+        <v>151</v>
+      </c>
+      <c r="W25" s="36">
+        <v>0</v>
+      </c>
+      <c r="X25" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y25" s="36">
+        <v>10</v>
+      </c>
+      <c r="Z25" s="39" t="s">
+        <v>151</v>
+      </c>
+      <c r="AA25" s="39" t="s">
+        <v>151</v>
+      </c>
+      <c r="AB25" s="39" t="s">
+        <v>151</v>
+      </c>
+      <c r="AC25" s="37">
+        <v>1.6</v>
+      </c>
+      <c r="AD25" s="37" t="s">
+        <v>151</v>
+      </c>
+      <c r="AE25" s="37" t="s">
+        <v>151</v>
+      </c>
+      <c r="AF25" s="37">
+        <v>4</v>
+      </c>
+      <c r="AG25" s="37"/>
+      <c r="AH25" s="37" t="s">
+        <v>151</v>
+      </c>
+      <c r="AI25" s="37" t="s">
+        <v>151</v>
+      </c>
+      <c r="AJ25" s="37" t="s">
+        <v>151</v>
+      </c>
+      <c r="AK25" s="37" t="s">
+        <v>151</v>
+      </c>
+      <c r="AL25" s="37" t="s">
+        <v>151</v>
+      </c>
+      <c r="AM25" s="37" t="s">
+        <v>151</v>
+      </c>
+      <c r="AN25" s="37" t="s">
+        <v>151</v>
+      </c>
+      <c r="AO25" s="37" t="s">
+        <v>151</v>
+      </c>
+      <c r="AP25" s="37" t="s">
+        <v>151</v>
+      </c>
+      <c r="AQ25" s="37" t="s">
+        <v>151</v>
+      </c>
+      <c r="AR25" s="37" t="s">
+        <v>193</v>
+      </c>
+      <c r="AS25" s="37" t="s">
+        <v>151</v>
+      </c>
+      <c r="AT25" s="37" t="s">
+        <v>151</v>
+      </c>
+      <c r="AU25" s="37" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="26" spans="2:47" x14ac:dyDescent="0.25">
+      <c r="B26" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C26" s="38" t="s">
+        <v>167</v>
+      </c>
+      <c r="D26" s="51" t="s">
+        <v>167</v>
+      </c>
+      <c r="E26" s="40" t="b">
+        <v>1</v>
+      </c>
+      <c r="F26" s="48">
+        <v>1</v>
+      </c>
+      <c r="G26" s="43" t="b">
+        <v>1</v>
+      </c>
+      <c r="H26" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="I26" s="43">
+        <v>6</v>
+      </c>
+      <c r="J26" s="43" t="s">
+        <v>189</v>
+      </c>
+      <c r="K26" s="47" t="s">
+        <v>21</v>
+      </c>
+      <c r="L26" s="47">
+        <v>3000</v>
+      </c>
+      <c r="M26" s="47" t="s">
+        <v>151</v>
+      </c>
+      <c r="N26" s="42" t="s">
+        <v>151</v>
+      </c>
+      <c r="O26" s="42" t="s">
+        <v>151</v>
+      </c>
+      <c r="P26" s="42" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q26" s="32">
+        <v>0</v>
+      </c>
+      <c r="R26" s="29" t="s">
+        <v>99</v>
+      </c>
+      <c r="S26" s="30" t="s">
+        <v>177</v>
+      </c>
+      <c r="T26" s="26" t="s">
+        <v>181</v>
+      </c>
+      <c r="U26" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="V26" s="36" t="s">
+        <v>151</v>
+      </c>
+      <c r="W26" s="36">
+        <v>0</v>
+      </c>
+      <c r="X26" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y26" s="36">
+        <v>10</v>
+      </c>
+      <c r="Z26" s="39" t="s">
+        <v>151</v>
+      </c>
+      <c r="AA26" s="39" t="s">
+        <v>151</v>
+      </c>
+      <c r="AB26" s="39" t="s">
+        <v>151</v>
+      </c>
+      <c r="AC26" s="37">
+        <v>1.6</v>
+      </c>
+      <c r="AD26" s="37" t="s">
+        <v>151</v>
+      </c>
+      <c r="AE26" s="37" t="s">
+        <v>151</v>
+      </c>
+      <c r="AF26" s="37">
+        <v>4</v>
+      </c>
+      <c r="AG26" s="37" t="s">
+        <v>190</v>
+      </c>
+      <c r="AH26" s="37" t="s">
+        <v>151</v>
+      </c>
+      <c r="AI26" s="37" t="s">
+        <v>151</v>
+      </c>
+      <c r="AJ26" s="37" t="s">
+        <v>151</v>
+      </c>
+      <c r="AK26" s="37" t="s">
+        <v>151</v>
+      </c>
+      <c r="AL26" s="37" t="s">
+        <v>151</v>
+      </c>
+      <c r="AM26" s="37" t="s">
+        <v>151</v>
+      </c>
+      <c r="AN26" s="37">
+        <v>20</v>
+      </c>
+      <c r="AO26" s="37" t="s">
+        <v>151</v>
+      </c>
+      <c r="AP26" s="37" t="s">
+        <v>151</v>
+      </c>
+      <c r="AQ26" s="37" t="s">
+        <v>151</v>
+      </c>
+      <c r="AR26" s="37" t="s">
+        <v>194</v>
+      </c>
+      <c r="AS26" s="37" t="s">
+        <v>151</v>
+      </c>
+      <c r="AT26" s="37" t="s">
+        <v>151</v>
+      </c>
+      <c r="AU26" s="37" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="27" spans="2:47" x14ac:dyDescent="0.25">
+      <c r="B27" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="38" t="s">
+        <v>168</v>
+      </c>
+      <c r="D27" s="51" t="s">
+        <v>168</v>
+      </c>
+      <c r="E27" s="40" t="b">
+        <v>1</v>
+      </c>
+      <c r="F27" s="48">
+        <v>1</v>
+      </c>
+      <c r="G27" s="43" t="b">
+        <v>1</v>
+      </c>
+      <c r="H27" s="43" t="s">
+        <v>19</v>
+      </c>
+      <c r="I27" s="43">
+        <v>200</v>
+      </c>
+      <c r="J27" s="43" t="s">
+        <v>151</v>
+      </c>
+      <c r="K27" s="47" t="s">
+        <v>21</v>
+      </c>
+      <c r="L27" s="47">
+        <v>100000</v>
+      </c>
+      <c r="M27" s="47" t="s">
+        <v>151</v>
+      </c>
+      <c r="N27" s="42" t="s">
+        <v>151</v>
+      </c>
+      <c r="O27" s="42" t="s">
+        <v>151</v>
+      </c>
+      <c r="P27" s="42" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q27" s="32">
+        <v>0</v>
+      </c>
+      <c r="R27" s="29" t="s">
+        <v>125</v>
+      </c>
+      <c r="S27" s="30" t="s">
+        <v>178</v>
+      </c>
+      <c r="T27" s="26" t="s">
+        <v>182</v>
+      </c>
+      <c r="U27" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="V23" s="36" t="s">
-        <v>151</v>
-      </c>
-      <c r="W23" s="36" t="s">
-        <v>151</v>
-      </c>
-      <c r="X23" s="36" t="s">
-        <v>151</v>
-      </c>
-      <c r="Y23" s="36" t="s">
-        <v>151</v>
-      </c>
-      <c r="Z23" s="39" t="s">
-        <v>151</v>
-      </c>
-      <c r="AA23" s="39" t="s">
-        <v>151</v>
-      </c>
-      <c r="AB23" s="39" t="s">
-        <v>151</v>
-      </c>
-      <c r="AC23" s="37" t="s">
-        <v>102</v>
-      </c>
-      <c r="AD23" s="37" t="s">
-        <v>151</v>
-      </c>
-      <c r="AE23" s="37" t="s">
-        <v>151</v>
-      </c>
-      <c r="AF23" s="37" t="s">
-        <v>151</v>
-      </c>
-      <c r="AG23" s="37" t="s">
-        <v>151</v>
-      </c>
-      <c r="AH23" s="37" t="s">
-        <v>151</v>
-      </c>
-      <c r="AI23" s="37" t="s">
-        <v>151</v>
-      </c>
-      <c r="AJ23" s="37" t="s">
-        <v>151</v>
-      </c>
-      <c r="AK23" s="37" t="s">
-        <v>151</v>
-      </c>
-      <c r="AL23" s="37" t="s">
-        <v>151</v>
-      </c>
-      <c r="AM23" s="37" t="s">
-        <v>151</v>
-      </c>
-      <c r="AN23" s="37" t="s">
-        <v>151</v>
-      </c>
-      <c r="AO23" s="37" t="s">
-        <v>151</v>
-      </c>
-      <c r="AP23" s="37" t="s">
-        <v>151</v>
-      </c>
-      <c r="AQ23" s="37" t="s">
-        <v>151</v>
-      </c>
-      <c r="AR23" s="37" t="s">
-        <v>151</v>
-      </c>
-      <c r="AS23" s="37" t="s">
-        <v>151</v>
-      </c>
-      <c r="AT23" s="37" t="s">
-        <v>151</v>
-      </c>
-      <c r="AU23" s="37" t="s">
+      <c r="V27" s="36" t="s">
+        <v>151</v>
+      </c>
+      <c r="W27" s="36">
+        <v>0</v>
+      </c>
+      <c r="X27" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y27" s="36">
+        <v>10</v>
+      </c>
+      <c r="Z27" s="39" t="s">
+        <v>151</v>
+      </c>
+      <c r="AA27" s="39" t="s">
+        <v>151</v>
+      </c>
+      <c r="AB27" s="39" t="s">
+        <v>151</v>
+      </c>
+      <c r="AC27" s="37">
+        <v>1.6</v>
+      </c>
+      <c r="AD27" s="37" t="s">
+        <v>151</v>
+      </c>
+      <c r="AE27" s="37" t="s">
+        <v>151</v>
+      </c>
+      <c r="AF27" s="37">
+        <v>4</v>
+      </c>
+      <c r="AG27" s="37" t="s">
+        <v>190</v>
+      </c>
+      <c r="AH27" s="37" t="s">
+        <v>151</v>
+      </c>
+      <c r="AI27" s="37" t="s">
+        <v>151</v>
+      </c>
+      <c r="AJ27" s="37" t="s">
+        <v>151</v>
+      </c>
+      <c r="AK27" s="37" t="s">
+        <v>151</v>
+      </c>
+      <c r="AL27" s="37" t="s">
+        <v>151</v>
+      </c>
+      <c r="AM27" s="37" t="s">
+        <v>151</v>
+      </c>
+      <c r="AN27" s="37" t="s">
+        <v>151</v>
+      </c>
+      <c r="AO27" s="37" t="s">
+        <v>151</v>
+      </c>
+      <c r="AP27" s="37" t="s">
+        <v>151</v>
+      </c>
+      <c r="AQ27" s="37" t="s">
+        <v>151</v>
+      </c>
+      <c r="AR27" s="37" t="s">
+        <v>194</v>
+      </c>
+      <c r="AS27" s="37" t="s">
+        <v>151</v>
+      </c>
+      <c r="AT27" s="37" t="s">
+        <v>151</v>
+      </c>
+      <c r="AU27" s="37" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="28" spans="2:47" x14ac:dyDescent="0.25">
+      <c r="B28" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C28" s="38" t="s">
+        <v>169</v>
+      </c>
+      <c r="D28" s="51" t="s">
+        <v>169</v>
+      </c>
+      <c r="E28" s="40" t="b">
+        <v>1</v>
+      </c>
+      <c r="F28" s="48">
+        <v>1</v>
+      </c>
+      <c r="G28" s="43" t="b">
+        <v>1</v>
+      </c>
+      <c r="H28" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="I28" s="43">
+        <v>4</v>
+      </c>
+      <c r="J28" s="43" t="s">
+        <v>189</v>
+      </c>
+      <c r="K28" s="47" t="s">
+        <v>21</v>
+      </c>
+      <c r="L28" s="47">
+        <v>3000</v>
+      </c>
+      <c r="M28" s="47" t="s">
+        <v>151</v>
+      </c>
+      <c r="N28" s="42" t="s">
+        <v>151</v>
+      </c>
+      <c r="O28" s="42" t="s">
+        <v>151</v>
+      </c>
+      <c r="P28" s="42" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q28" s="32">
+        <v>0</v>
+      </c>
+      <c r="R28" s="29" t="s">
+        <v>125</v>
+      </c>
+      <c r="S28" s="30" t="s">
+        <v>174</v>
+      </c>
+      <c r="T28" s="26" t="s">
+        <v>183</v>
+      </c>
+      <c r="U28" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="V28" s="36" t="s">
+        <v>151</v>
+      </c>
+      <c r="W28" s="36">
+        <v>0</v>
+      </c>
+      <c r="X28" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y28" s="36">
+        <v>10</v>
+      </c>
+      <c r="Z28" s="39" t="s">
+        <v>151</v>
+      </c>
+      <c r="AA28" s="39" t="s">
+        <v>151</v>
+      </c>
+      <c r="AB28" s="39" t="s">
+        <v>151</v>
+      </c>
+      <c r="AC28" s="37">
+        <v>1.6</v>
+      </c>
+      <c r="AD28" s="37" t="s">
+        <v>151</v>
+      </c>
+      <c r="AE28" s="37" t="s">
+        <v>151</v>
+      </c>
+      <c r="AF28" s="37">
+        <v>4</v>
+      </c>
+      <c r="AG28" s="37" t="s">
+        <v>191</v>
+      </c>
+      <c r="AH28" s="37">
+        <v>5</v>
+      </c>
+      <c r="AI28" s="37" t="s">
+        <v>151</v>
+      </c>
+      <c r="AJ28" s="37" t="s">
+        <v>151</v>
+      </c>
+      <c r="AK28" s="37" t="s">
+        <v>151</v>
+      </c>
+      <c r="AL28" s="37" t="s">
+        <v>151</v>
+      </c>
+      <c r="AM28" s="37" t="s">
+        <v>151</v>
+      </c>
+      <c r="AN28" s="37">
+        <v>20</v>
+      </c>
+      <c r="AO28" s="37" t="s">
+        <v>151</v>
+      </c>
+      <c r="AP28" s="37" t="s">
+        <v>151</v>
+      </c>
+      <c r="AQ28" s="37" t="s">
+        <v>151</v>
+      </c>
+      <c r="AR28" s="37" t="s">
+        <v>194</v>
+      </c>
+      <c r="AS28" s="37" t="s">
+        <v>151</v>
+      </c>
+      <c r="AT28" s="37" t="s">
+        <v>151</v>
+      </c>
+      <c r="AU28" s="37" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="29" spans="2:47" x14ac:dyDescent="0.25">
+      <c r="B29" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C29" s="38" t="s">
+        <v>170</v>
+      </c>
+      <c r="D29" s="51" t="s">
+        <v>170</v>
+      </c>
+      <c r="E29" s="40" t="b">
+        <v>1</v>
+      </c>
+      <c r="F29" s="48">
+        <v>1</v>
+      </c>
+      <c r="G29" s="43" t="b">
+        <v>1</v>
+      </c>
+      <c r="H29" s="43" t="s">
+        <v>19</v>
+      </c>
+      <c r="I29" s="43">
+        <v>100</v>
+      </c>
+      <c r="J29" s="43" t="s">
+        <v>151</v>
+      </c>
+      <c r="K29" s="47" t="s">
+        <v>21</v>
+      </c>
+      <c r="L29" s="47">
+        <v>100000</v>
+      </c>
+      <c r="M29" s="47" t="s">
+        <v>151</v>
+      </c>
+      <c r="N29" s="42" t="s">
+        <v>151</v>
+      </c>
+      <c r="O29" s="42" t="s">
+        <v>151</v>
+      </c>
+      <c r="P29" s="42" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q29" s="32">
+        <v>0</v>
+      </c>
+      <c r="R29" s="29" t="s">
+        <v>99</v>
+      </c>
+      <c r="S29" s="30" t="s">
+        <v>177</v>
+      </c>
+      <c r="T29" s="26" t="s">
+        <v>184</v>
+      </c>
+      <c r="U29" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="V29" s="36" t="s">
+        <v>151</v>
+      </c>
+      <c r="W29" s="36">
+        <v>0</v>
+      </c>
+      <c r="X29" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y29" s="36">
+        <v>10</v>
+      </c>
+      <c r="Z29" s="39" t="s">
+        <v>151</v>
+      </c>
+      <c r="AA29" s="39" t="s">
+        <v>151</v>
+      </c>
+      <c r="AB29" s="39" t="s">
+        <v>151</v>
+      </c>
+      <c r="AC29" s="37">
+        <v>1.6</v>
+      </c>
+      <c r="AD29" s="37" t="s">
+        <v>151</v>
+      </c>
+      <c r="AE29" s="37" t="s">
+        <v>151</v>
+      </c>
+      <c r="AF29" s="37">
+        <v>4</v>
+      </c>
+      <c r="AG29" s="37" t="s">
+        <v>191</v>
+      </c>
+      <c r="AH29" s="37">
+        <v>5</v>
+      </c>
+      <c r="AI29" s="37" t="s">
+        <v>151</v>
+      </c>
+      <c r="AJ29" s="37" t="s">
+        <v>151</v>
+      </c>
+      <c r="AK29" s="37" t="s">
+        <v>151</v>
+      </c>
+      <c r="AL29" s="37" t="s">
+        <v>151</v>
+      </c>
+      <c r="AM29" s="37" t="s">
+        <v>151</v>
+      </c>
+      <c r="AN29" s="37" t="s">
+        <v>151</v>
+      </c>
+      <c r="AO29" s="37" t="s">
+        <v>151</v>
+      </c>
+      <c r="AP29" s="37" t="s">
+        <v>151</v>
+      </c>
+      <c r="AQ29" s="37" t="s">
+        <v>151</v>
+      </c>
+      <c r="AR29" s="37" t="s">
+        <v>194</v>
+      </c>
+      <c r="AS29" s="37" t="s">
+        <v>151</v>
+      </c>
+      <c r="AT29" s="37" t="s">
+        <v>151</v>
+      </c>
+      <c r="AU29" s="37" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="30" spans="2:47" x14ac:dyDescent="0.25">
+      <c r="B30" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C30" s="38" t="s">
+        <v>171</v>
+      </c>
+      <c r="D30" s="51" t="s">
+        <v>171</v>
+      </c>
+      <c r="E30" s="40" t="b">
+        <v>1</v>
+      </c>
+      <c r="F30" s="48">
+        <v>1</v>
+      </c>
+      <c r="G30" s="43" t="b">
+        <v>1</v>
+      </c>
+      <c r="H30" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="I30" s="43">
+        <v>10</v>
+      </c>
+      <c r="J30" s="43" t="s">
+        <v>189</v>
+      </c>
+      <c r="K30" s="47" t="s">
+        <v>21</v>
+      </c>
+      <c r="L30" s="47">
+        <v>3000</v>
+      </c>
+      <c r="M30" s="47" t="s">
+        <v>151</v>
+      </c>
+      <c r="N30" s="42" t="s">
+        <v>151</v>
+      </c>
+      <c r="O30" s="42" t="s">
+        <v>151</v>
+      </c>
+      <c r="P30" s="42" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q30" s="32">
+        <v>0</v>
+      </c>
+      <c r="R30" s="29" t="s">
+        <v>99</v>
+      </c>
+      <c r="S30" s="30" t="s">
+        <v>174</v>
+      </c>
+      <c r="T30" s="26" t="s">
+        <v>185</v>
+      </c>
+      <c r="U30" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="V30" s="36" t="s">
+        <v>151</v>
+      </c>
+      <c r="W30" s="36">
+        <v>0</v>
+      </c>
+      <c r="X30" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y30" s="36">
+        <v>10</v>
+      </c>
+      <c r="Z30" s="39" t="s">
+        <v>151</v>
+      </c>
+      <c r="AA30" s="39" t="s">
+        <v>151</v>
+      </c>
+      <c r="AB30" s="39" t="s">
+        <v>151</v>
+      </c>
+      <c r="AC30" s="37">
+        <v>1.6</v>
+      </c>
+      <c r="AD30" s="37" t="s">
+        <v>151</v>
+      </c>
+      <c r="AE30" s="37" t="s">
+        <v>151</v>
+      </c>
+      <c r="AF30" s="37">
+        <v>4</v>
+      </c>
+      <c r="AG30" s="37" t="s">
+        <v>191</v>
+      </c>
+      <c r="AH30" s="37">
+        <v>40</v>
+      </c>
+      <c r="AI30" s="37" t="s">
+        <v>151</v>
+      </c>
+      <c r="AJ30" s="37" t="s">
+        <v>151</v>
+      </c>
+      <c r="AK30" s="37" t="s">
+        <v>151</v>
+      </c>
+      <c r="AL30" s="37" t="s">
+        <v>151</v>
+      </c>
+      <c r="AM30" s="37" t="s">
+        <v>151</v>
+      </c>
+      <c r="AN30" s="37">
+        <v>20</v>
+      </c>
+      <c r="AO30" s="37" t="s">
+        <v>151</v>
+      </c>
+      <c r="AP30" s="37" t="s">
+        <v>151</v>
+      </c>
+      <c r="AQ30" s="37" t="s">
+        <v>151</v>
+      </c>
+      <c r="AR30" s="37" t="s">
+        <v>194</v>
+      </c>
+      <c r="AS30" s="37" t="s">
+        <v>151</v>
+      </c>
+      <c r="AT30" s="37" t="s">
+        <v>151</v>
+      </c>
+      <c r="AU30" s="37" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="31" spans="2:47" x14ac:dyDescent="0.25">
+      <c r="B31" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C31" s="38" t="s">
+        <v>172</v>
+      </c>
+      <c r="D31" s="51" t="s">
+        <v>172</v>
+      </c>
+      <c r="E31" s="40" t="b">
+        <v>1</v>
+      </c>
+      <c r="F31" s="48">
+        <v>1</v>
+      </c>
+      <c r="G31" s="43" t="b">
+        <v>1</v>
+      </c>
+      <c r="H31" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="I31" s="43">
+        <v>150000</v>
+      </c>
+      <c r="J31" s="43" t="s">
+        <v>151</v>
+      </c>
+      <c r="K31" s="47" t="s">
+        <v>19</v>
+      </c>
+      <c r="L31" s="47">
+        <v>60</v>
+      </c>
+      <c r="M31" s="47" t="s">
+        <v>151</v>
+      </c>
+      <c r="N31" s="42" t="s">
+        <v>151</v>
+      </c>
+      <c r="O31" s="42" t="s">
+        <v>151</v>
+      </c>
+      <c r="P31" s="42" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q31" s="32">
+        <v>0</v>
+      </c>
+      <c r="R31" s="29" t="s">
+        <v>126</v>
+      </c>
+      <c r="S31" s="30" t="s">
+        <v>176</v>
+      </c>
+      <c r="T31" s="26" t="s">
+        <v>186</v>
+      </c>
+      <c r="U31" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="V31" s="36" t="s">
+        <v>151</v>
+      </c>
+      <c r="W31" s="36">
+        <v>0</v>
+      </c>
+      <c r="X31" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y31" s="36">
+        <v>10</v>
+      </c>
+      <c r="Z31" s="39" t="s">
+        <v>151</v>
+      </c>
+      <c r="AA31" s="39" t="s">
+        <v>151</v>
+      </c>
+      <c r="AB31" s="39" t="s">
+        <v>151</v>
+      </c>
+      <c r="AC31" s="37">
+        <v>1.6</v>
+      </c>
+      <c r="AD31" s="37" t="s">
+        <v>151</v>
+      </c>
+      <c r="AE31" s="37" t="s">
+        <v>151</v>
+      </c>
+      <c r="AF31" s="37">
+        <v>4</v>
+      </c>
+      <c r="AG31" s="37" t="s">
+        <v>151</v>
+      </c>
+      <c r="AH31" s="37" t="s">
+        <v>151</v>
+      </c>
+      <c r="AI31" s="37" t="s">
+        <v>151</v>
+      </c>
+      <c r="AJ31" s="37" t="s">
+        <v>151</v>
+      </c>
+      <c r="AK31" s="37" t="s">
+        <v>151</v>
+      </c>
+      <c r="AL31" s="37" t="s">
+        <v>151</v>
+      </c>
+      <c r="AM31" s="37" t="s">
+        <v>151</v>
+      </c>
+      <c r="AN31" s="37" t="s">
+        <v>151</v>
+      </c>
+      <c r="AO31" s="37" t="s">
+        <v>151</v>
+      </c>
+      <c r="AP31" s="37"/>
+      <c r="AQ31" s="37" t="s">
+        <v>151</v>
+      </c>
+      <c r="AR31" s="37" t="s">
+        <v>195</v>
+      </c>
+      <c r="AS31" s="37" t="s">
+        <v>151</v>
+      </c>
+      <c r="AT31" s="37" t="s">
+        <v>151</v>
+      </c>
+      <c r="AU31" s="37" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="32" spans="2:47" x14ac:dyDescent="0.25">
+      <c r="B32" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C32" s="38" t="s">
+        <v>173</v>
+      </c>
+      <c r="D32" s="51" t="s">
+        <v>173</v>
+      </c>
+      <c r="E32" s="40" t="b">
+        <v>1</v>
+      </c>
+      <c r="F32" s="48">
+        <v>1</v>
+      </c>
+      <c r="G32" s="43" t="b">
+        <v>1</v>
+      </c>
+      <c r="H32" s="43" t="s">
+        <v>19</v>
+      </c>
+      <c r="I32" s="43">
+        <v>900</v>
+      </c>
+      <c r="J32" s="43" t="s">
+        <v>151</v>
+      </c>
+      <c r="K32" s="47" t="s">
+        <v>21</v>
+      </c>
+      <c r="L32" s="47">
+        <v>300000</v>
+      </c>
+      <c r="M32" s="47" t="s">
+        <v>151</v>
+      </c>
+      <c r="N32" s="42" t="s">
+        <v>151</v>
+      </c>
+      <c r="O32" s="42" t="s">
+        <v>151</v>
+      </c>
+      <c r="P32" s="42" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q32" s="32">
+        <v>0</v>
+      </c>
+      <c r="R32" s="29" t="s">
+        <v>127</v>
+      </c>
+      <c r="S32" s="30" t="s">
+        <v>174</v>
+      </c>
+      <c r="T32" s="26" t="s">
+        <v>187</v>
+      </c>
+      <c r="U32" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="V32" s="36" t="s">
+        <v>151</v>
+      </c>
+      <c r="W32" s="36">
+        <v>0</v>
+      </c>
+      <c r="X32" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y32" s="36">
+        <v>10</v>
+      </c>
+      <c r="Z32" s="39" t="s">
+        <v>151</v>
+      </c>
+      <c r="AA32" s="39" t="s">
+        <v>151</v>
+      </c>
+      <c r="AB32" s="39" t="s">
+        <v>151</v>
+      </c>
+      <c r="AC32" s="37">
+        <v>1.6</v>
+      </c>
+      <c r="AD32" s="37" t="s">
+        <v>151</v>
+      </c>
+      <c r="AE32" s="37" t="s">
+        <v>151</v>
+      </c>
+      <c r="AF32" s="37">
+        <v>4</v>
+      </c>
+      <c r="AG32" s="37" t="s">
+        <v>191</v>
+      </c>
+      <c r="AH32" s="37">
+        <v>50</v>
+      </c>
+      <c r="AI32" s="37" t="s">
+        <v>151</v>
+      </c>
+      <c r="AJ32" s="37" t="s">
+        <v>151</v>
+      </c>
+      <c r="AK32" s="37" t="s">
+        <v>151</v>
+      </c>
+      <c r="AL32" s="37" t="s">
+        <v>151</v>
+      </c>
+      <c r="AM32" s="37" t="s">
+        <v>151</v>
+      </c>
+      <c r="AN32" s="37" t="s">
+        <v>151</v>
+      </c>
+      <c r="AO32" s="37" t="s">
+        <v>151</v>
+      </c>
+      <c r="AP32" s="37" t="s">
+        <v>151</v>
+      </c>
+      <c r="AQ32" s="37" t="s">
+        <v>151</v>
+      </c>
+      <c r="AR32" s="37" t="s">
+        <v>196</v>
+      </c>
+      <c r="AS32" s="37" t="s">
+        <v>151</v>
+      </c>
+      <c r="AT32" s="37" t="s">
+        <v>151</v>
+      </c>
+      <c r="AU32" s="37" t="s">
         <v>151</v>
       </c>
     </row>
@@ -7174,39 +8580,39 @@
     <mergeCell ref="AC1:AU1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:P44"/>
   <sheetViews>
     <sheetView zoomScale="131" workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.83203125" customWidth="1"/>
+    <col min="1" max="1" width="4.875" customWidth="1"/>
     <col min="2" max="2" width="19" customWidth="1"/>
     <col min="3" max="3" width="25.5" customWidth="1"/>
     <col min="4" max="4" width="29" customWidth="1"/>
-    <col min="5" max="5" width="11.33203125" customWidth="1"/>
+    <col min="5" max="5" width="11.375" customWidth="1"/>
     <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.875" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="13" customWidth="1"/>
     <col min="10" max="10" width="11" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11.5" customWidth="1"/>
     <col min="13" max="13" width="36.5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="20.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:16" ht="24" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:16" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -7225,7 +8631,7 @@
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
-    <row r="3" spans="2:16" s="16" customFormat="1" ht="182" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:16" s="16" customFormat="1" ht="153" x14ac:dyDescent="0.2">
       <c r="D3" s="16" t="s">
         <v>30</v>
       </c>
@@ -7239,7 +8645,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="2:16" ht="127" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:16" ht="129.75" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
         <v>74</v>
       </c>
@@ -7280,7 +8686,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B5" s="5" t="s">
         <v>3</v>
       </c>
@@ -7311,7 +8717,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B6" s="5" t="s">
         <v>6</v>
       </c>
@@ -7338,7 +8744,7 @@
       <c r="M6" s="18"/>
       <c r="N6" s="18"/>
     </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B7" s="5" t="s">
         <v>6</v>
       </c>
@@ -7361,7 +8767,7 @@
       <c r="M7" s="18"/>
       <c r="N7" s="18"/>
     </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B8" s="5" t="s">
         <v>6</v>
       </c>
@@ -7384,7 +8790,7 @@
       <c r="M8" s="18"/>
       <c r="N8" s="18"/>
     </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B9" s="5" t="s">
         <v>17</v>
       </c>
@@ -7405,7 +8811,7 @@
       <c r="M9" s="18"/>
       <c r="N9" s="18"/>
     </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B10" s="5" t="s">
         <v>17</v>
       </c>
@@ -7426,7 +8832,7 @@
       <c r="M10" s="18"/>
       <c r="N10" s="18"/>
     </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B11" s="5" t="s">
         <v>17</v>
       </c>
@@ -7447,7 +8853,7 @@
       <c r="M11" s="18"/>
       <c r="N11" s="18"/>
     </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B12" s="5" t="s">
         <v>17</v>
       </c>
@@ -7468,7 +8874,7 @@
       <c r="M12" s="18"/>
       <c r="N12" s="18"/>
     </row>
-    <row r="13" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B13" s="5" t="s">
         <v>17</v>
       </c>
@@ -7489,7 +8895,7 @@
       <c r="M13" s="18"/>
       <c r="N13" s="18"/>
     </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B14" s="5" t="s">
         <v>17</v>
       </c>
@@ -7510,7 +8916,7 @@
       <c r="M14" s="18"/>
       <c r="N14" s="18"/>
     </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B15" s="5" t="s">
         <v>17</v>
       </c>
@@ -7531,7 +8937,7 @@
       <c r="M15" s="18"/>
       <c r="N15" s="18"/>
     </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B16" s="5" t="s">
         <v>3</v>
       </c>
@@ -7562,7 +8968,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B17" s="5" t="s">
         <v>6</v>
       </c>
@@ -7589,7 +8995,7 @@
       <c r="M17" s="18"/>
       <c r="N17" s="18"/>
     </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B18" s="5" t="s">
         <v>6</v>
       </c>
@@ -7612,7 +9018,7 @@
       <c r="M18" s="18"/>
       <c r="N18" s="18"/>
     </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B19" s="5" t="s">
         <v>6</v>
       </c>
@@ -7635,7 +9041,7 @@
       <c r="M19" s="18"/>
       <c r="N19" s="18"/>
     </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B20" s="5" t="s">
         <v>17</v>
       </c>
@@ -7656,7 +9062,7 @@
       <c r="M20" s="18"/>
       <c r="N20" s="18"/>
     </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B21" s="5" t="s">
         <v>17</v>
       </c>
@@ -7677,7 +9083,7 @@
       <c r="M21" s="18"/>
       <c r="N21" s="18"/>
     </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B22" s="5" t="s">
         <v>17</v>
       </c>
@@ -7698,7 +9104,7 @@
       <c r="M22" s="18"/>
       <c r="N22" s="18"/>
     </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B23" s="5" t="s">
         <v>17</v>
       </c>
@@ -7719,7 +9125,7 @@
       <c r="M23" s="18"/>
       <c r="N23" s="18"/>
     </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B24" s="5" t="s">
         <v>17</v>
       </c>
@@ -7740,7 +9146,7 @@
       <c r="M24" s="18"/>
       <c r="N24" s="18"/>
     </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B25" s="5" t="s">
         <v>17</v>
       </c>
@@ -7761,7 +9167,7 @@
       <c r="M25" s="18"/>
       <c r="N25" s="18"/>
     </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B26" s="5" t="s">
         <v>3</v>
       </c>
@@ -7792,7 +9198,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B27" s="5" t="s">
         <v>6</v>
       </c>
@@ -7819,7 +9225,7 @@
       <c r="M27" s="18"/>
       <c r="N27" s="18"/>
     </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B28" s="5" t="s">
         <v>6</v>
       </c>
@@ -7842,7 +9248,7 @@
       <c r="M28" s="18"/>
       <c r="N28" s="18"/>
     </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B29" s="5" t="s">
         <v>6</v>
       </c>
@@ -7865,7 +9271,7 @@
       <c r="M29" s="18"/>
       <c r="N29" s="18"/>
     </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B30" s="5" t="s">
         <v>17</v>
       </c>
@@ -7886,7 +9292,7 @@
       <c r="M30" s="18"/>
       <c r="N30" s="18"/>
     </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B31" s="5" t="s">
         <v>17</v>
       </c>
@@ -7907,7 +9313,7 @@
       <c r="M31" s="18"/>
       <c r="N31" s="18"/>
     </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B32" s="5" t="s">
         <v>17</v>
       </c>
@@ -7928,7 +9334,7 @@
       <c r="M32" s="18"/>
       <c r="N32" s="18"/>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B33" s="5" t="s">
         <v>17</v>
       </c>
@@ -7949,7 +9355,7 @@
       <c r="M33" s="18"/>
       <c r="N33" s="18"/>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B34" s="5" t="s">
         <v>17</v>
       </c>
@@ -7970,7 +9376,7 @@
       <c r="M34" s="18"/>
       <c r="N34" s="18"/>
     </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B35" s="5" t="s">
         <v>17</v>
       </c>
@@ -7991,7 +9397,7 @@
       <c r="M35" s="18"/>
       <c r="N35" s="18"/>
     </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B36" s="5" t="s">
         <v>17</v>
       </c>
@@ -8012,7 +9418,7 @@
       <c r="M36" s="18"/>
       <c r="N36" s="18"/>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B37" s="5" t="s">
         <v>17</v>
       </c>
@@ -8033,7 +9439,7 @@
       <c r="M37" s="18"/>
       <c r="N37" s="18"/>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B38" s="5" t="s">
         <v>3</v>
       </c>
@@ -8064,7 +9470,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B39" s="5" t="s">
         <v>6</v>
       </c>
@@ -8087,7 +9493,7 @@
       <c r="M39" s="18"/>
       <c r="N39" s="18"/>
     </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B40" s="5" t="s">
         <v>6</v>
       </c>
@@ -8110,7 +9516,7 @@
       <c r="M40" s="18"/>
       <c r="N40" s="18"/>
     </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B41" s="5" t="s">
         <v>17</v>
       </c>
@@ -8131,7 +9537,7 @@
       <c r="M41" s="18"/>
       <c r="N41" s="18"/>
     </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B42" s="5" t="s">
         <v>3</v>
       </c>
@@ -8162,7 +9568,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B43" s="5" t="s">
         <v>6</v>
       </c>
@@ -8187,7 +9593,7 @@
       <c r="M43" s="18"/>
       <c r="N43" s="18"/>
     </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B44" s="5" t="s">
         <v>17</v>
       </c>
@@ -8210,132 +9616,132 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="I5:N13 I15:N25 I38:N44">
-    <cfRule type="expression" dxfId="25" priority="27">
+    <cfRule type="expression" dxfId="24" priority="27">
       <formula>$B5&lt;&gt;"&lt;Definition&gt;"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E5:H13 F24:H24 E15:H23 E25:H25 E38:H44">
-    <cfRule type="expression" dxfId="24" priority="26">
+    <cfRule type="expression" dxfId="23" priority="26">
       <formula>$B5&lt;&gt;"&lt;Item&gt;"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5:D13 D15 D38:D44">
-    <cfRule type="expression" dxfId="23" priority="25">
+    <cfRule type="expression" dxfId="22" priority="25">
       <formula>$B5&lt;&gt;"&lt;Param&gt;"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16:D25">
-    <cfRule type="expression" dxfId="22" priority="22">
+    <cfRule type="expression" dxfId="21" priority="22">
       <formula>$B16&lt;&gt;"&lt;Param&gt;"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B24:D24 F24:L24 B5:N13 B15:L23 B25:L25 M15:N25 B38:N44">
-    <cfRule type="expression" dxfId="21" priority="21">
+    <cfRule type="expression" dxfId="20" priority="21">
       <formula>$B5="&lt;Definition&gt;"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E24">
-    <cfRule type="expression" dxfId="20" priority="20">
+    <cfRule type="expression" dxfId="19" priority="20">
       <formula>$B24&lt;&gt;"&lt;Item&gt;"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E24">
-    <cfRule type="expression" dxfId="19" priority="19">
+    <cfRule type="expression" dxfId="18" priority="19">
       <formula>$B24="&lt;Definition&gt;"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I14:N14">
-    <cfRule type="expression" dxfId="18" priority="18">
+    <cfRule type="expression" dxfId="17" priority="18">
       <formula>$B14&lt;&gt;"&lt;Definition&gt;"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E14:H14">
-    <cfRule type="expression" dxfId="17" priority="17">
+    <cfRule type="expression" dxfId="16" priority="17">
       <formula>$B14&lt;&gt;"&lt;Item&gt;"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D14">
-    <cfRule type="expression" dxfId="16" priority="16">
+    <cfRule type="expression" dxfId="15" priority="16">
       <formula>$B14&lt;&gt;"&lt;Param&gt;"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B14:N14">
-    <cfRule type="expression" dxfId="15" priority="15">
+    <cfRule type="expression" dxfId="14" priority="15">
       <formula>$B14="&lt;Definition&gt;"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I26:N34 I37:N37">
-    <cfRule type="expression" dxfId="14" priority="14">
+    <cfRule type="expression" dxfId="13" priority="14">
       <formula>$B26&lt;&gt;"&lt;Definition&gt;"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F34:H34 E26:H33 E37:H37">
-    <cfRule type="expression" dxfId="13" priority="13">
+    <cfRule type="expression" dxfId="12" priority="13">
       <formula>$B26&lt;&gt;"&lt;Item&gt;"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D26:D34 D37">
-    <cfRule type="expression" dxfId="12" priority="12">
+    <cfRule type="expression" dxfId="11" priority="12">
       <formula>$B26&lt;&gt;"&lt;Param&gt;"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B34:D34 F34:L34 B26:L33 M26:N34 B37:N37">
-    <cfRule type="expression" dxfId="11" priority="11">
+    <cfRule type="expression" dxfId="10" priority="11">
       <formula>$B26="&lt;Definition&gt;"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E34">
-    <cfRule type="expression" dxfId="10" priority="10">
+    <cfRule type="expression" dxfId="9" priority="10">
       <formula>$B34&lt;&gt;"&lt;Item&gt;"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E34">
-    <cfRule type="expression" dxfId="9" priority="9">
+    <cfRule type="expression" dxfId="8" priority="9">
       <formula>$B34="&lt;Definition&gt;"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I35:N35">
-    <cfRule type="expression" dxfId="8" priority="8">
+    <cfRule type="expression" dxfId="7" priority="8">
       <formula>$B35&lt;&gt;"&lt;Definition&gt;"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E35:H35">
-    <cfRule type="expression" dxfId="7" priority="7">
+    <cfRule type="expression" dxfId="6" priority="7">
       <formula>$B35&lt;&gt;"&lt;Item&gt;"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D35">
-    <cfRule type="expression" dxfId="6" priority="6">
+    <cfRule type="expression" dxfId="5" priority="6">
       <formula>$B35&lt;&gt;"&lt;Param&gt;"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B35:N35">
-    <cfRule type="expression" dxfId="5" priority="5">
+    <cfRule type="expression" dxfId="4" priority="5">
       <formula>$B35="&lt;Definition&gt;"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I36:N36">
-    <cfRule type="expression" dxfId="4" priority="4">
+    <cfRule type="expression" dxfId="3" priority="4">
       <formula>$B36&lt;&gt;"&lt;Definition&gt;"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E36:H36">
-    <cfRule type="expression" dxfId="3" priority="3">
+    <cfRule type="expression" dxfId="2" priority="3">
       <formula>$B36&lt;&gt;"&lt;Item&gt;"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D36">
-    <cfRule type="expression" dxfId="2" priority="2">
+    <cfRule type="expression" dxfId="1" priority="2">
       <formula>$B36&lt;&gt;"&lt;Param&gt;"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B36:N36">
-    <cfRule type="expression" dxfId="1" priority="1">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>$B36="&lt;Definition&gt;"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5:B44" xr:uid="{00000000-0002-0000-0200-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5:B44">
       <formula1>"&lt;Definition&gt;,&lt;Item&gt;,&lt;Param&gt;"</formula1>
     </dataValidation>
   </dataValidations>
@@ -8347,13 +9753,13 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000001000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>ValidationData!$B$4:$B$9</xm:f>
           </x14:formula1>
           <xm:sqref>E5:E44</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" xr:uid="{00000000-0002-0000-0200-000002000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>ValidationData!$D$4:$D$31</xm:f>
           </x14:formula1>
@@ -8366,19 +9772,19 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:D31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="23" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B2" s="20" t="s">
         <v>48</v>
       </c>
@@ -8387,10 +9793,10 @@
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D3" s="20"/>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>21</v>
       </c>
@@ -8398,7 +9804,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>19</v>
       </c>
@@ -8406,7 +9812,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>65</v>
       </c>
@@ -8414,13 +9820,13 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>27</v>
       </c>
       <c r="D7" s="21"/>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>18</v>
       </c>
@@ -8428,7 +9834,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>66</v>
       </c>
@@ -8436,7 +9842,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>151</v>
       </c>
@@ -8444,107 +9850,107 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D11" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D12" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D13" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D14" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D15" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D16" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D17" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="18" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D18" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="19" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D19" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="20" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D20" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="21" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D21" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="22" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D22" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="23" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D23" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="24" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D24" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="25" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D25" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="26" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D26" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="27" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D27" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="28" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D28" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="29" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D29" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="30" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D30" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="31" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D31" t="s">
         <v>62</v>
       </c>

--- a/Docs/Content/HungryDragonContent_Offers.xlsx
+++ b/Docs/Content/HungryDragonContent_Offers.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1391" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1381" uniqueCount="199">
   <si>
     <t>OFFER PACKS DEFINITIONS</t>
   </si>
@@ -622,15 +622,25 @@
   </si>
   <si>
     <t>TID_OFFER_PACK_INTERMEDIATE</t>
+  </si>
+  <si>
+    <t>intermediatePack2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1021,200 +1031,731 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="45"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="45"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="45"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="45" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="45"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="6" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="45"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="45" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="6" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="7" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="6" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="7" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="45"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="45"/>
     </xf>
-    <xf numFmtId="2" fontId="6" fillId="9" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="7" fillId="9" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="45"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="45"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="45"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="45"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="23" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="23" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="23" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="23" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="91">
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FFDCE6F1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FFDCE6F1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FFDCE6F1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FFDCE6F1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FFDCE6F1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FFDCE6F1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="7" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="45" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -1492,534 +2033,6 @@
     </dxf>
     <dxf>
       <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FFDCE6F1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FFDCE6F1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FFDCE6F1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FFDCE6F1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FFDCE6F1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FFDCE6F1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="7" tint="0.39997558519241921"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="45" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -3859,22 +3872,22 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="offerPacksDefinitions_OLD" displayName="offerPacksDefinitions_OLD" ref="B4:N44" totalsRowShown="0" headerRowDxfId="41" dataDxfId="39" headerRowBorderDxfId="40" tableBorderDxfId="38">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="offerPacksDefinitions_OLD" displayName="offerPacksDefinitions_OLD" ref="B4:N44" totalsRowShown="0" headerRowDxfId="16" dataDxfId="14" headerRowBorderDxfId="15" tableBorderDxfId="13">
   <autoFilter ref="B4:N44"/>
   <tableColumns count="13">
-    <tableColumn id="1" name="offerPacksDefinitions_OLD" dataDxfId="37"/>
-    <tableColumn id="2" name="[sku]" dataDxfId="36"/>
-    <tableColumn id="15" name="[paramValue]" dataDxfId="35"/>
-    <tableColumn id="7" name="[itemType]" dataDxfId="34"/>
-    <tableColumn id="8" name="[itemAmount]" dataDxfId="33"/>
-    <tableColumn id="9" name="[itemSku]" dataDxfId="32"/>
-    <tableColumn id="23" name="[itemFeatured]" dataDxfId="31"/>
-    <tableColumn id="22" name="[minAppVersion]" dataDxfId="30"/>
-    <tableColumn id="4" name="[order]" dataDxfId="29"/>
-    <tableColumn id="24" name="[refPrice]" dataDxfId="28"/>
-    <tableColumn id="6" name="[discount]" dataDxfId="27"/>
-    <tableColumn id="3" name="[iapSku]" dataDxfId="26"/>
-    <tableColumn id="5" name="[tidName]" dataDxfId="25"/>
+    <tableColumn id="1" name="offerPacksDefinitions_OLD" dataDxfId="12"/>
+    <tableColumn id="2" name="[sku]" dataDxfId="11"/>
+    <tableColumn id="15" name="[paramValue]" dataDxfId="10"/>
+    <tableColumn id="7" name="[itemType]" dataDxfId="9"/>
+    <tableColumn id="8" name="[itemAmount]" dataDxfId="8"/>
+    <tableColumn id="9" name="[itemSku]" dataDxfId="7"/>
+    <tableColumn id="23" name="[itemFeatured]" dataDxfId="6"/>
+    <tableColumn id="22" name="[minAppVersion]" dataDxfId="5"/>
+    <tableColumn id="4" name="[order]" dataDxfId="4"/>
+    <tableColumn id="24" name="[refPrice]" dataDxfId="3"/>
+    <tableColumn id="6" name="[discount]" dataDxfId="2"/>
+    <tableColumn id="3" name="[iapSku]" dataDxfId="1"/>
+    <tableColumn id="5" name="[tidName]" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4179,8 +4192,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AU32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4198,7 +4211,9 @@
     <col min="21" max="21" width="19.875" bestFit="1" customWidth="1"/>
     <col min="22" max="23" width="7.5" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="13.625" bestFit="1" customWidth="1"/>
-    <col min="25" max="32" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="27" max="32" width="7.5" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="8.25" bestFit="1" customWidth="1"/>
     <col min="34" max="47" width="7.5" bestFit="1" customWidth="1"/>
   </cols>
@@ -4213,32 +4228,32 @@
       <c r="S1" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="Z1" s="53" t="s">
+      <c r="Z1" s="64" t="s">
         <v>101</v>
       </c>
-      <c r="AA1" s="53"/>
+      <c r="AA1" s="64"/>
       <c r="AB1" s="49"/>
-      <c r="AC1" s="54" t="s">
+      <c r="AC1" s="65" t="s">
         <v>100</v>
       </c>
-      <c r="AD1" s="54"/>
-      <c r="AE1" s="54"/>
-      <c r="AF1" s="54"/>
-      <c r="AG1" s="54"/>
-      <c r="AH1" s="54"/>
-      <c r="AI1" s="54"/>
-      <c r="AJ1" s="54"/>
-      <c r="AK1" s="54"/>
-      <c r="AL1" s="54"/>
-      <c r="AM1" s="54"/>
-      <c r="AN1" s="54"/>
-      <c r="AO1" s="54"/>
-      <c r="AP1" s="54"/>
-      <c r="AQ1" s="54"/>
-      <c r="AR1" s="54"/>
-      <c r="AS1" s="54"/>
-      <c r="AT1" s="54"/>
-      <c r="AU1" s="54"/>
+      <c r="AD1" s="65"/>
+      <c r="AE1" s="65"/>
+      <c r="AF1" s="65"/>
+      <c r="AG1" s="65"/>
+      <c r="AH1" s="65"/>
+      <c r="AI1" s="65"/>
+      <c r="AJ1" s="65"/>
+      <c r="AK1" s="65"/>
+      <c r="AL1" s="65"/>
+      <c r="AM1" s="65"/>
+      <c r="AN1" s="65"/>
+      <c r="AO1" s="65"/>
+      <c r="AP1" s="65"/>
+      <c r="AQ1" s="65"/>
+      <c r="AR1" s="65"/>
+      <c r="AS1" s="65"/>
+      <c r="AT1" s="65"/>
+      <c r="AU1" s="65"/>
     </row>
     <row r="2" spans="2:47" ht="114.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
@@ -7181,140 +7196,140 @@
       </c>
     </row>
     <row r="23" spans="2:47" x14ac:dyDescent="0.25">
-      <c r="B23" s="55" t="s">
+      <c r="B23" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="C23" s="56" t="s">
+      <c r="C23" s="54" t="s">
         <v>165</v>
       </c>
-      <c r="D23" s="57" t="s">
-        <v>165</v>
-      </c>
-      <c r="E23" s="58" t="b">
+      <c r="D23" s="55" t="s">
+        <v>131</v>
+      </c>
+      <c r="E23" s="56" t="b">
         <v>1</v>
       </c>
-      <c r="F23" s="58">
+      <c r="F23" s="56">
         <v>1</v>
       </c>
-      <c r="G23" s="58" t="b">
+      <c r="G23" s="56" t="b">
         <v>1</v>
       </c>
-      <c r="H23" s="58" t="s">
+      <c r="H23" s="56" t="s">
         <v>18</v>
       </c>
-      <c r="I23" s="58">
+      <c r="I23" s="56">
         <v>1</v>
       </c>
-      <c r="J23" s="58" t="s">
+      <c r="J23" s="56" t="s">
         <v>188</v>
       </c>
-      <c r="K23" s="58" t="s">
+      <c r="K23" s="56" t="s">
         <v>19</v>
       </c>
-      <c r="L23" s="58">
+      <c r="L23" s="56">
         <v>60</v>
       </c>
-      <c r="M23" s="58" t="s">
-        <v>151</v>
-      </c>
-      <c r="N23" s="58" t="s">
-        <v>151</v>
-      </c>
-      <c r="O23" s="58" t="s">
-        <v>151</v>
-      </c>
-      <c r="P23" s="58" t="s">
-        <v>151</v>
-      </c>
-      <c r="Q23" s="59">
+      <c r="M23" s="56" t="s">
+        <v>151</v>
+      </c>
+      <c r="N23" s="56" t="s">
+        <v>151</v>
+      </c>
+      <c r="O23" s="56" t="s">
+        <v>151</v>
+      </c>
+      <c r="P23" s="56" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q23" s="57">
         <v>0</v>
       </c>
-      <c r="R23" s="60" t="s">
+      <c r="R23" s="58" t="s">
         <v>99</v>
       </c>
-      <c r="S23" s="61" t="s">
+      <c r="S23" s="59" t="s">
         <v>174</v>
       </c>
-      <c r="T23" s="62" t="s">
+      <c r="T23" s="60" t="s">
         <v>179</v>
       </c>
-      <c r="U23" s="63" t="s">
+      <c r="U23" s="61" t="s">
         <v>197</v>
       </c>
-      <c r="V23" s="64" t="s">
-        <v>151</v>
-      </c>
-      <c r="W23" s="64">
+      <c r="V23" s="62" t="s">
+        <v>151</v>
+      </c>
+      <c r="W23" s="62">
         <v>0</v>
       </c>
-      <c r="X23" s="64" t="s">
+      <c r="X23" s="62" t="s">
         <v>26</v>
       </c>
-      <c r="Y23" s="64">
+      <c r="Y23" s="62">
         <v>10</v>
       </c>
-      <c r="Z23" s="64" t="s">
-        <v>151</v>
-      </c>
-      <c r="AA23" s="64" t="s">
-        <v>151</v>
-      </c>
-      <c r="AB23" s="64" t="s">
-        <v>151</v>
-      </c>
-      <c r="AC23" s="65">
+      <c r="Z23" s="62">
+        <v>1528070400</v>
+      </c>
+      <c r="AA23" s="62" t="s">
+        <v>151</v>
+      </c>
+      <c r="AB23" s="62" t="s">
+        <v>151</v>
+      </c>
+      <c r="AC23" s="63">
         <v>1.6</v>
       </c>
-      <c r="AD23" s="65" t="s">
-        <v>151</v>
-      </c>
-      <c r="AE23" s="65" t="s">
-        <v>151</v>
-      </c>
-      <c r="AF23" s="65">
+      <c r="AD23" s="63" t="s">
+        <v>151</v>
+      </c>
+      <c r="AE23" s="63" t="s">
+        <v>151</v>
+      </c>
+      <c r="AF23" s="63">
         <v>4</v>
       </c>
-      <c r="AG23" s="65" t="s">
-        <v>151</v>
-      </c>
-      <c r="AH23" s="65" t="s">
-        <v>151</v>
-      </c>
-      <c r="AI23" s="65" t="s">
-        <v>151</v>
-      </c>
-      <c r="AJ23" s="65" t="s">
-        <v>151</v>
-      </c>
-      <c r="AK23" s="65" t="s">
-        <v>151</v>
-      </c>
-      <c r="AL23" s="65" t="s">
-        <v>151</v>
-      </c>
-      <c r="AM23" s="65" t="s">
-        <v>151</v>
-      </c>
-      <c r="AN23" s="65"/>
-      <c r="AO23" s="65" t="s">
-        <v>151</v>
-      </c>
-      <c r="AP23" s="65" t="s">
+      <c r="AG23" s="63" t="s">
+        <v>151</v>
+      </c>
+      <c r="AH23" s="63" t="s">
+        <v>151</v>
+      </c>
+      <c r="AI23" s="63" t="s">
+        <v>151</v>
+      </c>
+      <c r="AJ23" s="63" t="s">
+        <v>151</v>
+      </c>
+      <c r="AK23" s="63" t="s">
+        <v>151</v>
+      </c>
+      <c r="AL23" s="63" t="s">
+        <v>151</v>
+      </c>
+      <c r="AM23" s="63" t="s">
+        <v>151</v>
+      </c>
+      <c r="AN23" s="63"/>
+      <c r="AO23" s="63" t="s">
+        <v>151</v>
+      </c>
+      <c r="AP23" s="63" t="s">
         <v>188</v>
       </c>
-      <c r="AQ23" s="65" t="s">
-        <v>151</v>
-      </c>
-      <c r="AR23" s="65" t="s">
+      <c r="AQ23" s="63" t="s">
+        <v>151</v>
+      </c>
+      <c r="AR23" s="63" t="s">
         <v>192</v>
       </c>
-      <c r="AS23" s="65" t="s">
-        <v>151</v>
-      </c>
-      <c r="AT23" s="65" t="s">
-        <v>151</v>
-      </c>
-      <c r="AU23" s="65" t="s">
+      <c r="AS23" s="63" t="s">
+        <v>151</v>
+      </c>
+      <c r="AT23" s="63" t="s">
+        <v>151</v>
+      </c>
+      <c r="AU23" s="63" t="s">
         <v>151</v>
       </c>
     </row>
@@ -7391,8 +7406,8 @@
       <c r="Y24" s="36">
         <v>10</v>
       </c>
-      <c r="Z24" s="39" t="s">
-        <v>151</v>
+      <c r="Z24" s="39">
+        <v>1528070400</v>
       </c>
       <c r="AA24" s="39" t="s">
         <v>151</v>
@@ -7531,8 +7546,8 @@
       <c r="Y25" s="36">
         <v>10</v>
       </c>
-      <c r="Z25" s="39" t="s">
-        <v>151</v>
+      <c r="Z25" s="39">
+        <v>1528070400</v>
       </c>
       <c r="AA25" s="39" t="s">
         <v>151</v>
@@ -7603,8 +7618,8 @@
       <c r="C26" s="38" t="s">
         <v>167</v>
       </c>
-      <c r="D26" s="51" t="s">
-        <v>167</v>
+      <c r="D26" s="66" t="s">
+        <v>198</v>
       </c>
       <c r="E26" s="40" t="b">
         <v>1</v>
@@ -7669,8 +7684,8 @@
       <c r="Y26" s="36">
         <v>10</v>
       </c>
-      <c r="Z26" s="39" t="s">
-        <v>151</v>
+      <c r="Z26" s="39">
+        <v>1528070400</v>
       </c>
       <c r="AA26" s="39" t="s">
         <v>151</v>
@@ -7743,8 +7758,8 @@
       <c r="C27" s="38" t="s">
         <v>168</v>
       </c>
-      <c r="D27" s="51" t="s">
-        <v>168</v>
+      <c r="D27" s="66" t="s">
+        <v>198</v>
       </c>
       <c r="E27" s="40" t="b">
         <v>1</v>
@@ -7809,8 +7824,8 @@
       <c r="Y27" s="36">
         <v>10</v>
       </c>
-      <c r="Z27" s="39" t="s">
-        <v>151</v>
+      <c r="Z27" s="39">
+        <v>1528070400</v>
       </c>
       <c r="AA27" s="39" t="s">
         <v>151</v>
@@ -7883,8 +7898,8 @@
       <c r="C28" s="38" t="s">
         <v>169</v>
       </c>
-      <c r="D28" s="51" t="s">
-        <v>169</v>
+      <c r="D28" s="66" t="s">
+        <v>198</v>
       </c>
       <c r="E28" s="40" t="b">
         <v>1</v>
@@ -7949,8 +7964,8 @@
       <c r="Y28" s="36">
         <v>10</v>
       </c>
-      <c r="Z28" s="39" t="s">
-        <v>151</v>
+      <c r="Z28" s="39">
+        <v>1528070400</v>
       </c>
       <c r="AA28" s="39" t="s">
         <v>151</v>
@@ -8023,8 +8038,8 @@
       <c r="C29" s="38" t="s">
         <v>170</v>
       </c>
-      <c r="D29" s="51" t="s">
-        <v>170</v>
+      <c r="D29" s="66" t="s">
+        <v>198</v>
       </c>
       <c r="E29" s="40" t="b">
         <v>1</v>
@@ -8089,8 +8104,8 @@
       <c r="Y29" s="36">
         <v>10</v>
       </c>
-      <c r="Z29" s="39" t="s">
-        <v>151</v>
+      <c r="Z29" s="39">
+        <v>1528070400</v>
       </c>
       <c r="AA29" s="39" t="s">
         <v>151</v>
@@ -8163,8 +8178,8 @@
       <c r="C30" s="38" t="s">
         <v>171</v>
       </c>
-      <c r="D30" s="51" t="s">
-        <v>171</v>
+      <c r="D30" s="66" t="s">
+        <v>198</v>
       </c>
       <c r="E30" s="40" t="b">
         <v>1</v>
@@ -8229,8 +8244,8 @@
       <c r="Y30" s="36">
         <v>10</v>
       </c>
-      <c r="Z30" s="39" t="s">
-        <v>151</v>
+      <c r="Z30" s="39">
+        <v>1528070400</v>
       </c>
       <c r="AA30" s="39" t="s">
         <v>151</v>
@@ -8369,8 +8384,8 @@
       <c r="Y31" s="36">
         <v>10</v>
       </c>
-      <c r="Z31" s="39" t="s">
-        <v>151</v>
+      <c r="Z31" s="39">
+        <v>1528070400</v>
       </c>
       <c r="AA31" s="39" t="s">
         <v>151</v>
@@ -8507,8 +8522,8 @@
       <c r="Y32" s="36">
         <v>10</v>
       </c>
-      <c r="Z32" s="39" t="s">
-        <v>151</v>
+      <c r="Z32" s="39">
+        <v>1528070400</v>
       </c>
       <c r="AA32" s="39" t="s">
         <v>151</v>
@@ -9616,127 +9631,127 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="I5:N13 I15:N25 I38:N44">
-    <cfRule type="expression" dxfId="24" priority="27">
+    <cfRule type="expression" dxfId="41" priority="27">
       <formula>$B5&lt;&gt;"&lt;Definition&gt;"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E5:H13 F24:H24 E15:H23 E25:H25 E38:H44">
-    <cfRule type="expression" dxfId="23" priority="26">
+    <cfRule type="expression" dxfId="40" priority="26">
       <formula>$B5&lt;&gt;"&lt;Item&gt;"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5:D13 D15 D38:D44">
-    <cfRule type="expression" dxfId="22" priority="25">
+    <cfRule type="expression" dxfId="39" priority="25">
       <formula>$B5&lt;&gt;"&lt;Param&gt;"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16:D25">
-    <cfRule type="expression" dxfId="21" priority="22">
+    <cfRule type="expression" dxfId="38" priority="22">
       <formula>$B16&lt;&gt;"&lt;Param&gt;"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B24:D24 F24:L24 B5:N13 B15:L23 B25:L25 M15:N25 B38:N44">
-    <cfRule type="expression" dxfId="20" priority="21">
+    <cfRule type="expression" dxfId="37" priority="21">
       <formula>$B5="&lt;Definition&gt;"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E24">
-    <cfRule type="expression" dxfId="19" priority="20">
+    <cfRule type="expression" dxfId="36" priority="20">
       <formula>$B24&lt;&gt;"&lt;Item&gt;"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E24">
-    <cfRule type="expression" dxfId="18" priority="19">
+    <cfRule type="expression" dxfId="35" priority="19">
       <formula>$B24="&lt;Definition&gt;"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I14:N14">
-    <cfRule type="expression" dxfId="17" priority="18">
+    <cfRule type="expression" dxfId="34" priority="18">
       <formula>$B14&lt;&gt;"&lt;Definition&gt;"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E14:H14">
-    <cfRule type="expression" dxfId="16" priority="17">
+    <cfRule type="expression" dxfId="33" priority="17">
       <formula>$B14&lt;&gt;"&lt;Item&gt;"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D14">
-    <cfRule type="expression" dxfId="15" priority="16">
+    <cfRule type="expression" dxfId="32" priority="16">
       <formula>$B14&lt;&gt;"&lt;Param&gt;"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B14:N14">
-    <cfRule type="expression" dxfId="14" priority="15">
+    <cfRule type="expression" dxfId="31" priority="15">
       <formula>$B14="&lt;Definition&gt;"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I26:N34 I37:N37">
-    <cfRule type="expression" dxfId="13" priority="14">
+    <cfRule type="expression" dxfId="30" priority="14">
       <formula>$B26&lt;&gt;"&lt;Definition&gt;"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F34:H34 E26:H33 E37:H37">
-    <cfRule type="expression" dxfId="12" priority="13">
+    <cfRule type="expression" dxfId="29" priority="13">
       <formula>$B26&lt;&gt;"&lt;Item&gt;"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D26:D34 D37">
-    <cfRule type="expression" dxfId="11" priority="12">
+    <cfRule type="expression" dxfId="28" priority="12">
       <formula>$B26&lt;&gt;"&lt;Param&gt;"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B34:D34 F34:L34 B26:L33 M26:N34 B37:N37">
-    <cfRule type="expression" dxfId="10" priority="11">
+    <cfRule type="expression" dxfId="27" priority="11">
       <formula>$B26="&lt;Definition&gt;"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E34">
-    <cfRule type="expression" dxfId="9" priority="10">
+    <cfRule type="expression" dxfId="26" priority="10">
       <formula>$B34&lt;&gt;"&lt;Item&gt;"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E34">
-    <cfRule type="expression" dxfId="8" priority="9">
+    <cfRule type="expression" dxfId="25" priority="9">
       <formula>$B34="&lt;Definition&gt;"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I35:N35">
-    <cfRule type="expression" dxfId="7" priority="8">
+    <cfRule type="expression" dxfId="24" priority="8">
       <formula>$B35&lt;&gt;"&lt;Definition&gt;"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E35:H35">
-    <cfRule type="expression" dxfId="6" priority="7">
+    <cfRule type="expression" dxfId="23" priority="7">
       <formula>$B35&lt;&gt;"&lt;Item&gt;"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D35">
-    <cfRule type="expression" dxfId="5" priority="6">
+    <cfRule type="expression" dxfId="22" priority="6">
       <formula>$B35&lt;&gt;"&lt;Param&gt;"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B35:N35">
-    <cfRule type="expression" dxfId="4" priority="5">
+    <cfRule type="expression" dxfId="21" priority="5">
       <formula>$B35="&lt;Definition&gt;"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I36:N36">
-    <cfRule type="expression" dxfId="3" priority="4">
+    <cfRule type="expression" dxfId="20" priority="4">
       <formula>$B36&lt;&gt;"&lt;Definition&gt;"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E36:H36">
-    <cfRule type="expression" dxfId="2" priority="3">
+    <cfRule type="expression" dxfId="19" priority="3">
       <formula>$B36&lt;&gt;"&lt;Item&gt;"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D36">
-    <cfRule type="expression" dxfId="1" priority="2">
+    <cfRule type="expression" dxfId="18" priority="2">
       <formula>$B36&lt;&gt;"&lt;Param&gt;"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B36:N36">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="17" priority="1">
       <formula>$B36="&lt;Definition&gt;"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Docs/Content/HungryDragonContent_Offers.xlsx
+++ b/Docs/Content/HungryDragonContent_Offers.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1381" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1371" uniqueCount="199">
   <si>
     <t>OFFER PACKS DEFINITIONS</t>
   </si>
@@ -1214,14 +1214,14 @@
     <xf numFmtId="0" fontId="6" fillId="24" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4192,8 +4192,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AU32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="M35" sqref="M35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4228,32 +4228,32 @@
       <c r="S1" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="Z1" s="64" t="s">
+      <c r="Z1" s="65" t="s">
         <v>101</v>
       </c>
-      <c r="AA1" s="64"/>
+      <c r="AA1" s="65"/>
       <c r="AB1" s="49"/>
-      <c r="AC1" s="65" t="s">
+      <c r="AC1" s="66" t="s">
         <v>100</v>
       </c>
-      <c r="AD1" s="65"/>
-      <c r="AE1" s="65"/>
-      <c r="AF1" s="65"/>
-      <c r="AG1" s="65"/>
-      <c r="AH1" s="65"/>
-      <c r="AI1" s="65"/>
-      <c r="AJ1" s="65"/>
-      <c r="AK1" s="65"/>
-      <c r="AL1" s="65"/>
-      <c r="AM1" s="65"/>
-      <c r="AN1" s="65"/>
-      <c r="AO1" s="65"/>
-      <c r="AP1" s="65"/>
-      <c r="AQ1" s="65"/>
-      <c r="AR1" s="65"/>
-      <c r="AS1" s="65"/>
-      <c r="AT1" s="65"/>
-      <c r="AU1" s="65"/>
+      <c r="AD1" s="66"/>
+      <c r="AE1" s="66"/>
+      <c r="AF1" s="66"/>
+      <c r="AG1" s="66"/>
+      <c r="AH1" s="66"/>
+      <c r="AI1" s="66"/>
+      <c r="AJ1" s="66"/>
+      <c r="AK1" s="66"/>
+      <c r="AL1" s="66"/>
+      <c r="AM1" s="66"/>
+      <c r="AN1" s="66"/>
+      <c r="AO1" s="66"/>
+      <c r="AP1" s="66"/>
+      <c r="AQ1" s="66"/>
+      <c r="AR1" s="66"/>
+      <c r="AS1" s="66"/>
+      <c r="AT1" s="66"/>
+      <c r="AU1" s="66"/>
     </row>
     <row r="2" spans="2:47" ht="114.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
@@ -7274,8 +7274,8 @@
       <c r="AA23" s="62" t="s">
         <v>151</v>
       </c>
-      <c r="AB23" s="62" t="s">
-        <v>151</v>
+      <c r="AB23" s="62">
+        <v>1440</v>
       </c>
       <c r="AC23" s="63">
         <v>1.6</v>
@@ -7412,8 +7412,8 @@
       <c r="AA24" s="39" t="s">
         <v>151</v>
       </c>
-      <c r="AB24" s="39" t="s">
-        <v>151</v>
+      <c r="AB24" s="39">
+        <v>1440</v>
       </c>
       <c r="AC24" s="37">
         <v>1.6</v>
@@ -7552,8 +7552,8 @@
       <c r="AA25" s="39" t="s">
         <v>151</v>
       </c>
-      <c r="AB25" s="39" t="s">
-        <v>151</v>
+      <c r="AB25" s="39">
+        <v>2880</v>
       </c>
       <c r="AC25" s="37">
         <v>1.6</v>
@@ -7618,7 +7618,7 @@
       <c r="C26" s="38" t="s">
         <v>167</v>
       </c>
-      <c r="D26" s="66" t="s">
+      <c r="D26" s="64" t="s">
         <v>198</v>
       </c>
       <c r="E26" s="40" t="b">
@@ -7690,8 +7690,8 @@
       <c r="AA26" s="39" t="s">
         <v>151</v>
       </c>
-      <c r="AB26" s="39" t="s">
-        <v>151</v>
+      <c r="AB26" s="39">
+        <v>1440</v>
       </c>
       <c r="AC26" s="37">
         <v>1.6</v>
@@ -7758,7 +7758,7 @@
       <c r="C27" s="38" t="s">
         <v>168</v>
       </c>
-      <c r="D27" s="66" t="s">
+      <c r="D27" s="64" t="s">
         <v>198</v>
       </c>
       <c r="E27" s="40" t="b">
@@ -7830,8 +7830,8 @@
       <c r="AA27" s="39" t="s">
         <v>151</v>
       </c>
-      <c r="AB27" s="39" t="s">
-        <v>151</v>
+      <c r="AB27" s="39">
+        <v>1440</v>
       </c>
       <c r="AC27" s="37">
         <v>1.6</v>
@@ -7898,7 +7898,7 @@
       <c r="C28" s="38" t="s">
         <v>169</v>
       </c>
-      <c r="D28" s="66" t="s">
+      <c r="D28" s="64" t="s">
         <v>198</v>
       </c>
       <c r="E28" s="40" t="b">
@@ -7970,8 +7970,8 @@
       <c r="AA28" s="39" t="s">
         <v>151</v>
       </c>
-      <c r="AB28" s="39" t="s">
-        <v>151</v>
+      <c r="AB28" s="39">
+        <v>1440</v>
       </c>
       <c r="AC28" s="37">
         <v>1.6</v>
@@ -8038,7 +8038,7 @@
       <c r="C29" s="38" t="s">
         <v>170</v>
       </c>
-      <c r="D29" s="66" t="s">
+      <c r="D29" s="64" t="s">
         <v>198</v>
       </c>
       <c r="E29" s="40" t="b">
@@ -8110,8 +8110,8 @@
       <c r="AA29" s="39" t="s">
         <v>151</v>
       </c>
-      <c r="AB29" s="39" t="s">
-        <v>151</v>
+      <c r="AB29" s="39">
+        <v>1440</v>
       </c>
       <c r="AC29" s="37">
         <v>1.6</v>
@@ -8178,7 +8178,7 @@
       <c r="C30" s="38" t="s">
         <v>171</v>
       </c>
-      <c r="D30" s="66" t="s">
+      <c r="D30" s="64" t="s">
         <v>198</v>
       </c>
       <c r="E30" s="40" t="b">
@@ -8250,8 +8250,8 @@
       <c r="AA30" s="39" t="s">
         <v>151</v>
       </c>
-      <c r="AB30" s="39" t="s">
-        <v>151</v>
+      <c r="AB30" s="39">
+        <v>1440</v>
       </c>
       <c r="AC30" s="37">
         <v>1.6</v>
@@ -8390,8 +8390,8 @@
       <c r="AA31" s="39" t="s">
         <v>151</v>
       </c>
-      <c r="AB31" s="39" t="s">
-        <v>151</v>
+      <c r="AB31" s="39">
+        <v>2880</v>
       </c>
       <c r="AC31" s="37">
         <v>1.6</v>
@@ -8528,8 +8528,8 @@
       <c r="AA32" s="39" t="s">
         <v>151</v>
       </c>
-      <c r="AB32" s="39" t="s">
-        <v>151</v>
+      <c r="AB32" s="39">
+        <v>4320</v>
       </c>
       <c r="AC32" s="37">
         <v>1.6</v>

--- a/Docs/Content/HungryDragonContent_Offers.xlsx
+++ b/Docs/Content/HungryDragonContent_Offers.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1371" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1371" uniqueCount="200">
   <si>
     <t>OFFER PACKS DEFINITIONS</t>
   </si>
@@ -625,6 +625,9 @@
   </si>
   <si>
     <t>intermediatePack2</t>
+  </si>
+  <si>
+    <t>1.6</t>
   </si>
 </sst>
 </file>
@@ -4192,8 +4195,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AU32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="M35" sqref="M35"/>
+    <sheetView tabSelected="1" topLeftCell="I7" workbookViewId="0">
+      <selection activeCell="U38" sqref="U38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4208,14 +4211,21 @@
     <col min="18" max="18" width="14.75" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="14.25" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="39.75" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="19.875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="26.875" bestFit="1" customWidth="1"/>
     <col min="22" max="23" width="7.5" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="13.625" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="7.5" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="27" max="32" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="27" max="31" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="20.25" customWidth="1"/>
     <col min="33" max="33" width="8.25" bestFit="1" customWidth="1"/>
-    <col min="34" max="47" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="19.375" customWidth="1"/>
+    <col min="35" max="39" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="16.875" customWidth="1"/>
+    <col min="41" max="41" width="16.125" customWidth="1"/>
+    <col min="42" max="42" width="14.625" customWidth="1"/>
+    <col min="43" max="43" width="20.25" customWidth="1"/>
+    <col min="44" max="47" width="7.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:47" s="25" customFormat="1" ht="115.5" x14ac:dyDescent="0.25">
@@ -7256,8 +7266,8 @@
       <c r="U23" s="61" t="s">
         <v>197</v>
       </c>
-      <c r="V23" s="62" t="s">
-        <v>151</v>
+      <c r="V23" s="62" t="b">
+        <v>1</v>
       </c>
       <c r="W23" s="62">
         <v>0</v>
@@ -7277,8 +7287,8 @@
       <c r="AB23" s="62">
         <v>1440</v>
       </c>
-      <c r="AC23" s="63">
-        <v>1.6</v>
+      <c r="AC23" s="63" t="s">
+        <v>199</v>
       </c>
       <c r="AD23" s="63" t="s">
         <v>151</v>
@@ -7315,10 +7325,10 @@
         <v>151</v>
       </c>
       <c r="AP23" s="63" t="s">
+        <v>151</v>
+      </c>
+      <c r="AQ23" s="63" t="s">
         <v>188</v>
-      </c>
-      <c r="AQ23" s="63" t="s">
-        <v>151</v>
       </c>
       <c r="AR23" s="63" t="s">
         <v>192</v>
@@ -7394,8 +7404,8 @@
       <c r="U24" s="22" t="s">
         <v>197</v>
       </c>
-      <c r="V24" s="36" t="s">
-        <v>151</v>
+      <c r="V24" s="36" t="b">
+        <v>1</v>
       </c>
       <c r="W24" s="36">
         <v>0</v>
@@ -7407,7 +7417,7 @@
         <v>10</v>
       </c>
       <c r="Z24" s="39">
-        <v>1528070400</v>
+        <v>1526342400</v>
       </c>
       <c r="AA24" s="39" t="s">
         <v>151</v>
@@ -7415,8 +7425,8 @@
       <c r="AB24" s="39">
         <v>1440</v>
       </c>
-      <c r="AC24" s="37">
-        <v>1.6</v>
+      <c r="AC24" s="37" t="s">
+        <v>199</v>
       </c>
       <c r="AD24" s="37" t="s">
         <v>151</v>
@@ -7532,10 +7542,10 @@
         <v>180</v>
       </c>
       <c r="U25" s="22" t="s">
-        <v>46</v>
-      </c>
-      <c r="V25" s="36" t="s">
-        <v>151</v>
+        <v>45</v>
+      </c>
+      <c r="V25" s="36" t="b">
+        <v>1</v>
       </c>
       <c r="W25" s="36">
         <v>0</v>
@@ -7547,7 +7557,7 @@
         <v>10</v>
       </c>
       <c r="Z25" s="39">
-        <v>1528070400</v>
+        <v>1526342400</v>
       </c>
       <c r="AA25" s="39" t="s">
         <v>151</v>
@@ -7555,8 +7565,8 @@
       <c r="AB25" s="39">
         <v>2880</v>
       </c>
-      <c r="AC25" s="37">
-        <v>1.6</v>
+      <c r="AC25" s="37" t="s">
+        <v>199</v>
       </c>
       <c r="AD25" s="37" t="s">
         <v>151</v>
@@ -7672,8 +7682,8 @@
       <c r="U26" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="V26" s="36" t="s">
-        <v>151</v>
+      <c r="V26" s="36" t="b">
+        <v>1</v>
       </c>
       <c r="W26" s="36">
         <v>0</v>
@@ -7693,8 +7703,8 @@
       <c r="AB26" s="39">
         <v>1440</v>
       </c>
-      <c r="AC26" s="37">
-        <v>1.6</v>
+      <c r="AC26" s="37" t="s">
+        <v>199</v>
       </c>
       <c r="AD26" s="37" t="s">
         <v>151</v>
@@ -7812,8 +7822,8 @@
       <c r="U27" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="V27" s="36" t="s">
-        <v>151</v>
+      <c r="V27" s="36" t="b">
+        <v>1</v>
       </c>
       <c r="W27" s="36">
         <v>0</v>
@@ -7833,8 +7843,8 @@
       <c r="AB27" s="39">
         <v>1440</v>
       </c>
-      <c r="AC27" s="37">
-        <v>1.6</v>
+      <c r="AC27" s="37" t="s">
+        <v>199</v>
       </c>
       <c r="AD27" s="37" t="s">
         <v>151</v>
@@ -7952,8 +7962,8 @@
       <c r="U28" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="V28" s="36" t="s">
-        <v>151</v>
+      <c r="V28" s="36" t="b">
+        <v>1</v>
       </c>
       <c r="W28" s="36">
         <v>0</v>
@@ -7973,8 +7983,8 @@
       <c r="AB28" s="39">
         <v>1440</v>
       </c>
-      <c r="AC28" s="37">
-        <v>1.6</v>
+      <c r="AC28" s="37" t="s">
+        <v>199</v>
       </c>
       <c r="AD28" s="37" t="s">
         <v>151</v>
@@ -8092,8 +8102,8 @@
       <c r="U29" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="V29" s="36" t="s">
-        <v>151</v>
+      <c r="V29" s="36" t="b">
+        <v>1</v>
       </c>
       <c r="W29" s="36">
         <v>0</v>
@@ -8113,8 +8123,8 @@
       <c r="AB29" s="39">
         <v>1440</v>
       </c>
-      <c r="AC29" s="37">
-        <v>1.6</v>
+      <c r="AC29" s="37" t="s">
+        <v>199</v>
       </c>
       <c r="AD29" s="37" t="s">
         <v>151</v>
@@ -8232,8 +8242,8 @@
       <c r="U30" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="V30" s="36" t="s">
-        <v>151</v>
+      <c r="V30" s="36" t="b">
+        <v>1</v>
       </c>
       <c r="W30" s="36">
         <v>0</v>
@@ -8253,8 +8263,8 @@
       <c r="AB30" s="39">
         <v>1440</v>
       </c>
-      <c r="AC30" s="37">
-        <v>1.6</v>
+      <c r="AC30" s="37" t="s">
+        <v>199</v>
       </c>
       <c r="AD30" s="37" t="s">
         <v>151</v>
@@ -8370,10 +8380,10 @@
         <v>186</v>
       </c>
       <c r="U31" s="22" t="s">
-        <v>46</v>
-      </c>
-      <c r="V31" s="36" t="s">
-        <v>151</v>
+        <v>45</v>
+      </c>
+      <c r="V31" s="36" t="b">
+        <v>1</v>
       </c>
       <c r="W31" s="36">
         <v>0</v>
@@ -8393,8 +8403,8 @@
       <c r="AB31" s="39">
         <v>2880</v>
       </c>
-      <c r="AC31" s="37">
-        <v>1.6</v>
+      <c r="AC31" s="37" t="s">
+        <v>199</v>
       </c>
       <c r="AD31" s="37" t="s">
         <v>151</v>
@@ -8510,8 +8520,8 @@
       <c r="U32" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="V32" s="36" t="s">
-        <v>151</v>
+      <c r="V32" s="36" t="b">
+        <v>1</v>
       </c>
       <c r="W32" s="36">
         <v>0</v>
@@ -8531,8 +8541,8 @@
       <c r="AB32" s="39">
         <v>4320</v>
       </c>
-      <c r="AC32" s="37">
-        <v>1.6</v>
+      <c r="AC32" s="37" t="s">
+        <v>199</v>
       </c>
       <c r="AD32" s="37" t="s">
         <v>151</v>

--- a/Docs/Content/HungryDragonContent_Offers.xlsx
+++ b/Docs/Content/HungryDragonContent_Offers.xlsx
@@ -16,7 +16,7 @@
     <sheet name="OLD" sheetId="1" r:id="rId2"/>
     <sheet name="ValidationData" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913" calcOnSave="0"/>
+  <calcPr calcId="162913" calcMode="manual" calcCompleted="0" calcOnSave="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -4195,8 +4195,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AU32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I7" workbookViewId="0">
-      <selection activeCell="U38" sqref="U38"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="I25" activeCellId="1" sqref="G24:G32 I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4204,7 +4204,9 @@
     <col min="1" max="1" width="4" customWidth="1"/>
     <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="18.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="9" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.5" customWidth="1"/>
+    <col min="8" max="9" width="7.5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9" bestFit="1" customWidth="1"/>
     <col min="11" max="16" width="7.5" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="14.125" bestFit="1" customWidth="1"/>
@@ -7222,7 +7224,7 @@
         <v>1</v>
       </c>
       <c r="G23" s="56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H23" s="56" t="s">
         <v>18</v>
@@ -7360,7 +7362,7 @@
         <v>1</v>
       </c>
       <c r="G24" s="43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H24" s="43" t="s">
         <v>27</v>
@@ -7500,7 +7502,7 @@
         <v>1</v>
       </c>
       <c r="G25" s="43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H25" s="43" t="s">
         <v>21</v>
@@ -7638,7 +7640,7 @@
         <v>1</v>
       </c>
       <c r="G26" s="43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H26" s="43" t="s">
         <v>27</v>
@@ -7778,7 +7780,7 @@
         <v>1</v>
       </c>
       <c r="G27" s="43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H27" s="43" t="s">
         <v>19</v>
@@ -7918,7 +7920,7 @@
         <v>1</v>
       </c>
       <c r="G28" s="43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H28" s="43" t="s">
         <v>27</v>
@@ -8058,7 +8060,7 @@
         <v>1</v>
       </c>
       <c r="G29" s="43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H29" s="43" t="s">
         <v>19</v>
@@ -8198,7 +8200,7 @@
         <v>1</v>
       </c>
       <c r="G30" s="43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H30" s="43" t="s">
         <v>27</v>
@@ -8338,7 +8340,7 @@
         <v>1</v>
       </c>
       <c r="G31" s="43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H31" s="43" t="s">
         <v>21</v>
@@ -8476,7 +8478,7 @@
         <v>1</v>
       </c>
       <c r="G32" s="43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H32" s="43" t="s">
         <v>19</v>

--- a/Docs/Content/HungryDragonContent_Offers.xlsx
+++ b/Docs/Content/HungryDragonContent_Offers.xlsx
@@ -4196,7 +4196,7 @@
   <dimension ref="B1:AU32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="I25" activeCellId="1" sqref="G24:G32 I25"/>
+      <selection activeCell="G24" sqref="G24:G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -7224,7 +7224,7 @@
         <v>1</v>
       </c>
       <c r="G23" s="56" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H23" s="56" t="s">
         <v>18</v>
@@ -7362,7 +7362,7 @@
         <v>1</v>
       </c>
       <c r="G24" s="43" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H24" s="43" t="s">
         <v>27</v>
@@ -7502,7 +7502,7 @@
         <v>1</v>
       </c>
       <c r="G25" s="43" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H25" s="43" t="s">
         <v>21</v>
@@ -7640,7 +7640,7 @@
         <v>1</v>
       </c>
       <c r="G26" s="43" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H26" s="43" t="s">
         <v>27</v>
@@ -7780,7 +7780,7 @@
         <v>1</v>
       </c>
       <c r="G27" s="43" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H27" s="43" t="s">
         <v>19</v>
@@ -7920,7 +7920,7 @@
         <v>1</v>
       </c>
       <c r="G28" s="43" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H28" s="43" t="s">
         <v>27</v>
@@ -8060,7 +8060,7 @@
         <v>1</v>
       </c>
       <c r="G29" s="43" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H29" s="43" t="s">
         <v>19</v>
@@ -8200,7 +8200,7 @@
         <v>1</v>
       </c>
       <c r="G30" s="43" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H30" s="43" t="s">
         <v>27</v>
@@ -8340,7 +8340,7 @@
         <v>1</v>
       </c>
       <c r="G31" s="43" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H31" s="43" t="s">
         <v>21</v>
@@ -8478,7 +8478,7 @@
         <v>1</v>
       </c>
       <c r="G32" s="43" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H32" s="43" t="s">
         <v>19</v>

--- a/Docs/Content/HungryDragonContent_Offers.xlsx
+++ b/Docs/Content/HungryDragonContent_Offers.xlsx
@@ -4195,8 +4195,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AU32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24:G32"/>
+    <sheetView tabSelected="1" topLeftCell="L7" workbookViewId="0">
+      <selection activeCell="Z35" sqref="Z35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -7281,7 +7281,7 @@
         <v>10</v>
       </c>
       <c r="Z23" s="62">
-        <v>1528070400</v>
+        <v>1526342400</v>
       </c>
       <c r="AA23" s="62" t="s">
         <v>151</v>
@@ -7697,7 +7697,7 @@
         <v>10</v>
       </c>
       <c r="Z26" s="39">
-        <v>1528070400</v>
+        <v>1526342400</v>
       </c>
       <c r="AA26" s="39" t="s">
         <v>151</v>
@@ -7837,7 +7837,7 @@
         <v>10</v>
       </c>
       <c r="Z27" s="39">
-        <v>1528070400</v>
+        <v>1526342400</v>
       </c>
       <c r="AA27" s="39" t="s">
         <v>151</v>
@@ -7977,7 +7977,7 @@
         <v>10</v>
       </c>
       <c r="Z28" s="39">
-        <v>1528070400</v>
+        <v>1526342400</v>
       </c>
       <c r="AA28" s="39" t="s">
         <v>151</v>
@@ -8117,7 +8117,7 @@
         <v>10</v>
       </c>
       <c r="Z29" s="39">
-        <v>1528070400</v>
+        <v>1526342400</v>
       </c>
       <c r="AA29" s="39" t="s">
         <v>151</v>
@@ -8257,7 +8257,7 @@
         <v>10</v>
       </c>
       <c r="Z30" s="39">
-        <v>1528070400</v>
+        <v>1526342400</v>
       </c>
       <c r="AA30" s="39" t="s">
         <v>151</v>
@@ -8397,7 +8397,7 @@
         <v>10</v>
       </c>
       <c r="Z31" s="39">
-        <v>1528070400</v>
+        <v>1526342400</v>
       </c>
       <c r="AA31" s="39" t="s">
         <v>151</v>
@@ -8535,7 +8535,7 @@
         <v>10</v>
       </c>
       <c r="Z32" s="39">
-        <v>1528070400</v>
+        <v>1526342400</v>
       </c>
       <c r="AA32" s="39" t="s">
         <v>151</v>

--- a/Docs/Content/HungryDragonContent_Offers.xlsx
+++ b/Docs/Content/HungryDragonContent_Offers.xlsx
@@ -4195,8 +4195,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AU32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L7" workbookViewId="0">
-      <selection activeCell="Z35" sqref="Z35"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="Q31" sqref="Q31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -7254,7 +7254,7 @@
         <v>151</v>
       </c>
       <c r="Q23" s="57">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R23" s="58" t="s">
         <v>99</v>
@@ -7392,7 +7392,7 @@
         <v>151</v>
       </c>
       <c r="Q24" s="32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R24" s="29" t="s">
         <v>99</v>
@@ -7532,7 +7532,7 @@
         <v>151</v>
       </c>
       <c r="Q25" s="32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R25" s="29" t="s">
         <v>99</v>
@@ -7670,7 +7670,7 @@
         <v>151</v>
       </c>
       <c r="Q26" s="32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R26" s="29" t="s">
         <v>99</v>
@@ -7810,7 +7810,7 @@
         <v>151</v>
       </c>
       <c r="Q27" s="32">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R27" s="29" t="s">
         <v>125</v>
@@ -7950,7 +7950,7 @@
         <v>151</v>
       </c>
       <c r="Q28" s="32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R28" s="29" t="s">
         <v>125</v>
@@ -8090,7 +8090,7 @@
         <v>151</v>
       </c>
       <c r="Q29" s="32">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R29" s="29" t="s">
         <v>99</v>
@@ -8230,7 +8230,7 @@
         <v>151</v>
       </c>
       <c r="Q30" s="32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R30" s="29" t="s">
         <v>99</v>
@@ -8370,7 +8370,7 @@
         <v>151</v>
       </c>
       <c r="Q31" s="32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R31" s="29" t="s">
         <v>126</v>
@@ -8508,7 +8508,7 @@
         <v>151</v>
       </c>
       <c r="Q32" s="32">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R32" s="29" t="s">
         <v>127</v>

--- a/Docs/Content/HungryDragonContent_Offers.xlsx
+++ b/Docs/Content/HungryDragonContent_Offers.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10613"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hsemroud\Documents\Dragon\Docs\Content\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aortin/Documents/UBI/FD/Client/Docs/Content/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{AA69E686-AFD9-0F45-81E0-6A3E4971EA12}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38400" yWindow="0" windowWidth="38400" windowHeight="21600"/>
+    <workbookView xWindow="38400" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Packs" sheetId="3" r:id="rId1"/>
     <sheet name="OLD" sheetId="1" r:id="rId2"/>
     <sheet name="ValidationData" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913" calcMode="manual" calcCompleted="0" calcOnSave="0"/>
+  <calcPr calcId="162913" calcMode="manual" calcOnSave="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1371" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1433" uniqueCount="202">
   <si>
     <t>OFFER PACKS DEFINITIONS</t>
   </si>
@@ -628,12 +629,18 @@
   </si>
   <si>
     <t>1.6</t>
+  </si>
+  <si>
+    <t>[minNumberOfPurchases]</t>
+  </si>
+  <si>
+    <t>[minutesSinceLastPurchase]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1230,112 +1237,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="91">
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FFDCE6F1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FFDCE6F1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FFDCE6F1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
+  <dxfs count="93">
     <dxf>
       <font>
         <b val="0"/>
@@ -1350,15 +1252,17 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <name val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FF000000"/>
           <bgColor rgb="FFDCE6F1"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color auto="1"/>
@@ -1374,389 +1278,6 @@
         </bottom>
         <vertical/>
         <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FFDCE6F1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FFDCE6F1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="7" tint="0.39997558519241921"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="45" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top/>
-        <bottom/>
       </border>
     </dxf>
     <dxf>
@@ -2048,6 +1569,576 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FFDCE6F1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FFDCE6F1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FFDCE6F1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FFDCE6F1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FFDCE6F1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FFDCE6F1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FFDCE6F1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="7" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="45" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -3820,77 +3911,79 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="offerPacksDefinitions" displayName="offerPacksDefinitions" ref="B2:AU32" totalsRowShown="0" headerRowDxfId="90" headerRowBorderDxfId="89" tableBorderDxfId="88">
-  <autoFilter ref="B2:AU32"/>
-  <tableColumns count="46">
-    <tableColumn id="1" name="{offerPacksDefinitions}" dataDxfId="87"/>
-    <tableColumn id="2" name="[sku]" dataDxfId="86"/>
-    <tableColumn id="45" name="[uniqueId]" dataDxfId="85"/>
-    <tableColumn id="3" name="[enabled]" dataDxfId="84"/>
-    <tableColumn id="39" name="[purchaseLimit]" dataDxfId="83"/>
-    <tableColumn id="38" name="[item1Featured]" dataDxfId="82"/>
-    <tableColumn id="4" name="[item1Type]" dataDxfId="81"/>
-    <tableColumn id="37" name="[item1Amount]" dataDxfId="80"/>
-    <tableColumn id="40" name="[item1Sku]" dataDxfId="79"/>
-    <tableColumn id="5" name="[item2Type]" dataDxfId="78"/>
-    <tableColumn id="41" name="[item2Amount]" dataDxfId="77"/>
-    <tableColumn id="42" name="[item2Sku]" dataDxfId="76"/>
-    <tableColumn id="6" name="[item3Type]" dataDxfId="75"/>
-    <tableColumn id="43" name="[item3Amount]" dataDxfId="74"/>
-    <tableColumn id="44" name="[item3Sku]" dataDxfId="73"/>
-    <tableColumn id="7" name="[order]" dataDxfId="72"/>
-    <tableColumn id="8" name="[refPrice]" dataDxfId="71"/>
-    <tableColumn id="9" name="[discount]" dataDxfId="70"/>
-    <tableColumn id="10" name="[iapSku]" dataDxfId="69"/>
-    <tableColumn id="11" name="[tidName]" dataDxfId="68"/>
-    <tableColumn id="12" name="[featured]" dataDxfId="67"/>
-    <tableColumn id="13" name="[maxViews]" dataDxfId="66"/>
-    <tableColumn id="14" name="[zone]" dataDxfId="65"/>
-    <tableColumn id="15" name="[frequency]" dataDxfId="64"/>
-    <tableColumn id="16" name="[startDate]" dataDxfId="63"/>
-    <tableColumn id="17" name="[endDate]" dataDxfId="62"/>
-    <tableColumn id="46" name="[durationMinutes]" dataDxfId="61"/>
-    <tableColumn id="18" name="[minAppVersion]" dataDxfId="60"/>
-    <tableColumn id="19" name="[countriesAllowed]" dataDxfId="59"/>
-    <tableColumn id="20" name="[countriesExcluded]" dataDxfId="58"/>
-    <tableColumn id="21" name="[gamesPlayed]" dataDxfId="57"/>
-    <tableColumn id="22" name="[payerType]" dataDxfId="56"/>
-    <tableColumn id="23" name="[minSpent]" dataDxfId="55"/>
-    <tableColumn id="24" name="[dragonUnlocked]" dataDxfId="54"/>
-    <tableColumn id="25" name="[dragonOwned]" dataDxfId="53"/>
-    <tableColumn id="26" name="[dragonNotOwned]" dataDxfId="52"/>
-    <tableColumn id="27" name="[scBalanceRange]" dataDxfId="51"/>
-    <tableColumn id="28" name="[hcBalanceRange]" dataDxfId="50"/>
-    <tableColumn id="29" name="[openedEggs]" dataDxfId="49"/>
-    <tableColumn id="30" name="[petsOwnedCount]" dataDxfId="48"/>
-    <tableColumn id="31" name="[petsOwned]" dataDxfId="47"/>
-    <tableColumn id="32" name="[petsNotOwned]" dataDxfId="46"/>
-    <tableColumn id="33" name="[progressionRange]" dataDxfId="45"/>
-    <tableColumn id="34" name="[skinsUnlocked]" dataDxfId="44"/>
-    <tableColumn id="35" name="[skinsOwned]" dataDxfId="43"/>
-    <tableColumn id="36" name="[skinsNotOwned]" dataDxfId="42"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="offerPacksDefinitions" displayName="offerPacksDefinitions" ref="B2:AW32" totalsRowShown="0" headerRowDxfId="92" headerRowBorderDxfId="91" tableBorderDxfId="90">
+  <autoFilter ref="B2:AW32" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+  <tableColumns count="48">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="{offerPacksDefinitions}" dataDxfId="89"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="[sku]" dataDxfId="88"/>
+    <tableColumn id="45" xr3:uid="{00000000-0010-0000-0000-00002D000000}" name="[uniqueId]" dataDxfId="87"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="[enabled]" dataDxfId="86"/>
+    <tableColumn id="39" xr3:uid="{00000000-0010-0000-0000-000027000000}" name="[purchaseLimit]" dataDxfId="85"/>
+    <tableColumn id="38" xr3:uid="{00000000-0010-0000-0000-000026000000}" name="[item1Featured]" dataDxfId="84"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="[item1Type]" dataDxfId="83"/>
+    <tableColumn id="37" xr3:uid="{00000000-0010-0000-0000-000025000000}" name="[item1Amount]" dataDxfId="82"/>
+    <tableColumn id="40" xr3:uid="{00000000-0010-0000-0000-000028000000}" name="[item1Sku]" dataDxfId="81"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="[item2Type]" dataDxfId="80"/>
+    <tableColumn id="41" xr3:uid="{00000000-0010-0000-0000-000029000000}" name="[item2Amount]" dataDxfId="79"/>
+    <tableColumn id="42" xr3:uid="{00000000-0010-0000-0000-00002A000000}" name="[item2Sku]" dataDxfId="78"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="[item3Type]" dataDxfId="77"/>
+    <tableColumn id="43" xr3:uid="{00000000-0010-0000-0000-00002B000000}" name="[item3Amount]" dataDxfId="76"/>
+    <tableColumn id="44" xr3:uid="{00000000-0010-0000-0000-00002C000000}" name="[item3Sku]" dataDxfId="75"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="[order]" dataDxfId="74"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="[refPrice]" dataDxfId="73"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="[discount]" dataDxfId="72"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="[iapSku]" dataDxfId="71"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="[tidName]" dataDxfId="70"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="[featured]" dataDxfId="69"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="[maxViews]" dataDxfId="68"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="[zone]" dataDxfId="67"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="[frequency]" dataDxfId="66"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="[startDate]" dataDxfId="65"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="[endDate]" dataDxfId="64"/>
+    <tableColumn id="46" xr3:uid="{00000000-0010-0000-0000-00002E000000}" name="[durationMinutes]" dataDxfId="63"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="[minAppVersion]" dataDxfId="62"/>
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="[countriesAllowed]" dataDxfId="61"/>
+    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0000-000014000000}" name="[countriesExcluded]" dataDxfId="60"/>
+    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" name="[gamesPlayed]" dataDxfId="59"/>
+    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0000-000016000000}" name="[payerType]" dataDxfId="58"/>
+    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0000-000017000000}" name="[minSpent]" dataDxfId="57"/>
+    <tableColumn id="47" xr3:uid="{AED225FC-C091-2342-9B9A-0BC4A5AA4B98}" name="[minNumberOfPurchases]" dataDxfId="26"/>
+    <tableColumn id="48" xr3:uid="{EDC99988-F22B-2C41-BBCD-4DF3558834B7}" name="[minutesSinceLastPurchase]" dataDxfId="0"/>
+    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0000-000018000000}" name="[dragonUnlocked]" dataDxfId="56"/>
+    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0000-000019000000}" name="[dragonOwned]" dataDxfId="55"/>
+    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0000-00001A000000}" name="[dragonNotOwned]" dataDxfId="54"/>
+    <tableColumn id="27" xr3:uid="{00000000-0010-0000-0000-00001B000000}" name="[scBalanceRange]" dataDxfId="53"/>
+    <tableColumn id="28" xr3:uid="{00000000-0010-0000-0000-00001C000000}" name="[hcBalanceRange]" dataDxfId="52"/>
+    <tableColumn id="29" xr3:uid="{00000000-0010-0000-0000-00001D000000}" name="[openedEggs]" dataDxfId="51"/>
+    <tableColumn id="30" xr3:uid="{00000000-0010-0000-0000-00001E000000}" name="[petsOwnedCount]" dataDxfId="50"/>
+    <tableColumn id="31" xr3:uid="{00000000-0010-0000-0000-00001F000000}" name="[petsOwned]" dataDxfId="49"/>
+    <tableColumn id="32" xr3:uid="{00000000-0010-0000-0000-000020000000}" name="[petsNotOwned]" dataDxfId="48"/>
+    <tableColumn id="33" xr3:uid="{00000000-0010-0000-0000-000021000000}" name="[progressionRange]" dataDxfId="47"/>
+    <tableColumn id="34" xr3:uid="{00000000-0010-0000-0000-000022000000}" name="[skinsUnlocked]" dataDxfId="46"/>
+    <tableColumn id="35" xr3:uid="{00000000-0010-0000-0000-000023000000}" name="[skinsOwned]" dataDxfId="45"/>
+    <tableColumn id="36" xr3:uid="{00000000-0010-0000-0000-000024000000}" name="[skinsNotOwned]" dataDxfId="44"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="offerPacksDefinitions_OLD" displayName="offerPacksDefinitions_OLD" ref="B4:N44" totalsRowShown="0" headerRowDxfId="16" dataDxfId="14" headerRowBorderDxfId="15" tableBorderDxfId="13">
-  <autoFilter ref="B4:N44"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="offerPacksDefinitions_OLD" displayName="offerPacksDefinitions_OLD" ref="B4:N44" totalsRowShown="0" headerRowDxfId="43" dataDxfId="41" headerRowBorderDxfId="42" tableBorderDxfId="40">
+  <autoFilter ref="B4:N44" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="13">
-    <tableColumn id="1" name="offerPacksDefinitions_OLD" dataDxfId="12"/>
-    <tableColumn id="2" name="[sku]" dataDxfId="11"/>
-    <tableColumn id="15" name="[paramValue]" dataDxfId="10"/>
-    <tableColumn id="7" name="[itemType]" dataDxfId="9"/>
-    <tableColumn id="8" name="[itemAmount]" dataDxfId="8"/>
-    <tableColumn id="9" name="[itemSku]" dataDxfId="7"/>
-    <tableColumn id="23" name="[itemFeatured]" dataDxfId="6"/>
-    <tableColumn id="22" name="[minAppVersion]" dataDxfId="5"/>
-    <tableColumn id="4" name="[order]" dataDxfId="4"/>
-    <tableColumn id="24" name="[refPrice]" dataDxfId="3"/>
-    <tableColumn id="6" name="[discount]" dataDxfId="2"/>
-    <tableColumn id="3" name="[iapSku]" dataDxfId="1"/>
-    <tableColumn id="5" name="[tidName]" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="offerPacksDefinitions_OLD" dataDxfId="39"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="[sku]" dataDxfId="38"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0100-00000F000000}" name="[paramValue]" dataDxfId="37"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="[itemType]" dataDxfId="36"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="[itemAmount]" dataDxfId="35"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="[itemSku]" dataDxfId="34"/>
+    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0100-000017000000}" name="[itemFeatured]" dataDxfId="33"/>
+    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0100-000016000000}" name="[minAppVersion]" dataDxfId="32"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="[order]" dataDxfId="31"/>
+    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0100-000018000000}" name="[refPrice]" dataDxfId="30"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="[discount]" dataDxfId="29"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="[iapSku]" dataDxfId="28"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="[tidName]" dataDxfId="27"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4192,45 +4285,45 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:AU32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B1:AW32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="Q31" sqref="Q31"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="S11" sqref="S11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="4" customWidth="1"/>
     <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="18.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="7.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.5" customWidth="1"/>
     <col min="8" max="9" width="7.5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9" bestFit="1" customWidth="1"/>
     <col min="11" max="16" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.75" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.25" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="39.75" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="26.875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="39.6640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="26.83203125" bestFit="1" customWidth="1"/>
     <col min="22" max="23" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="13.625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="13.6640625" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="27" max="31" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="20.25" customWidth="1"/>
-    <col min="33" max="33" width="8.25" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="19.375" customWidth="1"/>
+    <col min="32" max="32" width="20.1640625" customWidth="1"/>
+    <col min="33" max="33" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="19.33203125" customWidth="1"/>
     <col min="35" max="39" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="16.875" customWidth="1"/>
-    <col min="41" max="41" width="16.125" customWidth="1"/>
-    <col min="42" max="42" width="14.625" customWidth="1"/>
-    <col min="43" max="43" width="20.25" customWidth="1"/>
+    <col min="40" max="40" width="16.83203125" customWidth="1"/>
+    <col min="41" max="41" width="16.1640625" customWidth="1"/>
+    <col min="42" max="42" width="14.6640625" customWidth="1"/>
+    <col min="43" max="43" width="20.1640625" customWidth="1"/>
     <col min="44" max="47" width="7.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:47" s="25" customFormat="1" ht="115.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:49" s="25" customFormat="1" ht="126" x14ac:dyDescent="0.2">
       <c r="Q1" s="16" t="s">
         <v>29</v>
       </c>
@@ -4266,8 +4359,10 @@
       <c r="AS1" s="66"/>
       <c r="AT1" s="66"/>
       <c r="AU1" s="66"/>
-    </row>
-    <row r="2" spans="2:47" ht="114.75" x14ac:dyDescent="0.25">
+      <c r="AV1" s="66"/>
+      <c r="AW1" s="66"/>
+    </row>
+    <row r="2" spans="2:49" ht="135" x14ac:dyDescent="0.2">
       <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
@@ -4368,46 +4463,52 @@
         <v>86</v>
       </c>
       <c r="AI2" s="33" t="s">
+        <v>200</v>
+      </c>
+      <c r="AJ2" s="33" t="s">
+        <v>201</v>
+      </c>
+      <c r="AK2" s="33" t="s">
         <v>87</v>
       </c>
-      <c r="AJ2" s="33" t="s">
+      <c r="AL2" s="33" t="s">
         <v>88</v>
       </c>
-      <c r="AK2" s="33" t="s">
+      <c r="AM2" s="33" t="s">
         <v>89</v>
       </c>
-      <c r="AL2" s="33" t="s">
+      <c r="AN2" s="33" t="s">
         <v>90</v>
       </c>
-      <c r="AM2" s="33" t="s">
+      <c r="AO2" s="33" t="s">
         <v>91</v>
       </c>
-      <c r="AN2" s="33" t="s">
+      <c r="AP2" s="33" t="s">
         <v>92</v>
       </c>
-      <c r="AO2" s="33" t="s">
+      <c r="AQ2" s="33" t="s">
         <v>93</v>
       </c>
-      <c r="AP2" s="33" t="s">
+      <c r="AR2" s="33" t="s">
         <v>94</v>
       </c>
-      <c r="AQ2" s="33" t="s">
+      <c r="AS2" s="33" t="s">
         <v>95</v>
       </c>
-      <c r="AR2" s="33" t="s">
+      <c r="AT2" s="33" t="s">
         <v>96</v>
       </c>
-      <c r="AS2" s="33" t="s">
+      <c r="AU2" s="33" t="s">
         <v>97</v>
       </c>
-      <c r="AT2" s="33" t="s">
+      <c r="AV2" s="33" t="s">
         <v>98</v>
       </c>
-      <c r="AU2" s="34" t="s">
+      <c r="AW2" s="34" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="3" spans="2:47" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:49" x14ac:dyDescent="0.2">
       <c r="B3" s="14" t="s">
         <v>3</v>
       </c>
@@ -4546,8 +4647,14 @@
       <c r="AU3" s="37" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="4" spans="2:47" x14ac:dyDescent="0.25">
+      <c r="AV3" s="37" t="s">
+        <v>151</v>
+      </c>
+      <c r="AW3" s="37" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="4" spans="2:49" x14ac:dyDescent="0.2">
       <c r="B4" s="14" t="s">
         <v>3</v>
       </c>
@@ -4686,8 +4793,14 @@
       <c r="AU4" s="37" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="5" spans="2:47" x14ac:dyDescent="0.25">
+      <c r="AV4" s="37" t="s">
+        <v>151</v>
+      </c>
+      <c r="AW4" s="37" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="5" spans="2:49" x14ac:dyDescent="0.2">
       <c r="B5" s="14" t="s">
         <v>3</v>
       </c>
@@ -4826,8 +4939,14 @@
       <c r="AU5" s="37" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="6" spans="2:47" x14ac:dyDescent="0.25">
+      <c r="AV5" s="37" t="s">
+        <v>151</v>
+      </c>
+      <c r="AW5" s="37" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="6" spans="2:49" x14ac:dyDescent="0.2">
       <c r="B6" s="14" t="s">
         <v>3</v>
       </c>
@@ -4966,8 +5085,14 @@
       <c r="AU6" s="37" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="7" spans="2:47" x14ac:dyDescent="0.25">
+      <c r="AV6" s="37" t="s">
+        <v>151</v>
+      </c>
+      <c r="AW6" s="37" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="7" spans="2:49" x14ac:dyDescent="0.2">
       <c r="B7" s="14" t="s">
         <v>3</v>
       </c>
@@ -5106,8 +5231,14 @@
       <c r="AU7" s="37" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="8" spans="2:47" x14ac:dyDescent="0.25">
+      <c r="AV7" s="37" t="s">
+        <v>151</v>
+      </c>
+      <c r="AW7" s="37" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="8" spans="2:49" x14ac:dyDescent="0.2">
       <c r="B8" s="14" t="s">
         <v>3</v>
       </c>
@@ -5246,8 +5377,14 @@
       <c r="AU8" s="37" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="9" spans="2:47" x14ac:dyDescent="0.25">
+      <c r="AV8" s="37" t="s">
+        <v>151</v>
+      </c>
+      <c r="AW8" s="37" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="9" spans="2:49" x14ac:dyDescent="0.2">
       <c r="B9" s="14" t="s">
         <v>3</v>
       </c>
@@ -5386,8 +5523,14 @@
       <c r="AU9" s="37" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="10" spans="2:47" x14ac:dyDescent="0.25">
+      <c r="AV9" s="37" t="s">
+        <v>151</v>
+      </c>
+      <c r="AW9" s="37" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="10" spans="2:49" x14ac:dyDescent="0.2">
       <c r="B10" s="14" t="s">
         <v>3</v>
       </c>
@@ -5526,8 +5669,14 @@
       <c r="AU10" s="37" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="11" spans="2:47" x14ac:dyDescent="0.25">
+      <c r="AV10" s="37" t="s">
+        <v>151</v>
+      </c>
+      <c r="AW10" s="37" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="11" spans="2:49" x14ac:dyDescent="0.2">
       <c r="B11" s="14" t="s">
         <v>3</v>
       </c>
@@ -5666,8 +5815,14 @@
       <c r="AU11" s="37" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="12" spans="2:47" x14ac:dyDescent="0.25">
+      <c r="AV11" s="37" t="s">
+        <v>151</v>
+      </c>
+      <c r="AW11" s="37" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="12" spans="2:49" x14ac:dyDescent="0.2">
       <c r="B12" s="14" t="s">
         <v>3</v>
       </c>
@@ -5806,8 +5961,14 @@
       <c r="AU12" s="37" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="13" spans="2:47" x14ac:dyDescent="0.25">
+      <c r="AV12" s="37" t="s">
+        <v>151</v>
+      </c>
+      <c r="AW12" s="37" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="13" spans="2:49" x14ac:dyDescent="0.2">
       <c r="B13" s="14" t="s">
         <v>3</v>
       </c>
@@ -5946,8 +6107,14 @@
       <c r="AU13" s="37" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="14" spans="2:47" x14ac:dyDescent="0.25">
+      <c r="AV13" s="37" t="s">
+        <v>151</v>
+      </c>
+      <c r="AW13" s="37" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="14" spans="2:49" x14ac:dyDescent="0.2">
       <c r="B14" s="14" t="s">
         <v>3</v>
       </c>
@@ -6086,8 +6253,14 @@
       <c r="AU14" s="37" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="15" spans="2:47" x14ac:dyDescent="0.25">
+      <c r="AV14" s="37" t="s">
+        <v>151</v>
+      </c>
+      <c r="AW14" s="37" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="15" spans="2:49" x14ac:dyDescent="0.2">
       <c r="B15" s="14" t="s">
         <v>3</v>
       </c>
@@ -6226,8 +6399,14 @@
       <c r="AU15" s="37" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="16" spans="2:47" x14ac:dyDescent="0.25">
+      <c r="AV15" s="37" t="s">
+        <v>151</v>
+      </c>
+      <c r="AW15" s="37" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="16" spans="2:49" x14ac:dyDescent="0.2">
       <c r="B16" s="14" t="s">
         <v>3</v>
       </c>
@@ -6366,8 +6545,14 @@
       <c r="AU16" s="37" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="17" spans="2:47" x14ac:dyDescent="0.25">
+      <c r="AV16" s="37" t="s">
+        <v>151</v>
+      </c>
+      <c r="AW16" s="37" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="17" spans="2:49" x14ac:dyDescent="0.2">
       <c r="B17" s="14" t="s">
         <v>3</v>
       </c>
@@ -6506,8 +6691,14 @@
       <c r="AU17" s="37" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="18" spans="2:47" x14ac:dyDescent="0.25">
+      <c r="AV17" s="37" t="s">
+        <v>151</v>
+      </c>
+      <c r="AW17" s="37" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="18" spans="2:49" x14ac:dyDescent="0.2">
       <c r="B18" s="14" t="s">
         <v>3</v>
       </c>
@@ -6646,8 +6837,14 @@
       <c r="AU18" s="37" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="19" spans="2:47" x14ac:dyDescent="0.25">
+      <c r="AV18" s="37" t="s">
+        <v>151</v>
+      </c>
+      <c r="AW18" s="37" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="19" spans="2:49" x14ac:dyDescent="0.2">
       <c r="B19" s="14" t="s">
         <v>3</v>
       </c>
@@ -6786,8 +6983,14 @@
       <c r="AU19" s="37" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="20" spans="2:47" x14ac:dyDescent="0.25">
+      <c r="AV19" s="37" t="s">
+        <v>151</v>
+      </c>
+      <c r="AW19" s="37" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="20" spans="2:49" x14ac:dyDescent="0.2">
       <c r="B20" s="14" t="s">
         <v>3</v>
       </c>
@@ -6926,8 +7129,14 @@
       <c r="AU20" s="37" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="21" spans="2:47" x14ac:dyDescent="0.25">
+      <c r="AV20" s="37" t="s">
+        <v>151</v>
+      </c>
+      <c r="AW20" s="37" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="21" spans="2:49" x14ac:dyDescent="0.2">
       <c r="B21" s="14" t="s">
         <v>3</v>
       </c>
@@ -7066,8 +7275,14 @@
       <c r="AU21" s="37" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="22" spans="2:47" x14ac:dyDescent="0.25">
+      <c r="AV21" s="37" t="s">
+        <v>151</v>
+      </c>
+      <c r="AW21" s="37" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="22" spans="2:49" x14ac:dyDescent="0.2">
       <c r="B22" s="14" t="s">
         <v>3</v>
       </c>
@@ -7206,8 +7421,14 @@
       <c r="AU22" s="37" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="23" spans="2:47" x14ac:dyDescent="0.25">
+      <c r="AV22" s="37" t="s">
+        <v>151</v>
+      </c>
+      <c r="AW22" s="37" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="23" spans="2:49" x14ac:dyDescent="0.2">
       <c r="B23" s="53" t="s">
         <v>3</v>
       </c>
@@ -7322,30 +7543,36 @@
       <c r="AM23" s="63" t="s">
         <v>151</v>
       </c>
-      <c r="AN23" s="63"/>
+      <c r="AN23" s="63" t="s">
+        <v>151</v>
+      </c>
       <c r="AO23" s="63" t="s">
         <v>151</v>
       </c>
-      <c r="AP23" s="63" t="s">
-        <v>151</v>
-      </c>
+      <c r="AP23" s="63"/>
       <c r="AQ23" s="63" t="s">
+        <v>151</v>
+      </c>
+      <c r="AR23" s="63" t="s">
+        <v>151</v>
+      </c>
+      <c r="AS23" s="63" t="s">
         <v>188</v>
       </c>
-      <c r="AR23" s="63" t="s">
+      <c r="AT23" s="63" t="s">
         <v>192</v>
       </c>
-      <c r="AS23" s="63" t="s">
-        <v>151</v>
-      </c>
-      <c r="AT23" s="63" t="s">
-        <v>151</v>
-      </c>
       <c r="AU23" s="63" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="24" spans="2:47" x14ac:dyDescent="0.25">
+      <c r="AV23" s="63" t="s">
+        <v>151</v>
+      </c>
+      <c r="AW23" s="63" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="24" spans="2:49" x14ac:dyDescent="0.2">
       <c r="B24" s="14" t="s">
         <v>3</v>
       </c>
@@ -7460,32 +7687,38 @@
       <c r="AM24" s="37" t="s">
         <v>151</v>
       </c>
-      <c r="AN24" s="37">
+      <c r="AN24" s="37" t="s">
+        <v>151</v>
+      </c>
+      <c r="AO24" s="37" t="s">
+        <v>151</v>
+      </c>
+      <c r="AP24" s="37">
         <v>10</v>
       </c>
-      <c r="AO24" s="37" t="s">
-        <v>151</v>
-      </c>
-      <c r="AP24" s="37" t="s">
-        <v>151</v>
-      </c>
       <c r="AQ24" s="37" t="s">
         <v>151</v>
       </c>
       <c r="AR24" s="37" t="s">
+        <v>151</v>
+      </c>
+      <c r="AS24" s="37" t="s">
+        <v>151</v>
+      </c>
+      <c r="AT24" s="37" t="s">
         <v>192</v>
       </c>
-      <c r="AS24" s="37" t="s">
-        <v>151</v>
-      </c>
-      <c r="AT24" s="37" t="s">
-        <v>151</v>
-      </c>
       <c r="AU24" s="37" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="25" spans="2:47" x14ac:dyDescent="0.25">
+      <c r="AV24" s="37" t="s">
+        <v>151</v>
+      </c>
+      <c r="AW24" s="37" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="25" spans="2:49" x14ac:dyDescent="0.2">
       <c r="B25" s="14" t="s">
         <v>3</v>
       </c>
@@ -7611,19 +7844,25 @@
         <v>151</v>
       </c>
       <c r="AR25" s="37" t="s">
+        <v>151</v>
+      </c>
+      <c r="AS25" s="37" t="s">
+        <v>151</v>
+      </c>
+      <c r="AT25" s="37" t="s">
         <v>193</v>
       </c>
-      <c r="AS25" s="37" t="s">
-        <v>151</v>
-      </c>
-      <c r="AT25" s="37" t="s">
-        <v>151</v>
-      </c>
       <c r="AU25" s="37" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="26" spans="2:47" x14ac:dyDescent="0.25">
+      <c r="AV25" s="37" t="s">
+        <v>151</v>
+      </c>
+      <c r="AW25" s="37" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="26" spans="2:49" x14ac:dyDescent="0.2">
       <c r="B26" s="14" t="s">
         <v>3</v>
       </c>
@@ -7738,32 +7977,38 @@
       <c r="AM26" s="37" t="s">
         <v>151</v>
       </c>
-      <c r="AN26" s="37">
+      <c r="AN26" s="37" t="s">
+        <v>151</v>
+      </c>
+      <c r="AO26" s="37" t="s">
+        <v>151</v>
+      </c>
+      <c r="AP26" s="37">
         <v>20</v>
       </c>
-      <c r="AO26" s="37" t="s">
-        <v>151</v>
-      </c>
-      <c r="AP26" s="37" t="s">
-        <v>151</v>
-      </c>
       <c r="AQ26" s="37" t="s">
         <v>151</v>
       </c>
       <c r="AR26" s="37" t="s">
+        <v>151</v>
+      </c>
+      <c r="AS26" s="37" t="s">
+        <v>151</v>
+      </c>
+      <c r="AT26" s="37" t="s">
         <v>194</v>
       </c>
-      <c r="AS26" s="37" t="s">
-        <v>151</v>
-      </c>
-      <c r="AT26" s="37" t="s">
-        <v>151</v>
-      </c>
       <c r="AU26" s="37" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="27" spans="2:47" x14ac:dyDescent="0.25">
+      <c r="AV26" s="37" t="s">
+        <v>151</v>
+      </c>
+      <c r="AW26" s="37" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="27" spans="2:49" x14ac:dyDescent="0.2">
       <c r="B27" s="14" t="s">
         <v>3</v>
       </c>
@@ -7891,19 +8136,25 @@
         <v>151</v>
       </c>
       <c r="AR27" s="37" t="s">
+        <v>151</v>
+      </c>
+      <c r="AS27" s="37" t="s">
+        <v>151</v>
+      </c>
+      <c r="AT27" s="37" t="s">
         <v>194</v>
       </c>
-      <c r="AS27" s="37" t="s">
-        <v>151</v>
-      </c>
-      <c r="AT27" s="37" t="s">
-        <v>151</v>
-      </c>
       <c r="AU27" s="37" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="28" spans="2:47" x14ac:dyDescent="0.25">
+      <c r="AV27" s="37" t="s">
+        <v>151</v>
+      </c>
+      <c r="AW27" s="37" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="28" spans="2:49" x14ac:dyDescent="0.2">
       <c r="B28" s="14" t="s">
         <v>3</v>
       </c>
@@ -8018,32 +8269,38 @@
       <c r="AM28" s="37" t="s">
         <v>151</v>
       </c>
-      <c r="AN28" s="37">
+      <c r="AN28" s="37" t="s">
+        <v>151</v>
+      </c>
+      <c r="AO28" s="37" t="s">
+        <v>151</v>
+      </c>
+      <c r="AP28" s="37">
         <v>20</v>
       </c>
-      <c r="AO28" s="37" t="s">
-        <v>151</v>
-      </c>
-      <c r="AP28" s="37" t="s">
-        <v>151</v>
-      </c>
       <c r="AQ28" s="37" t="s">
         <v>151</v>
       </c>
       <c r="AR28" s="37" t="s">
+        <v>151</v>
+      </c>
+      <c r="AS28" s="37" t="s">
+        <v>151</v>
+      </c>
+      <c r="AT28" s="37" t="s">
         <v>194</v>
       </c>
-      <c r="AS28" s="37" t="s">
-        <v>151</v>
-      </c>
-      <c r="AT28" s="37" t="s">
-        <v>151</v>
-      </c>
       <c r="AU28" s="37" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="29" spans="2:47" x14ac:dyDescent="0.25">
+      <c r="AV28" s="37" t="s">
+        <v>151</v>
+      </c>
+      <c r="AW28" s="37" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="29" spans="2:49" x14ac:dyDescent="0.2">
       <c r="B29" s="14" t="s">
         <v>3</v>
       </c>
@@ -8171,19 +8428,25 @@
         <v>151</v>
       </c>
       <c r="AR29" s="37" t="s">
+        <v>151</v>
+      </c>
+      <c r="AS29" s="37" t="s">
+        <v>151</v>
+      </c>
+      <c r="AT29" s="37" t="s">
         <v>194</v>
       </c>
-      <c r="AS29" s="37" t="s">
-        <v>151</v>
-      </c>
-      <c r="AT29" s="37" t="s">
-        <v>151</v>
-      </c>
       <c r="AU29" s="37" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="30" spans="2:47" x14ac:dyDescent="0.25">
+      <c r="AV29" s="37" t="s">
+        <v>151</v>
+      </c>
+      <c r="AW29" s="37" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="30" spans="2:49" x14ac:dyDescent="0.2">
       <c r="B30" s="14" t="s">
         <v>3</v>
       </c>
@@ -8298,32 +8561,38 @@
       <c r="AM30" s="37" t="s">
         <v>151</v>
       </c>
-      <c r="AN30" s="37">
+      <c r="AN30" s="37" t="s">
+        <v>151</v>
+      </c>
+      <c r="AO30" s="37" t="s">
+        <v>151</v>
+      </c>
+      <c r="AP30" s="37">
         <v>20</v>
       </c>
-      <c r="AO30" s="37" t="s">
-        <v>151</v>
-      </c>
-      <c r="AP30" s="37" t="s">
-        <v>151</v>
-      </c>
       <c r="AQ30" s="37" t="s">
         <v>151</v>
       </c>
       <c r="AR30" s="37" t="s">
+        <v>151</v>
+      </c>
+      <c r="AS30" s="37" t="s">
+        <v>151</v>
+      </c>
+      <c r="AT30" s="37" t="s">
         <v>194</v>
       </c>
-      <c r="AS30" s="37" t="s">
-        <v>151</v>
-      </c>
-      <c r="AT30" s="37" t="s">
-        <v>151</v>
-      </c>
       <c r="AU30" s="37" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="31" spans="2:47" x14ac:dyDescent="0.25">
+      <c r="AV30" s="37" t="s">
+        <v>151</v>
+      </c>
+      <c r="AW30" s="37" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="31" spans="2:49" x14ac:dyDescent="0.2">
       <c r="B31" s="14" t="s">
         <v>3</v>
       </c>
@@ -8444,24 +8713,30 @@
       <c r="AO31" s="37" t="s">
         <v>151</v>
       </c>
-      <c r="AP31" s="37"/>
+      <c r="AP31" s="37" t="s">
+        <v>151</v>
+      </c>
       <c r="AQ31" s="37" t="s">
         <v>151</v>
       </c>
-      <c r="AR31" s="37" t="s">
+      <c r="AR31" s="37"/>
+      <c r="AS31" s="37" t="s">
+        <v>151</v>
+      </c>
+      <c r="AT31" s="37" t="s">
         <v>195</v>
       </c>
-      <c r="AS31" s="37" t="s">
-        <v>151</v>
-      </c>
-      <c r="AT31" s="37" t="s">
-        <v>151</v>
-      </c>
       <c r="AU31" s="37" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="32" spans="2:47" x14ac:dyDescent="0.25">
+      <c r="AV31" s="37" t="s">
+        <v>151</v>
+      </c>
+      <c r="AW31" s="37" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="32" spans="2:49" x14ac:dyDescent="0.2">
       <c r="B32" s="14" t="s">
         <v>3</v>
       </c>
@@ -8589,22 +8864,28 @@
         <v>151</v>
       </c>
       <c r="AR32" s="37" t="s">
+        <v>151</v>
+      </c>
+      <c r="AS32" s="37" t="s">
+        <v>151</v>
+      </c>
+      <c r="AT32" s="37" t="s">
         <v>196</v>
       </c>
-      <c r="AS32" s="37" t="s">
-        <v>151</v>
-      </c>
-      <c r="AT32" s="37" t="s">
-        <v>151</v>
-      </c>
       <c r="AU32" s="37" t="s">
+        <v>151</v>
+      </c>
+      <c r="AV32" s="37" t="s">
+        <v>151</v>
+      </c>
+      <c r="AW32" s="37" t="s">
         <v>151</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="Z1:AA1"/>
-    <mergeCell ref="AC1:AU1"/>
+    <mergeCell ref="AC1:AW1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -8615,31 +8896,31 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:P44"/>
   <sheetViews>
     <sheetView zoomScale="131" workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.875" customWidth="1"/>
+    <col min="1" max="1" width="4.83203125" customWidth="1"/>
     <col min="2" max="2" width="19" customWidth="1"/>
     <col min="3" max="3" width="25.5" customWidth="1"/>
     <col min="4" max="4" width="29" customWidth="1"/>
-    <col min="5" max="5" width="11.375" customWidth="1"/>
+    <col min="5" max="5" width="11.33203125" customWidth="1"/>
     <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.83203125" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="13" customWidth="1"/>
     <col min="10" max="10" width="11" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11.5" customWidth="1"/>
     <col min="13" max="13" width="36.5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="20.625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="20.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:16" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:16" ht="24" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -8658,7 +8939,7 @@
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
-    <row r="3" spans="2:16" s="16" customFormat="1" ht="153" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:16" s="16" customFormat="1" ht="182" x14ac:dyDescent="0.2">
       <c r="D3" s="16" t="s">
         <v>30</v>
       </c>
@@ -8672,7 +8953,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="2:16" ht="129.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:16" ht="127" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
         <v>74</v>
       </c>
@@ -8713,7 +8994,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B5" s="5" t="s">
         <v>3</v>
       </c>
@@ -8744,7 +9025,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B6" s="5" t="s">
         <v>6</v>
       </c>
@@ -8771,7 +9052,7 @@
       <c r="M6" s="18"/>
       <c r="N6" s="18"/>
     </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B7" s="5" t="s">
         <v>6</v>
       </c>
@@ -8794,7 +9075,7 @@
       <c r="M7" s="18"/>
       <c r="N7" s="18"/>
     </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B8" s="5" t="s">
         <v>6</v>
       </c>
@@ -8817,7 +9098,7 @@
       <c r="M8" s="18"/>
       <c r="N8" s="18"/>
     </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B9" s="5" t="s">
         <v>17</v>
       </c>
@@ -8838,7 +9119,7 @@
       <c r="M9" s="18"/>
       <c r="N9" s="18"/>
     </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B10" s="5" t="s">
         <v>17</v>
       </c>
@@ -8859,7 +9140,7 @@
       <c r="M10" s="18"/>
       <c r="N10" s="18"/>
     </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B11" s="5" t="s">
         <v>17</v>
       </c>
@@ -8880,7 +9161,7 @@
       <c r="M11" s="18"/>
       <c r="N11" s="18"/>
     </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B12" s="5" t="s">
         <v>17</v>
       </c>
@@ -8901,7 +9182,7 @@
       <c r="M12" s="18"/>
       <c r="N12" s="18"/>
     </row>
-    <row r="13" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B13" s="5" t="s">
         <v>17</v>
       </c>
@@ -8922,7 +9203,7 @@
       <c r="M13" s="18"/>
       <c r="N13" s="18"/>
     </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B14" s="5" t="s">
         <v>17</v>
       </c>
@@ -8943,7 +9224,7 @@
       <c r="M14" s="18"/>
       <c r="N14" s="18"/>
     </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B15" s="5" t="s">
         <v>17</v>
       </c>
@@ -8964,7 +9245,7 @@
       <c r="M15" s="18"/>
       <c r="N15" s="18"/>
     </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B16" s="5" t="s">
         <v>3</v>
       </c>
@@ -8995,7 +9276,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B17" s="5" t="s">
         <v>6</v>
       </c>
@@ -9022,7 +9303,7 @@
       <c r="M17" s="18"/>
       <c r="N17" s="18"/>
     </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B18" s="5" t="s">
         <v>6</v>
       </c>
@@ -9045,7 +9326,7 @@
       <c r="M18" s="18"/>
       <c r="N18" s="18"/>
     </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B19" s="5" t="s">
         <v>6</v>
       </c>
@@ -9068,7 +9349,7 @@
       <c r="M19" s="18"/>
       <c r="N19" s="18"/>
     </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B20" s="5" t="s">
         <v>17</v>
       </c>
@@ -9089,7 +9370,7 @@
       <c r="M20" s="18"/>
       <c r="N20" s="18"/>
     </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B21" s="5" t="s">
         <v>17</v>
       </c>
@@ -9110,7 +9391,7 @@
       <c r="M21" s="18"/>
       <c r="N21" s="18"/>
     </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B22" s="5" t="s">
         <v>17</v>
       </c>
@@ -9131,7 +9412,7 @@
       <c r="M22" s="18"/>
       <c r="N22" s="18"/>
     </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B23" s="5" t="s">
         <v>17</v>
       </c>
@@ -9152,7 +9433,7 @@
       <c r="M23" s="18"/>
       <c r="N23" s="18"/>
     </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B24" s="5" t="s">
         <v>17</v>
       </c>
@@ -9173,7 +9454,7 @@
       <c r="M24" s="18"/>
       <c r="N24" s="18"/>
     </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B25" s="5" t="s">
         <v>17</v>
       </c>
@@ -9194,7 +9475,7 @@
       <c r="M25" s="18"/>
       <c r="N25" s="18"/>
     </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B26" s="5" t="s">
         <v>3</v>
       </c>
@@ -9225,7 +9506,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B27" s="5" t="s">
         <v>6</v>
       </c>
@@ -9252,7 +9533,7 @@
       <c r="M27" s="18"/>
       <c r="N27" s="18"/>
     </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B28" s="5" t="s">
         <v>6</v>
       </c>
@@ -9275,7 +9556,7 @@
       <c r="M28" s="18"/>
       <c r="N28" s="18"/>
     </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B29" s="5" t="s">
         <v>6</v>
       </c>
@@ -9298,7 +9579,7 @@
       <c r="M29" s="18"/>
       <c r="N29" s="18"/>
     </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B30" s="5" t="s">
         <v>17</v>
       </c>
@@ -9319,7 +9600,7 @@
       <c r="M30" s="18"/>
       <c r="N30" s="18"/>
     </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B31" s="5" t="s">
         <v>17</v>
       </c>
@@ -9340,7 +9621,7 @@
       <c r="M31" s="18"/>
       <c r="N31" s="18"/>
     </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B32" s="5" t="s">
         <v>17</v>
       </c>
@@ -9361,7 +9642,7 @@
       <c r="M32" s="18"/>
       <c r="N32" s="18"/>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B33" s="5" t="s">
         <v>17</v>
       </c>
@@ -9382,7 +9663,7 @@
       <c r="M33" s="18"/>
       <c r="N33" s="18"/>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B34" s="5" t="s">
         <v>17</v>
       </c>
@@ -9403,7 +9684,7 @@
       <c r="M34" s="18"/>
       <c r="N34" s="18"/>
     </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B35" s="5" t="s">
         <v>17</v>
       </c>
@@ -9424,7 +9705,7 @@
       <c r="M35" s="18"/>
       <c r="N35" s="18"/>
     </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B36" s="5" t="s">
         <v>17</v>
       </c>
@@ -9445,7 +9726,7 @@
       <c r="M36" s="18"/>
       <c r="N36" s="18"/>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="5" t="s">
         <v>17</v>
       </c>
@@ -9466,7 +9747,7 @@
       <c r="M37" s="18"/>
       <c r="N37" s="18"/>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B38" s="5" t="s">
         <v>3</v>
       </c>
@@ -9497,7 +9778,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B39" s="5" t="s">
         <v>6</v>
       </c>
@@ -9520,7 +9801,7 @@
       <c r="M39" s="18"/>
       <c r="N39" s="18"/>
     </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B40" s="5" t="s">
         <v>6</v>
       </c>
@@ -9543,7 +9824,7 @@
       <c r="M40" s="18"/>
       <c r="N40" s="18"/>
     </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B41" s="5" t="s">
         <v>17</v>
       </c>
@@ -9564,7 +9845,7 @@
       <c r="M41" s="18"/>
       <c r="N41" s="18"/>
     </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B42" s="5" t="s">
         <v>3</v>
       </c>
@@ -9595,7 +9876,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B43" s="5" t="s">
         <v>6</v>
       </c>
@@ -9620,7 +9901,7 @@
       <c r="M43" s="18"/>
       <c r="N43" s="18"/>
     </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B44" s="5" t="s">
         <v>17</v>
       </c>
@@ -9643,132 +9924,132 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="I5:N13 I15:N25 I38:N44">
-    <cfRule type="expression" dxfId="41" priority="27">
+    <cfRule type="expression" dxfId="25" priority="27">
       <formula>$B5&lt;&gt;"&lt;Definition&gt;"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E5:H13 F24:H24 E15:H23 E25:H25 E38:H44">
-    <cfRule type="expression" dxfId="40" priority="26">
+    <cfRule type="expression" dxfId="24" priority="26">
       <formula>$B5&lt;&gt;"&lt;Item&gt;"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5:D13 D15 D38:D44">
-    <cfRule type="expression" dxfId="39" priority="25">
+    <cfRule type="expression" dxfId="23" priority="25">
       <formula>$B5&lt;&gt;"&lt;Param&gt;"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16:D25">
-    <cfRule type="expression" dxfId="38" priority="22">
+    <cfRule type="expression" dxfId="22" priority="22">
       <formula>$B16&lt;&gt;"&lt;Param&gt;"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B24:D24 F24:L24 B5:N13 B15:L23 B25:L25 M15:N25 B38:N44">
-    <cfRule type="expression" dxfId="37" priority="21">
+    <cfRule type="expression" dxfId="21" priority="21">
       <formula>$B5="&lt;Definition&gt;"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E24">
-    <cfRule type="expression" dxfId="36" priority="20">
+    <cfRule type="expression" dxfId="20" priority="20">
       <formula>$B24&lt;&gt;"&lt;Item&gt;"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E24">
-    <cfRule type="expression" dxfId="35" priority="19">
+    <cfRule type="expression" dxfId="19" priority="19">
       <formula>$B24="&lt;Definition&gt;"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I14:N14">
-    <cfRule type="expression" dxfId="34" priority="18">
+    <cfRule type="expression" dxfId="18" priority="18">
       <formula>$B14&lt;&gt;"&lt;Definition&gt;"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E14:H14">
-    <cfRule type="expression" dxfId="33" priority="17">
+    <cfRule type="expression" dxfId="17" priority="17">
       <formula>$B14&lt;&gt;"&lt;Item&gt;"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D14">
-    <cfRule type="expression" dxfId="32" priority="16">
+    <cfRule type="expression" dxfId="16" priority="16">
       <formula>$B14&lt;&gt;"&lt;Param&gt;"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B14:N14">
-    <cfRule type="expression" dxfId="31" priority="15">
+    <cfRule type="expression" dxfId="15" priority="15">
       <formula>$B14="&lt;Definition&gt;"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I26:N34 I37:N37">
-    <cfRule type="expression" dxfId="30" priority="14">
+    <cfRule type="expression" dxfId="14" priority="14">
       <formula>$B26&lt;&gt;"&lt;Definition&gt;"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F34:H34 E26:H33 E37:H37">
-    <cfRule type="expression" dxfId="29" priority="13">
+    <cfRule type="expression" dxfId="13" priority="13">
       <formula>$B26&lt;&gt;"&lt;Item&gt;"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D26:D34 D37">
-    <cfRule type="expression" dxfId="28" priority="12">
+    <cfRule type="expression" dxfId="12" priority="12">
       <formula>$B26&lt;&gt;"&lt;Param&gt;"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B34:D34 F34:L34 B26:L33 M26:N34 B37:N37">
-    <cfRule type="expression" dxfId="27" priority="11">
+    <cfRule type="expression" dxfId="11" priority="11">
       <formula>$B26="&lt;Definition&gt;"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E34">
-    <cfRule type="expression" dxfId="26" priority="10">
+    <cfRule type="expression" dxfId="10" priority="10">
       <formula>$B34&lt;&gt;"&lt;Item&gt;"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E34">
-    <cfRule type="expression" dxfId="25" priority="9">
+    <cfRule type="expression" dxfId="9" priority="9">
       <formula>$B34="&lt;Definition&gt;"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I35:N35">
-    <cfRule type="expression" dxfId="24" priority="8">
+    <cfRule type="expression" dxfId="8" priority="8">
       <formula>$B35&lt;&gt;"&lt;Definition&gt;"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E35:H35">
-    <cfRule type="expression" dxfId="23" priority="7">
+    <cfRule type="expression" dxfId="7" priority="7">
       <formula>$B35&lt;&gt;"&lt;Item&gt;"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D35">
-    <cfRule type="expression" dxfId="22" priority="6">
+    <cfRule type="expression" dxfId="6" priority="6">
       <formula>$B35&lt;&gt;"&lt;Param&gt;"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B35:N35">
-    <cfRule type="expression" dxfId="21" priority="5">
+    <cfRule type="expression" dxfId="5" priority="5">
       <formula>$B35="&lt;Definition&gt;"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I36:N36">
-    <cfRule type="expression" dxfId="20" priority="4">
+    <cfRule type="expression" dxfId="4" priority="4">
       <formula>$B36&lt;&gt;"&lt;Definition&gt;"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E36:H36">
-    <cfRule type="expression" dxfId="19" priority="3">
+    <cfRule type="expression" dxfId="3" priority="3">
       <formula>$B36&lt;&gt;"&lt;Item&gt;"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D36">
-    <cfRule type="expression" dxfId="18" priority="2">
+    <cfRule type="expression" dxfId="2" priority="2">
       <formula>$B36&lt;&gt;"&lt;Param&gt;"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B36:N36">
-    <cfRule type="expression" dxfId="17" priority="1">
+    <cfRule type="expression" dxfId="1" priority="1">
       <formula>$B36="&lt;Definition&gt;"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5:B44">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5:B44" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"&lt;Definition&gt;,&lt;Item&gt;,&lt;Param&gt;"</formula1>
     </dataValidation>
   </dataValidations>
@@ -9780,13 +10061,13 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000001000000}">
           <x14:formula1>
             <xm:f>ValidationData!$B$4:$B$9</xm:f>
           </x14:formula1>
           <xm:sqref>E5:E44</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" xr:uid="{00000000-0002-0000-0100-000002000000}">
           <x14:formula1>
             <xm:f>ValidationData!$D$4:$D$31</xm:f>
           </x14:formula1>
@@ -9799,19 +10080,19 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B2:D31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="4" max="4" width="23" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B2" s="20" t="s">
         <v>48</v>
       </c>
@@ -9820,10 +10101,10 @@
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D3" s="20"/>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>21</v>
       </c>
@@ -9831,7 +10112,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>19</v>
       </c>
@@ -9839,7 +10120,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>65</v>
       </c>
@@ -9847,13 +10128,13 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>27</v>
       </c>
       <c r="D7" s="21"/>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>18</v>
       </c>
@@ -9861,7 +10142,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>66</v>
       </c>
@@ -9869,7 +10150,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>151</v>
       </c>
@@ -9877,107 +10158,107 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D11" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D12" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D13" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D14" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D15" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D16" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D17" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="18" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D18" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="19" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D19" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="20" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D20" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="21" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D21" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="22" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D22" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="23" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D23" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="24" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D24" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="25" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D25" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="26" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D26" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="27" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D27" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="28" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D28" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="29" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D29" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="30" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D30" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="31" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D31" t="s">
         <v>62</v>
       </c>

--- a/Docs/Content/HungryDragonContent_Offers.xlsx
+++ b/Docs/Content/HungryDragonContent_Offers.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10613"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aortin/Documents/UBI/FD/Client/Docs/Content/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hsemroud\Documents\Dragon\Docs\Content\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{AA69E686-AFD9-0F45-81E0-6A3E4971EA12}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38400" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38400" yWindow="0" windowWidth="38400" windowHeight="21600"/>
   </bookViews>
   <sheets>
     <sheet name="Packs" sheetId="3" r:id="rId1"/>
     <sheet name="OLD" sheetId="1" r:id="rId2"/>
     <sheet name="ValidationData" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913" calcMode="manual" calcOnSave="0"/>
+  <calcPr calcId="162913" calcMode="manual" calcCompleted="0" calcOnSave="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1433" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1425" uniqueCount="204">
   <si>
     <t>OFFER PACKS DEFINITIONS</t>
   </si>
@@ -635,12 +634,18 @@
   </si>
   <si>
     <t>[minutesSinceLastPurchase]</t>
+  </si>
+  <si>
+    <t>TID_STORE_PACK_STARTERPACK</t>
+  </si>
+  <si>
+    <t>6:999</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1041,7 +1046,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1233,11 +1238,122 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="93">
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FFDCE6F1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FFDCE6F1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FFDCE6F1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1252,17 +1368,15 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FF000000"/>
           <bgColor rgb="FFDCE6F1"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color auto="1"/>
@@ -1278,6 +1392,389 @@
         </bottom>
         <vertical/>
         <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FFDCE6F1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FFDCE6F1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="7" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="45" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
       </border>
     </dxf>
     <dxf>
@@ -1569,576 +2066,6 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FFDCE6F1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FFDCE6F1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FFDCE6F1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FFDCE6F1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FFDCE6F1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FFDCE6F1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FFDCE6F1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="7" tint="0.39997558519241921"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="45" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -2628,6 +2555,88 @@
         <bottom style="thin">
           <color auto="1"/>
         </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FFDCE6F1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FFDCE6F1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -3911,79 +3920,79 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="offerPacksDefinitions" displayName="offerPacksDefinitions" ref="B2:AW32" totalsRowShown="0" headerRowDxfId="92" headerRowBorderDxfId="91" tableBorderDxfId="90">
-  <autoFilter ref="B2:AW32" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="offerPacksDefinitions" displayName="offerPacksDefinitions" ref="B2:AW32" totalsRowShown="0" headerRowDxfId="92" headerRowBorderDxfId="91" tableBorderDxfId="90">
+  <autoFilter ref="B2:AW32"/>
   <tableColumns count="48">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="{offerPacksDefinitions}" dataDxfId="89"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="[sku]" dataDxfId="88"/>
-    <tableColumn id="45" xr3:uid="{00000000-0010-0000-0000-00002D000000}" name="[uniqueId]" dataDxfId="87"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="[enabled]" dataDxfId="86"/>
-    <tableColumn id="39" xr3:uid="{00000000-0010-0000-0000-000027000000}" name="[purchaseLimit]" dataDxfId="85"/>
-    <tableColumn id="38" xr3:uid="{00000000-0010-0000-0000-000026000000}" name="[item1Featured]" dataDxfId="84"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="[item1Type]" dataDxfId="83"/>
-    <tableColumn id="37" xr3:uid="{00000000-0010-0000-0000-000025000000}" name="[item1Amount]" dataDxfId="82"/>
-    <tableColumn id="40" xr3:uid="{00000000-0010-0000-0000-000028000000}" name="[item1Sku]" dataDxfId="81"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="[item2Type]" dataDxfId="80"/>
-    <tableColumn id="41" xr3:uid="{00000000-0010-0000-0000-000029000000}" name="[item2Amount]" dataDxfId="79"/>
-    <tableColumn id="42" xr3:uid="{00000000-0010-0000-0000-00002A000000}" name="[item2Sku]" dataDxfId="78"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="[item3Type]" dataDxfId="77"/>
-    <tableColumn id="43" xr3:uid="{00000000-0010-0000-0000-00002B000000}" name="[item3Amount]" dataDxfId="76"/>
-    <tableColumn id="44" xr3:uid="{00000000-0010-0000-0000-00002C000000}" name="[item3Sku]" dataDxfId="75"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="[order]" dataDxfId="74"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="[refPrice]" dataDxfId="73"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="[discount]" dataDxfId="72"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="[iapSku]" dataDxfId="71"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="[tidName]" dataDxfId="70"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="[featured]" dataDxfId="69"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="[maxViews]" dataDxfId="68"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="[zone]" dataDxfId="67"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="[frequency]" dataDxfId="66"/>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="[startDate]" dataDxfId="65"/>
-    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="[endDate]" dataDxfId="64"/>
-    <tableColumn id="46" xr3:uid="{00000000-0010-0000-0000-00002E000000}" name="[durationMinutes]" dataDxfId="63"/>
-    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="[minAppVersion]" dataDxfId="62"/>
-    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="[countriesAllowed]" dataDxfId="61"/>
-    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0000-000014000000}" name="[countriesExcluded]" dataDxfId="60"/>
-    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" name="[gamesPlayed]" dataDxfId="59"/>
-    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0000-000016000000}" name="[payerType]" dataDxfId="58"/>
-    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0000-000017000000}" name="[minSpent]" dataDxfId="57"/>
-    <tableColumn id="47" xr3:uid="{AED225FC-C091-2342-9B9A-0BC4A5AA4B98}" name="[minNumberOfPurchases]" dataDxfId="26"/>
-    <tableColumn id="48" xr3:uid="{EDC99988-F22B-2C41-BBCD-4DF3558834B7}" name="[minutesSinceLastPurchase]" dataDxfId="0"/>
-    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0000-000018000000}" name="[dragonUnlocked]" dataDxfId="56"/>
-    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0000-000019000000}" name="[dragonOwned]" dataDxfId="55"/>
-    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0000-00001A000000}" name="[dragonNotOwned]" dataDxfId="54"/>
-    <tableColumn id="27" xr3:uid="{00000000-0010-0000-0000-00001B000000}" name="[scBalanceRange]" dataDxfId="53"/>
-    <tableColumn id="28" xr3:uid="{00000000-0010-0000-0000-00001C000000}" name="[hcBalanceRange]" dataDxfId="52"/>
-    <tableColumn id="29" xr3:uid="{00000000-0010-0000-0000-00001D000000}" name="[openedEggs]" dataDxfId="51"/>
-    <tableColumn id="30" xr3:uid="{00000000-0010-0000-0000-00001E000000}" name="[petsOwnedCount]" dataDxfId="50"/>
-    <tableColumn id="31" xr3:uid="{00000000-0010-0000-0000-00001F000000}" name="[petsOwned]" dataDxfId="49"/>
-    <tableColumn id="32" xr3:uid="{00000000-0010-0000-0000-000020000000}" name="[petsNotOwned]" dataDxfId="48"/>
-    <tableColumn id="33" xr3:uid="{00000000-0010-0000-0000-000021000000}" name="[progressionRange]" dataDxfId="47"/>
-    <tableColumn id="34" xr3:uid="{00000000-0010-0000-0000-000022000000}" name="[skinsUnlocked]" dataDxfId="46"/>
-    <tableColumn id="35" xr3:uid="{00000000-0010-0000-0000-000023000000}" name="[skinsOwned]" dataDxfId="45"/>
-    <tableColumn id="36" xr3:uid="{00000000-0010-0000-0000-000024000000}" name="[skinsNotOwned]" dataDxfId="44"/>
+    <tableColumn id="1" name="{offerPacksDefinitions}" dataDxfId="89"/>
+    <tableColumn id="2" name="[sku]" dataDxfId="88"/>
+    <tableColumn id="45" name="[uniqueId]" dataDxfId="87"/>
+    <tableColumn id="3" name="[enabled]" dataDxfId="86"/>
+    <tableColumn id="39" name="[purchaseLimit]" dataDxfId="85"/>
+    <tableColumn id="38" name="[item1Featured]" dataDxfId="84"/>
+    <tableColumn id="4" name="[item1Type]" dataDxfId="83"/>
+    <tableColumn id="37" name="[item1Amount]" dataDxfId="82"/>
+    <tableColumn id="40" name="[item1Sku]" dataDxfId="81"/>
+    <tableColumn id="5" name="[item2Type]" dataDxfId="80"/>
+    <tableColumn id="41" name="[item2Amount]" dataDxfId="79"/>
+    <tableColumn id="42" name="[item2Sku]" dataDxfId="78"/>
+    <tableColumn id="6" name="[item3Type]" dataDxfId="77"/>
+    <tableColumn id="43" name="[item3Amount]" dataDxfId="76"/>
+    <tableColumn id="44" name="[item3Sku]" dataDxfId="75"/>
+    <tableColumn id="7" name="[order]" dataDxfId="74"/>
+    <tableColumn id="8" name="[refPrice]" dataDxfId="73"/>
+    <tableColumn id="9" name="[discount]" dataDxfId="72"/>
+    <tableColumn id="10" name="[iapSku]" dataDxfId="71"/>
+    <tableColumn id="11" name="[tidName]" dataDxfId="70"/>
+    <tableColumn id="12" name="[featured]" dataDxfId="69"/>
+    <tableColumn id="13" name="[maxViews]" dataDxfId="68"/>
+    <tableColumn id="14" name="[zone]" dataDxfId="67"/>
+    <tableColumn id="15" name="[frequency]" dataDxfId="66"/>
+    <tableColumn id="16" name="[startDate]" dataDxfId="65"/>
+    <tableColumn id="17" name="[endDate]" dataDxfId="64"/>
+    <tableColumn id="46" name="[durationMinutes]" dataDxfId="63"/>
+    <tableColumn id="18" name="[minAppVersion]" dataDxfId="62"/>
+    <tableColumn id="19" name="[countriesAllowed]" dataDxfId="61"/>
+    <tableColumn id="20" name="[countriesExcluded]" dataDxfId="60"/>
+    <tableColumn id="21" name="[gamesPlayed]" dataDxfId="59"/>
+    <tableColumn id="22" name="[payerType]" dataDxfId="58"/>
+    <tableColumn id="23" name="[minSpent]" dataDxfId="57"/>
+    <tableColumn id="47" name="[minNumberOfPurchases]" dataDxfId="56"/>
+    <tableColumn id="48" name="[minutesSinceLastPurchase]" dataDxfId="55"/>
+    <tableColumn id="24" name="[dragonUnlocked]" dataDxfId="54"/>
+    <tableColumn id="25" name="[dragonOwned]" dataDxfId="53"/>
+    <tableColumn id="26" name="[dragonNotOwned]" dataDxfId="52"/>
+    <tableColumn id="27" name="[scBalanceRange]" dataDxfId="51"/>
+    <tableColumn id="28" name="[hcBalanceRange]" dataDxfId="50"/>
+    <tableColumn id="29" name="[openedEggs]" dataDxfId="49"/>
+    <tableColumn id="30" name="[petsOwnedCount]" dataDxfId="48"/>
+    <tableColumn id="31" name="[petsOwned]" dataDxfId="47"/>
+    <tableColumn id="32" name="[petsNotOwned]" dataDxfId="46"/>
+    <tableColumn id="33" name="[progressionRange]" dataDxfId="45"/>
+    <tableColumn id="34" name="[skinsUnlocked]" dataDxfId="44"/>
+    <tableColumn id="35" name="[skinsOwned]" dataDxfId="43"/>
+    <tableColumn id="36" name="[skinsNotOwned]" dataDxfId="42"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="offerPacksDefinitions_OLD" displayName="offerPacksDefinitions_OLD" ref="B4:N44" totalsRowShown="0" headerRowDxfId="43" dataDxfId="41" headerRowBorderDxfId="42" tableBorderDxfId="40">
-  <autoFilter ref="B4:N44" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="offerPacksDefinitions_OLD" displayName="offerPacksDefinitions_OLD" ref="B4:N44" totalsRowShown="0" headerRowDxfId="16" dataDxfId="14" headerRowBorderDxfId="15" tableBorderDxfId="13">
+  <autoFilter ref="B4:N44"/>
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="offerPacksDefinitions_OLD" dataDxfId="39"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="[sku]" dataDxfId="38"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0100-00000F000000}" name="[paramValue]" dataDxfId="37"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="[itemType]" dataDxfId="36"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="[itemAmount]" dataDxfId="35"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="[itemSku]" dataDxfId="34"/>
-    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0100-000017000000}" name="[itemFeatured]" dataDxfId="33"/>
-    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0100-000016000000}" name="[minAppVersion]" dataDxfId="32"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="[order]" dataDxfId="31"/>
-    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0100-000018000000}" name="[refPrice]" dataDxfId="30"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="[discount]" dataDxfId="29"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="[iapSku]" dataDxfId="28"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="[tidName]" dataDxfId="27"/>
+    <tableColumn id="1" name="offerPacksDefinitions_OLD" dataDxfId="12"/>
+    <tableColumn id="2" name="[sku]" dataDxfId="11"/>
+    <tableColumn id="15" name="[paramValue]" dataDxfId="10"/>
+    <tableColumn id="7" name="[itemType]" dataDxfId="9"/>
+    <tableColumn id="8" name="[itemAmount]" dataDxfId="8"/>
+    <tableColumn id="9" name="[itemSku]" dataDxfId="7"/>
+    <tableColumn id="23" name="[itemFeatured]" dataDxfId="6"/>
+    <tableColumn id="22" name="[minAppVersion]" dataDxfId="5"/>
+    <tableColumn id="4" name="[order]" dataDxfId="4"/>
+    <tableColumn id="24" name="[refPrice]" dataDxfId="3"/>
+    <tableColumn id="6" name="[discount]" dataDxfId="2"/>
+    <tableColumn id="3" name="[iapSku]" dataDxfId="1"/>
+    <tableColumn id="5" name="[tidName]" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4285,45 +4294,45 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AW32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="S11" sqref="S11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q3" sqref="Q3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4" customWidth="1"/>
     <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="18.375" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="7.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.5" customWidth="1"/>
     <col min="8" max="9" width="7.5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9" bestFit="1" customWidth="1"/>
     <col min="11" max="16" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.1640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.1640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="39.6640625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="26.83203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="39.625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="26.875" bestFit="1" customWidth="1"/>
     <col min="22" max="23" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="13.625" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="9.625" bestFit="1" customWidth="1"/>
     <col min="27" max="31" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="20.1640625" customWidth="1"/>
-    <col min="33" max="33" width="8.1640625" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="19.33203125" customWidth="1"/>
+    <col min="32" max="32" width="20.125" customWidth="1"/>
+    <col min="33" max="33" width="8.125" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="19.375" customWidth="1"/>
     <col min="35" max="39" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="16.83203125" customWidth="1"/>
-    <col min="41" max="41" width="16.1640625" customWidth="1"/>
-    <col min="42" max="42" width="14.6640625" customWidth="1"/>
-    <col min="43" max="43" width="20.1640625" customWidth="1"/>
+    <col min="40" max="40" width="16.875" customWidth="1"/>
+    <col min="41" max="41" width="16.125" customWidth="1"/>
+    <col min="42" max="42" width="14.625" customWidth="1"/>
+    <col min="43" max="43" width="20.125" customWidth="1"/>
     <col min="44" max="47" width="7.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:49" s="25" customFormat="1" ht="126" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:49" s="25" customFormat="1" ht="115.5" x14ac:dyDescent="0.25">
       <c r="Q1" s="16" t="s">
         <v>29</v>
       </c>
@@ -4362,7 +4371,7 @@
       <c r="AV1" s="66"/>
       <c r="AW1" s="66"/>
     </row>
-    <row r="2" spans="2:49" ht="135" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:49" ht="135" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
@@ -4508,7 +4517,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="3" spans="2:49" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:49" x14ac:dyDescent="0.25">
       <c r="B3" s="14" t="s">
         <v>3</v>
       </c>
@@ -4519,37 +4528,37 @@
         <v>151</v>
       </c>
       <c r="E3" s="40" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3" s="48">
         <v>1</v>
       </c>
       <c r="G3" s="43" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H3" s="43" t="s">
-        <v>151</v>
-      </c>
-      <c r="I3" s="43" t="s">
-        <v>151</v>
+        <v>27</v>
+      </c>
+      <c r="I3" s="43">
+        <v>3</v>
       </c>
       <c r="J3" s="43" t="s">
-        <v>151</v>
+        <v>189</v>
       </c>
       <c r="K3" s="47" t="s">
-        <v>151</v>
-      </c>
-      <c r="L3" s="47" t="s">
-        <v>151</v>
+        <v>19</v>
+      </c>
+      <c r="L3" s="47">
+        <v>80</v>
       </c>
       <c r="M3" s="47" t="s">
         <v>151</v>
       </c>
       <c r="N3" s="42" t="s">
-        <v>151</v>
-      </c>
-      <c r="O3" s="42" t="s">
-        <v>151</v>
+        <v>21</v>
+      </c>
+      <c r="O3" s="42">
+        <v>30000</v>
       </c>
       <c r="P3" s="42" t="s">
         <v>151</v>
@@ -4560,38 +4569,36 @@
       <c r="R3" s="29" t="s">
         <v>125</v>
       </c>
-      <c r="S3" s="30">
-        <v>0.5</v>
+      <c r="S3" s="67" t="s">
+        <v>178</v>
       </c>
       <c r="T3" s="26" t="s">
         <v>104</v>
       </c>
       <c r="U3" s="22" t="s">
-        <v>44</v>
-      </c>
-      <c r="V3" s="36" t="s">
-        <v>151</v>
-      </c>
-      <c r="W3" s="36" t="s">
-        <v>151</v>
+        <v>202</v>
+      </c>
+      <c r="V3" s="36" t="b">
+        <v>1</v>
+      </c>
+      <c r="W3" s="36">
+        <v>0</v>
       </c>
       <c r="X3" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="Y3" s="36" t="s">
-        <v>151</v>
-      </c>
-      <c r="Z3" s="39" t="s">
-        <v>151</v>
-      </c>
+      <c r="Y3" s="36">
+        <v>20</v>
+      </c>
+      <c r="Z3" s="39"/>
       <c r="AA3" s="39" t="s">
         <v>151</v>
       </c>
-      <c r="AB3" s="39" t="s">
-        <v>151</v>
+      <c r="AB3" s="39">
+        <v>1440</v>
       </c>
       <c r="AC3" s="37" t="s">
-        <v>102</v>
+        <v>199</v>
       </c>
       <c r="AD3" s="37" t="s">
         <v>151</v>
@@ -4599,8 +4606,8 @@
       <c r="AE3" s="37" t="s">
         <v>151</v>
       </c>
-      <c r="AF3" s="37" t="s">
-        <v>151</v>
+      <c r="AF3" s="37">
+        <v>4</v>
       </c>
       <c r="AG3" s="37" t="s">
         <v>151</v>
@@ -4641,8 +4648,8 @@
       <c r="AS3" s="37" t="s">
         <v>151</v>
       </c>
-      <c r="AT3" s="37" t="s">
-        <v>151</v>
+      <c r="AT3" s="68" t="s">
+        <v>203</v>
       </c>
       <c r="AU3" s="37" t="s">
         <v>151</v>
@@ -4654,7 +4661,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="4" spans="2:49" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:49" x14ac:dyDescent="0.25">
       <c r="B4" s="14" t="s">
         <v>3</v>
       </c>
@@ -4800,7 +4807,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="5" spans="2:49" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:49" x14ac:dyDescent="0.25">
       <c r="B5" s="14" t="s">
         <v>3</v>
       </c>
@@ -4946,7 +4953,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="6" spans="2:49" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:49" x14ac:dyDescent="0.25">
       <c r="B6" s="14" t="s">
         <v>3</v>
       </c>
@@ -5092,7 +5099,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="7" spans="2:49" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:49" x14ac:dyDescent="0.25">
       <c r="B7" s="14" t="s">
         <v>3</v>
       </c>
@@ -5238,7 +5245,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="8" spans="2:49" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:49" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
         <v>3</v>
       </c>
@@ -5384,7 +5391,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="9" spans="2:49" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:49" x14ac:dyDescent="0.25">
       <c r="B9" s="14" t="s">
         <v>3</v>
       </c>
@@ -5530,7 +5537,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="10" spans="2:49" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:49" x14ac:dyDescent="0.25">
       <c r="B10" s="14" t="s">
         <v>3</v>
       </c>
@@ -5676,7 +5683,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="11" spans="2:49" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:49" x14ac:dyDescent="0.25">
       <c r="B11" s="14" t="s">
         <v>3</v>
       </c>
@@ -5822,7 +5829,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="12" spans="2:49" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:49" x14ac:dyDescent="0.25">
       <c r="B12" s="14" t="s">
         <v>3</v>
       </c>
@@ -5968,7 +5975,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="13" spans="2:49" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:49" x14ac:dyDescent="0.25">
       <c r="B13" s="14" t="s">
         <v>3</v>
       </c>
@@ -6114,7 +6121,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="14" spans="2:49" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:49" x14ac:dyDescent="0.25">
       <c r="B14" s="14" t="s">
         <v>3</v>
       </c>
@@ -6260,7 +6267,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="15" spans="2:49" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:49" x14ac:dyDescent="0.25">
       <c r="B15" s="14" t="s">
         <v>3</v>
       </c>
@@ -6406,7 +6413,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="16" spans="2:49" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:49" x14ac:dyDescent="0.25">
       <c r="B16" s="14" t="s">
         <v>3</v>
       </c>
@@ -6552,7 +6559,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="17" spans="2:49" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:49" x14ac:dyDescent="0.25">
       <c r="B17" s="14" t="s">
         <v>3</v>
       </c>
@@ -6698,7 +6705,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="18" spans="2:49" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:49" x14ac:dyDescent="0.25">
       <c r="B18" s="14" t="s">
         <v>3</v>
       </c>
@@ -6844,7 +6851,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="19" spans="2:49" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:49" x14ac:dyDescent="0.25">
       <c r="B19" s="14" t="s">
         <v>3</v>
       </c>
@@ -6990,7 +6997,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="20" spans="2:49" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:49" x14ac:dyDescent="0.25">
       <c r="B20" s="14" t="s">
         <v>3</v>
       </c>
@@ -7136,7 +7143,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="21" spans="2:49" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:49" x14ac:dyDescent="0.25">
       <c r="B21" s="14" t="s">
         <v>3</v>
       </c>
@@ -7282,7 +7289,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="22" spans="2:49" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:49" x14ac:dyDescent="0.25">
       <c r="B22" s="14" t="s">
         <v>3</v>
       </c>
@@ -7428,7 +7435,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="23" spans="2:49" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:49" x14ac:dyDescent="0.25">
       <c r="B23" s="53" t="s">
         <v>3</v>
       </c>
@@ -7572,7 +7579,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="24" spans="2:49" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:49" x14ac:dyDescent="0.25">
       <c r="B24" s="14" t="s">
         <v>3</v>
       </c>
@@ -7718,7 +7725,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="25" spans="2:49" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:49" x14ac:dyDescent="0.25">
       <c r="B25" s="14" t="s">
         <v>3</v>
       </c>
@@ -7862,7 +7869,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="26" spans="2:49" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:49" x14ac:dyDescent="0.25">
       <c r="B26" s="14" t="s">
         <v>3</v>
       </c>
@@ -8008,7 +8015,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="27" spans="2:49" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:49" x14ac:dyDescent="0.25">
       <c r="B27" s="14" t="s">
         <v>3</v>
       </c>
@@ -8154,7 +8161,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="28" spans="2:49" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:49" x14ac:dyDescent="0.25">
       <c r="B28" s="14" t="s">
         <v>3</v>
       </c>
@@ -8300,7 +8307,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="29" spans="2:49" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:49" x14ac:dyDescent="0.25">
       <c r="B29" s="14" t="s">
         <v>3</v>
       </c>
@@ -8446,7 +8453,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="30" spans="2:49" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:49" x14ac:dyDescent="0.25">
       <c r="B30" s="14" t="s">
         <v>3</v>
       </c>
@@ -8592,7 +8599,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="31" spans="2:49" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:49" x14ac:dyDescent="0.25">
       <c r="B31" s="14" t="s">
         <v>3</v>
       </c>
@@ -8736,7 +8743,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="32" spans="2:49" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:49" x14ac:dyDescent="0.25">
       <c r="B32" s="14" t="s">
         <v>3</v>
       </c>
@@ -8896,31 +8903,31 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:P44"/>
   <sheetViews>
     <sheetView zoomScale="131" workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.83203125" customWidth="1"/>
+    <col min="1" max="1" width="4.875" customWidth="1"/>
     <col min="2" max="2" width="19" customWidth="1"/>
     <col min="3" max="3" width="25.5" customWidth="1"/>
     <col min="4" max="4" width="29" customWidth="1"/>
-    <col min="5" max="5" width="11.33203125" customWidth="1"/>
+    <col min="5" max="5" width="11.375" customWidth="1"/>
     <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.875" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="13" customWidth="1"/>
     <col min="10" max="10" width="11" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11.5" customWidth="1"/>
     <col min="13" max="13" width="36.5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="20.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:16" ht="24" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:16" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -8939,7 +8946,7 @@
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
-    <row r="3" spans="2:16" s="16" customFormat="1" ht="182" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:16" s="16" customFormat="1" ht="153" x14ac:dyDescent="0.2">
       <c r="D3" s="16" t="s">
         <v>30</v>
       </c>
@@ -8953,7 +8960,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="2:16" ht="127" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:16" ht="129.75" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
         <v>74</v>
       </c>
@@ -8994,7 +9001,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B5" s="5" t="s">
         <v>3</v>
       </c>
@@ -9025,7 +9032,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B6" s="5" t="s">
         <v>6</v>
       </c>
@@ -9052,7 +9059,7 @@
       <c r="M6" s="18"/>
       <c r="N6" s="18"/>
     </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B7" s="5" t="s">
         <v>6</v>
       </c>
@@ -9075,7 +9082,7 @@
       <c r="M7" s="18"/>
       <c r="N7" s="18"/>
     </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B8" s="5" t="s">
         <v>6</v>
       </c>
@@ -9098,7 +9105,7 @@
       <c r="M8" s="18"/>
       <c r="N8" s="18"/>
     </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B9" s="5" t="s">
         <v>17</v>
       </c>
@@ -9119,7 +9126,7 @@
       <c r="M9" s="18"/>
       <c r="N9" s="18"/>
     </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B10" s="5" t="s">
         <v>17</v>
       </c>
@@ -9140,7 +9147,7 @@
       <c r="M10" s="18"/>
       <c r="N10" s="18"/>
     </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B11" s="5" t="s">
         <v>17</v>
       </c>
@@ -9161,7 +9168,7 @@
       <c r="M11" s="18"/>
       <c r="N11" s="18"/>
     </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B12" s="5" t="s">
         <v>17</v>
       </c>
@@ -9182,7 +9189,7 @@
       <c r="M12" s="18"/>
       <c r="N12" s="18"/>
     </row>
-    <row r="13" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B13" s="5" t="s">
         <v>17</v>
       </c>
@@ -9203,7 +9210,7 @@
       <c r="M13" s="18"/>
       <c r="N13" s="18"/>
     </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B14" s="5" t="s">
         <v>17</v>
       </c>
@@ -9224,7 +9231,7 @@
       <c r="M14" s="18"/>
       <c r="N14" s="18"/>
     </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B15" s="5" t="s">
         <v>17</v>
       </c>
@@ -9245,7 +9252,7 @@
       <c r="M15" s="18"/>
       <c r="N15" s="18"/>
     </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B16" s="5" t="s">
         <v>3</v>
       </c>
@@ -9276,7 +9283,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B17" s="5" t="s">
         <v>6</v>
       </c>
@@ -9303,7 +9310,7 @@
       <c r="M17" s="18"/>
       <c r="N17" s="18"/>
     </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B18" s="5" t="s">
         <v>6</v>
       </c>
@@ -9326,7 +9333,7 @@
       <c r="M18" s="18"/>
       <c r="N18" s="18"/>
     </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B19" s="5" t="s">
         <v>6</v>
       </c>
@@ -9349,7 +9356,7 @@
       <c r="M19" s="18"/>
       <c r="N19" s="18"/>
     </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B20" s="5" t="s">
         <v>17</v>
       </c>
@@ -9370,7 +9377,7 @@
       <c r="M20" s="18"/>
       <c r="N20" s="18"/>
     </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B21" s="5" t="s">
         <v>17</v>
       </c>
@@ -9391,7 +9398,7 @@
       <c r="M21" s="18"/>
       <c r="N21" s="18"/>
     </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B22" s="5" t="s">
         <v>17</v>
       </c>
@@ -9412,7 +9419,7 @@
       <c r="M22" s="18"/>
       <c r="N22" s="18"/>
     </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B23" s="5" t="s">
         <v>17</v>
       </c>
@@ -9433,7 +9440,7 @@
       <c r="M23" s="18"/>
       <c r="N23" s="18"/>
     </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B24" s="5" t="s">
         <v>17</v>
       </c>
@@ -9454,7 +9461,7 @@
       <c r="M24" s="18"/>
       <c r="N24" s="18"/>
     </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B25" s="5" t="s">
         <v>17</v>
       </c>
@@ -9475,7 +9482,7 @@
       <c r="M25" s="18"/>
       <c r="N25" s="18"/>
     </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B26" s="5" t="s">
         <v>3</v>
       </c>
@@ -9506,7 +9513,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B27" s="5" t="s">
         <v>6</v>
       </c>
@@ -9533,7 +9540,7 @@
       <c r="M27" s="18"/>
       <c r="N27" s="18"/>
     </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B28" s="5" t="s">
         <v>6</v>
       </c>
@@ -9556,7 +9563,7 @@
       <c r="M28" s="18"/>
       <c r="N28" s="18"/>
     </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B29" s="5" t="s">
         <v>6</v>
       </c>
@@ -9579,7 +9586,7 @@
       <c r="M29" s="18"/>
       <c r="N29" s="18"/>
     </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B30" s="5" t="s">
         <v>17</v>
       </c>
@@ -9600,7 +9607,7 @@
       <c r="M30" s="18"/>
       <c r="N30" s="18"/>
     </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B31" s="5" t="s">
         <v>17</v>
       </c>
@@ -9621,7 +9628,7 @@
       <c r="M31" s="18"/>
       <c r="N31" s="18"/>
     </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B32" s="5" t="s">
         <v>17</v>
       </c>
@@ -9642,7 +9649,7 @@
       <c r="M32" s="18"/>
       <c r="N32" s="18"/>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B33" s="5" t="s">
         <v>17</v>
       </c>
@@ -9663,7 +9670,7 @@
       <c r="M33" s="18"/>
       <c r="N33" s="18"/>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B34" s="5" t="s">
         <v>17</v>
       </c>
@@ -9684,7 +9691,7 @@
       <c r="M34" s="18"/>
       <c r="N34" s="18"/>
     </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B35" s="5" t="s">
         <v>17</v>
       </c>
@@ -9705,7 +9712,7 @@
       <c r="M35" s="18"/>
       <c r="N35" s="18"/>
     </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B36" s="5" t="s">
         <v>17</v>
       </c>
@@ -9726,7 +9733,7 @@
       <c r="M36" s="18"/>
       <c r="N36" s="18"/>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B37" s="5" t="s">
         <v>17</v>
       </c>
@@ -9747,7 +9754,7 @@
       <c r="M37" s="18"/>
       <c r="N37" s="18"/>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B38" s="5" t="s">
         <v>3</v>
       </c>
@@ -9778,7 +9785,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B39" s="5" t="s">
         <v>6</v>
       </c>
@@ -9801,7 +9808,7 @@
       <c r="M39" s="18"/>
       <c r="N39" s="18"/>
     </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B40" s="5" t="s">
         <v>6</v>
       </c>
@@ -9824,7 +9831,7 @@
       <c r="M40" s="18"/>
       <c r="N40" s="18"/>
     </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B41" s="5" t="s">
         <v>17</v>
       </c>
@@ -9845,7 +9852,7 @@
       <c r="M41" s="18"/>
       <c r="N41" s="18"/>
     </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B42" s="5" t="s">
         <v>3</v>
       </c>
@@ -9876,7 +9883,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B43" s="5" t="s">
         <v>6</v>
       </c>
@@ -9901,7 +9908,7 @@
       <c r="M43" s="18"/>
       <c r="N43" s="18"/>
     </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B44" s="5" t="s">
         <v>17</v>
       </c>
@@ -9924,132 +9931,132 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="I5:N13 I15:N25 I38:N44">
-    <cfRule type="expression" dxfId="25" priority="27">
+    <cfRule type="expression" dxfId="41" priority="27">
       <formula>$B5&lt;&gt;"&lt;Definition&gt;"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E5:H13 F24:H24 E15:H23 E25:H25 E38:H44">
-    <cfRule type="expression" dxfId="24" priority="26">
+    <cfRule type="expression" dxfId="40" priority="26">
       <formula>$B5&lt;&gt;"&lt;Item&gt;"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5:D13 D15 D38:D44">
-    <cfRule type="expression" dxfId="23" priority="25">
+    <cfRule type="expression" dxfId="39" priority="25">
       <formula>$B5&lt;&gt;"&lt;Param&gt;"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16:D25">
-    <cfRule type="expression" dxfId="22" priority="22">
+    <cfRule type="expression" dxfId="38" priority="22">
       <formula>$B16&lt;&gt;"&lt;Param&gt;"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B24:D24 F24:L24 B5:N13 B15:L23 B25:L25 M15:N25 B38:N44">
-    <cfRule type="expression" dxfId="21" priority="21">
+    <cfRule type="expression" dxfId="37" priority="21">
       <formula>$B5="&lt;Definition&gt;"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E24">
-    <cfRule type="expression" dxfId="20" priority="20">
+    <cfRule type="expression" dxfId="36" priority="20">
       <formula>$B24&lt;&gt;"&lt;Item&gt;"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E24">
-    <cfRule type="expression" dxfId="19" priority="19">
+    <cfRule type="expression" dxfId="35" priority="19">
       <formula>$B24="&lt;Definition&gt;"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I14:N14">
-    <cfRule type="expression" dxfId="18" priority="18">
+    <cfRule type="expression" dxfId="34" priority="18">
       <formula>$B14&lt;&gt;"&lt;Definition&gt;"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E14:H14">
-    <cfRule type="expression" dxfId="17" priority="17">
+    <cfRule type="expression" dxfId="33" priority="17">
       <formula>$B14&lt;&gt;"&lt;Item&gt;"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D14">
-    <cfRule type="expression" dxfId="16" priority="16">
+    <cfRule type="expression" dxfId="32" priority="16">
       <formula>$B14&lt;&gt;"&lt;Param&gt;"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B14:N14">
-    <cfRule type="expression" dxfId="15" priority="15">
+    <cfRule type="expression" dxfId="31" priority="15">
       <formula>$B14="&lt;Definition&gt;"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I26:N34 I37:N37">
-    <cfRule type="expression" dxfId="14" priority="14">
+    <cfRule type="expression" dxfId="30" priority="14">
       <formula>$B26&lt;&gt;"&lt;Definition&gt;"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F34:H34 E26:H33 E37:H37">
-    <cfRule type="expression" dxfId="13" priority="13">
+    <cfRule type="expression" dxfId="29" priority="13">
       <formula>$B26&lt;&gt;"&lt;Item&gt;"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D26:D34 D37">
-    <cfRule type="expression" dxfId="12" priority="12">
+    <cfRule type="expression" dxfId="28" priority="12">
       <formula>$B26&lt;&gt;"&lt;Param&gt;"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B34:D34 F34:L34 B26:L33 M26:N34 B37:N37">
-    <cfRule type="expression" dxfId="11" priority="11">
+    <cfRule type="expression" dxfId="27" priority="11">
       <formula>$B26="&lt;Definition&gt;"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E34">
-    <cfRule type="expression" dxfId="10" priority="10">
+    <cfRule type="expression" dxfId="26" priority="10">
       <formula>$B34&lt;&gt;"&lt;Item&gt;"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E34">
-    <cfRule type="expression" dxfId="9" priority="9">
+    <cfRule type="expression" dxfId="25" priority="9">
       <formula>$B34="&lt;Definition&gt;"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I35:N35">
-    <cfRule type="expression" dxfId="8" priority="8">
+    <cfRule type="expression" dxfId="24" priority="8">
       <formula>$B35&lt;&gt;"&lt;Definition&gt;"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E35:H35">
-    <cfRule type="expression" dxfId="7" priority="7">
+    <cfRule type="expression" dxfId="23" priority="7">
       <formula>$B35&lt;&gt;"&lt;Item&gt;"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D35">
-    <cfRule type="expression" dxfId="6" priority="6">
+    <cfRule type="expression" dxfId="22" priority="6">
       <formula>$B35&lt;&gt;"&lt;Param&gt;"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B35:N35">
-    <cfRule type="expression" dxfId="5" priority="5">
+    <cfRule type="expression" dxfId="21" priority="5">
       <formula>$B35="&lt;Definition&gt;"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I36:N36">
-    <cfRule type="expression" dxfId="4" priority="4">
+    <cfRule type="expression" dxfId="20" priority="4">
       <formula>$B36&lt;&gt;"&lt;Definition&gt;"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E36:H36">
-    <cfRule type="expression" dxfId="3" priority="3">
+    <cfRule type="expression" dxfId="19" priority="3">
       <formula>$B36&lt;&gt;"&lt;Item&gt;"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D36">
-    <cfRule type="expression" dxfId="2" priority="2">
+    <cfRule type="expression" dxfId="18" priority="2">
       <formula>$B36&lt;&gt;"&lt;Param&gt;"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B36:N36">
-    <cfRule type="expression" dxfId="1" priority="1">
+    <cfRule type="expression" dxfId="17" priority="1">
       <formula>$B36="&lt;Definition&gt;"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5:B44" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5:B44">
       <formula1>"&lt;Definition&gt;,&lt;Item&gt;,&lt;Param&gt;"</formula1>
     </dataValidation>
   </dataValidations>
@@ -10061,13 +10068,13 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000001000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>ValidationData!$B$4:$B$9</xm:f>
           </x14:formula1>
           <xm:sqref>E5:E44</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" xr:uid="{00000000-0002-0000-0100-000002000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>ValidationData!$D$4:$D$31</xm:f>
           </x14:formula1>
@@ -10080,19 +10087,19 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:D31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="23" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B2" s="20" t="s">
         <v>48</v>
       </c>
@@ -10101,10 +10108,10 @@
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D3" s="20"/>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>21</v>
       </c>
@@ -10112,7 +10119,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>19</v>
       </c>
@@ -10120,7 +10127,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>65</v>
       </c>
@@ -10128,13 +10135,13 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>27</v>
       </c>
       <c r="D7" s="21"/>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>18</v>
       </c>
@@ -10142,7 +10149,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>66</v>
       </c>
@@ -10150,7 +10157,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>151</v>
       </c>
@@ -10158,107 +10165,107 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D11" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D12" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D13" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D14" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D15" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D16" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D17" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="18" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D18" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="19" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D19" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="20" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D20" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="21" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D21" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="22" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D22" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="23" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D23" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="24" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D24" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="25" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D25" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="26" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D26" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="27" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D27" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="28" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D28" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="29" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D29" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="30" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D30" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="31" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D31" t="s">
         <v>62</v>
       </c>

--- a/Docs/Content/HungryDragonContent_Offers.xlsx
+++ b/Docs/Content/HungryDragonContent_Offers.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1425" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1458" uniqueCount="207">
   <si>
     <t>OFFER PACKS DEFINITIONS</t>
   </si>
@@ -640,6 +640,15 @@
   </si>
   <si>
     <t>6:999</t>
+  </si>
+  <si>
+    <t>com.ubisoft.hungrydragon.promoted3</t>
+  </si>
+  <si>
+    <t>promoted3</t>
+  </si>
+  <si>
+    <t>1.10</t>
   </si>
 </sst>
 </file>
@@ -1232,551 +1241,23 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="93">
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FFDCE6F1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FFDCE6F1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FFDCE6F1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FFDCE6F1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FFDCE6F1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FFDCE6F1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="7" tint="0.39997558519241921"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="45" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
     <dxf>
       <font>
         <b/>
@@ -2054,6 +1535,534 @@
     </dxf>
     <dxf>
       <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FFDCE6F1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FFDCE6F1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FFDCE6F1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FFDCE6F1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FFDCE6F1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FFDCE6F1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="7" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="45" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -3920,8 +3929,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="offerPacksDefinitions" displayName="offerPacksDefinitions" ref="B2:AW32" totalsRowShown="0" headerRowDxfId="92" headerRowBorderDxfId="91" tableBorderDxfId="90">
-  <autoFilter ref="B2:AW32"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="offerPacksDefinitions" displayName="offerPacksDefinitions" ref="B2:AW33" totalsRowShown="0" headerRowDxfId="92" headerRowBorderDxfId="91" tableBorderDxfId="90">
+  <autoFilter ref="B2:AW33"/>
   <tableColumns count="48">
     <tableColumn id="1" name="{offerPacksDefinitions}" dataDxfId="89"/>
     <tableColumn id="2" name="[sku]" dataDxfId="88"/>
@@ -3977,22 +3986,22 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="offerPacksDefinitions_OLD" displayName="offerPacksDefinitions_OLD" ref="B4:N44" totalsRowShown="0" headerRowDxfId="16" dataDxfId="14" headerRowBorderDxfId="15" tableBorderDxfId="13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="offerPacksDefinitions_OLD" displayName="offerPacksDefinitions_OLD" ref="B4:N44" totalsRowShown="0" headerRowDxfId="41" dataDxfId="39" headerRowBorderDxfId="40" tableBorderDxfId="38">
   <autoFilter ref="B4:N44"/>
   <tableColumns count="13">
-    <tableColumn id="1" name="offerPacksDefinitions_OLD" dataDxfId="12"/>
-    <tableColumn id="2" name="[sku]" dataDxfId="11"/>
-    <tableColumn id="15" name="[paramValue]" dataDxfId="10"/>
-    <tableColumn id="7" name="[itemType]" dataDxfId="9"/>
-    <tableColumn id="8" name="[itemAmount]" dataDxfId="8"/>
-    <tableColumn id="9" name="[itemSku]" dataDxfId="7"/>
-    <tableColumn id="23" name="[itemFeatured]" dataDxfId="6"/>
-    <tableColumn id="22" name="[minAppVersion]" dataDxfId="5"/>
-    <tableColumn id="4" name="[order]" dataDxfId="4"/>
-    <tableColumn id="24" name="[refPrice]" dataDxfId="3"/>
-    <tableColumn id="6" name="[discount]" dataDxfId="2"/>
-    <tableColumn id="3" name="[iapSku]" dataDxfId="1"/>
-    <tableColumn id="5" name="[tidName]" dataDxfId="0"/>
+    <tableColumn id="1" name="offerPacksDefinitions_OLD" dataDxfId="37"/>
+    <tableColumn id="2" name="[sku]" dataDxfId="36"/>
+    <tableColumn id="15" name="[paramValue]" dataDxfId="35"/>
+    <tableColumn id="7" name="[itemType]" dataDxfId="34"/>
+    <tableColumn id="8" name="[itemAmount]" dataDxfId="33"/>
+    <tableColumn id="9" name="[itemSku]" dataDxfId="32"/>
+    <tableColumn id="23" name="[itemFeatured]" dataDxfId="31"/>
+    <tableColumn id="22" name="[minAppVersion]" dataDxfId="30"/>
+    <tableColumn id="4" name="[order]" dataDxfId="29"/>
+    <tableColumn id="24" name="[refPrice]" dataDxfId="28"/>
+    <tableColumn id="6" name="[discount]" dataDxfId="27"/>
+    <tableColumn id="3" name="[iapSku]" dataDxfId="26"/>
+    <tableColumn id="5" name="[tidName]" dataDxfId="25"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4295,10 +4304,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:AW32"/>
+  <dimension ref="B1:AW33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q3" sqref="Q3"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4342,34 +4351,34 @@
       <c r="S1" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="Z1" s="65" t="s">
+      <c r="Z1" s="67" t="s">
         <v>101</v>
       </c>
-      <c r="AA1" s="65"/>
+      <c r="AA1" s="67"/>
       <c r="AB1" s="49"/>
-      <c r="AC1" s="66" t="s">
+      <c r="AC1" s="68" t="s">
         <v>100</v>
       </c>
-      <c r="AD1" s="66"/>
-      <c r="AE1" s="66"/>
-      <c r="AF1" s="66"/>
-      <c r="AG1" s="66"/>
-      <c r="AH1" s="66"/>
-      <c r="AI1" s="66"/>
-      <c r="AJ1" s="66"/>
-      <c r="AK1" s="66"/>
-      <c r="AL1" s="66"/>
-      <c r="AM1" s="66"/>
-      <c r="AN1" s="66"/>
-      <c r="AO1" s="66"/>
-      <c r="AP1" s="66"/>
-      <c r="AQ1" s="66"/>
-      <c r="AR1" s="66"/>
-      <c r="AS1" s="66"/>
-      <c r="AT1" s="66"/>
-      <c r="AU1" s="66"/>
-      <c r="AV1" s="66"/>
-      <c r="AW1" s="66"/>
+      <c r="AD1" s="68"/>
+      <c r="AE1" s="68"/>
+      <c r="AF1" s="68"/>
+      <c r="AG1" s="68"/>
+      <c r="AH1" s="68"/>
+      <c r="AI1" s="68"/>
+      <c r="AJ1" s="68"/>
+      <c r="AK1" s="68"/>
+      <c r="AL1" s="68"/>
+      <c r="AM1" s="68"/>
+      <c r="AN1" s="68"/>
+      <c r="AO1" s="68"/>
+      <c r="AP1" s="68"/>
+      <c r="AQ1" s="68"/>
+      <c r="AR1" s="68"/>
+      <c r="AS1" s="68"/>
+      <c r="AT1" s="68"/>
+      <c r="AU1" s="68"/>
+      <c r="AV1" s="68"/>
+      <c r="AW1" s="68"/>
     </row>
     <row r="2" spans="2:49" ht="135" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
@@ -4569,7 +4578,7 @@
       <c r="R3" s="29" t="s">
         <v>125</v>
       </c>
-      <c r="S3" s="67" t="s">
+      <c r="S3" s="65" t="s">
         <v>178</v>
       </c>
       <c r="T3" s="26" t="s">
@@ -4648,7 +4657,7 @@
       <c r="AS3" s="37" t="s">
         <v>151</v>
       </c>
-      <c r="AT3" s="68" t="s">
+      <c r="AT3" s="66" t="s">
         <v>203</v>
       </c>
       <c r="AU3" s="37" t="s">
@@ -8886,6 +8895,144 @@
         <v>151</v>
       </c>
       <c r="AW32" s="37" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="33" spans="2:49" x14ac:dyDescent="0.25">
+      <c r="B33" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33" s="38" t="s">
+        <v>205</v>
+      </c>
+      <c r="D33" s="51" t="s">
+        <v>205</v>
+      </c>
+      <c r="E33" s="40" t="b">
+        <v>0</v>
+      </c>
+      <c r="F33" s="48">
+        <v>1</v>
+      </c>
+      <c r="G33" s="43" t="b">
+        <v>0</v>
+      </c>
+      <c r="H33" s="43" t="s">
+        <v>19</v>
+      </c>
+      <c r="I33" s="43">
+        <v>100</v>
+      </c>
+      <c r="J33" s="43" t="s">
+        <v>151</v>
+      </c>
+      <c r="K33" s="47" t="s">
+        <v>21</v>
+      </c>
+      <c r="L33" s="47">
+        <v>20000</v>
+      </c>
+      <c r="M33" s="47"/>
+      <c r="N33" s="42"/>
+      <c r="O33" s="42"/>
+      <c r="P33" s="42"/>
+      <c r="Q33" s="32">
+        <v>1</v>
+      </c>
+      <c r="R33" s="29">
+        <v>4.99</v>
+      </c>
+      <c r="S33" s="65" t="s">
+        <v>175</v>
+      </c>
+      <c r="T33" s="26" t="s">
+        <v>204</v>
+      </c>
+      <c r="U33" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="V33" s="36" t="b">
+        <v>1</v>
+      </c>
+      <c r="W33" s="36">
+        <v>0</v>
+      </c>
+      <c r="X33" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y33" s="36">
+        <v>10</v>
+      </c>
+      <c r="Z33" s="39" t="s">
+        <v>151</v>
+      </c>
+      <c r="AA33" s="39" t="s">
+        <v>151</v>
+      </c>
+      <c r="AB33" s="39" t="s">
+        <v>151</v>
+      </c>
+      <c r="AC33" s="37" t="s">
+        <v>206</v>
+      </c>
+      <c r="AD33" s="37" t="s">
+        <v>151</v>
+      </c>
+      <c r="AE33" s="37" t="s">
+        <v>151</v>
+      </c>
+      <c r="AF33" s="37">
+        <v>4</v>
+      </c>
+      <c r="AG33" s="37" t="s">
+        <v>151</v>
+      </c>
+      <c r="AH33" s="37" t="s">
+        <v>151</v>
+      </c>
+      <c r="AI33" s="37" t="s">
+        <v>151</v>
+      </c>
+      <c r="AJ33" s="37" t="s">
+        <v>151</v>
+      </c>
+      <c r="AK33" s="37" t="s">
+        <v>151</v>
+      </c>
+      <c r="AL33" s="37" t="s">
+        <v>151</v>
+      </c>
+      <c r="AM33" s="37" t="s">
+        <v>151</v>
+      </c>
+      <c r="AN33" s="37" t="s">
+        <v>151</v>
+      </c>
+      <c r="AO33" s="37" t="s">
+        <v>151</v>
+      </c>
+      <c r="AP33" s="37" t="s">
+        <v>151</v>
+      </c>
+      <c r="AQ33" s="37" t="s">
+        <v>151</v>
+      </c>
+      <c r="AR33" s="37" t="s">
+        <v>151</v>
+      </c>
+      <c r="AS33" s="37" t="s">
+        <v>151</v>
+      </c>
+      <c r="AT33" s="37" t="s">
+        <v>151</v>
+      </c>
+      <c r="AU33" s="37" t="s">
+        <v>151</v>
+      </c>
+      <c r="AV33" s="37" t="s">
+        <v>151</v>
+      </c>
+      <c r="AW33" s="37" t="s">
         <v>151</v>
       </c>
     </row>
@@ -9931,127 +10078,127 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="I5:N13 I15:N25 I38:N44">
-    <cfRule type="expression" dxfId="41" priority="27">
+    <cfRule type="expression" dxfId="24" priority="27">
       <formula>$B5&lt;&gt;"&lt;Definition&gt;"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E5:H13 F24:H24 E15:H23 E25:H25 E38:H44">
-    <cfRule type="expression" dxfId="40" priority="26">
+    <cfRule type="expression" dxfId="23" priority="26">
       <formula>$B5&lt;&gt;"&lt;Item&gt;"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5:D13 D15 D38:D44">
-    <cfRule type="expression" dxfId="39" priority="25">
+    <cfRule type="expression" dxfId="22" priority="25">
       <formula>$B5&lt;&gt;"&lt;Param&gt;"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16:D25">
-    <cfRule type="expression" dxfId="38" priority="22">
+    <cfRule type="expression" dxfId="21" priority="22">
       <formula>$B16&lt;&gt;"&lt;Param&gt;"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B24:D24 F24:L24 B5:N13 B15:L23 B25:L25 M15:N25 B38:N44">
-    <cfRule type="expression" dxfId="37" priority="21">
+    <cfRule type="expression" dxfId="20" priority="21">
       <formula>$B5="&lt;Definition&gt;"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E24">
-    <cfRule type="expression" dxfId="36" priority="20">
+    <cfRule type="expression" dxfId="19" priority="20">
       <formula>$B24&lt;&gt;"&lt;Item&gt;"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E24">
-    <cfRule type="expression" dxfId="35" priority="19">
+    <cfRule type="expression" dxfId="18" priority="19">
       <formula>$B24="&lt;Definition&gt;"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I14:N14">
-    <cfRule type="expression" dxfId="34" priority="18">
+    <cfRule type="expression" dxfId="17" priority="18">
       <formula>$B14&lt;&gt;"&lt;Definition&gt;"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E14:H14">
-    <cfRule type="expression" dxfId="33" priority="17">
+    <cfRule type="expression" dxfId="16" priority="17">
       <formula>$B14&lt;&gt;"&lt;Item&gt;"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D14">
-    <cfRule type="expression" dxfId="32" priority="16">
+    <cfRule type="expression" dxfId="15" priority="16">
       <formula>$B14&lt;&gt;"&lt;Param&gt;"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B14:N14">
-    <cfRule type="expression" dxfId="31" priority="15">
+    <cfRule type="expression" dxfId="14" priority="15">
       <formula>$B14="&lt;Definition&gt;"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I26:N34 I37:N37">
-    <cfRule type="expression" dxfId="30" priority="14">
+    <cfRule type="expression" dxfId="13" priority="14">
       <formula>$B26&lt;&gt;"&lt;Definition&gt;"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F34:H34 E26:H33 E37:H37">
-    <cfRule type="expression" dxfId="29" priority="13">
+    <cfRule type="expression" dxfId="12" priority="13">
       <formula>$B26&lt;&gt;"&lt;Item&gt;"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D26:D34 D37">
-    <cfRule type="expression" dxfId="28" priority="12">
+    <cfRule type="expression" dxfId="11" priority="12">
       <formula>$B26&lt;&gt;"&lt;Param&gt;"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B34:D34 F34:L34 B26:L33 M26:N34 B37:N37">
-    <cfRule type="expression" dxfId="27" priority="11">
+    <cfRule type="expression" dxfId="10" priority="11">
       <formula>$B26="&lt;Definition&gt;"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E34">
-    <cfRule type="expression" dxfId="26" priority="10">
+    <cfRule type="expression" dxfId="9" priority="10">
       <formula>$B34&lt;&gt;"&lt;Item&gt;"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E34">
-    <cfRule type="expression" dxfId="25" priority="9">
+    <cfRule type="expression" dxfId="8" priority="9">
       <formula>$B34="&lt;Definition&gt;"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I35:N35">
-    <cfRule type="expression" dxfId="24" priority="8">
+    <cfRule type="expression" dxfId="7" priority="8">
       <formula>$B35&lt;&gt;"&lt;Definition&gt;"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E35:H35">
-    <cfRule type="expression" dxfId="23" priority="7">
+    <cfRule type="expression" dxfId="6" priority="7">
       <formula>$B35&lt;&gt;"&lt;Item&gt;"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D35">
-    <cfRule type="expression" dxfId="22" priority="6">
+    <cfRule type="expression" dxfId="5" priority="6">
       <formula>$B35&lt;&gt;"&lt;Param&gt;"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B35:N35">
-    <cfRule type="expression" dxfId="21" priority="5">
+    <cfRule type="expression" dxfId="4" priority="5">
       <formula>$B35="&lt;Definition&gt;"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I36:N36">
-    <cfRule type="expression" dxfId="20" priority="4">
+    <cfRule type="expression" dxfId="3" priority="4">
       <formula>$B36&lt;&gt;"&lt;Definition&gt;"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E36:H36">
-    <cfRule type="expression" dxfId="19" priority="3">
+    <cfRule type="expression" dxfId="2" priority="3">
       <formula>$B36&lt;&gt;"&lt;Item&gt;"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D36">
-    <cfRule type="expression" dxfId="18" priority="2">
+    <cfRule type="expression" dxfId="1" priority="2">
       <formula>$B36&lt;&gt;"&lt;Param&gt;"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B36:N36">
-    <cfRule type="expression" dxfId="17" priority="1">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>$B36="&lt;Definition&gt;"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Docs/Content/HungryDragonContent_Offers.xlsx
+++ b/Docs/Content/HungryDragonContent_Offers.xlsx
@@ -16,7 +16,7 @@
     <sheet name="OLD" sheetId="1" r:id="rId2"/>
     <sheet name="ValidationData" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913" calcMode="manual" calcCompleted="0" calcOnSave="0"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1458" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1488" uniqueCount="210">
   <si>
     <t>OFFER PACKS DEFINITIONS</t>
   </si>
@@ -649,15 +649,31 @@
   </si>
   <si>
     <t>1.10</t>
+  </si>
+  <si>
+    <t>promoted1</t>
+  </si>
+  <si>
+    <t>com.ubisoft.hungrydragon.promoted1</t>
+  </si>
+  <si>
+    <t>1.12</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -890,7 +906,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -1051,213 +1067,820 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="45"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="45"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="45"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="45" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="45"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="6" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="7" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="45"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="45" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="7" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="8" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="7" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="8" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="45"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="45"/>
     </xf>
-    <xf numFmtId="2" fontId="7" fillId="9" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="8" fillId="9" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="45"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="45"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="45"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="45"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="23" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="23" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="23" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="23" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="93">
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FFDCE6F1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FFDCE6F1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FFDCE6F1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FFDCE6F1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FFDCE6F1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FFDCE6F1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="7" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="45" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -1535,534 +2158,6 @@
     </dxf>
     <dxf>
       <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FFDCE6F1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FFDCE6F1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FFDCE6F1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FFDCE6F1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FFDCE6F1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FFDCE6F1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="7" tint="0.39997558519241921"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="45" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -3929,8 +4024,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="offerPacksDefinitions" displayName="offerPacksDefinitions" ref="B2:AW33" totalsRowShown="0" headerRowDxfId="92" headerRowBorderDxfId="91" tableBorderDxfId="90">
-  <autoFilter ref="B2:AW33"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="offerPacksDefinitions" displayName="offerPacksDefinitions" ref="B2:AW34" totalsRowShown="0" headerRowDxfId="92" headerRowBorderDxfId="91" tableBorderDxfId="90">
+  <autoFilter ref="B2:AW34"/>
   <tableColumns count="48">
     <tableColumn id="1" name="{offerPacksDefinitions}" dataDxfId="89"/>
     <tableColumn id="2" name="[sku]" dataDxfId="88"/>
@@ -3986,22 +4081,22 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="offerPacksDefinitions_OLD" displayName="offerPacksDefinitions_OLD" ref="B4:N44" totalsRowShown="0" headerRowDxfId="41" dataDxfId="39" headerRowBorderDxfId="40" tableBorderDxfId="38">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="offerPacksDefinitions_OLD" displayName="offerPacksDefinitions_OLD" ref="B4:N44" totalsRowShown="0" headerRowDxfId="16" dataDxfId="14" headerRowBorderDxfId="15" tableBorderDxfId="13">
   <autoFilter ref="B4:N44"/>
   <tableColumns count="13">
-    <tableColumn id="1" name="offerPacksDefinitions_OLD" dataDxfId="37"/>
-    <tableColumn id="2" name="[sku]" dataDxfId="36"/>
-    <tableColumn id="15" name="[paramValue]" dataDxfId="35"/>
-    <tableColumn id="7" name="[itemType]" dataDxfId="34"/>
-    <tableColumn id="8" name="[itemAmount]" dataDxfId="33"/>
-    <tableColumn id="9" name="[itemSku]" dataDxfId="32"/>
-    <tableColumn id="23" name="[itemFeatured]" dataDxfId="31"/>
-    <tableColumn id="22" name="[minAppVersion]" dataDxfId="30"/>
-    <tableColumn id="4" name="[order]" dataDxfId="29"/>
-    <tableColumn id="24" name="[refPrice]" dataDxfId="28"/>
-    <tableColumn id="6" name="[discount]" dataDxfId="27"/>
-    <tableColumn id="3" name="[iapSku]" dataDxfId="26"/>
-    <tableColumn id="5" name="[tidName]" dataDxfId="25"/>
+    <tableColumn id="1" name="offerPacksDefinitions_OLD" dataDxfId="12"/>
+    <tableColumn id="2" name="[sku]" dataDxfId="11"/>
+    <tableColumn id="15" name="[paramValue]" dataDxfId="10"/>
+    <tableColumn id="7" name="[itemType]" dataDxfId="9"/>
+    <tableColumn id="8" name="[itemAmount]" dataDxfId="8"/>
+    <tableColumn id="9" name="[itemSku]" dataDxfId="7"/>
+    <tableColumn id="23" name="[itemFeatured]" dataDxfId="6"/>
+    <tableColumn id="22" name="[minAppVersion]" dataDxfId="5"/>
+    <tableColumn id="4" name="[order]" dataDxfId="4"/>
+    <tableColumn id="24" name="[refPrice]" dataDxfId="3"/>
+    <tableColumn id="6" name="[discount]" dataDxfId="2"/>
+    <tableColumn id="3" name="[iapSku]" dataDxfId="1"/>
+    <tableColumn id="5" name="[tidName]" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4304,10 +4399,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:AW33"/>
+  <dimension ref="B1:AW34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E38" sqref="E38"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -9033,6 +9128,134 @@
         <v>151</v>
       </c>
       <c r="AW33" s="37" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="34" spans="2:49" x14ac:dyDescent="0.25">
+      <c r="B34" s="69" t="s">
+        <v>3</v>
+      </c>
+      <c r="C34" s="70" t="s">
+        <v>207</v>
+      </c>
+      <c r="D34" s="71" t="s">
+        <v>207</v>
+      </c>
+      <c r="E34" s="72" t="b">
+        <v>1</v>
+      </c>
+      <c r="F34" s="48">
+        <v>1</v>
+      </c>
+      <c r="G34" s="43" t="b">
+        <v>0</v>
+      </c>
+      <c r="H34" s="73"/>
+      <c r="I34" s="73"/>
+      <c r="J34" s="73"/>
+      <c r="K34" s="74"/>
+      <c r="L34" s="74"/>
+      <c r="M34" s="74"/>
+      <c r="N34" s="75"/>
+      <c r="O34" s="75"/>
+      <c r="P34" s="76"/>
+      <c r="Q34" s="77">
+        <v>1</v>
+      </c>
+      <c r="R34" s="29">
+        <v>1.99</v>
+      </c>
+      <c r="S34" s="30" t="s">
+        <v>175</v>
+      </c>
+      <c r="T34" s="26" t="s">
+        <v>208</v>
+      </c>
+      <c r="U34" s="78" t="s">
+        <v>45</v>
+      </c>
+      <c r="V34" s="79" t="b">
+        <v>1</v>
+      </c>
+      <c r="W34" s="79">
+        <v>0</v>
+      </c>
+      <c r="X34" s="79" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y34" s="80">
+        <v>10</v>
+      </c>
+      <c r="Z34" s="81" t="s">
+        <v>151</v>
+      </c>
+      <c r="AA34" s="82" t="s">
+        <v>151</v>
+      </c>
+      <c r="AB34" s="39" t="s">
+        <v>151</v>
+      </c>
+      <c r="AC34" s="83" t="s">
+        <v>209</v>
+      </c>
+      <c r="AD34" s="37" t="s">
+        <v>151</v>
+      </c>
+      <c r="AE34" s="37" t="s">
+        <v>151</v>
+      </c>
+      <c r="AF34" s="37">
+        <v>4</v>
+      </c>
+      <c r="AG34" s="84" t="s">
+        <v>151</v>
+      </c>
+      <c r="AH34" s="84" t="s">
+        <v>151</v>
+      </c>
+      <c r="AI34" s="37" t="s">
+        <v>151</v>
+      </c>
+      <c r="AJ34" s="37" t="s">
+        <v>151</v>
+      </c>
+      <c r="AK34" s="37" t="s">
+        <v>151</v>
+      </c>
+      <c r="AL34" s="37" t="s">
+        <v>151</v>
+      </c>
+      <c r="AM34" s="37" t="s">
+        <v>151</v>
+      </c>
+      <c r="AN34" s="37" t="s">
+        <v>151</v>
+      </c>
+      <c r="AO34" s="84" t="s">
+        <v>151</v>
+      </c>
+      <c r="AP34" s="84" t="s">
+        <v>151</v>
+      </c>
+      <c r="AQ34" s="37" t="s">
+        <v>151</v>
+      </c>
+      <c r="AR34" s="37" t="s">
+        <v>151</v>
+      </c>
+      <c r="AS34" s="37" t="s">
+        <v>151</v>
+      </c>
+      <c r="AT34" s="37" t="s">
+        <v>151</v>
+      </c>
+      <c r="AU34" s="84" t="s">
+        <v>151</v>
+      </c>
+      <c r="AV34" s="84" t="s">
+        <v>151</v>
+      </c>
+      <c r="AW34" s="85" t="s">
         <v>151</v>
       </c>
     </row>
@@ -10078,127 +10301,127 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="I5:N13 I15:N25 I38:N44">
-    <cfRule type="expression" dxfId="24" priority="27">
+    <cfRule type="expression" dxfId="41" priority="27">
       <formula>$B5&lt;&gt;"&lt;Definition&gt;"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E5:H13 F24:H24 E15:H23 E25:H25 E38:H44">
-    <cfRule type="expression" dxfId="23" priority="26">
+    <cfRule type="expression" dxfId="40" priority="26">
       <formula>$B5&lt;&gt;"&lt;Item&gt;"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5:D13 D15 D38:D44">
-    <cfRule type="expression" dxfId="22" priority="25">
+    <cfRule type="expression" dxfId="39" priority="25">
       <formula>$B5&lt;&gt;"&lt;Param&gt;"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16:D25">
-    <cfRule type="expression" dxfId="21" priority="22">
+    <cfRule type="expression" dxfId="38" priority="22">
       <formula>$B16&lt;&gt;"&lt;Param&gt;"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B24:D24 F24:L24 B5:N13 B15:L23 B25:L25 M15:N25 B38:N44">
-    <cfRule type="expression" dxfId="20" priority="21">
+    <cfRule type="expression" dxfId="37" priority="21">
       <formula>$B5="&lt;Definition&gt;"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E24">
-    <cfRule type="expression" dxfId="19" priority="20">
+    <cfRule type="expression" dxfId="36" priority="20">
       <formula>$B24&lt;&gt;"&lt;Item&gt;"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E24">
-    <cfRule type="expression" dxfId="18" priority="19">
+    <cfRule type="expression" dxfId="35" priority="19">
       <formula>$B24="&lt;Definition&gt;"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I14:N14">
-    <cfRule type="expression" dxfId="17" priority="18">
+    <cfRule type="expression" dxfId="34" priority="18">
       <formula>$B14&lt;&gt;"&lt;Definition&gt;"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E14:H14">
-    <cfRule type="expression" dxfId="16" priority="17">
+    <cfRule type="expression" dxfId="33" priority="17">
       <formula>$B14&lt;&gt;"&lt;Item&gt;"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D14">
-    <cfRule type="expression" dxfId="15" priority="16">
+    <cfRule type="expression" dxfId="32" priority="16">
       <formula>$B14&lt;&gt;"&lt;Param&gt;"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B14:N14">
-    <cfRule type="expression" dxfId="14" priority="15">
+    <cfRule type="expression" dxfId="31" priority="15">
       <formula>$B14="&lt;Definition&gt;"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I26:N34 I37:N37">
-    <cfRule type="expression" dxfId="13" priority="14">
+    <cfRule type="expression" dxfId="30" priority="14">
       <formula>$B26&lt;&gt;"&lt;Definition&gt;"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F34:H34 E26:H33 E37:H37">
-    <cfRule type="expression" dxfId="12" priority="13">
+    <cfRule type="expression" dxfId="29" priority="13">
       <formula>$B26&lt;&gt;"&lt;Item&gt;"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D26:D34 D37">
-    <cfRule type="expression" dxfId="11" priority="12">
+    <cfRule type="expression" dxfId="28" priority="12">
       <formula>$B26&lt;&gt;"&lt;Param&gt;"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B34:D34 F34:L34 B26:L33 M26:N34 B37:N37">
-    <cfRule type="expression" dxfId="10" priority="11">
+    <cfRule type="expression" dxfId="27" priority="11">
       <formula>$B26="&lt;Definition&gt;"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E34">
-    <cfRule type="expression" dxfId="9" priority="10">
+    <cfRule type="expression" dxfId="26" priority="10">
       <formula>$B34&lt;&gt;"&lt;Item&gt;"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E34">
-    <cfRule type="expression" dxfId="8" priority="9">
+    <cfRule type="expression" dxfId="25" priority="9">
       <formula>$B34="&lt;Definition&gt;"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I35:N35">
-    <cfRule type="expression" dxfId="7" priority="8">
+    <cfRule type="expression" dxfId="24" priority="8">
       <formula>$B35&lt;&gt;"&lt;Definition&gt;"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E35:H35">
-    <cfRule type="expression" dxfId="6" priority="7">
+    <cfRule type="expression" dxfId="23" priority="7">
       <formula>$B35&lt;&gt;"&lt;Item&gt;"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D35">
-    <cfRule type="expression" dxfId="5" priority="6">
+    <cfRule type="expression" dxfId="22" priority="6">
       <formula>$B35&lt;&gt;"&lt;Param&gt;"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B35:N35">
-    <cfRule type="expression" dxfId="4" priority="5">
+    <cfRule type="expression" dxfId="21" priority="5">
       <formula>$B35="&lt;Definition&gt;"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I36:N36">
-    <cfRule type="expression" dxfId="3" priority="4">
+    <cfRule type="expression" dxfId="20" priority="4">
       <formula>$B36&lt;&gt;"&lt;Definition&gt;"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E36:H36">
-    <cfRule type="expression" dxfId="2" priority="3">
+    <cfRule type="expression" dxfId="19" priority="3">
       <formula>$B36&lt;&gt;"&lt;Item&gt;"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D36">
-    <cfRule type="expression" dxfId="1" priority="2">
+    <cfRule type="expression" dxfId="18" priority="2">
       <formula>$B36&lt;&gt;"&lt;Param&gt;"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B36:N36">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="17" priority="1">
       <formula>$B36="&lt;Definition&gt;"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Docs/Content/HungryDragonContent_Offers.xlsx
+++ b/Docs/Content/HungryDragonContent_Offers.xlsx
@@ -1291,12 +1291,6 @@
     <xf numFmtId="49" fontId="7" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1347,6 +1341,12 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4401,8 +4401,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AW34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="H35" sqref="H35"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4446,34 +4446,34 @@
       <c r="S1" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="Z1" s="67" t="s">
+      <c r="Z1" s="84" t="s">
         <v>101</v>
       </c>
-      <c r="AA1" s="67"/>
+      <c r="AA1" s="84"/>
       <c r="AB1" s="49"/>
-      <c r="AC1" s="68" t="s">
+      <c r="AC1" s="85" t="s">
         <v>100</v>
       </c>
-      <c r="AD1" s="68"/>
-      <c r="AE1" s="68"/>
-      <c r="AF1" s="68"/>
-      <c r="AG1" s="68"/>
-      <c r="AH1" s="68"/>
-      <c r="AI1" s="68"/>
-      <c r="AJ1" s="68"/>
-      <c r="AK1" s="68"/>
-      <c r="AL1" s="68"/>
-      <c r="AM1" s="68"/>
-      <c r="AN1" s="68"/>
-      <c r="AO1" s="68"/>
-      <c r="AP1" s="68"/>
-      <c r="AQ1" s="68"/>
-      <c r="AR1" s="68"/>
-      <c r="AS1" s="68"/>
-      <c r="AT1" s="68"/>
-      <c r="AU1" s="68"/>
-      <c r="AV1" s="68"/>
-      <c r="AW1" s="68"/>
+      <c r="AD1" s="85"/>
+      <c r="AE1" s="85"/>
+      <c r="AF1" s="85"/>
+      <c r="AG1" s="85"/>
+      <c r="AH1" s="85"/>
+      <c r="AI1" s="85"/>
+      <c r="AJ1" s="85"/>
+      <c r="AK1" s="85"/>
+      <c r="AL1" s="85"/>
+      <c r="AM1" s="85"/>
+      <c r="AN1" s="85"/>
+      <c r="AO1" s="85"/>
+      <c r="AP1" s="85"/>
+      <c r="AQ1" s="85"/>
+      <c r="AR1" s="85"/>
+      <c r="AS1" s="85"/>
+      <c r="AT1" s="85"/>
+      <c r="AU1" s="85"/>
+      <c r="AV1" s="85"/>
+      <c r="AW1" s="85"/>
     </row>
     <row r="2" spans="2:49" ht="135" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
@@ -9132,17 +9132,17 @@
       </c>
     </row>
     <row r="34" spans="2:49" x14ac:dyDescent="0.25">
-      <c r="B34" s="69" t="s">
+      <c r="B34" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="C34" s="70" t="s">
+      <c r="C34" s="68" t="s">
         <v>207</v>
       </c>
-      <c r="D34" s="71" t="s">
+      <c r="D34" s="69" t="s">
         <v>207</v>
       </c>
-      <c r="E34" s="72" t="b">
-        <v>1</v>
+      <c r="E34" s="70" t="b">
+        <v>0</v>
       </c>
       <c r="F34" s="48">
         <v>1</v>
@@ -9150,16 +9150,16 @@
       <c r="G34" s="43" t="b">
         <v>0</v>
       </c>
-      <c r="H34" s="73"/>
-      <c r="I34" s="73"/>
-      <c r="J34" s="73"/>
-      <c r="K34" s="74"/>
-      <c r="L34" s="74"/>
-      <c r="M34" s="74"/>
-      <c r="N34" s="75"/>
-      <c r="O34" s="75"/>
-      <c r="P34" s="76"/>
-      <c r="Q34" s="77">
+      <c r="H34" s="71"/>
+      <c r="I34" s="71"/>
+      <c r="J34" s="71"/>
+      <c r="K34" s="72"/>
+      <c r="L34" s="72"/>
+      <c r="M34" s="72"/>
+      <c r="N34" s="73"/>
+      <c r="O34" s="73"/>
+      <c r="P34" s="74"/>
+      <c r="Q34" s="75">
         <v>1</v>
       </c>
       <c r="R34" s="29">
@@ -9171,31 +9171,31 @@
       <c r="T34" s="26" t="s">
         <v>208</v>
       </c>
-      <c r="U34" s="78" t="s">
+      <c r="U34" s="76" t="s">
         <v>45</v>
       </c>
-      <c r="V34" s="79" t="b">
+      <c r="V34" s="77" t="b">
         <v>1</v>
       </c>
-      <c r="W34" s="79">
+      <c r="W34" s="77">
         <v>0</v>
       </c>
-      <c r="X34" s="79" t="s">
+      <c r="X34" s="77" t="s">
         <v>26</v>
       </c>
-      <c r="Y34" s="80">
+      <c r="Y34" s="78">
         <v>10</v>
       </c>
-      <c r="Z34" s="81" t="s">
-        <v>151</v>
-      </c>
-      <c r="AA34" s="82" t="s">
+      <c r="Z34" s="79" t="s">
+        <v>151</v>
+      </c>
+      <c r="AA34" s="80" t="s">
         <v>151</v>
       </c>
       <c r="AB34" s="39" t="s">
         <v>151</v>
       </c>
-      <c r="AC34" s="83" t="s">
+      <c r="AC34" s="81" t="s">
         <v>209</v>
       </c>
       <c r="AD34" s="37" t="s">
@@ -9207,10 +9207,10 @@
       <c r="AF34" s="37">
         <v>4</v>
       </c>
-      <c r="AG34" s="84" t="s">
-        <v>151</v>
-      </c>
-      <c r="AH34" s="84" t="s">
+      <c r="AG34" s="82" t="s">
+        <v>151</v>
+      </c>
+      <c r="AH34" s="82" t="s">
         <v>151</v>
       </c>
       <c r="AI34" s="37" t="s">
@@ -9231,10 +9231,10 @@
       <c r="AN34" s="37" t="s">
         <v>151</v>
       </c>
-      <c r="AO34" s="84" t="s">
-        <v>151</v>
-      </c>
-      <c r="AP34" s="84" t="s">
+      <c r="AO34" s="82" t="s">
+        <v>151</v>
+      </c>
+      <c r="AP34" s="82" t="s">
         <v>151</v>
       </c>
       <c r="AQ34" s="37" t="s">
@@ -9249,13 +9249,13 @@
       <c r="AT34" s="37" t="s">
         <v>151</v>
       </c>
-      <c r="AU34" s="84" t="s">
-        <v>151</v>
-      </c>
-      <c r="AV34" s="84" t="s">
-        <v>151</v>
-      </c>
-      <c r="AW34" s="85" t="s">
+      <c r="AU34" s="82" t="s">
+        <v>151</v>
+      </c>
+      <c r="AV34" s="82" t="s">
+        <v>151</v>
+      </c>
+      <c r="AW34" s="83" t="s">
         <v>151</v>
       </c>
     </row>

--- a/Docs/Content/HungryDragonContent_Offers.xlsx
+++ b/Docs/Content/HungryDragonContent_Offers.xlsx
@@ -4401,8 +4401,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AW34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4659,10 +4659,10 @@
         <v>151</v>
       </c>
       <c r="N3" s="42" t="s">
-        <v>21</v>
-      </c>
-      <c r="O3" s="42">
-        <v>30000</v>
+        <v>151</v>
+      </c>
+      <c r="O3" s="42" t="s">
+        <v>151</v>
       </c>
       <c r="P3" s="42" t="s">
         <v>151</v>
@@ -4673,8 +4673,8 @@
       <c r="R3" s="29" t="s">
         <v>125</v>
       </c>
-      <c r="S3" s="65" t="s">
-        <v>178</v>
+      <c r="S3" s="65">
+        <v>0.85</v>
       </c>
       <c r="T3" s="26" t="s">
         <v>104</v>

--- a/Docs/Content/HungryDragonContent_Offers.xlsx
+++ b/Docs/Content/HungryDragonContent_Offers.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1488" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1480" uniqueCount="210">
   <si>
     <t>OFFER PACKS DEFINITIONS</t>
   </si>
@@ -4402,7 +4402,7 @@
   <dimension ref="B1:AW34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O6" sqref="O6"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4632,7 +4632,7 @@
         <v>151</v>
       </c>
       <c r="E3" s="40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3" s="48">
         <v>1</v>
@@ -5068,28 +5068,28 @@
         <v>151</v>
       </c>
       <c r="E6" s="40" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6" s="48">
         <v>1</v>
       </c>
       <c r="G6" s="43" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6" s="43" t="s">
-        <v>151</v>
-      </c>
-      <c r="I6" s="43" t="s">
-        <v>151</v>
+        <v>27</v>
+      </c>
+      <c r="I6" s="43">
+        <v>3</v>
       </c>
       <c r="J6" s="43" t="s">
-        <v>151</v>
+        <v>189</v>
       </c>
       <c r="K6" s="47" t="s">
-        <v>151</v>
-      </c>
-      <c r="L6" s="47" t="s">
-        <v>151</v>
+        <v>19</v>
+      </c>
+      <c r="L6" s="47">
+        <v>80</v>
       </c>
       <c r="M6" s="47" t="s">
         <v>151</v>
@@ -5116,31 +5116,29 @@
         <v>108</v>
       </c>
       <c r="U6" s="22" t="s">
-        <v>44</v>
-      </c>
-      <c r="V6" s="36" t="s">
-        <v>151</v>
-      </c>
-      <c r="W6" s="36" t="s">
-        <v>151</v>
+        <v>202</v>
+      </c>
+      <c r="V6" s="36" t="b">
+        <v>1</v>
+      </c>
+      <c r="W6" s="36">
+        <v>0</v>
       </c>
       <c r="X6" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="Y6" s="36" t="s">
-        <v>151</v>
-      </c>
-      <c r="Z6" s="39" t="s">
-        <v>151</v>
-      </c>
+      <c r="Y6" s="36">
+        <v>20</v>
+      </c>
+      <c r="Z6" s="39"/>
       <c r="AA6" s="39" t="s">
         <v>151</v>
       </c>
-      <c r="AB6" s="39" t="s">
-        <v>151</v>
+      <c r="AB6" s="39">
+        <v>1440</v>
       </c>
       <c r="AC6" s="37" t="s">
-        <v>102</v>
+        <v>199</v>
       </c>
       <c r="AD6" s="37" t="s">
         <v>151</v>
@@ -5148,8 +5146,8 @@
       <c r="AE6" s="37" t="s">
         <v>151</v>
       </c>
-      <c r="AF6" s="37" t="s">
-        <v>151</v>
+      <c r="AF6" s="37">
+        <v>4</v>
       </c>
       <c r="AG6" s="37" t="s">
         <v>151</v>
@@ -5190,8 +5188,8 @@
       <c r="AS6" s="37" t="s">
         <v>151</v>
       </c>
-      <c r="AT6" s="37" t="s">
-        <v>151</v>
+      <c r="AT6" s="66" t="s">
+        <v>203</v>
       </c>
       <c r="AU6" s="37" t="s">
         <v>151</v>

--- a/Docs/Content/HungryDragonContent_Offers.xlsx
+++ b/Docs/Content/HungryDragonContent_Offers.xlsx
@@ -4401,8 +4401,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AW34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="S6" sqref="S6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -5110,7 +5110,7 @@
         <v>99</v>
       </c>
       <c r="S6" s="30">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="T6" s="26" t="s">
         <v>108</v>

--- a/Docs/Content/HungryDragonContent_Offers.xlsx
+++ b/Docs/Content/HungryDragonContent_Offers.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11209"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hsemroud\Documents\Dragon\Docs\Content\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aortin/Documents/UBI/FD/Client_iOS/Docs/Content/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AC2B415-0D77-3C49-AE62-CD477A7DF558}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="32700" windowHeight="20535"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="32700" windowHeight="20540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Packs" sheetId="3" r:id="rId1"/>
     <sheet name="OLD" sheetId="1" r:id="rId2"/>
     <sheet name="ValidationData" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -810,7 +811,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -4755,81 +4756,81 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="offerPacksDefinitions" displayName="offerPacksDefinitions" ref="B2:AY70" totalsRowShown="0" headerRowDxfId="94" headerRowBorderDxfId="93" tableBorderDxfId="92">
-  <autoFilter ref="B2:AY70"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="offerPacksDefinitions" displayName="offerPacksDefinitions" ref="B2:AY70" totalsRowShown="0" headerRowDxfId="94" headerRowBorderDxfId="93" tableBorderDxfId="92">
+  <autoFilter ref="B2:AY70" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="50">
-    <tableColumn id="1" name="{offerPacksDefinitions}" dataDxfId="91"/>
-    <tableColumn id="2" name="[sku]" dataDxfId="90"/>
-    <tableColumn id="45" name="[uniqueId]" dataDxfId="89"/>
-    <tableColumn id="49" name="[type]" dataDxfId="88"/>
-    <tableColumn id="3" name="[enabled]" dataDxfId="87"/>
-    <tableColumn id="39" name="[purchaseLimit]" dataDxfId="86"/>
-    <tableColumn id="38" name="[item1Featured]" dataDxfId="85"/>
-    <tableColumn id="4" name="[item1Type]" dataDxfId="84"/>
-    <tableColumn id="37" name="[item1Amount]" dataDxfId="83"/>
-    <tableColumn id="40" name="[item1Sku]" dataDxfId="82"/>
-    <tableColumn id="5" name="[item2Type]" dataDxfId="81"/>
-    <tableColumn id="41" name="[item2Amount]" dataDxfId="80"/>
-    <tableColumn id="42" name="[item2Sku]" dataDxfId="79"/>
-    <tableColumn id="6" name="[item3Type]" dataDxfId="78"/>
-    <tableColumn id="43" name="[item3Amount]" dataDxfId="77"/>
-    <tableColumn id="44" name="[item3Sku]" dataDxfId="76"/>
-    <tableColumn id="7" name="[order]" dataDxfId="75"/>
-    <tableColumn id="8" name="[refPrice]" dataDxfId="74"/>
-    <tableColumn id="9" name="[discount]" dataDxfId="73"/>
-    <tableColumn id="10" name="[iapSku]" dataDxfId="72"/>
-    <tableColumn id="11" name="[tidName]" dataDxfId="71"/>
-    <tableColumn id="12" name="[featured]" dataDxfId="70"/>
-    <tableColumn id="13" name="[maxViews]" dataDxfId="69"/>
-    <tableColumn id="14" name="[zone]" dataDxfId="68"/>
-    <tableColumn id="15" name="[frequency]" dataDxfId="67"/>
-    <tableColumn id="16" name="[startDate]" dataDxfId="66"/>
-    <tableColumn id="17" name="[endDate]" dataDxfId="65"/>
-    <tableColumn id="46" name="[durationMinutes]" dataDxfId="64"/>
-    <tableColumn id="18" name="[minAppVersion]" dataDxfId="63"/>
-    <tableColumn id="19" name="[countriesAllowed]" dataDxfId="62"/>
-    <tableColumn id="20" name="[countriesExcluded]" dataDxfId="61"/>
-    <tableColumn id="21" name="[gamesPlayed]" dataDxfId="60"/>
-    <tableColumn id="22" name="[payerType]" dataDxfId="59"/>
-    <tableColumn id="23" name="[minSpent]" dataDxfId="58"/>
-    <tableColumn id="50" name="[maxSpent]" dataDxfId="57"/>
-    <tableColumn id="47" name="[minNumberOfPurchases]" dataDxfId="56"/>
-    <tableColumn id="48" name="[minutesSinceLastPurchase]" dataDxfId="55"/>
-    <tableColumn id="24" name="[dragonUnlocked]" dataDxfId="54"/>
-    <tableColumn id="25" name="[dragonOwned]" dataDxfId="53"/>
-    <tableColumn id="26" name="[dragonNotOwned]" dataDxfId="52"/>
-    <tableColumn id="27" name="[scBalanceRange]" dataDxfId="51"/>
-    <tableColumn id="28" name="[hcBalanceRange]" dataDxfId="50"/>
-    <tableColumn id="29" name="[openedEggs]" dataDxfId="49"/>
-    <tableColumn id="30" name="[petsOwnedCount]" dataDxfId="48"/>
-    <tableColumn id="31" name="[petsOwned]" dataDxfId="47"/>
-    <tableColumn id="32" name="[petsNotOwned]" dataDxfId="46"/>
-    <tableColumn id="33" name="[progressionRange]" dataDxfId="45"/>
-    <tableColumn id="34" name="[skinsUnlocked]" dataDxfId="44"/>
-    <tableColumn id="35" name="[skinsOwned]" dataDxfId="43"/>
-    <tableColumn id="36" name="[skinsNotOwned]" dataDxfId="42"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="{offerPacksDefinitions}" dataDxfId="91"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="[sku]" dataDxfId="90"/>
+    <tableColumn id="45" xr3:uid="{00000000-0010-0000-0000-00002D000000}" name="[uniqueId]" dataDxfId="89"/>
+    <tableColumn id="49" xr3:uid="{00000000-0010-0000-0000-000031000000}" name="[type]" dataDxfId="88"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="[enabled]" dataDxfId="87"/>
+    <tableColumn id="39" xr3:uid="{00000000-0010-0000-0000-000027000000}" name="[purchaseLimit]" dataDxfId="86"/>
+    <tableColumn id="38" xr3:uid="{00000000-0010-0000-0000-000026000000}" name="[item1Featured]" dataDxfId="85"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="[item1Type]" dataDxfId="84"/>
+    <tableColumn id="37" xr3:uid="{00000000-0010-0000-0000-000025000000}" name="[item1Amount]" dataDxfId="83"/>
+    <tableColumn id="40" xr3:uid="{00000000-0010-0000-0000-000028000000}" name="[item1Sku]" dataDxfId="82"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="[item2Type]" dataDxfId="81"/>
+    <tableColumn id="41" xr3:uid="{00000000-0010-0000-0000-000029000000}" name="[item2Amount]" dataDxfId="80"/>
+    <tableColumn id="42" xr3:uid="{00000000-0010-0000-0000-00002A000000}" name="[item2Sku]" dataDxfId="79"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="[item3Type]" dataDxfId="78"/>
+    <tableColumn id="43" xr3:uid="{00000000-0010-0000-0000-00002B000000}" name="[item3Amount]" dataDxfId="77"/>
+    <tableColumn id="44" xr3:uid="{00000000-0010-0000-0000-00002C000000}" name="[item3Sku]" dataDxfId="76"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="[order]" dataDxfId="75"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="[refPrice]" dataDxfId="74"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="[discount]" dataDxfId="73"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="[iapSku]" dataDxfId="72"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="[tidName]" dataDxfId="71"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="[featured]" dataDxfId="70"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="[maxViews]" dataDxfId="69"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="[zone]" dataDxfId="68"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="[frequency]" dataDxfId="67"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="[startDate]" dataDxfId="66"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="[endDate]" dataDxfId="65"/>
+    <tableColumn id="46" xr3:uid="{00000000-0010-0000-0000-00002E000000}" name="[durationMinutes]" dataDxfId="64"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="[minAppVersion]" dataDxfId="63"/>
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="[countriesAllowed]" dataDxfId="62"/>
+    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0000-000014000000}" name="[countriesExcluded]" dataDxfId="61"/>
+    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" name="[gamesPlayed]" dataDxfId="60"/>
+    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0000-000016000000}" name="[payerType]" dataDxfId="59"/>
+    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0000-000017000000}" name="[minSpent]" dataDxfId="58"/>
+    <tableColumn id="50" xr3:uid="{00000000-0010-0000-0000-000032000000}" name="[maxSpent]" dataDxfId="57"/>
+    <tableColumn id="47" xr3:uid="{00000000-0010-0000-0000-00002F000000}" name="[minNumberOfPurchases]" dataDxfId="56"/>
+    <tableColumn id="48" xr3:uid="{00000000-0010-0000-0000-000030000000}" name="[minutesSinceLastPurchase]" dataDxfId="55"/>
+    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0000-000018000000}" name="[dragonUnlocked]" dataDxfId="54"/>
+    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0000-000019000000}" name="[dragonOwned]" dataDxfId="53"/>
+    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0000-00001A000000}" name="[dragonNotOwned]" dataDxfId="52"/>
+    <tableColumn id="27" xr3:uid="{00000000-0010-0000-0000-00001B000000}" name="[scBalanceRange]" dataDxfId="51"/>
+    <tableColumn id="28" xr3:uid="{00000000-0010-0000-0000-00001C000000}" name="[hcBalanceRange]" dataDxfId="50"/>
+    <tableColumn id="29" xr3:uid="{00000000-0010-0000-0000-00001D000000}" name="[openedEggs]" dataDxfId="49"/>
+    <tableColumn id="30" xr3:uid="{00000000-0010-0000-0000-00001E000000}" name="[petsOwnedCount]" dataDxfId="48"/>
+    <tableColumn id="31" xr3:uid="{00000000-0010-0000-0000-00001F000000}" name="[petsOwned]" dataDxfId="47"/>
+    <tableColumn id="32" xr3:uid="{00000000-0010-0000-0000-000020000000}" name="[petsNotOwned]" dataDxfId="46"/>
+    <tableColumn id="33" xr3:uid="{00000000-0010-0000-0000-000021000000}" name="[progressionRange]" dataDxfId="45"/>
+    <tableColumn id="34" xr3:uid="{00000000-0010-0000-0000-000022000000}" name="[skinsUnlocked]" dataDxfId="44"/>
+    <tableColumn id="35" xr3:uid="{00000000-0010-0000-0000-000023000000}" name="[skinsOwned]" dataDxfId="43"/>
+    <tableColumn id="36" xr3:uid="{00000000-0010-0000-0000-000024000000}" name="[skinsNotOwned]" dataDxfId="42"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="offerPacksDefinitions_OLD" displayName="offerPacksDefinitions_OLD" ref="B4:N44" totalsRowShown="0" headerRowDxfId="16" dataDxfId="14" headerRowBorderDxfId="15" tableBorderDxfId="13">
-  <autoFilter ref="B4:N44"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="offerPacksDefinitions_OLD" displayName="offerPacksDefinitions_OLD" ref="B4:N44" totalsRowShown="0" headerRowDxfId="16" dataDxfId="14" headerRowBorderDxfId="15" tableBorderDxfId="13">
+  <autoFilter ref="B4:N44" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="13">
-    <tableColumn id="1" name="offerPacksDefinitions_OLD" dataDxfId="12"/>
-    <tableColumn id="2" name="[sku]" dataDxfId="11"/>
-    <tableColumn id="15" name="[paramValue]" dataDxfId="10"/>
-    <tableColumn id="7" name="[itemType]" dataDxfId="9"/>
-    <tableColumn id="8" name="[itemAmount]" dataDxfId="8"/>
-    <tableColumn id="9" name="[itemSku]" dataDxfId="7"/>
-    <tableColumn id="23" name="[itemFeatured]" dataDxfId="6"/>
-    <tableColumn id="22" name="[minAppVersion]" dataDxfId="5"/>
-    <tableColumn id="4" name="[order]" dataDxfId="4"/>
-    <tableColumn id="24" name="[refPrice]" dataDxfId="3"/>
-    <tableColumn id="6" name="[discount]" dataDxfId="2"/>
-    <tableColumn id="3" name="[iapSku]" dataDxfId="1"/>
-    <tableColumn id="5" name="[tidName]" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="offerPacksDefinitions_OLD" dataDxfId="12"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="[sku]" dataDxfId="11"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0100-00000F000000}" name="[paramValue]" dataDxfId="10"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="[itemType]" dataDxfId="9"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="[itemAmount]" dataDxfId="8"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="[itemSku]" dataDxfId="7"/>
+    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0100-000017000000}" name="[itemFeatured]" dataDxfId="6"/>
+    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0100-000016000000}" name="[minAppVersion]" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="[order]" dataDxfId="4"/>
+    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0100-000018000000}" name="[refPrice]" dataDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="[discount]" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="[iapSku]" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="[tidName]" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5131,51 +5132,51 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:AY70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="K36" sqref="K36"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="N36" sqref="N36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="4" customWidth="1"/>
     <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.375" customWidth="1"/>
+    <col min="3" max="3" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.33203125" customWidth="1"/>
     <col min="6" max="7" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.875" customWidth="1"/>
+    <col min="8" max="8" width="11.83203125" customWidth="1"/>
     <col min="9" max="10" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.83203125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.75" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.6640625" bestFit="1" customWidth="1"/>
     <col min="15" max="16" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="8.375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="42.375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="26.875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="42.33203125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="26.83203125" bestFit="1" customWidth="1"/>
     <col min="23" max="24" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="13.625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="13.6640625" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="28" max="32" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="20.125" customWidth="1"/>
-    <col min="34" max="34" width="8.125" bestFit="1" customWidth="1"/>
-    <col min="35" max="36" width="19.375" customWidth="1"/>
+    <col min="33" max="33" width="20.1640625" customWidth="1"/>
+    <col min="34" max="34" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="35" max="36" width="19.33203125" customWidth="1"/>
     <col min="37" max="41" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="16.875" customWidth="1"/>
-    <col min="43" max="43" width="16.125" customWidth="1"/>
-    <col min="44" max="44" width="14.625" customWidth="1"/>
-    <col min="45" max="45" width="20.125" customWidth="1"/>
+    <col min="42" max="42" width="16.83203125" customWidth="1"/>
+    <col min="43" max="43" width="16.1640625" customWidth="1"/>
+    <col min="44" max="44" width="14.6640625" customWidth="1"/>
+    <col min="45" max="45" width="20.1640625" customWidth="1"/>
     <col min="46" max="49" width="7.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:51" s="24" customFormat="1" ht="115.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:51" s="24" customFormat="1" ht="135" x14ac:dyDescent="0.2">
       <c r="R1" s="16" t="s">
         <v>29</v>
       </c>
@@ -5215,7 +5216,7 @@
       <c r="AX1" s="132"/>
       <c r="AY1" s="132"/>
     </row>
-    <row r="2" spans="2:51" ht="149.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:51" ht="149" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
@@ -5367,7 +5368,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="3" spans="2:51" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:51" x14ac:dyDescent="0.2">
       <c r="B3" s="44" t="s">
         <v>3</v>
       </c>
@@ -5517,7 +5518,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="4" spans="2:51" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:51" x14ac:dyDescent="0.2">
       <c r="B4" s="44" t="s">
         <v>3</v>
       </c>
@@ -5669,7 +5670,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="5" spans="2:51" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:51" x14ac:dyDescent="0.2">
       <c r="B5" s="44" t="s">
         <v>3</v>
       </c>
@@ -5821,7 +5822,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="6" spans="2:51" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:51" x14ac:dyDescent="0.2">
       <c r="B6" s="44" t="s">
         <v>3</v>
       </c>
@@ -5971,7 +5972,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="7" spans="2:51" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:51" x14ac:dyDescent="0.2">
       <c r="B7" s="44" t="s">
         <v>3</v>
       </c>
@@ -6123,7 +6124,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="8" spans="2:51" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:51" x14ac:dyDescent="0.2">
       <c r="B8" s="44" t="s">
         <v>3</v>
       </c>
@@ -6275,7 +6276,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="9" spans="2:51" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:51" x14ac:dyDescent="0.2">
       <c r="B9" s="44" t="s">
         <v>3</v>
       </c>
@@ -6427,7 +6428,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="10" spans="2:51" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:51" x14ac:dyDescent="0.2">
       <c r="B10" s="44" t="s">
         <v>3</v>
       </c>
@@ -6579,7 +6580,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="11" spans="2:51" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:51" x14ac:dyDescent="0.2">
       <c r="B11" s="44" t="s">
         <v>3</v>
       </c>
@@ -6731,7 +6732,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="12" spans="2:51" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:51" x14ac:dyDescent="0.2">
       <c r="B12" s="44" t="s">
         <v>3</v>
       </c>
@@ -6883,7 +6884,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="13" spans="2:51" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:51" x14ac:dyDescent="0.2">
       <c r="B13" s="44" t="s">
         <v>3</v>
       </c>
@@ -7035,7 +7036,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="14" spans="2:51" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:51" x14ac:dyDescent="0.2">
       <c r="B14" s="44" t="s">
         <v>3</v>
       </c>
@@ -7187,7 +7188,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="15" spans="2:51" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:51" x14ac:dyDescent="0.2">
       <c r="B15" s="44" t="s">
         <v>3</v>
       </c>
@@ -7339,7 +7340,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="16" spans="2:51" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:51" x14ac:dyDescent="0.2">
       <c r="B16" s="44" t="s">
         <v>3</v>
       </c>
@@ -7491,7 +7492,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="17" spans="2:51" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:51" x14ac:dyDescent="0.2">
       <c r="B17" s="44" t="s">
         <v>3</v>
       </c>
@@ -7643,7 +7644,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="18" spans="2:51" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:51" x14ac:dyDescent="0.2">
       <c r="B18" s="44" t="s">
         <v>3</v>
       </c>
@@ -7795,7 +7796,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="19" spans="2:51" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:51" x14ac:dyDescent="0.2">
       <c r="B19" s="44" t="s">
         <v>3</v>
       </c>
@@ -7947,7 +7948,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="20" spans="2:51" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:51" x14ac:dyDescent="0.2">
       <c r="B20" s="44" t="s">
         <v>3</v>
       </c>
@@ -8099,7 +8100,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="21" spans="2:51" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:51" x14ac:dyDescent="0.2">
       <c r="B21" s="44" t="s">
         <v>3</v>
       </c>
@@ -8251,7 +8252,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="22" spans="2:51" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:51" x14ac:dyDescent="0.2">
       <c r="B22" s="44" t="s">
         <v>3</v>
       </c>
@@ -8403,7 +8404,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="23" spans="2:51" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:51" x14ac:dyDescent="0.2">
       <c r="B23" s="58" t="s">
         <v>3</v>
       </c>
@@ -8553,7 +8554,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="24" spans="2:51" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:51" x14ac:dyDescent="0.2">
       <c r="B24" s="44" t="s">
         <v>3</v>
       </c>
@@ -8705,7 +8706,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="25" spans="2:51" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:51" x14ac:dyDescent="0.2">
       <c r="B25" s="44" t="s">
         <v>3</v>
       </c>
@@ -8855,7 +8856,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="26" spans="2:51" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:51" x14ac:dyDescent="0.2">
       <c r="B26" s="44" t="s">
         <v>3</v>
       </c>
@@ -9007,7 +9008,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="27" spans="2:51" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:51" x14ac:dyDescent="0.2">
       <c r="B27" s="44" t="s">
         <v>3</v>
       </c>
@@ -9159,7 +9160,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="28" spans="2:51" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:51" x14ac:dyDescent="0.2">
       <c r="B28" s="44" t="s">
         <v>3</v>
       </c>
@@ -9311,7 +9312,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="29" spans="2:51" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:51" x14ac:dyDescent="0.2">
       <c r="B29" s="44" t="s">
         <v>3</v>
       </c>
@@ -9463,7 +9464,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="30" spans="2:51" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:51" x14ac:dyDescent="0.2">
       <c r="B30" s="44" t="s">
         <v>3</v>
       </c>
@@ -9615,7 +9616,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="31" spans="2:51" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:51" x14ac:dyDescent="0.2">
       <c r="B31" s="44" t="s">
         <v>3</v>
       </c>
@@ -9765,7 +9766,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="32" spans="2:51" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:51" x14ac:dyDescent="0.2">
       <c r="B32" s="44" t="s">
         <v>3</v>
       </c>
@@ -9917,7 +9918,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="33" spans="2:51" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:51" x14ac:dyDescent="0.2">
       <c r="B33" s="44" t="s">
         <v>3</v>
       </c>
@@ -10061,7 +10062,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="34" spans="2:51" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:51" x14ac:dyDescent="0.2">
       <c r="B34" s="100" t="s">
         <v>3</v>
       </c>
@@ -10195,7 +10196,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="35" spans="2:51" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:51" x14ac:dyDescent="0.2">
       <c r="B35" s="116" t="s">
         <v>3</v>
       </c>
@@ -10233,7 +10234,7 @@
         <v>4</v>
       </c>
       <c r="N35" s="120" t="s">
-        <v>27</v>
+        <v>189</v>
       </c>
       <c r="O35" s="121"/>
       <c r="P35" s="121"/>
@@ -10342,7 +10343,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="36" spans="2:51" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:51" x14ac:dyDescent="0.2">
       <c r="B36" s="42" t="s">
         <v>3</v>
       </c>
@@ -10483,7 +10484,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="37" spans="2:51" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:51" x14ac:dyDescent="0.2">
       <c r="B37" s="42" t="s">
         <v>3</v>
       </c>
@@ -10624,7 +10625,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="38" spans="2:51" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:51" x14ac:dyDescent="0.2">
       <c r="B38" s="42" t="s">
         <v>3</v>
       </c>
@@ -10765,7 +10766,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="39" spans="2:51" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:51" x14ac:dyDescent="0.2">
       <c r="B39" s="42" t="s">
         <v>3</v>
       </c>
@@ -10910,7 +10911,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="40" spans="2:51" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:51" x14ac:dyDescent="0.2">
       <c r="B40" s="42" t="s">
         <v>3</v>
       </c>
@@ -11055,7 +11056,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="41" spans="2:51" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:51" x14ac:dyDescent="0.2">
       <c r="B41" s="42" t="s">
         <v>3</v>
       </c>
@@ -11206,7 +11207,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="42" spans="2:51" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:51" x14ac:dyDescent="0.2">
       <c r="B42" s="42" t="s">
         <v>3</v>
       </c>
@@ -11351,7 +11352,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="43" spans="2:51" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:51" x14ac:dyDescent="0.2">
       <c r="B43" s="42" t="s">
         <v>3</v>
       </c>
@@ -11496,7 +11497,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="44" spans="2:51" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:51" x14ac:dyDescent="0.2">
       <c r="B44" s="42" t="s">
         <v>3</v>
       </c>
@@ -11641,7 +11642,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="45" spans="2:51" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:51" x14ac:dyDescent="0.2">
       <c r="B45" s="42" t="s">
         <v>3</v>
       </c>
@@ -11786,7 +11787,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="46" spans="2:51" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:51" x14ac:dyDescent="0.2">
       <c r="B46" s="85" t="s">
         <v>3</v>
       </c>
@@ -11931,7 +11932,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="47" spans="2:51" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:51" x14ac:dyDescent="0.2">
       <c r="B47" s="116" t="s">
         <v>3</v>
       </c>
@@ -12078,7 +12079,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="48" spans="2:51" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:51" x14ac:dyDescent="0.2">
       <c r="B48" s="42" t="s">
         <v>3</v>
       </c>
@@ -12219,7 +12220,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="49" spans="2:51" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:51" x14ac:dyDescent="0.2">
       <c r="B49" s="42" t="s">
         <v>3</v>
       </c>
@@ -12360,7 +12361,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="50" spans="2:51" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:51" x14ac:dyDescent="0.2">
       <c r="B50" s="42" t="s">
         <v>3</v>
       </c>
@@ -12501,7 +12502,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="51" spans="2:51" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:51" x14ac:dyDescent="0.2">
       <c r="B51" s="42" t="s">
         <v>3</v>
       </c>
@@ -12642,7 +12643,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="52" spans="2:51" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:51" x14ac:dyDescent="0.2">
       <c r="B52" s="42" t="s">
         <v>3</v>
       </c>
@@ -12783,7 +12784,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="53" spans="2:51" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:51" x14ac:dyDescent="0.2">
       <c r="B53" s="42" t="s">
         <v>3</v>
       </c>
@@ -12930,7 +12931,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="54" spans="2:51" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:51" x14ac:dyDescent="0.2">
       <c r="B54" s="42" t="s">
         <v>3</v>
       </c>
@@ -13077,7 +13078,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="55" spans="2:51" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:51" x14ac:dyDescent="0.2">
       <c r="B55" s="42" t="s">
         <v>3</v>
       </c>
@@ -13218,7 +13219,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="56" spans="2:51" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:51" x14ac:dyDescent="0.2">
       <c r="B56" s="42" t="s">
         <v>3</v>
       </c>
@@ -13363,7 +13364,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="57" spans="2:51" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:51" x14ac:dyDescent="0.2">
       <c r="B57" s="42" t="s">
         <v>3</v>
       </c>
@@ -13504,7 +13505,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="58" spans="2:51" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:51" x14ac:dyDescent="0.2">
       <c r="B58" s="85" t="s">
         <v>3</v>
       </c>
@@ -13649,7 +13650,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="59" spans="2:51" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:51" x14ac:dyDescent="0.2">
       <c r="B59" s="70" t="s">
         <v>3</v>
       </c>
@@ -13796,7 +13797,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="60" spans="2:51" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:51" x14ac:dyDescent="0.2">
       <c r="B60" s="42" t="s">
         <v>3</v>
       </c>
@@ -13943,7 +13944,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="61" spans="2:51" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:51" x14ac:dyDescent="0.2">
       <c r="B61" s="42" t="s">
         <v>3</v>
       </c>
@@ -14096,7 +14097,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="62" spans="2:51" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:51" x14ac:dyDescent="0.2">
       <c r="B62" s="42" t="s">
         <v>3</v>
       </c>
@@ -14237,7 +14238,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="63" spans="2:51" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:51" x14ac:dyDescent="0.2">
       <c r="B63" s="42" t="s">
         <v>3</v>
       </c>
@@ -14378,7 +14379,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="64" spans="2:51" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:51" x14ac:dyDescent="0.2">
       <c r="B64" s="42" t="s">
         <v>3</v>
       </c>
@@ -14519,7 +14520,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="65" spans="2:51" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:51" x14ac:dyDescent="0.2">
       <c r="B65" s="42" t="s">
         <v>3</v>
       </c>
@@ -14670,7 +14671,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="66" spans="2:51" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:51" x14ac:dyDescent="0.2">
       <c r="B66" s="42" t="s">
         <v>3</v>
       </c>
@@ -14821,7 +14822,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="67" spans="2:51" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:51" x14ac:dyDescent="0.2">
       <c r="B67" s="42" t="s">
         <v>3</v>
       </c>
@@ -14972,7 +14973,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="68" spans="2:51" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:51" x14ac:dyDescent="0.2">
       <c r="B68" s="42" t="s">
         <v>3</v>
       </c>
@@ -15117,7 +15118,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="69" spans="2:51" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:51" x14ac:dyDescent="0.2">
       <c r="B69" s="42" t="s">
         <v>3</v>
       </c>
@@ -15258,7 +15259,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="70" spans="2:51" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:51" x14ac:dyDescent="0.2">
       <c r="B70" s="42" t="s">
         <v>3</v>
       </c>
@@ -15417,31 +15418,31 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:P44"/>
   <sheetViews>
     <sheetView zoomScale="131" workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.875" customWidth="1"/>
+    <col min="1" max="1" width="4.83203125" customWidth="1"/>
     <col min="2" max="2" width="19" customWidth="1"/>
     <col min="3" max="3" width="25.5" customWidth="1"/>
     <col min="4" max="4" width="29" customWidth="1"/>
-    <col min="5" max="5" width="11.375" customWidth="1"/>
+    <col min="5" max="5" width="11.33203125" customWidth="1"/>
     <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.83203125" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="13" customWidth="1"/>
     <col min="10" max="10" width="11" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11.5" customWidth="1"/>
     <col min="13" max="13" width="36.5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="20.625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="20.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:16" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:16" ht="24" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -15460,7 +15461,7 @@
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
-    <row r="3" spans="2:16" s="16" customFormat="1" ht="153" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:16" s="16" customFormat="1" ht="195" x14ac:dyDescent="0.2">
       <c r="D3" s="16" t="s">
         <v>30</v>
       </c>
@@ -15474,7 +15475,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="2:16" ht="129.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:16" ht="127" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
         <v>74</v>
       </c>
@@ -15515,7 +15516,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B5" s="5" t="s">
         <v>3</v>
       </c>
@@ -15546,7 +15547,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B6" s="5" t="s">
         <v>6</v>
       </c>
@@ -15573,7 +15574,7 @@
       <c r="M6" s="18"/>
       <c r="N6" s="18"/>
     </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B7" s="5" t="s">
         <v>6</v>
       </c>
@@ -15596,7 +15597,7 @@
       <c r="M7" s="18"/>
       <c r="N7" s="18"/>
     </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B8" s="5" t="s">
         <v>6</v>
       </c>
@@ -15619,7 +15620,7 @@
       <c r="M8" s="18"/>
       <c r="N8" s="18"/>
     </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B9" s="5" t="s">
         <v>17</v>
       </c>
@@ -15640,7 +15641,7 @@
       <c r="M9" s="18"/>
       <c r="N9" s="18"/>
     </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B10" s="5" t="s">
         <v>17</v>
       </c>
@@ -15661,7 +15662,7 @@
       <c r="M10" s="18"/>
       <c r="N10" s="18"/>
     </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B11" s="5" t="s">
         <v>17</v>
       </c>
@@ -15682,7 +15683,7 @@
       <c r="M11" s="18"/>
       <c r="N11" s="18"/>
     </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B12" s="5" t="s">
         <v>17</v>
       </c>
@@ -15703,7 +15704,7 @@
       <c r="M12" s="18"/>
       <c r="N12" s="18"/>
     </row>
-    <row r="13" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B13" s="5" t="s">
         <v>17</v>
       </c>
@@ -15724,7 +15725,7 @@
       <c r="M13" s="18"/>
       <c r="N13" s="18"/>
     </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B14" s="5" t="s">
         <v>17</v>
       </c>
@@ -15745,7 +15746,7 @@
       <c r="M14" s="18"/>
       <c r="N14" s="18"/>
     </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B15" s="5" t="s">
         <v>17</v>
       </c>
@@ -15766,7 +15767,7 @@
       <c r="M15" s="18"/>
       <c r="N15" s="18"/>
     </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B16" s="5" t="s">
         <v>3</v>
       </c>
@@ -15797,7 +15798,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B17" s="5" t="s">
         <v>6</v>
       </c>
@@ -15824,7 +15825,7 @@
       <c r="M17" s="18"/>
       <c r="N17" s="18"/>
     </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B18" s="5" t="s">
         <v>6</v>
       </c>
@@ -15847,7 +15848,7 @@
       <c r="M18" s="18"/>
       <c r="N18" s="18"/>
     </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B19" s="5" t="s">
         <v>6</v>
       </c>
@@ -15870,7 +15871,7 @@
       <c r="M19" s="18"/>
       <c r="N19" s="18"/>
     </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B20" s="5" t="s">
         <v>17</v>
       </c>
@@ -15891,7 +15892,7 @@
       <c r="M20" s="18"/>
       <c r="N20" s="18"/>
     </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B21" s="5" t="s">
         <v>17</v>
       </c>
@@ -15912,7 +15913,7 @@
       <c r="M21" s="18"/>
       <c r="N21" s="18"/>
     </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B22" s="5" t="s">
         <v>17</v>
       </c>
@@ -15933,7 +15934,7 @@
       <c r="M22" s="18"/>
       <c r="N22" s="18"/>
     </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B23" s="5" t="s">
         <v>17</v>
       </c>
@@ -15954,7 +15955,7 @@
       <c r="M23" s="18"/>
       <c r="N23" s="18"/>
     </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B24" s="5" t="s">
         <v>17</v>
       </c>
@@ -15975,7 +15976,7 @@
       <c r="M24" s="18"/>
       <c r="N24" s="18"/>
     </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B25" s="5" t="s">
         <v>17</v>
       </c>
@@ -15996,7 +15997,7 @@
       <c r="M25" s="18"/>
       <c r="N25" s="18"/>
     </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B26" s="5" t="s">
         <v>3</v>
       </c>
@@ -16027,7 +16028,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B27" s="5" t="s">
         <v>6</v>
       </c>
@@ -16054,7 +16055,7 @@
       <c r="M27" s="18"/>
       <c r="N27" s="18"/>
     </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B28" s="5" t="s">
         <v>6</v>
       </c>
@@ -16077,7 +16078,7 @@
       <c r="M28" s="18"/>
       <c r="N28" s="18"/>
     </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B29" s="5" t="s">
         <v>6</v>
       </c>
@@ -16100,7 +16101,7 @@
       <c r="M29" s="18"/>
       <c r="N29" s="18"/>
     </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B30" s="5" t="s">
         <v>17</v>
       </c>
@@ -16121,7 +16122,7 @@
       <c r="M30" s="18"/>
       <c r="N30" s="18"/>
     </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B31" s="5" t="s">
         <v>17</v>
       </c>
@@ -16142,7 +16143,7 @@
       <c r="M31" s="18"/>
       <c r="N31" s="18"/>
     </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B32" s="5" t="s">
         <v>17</v>
       </c>
@@ -16163,7 +16164,7 @@
       <c r="M32" s="18"/>
       <c r="N32" s="18"/>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B33" s="5" t="s">
         <v>17</v>
       </c>
@@ -16184,7 +16185,7 @@
       <c r="M33" s="18"/>
       <c r="N33" s="18"/>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B34" s="5" t="s">
         <v>17</v>
       </c>
@@ -16205,7 +16206,7 @@
       <c r="M34" s="18"/>
       <c r="N34" s="18"/>
     </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B35" s="5" t="s">
         <v>17</v>
       </c>
@@ -16226,7 +16227,7 @@
       <c r="M35" s="18"/>
       <c r="N35" s="18"/>
     </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B36" s="5" t="s">
         <v>17</v>
       </c>
@@ -16247,7 +16248,7 @@
       <c r="M36" s="18"/>
       <c r="N36" s="18"/>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="5" t="s">
         <v>17</v>
       </c>
@@ -16268,7 +16269,7 @@
       <c r="M37" s="18"/>
       <c r="N37" s="18"/>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B38" s="5" t="s">
         <v>3</v>
       </c>
@@ -16299,7 +16300,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B39" s="5" t="s">
         <v>6</v>
       </c>
@@ -16322,7 +16323,7 @@
       <c r="M39" s="18"/>
       <c r="N39" s="18"/>
     </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B40" s="5" t="s">
         <v>6</v>
       </c>
@@ -16345,7 +16346,7 @@
       <c r="M40" s="18"/>
       <c r="N40" s="18"/>
     </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B41" s="5" t="s">
         <v>17</v>
       </c>
@@ -16366,7 +16367,7 @@
       <c r="M41" s="18"/>
       <c r="N41" s="18"/>
     </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B42" s="5" t="s">
         <v>3</v>
       </c>
@@ -16397,7 +16398,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B43" s="5" t="s">
         <v>6</v>
       </c>
@@ -16422,7 +16423,7 @@
       <c r="M43" s="18"/>
       <c r="N43" s="18"/>
     </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B44" s="5" t="s">
         <v>17</v>
       </c>
@@ -16570,7 +16571,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5:B44">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5:B44" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"&lt;Definition&gt;,&lt;Item&gt;,&lt;Param&gt;"</formula1>
     </dataValidation>
   </dataValidations>
@@ -16582,13 +16583,13 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000001000000}">
           <x14:formula1>
             <xm:f>ValidationData!$B$4:$B$9</xm:f>
           </x14:formula1>
           <xm:sqref>E5:E44</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" xr:uid="{00000000-0002-0000-0100-000002000000}">
           <x14:formula1>
             <xm:f>ValidationData!$D$4:$D$31</xm:f>
           </x14:formula1>
@@ -16601,19 +16602,19 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B2:D31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="4" max="4" width="23" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B2" s="20" t="s">
         <v>48</v>
       </c>
@@ -16622,10 +16623,10 @@
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D3" s="20"/>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>21</v>
       </c>
@@ -16633,7 +16634,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>19</v>
       </c>
@@ -16641,7 +16642,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>65</v>
       </c>
@@ -16649,13 +16650,13 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>27</v>
       </c>
       <c r="D7" s="21"/>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>18</v>
       </c>
@@ -16663,7 +16664,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>66</v>
       </c>
@@ -16671,7 +16672,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>151</v>
       </c>
@@ -16679,107 +16680,107 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D11" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D12" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D13" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D14" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D15" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D16" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D17" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="18" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D18" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="19" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D19" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="20" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D20" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="21" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D21" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="22" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D22" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="23" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D23" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="24" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D24" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="25" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D25" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="26" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D26" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="27" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D27" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="28" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D28" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="29" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D29" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="30" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D30" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="31" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D31" t="s">
         <v>62</v>
       </c>

--- a/Docs/Content/HungryDragonContent_Offers.xlsx
+++ b/Docs/Content/HungryDragonContent_Offers.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11209"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aortin/Documents/UBI/FD/Client_iOS/Docs/Content/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hsemroud\Documents\Dragon\Docs\Content\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AC2B415-0D77-3C49-AE62-CD477A7DF558}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="32700" windowHeight="20540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="32700" windowHeight="20535"/>
   </bookViews>
   <sheets>
     <sheet name="Packs" sheetId="3" r:id="rId1"/>
@@ -27,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2761" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2797" uniqueCount="295">
   <si>
     <t>OFFER PACKS DEFINITIONS</t>
   </si>
@@ -806,12 +805,120 @@
   </si>
   <si>
     <t>TID_OFFER_PACK_FLASHOFFER</t>
+  </si>
+  <si>
+    <t>com.ubisoft.hungrydragon.rotationalnonpayer1</t>
+  </si>
+  <si>
+    <t>com.ubisoft.hungrydragon.rotationalnonpayer2</t>
+  </si>
+  <si>
+    <t>com.ubisoft.hungrydragon.rotationalnonpayer3</t>
+  </si>
+  <si>
+    <t>com.ubisoft.hungrydragon.rotationalnonpayer4</t>
+  </si>
+  <si>
+    <t>com.ubisoft.hungrydragon.rotationalnonpayer5</t>
+  </si>
+  <si>
+    <t>com.ubisoft.hungrydragon.rotationalnonpayer6</t>
+  </si>
+  <si>
+    <t>com.ubisoft.hungrydragon.rotationalnonpayer7</t>
+  </si>
+  <si>
+    <t>com.ubisoft.hungrydragon.rotationalnonpayer8</t>
+  </si>
+  <si>
+    <t>com.ubisoft.hungrydragon.rotationalnonpayer9</t>
+  </si>
+  <si>
+    <t>com.ubisoft.hungrydragon.rotationalnonpayer10</t>
+  </si>
+  <si>
+    <t>com.ubisoft.hungrydragon.rotationalnonpayer11</t>
+  </si>
+  <si>
+    <t>com.ubisoft.hungrydragon.rotationalnonpayer12</t>
+  </si>
+  <si>
+    <t>com.ubisoft.hungrydragon.rotationallowpayer1</t>
+  </si>
+  <si>
+    <t>com.ubisoft.hungrydragon.rotationallowpayer2</t>
+  </si>
+  <si>
+    <t>com.ubisoft.hungrydragon.rotationallowpayer3</t>
+  </si>
+  <si>
+    <t>com.ubisoft.hungrydragon.rotationallowpayer4</t>
+  </si>
+  <si>
+    <t>com.ubisoft.hungrydragon.rotationallowpayer5</t>
+  </si>
+  <si>
+    <t>com.ubisoft.hungrydragon.rotationallowpayer6</t>
+  </si>
+  <si>
+    <t>com.ubisoft.hungrydragon.rotationallowpayer7</t>
+  </si>
+  <si>
+    <t>com.ubisoft.hungrydragon.rotationallowpayer8</t>
+  </si>
+  <si>
+    <t>com.ubisoft.hungrydragon.rotationallowpayer9</t>
+  </si>
+  <si>
+    <t>com.ubisoft.hungrydragon.rotationallowpayer10</t>
+  </si>
+  <si>
+    <t>com.ubisoft.hungrydragon.rotationallowpayer11</t>
+  </si>
+  <si>
+    <t>com.ubisoft.hungrydragon.rotationallowpayer12</t>
+  </si>
+  <si>
+    <t>com.ubisoft.hungrydragon.rotationalhighpayer1</t>
+  </si>
+  <si>
+    <t>com.ubisoft.hungrydragon.rotationalhighpayer2</t>
+  </si>
+  <si>
+    <t>com.ubisoft.hungrydragon.rotationalhighpayer3</t>
+  </si>
+  <si>
+    <t>com.ubisoft.hungrydragon.rotationalhighpayer4</t>
+  </si>
+  <si>
+    <t>com.ubisoft.hungrydragon.rotationalhighpayer5</t>
+  </si>
+  <si>
+    <t>com.ubisoft.hungrydragon.rotationalhighpayer6</t>
+  </si>
+  <si>
+    <t>com.ubisoft.hungrydragon.rotationalhighpayer7</t>
+  </si>
+  <si>
+    <t>com.ubisoft.hungrydragon.rotationalhighpayer8</t>
+  </si>
+  <si>
+    <t>com.ubisoft.hungrydragon.rotationalhighpayer9</t>
+  </si>
+  <si>
+    <t>com.ubisoft.hungrydragon.rotationalhighpayer10</t>
+  </si>
+  <si>
+    <t>com.ubisoft.hungrydragon.rotationalhighpayer11</t>
+  </si>
+  <si>
+    <t>com.ubisoft.hungrydragon.rotationalhighpayer12</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -4756,81 +4863,81 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="offerPacksDefinitions" displayName="offerPacksDefinitions" ref="B2:AY70" totalsRowShown="0" headerRowDxfId="94" headerRowBorderDxfId="93" tableBorderDxfId="92">
-  <autoFilter ref="B2:AY70" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="offerPacksDefinitions" displayName="offerPacksDefinitions" ref="B2:AY70" totalsRowShown="0" headerRowDxfId="94" headerRowBorderDxfId="93" tableBorderDxfId="92">
+  <autoFilter ref="B2:AY70"/>
   <tableColumns count="50">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="{offerPacksDefinitions}" dataDxfId="91"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="[sku]" dataDxfId="90"/>
-    <tableColumn id="45" xr3:uid="{00000000-0010-0000-0000-00002D000000}" name="[uniqueId]" dataDxfId="89"/>
-    <tableColumn id="49" xr3:uid="{00000000-0010-0000-0000-000031000000}" name="[type]" dataDxfId="88"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="[enabled]" dataDxfId="87"/>
-    <tableColumn id="39" xr3:uid="{00000000-0010-0000-0000-000027000000}" name="[purchaseLimit]" dataDxfId="86"/>
-    <tableColumn id="38" xr3:uid="{00000000-0010-0000-0000-000026000000}" name="[item1Featured]" dataDxfId="85"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="[item1Type]" dataDxfId="84"/>
-    <tableColumn id="37" xr3:uid="{00000000-0010-0000-0000-000025000000}" name="[item1Amount]" dataDxfId="83"/>
-    <tableColumn id="40" xr3:uid="{00000000-0010-0000-0000-000028000000}" name="[item1Sku]" dataDxfId="82"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="[item2Type]" dataDxfId="81"/>
-    <tableColumn id="41" xr3:uid="{00000000-0010-0000-0000-000029000000}" name="[item2Amount]" dataDxfId="80"/>
-    <tableColumn id="42" xr3:uid="{00000000-0010-0000-0000-00002A000000}" name="[item2Sku]" dataDxfId="79"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="[item3Type]" dataDxfId="78"/>
-    <tableColumn id="43" xr3:uid="{00000000-0010-0000-0000-00002B000000}" name="[item3Amount]" dataDxfId="77"/>
-    <tableColumn id="44" xr3:uid="{00000000-0010-0000-0000-00002C000000}" name="[item3Sku]" dataDxfId="76"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="[order]" dataDxfId="75"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="[refPrice]" dataDxfId="74"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="[discount]" dataDxfId="73"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="[iapSku]" dataDxfId="72"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="[tidName]" dataDxfId="71"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="[featured]" dataDxfId="70"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="[maxViews]" dataDxfId="69"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="[zone]" dataDxfId="68"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="[frequency]" dataDxfId="67"/>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="[startDate]" dataDxfId="66"/>
-    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="[endDate]" dataDxfId="65"/>
-    <tableColumn id="46" xr3:uid="{00000000-0010-0000-0000-00002E000000}" name="[durationMinutes]" dataDxfId="64"/>
-    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="[minAppVersion]" dataDxfId="63"/>
-    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="[countriesAllowed]" dataDxfId="62"/>
-    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0000-000014000000}" name="[countriesExcluded]" dataDxfId="61"/>
-    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" name="[gamesPlayed]" dataDxfId="60"/>
-    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0000-000016000000}" name="[payerType]" dataDxfId="59"/>
-    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0000-000017000000}" name="[minSpent]" dataDxfId="58"/>
-    <tableColumn id="50" xr3:uid="{00000000-0010-0000-0000-000032000000}" name="[maxSpent]" dataDxfId="57"/>
-    <tableColumn id="47" xr3:uid="{00000000-0010-0000-0000-00002F000000}" name="[minNumberOfPurchases]" dataDxfId="56"/>
-    <tableColumn id="48" xr3:uid="{00000000-0010-0000-0000-000030000000}" name="[minutesSinceLastPurchase]" dataDxfId="55"/>
-    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0000-000018000000}" name="[dragonUnlocked]" dataDxfId="54"/>
-    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0000-000019000000}" name="[dragonOwned]" dataDxfId="53"/>
-    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0000-00001A000000}" name="[dragonNotOwned]" dataDxfId="52"/>
-    <tableColumn id="27" xr3:uid="{00000000-0010-0000-0000-00001B000000}" name="[scBalanceRange]" dataDxfId="51"/>
-    <tableColumn id="28" xr3:uid="{00000000-0010-0000-0000-00001C000000}" name="[hcBalanceRange]" dataDxfId="50"/>
-    <tableColumn id="29" xr3:uid="{00000000-0010-0000-0000-00001D000000}" name="[openedEggs]" dataDxfId="49"/>
-    <tableColumn id="30" xr3:uid="{00000000-0010-0000-0000-00001E000000}" name="[petsOwnedCount]" dataDxfId="48"/>
-    <tableColumn id="31" xr3:uid="{00000000-0010-0000-0000-00001F000000}" name="[petsOwned]" dataDxfId="47"/>
-    <tableColumn id="32" xr3:uid="{00000000-0010-0000-0000-000020000000}" name="[petsNotOwned]" dataDxfId="46"/>
-    <tableColumn id="33" xr3:uid="{00000000-0010-0000-0000-000021000000}" name="[progressionRange]" dataDxfId="45"/>
-    <tableColumn id="34" xr3:uid="{00000000-0010-0000-0000-000022000000}" name="[skinsUnlocked]" dataDxfId="44"/>
-    <tableColumn id="35" xr3:uid="{00000000-0010-0000-0000-000023000000}" name="[skinsOwned]" dataDxfId="43"/>
-    <tableColumn id="36" xr3:uid="{00000000-0010-0000-0000-000024000000}" name="[skinsNotOwned]" dataDxfId="42"/>
+    <tableColumn id="1" name="{offerPacksDefinitions}" dataDxfId="91"/>
+    <tableColumn id="2" name="[sku]" dataDxfId="90"/>
+    <tableColumn id="45" name="[uniqueId]" dataDxfId="89"/>
+    <tableColumn id="49" name="[type]" dataDxfId="88"/>
+    <tableColumn id="3" name="[enabled]" dataDxfId="87"/>
+    <tableColumn id="39" name="[purchaseLimit]" dataDxfId="86"/>
+    <tableColumn id="38" name="[item1Featured]" dataDxfId="85"/>
+    <tableColumn id="4" name="[item1Type]" dataDxfId="84"/>
+    <tableColumn id="37" name="[item1Amount]" dataDxfId="83"/>
+    <tableColumn id="40" name="[item1Sku]" dataDxfId="82"/>
+    <tableColumn id="5" name="[item2Type]" dataDxfId="81"/>
+    <tableColumn id="41" name="[item2Amount]" dataDxfId="80"/>
+    <tableColumn id="42" name="[item2Sku]" dataDxfId="79"/>
+    <tableColumn id="6" name="[item3Type]" dataDxfId="78"/>
+    <tableColumn id="43" name="[item3Amount]" dataDxfId="77"/>
+    <tableColumn id="44" name="[item3Sku]" dataDxfId="76"/>
+    <tableColumn id="7" name="[order]" dataDxfId="75"/>
+    <tableColumn id="8" name="[refPrice]" dataDxfId="74"/>
+    <tableColumn id="9" name="[discount]" dataDxfId="73"/>
+    <tableColumn id="10" name="[iapSku]" dataDxfId="72"/>
+    <tableColumn id="11" name="[tidName]" dataDxfId="71"/>
+    <tableColumn id="12" name="[featured]" dataDxfId="70"/>
+    <tableColumn id="13" name="[maxViews]" dataDxfId="69"/>
+    <tableColumn id="14" name="[zone]" dataDxfId="68"/>
+    <tableColumn id="15" name="[frequency]" dataDxfId="67"/>
+    <tableColumn id="16" name="[startDate]" dataDxfId="66"/>
+    <tableColumn id="17" name="[endDate]" dataDxfId="65"/>
+    <tableColumn id="46" name="[durationMinutes]" dataDxfId="64"/>
+    <tableColumn id="18" name="[minAppVersion]" dataDxfId="63"/>
+    <tableColumn id="19" name="[countriesAllowed]" dataDxfId="62"/>
+    <tableColumn id="20" name="[countriesExcluded]" dataDxfId="61"/>
+    <tableColumn id="21" name="[gamesPlayed]" dataDxfId="60"/>
+    <tableColumn id="22" name="[payerType]" dataDxfId="59"/>
+    <tableColumn id="23" name="[minSpent]" dataDxfId="58"/>
+    <tableColumn id="50" name="[maxSpent]" dataDxfId="57"/>
+    <tableColumn id="47" name="[minNumberOfPurchases]" dataDxfId="56"/>
+    <tableColumn id="48" name="[minutesSinceLastPurchase]" dataDxfId="55"/>
+    <tableColumn id="24" name="[dragonUnlocked]" dataDxfId="54"/>
+    <tableColumn id="25" name="[dragonOwned]" dataDxfId="53"/>
+    <tableColumn id="26" name="[dragonNotOwned]" dataDxfId="52"/>
+    <tableColumn id="27" name="[scBalanceRange]" dataDxfId="51"/>
+    <tableColumn id="28" name="[hcBalanceRange]" dataDxfId="50"/>
+    <tableColumn id="29" name="[openedEggs]" dataDxfId="49"/>
+    <tableColumn id="30" name="[petsOwnedCount]" dataDxfId="48"/>
+    <tableColumn id="31" name="[petsOwned]" dataDxfId="47"/>
+    <tableColumn id="32" name="[petsNotOwned]" dataDxfId="46"/>
+    <tableColumn id="33" name="[progressionRange]" dataDxfId="45"/>
+    <tableColumn id="34" name="[skinsUnlocked]" dataDxfId="44"/>
+    <tableColumn id="35" name="[skinsOwned]" dataDxfId="43"/>
+    <tableColumn id="36" name="[skinsNotOwned]" dataDxfId="42"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="offerPacksDefinitions_OLD" displayName="offerPacksDefinitions_OLD" ref="B4:N44" totalsRowShown="0" headerRowDxfId="16" dataDxfId="14" headerRowBorderDxfId="15" tableBorderDxfId="13">
-  <autoFilter ref="B4:N44" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="offerPacksDefinitions_OLD" displayName="offerPacksDefinitions_OLD" ref="B4:N44" totalsRowShown="0" headerRowDxfId="16" dataDxfId="14" headerRowBorderDxfId="15" tableBorderDxfId="13">
+  <autoFilter ref="B4:N44"/>
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="offerPacksDefinitions_OLD" dataDxfId="12"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="[sku]" dataDxfId="11"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0100-00000F000000}" name="[paramValue]" dataDxfId="10"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="[itemType]" dataDxfId="9"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="[itemAmount]" dataDxfId="8"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="[itemSku]" dataDxfId="7"/>
-    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0100-000017000000}" name="[itemFeatured]" dataDxfId="6"/>
-    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0100-000016000000}" name="[minAppVersion]" dataDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="[order]" dataDxfId="4"/>
-    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0100-000018000000}" name="[refPrice]" dataDxfId="3"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="[discount]" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="[iapSku]" dataDxfId="1"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="[tidName]" dataDxfId="0"/>
+    <tableColumn id="1" name="offerPacksDefinitions_OLD" dataDxfId="12"/>
+    <tableColumn id="2" name="[sku]" dataDxfId="11"/>
+    <tableColumn id="15" name="[paramValue]" dataDxfId="10"/>
+    <tableColumn id="7" name="[itemType]" dataDxfId="9"/>
+    <tableColumn id="8" name="[itemAmount]" dataDxfId="8"/>
+    <tableColumn id="9" name="[itemSku]" dataDxfId="7"/>
+    <tableColumn id="23" name="[itemFeatured]" dataDxfId="6"/>
+    <tableColumn id="22" name="[minAppVersion]" dataDxfId="5"/>
+    <tableColumn id="4" name="[order]" dataDxfId="4"/>
+    <tableColumn id="24" name="[refPrice]" dataDxfId="3"/>
+    <tableColumn id="6" name="[discount]" dataDxfId="2"/>
+    <tableColumn id="3" name="[iapSku]" dataDxfId="1"/>
+    <tableColumn id="5" name="[tidName]" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5132,51 +5239,51 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AY70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="N36" sqref="N36"/>
+    <sheetView tabSelected="1" topLeftCell="E24" workbookViewId="0">
+      <selection activeCell="U35" sqref="U35:U70"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4" customWidth="1"/>
     <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.33203125" customWidth="1"/>
+    <col min="3" max="3" width="20.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.375" customWidth="1"/>
     <col min="6" max="7" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.83203125" customWidth="1"/>
+    <col min="8" max="8" width="11.875" customWidth="1"/>
     <col min="9" max="10" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.83203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.625" bestFit="1" customWidth="1"/>
     <col min="15" max="16" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.1640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.1640625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="42.33203125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="26.83203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="42.375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="26.875" bestFit="1" customWidth="1"/>
     <col min="23" max="24" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="13.625" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="9.625" bestFit="1" customWidth="1"/>
     <col min="28" max="32" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="20.1640625" customWidth="1"/>
-    <col min="34" max="34" width="8.1640625" bestFit="1" customWidth="1"/>
-    <col min="35" max="36" width="19.33203125" customWidth="1"/>
+    <col min="33" max="33" width="20.125" customWidth="1"/>
+    <col min="34" max="34" width="8.125" bestFit="1" customWidth="1"/>
+    <col min="35" max="36" width="19.375" customWidth="1"/>
     <col min="37" max="41" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="16.83203125" customWidth="1"/>
-    <col min="43" max="43" width="16.1640625" customWidth="1"/>
-    <col min="44" max="44" width="14.6640625" customWidth="1"/>
-    <col min="45" max="45" width="20.1640625" customWidth="1"/>
+    <col min="42" max="42" width="16.875" customWidth="1"/>
+    <col min="43" max="43" width="16.125" customWidth="1"/>
+    <col min="44" max="44" width="14.625" customWidth="1"/>
+    <col min="45" max="45" width="20.125" customWidth="1"/>
     <col min="46" max="49" width="7.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:51" s="24" customFormat="1" ht="135" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:51" s="24" customFormat="1" ht="115.5" x14ac:dyDescent="0.25">
       <c r="R1" s="16" t="s">
         <v>29</v>
       </c>
@@ -5216,7 +5323,7 @@
       <c r="AX1" s="132"/>
       <c r="AY1" s="132"/>
     </row>
-    <row r="2" spans="2:51" ht="149" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:51" ht="149.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
@@ -5368,7 +5475,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="3" spans="2:51" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B3" s="44" t="s">
         <v>3</v>
       </c>
@@ -5518,7 +5625,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="4" spans="2:51" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B4" s="44" t="s">
         <v>3</v>
       </c>
@@ -5670,7 +5777,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="5" spans="2:51" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B5" s="44" t="s">
         <v>3</v>
       </c>
@@ -5822,7 +5929,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="6" spans="2:51" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B6" s="44" t="s">
         <v>3</v>
       </c>
@@ -5972,7 +6079,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="7" spans="2:51" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B7" s="44" t="s">
         <v>3</v>
       </c>
@@ -6124,7 +6231,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="8" spans="2:51" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B8" s="44" t="s">
         <v>3</v>
       </c>
@@ -6276,7 +6383,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="9" spans="2:51" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B9" s="44" t="s">
         <v>3</v>
       </c>
@@ -6428,7 +6535,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="10" spans="2:51" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B10" s="44" t="s">
         <v>3</v>
       </c>
@@ -6580,7 +6687,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="11" spans="2:51" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B11" s="44" t="s">
         <v>3</v>
       </c>
@@ -6732,7 +6839,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="12" spans="2:51" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B12" s="44" t="s">
         <v>3</v>
       </c>
@@ -6884,7 +6991,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="13" spans="2:51" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B13" s="44" t="s">
         <v>3</v>
       </c>
@@ -7036,7 +7143,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="14" spans="2:51" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B14" s="44" t="s">
         <v>3</v>
       </c>
@@ -7188,7 +7295,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="15" spans="2:51" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B15" s="44" t="s">
         <v>3</v>
       </c>
@@ -7340,7 +7447,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="16" spans="2:51" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B16" s="44" t="s">
         <v>3</v>
       </c>
@@ -7492,7 +7599,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="17" spans="2:51" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B17" s="44" t="s">
         <v>3</v>
       </c>
@@ -7644,7 +7751,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="18" spans="2:51" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B18" s="44" t="s">
         <v>3</v>
       </c>
@@ -7796,7 +7903,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="19" spans="2:51" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B19" s="44" t="s">
         <v>3</v>
       </c>
@@ -7948,7 +8055,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="20" spans="2:51" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B20" s="44" t="s">
         <v>3</v>
       </c>
@@ -8100,7 +8207,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="21" spans="2:51" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B21" s="44" t="s">
         <v>3</v>
       </c>
@@ -8252,7 +8359,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="22" spans="2:51" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B22" s="44" t="s">
         <v>3</v>
       </c>
@@ -8404,7 +8511,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="23" spans="2:51" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B23" s="58" t="s">
         <v>3</v>
       </c>
@@ -8554,7 +8661,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="24" spans="2:51" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B24" s="44" t="s">
         <v>3</v>
       </c>
@@ -8706,7 +8813,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="25" spans="2:51" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B25" s="44" t="s">
         <v>3</v>
       </c>
@@ -8856,7 +8963,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="26" spans="2:51" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B26" s="44" t="s">
         <v>3</v>
       </c>
@@ -9008,7 +9115,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="27" spans="2:51" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B27" s="44" t="s">
         <v>3</v>
       </c>
@@ -9160,7 +9267,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="28" spans="2:51" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B28" s="44" t="s">
         <v>3</v>
       </c>
@@ -9312,7 +9419,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="29" spans="2:51" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B29" s="44" t="s">
         <v>3</v>
       </c>
@@ -9464,7 +9571,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="30" spans="2:51" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B30" s="44" t="s">
         <v>3</v>
       </c>
@@ -9616,7 +9723,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="31" spans="2:51" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B31" s="44" t="s">
         <v>3</v>
       </c>
@@ -9766,7 +9873,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="32" spans="2:51" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B32" s="44" t="s">
         <v>3</v>
       </c>
@@ -9918,7 +10025,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="33" spans="2:51" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B33" s="44" t="s">
         <v>3</v>
       </c>
@@ -10062,7 +10169,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="34" spans="2:51" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B34" s="100" t="s">
         <v>3</v>
       </c>
@@ -10196,7 +10303,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="35" spans="2:51" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B35" s="116" t="s">
         <v>3</v>
       </c>
@@ -10248,9 +10355,8 @@
       <c r="T35" s="114" t="s">
         <v>174</v>
       </c>
-      <c r="U35" s="124" t="str">
-        <f>CONCATENATE("com.ubisoft.hungrydragon.",offerPacksDefinitions[[#This Row],['[sku']]])</f>
-        <v>com.ubisoft.hungrydragon.rotationalNonPayer1</v>
+      <c r="U35" s="124" t="s">
+        <v>259</v>
       </c>
       <c r="V35" s="125" t="s">
         <v>258</v>
@@ -10343,7 +10449,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="36" spans="2:51" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B36" s="42" t="s">
         <v>3</v>
       </c>
@@ -10389,9 +10495,8 @@
       <c r="T36" s="52" t="s">
         <v>174</v>
       </c>
-      <c r="U36" s="53" t="str">
-        <f>CONCATENATE("com.ubisoft.hungrydragon.",offerPacksDefinitions[[#This Row],['[sku']]])</f>
-        <v>com.ubisoft.hungrydragon.rotationalNonPayer2</v>
+      <c r="U36" s="53" t="s">
+        <v>260</v>
       </c>
       <c r="V36" s="11" t="s">
         <v>258</v>
@@ -10484,7 +10589,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="37" spans="2:51" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B37" s="42" t="s">
         <v>3</v>
       </c>
@@ -10530,9 +10635,8 @@
       <c r="T37" s="52" t="s">
         <v>174</v>
       </c>
-      <c r="U37" s="53" t="str">
-        <f>CONCATENATE("com.ubisoft.hungrydragon.",offerPacksDefinitions[[#This Row],['[sku']]])</f>
-        <v>com.ubisoft.hungrydragon.rotationalNonPayer3</v>
+      <c r="U37" s="53" t="s">
+        <v>261</v>
       </c>
       <c r="V37" s="11" t="s">
         <v>258</v>
@@ -10625,7 +10729,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="38" spans="2:51" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B38" s="42" t="s">
         <v>3</v>
       </c>
@@ -10671,9 +10775,8 @@
       <c r="T38" s="52" t="s">
         <v>174</v>
       </c>
-      <c r="U38" s="53" t="str">
-        <f>CONCATENATE("com.ubisoft.hungrydragon.",offerPacksDefinitions[[#This Row],['[sku']]])</f>
-        <v>com.ubisoft.hungrydragon.rotationalNonPayer4</v>
+      <c r="U38" s="53" t="s">
+        <v>262</v>
       </c>
       <c r="V38" s="11" t="s">
         <v>258</v>
@@ -10766,7 +10869,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="39" spans="2:51" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B39" s="42" t="s">
         <v>3</v>
       </c>
@@ -10816,9 +10919,8 @@
       <c r="T39" s="52" t="s">
         <v>174</v>
       </c>
-      <c r="U39" s="53" t="str">
-        <f>CONCATENATE("com.ubisoft.hungrydragon.",offerPacksDefinitions[[#This Row],['[sku']]])</f>
-        <v>com.ubisoft.hungrydragon.rotationalNonPayer5</v>
+      <c r="U39" s="53" t="s">
+        <v>263</v>
       </c>
       <c r="V39" s="11" t="s">
         <v>258</v>
@@ -10911,7 +11013,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="40" spans="2:51" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B40" s="42" t="s">
         <v>3</v>
       </c>
@@ -10961,9 +11063,8 @@
       <c r="T40" s="52" t="s">
         <v>177</v>
       </c>
-      <c r="U40" s="53" t="str">
-        <f>CONCATENATE("com.ubisoft.hungrydragon.",offerPacksDefinitions[[#This Row],['[sku']]])</f>
-        <v>com.ubisoft.hungrydragon.rotationalNonPayer6</v>
+      <c r="U40" s="53" t="s">
+        <v>264</v>
       </c>
       <c r="V40" s="11" t="s">
         <v>258</v>
@@ -11056,7 +11157,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="41" spans="2:51" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B41" s="42" t="s">
         <v>3</v>
       </c>
@@ -11112,9 +11213,8 @@
       <c r="T41" s="52" t="s">
         <v>174</v>
       </c>
-      <c r="U41" s="53" t="str">
-        <f>CONCATENATE("com.ubisoft.hungrydragon.",offerPacksDefinitions[[#This Row],['[sku']]])</f>
-        <v>com.ubisoft.hungrydragon.rotationalNonPayer7</v>
+      <c r="U41" s="53" t="s">
+        <v>265</v>
       </c>
       <c r="V41" s="11" t="s">
         <v>258</v>
@@ -11207,7 +11307,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="42" spans="2:51" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B42" s="42" t="s">
         <v>3</v>
       </c>
@@ -11257,9 +11357,8 @@
       <c r="T42" s="52" t="s">
         <v>178</v>
       </c>
-      <c r="U42" s="53" t="str">
-        <f>CONCATENATE("com.ubisoft.hungrydragon.",offerPacksDefinitions[[#This Row],['[sku']]])</f>
-        <v>com.ubisoft.hungrydragon.rotationalNonPayer8</v>
+      <c r="U42" s="53" t="s">
+        <v>266</v>
       </c>
       <c r="V42" s="11" t="s">
         <v>258</v>
@@ -11352,7 +11451,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="43" spans="2:51" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B43" s="42" t="s">
         <v>3</v>
       </c>
@@ -11402,9 +11501,8 @@
       <c r="T43" s="52" t="s">
         <v>178</v>
       </c>
-      <c r="U43" s="53" t="str">
-        <f>CONCATENATE("com.ubisoft.hungrydragon.",offerPacksDefinitions[[#This Row],['[sku']]])</f>
-        <v>com.ubisoft.hungrydragon.rotationalNonPayer9</v>
+      <c r="U43" s="53" t="s">
+        <v>267</v>
       </c>
       <c r="V43" s="11" t="s">
         <v>258</v>
@@ -11497,7 +11595,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="44" spans="2:51" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B44" s="42" t="s">
         <v>3</v>
       </c>
@@ -11547,9 +11645,8 @@
       <c r="T44" s="52" t="s">
         <v>178</v>
       </c>
-      <c r="U44" s="53" t="str">
-        <f>CONCATENATE("com.ubisoft.hungrydragon.",offerPacksDefinitions[[#This Row],['[sku']]])</f>
-        <v>com.ubisoft.hungrydragon.rotationalNonPayer10</v>
+      <c r="U44" s="53" t="s">
+        <v>268</v>
       </c>
       <c r="V44" s="11" t="s">
         <v>258</v>
@@ -11642,7 +11739,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="45" spans="2:51" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B45" s="42" t="s">
         <v>3</v>
       </c>
@@ -11692,9 +11789,8 @@
       <c r="T45" s="52" t="s">
         <v>174</v>
       </c>
-      <c r="U45" s="53" t="str">
-        <f>CONCATENATE("com.ubisoft.hungrydragon.",offerPacksDefinitions[[#This Row],['[sku']]])</f>
-        <v>com.ubisoft.hungrydragon.rotationalNonPayer11</v>
+      <c r="U45" s="53" t="s">
+        <v>269</v>
       </c>
       <c r="V45" s="11" t="s">
         <v>258</v>
@@ -11787,7 +11883,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="46" spans="2:51" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B46" s="85" t="s">
         <v>3</v>
       </c>
@@ -11837,9 +11933,8 @@
       <c r="T46" s="93" t="s">
         <v>174</v>
       </c>
-      <c r="U46" s="94" t="str">
-        <f>CONCATENATE("com.ubisoft.hungrydragon.",offerPacksDefinitions[[#This Row],['[sku']]])</f>
-        <v>com.ubisoft.hungrydragon.rotationalNonPayer12</v>
+      <c r="U46" s="94" t="s">
+        <v>270</v>
       </c>
       <c r="V46" s="95" t="s">
         <v>258</v>
@@ -11932,7 +12027,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="47" spans="2:51" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B47" s="116" t="s">
         <v>3</v>
       </c>
@@ -11984,9 +12079,8 @@
       <c r="T47" s="114" t="s">
         <v>175</v>
       </c>
-      <c r="U47" s="124" t="str">
-        <f>CONCATENATE("com.ubisoft.hungrydragon.",offerPacksDefinitions[[#This Row],['[sku']]])</f>
-        <v>com.ubisoft.hungrydragon.rotationalLowPayer1</v>
+      <c r="U47" s="124" t="s">
+        <v>271</v>
       </c>
       <c r="V47" s="125" t="s">
         <v>258</v>
@@ -12079,7 +12173,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="48" spans="2:51" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B48" s="42" t="s">
         <v>3</v>
       </c>
@@ -12125,9 +12219,8 @@
       <c r="T48" s="52" t="s">
         <v>177</v>
       </c>
-      <c r="U48" s="53" t="str">
-        <f>CONCATENATE("com.ubisoft.hungrydragon.",offerPacksDefinitions[[#This Row],['[sku']]])</f>
-        <v>com.ubisoft.hungrydragon.rotationalLowPayer2</v>
+      <c r="U48" s="53" t="s">
+        <v>272</v>
       </c>
       <c r="V48" s="11" t="s">
         <v>258</v>
@@ -12220,7 +12313,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="49" spans="2:51" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B49" s="42" t="s">
         <v>3</v>
       </c>
@@ -12266,9 +12359,8 @@
       <c r="T49" s="52" t="s">
         <v>175</v>
       </c>
-      <c r="U49" s="53" t="str">
-        <f>CONCATENATE("com.ubisoft.hungrydragon.",offerPacksDefinitions[[#This Row],['[sku']]])</f>
-        <v>com.ubisoft.hungrydragon.rotationalLowPayer3</v>
+      <c r="U49" s="53" t="s">
+        <v>273</v>
       </c>
       <c r="V49" s="11" t="s">
         <v>258</v>
@@ -12361,7 +12453,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="50" spans="2:51" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B50" s="42" t="s">
         <v>3</v>
       </c>
@@ -12407,9 +12499,8 @@
       <c r="T50" s="52" t="s">
         <v>176</v>
       </c>
-      <c r="U50" s="53" t="str">
-        <f>CONCATENATE("com.ubisoft.hungrydragon.",offerPacksDefinitions[[#This Row],['[sku']]])</f>
-        <v>com.ubisoft.hungrydragon.rotationalLowPayer4</v>
+      <c r="U50" s="53" t="s">
+        <v>274</v>
       </c>
       <c r="V50" s="11" t="s">
         <v>258</v>
@@ -12502,7 +12593,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="51" spans="2:51" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B51" s="42" t="s">
         <v>3</v>
       </c>
@@ -12548,9 +12639,8 @@
       <c r="T51" s="52" t="s">
         <v>175</v>
       </c>
-      <c r="U51" s="53" t="str">
-        <f>CONCATENATE("com.ubisoft.hungrydragon.",offerPacksDefinitions[[#This Row],['[sku']]])</f>
-        <v>com.ubisoft.hungrydragon.rotationalLowPayer5</v>
+      <c r="U51" s="53" t="s">
+        <v>275</v>
       </c>
       <c r="V51" s="11" t="s">
         <v>258</v>
@@ -12643,7 +12733,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="52" spans="2:51" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B52" s="42" t="s">
         <v>3</v>
       </c>
@@ -12689,9 +12779,8 @@
       <c r="T52" s="52" t="s">
         <v>175</v>
       </c>
-      <c r="U52" s="53" t="str">
-        <f>CONCATENATE("com.ubisoft.hungrydragon.",offerPacksDefinitions[[#This Row],['[sku']]])</f>
-        <v>com.ubisoft.hungrydragon.rotationalLowPayer6</v>
+      <c r="U52" s="53" t="s">
+        <v>276</v>
       </c>
       <c r="V52" s="11" t="s">
         <v>258</v>
@@ -12784,7 +12873,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="53" spans="2:51" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B53" s="42" t="s">
         <v>3</v>
       </c>
@@ -12836,9 +12925,8 @@
       <c r="T53" s="52" t="s">
         <v>177</v>
       </c>
-      <c r="U53" s="53" t="str">
-        <f>CONCATENATE("com.ubisoft.hungrydragon.",offerPacksDefinitions[[#This Row],['[sku']]])</f>
-        <v>com.ubisoft.hungrydragon.rotationalLowPayer7</v>
+      <c r="U53" s="53" t="s">
+        <v>277</v>
       </c>
       <c r="V53" s="11" t="s">
         <v>258</v>
@@ -12931,7 +13019,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="54" spans="2:51" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B54" s="42" t="s">
         <v>3</v>
       </c>
@@ -12983,9 +13071,8 @@
       <c r="T54" s="52" t="s">
         <v>176</v>
       </c>
-      <c r="U54" s="53" t="str">
-        <f>CONCATENATE("com.ubisoft.hungrydragon.",offerPacksDefinitions[[#This Row],['[sku']]])</f>
-        <v>com.ubisoft.hungrydragon.rotationalLowPayer8</v>
+      <c r="U54" s="53" t="s">
+        <v>278</v>
       </c>
       <c r="V54" s="11" t="s">
         <v>258</v>
@@ -13078,7 +13165,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="55" spans="2:51" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B55" s="42" t="s">
         <v>3</v>
       </c>
@@ -13124,9 +13211,8 @@
       <c r="T55" s="52" t="s">
         <v>176</v>
       </c>
-      <c r="U55" s="53" t="str">
-        <f>CONCATENATE("com.ubisoft.hungrydragon.",offerPacksDefinitions[[#This Row],['[sku']]])</f>
-        <v>com.ubisoft.hungrydragon.rotationalLowPayer9</v>
+      <c r="U55" s="53" t="s">
+        <v>279</v>
       </c>
       <c r="V55" s="11" t="s">
         <v>258</v>
@@ -13219,7 +13305,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="56" spans="2:51" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B56" s="42" t="s">
         <v>3</v>
       </c>
@@ -13269,9 +13355,8 @@
       <c r="T56" s="52" t="s">
         <v>176</v>
       </c>
-      <c r="U56" s="53" t="str">
-        <f>CONCATENATE("com.ubisoft.hungrydragon.",offerPacksDefinitions[[#This Row],['[sku']]])</f>
-        <v>com.ubisoft.hungrydragon.rotationalLowPayer10</v>
+      <c r="U56" s="53" t="s">
+        <v>280</v>
       </c>
       <c r="V56" s="11" t="s">
         <v>258</v>
@@ -13364,7 +13449,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="57" spans="2:51" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B57" s="42" t="s">
         <v>3</v>
       </c>
@@ -13410,9 +13495,8 @@
       <c r="T57" s="52" t="s">
         <v>177</v>
       </c>
-      <c r="U57" s="53" t="str">
-        <f>CONCATENATE("com.ubisoft.hungrydragon.",offerPacksDefinitions[[#This Row],['[sku']]])</f>
-        <v>com.ubisoft.hungrydragon.rotationalLowPayer11</v>
+      <c r="U57" s="53" t="s">
+        <v>281</v>
       </c>
       <c r="V57" s="11" t="s">
         <v>258</v>
@@ -13505,7 +13589,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="58" spans="2:51" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B58" s="85" t="s">
         <v>3</v>
       </c>
@@ -13555,9 +13639,8 @@
       <c r="T58" s="93" t="s">
         <v>176</v>
       </c>
-      <c r="U58" s="94" t="str">
-        <f>CONCATENATE("com.ubisoft.hungrydragon.",offerPacksDefinitions[[#This Row],['[sku']]])</f>
-        <v>com.ubisoft.hungrydragon.rotationalLowPayer12</v>
+      <c r="U58" s="94" t="s">
+        <v>282</v>
       </c>
       <c r="V58" s="95" t="s">
         <v>258</v>
@@ -13650,7 +13733,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="59" spans="2:51" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B59" s="70" t="s">
         <v>3</v>
       </c>
@@ -13702,9 +13785,8 @@
       <c r="T59" s="78" t="s">
         <v>176</v>
       </c>
-      <c r="U59" s="79" t="str">
-        <f>CONCATENATE("com.ubisoft.hungrydragon.",offerPacksDefinitions[[#This Row],['[sku']]])</f>
-        <v>com.ubisoft.hungrydragon.rotationalHighPayer1</v>
+      <c r="U59" s="79" t="s">
+        <v>283</v>
       </c>
       <c r="V59" s="80" t="s">
         <v>258</v>
@@ -13797,7 +13879,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="60" spans="2:51" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B60" s="42" t="s">
         <v>3</v>
       </c>
@@ -13849,9 +13931,8 @@
       <c r="T60" s="52" t="s">
         <v>256</v>
       </c>
-      <c r="U60" s="53" t="str">
-        <f>CONCATENATE("com.ubisoft.hungrydragon.",offerPacksDefinitions[[#This Row],['[sku']]])</f>
-        <v>com.ubisoft.hungrydragon.rotationalHighPayer2</v>
+      <c r="U60" s="53" t="s">
+        <v>284</v>
       </c>
       <c r="V60" s="11" t="s">
         <v>258</v>
@@ -13944,7 +14025,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="61" spans="2:51" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B61" s="42" t="s">
         <v>3</v>
       </c>
@@ -14002,9 +14083,8 @@
       <c r="T61" s="52" t="s">
         <v>175</v>
       </c>
-      <c r="U61" s="53" t="str">
-        <f>CONCATENATE("com.ubisoft.hungrydragon.",offerPacksDefinitions[[#This Row],['[sku']]])</f>
-        <v>com.ubisoft.hungrydragon.rotationalHighPayer3</v>
+      <c r="U61" s="53" t="s">
+        <v>285</v>
       </c>
       <c r="V61" s="11" t="s">
         <v>258</v>
@@ -14097,7 +14177,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="62" spans="2:51" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B62" s="42" t="s">
         <v>3</v>
       </c>
@@ -14143,9 +14223,8 @@
       <c r="T62" s="52" t="s">
         <v>176</v>
       </c>
-      <c r="U62" s="53" t="str">
-        <f>CONCATENATE("com.ubisoft.hungrydragon.",offerPacksDefinitions[[#This Row],['[sku']]])</f>
-        <v>com.ubisoft.hungrydragon.rotationalHighPayer4</v>
+      <c r="U62" s="53" t="s">
+        <v>286</v>
       </c>
       <c r="V62" s="11" t="s">
         <v>258</v>
@@ -14238,7 +14317,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="63" spans="2:51" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B63" s="42" t="s">
         <v>3</v>
       </c>
@@ -14284,9 +14363,8 @@
       <c r="T63" s="52" t="s">
         <v>176</v>
       </c>
-      <c r="U63" s="53" t="str">
-        <f>CONCATENATE("com.ubisoft.hungrydragon.",offerPacksDefinitions[[#This Row],['[sku']]])</f>
-        <v>com.ubisoft.hungrydragon.rotationalHighPayer5</v>
+      <c r="U63" s="53" t="s">
+        <v>287</v>
       </c>
       <c r="V63" s="11" t="s">
         <v>258</v>
@@ -14379,7 +14457,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="64" spans="2:51" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B64" s="42" t="s">
         <v>3</v>
       </c>
@@ -14425,9 +14503,8 @@
       <c r="T64" s="52" t="s">
         <v>257</v>
       </c>
-      <c r="U64" s="53" t="str">
-        <f>CONCATENATE("com.ubisoft.hungrydragon.",offerPacksDefinitions[[#This Row],['[sku']]])</f>
-        <v>com.ubisoft.hungrydragon.rotationalHighPayer6</v>
+      <c r="U64" s="53" t="s">
+        <v>288</v>
       </c>
       <c r="V64" s="11" t="s">
         <v>258</v>
@@ -14520,7 +14597,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="65" spans="2:51" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B65" s="42" t="s">
         <v>3</v>
       </c>
@@ -14576,9 +14653,8 @@
       <c r="T65" s="52" t="s">
         <v>257</v>
       </c>
-      <c r="U65" s="53" t="str">
-        <f>CONCATENATE("com.ubisoft.hungrydragon.",offerPacksDefinitions[[#This Row],['[sku']]])</f>
-        <v>com.ubisoft.hungrydragon.rotationalHighPayer7</v>
+      <c r="U65" s="53" t="s">
+        <v>289</v>
       </c>
       <c r="V65" s="11" t="s">
         <v>258</v>
@@ -14671,7 +14747,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="66" spans="2:51" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B66" s="42" t="s">
         <v>3</v>
       </c>
@@ -14727,9 +14803,8 @@
       <c r="T66" s="52" t="s">
         <v>256</v>
       </c>
-      <c r="U66" s="53" t="str">
-        <f>CONCATENATE("com.ubisoft.hungrydragon.",offerPacksDefinitions[[#This Row],['[sku']]])</f>
-        <v>com.ubisoft.hungrydragon.rotationalHighPayer8</v>
+      <c r="U66" s="53" t="s">
+        <v>290</v>
       </c>
       <c r="V66" s="11" t="s">
         <v>258</v>
@@ -14822,7 +14897,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="67" spans="2:51" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B67" s="42" t="s">
         <v>3</v>
       </c>
@@ -14878,9 +14953,8 @@
       <c r="T67" s="52" t="s">
         <v>176</v>
       </c>
-      <c r="U67" s="53" t="str">
-        <f>CONCATENATE("com.ubisoft.hungrydragon.",offerPacksDefinitions[[#This Row],['[sku']]])</f>
-        <v>com.ubisoft.hungrydragon.rotationalHighPayer9</v>
+      <c r="U67" s="53" t="s">
+        <v>291</v>
       </c>
       <c r="V67" s="11" t="s">
         <v>258</v>
@@ -14973,7 +15047,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="68" spans="2:51" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B68" s="42" t="s">
         <v>3</v>
       </c>
@@ -15023,9 +15097,8 @@
       <c r="T68" s="52" t="s">
         <v>176</v>
       </c>
-      <c r="U68" s="53" t="str">
-        <f>CONCATENATE("com.ubisoft.hungrydragon.",offerPacksDefinitions[[#This Row],['[sku']]])</f>
-        <v>com.ubisoft.hungrydragon.rotationalHighPayer10</v>
+      <c r="U68" s="53" t="s">
+        <v>292</v>
       </c>
       <c r="V68" s="11" t="s">
         <v>258</v>
@@ -15118,7 +15191,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="69" spans="2:51" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B69" s="42" t="s">
         <v>3</v>
       </c>
@@ -15164,9 +15237,8 @@
       <c r="T69" s="52" t="s">
         <v>257</v>
       </c>
-      <c r="U69" s="53" t="str">
-        <f>CONCATENATE("com.ubisoft.hungrydragon.",offerPacksDefinitions[[#This Row],['[sku']]])</f>
-        <v>com.ubisoft.hungrydragon.rotationalHighPayer11</v>
+      <c r="U69" s="53" t="s">
+        <v>293</v>
       </c>
       <c r="V69" s="11" t="s">
         <v>258</v>
@@ -15259,7 +15331,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="70" spans="2:51" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:51" x14ac:dyDescent="0.25">
       <c r="B70" s="42" t="s">
         <v>3</v>
       </c>
@@ -15309,9 +15381,8 @@
       <c r="T70" s="52" t="s">
         <v>176</v>
       </c>
-      <c r="U70" s="53" t="str">
-        <f>CONCATENATE("com.ubisoft.hungrydragon.",offerPacksDefinitions[[#This Row],['[sku']]])</f>
-        <v>com.ubisoft.hungrydragon.rotationalHighPayer12</v>
+      <c r="U70" s="53" t="s">
+        <v>294</v>
       </c>
       <c r="V70" s="11" t="s">
         <v>258</v>
@@ -15418,31 +15489,31 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:P44"/>
   <sheetViews>
     <sheetView zoomScale="131" workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.83203125" customWidth="1"/>
+    <col min="1" max="1" width="4.875" customWidth="1"/>
     <col min="2" max="2" width="19" customWidth="1"/>
     <col min="3" max="3" width="25.5" customWidth="1"/>
     <col min="4" max="4" width="29" customWidth="1"/>
-    <col min="5" max="5" width="11.33203125" customWidth="1"/>
+    <col min="5" max="5" width="11.375" customWidth="1"/>
     <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.875" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="13" customWidth="1"/>
     <col min="10" max="10" width="11" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11.5" customWidth="1"/>
     <col min="13" max="13" width="36.5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="20.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:16" ht="24" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:16" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -15461,7 +15532,7 @@
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
-    <row r="3" spans="2:16" s="16" customFormat="1" ht="195" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:16" s="16" customFormat="1" ht="153" x14ac:dyDescent="0.2">
       <c r="D3" s="16" t="s">
         <v>30</v>
       </c>
@@ -15475,7 +15546,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="2:16" ht="127" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:16" ht="129.75" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
         <v>74</v>
       </c>
@@ -15516,7 +15587,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B5" s="5" t="s">
         <v>3</v>
       </c>
@@ -15547,7 +15618,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B6" s="5" t="s">
         <v>6</v>
       </c>
@@ -15574,7 +15645,7 @@
       <c r="M6" s="18"/>
       <c r="N6" s="18"/>
     </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B7" s="5" t="s">
         <v>6</v>
       </c>
@@ -15597,7 +15668,7 @@
       <c r="M7" s="18"/>
       <c r="N7" s="18"/>
     </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B8" s="5" t="s">
         <v>6</v>
       </c>
@@ -15620,7 +15691,7 @@
       <c r="M8" s="18"/>
       <c r="N8" s="18"/>
     </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B9" s="5" t="s">
         <v>17</v>
       </c>
@@ -15641,7 +15712,7 @@
       <c r="M9" s="18"/>
       <c r="N9" s="18"/>
     </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B10" s="5" t="s">
         <v>17</v>
       </c>
@@ -15662,7 +15733,7 @@
       <c r="M10" s="18"/>
       <c r="N10" s="18"/>
     </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B11" s="5" t="s">
         <v>17</v>
       </c>
@@ -15683,7 +15754,7 @@
       <c r="M11" s="18"/>
       <c r="N11" s="18"/>
     </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B12" s="5" t="s">
         <v>17</v>
       </c>
@@ -15704,7 +15775,7 @@
       <c r="M12" s="18"/>
       <c r="N12" s="18"/>
     </row>
-    <row r="13" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B13" s="5" t="s">
         <v>17</v>
       </c>
@@ -15725,7 +15796,7 @@
       <c r="M13" s="18"/>
       <c r="N13" s="18"/>
     </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B14" s="5" t="s">
         <v>17</v>
       </c>
@@ -15746,7 +15817,7 @@
       <c r="M14" s="18"/>
       <c r="N14" s="18"/>
     </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B15" s="5" t="s">
         <v>17</v>
       </c>
@@ -15767,7 +15838,7 @@
       <c r="M15" s="18"/>
       <c r="N15" s="18"/>
     </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B16" s="5" t="s">
         <v>3</v>
       </c>
@@ -15798,7 +15869,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B17" s="5" t="s">
         <v>6</v>
       </c>
@@ -15825,7 +15896,7 @@
       <c r="M17" s="18"/>
       <c r="N17" s="18"/>
     </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B18" s="5" t="s">
         <v>6</v>
       </c>
@@ -15848,7 +15919,7 @@
       <c r="M18" s="18"/>
       <c r="N18" s="18"/>
     </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B19" s="5" t="s">
         <v>6</v>
       </c>
@@ -15871,7 +15942,7 @@
       <c r="M19" s="18"/>
       <c r="N19" s="18"/>
     </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B20" s="5" t="s">
         <v>17</v>
       </c>
@@ -15892,7 +15963,7 @@
       <c r="M20" s="18"/>
       <c r="N20" s="18"/>
     </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B21" s="5" t="s">
         <v>17</v>
       </c>
@@ -15913,7 +15984,7 @@
       <c r="M21" s="18"/>
       <c r="N21" s="18"/>
     </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B22" s="5" t="s">
         <v>17</v>
       </c>
@@ -15934,7 +16005,7 @@
       <c r="M22" s="18"/>
       <c r="N22" s="18"/>
     </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B23" s="5" t="s">
         <v>17</v>
       </c>
@@ -15955,7 +16026,7 @@
       <c r="M23" s="18"/>
       <c r="N23" s="18"/>
     </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B24" s="5" t="s">
         <v>17</v>
       </c>
@@ -15976,7 +16047,7 @@
       <c r="M24" s="18"/>
       <c r="N24" s="18"/>
     </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B25" s="5" t="s">
         <v>17</v>
       </c>
@@ -15997,7 +16068,7 @@
       <c r="M25" s="18"/>
       <c r="N25" s="18"/>
     </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B26" s="5" t="s">
         <v>3</v>
       </c>
@@ -16028,7 +16099,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B27" s="5" t="s">
         <v>6</v>
       </c>
@@ -16055,7 +16126,7 @@
       <c r="M27" s="18"/>
       <c r="N27" s="18"/>
     </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B28" s="5" t="s">
         <v>6</v>
       </c>
@@ -16078,7 +16149,7 @@
       <c r="M28" s="18"/>
       <c r="N28" s="18"/>
     </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B29" s="5" t="s">
         <v>6</v>
       </c>
@@ -16101,7 +16172,7 @@
       <c r="M29" s="18"/>
       <c r="N29" s="18"/>
     </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B30" s="5" t="s">
         <v>17</v>
       </c>
@@ -16122,7 +16193,7 @@
       <c r="M30" s="18"/>
       <c r="N30" s="18"/>
     </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B31" s="5" t="s">
         <v>17</v>
       </c>
@@ -16143,7 +16214,7 @@
       <c r="M31" s="18"/>
       <c r="N31" s="18"/>
     </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B32" s="5" t="s">
         <v>17</v>
       </c>
@@ -16164,7 +16235,7 @@
       <c r="M32" s="18"/>
       <c r="N32" s="18"/>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B33" s="5" t="s">
         <v>17</v>
       </c>
@@ -16185,7 +16256,7 @@
       <c r="M33" s="18"/>
       <c r="N33" s="18"/>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B34" s="5" t="s">
         <v>17</v>
       </c>
@@ -16206,7 +16277,7 @@
       <c r="M34" s="18"/>
       <c r="N34" s="18"/>
     </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B35" s="5" t="s">
         <v>17</v>
       </c>
@@ -16227,7 +16298,7 @@
       <c r="M35" s="18"/>
       <c r="N35" s="18"/>
     </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B36" s="5" t="s">
         <v>17</v>
       </c>
@@ -16248,7 +16319,7 @@
       <c r="M36" s="18"/>
       <c r="N36" s="18"/>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B37" s="5" t="s">
         <v>17</v>
       </c>
@@ -16269,7 +16340,7 @@
       <c r="M37" s="18"/>
       <c r="N37" s="18"/>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B38" s="5" t="s">
         <v>3</v>
       </c>
@@ -16300,7 +16371,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B39" s="5" t="s">
         <v>6</v>
       </c>
@@ -16323,7 +16394,7 @@
       <c r="M39" s="18"/>
       <c r="N39" s="18"/>
     </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B40" s="5" t="s">
         <v>6</v>
       </c>
@@ -16346,7 +16417,7 @@
       <c r="M40" s="18"/>
       <c r="N40" s="18"/>
     </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B41" s="5" t="s">
         <v>17</v>
       </c>
@@ -16367,7 +16438,7 @@
       <c r="M41" s="18"/>
       <c r="N41" s="18"/>
     </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B42" s="5" t="s">
         <v>3</v>
       </c>
@@ -16398,7 +16469,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B43" s="5" t="s">
         <v>6</v>
       </c>
@@ -16423,7 +16494,7 @@
       <c r="M43" s="18"/>
       <c r="N43" s="18"/>
     </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B44" s="5" t="s">
         <v>17</v>
       </c>
@@ -16571,7 +16642,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5:B44" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5:B44">
       <formula1>"&lt;Definition&gt;,&lt;Item&gt;,&lt;Param&gt;"</formula1>
     </dataValidation>
   </dataValidations>
@@ -16583,13 +16654,13 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000001000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>ValidationData!$B$4:$B$9</xm:f>
           </x14:formula1>
           <xm:sqref>E5:E44</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" xr:uid="{00000000-0002-0000-0100-000002000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>ValidationData!$D$4:$D$31</xm:f>
           </x14:formula1>
@@ -16602,19 +16673,19 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:D31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="23" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B2" s="20" t="s">
         <v>48</v>
       </c>
@@ -16623,10 +16694,10 @@
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D3" s="20"/>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>21</v>
       </c>
@@ -16634,7 +16705,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>19</v>
       </c>
@@ -16642,7 +16713,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>65</v>
       </c>
@@ -16650,13 +16721,13 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>27</v>
       </c>
       <c r="D7" s="21"/>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>18</v>
       </c>
@@ -16664,7 +16735,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>66</v>
       </c>
@@ -16672,7 +16743,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>151</v>
       </c>
@@ -16680,107 +16751,107 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D11" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D12" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D13" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D14" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D15" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D16" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D17" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="18" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D18" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="19" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D19" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="20" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D20" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="21" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D21" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="22" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D22" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="23" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D23" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="24" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D24" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="25" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D25" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="26" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D26" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="27" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D27" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="28" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D28" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="29" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D29" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="30" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D30" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="31" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D31" t="s">
         <v>62</v>
       </c>

--- a/Docs/Content/HungryDragonContent_Offers.xlsx
+++ b/Docs/Content/HungryDragonContent_Offers.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2797" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2795" uniqueCount="295">
   <si>
     <t>OFFER PACKS DEFINITIONS</t>
   </si>
@@ -5242,8 +5242,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AY70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E24" workbookViewId="0">
-      <selection activeCell="U35" sqref="U35:U70"/>
+    <sheetView tabSelected="1" topLeftCell="D36" workbookViewId="0">
+      <selection activeCell="N37" sqref="N37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -10900,12 +10900,8 @@
       <c r="K39" s="47" t="s">
         <v>151</v>
       </c>
-      <c r="L39" s="48" t="s">
-        <v>21</v>
-      </c>
-      <c r="M39" s="48">
-        <v>2222</v>
-      </c>
+      <c r="L39" s="48"/>
+      <c r="M39" s="48"/>
       <c r="N39" s="48"/>
       <c r="O39" s="49"/>
       <c r="P39" s="49"/>
@@ -11044,12 +11040,8 @@
       <c r="K40" s="47" t="s">
         <v>151</v>
       </c>
-      <c r="L40" s="48" t="s">
-        <v>21</v>
-      </c>
-      <c r="M40" s="48">
-        <v>3333</v>
-      </c>
+      <c r="L40" s="48"/>
+      <c r="M40" s="48"/>
       <c r="N40" s="48"/>
       <c r="O40" s="49"/>
       <c r="P40" s="49"/>

--- a/Docs/Content/HungryDragonContent_Offers.xlsx
+++ b/Docs/Content/HungryDragonContent_Offers.xlsx
@@ -16,7 +16,7 @@
     <sheet name="OLD" sheetId="1" r:id="rId2"/>
     <sheet name="ValidationData" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913" calcOnSave="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2795" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3037" uniqueCount="314">
   <si>
     <t>OFFER PACKS DEFINITIONS</t>
   </si>
@@ -913,15 +913,79 @@
   </si>
   <si>
     <t>com.ubisoft.hungrydragon.rotationalhighpayer12</t>
+  </si>
+  <si>
+    <t>com.ubisoft.hungrydragon.campaign1promo25</t>
+  </si>
+  <si>
+    <t>com.ubisoft.hungrydragon.campaign1promo30</t>
+  </si>
+  <si>
+    <t>com.ubisoft.hungrydragon.campaign2promo25</t>
+  </si>
+  <si>
+    <t>com.ubisoft.hungrydragon.campaign2promo30</t>
+  </si>
+  <si>
+    <t>com.ubisoft.hungrydragon.campaign1promo15</t>
+  </si>
+  <si>
+    <t>com.ubisoft.hungrydragon.campaign2promo15</t>
+  </si>
+  <si>
+    <t>24.99</t>
+  </si>
+  <si>
+    <t>campaign1Promo25</t>
+  </si>
+  <si>
+    <t>campaign1Promo30</t>
+  </si>
+  <si>
+    <t>campaign2Promo25</t>
+  </si>
+  <si>
+    <t>campaign2Promo30</t>
+  </si>
+  <si>
+    <t>campaign1Promo15</t>
+  </si>
+  <si>
+    <t>campaign2Promo15</t>
+  </si>
+  <si>
+    <t>TID_STORE_PACK_CAMPAIGN1PROMO25</t>
+  </si>
+  <si>
+    <t>TID_STORE_PACK_CAMPAIGN1PROMO30</t>
+  </si>
+  <si>
+    <t>TID_STORE_PACK_CAMPAIGN2PROMO25</t>
+  </si>
+  <si>
+    <t>TID_STORE_PACK_CAMPAIGN2PROMO30</t>
+  </si>
+  <si>
+    <t>TID_STORE_PACK_CAMPAIGN1PROMO15</t>
+  </si>
+  <si>
+    <t>TID_STORE_PACK_CAMPAIGN2PROMO15</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1348,394 +1412,403 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="133">
+  <cellXfs count="136">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="45"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="45"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="45"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="45" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="45"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="8" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="9" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="45"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="45" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="45"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="45"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="45"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="45"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="45"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="45"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="45"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="45"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="45"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="10" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="9" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="10" fillId="23" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="10" fillId="23" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="23" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="9" fillId="23" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="10" fillId="9" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="9" fillId="23" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="10" fillId="9" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="10" fillId="9" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="9" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="10" fillId="9" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="9" fillId="9" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="9" fillId="9" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="9" fillId="9" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="9" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="9" fillId="9" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4863,8 +4936,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="offerPacksDefinitions" displayName="offerPacksDefinitions" ref="B2:AY70" totalsRowShown="0" headerRowDxfId="94" headerRowBorderDxfId="93" tableBorderDxfId="92">
-  <autoFilter ref="B2:AY70"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="offerPacksDefinitions" displayName="offerPacksDefinitions" ref="B2:AY76" totalsRowShown="0" headerRowDxfId="94" headerRowBorderDxfId="93" tableBorderDxfId="92">
+  <autoFilter ref="B2:AY76"/>
   <tableColumns count="50">
     <tableColumn id="1" name="{offerPacksDefinitions}" dataDxfId="91"/>
     <tableColumn id="2" name="[sku]" dataDxfId="90"/>
@@ -5240,10 +5313,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:AY70"/>
+  <dimension ref="B1:AY76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D36" workbookViewId="0">
-      <selection activeCell="N37" sqref="N37"/>
+    <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
+      <selection activeCell="AI7" sqref="AI7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -5266,7 +5339,7 @@
     <col min="19" max="19" width="14.625" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="14.125" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="42.375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="26.875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="32.875" bestFit="1" customWidth="1"/>
     <col min="23" max="24" width="7.5" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="13.625" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="7.5" bestFit="1" customWidth="1"/>
@@ -5293,35 +5366,35 @@
       <c r="T1" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="AA1" s="131" t="s">
+      <c r="AA1" s="134" t="s">
         <v>101</v>
       </c>
-      <c r="AB1" s="131"/>
+      <c r="AB1" s="134"/>
       <c r="AC1" s="32"/>
-      <c r="AD1" s="132" t="s">
+      <c r="AD1" s="135" t="s">
         <v>100</v>
       </c>
-      <c r="AE1" s="132"/>
-      <c r="AF1" s="132"/>
-      <c r="AG1" s="132"/>
-      <c r="AH1" s="132"/>
-      <c r="AI1" s="132"/>
-      <c r="AJ1" s="132"/>
-      <c r="AK1" s="132"/>
-      <c r="AL1" s="132"/>
-      <c r="AM1" s="132"/>
-      <c r="AN1" s="132"/>
-      <c r="AO1" s="132"/>
-      <c r="AP1" s="132"/>
-      <c r="AQ1" s="132"/>
-      <c r="AR1" s="132"/>
-      <c r="AS1" s="132"/>
-      <c r="AT1" s="132"/>
-      <c r="AU1" s="132"/>
-      <c r="AV1" s="132"/>
-      <c r="AW1" s="132"/>
-      <c r="AX1" s="132"/>
-      <c r="AY1" s="132"/>
+      <c r="AE1" s="135"/>
+      <c r="AF1" s="135"/>
+      <c r="AG1" s="135"/>
+      <c r="AH1" s="135"/>
+      <c r="AI1" s="135"/>
+      <c r="AJ1" s="135"/>
+      <c r="AK1" s="135"/>
+      <c r="AL1" s="135"/>
+      <c r="AM1" s="135"/>
+      <c r="AN1" s="135"/>
+      <c r="AO1" s="135"/>
+      <c r="AP1" s="135"/>
+      <c r="AQ1" s="135"/>
+      <c r="AR1" s="135"/>
+      <c r="AS1" s="135"/>
+      <c r="AT1" s="135"/>
+      <c r="AU1" s="135"/>
+      <c r="AV1" s="135"/>
+      <c r="AW1" s="135"/>
+      <c r="AX1" s="135"/>
+      <c r="AY1" s="135"/>
     </row>
     <row r="2" spans="2:51" ht="149.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
@@ -5551,7 +5624,9 @@
       <c r="Z3" s="36">
         <v>20</v>
       </c>
-      <c r="AA3" s="54"/>
+      <c r="AA3" s="54" t="s">
+        <v>151</v>
+      </c>
       <c r="AB3" s="54" t="s">
         <v>151</v>
       </c>
@@ -6242,7 +6317,7 @@
         <v>151</v>
       </c>
       <c r="E8" s="42" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="F8" s="46" t="b">
         <v>0</v>
@@ -6394,7 +6469,7 @@
         <v>151</v>
       </c>
       <c r="E9" s="42" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="F9" s="46" t="b">
         <v>0</v>
@@ -6546,7 +6621,7 @@
         <v>151</v>
       </c>
       <c r="E10" s="42" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="F10" s="46" t="b">
         <v>0</v>
@@ -6698,7 +6773,7 @@
         <v>151</v>
       </c>
       <c r="E11" s="42" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="F11" s="46" t="b">
         <v>0</v>
@@ -6850,7 +6925,7 @@
         <v>151</v>
       </c>
       <c r="E12" s="42" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="F12" s="46" t="b">
         <v>0</v>
@@ -7002,7 +7077,7 @@
         <v>151</v>
       </c>
       <c r="E13" s="42" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="F13" s="46" t="b">
         <v>0</v>
@@ -7154,7 +7229,7 @@
         <v>151</v>
       </c>
       <c r="E14" s="42" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="F14" s="46" t="b">
         <v>0</v>
@@ -7306,7 +7381,7 @@
         <v>151</v>
       </c>
       <c r="E15" s="42" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="F15" s="46" t="b">
         <v>0</v>
@@ -7458,7 +7533,7 @@
         <v>151</v>
       </c>
       <c r="E16" s="42" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="F16" s="46" t="b">
         <v>0</v>
@@ -7610,7 +7685,7 @@
         <v>151</v>
       </c>
       <c r="E17" s="42" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="F17" s="46" t="b">
         <v>0</v>
@@ -7762,7 +7837,7 @@
         <v>151</v>
       </c>
       <c r="E18" s="42" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="F18" s="46" t="b">
         <v>0</v>
@@ -7914,7 +7989,7 @@
         <v>151</v>
       </c>
       <c r="E19" s="42" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="F19" s="46" t="b">
         <v>0</v>
@@ -8066,7 +8141,7 @@
         <v>151</v>
       </c>
       <c r="E20" s="42" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="F20" s="46" t="b">
         <v>0</v>
@@ -8218,7 +8293,7 @@
         <v>151</v>
       </c>
       <c r="E21" s="42" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="F21" s="46" t="b">
         <v>0</v>
@@ -8370,7 +8445,7 @@
         <v>151</v>
       </c>
       <c r="E22" s="42" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="F22" s="46" t="b">
         <v>0</v>
@@ -8522,7 +8597,7 @@
         <v>131</v>
       </c>
       <c r="E23" s="43" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F23" s="60" t="b">
         <v>1</v>
@@ -8672,7 +8747,7 @@
         <v>131</v>
       </c>
       <c r="E24" s="42" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F24" s="46" t="b">
         <v>1</v>
@@ -8824,7 +8899,7 @@
         <v>166</v>
       </c>
       <c r="E25" s="42" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F25" s="46" t="b">
         <v>1</v>
@@ -8974,7 +9049,7 @@
         <v>198</v>
       </c>
       <c r="E26" s="42" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F26" s="46" t="b">
         <v>1</v>
@@ -9126,7 +9201,7 @@
         <v>198</v>
       </c>
       <c r="E27" s="42" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F27" s="46" t="b">
         <v>1</v>
@@ -9278,7 +9353,7 @@
         <v>198</v>
       </c>
       <c r="E28" s="42" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F28" s="46" t="b">
         <v>1</v>
@@ -9430,7 +9505,7 @@
         <v>198</v>
       </c>
       <c r="E29" s="42" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F29" s="46" t="b">
         <v>1</v>
@@ -9582,7 +9657,7 @@
         <v>198</v>
       </c>
       <c r="E30" s="42" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F30" s="46" t="b">
         <v>1</v>
@@ -9734,7 +9809,7 @@
         <v>172</v>
       </c>
       <c r="E31" s="42" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F31" s="46" t="b">
         <v>1</v>
@@ -9884,7 +9959,7 @@
         <v>173</v>
       </c>
       <c r="E32" s="42" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F32" s="46" t="b">
         <v>1</v>
@@ -15413,10 +15488,10 @@
         <v>4</v>
       </c>
       <c r="AH70" s="27" t="s">
-        <v>191</v>
-      </c>
-      <c r="AI70" s="83">
-        <v>20</v>
+        <v>151</v>
+      </c>
+      <c r="AI70" s="83" t="s">
+        <v>151</v>
       </c>
       <c r="AJ70" s="27" t="s">
         <v>151</v>
@@ -15464,6 +15539,918 @@
         <v>151</v>
       </c>
       <c r="AY70" s="27" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="71" spans="2:51" x14ac:dyDescent="0.25">
+      <c r="B71" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="C71" s="131" t="s">
+        <v>302</v>
+      </c>
+      <c r="D71" s="42" t="s">
+        <v>151</v>
+      </c>
+      <c r="E71" s="132" t="s">
+        <v>212</v>
+      </c>
+      <c r="F71" s="46" t="b">
+        <v>0</v>
+      </c>
+      <c r="G71" s="46">
+        <v>1</v>
+      </c>
+      <c r="H71" s="47" t="b">
+        <v>1</v>
+      </c>
+      <c r="I71" s="47" t="s">
+        <v>151</v>
+      </c>
+      <c r="J71" s="47" t="s">
+        <v>151</v>
+      </c>
+      <c r="K71" s="47" t="s">
+        <v>151</v>
+      </c>
+      <c r="L71" s="48" t="s">
+        <v>151</v>
+      </c>
+      <c r="M71" s="48" t="s">
+        <v>151</v>
+      </c>
+      <c r="N71" s="48" t="s">
+        <v>151</v>
+      </c>
+      <c r="O71" s="49" t="s">
+        <v>151</v>
+      </c>
+      <c r="P71" s="49" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q71" s="49" t="s">
+        <v>151</v>
+      </c>
+      <c r="R71" s="50">
+        <v>10</v>
+      </c>
+      <c r="S71" s="51" t="s">
+        <v>301</v>
+      </c>
+      <c r="T71" s="52">
+        <v>0.5</v>
+      </c>
+      <c r="U71" s="53" t="s">
+        <v>295</v>
+      </c>
+      <c r="V71" s="11" t="s">
+        <v>308</v>
+      </c>
+      <c r="W71" s="36" t="b">
+        <v>1</v>
+      </c>
+      <c r="X71" s="36">
+        <v>0</v>
+      </c>
+      <c r="Y71" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z71" s="36">
+        <v>10</v>
+      </c>
+      <c r="AA71" s="54" t="s">
+        <v>151</v>
+      </c>
+      <c r="AB71" s="54" t="s">
+        <v>151</v>
+      </c>
+      <c r="AC71" s="54">
+        <v>2880</v>
+      </c>
+      <c r="AD71" s="27" t="s">
+        <v>214</v>
+      </c>
+      <c r="AE71" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="AF71" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="AG71" s="27">
+        <v>4</v>
+      </c>
+      <c r="AH71" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="AI71" s="83" t="s">
+        <v>151</v>
+      </c>
+      <c r="AJ71" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="AK71" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="AL71" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="AM71" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="AN71" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="AO71" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="AP71" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="AQ71" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="AR71" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="AS71" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="AT71" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="AU71" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="AV71" s="35" t="s">
+        <v>203</v>
+      </c>
+      <c r="AW71" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="AX71" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="AY71" s="27" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="72" spans="2:51" x14ac:dyDescent="0.25">
+      <c r="B72" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="C72" s="131" t="s">
+        <v>303</v>
+      </c>
+      <c r="D72" s="42" t="s">
+        <v>151</v>
+      </c>
+      <c r="E72" s="132" t="s">
+        <v>212</v>
+      </c>
+      <c r="F72" s="46" t="b">
+        <v>0</v>
+      </c>
+      <c r="G72" s="46">
+        <v>1</v>
+      </c>
+      <c r="H72" s="47" t="b">
+        <v>1</v>
+      </c>
+      <c r="I72" s="47" t="s">
+        <v>151</v>
+      </c>
+      <c r="J72" s="47" t="s">
+        <v>151</v>
+      </c>
+      <c r="K72" s="47" t="s">
+        <v>151</v>
+      </c>
+      <c r="L72" s="48" t="s">
+        <v>151</v>
+      </c>
+      <c r="M72" s="48" t="s">
+        <v>151</v>
+      </c>
+      <c r="N72" s="48" t="s">
+        <v>151</v>
+      </c>
+      <c r="O72" s="49" t="s">
+        <v>151</v>
+      </c>
+      <c r="P72" s="49" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q72" s="49" t="s">
+        <v>151</v>
+      </c>
+      <c r="R72" s="50">
+        <v>10</v>
+      </c>
+      <c r="S72" s="51" t="s">
+        <v>255</v>
+      </c>
+      <c r="T72" s="52">
+        <v>0.5</v>
+      </c>
+      <c r="U72" s="53" t="s">
+        <v>296</v>
+      </c>
+      <c r="V72" s="11" t="s">
+        <v>309</v>
+      </c>
+      <c r="W72" s="36" t="b">
+        <v>1</v>
+      </c>
+      <c r="X72" s="36">
+        <v>0</v>
+      </c>
+      <c r="Y72" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z72" s="36">
+        <v>10</v>
+      </c>
+      <c r="AA72" s="54" t="s">
+        <v>151</v>
+      </c>
+      <c r="AB72" s="54" t="s">
+        <v>151</v>
+      </c>
+      <c r="AC72" s="54">
+        <v>2880</v>
+      </c>
+      <c r="AD72" s="27" t="s">
+        <v>214</v>
+      </c>
+      <c r="AE72" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="AF72" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="AG72" s="27">
+        <v>4</v>
+      </c>
+      <c r="AH72" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="AI72" s="83" t="s">
+        <v>151</v>
+      </c>
+      <c r="AJ72" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="AK72" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="AL72" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="AM72" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="AN72" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="AO72" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="AP72" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="AQ72" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="AR72" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="AS72" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="AT72" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="AU72" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="AV72" s="35" t="s">
+        <v>203</v>
+      </c>
+      <c r="AW72" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="AX72" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="AY72" s="27" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="73" spans="2:51" x14ac:dyDescent="0.25">
+      <c r="B73" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="C73" s="131" t="s">
+        <v>304</v>
+      </c>
+      <c r="D73" s="42" t="s">
+        <v>151</v>
+      </c>
+      <c r="E73" s="132" t="s">
+        <v>212</v>
+      </c>
+      <c r="F73" s="46" t="b">
+        <v>0</v>
+      </c>
+      <c r="G73" s="46">
+        <v>1</v>
+      </c>
+      <c r="H73" s="47" t="b">
+        <v>1</v>
+      </c>
+      <c r="I73" s="47" t="s">
+        <v>151</v>
+      </c>
+      <c r="J73" s="47" t="s">
+        <v>151</v>
+      </c>
+      <c r="K73" s="47" t="s">
+        <v>151</v>
+      </c>
+      <c r="L73" s="48" t="s">
+        <v>151</v>
+      </c>
+      <c r="M73" s="48" t="s">
+        <v>151</v>
+      </c>
+      <c r="N73" s="48" t="s">
+        <v>151</v>
+      </c>
+      <c r="O73" s="49" t="s">
+        <v>151</v>
+      </c>
+      <c r="P73" s="49" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q73" s="49" t="s">
+        <v>151</v>
+      </c>
+      <c r="R73" s="50">
+        <v>10</v>
+      </c>
+      <c r="S73" s="51" t="s">
+        <v>301</v>
+      </c>
+      <c r="T73" s="52">
+        <v>0.5</v>
+      </c>
+      <c r="U73" s="53" t="s">
+        <v>297</v>
+      </c>
+      <c r="V73" s="11" t="s">
+        <v>310</v>
+      </c>
+      <c r="W73" s="36" t="b">
+        <v>1</v>
+      </c>
+      <c r="X73" s="36">
+        <v>0</v>
+      </c>
+      <c r="Y73" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z73" s="36">
+        <v>10</v>
+      </c>
+      <c r="AA73" s="54" t="s">
+        <v>151</v>
+      </c>
+      <c r="AB73" s="54" t="s">
+        <v>151</v>
+      </c>
+      <c r="AC73" s="54">
+        <v>2880</v>
+      </c>
+      <c r="AD73" s="27" t="s">
+        <v>214</v>
+      </c>
+      <c r="AE73" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="AF73" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="AG73" s="27">
+        <v>4</v>
+      </c>
+      <c r="AH73" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="AI73" s="83" t="s">
+        <v>151</v>
+      </c>
+      <c r="AJ73" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="AK73" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="AL73" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="AM73" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="AN73" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="AO73" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="AP73" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="AQ73" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="AR73" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="AS73" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="AT73" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="AU73" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="AV73" s="35" t="s">
+        <v>203</v>
+      </c>
+      <c r="AW73" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="AX73" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="AY73" s="27" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="74" spans="2:51" x14ac:dyDescent="0.25">
+      <c r="B74" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="C74" s="131" t="s">
+        <v>305</v>
+      </c>
+      <c r="D74" s="42" t="s">
+        <v>151</v>
+      </c>
+      <c r="E74" s="132" t="s">
+        <v>212</v>
+      </c>
+      <c r="F74" s="46" t="b">
+        <v>0</v>
+      </c>
+      <c r="G74" s="46">
+        <v>1</v>
+      </c>
+      <c r="H74" s="47" t="b">
+        <v>1</v>
+      </c>
+      <c r="I74" s="47" t="s">
+        <v>151</v>
+      </c>
+      <c r="J74" s="47" t="s">
+        <v>151</v>
+      </c>
+      <c r="K74" s="47" t="s">
+        <v>151</v>
+      </c>
+      <c r="L74" s="48" t="s">
+        <v>151</v>
+      </c>
+      <c r="M74" s="48" t="s">
+        <v>151</v>
+      </c>
+      <c r="N74" s="48" t="s">
+        <v>151</v>
+      </c>
+      <c r="O74" s="49" t="s">
+        <v>151</v>
+      </c>
+      <c r="P74" s="49" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q74" s="49" t="s">
+        <v>151</v>
+      </c>
+      <c r="R74" s="50">
+        <v>10</v>
+      </c>
+      <c r="S74" s="51" t="s">
+        <v>255</v>
+      </c>
+      <c r="T74" s="52">
+        <v>0.5</v>
+      </c>
+      <c r="U74" s="53" t="s">
+        <v>298</v>
+      </c>
+      <c r="V74" s="11" t="s">
+        <v>311</v>
+      </c>
+      <c r="W74" s="36" t="b">
+        <v>1</v>
+      </c>
+      <c r="X74" s="36">
+        <v>0</v>
+      </c>
+      <c r="Y74" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z74" s="36">
+        <v>10</v>
+      </c>
+      <c r="AA74" s="54" t="s">
+        <v>151</v>
+      </c>
+      <c r="AB74" s="54" t="s">
+        <v>151</v>
+      </c>
+      <c r="AC74" s="54">
+        <v>2880</v>
+      </c>
+      <c r="AD74" s="27" t="s">
+        <v>214</v>
+      </c>
+      <c r="AE74" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="AF74" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="AG74" s="27">
+        <v>4</v>
+      </c>
+      <c r="AH74" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="AI74" s="83" t="s">
+        <v>151</v>
+      </c>
+      <c r="AJ74" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="AK74" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="AL74" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="AM74" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="AN74" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="AO74" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="AP74" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="AQ74" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="AR74" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="AS74" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="AT74" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="AU74" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="AV74" s="35" t="s">
+        <v>203</v>
+      </c>
+      <c r="AW74" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="AX74" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="AY74" s="27" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="75" spans="2:51" x14ac:dyDescent="0.25">
+      <c r="B75" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="C75" s="131" t="s">
+        <v>306</v>
+      </c>
+      <c r="D75" s="42" t="s">
+        <v>151</v>
+      </c>
+      <c r="E75" s="132" t="s">
+        <v>212</v>
+      </c>
+      <c r="F75" s="46" t="b">
+        <v>0</v>
+      </c>
+      <c r="G75" s="46">
+        <v>1</v>
+      </c>
+      <c r="H75" s="47" t="b">
+        <v>1</v>
+      </c>
+      <c r="I75" s="47" t="s">
+        <v>151</v>
+      </c>
+      <c r="J75" s="47" t="s">
+        <v>151</v>
+      </c>
+      <c r="K75" s="47" t="s">
+        <v>151</v>
+      </c>
+      <c r="L75" s="48" t="s">
+        <v>151</v>
+      </c>
+      <c r="M75" s="48" t="s">
+        <v>151</v>
+      </c>
+      <c r="N75" s="48" t="s">
+        <v>151</v>
+      </c>
+      <c r="O75" s="49" t="s">
+        <v>151</v>
+      </c>
+      <c r="P75" s="49" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q75" s="49" t="s">
+        <v>151</v>
+      </c>
+      <c r="R75" s="50">
+        <v>10</v>
+      </c>
+      <c r="S75" s="51" t="s">
+        <v>254</v>
+      </c>
+      <c r="T75" s="52">
+        <v>0.5</v>
+      </c>
+      <c r="U75" s="53" t="s">
+        <v>299</v>
+      </c>
+      <c r="V75" s="11" t="s">
+        <v>312</v>
+      </c>
+      <c r="W75" s="36" t="b">
+        <v>1</v>
+      </c>
+      <c r="X75" s="36">
+        <v>0</v>
+      </c>
+      <c r="Y75" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z75" s="36">
+        <v>10</v>
+      </c>
+      <c r="AA75" s="54" t="s">
+        <v>151</v>
+      </c>
+      <c r="AB75" s="54" t="s">
+        <v>151</v>
+      </c>
+      <c r="AC75" s="54">
+        <v>2880</v>
+      </c>
+      <c r="AD75" s="27" t="s">
+        <v>214</v>
+      </c>
+      <c r="AE75" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="AF75" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="AG75" s="27">
+        <v>4</v>
+      </c>
+      <c r="AH75" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="AI75" s="83" t="s">
+        <v>151</v>
+      </c>
+      <c r="AJ75" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="AK75" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="AL75" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="AM75" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="AN75" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="AO75" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="AP75" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="AQ75" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="AR75" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="AS75" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="AT75" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="AU75" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="AV75" s="35" t="s">
+        <v>203</v>
+      </c>
+      <c r="AW75" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="AX75" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="AY75" s="27" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="76" spans="2:51" x14ac:dyDescent="0.25">
+      <c r="B76" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="C76" s="133" t="s">
+        <v>307</v>
+      </c>
+      <c r="D76" s="42" t="s">
+        <v>151</v>
+      </c>
+      <c r="E76" s="132" t="s">
+        <v>212</v>
+      </c>
+      <c r="F76" s="46" t="b">
+        <v>0</v>
+      </c>
+      <c r="G76" s="102">
+        <v>1</v>
+      </c>
+      <c r="H76" s="47" t="b">
+        <v>1</v>
+      </c>
+      <c r="I76" s="47" t="s">
+        <v>151</v>
+      </c>
+      <c r="J76" s="47" t="s">
+        <v>151</v>
+      </c>
+      <c r="K76" s="47" t="s">
+        <v>151</v>
+      </c>
+      <c r="L76" s="48" t="s">
+        <v>151</v>
+      </c>
+      <c r="M76" s="48" t="s">
+        <v>151</v>
+      </c>
+      <c r="N76" s="48" t="s">
+        <v>151</v>
+      </c>
+      <c r="O76" s="49" t="s">
+        <v>151</v>
+      </c>
+      <c r="P76" s="49" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q76" s="49" t="s">
+        <v>151</v>
+      </c>
+      <c r="R76" s="50">
+        <v>10</v>
+      </c>
+      <c r="S76" s="107" t="s">
+        <v>254</v>
+      </c>
+      <c r="T76" s="52">
+        <v>0.5</v>
+      </c>
+      <c r="U76" s="109" t="s">
+        <v>300</v>
+      </c>
+      <c r="V76" s="110" t="s">
+        <v>313</v>
+      </c>
+      <c r="W76" s="36" t="b">
+        <v>1</v>
+      </c>
+      <c r="X76" s="36">
+        <v>0</v>
+      </c>
+      <c r="Y76" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z76" s="36">
+        <v>10</v>
+      </c>
+      <c r="AA76" s="54" t="s">
+        <v>151</v>
+      </c>
+      <c r="AB76" s="54" t="s">
+        <v>151</v>
+      </c>
+      <c r="AC76" s="54">
+        <v>2880</v>
+      </c>
+      <c r="AD76" s="27" t="s">
+        <v>214</v>
+      </c>
+      <c r="AE76" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="AF76" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="AG76" s="27">
+        <v>4</v>
+      </c>
+      <c r="AH76" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="AI76" s="83" t="s">
+        <v>151</v>
+      </c>
+      <c r="AJ76" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="AK76" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="AL76" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="AM76" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="AN76" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="AO76" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="AP76" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="AQ76" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="AR76" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="AS76" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="AT76" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="AU76" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="AV76" s="35" t="s">
+        <v>203</v>
+      </c>
+      <c r="AW76" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="AX76" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="AY76" s="27" t="s">
         <v>151</v>
       </c>
     </row>

--- a/Docs/Content/HungryDragonContent_Offers.xlsx
+++ b/Docs/Content/HungryDragonContent_Offers.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2977" uniqueCount="321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2977" uniqueCount="322">
   <si>
     <t>OFFER PACKS DEFINITIONS</t>
   </si>
@@ -978,9 +978,6 @@
     <t>1.26</t>
   </si>
   <si>
-    <t>19:999</t>
-  </si>
-  <si>
     <t>TID_STORE_PACK_SMALLGATCHAPACK</t>
   </si>
   <si>
@@ -991,6 +988,12 @@
   </si>
   <si>
     <t>TID_STORE_PACK_MEGAHCPACKCLASSIC</t>
+  </si>
+  <si>
+    <t>18:999</t>
+  </si>
+  <si>
+    <t>28:999</t>
   </si>
 </sst>
 </file>
@@ -1436,7 +1439,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="149">
+  <cellXfs count="148">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1694,9 +1697,6 @@
     <xf numFmtId="0" fontId="10" fillId="18" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="2" fontId="10" fillId="9" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -1768,12 +1768,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="9" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -1874,264 +1868,17 @@
     <xf numFmtId="49" fontId="9" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="97">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FFDCE6F1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FFDCE6F1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FFDCE6F1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -3049,6 +2796,123 @@
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FFDCE6F1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FFDCE6F1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FFDCE6F1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -4160,6 +4024,122 @@
           <bgColor theme="9" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -4955,6 +4935,26 @@
         <bottom/>
       </border>
     </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -4983,84 +4983,84 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="offerPacksDefinitions" displayName="offerPacksDefinitions" ref="B2:AY76" totalsRowShown="0" headerRowDxfId="96" headerRowBorderDxfId="95" tableBorderDxfId="94">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="offerPacksDefinitions" displayName="offerPacksDefinitions" ref="B2:AY76" totalsRowShown="0" headerRowDxfId="94" headerRowBorderDxfId="93" tableBorderDxfId="92">
   <autoFilter ref="B2:AY76"/>
   <sortState ref="B3:AY76">
     <sortCondition descending="1" ref="F2:F76"/>
   </sortState>
   <tableColumns count="50">
-    <tableColumn id="1" name="{offerPacksDefinitions}" dataDxfId="93"/>
-    <tableColumn id="2" name="[sku]" dataDxfId="92"/>
-    <tableColumn id="45" name="[uniqueId]" dataDxfId="91"/>
-    <tableColumn id="49" name="[type]" dataDxfId="90"/>
-    <tableColumn id="3" name="[enabled]" dataDxfId="89"/>
-    <tableColumn id="39" name="[purchaseLimit]" dataDxfId="88"/>
-    <tableColumn id="38" name="[item1Featured]" dataDxfId="87"/>
-    <tableColumn id="4" name="[item1Type]" dataDxfId="86"/>
-    <tableColumn id="37" name="[item1Amount]" dataDxfId="85"/>
-    <tableColumn id="40" name="[item1Sku]" dataDxfId="84"/>
-    <tableColumn id="5" name="[item2Type]" dataDxfId="83"/>
-    <tableColumn id="41" name="[item2Amount]" dataDxfId="82"/>
-    <tableColumn id="42" name="[item2Sku]" dataDxfId="81"/>
-    <tableColumn id="6" name="[item3Type]" dataDxfId="80"/>
-    <tableColumn id="43" name="[item3Amount]" dataDxfId="79"/>
-    <tableColumn id="44" name="[item3Sku]" dataDxfId="78"/>
-    <tableColumn id="7" name="[order]" dataDxfId="77"/>
-    <tableColumn id="8" name="[refPrice]" dataDxfId="7"/>
-    <tableColumn id="9" name="[discount]" dataDxfId="5"/>
-    <tableColumn id="10" name="[iapSku]" dataDxfId="6"/>
-    <tableColumn id="11" name="[tidName]" dataDxfId="76"/>
-    <tableColumn id="12" name="[featured]" dataDxfId="75"/>
-    <tableColumn id="13" name="[maxViews]" dataDxfId="74"/>
-    <tableColumn id="14" name="[zone]" dataDxfId="73"/>
-    <tableColumn id="15" name="[frequency]" dataDxfId="72"/>
-    <tableColumn id="16" name="[startDate]" dataDxfId="71"/>
-    <tableColumn id="17" name="[endDate]" dataDxfId="70"/>
-    <tableColumn id="46" name="[durationMinutes]" dataDxfId="69"/>
-    <tableColumn id="18" name="[minAppVersion]" dataDxfId="68"/>
-    <tableColumn id="19" name="[countriesAllowed]" dataDxfId="67"/>
-    <tableColumn id="20" name="[countriesExcluded]" dataDxfId="66"/>
-    <tableColumn id="21" name="[gamesPlayed]" dataDxfId="65"/>
-    <tableColumn id="22" name="[payerType]" dataDxfId="64"/>
-    <tableColumn id="23" name="[minSpent]" dataDxfId="63"/>
-    <tableColumn id="50" name="[maxSpent]" dataDxfId="62"/>
-    <tableColumn id="47" name="[minNumberOfPurchases]" dataDxfId="61"/>
-    <tableColumn id="48" name="[minutesSinceLastPurchase]" dataDxfId="60"/>
-    <tableColumn id="24" name="[dragonUnlocked]" dataDxfId="59"/>
-    <tableColumn id="25" name="[dragonOwned]" dataDxfId="58"/>
-    <tableColumn id="26" name="[dragonNotOwned]" dataDxfId="57"/>
-    <tableColumn id="27" name="[scBalanceRange]" dataDxfId="56"/>
-    <tableColumn id="28" name="[hcBalanceRange]" dataDxfId="55"/>
-    <tableColumn id="29" name="[openedEggs]" dataDxfId="54"/>
-    <tableColumn id="30" name="[petsOwnedCount]" dataDxfId="53"/>
-    <tableColumn id="31" name="[petsOwned]" dataDxfId="52"/>
-    <tableColumn id="32" name="[petsNotOwned]" dataDxfId="2"/>
-    <tableColumn id="33" name="[progressionRange]" dataDxfId="0"/>
-    <tableColumn id="34" name="[skinsUnlocked]" dataDxfId="1"/>
-    <tableColumn id="35" name="[skinsOwned]" dataDxfId="51"/>
-    <tableColumn id="36" name="[skinsNotOwned]" dataDxfId="50"/>
+    <tableColumn id="1" name="{offerPacksDefinitions}" dataDxfId="91"/>
+    <tableColumn id="2" name="[sku]" dataDxfId="90"/>
+    <tableColumn id="45" name="[uniqueId]" dataDxfId="89"/>
+    <tableColumn id="49" name="[type]" dataDxfId="88"/>
+    <tableColumn id="3" name="[enabled]" dataDxfId="87"/>
+    <tableColumn id="39" name="[purchaseLimit]" dataDxfId="86"/>
+    <tableColumn id="38" name="[item1Featured]" dataDxfId="85"/>
+    <tableColumn id="4" name="[item1Type]" dataDxfId="84"/>
+    <tableColumn id="37" name="[item1Amount]" dataDxfId="83"/>
+    <tableColumn id="40" name="[item1Sku]" dataDxfId="82"/>
+    <tableColumn id="5" name="[item2Type]" dataDxfId="81"/>
+    <tableColumn id="41" name="[item2Amount]" dataDxfId="80"/>
+    <tableColumn id="42" name="[item2Sku]" dataDxfId="79"/>
+    <tableColumn id="6" name="[item3Type]" dataDxfId="78"/>
+    <tableColumn id="43" name="[item3Amount]" dataDxfId="77"/>
+    <tableColumn id="44" name="[item3Sku]" dataDxfId="76"/>
+    <tableColumn id="7" name="[order]" dataDxfId="75"/>
+    <tableColumn id="8" name="[refPrice]" dataDxfId="74"/>
+    <tableColumn id="9" name="[discount]" dataDxfId="73"/>
+    <tableColumn id="10" name="[iapSku]" dataDxfId="72"/>
+    <tableColumn id="11" name="[tidName]" dataDxfId="71"/>
+    <tableColumn id="12" name="[featured]" dataDxfId="70"/>
+    <tableColumn id="13" name="[maxViews]" dataDxfId="69"/>
+    <tableColumn id="14" name="[zone]" dataDxfId="68"/>
+    <tableColumn id="15" name="[frequency]" dataDxfId="67"/>
+    <tableColumn id="16" name="[startDate]" dataDxfId="66"/>
+    <tableColumn id="17" name="[endDate]" dataDxfId="65"/>
+    <tableColumn id="46" name="[durationMinutes]" dataDxfId="64"/>
+    <tableColumn id="18" name="[minAppVersion]" dataDxfId="63"/>
+    <tableColumn id="19" name="[countriesAllowed]" dataDxfId="62"/>
+    <tableColumn id="20" name="[countriesExcluded]" dataDxfId="61"/>
+    <tableColumn id="21" name="[gamesPlayed]" dataDxfId="60"/>
+    <tableColumn id="22" name="[payerType]" dataDxfId="59"/>
+    <tableColumn id="23" name="[minSpent]" dataDxfId="58"/>
+    <tableColumn id="50" name="[maxSpent]" dataDxfId="57"/>
+    <tableColumn id="47" name="[minNumberOfPurchases]" dataDxfId="56"/>
+    <tableColumn id="48" name="[minutesSinceLastPurchase]" dataDxfId="55"/>
+    <tableColumn id="24" name="[dragonUnlocked]" dataDxfId="54"/>
+    <tableColumn id="25" name="[dragonOwned]" dataDxfId="53"/>
+    <tableColumn id="26" name="[dragonNotOwned]" dataDxfId="52"/>
+    <tableColumn id="27" name="[scBalanceRange]" dataDxfId="51"/>
+    <tableColumn id="28" name="[hcBalanceRange]" dataDxfId="50"/>
+    <tableColumn id="29" name="[openedEggs]" dataDxfId="49"/>
+    <tableColumn id="30" name="[petsOwnedCount]" dataDxfId="48"/>
+    <tableColumn id="31" name="[petsOwned]" dataDxfId="47"/>
+    <tableColumn id="32" name="[petsNotOwned]" dataDxfId="46"/>
+    <tableColumn id="33" name="[progressionRange]" dataDxfId="45"/>
+    <tableColumn id="34" name="[skinsUnlocked]" dataDxfId="44"/>
+    <tableColumn id="35" name="[skinsOwned]" dataDxfId="43"/>
+    <tableColumn id="36" name="[skinsNotOwned]" dataDxfId="42"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="offerPacksDefinitions_OLD" displayName="offerPacksDefinitions_OLD" ref="B4:N44" totalsRowShown="0" headerRowDxfId="24" dataDxfId="22" headerRowBorderDxfId="23" tableBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="offerPacksDefinitions_OLD" displayName="offerPacksDefinitions_OLD" ref="B4:N44" totalsRowShown="0" headerRowDxfId="16" dataDxfId="14" headerRowBorderDxfId="15" tableBorderDxfId="13">
   <autoFilter ref="B4:N44"/>
   <tableColumns count="13">
-    <tableColumn id="1" name="offerPacksDefinitions_OLD" dataDxfId="20"/>
-    <tableColumn id="2" name="[sku]" dataDxfId="19"/>
-    <tableColumn id="15" name="[paramValue]" dataDxfId="18"/>
-    <tableColumn id="7" name="[itemType]" dataDxfId="17"/>
-    <tableColumn id="8" name="[itemAmount]" dataDxfId="16"/>
-    <tableColumn id="9" name="[itemSku]" dataDxfId="15"/>
-    <tableColumn id="23" name="[itemFeatured]" dataDxfId="14"/>
-    <tableColumn id="22" name="[minAppVersion]" dataDxfId="13"/>
-    <tableColumn id="4" name="[order]" dataDxfId="12"/>
-    <tableColumn id="24" name="[refPrice]" dataDxfId="11"/>
-    <tableColumn id="6" name="[discount]" dataDxfId="10"/>
-    <tableColumn id="3" name="[iapSku]" dataDxfId="9"/>
-    <tableColumn id="5" name="[tidName]" dataDxfId="8"/>
+    <tableColumn id="1" name="offerPacksDefinitions_OLD" dataDxfId="12"/>
+    <tableColumn id="2" name="[sku]" dataDxfId="11"/>
+    <tableColumn id="15" name="[paramValue]" dataDxfId="10"/>
+    <tableColumn id="7" name="[itemType]" dataDxfId="9"/>
+    <tableColumn id="8" name="[itemAmount]" dataDxfId="8"/>
+    <tableColumn id="9" name="[itemSku]" dataDxfId="7"/>
+    <tableColumn id="23" name="[itemFeatured]" dataDxfId="6"/>
+    <tableColumn id="22" name="[minAppVersion]" dataDxfId="5"/>
+    <tableColumn id="4" name="[order]" dataDxfId="4"/>
+    <tableColumn id="24" name="[refPrice]" dataDxfId="3"/>
+    <tableColumn id="6" name="[discount]" dataDxfId="2"/>
+    <tableColumn id="3" name="[iapSku]" dataDxfId="1"/>
+    <tableColumn id="5" name="[tidName]" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5365,8 +5365,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AY76"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AH8" sqref="AH8"/>
+    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
+      <selection activeCell="AV7" sqref="AA7:AV7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -5417,35 +5417,35 @@
       <c r="T1" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="AA1" s="114" t="s">
+      <c r="AA1" s="146" t="s">
         <v>101</v>
       </c>
-      <c r="AB1" s="114"/>
+      <c r="AB1" s="146"/>
       <c r="AC1" s="32"/>
-      <c r="AD1" s="115" t="s">
+      <c r="AD1" s="147" t="s">
         <v>100</v>
       </c>
-      <c r="AE1" s="115"/>
-      <c r="AF1" s="115"/>
-      <c r="AG1" s="115"/>
-      <c r="AH1" s="115"/>
-      <c r="AI1" s="115"/>
-      <c r="AJ1" s="115"/>
-      <c r="AK1" s="115"/>
-      <c r="AL1" s="115"/>
-      <c r="AM1" s="115"/>
-      <c r="AN1" s="115"/>
-      <c r="AO1" s="115"/>
-      <c r="AP1" s="115"/>
-      <c r="AQ1" s="115"/>
-      <c r="AR1" s="115"/>
-      <c r="AS1" s="115"/>
-      <c r="AT1" s="115"/>
-      <c r="AU1" s="115"/>
-      <c r="AV1" s="115"/>
-      <c r="AW1" s="115"/>
-      <c r="AX1" s="115"/>
-      <c r="AY1" s="115"/>
+      <c r="AE1" s="147"/>
+      <c r="AF1" s="147"/>
+      <c r="AG1" s="147"/>
+      <c r="AH1" s="147"/>
+      <c r="AI1" s="147"/>
+      <c r="AJ1" s="147"/>
+      <c r="AK1" s="147"/>
+      <c r="AL1" s="147"/>
+      <c r="AM1" s="147"/>
+      <c r="AN1" s="147"/>
+      <c r="AO1" s="147"/>
+      <c r="AP1" s="147"/>
+      <c r="AQ1" s="147"/>
+      <c r="AR1" s="147"/>
+      <c r="AS1" s="147"/>
+      <c r="AT1" s="147"/>
+      <c r="AU1" s="147"/>
+      <c r="AV1" s="147"/>
+      <c r="AW1" s="147"/>
+      <c r="AX1" s="147"/>
+      <c r="AY1" s="147"/>
     </row>
     <row r="2" spans="2:51" ht="149.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
@@ -5634,7 +5634,7 @@
         <v>27</v>
       </c>
       <c r="M3" s="45">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N3" s="45" t="s">
         <v>250</v>
@@ -5649,7 +5649,7 @@
         <v>151</v>
       </c>
       <c r="R3" s="47">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="S3" s="48" t="s">
         <v>126</v>
@@ -5739,7 +5739,7 @@
         <v>151</v>
       </c>
       <c r="AV3" s="34" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="AW3" s="27" t="s">
         <v>151</v>
@@ -5813,7 +5813,7 @@
         <v>107</v>
       </c>
       <c r="V4" s="11" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="W4" s="35" t="b">
         <v>1</v>
@@ -5891,7 +5891,7 @@
         <v>151</v>
       </c>
       <c r="AV4" s="34" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="AW4" s="27" t="s">
         <v>151</v>
@@ -6191,7 +6191,7 @@
         <v>151</v>
       </c>
       <c r="AV6" s="34" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="AW6" s="27" t="s">
         <v>151</v>
@@ -6253,7 +6253,7 @@
         <v>151</v>
       </c>
       <c r="R7" s="47">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="S7" s="48" t="s">
         <v>99</v>
@@ -6415,7 +6415,7 @@
         <v>182</v>
       </c>
       <c r="V8" s="11" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="W8" s="35" t="b">
         <v>1</v>
@@ -6489,7 +6489,7 @@
         <v>151</v>
       </c>
       <c r="AV8" s="34" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="AW8" s="27" t="s">
         <v>151</v>
@@ -6551,7 +6551,7 @@
         <v>151</v>
       </c>
       <c r="R9" s="47">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="S9" s="48" t="s">
         <v>126</v>
@@ -6652,150 +6652,150 @@
       </c>
     </row>
     <row r="10" spans="2:51" x14ac:dyDescent="0.25">
-      <c r="B10" s="132" t="s">
+      <c r="B10" s="129" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="133" t="s">
+      <c r="C10" s="130" t="s">
         <v>173</v>
       </c>
-      <c r="D10" s="134" t="s">
+      <c r="D10" s="131" t="s">
         <v>173</v>
       </c>
-      <c r="E10" s="135" t="s">
+      <c r="E10" s="132" t="s">
         <v>209</v>
       </c>
-      <c r="F10" s="136" t="b">
-        <v>1</v>
-      </c>
-      <c r="G10" s="136">
-        <v>1</v>
-      </c>
-      <c r="H10" s="137" t="b">
-        <v>1</v>
-      </c>
-      <c r="I10" s="137" t="s">
+      <c r="F10" s="133" t="b">
+        <v>1</v>
+      </c>
+      <c r="G10" s="133">
+        <v>1</v>
+      </c>
+      <c r="H10" s="134" t="b">
+        <v>1</v>
+      </c>
+      <c r="I10" s="134" t="s">
         <v>19</v>
       </c>
-      <c r="J10" s="137">
+      <c r="J10" s="134">
         <v>900</v>
       </c>
-      <c r="K10" s="137" t="s">
-        <v>151</v>
-      </c>
-      <c r="L10" s="138" t="s">
+      <c r="K10" s="134" t="s">
+        <v>151</v>
+      </c>
+      <c r="L10" s="135" t="s">
         <v>21</v>
       </c>
-      <c r="M10" s="138">
+      <c r="M10" s="135">
         <v>300000</v>
       </c>
-      <c r="N10" s="138" t="s">
-        <v>151</v>
-      </c>
-      <c r="O10" s="139" t="s">
-        <v>151</v>
-      </c>
-      <c r="P10" s="139" t="s">
-        <v>151</v>
-      </c>
-      <c r="Q10" s="139" t="s">
-        <v>151</v>
-      </c>
-      <c r="R10" s="140">
-        <v>8</v>
-      </c>
-      <c r="S10" s="141" t="s">
+      <c r="N10" s="135" t="s">
+        <v>151</v>
+      </c>
+      <c r="O10" s="136" t="s">
+        <v>151</v>
+      </c>
+      <c r="P10" s="136" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q10" s="136" t="s">
+        <v>151</v>
+      </c>
+      <c r="R10" s="137">
+        <v>9</v>
+      </c>
+      <c r="S10" s="138" t="s">
         <v>127</v>
       </c>
-      <c r="T10" s="142">
+      <c r="T10" s="139">
         <v>-1</v>
       </c>
-      <c r="U10" s="143" t="s">
+      <c r="U10" s="140" t="s">
         <v>186</v>
       </c>
-      <c r="V10" s="144" t="s">
-        <v>320</v>
-      </c>
-      <c r="W10" s="145" t="b">
-        <v>1</v>
-      </c>
-      <c r="X10" s="145">
+      <c r="V10" s="141" t="s">
+        <v>319</v>
+      </c>
+      <c r="W10" s="142" t="b">
+        <v>1</v>
+      </c>
+      <c r="X10" s="142">
         <v>0</v>
       </c>
-      <c r="Y10" s="145" t="s">
+      <c r="Y10" s="142" t="s">
         <v>26</v>
       </c>
-      <c r="Z10" s="145">
+      <c r="Z10" s="142">
         <v>10</v>
       </c>
-      <c r="AA10" s="146"/>
-      <c r="AB10" s="146" t="s">
-        <v>151</v>
-      </c>
-      <c r="AC10" s="146">
+      <c r="AA10" s="143"/>
+      <c r="AB10" s="143" t="s">
+        <v>151</v>
+      </c>
+      <c r="AC10" s="143">
         <v>2880</v>
       </c>
-      <c r="AD10" s="147" t="s">
+      <c r="AD10" s="144" t="s">
         <v>315</v>
       </c>
-      <c r="AE10" s="147" t="s">
-        <v>151</v>
-      </c>
-      <c r="AF10" s="147" t="s">
-        <v>151</v>
-      </c>
-      <c r="AG10" s="147">
+      <c r="AE10" s="144" t="s">
+        <v>151</v>
+      </c>
+      <c r="AF10" s="144" t="s">
+        <v>151</v>
+      </c>
+      <c r="AG10" s="144">
         <v>4</v>
       </c>
-      <c r="AH10" s="147" t="s">
+      <c r="AH10" s="144" t="s">
         <v>190</v>
       </c>
-      <c r="AI10" s="147"/>
-      <c r="AJ10" s="147" t="s">
-        <v>151</v>
-      </c>
-      <c r="AK10" s="147" t="s">
-        <v>151</v>
-      </c>
-      <c r="AL10" s="147" t="s">
-        <v>151</v>
-      </c>
-      <c r="AM10" s="147" t="s">
-        <v>151</v>
-      </c>
-      <c r="AN10" s="147" t="s">
-        <v>151</v>
-      </c>
-      <c r="AO10" s="147" t="s">
-        <v>151</v>
-      </c>
-      <c r="AP10" s="147" t="s">
-        <v>151</v>
-      </c>
-      <c r="AQ10" s="147" t="s">
-        <v>151</v>
-      </c>
-      <c r="AR10" s="147" t="s">
-        <v>151</v>
-      </c>
-      <c r="AS10" s="147" t="s">
-        <v>151</v>
-      </c>
-      <c r="AT10" s="147" t="s">
-        <v>151</v>
-      </c>
-      <c r="AU10" s="147" t="s">
-        <v>151</v>
-      </c>
-      <c r="AV10" s="148" t="s">
-        <v>319</v>
-      </c>
-      <c r="AW10" s="147" t="s">
-        <v>151</v>
-      </c>
-      <c r="AX10" s="147" t="s">
-        <v>151</v>
-      </c>
-      <c r="AY10" s="147" t="s">
+      <c r="AI10" s="144"/>
+      <c r="AJ10" s="144" t="s">
+        <v>151</v>
+      </c>
+      <c r="AK10" s="144" t="s">
+        <v>151</v>
+      </c>
+      <c r="AL10" s="144" t="s">
+        <v>151</v>
+      </c>
+      <c r="AM10" s="144" t="s">
+        <v>151</v>
+      </c>
+      <c r="AN10" s="144" t="s">
+        <v>151</v>
+      </c>
+      <c r="AO10" s="144" t="s">
+        <v>151</v>
+      </c>
+      <c r="AP10" s="144" t="s">
+        <v>151</v>
+      </c>
+      <c r="AQ10" s="144" t="s">
+        <v>151</v>
+      </c>
+      <c r="AR10" s="144" t="s">
+        <v>151</v>
+      </c>
+      <c r="AS10" s="144" t="s">
+        <v>151</v>
+      </c>
+      <c r="AT10" s="144" t="s">
+        <v>151</v>
+      </c>
+      <c r="AU10" s="144" t="s">
+        <v>151</v>
+      </c>
+      <c r="AV10" s="145" t="s">
+        <v>318</v>
+      </c>
+      <c r="AW10" s="144" t="s">
+        <v>151</v>
+      </c>
+      <c r="AX10" s="144" t="s">
+        <v>151</v>
+      </c>
+      <c r="AY10" s="144" t="s">
         <v>151</v>
       </c>
     </row>
@@ -6803,7 +6803,7 @@
       <c r="B11" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="131" t="s">
+      <c r="C11" s="128" t="s">
         <v>214</v>
       </c>
       <c r="D11" s="56" t="s">
@@ -6843,7 +6843,7 @@
       <c r="P11" s="60"/>
       <c r="Q11" s="60"/>
       <c r="R11" s="61">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="S11" s="62" t="s">
         <v>99</v>
@@ -6982,8 +6982,8 @@
       <c r="O12" s="46"/>
       <c r="P12" s="46"/>
       <c r="Q12" s="46"/>
-      <c r="R12" s="47">
-        <v>10</v>
+      <c r="R12" s="61">
+        <v>20</v>
       </c>
       <c r="S12" s="48" t="s">
         <v>99</v>
@@ -7122,8 +7122,8 @@
       <c r="O13" s="46"/>
       <c r="P13" s="46"/>
       <c r="Q13" s="46"/>
-      <c r="R13" s="47">
-        <v>10</v>
+      <c r="R13" s="61">
+        <v>20</v>
       </c>
       <c r="S13" s="48" t="s">
         <v>126</v>
@@ -7262,8 +7262,8 @@
       <c r="O14" s="46"/>
       <c r="P14" s="46"/>
       <c r="Q14" s="46"/>
-      <c r="R14" s="47">
-        <v>10</v>
+      <c r="R14" s="61">
+        <v>20</v>
       </c>
       <c r="S14" s="48" t="s">
         <v>99</v>
@@ -7402,8 +7402,8 @@
       <c r="O15" s="46"/>
       <c r="P15" s="46"/>
       <c r="Q15" s="46"/>
-      <c r="R15" s="47">
-        <v>10</v>
+      <c r="R15" s="61">
+        <v>20</v>
       </c>
       <c r="S15" s="48" t="s">
         <v>125</v>
@@ -7542,8 +7542,8 @@
       <c r="O16" s="46"/>
       <c r="P16" s="46"/>
       <c r="Q16" s="46"/>
-      <c r="R16" s="47">
-        <v>10</v>
+      <c r="R16" s="61">
+        <v>20</v>
       </c>
       <c r="S16" s="48" t="s">
         <v>126</v>
@@ -7692,8 +7692,8 @@
         <v>100</v>
       </c>
       <c r="Q17" s="46"/>
-      <c r="R17" s="47">
-        <v>10</v>
+      <c r="R17" s="61">
+        <v>20</v>
       </c>
       <c r="S17" s="48" t="s">
         <v>99</v>
@@ -7836,8 +7836,8 @@
       <c r="O18" s="46"/>
       <c r="P18" s="46"/>
       <c r="Q18" s="46"/>
-      <c r="R18" s="47">
-        <v>10</v>
+      <c r="R18" s="61">
+        <v>20</v>
       </c>
       <c r="S18" s="48" t="s">
         <v>126</v>
@@ -7980,8 +7980,8 @@
       <c r="O19" s="46"/>
       <c r="P19" s="46"/>
       <c r="Q19" s="46"/>
-      <c r="R19" s="47">
-        <v>10</v>
+      <c r="R19" s="61">
+        <v>20</v>
       </c>
       <c r="S19" s="48" t="s">
         <v>99</v>
@@ -8124,8 +8124,8 @@
       <c r="O20" s="46"/>
       <c r="P20" s="46"/>
       <c r="Q20" s="46"/>
-      <c r="R20" s="47">
-        <v>10</v>
+      <c r="R20" s="61">
+        <v>20</v>
       </c>
       <c r="S20" s="48" t="s">
         <v>125</v>
@@ -8268,8 +8268,8 @@
       <c r="O21" s="46"/>
       <c r="P21" s="46"/>
       <c r="Q21" s="46"/>
-      <c r="R21" s="47">
-        <v>10</v>
+      <c r="R21" s="61">
+        <v>20</v>
       </c>
       <c r="S21" s="48" t="s">
         <v>99</v>
@@ -8412,8 +8412,8 @@
       <c r="O22" s="46"/>
       <c r="P22" s="46"/>
       <c r="Q22" s="46"/>
-      <c r="R22" s="47">
-        <v>10</v>
+      <c r="R22" s="61">
+        <v>20</v>
       </c>
       <c r="S22" s="48" t="s">
         <v>126</v>
@@ -8519,7 +8519,7 @@
       <c r="B23" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="C23" s="119" t="s">
+      <c r="C23" s="116" t="s">
         <v>226</v>
       </c>
       <c r="D23" s="40" t="s">
@@ -8558,8 +8558,8 @@
       <c r="O23" s="46"/>
       <c r="P23" s="46"/>
       <c r="Q23" s="46"/>
-      <c r="R23" s="47">
-        <v>10</v>
+      <c r="R23" s="61">
+        <v>20</v>
       </c>
       <c r="S23" s="48" t="s">
         <v>99</v>
@@ -8665,7 +8665,7 @@
       <c r="B24" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="C24" s="119" t="s">
+      <c r="C24" s="116" t="s">
         <v>227</v>
       </c>
       <c r="D24" s="40" t="s">
@@ -8698,8 +8698,8 @@
       <c r="O24" s="46"/>
       <c r="P24" s="46"/>
       <c r="Q24" s="46"/>
-      <c r="R24" s="47">
-        <v>10</v>
+      <c r="R24" s="61">
+        <v>20</v>
       </c>
       <c r="S24" s="48" t="s">
         <v>99</v>
@@ -8805,7 +8805,7 @@
       <c r="B25" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="C25" s="119" t="s">
+      <c r="C25" s="116" t="s">
         <v>228</v>
       </c>
       <c r="D25" s="40" t="s">
@@ -8838,8 +8838,8 @@
       <c r="O25" s="46"/>
       <c r="P25" s="46"/>
       <c r="Q25" s="46"/>
-      <c r="R25" s="47">
-        <v>10</v>
+      <c r="R25" s="61">
+        <v>20</v>
       </c>
       <c r="S25" s="48" t="s">
         <v>126</v>
@@ -8945,7 +8945,7 @@
       <c r="B26" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="C26" s="119" t="s">
+      <c r="C26" s="116" t="s">
         <v>229</v>
       </c>
       <c r="D26" s="40" t="s">
@@ -8978,8 +8978,8 @@
       <c r="O26" s="46"/>
       <c r="P26" s="46"/>
       <c r="Q26" s="46"/>
-      <c r="R26" s="47">
-        <v>10</v>
+      <c r="R26" s="61">
+        <v>20</v>
       </c>
       <c r="S26" s="48" t="s">
         <v>99</v>
@@ -9085,7 +9085,7 @@
       <c r="B27" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="C27" s="119" t="s">
+      <c r="C27" s="116" t="s">
         <v>230</v>
       </c>
       <c r="D27" s="40" t="s">
@@ -9118,8 +9118,8 @@
       <c r="O27" s="46"/>
       <c r="P27" s="46"/>
       <c r="Q27" s="46"/>
-      <c r="R27" s="47">
-        <v>10</v>
+      <c r="R27" s="61">
+        <v>20</v>
       </c>
       <c r="S27" s="48" t="s">
         <v>126</v>
@@ -9225,7 +9225,7 @@
       <c r="B28" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="C28" s="119" t="s">
+      <c r="C28" s="116" t="s">
         <v>231</v>
       </c>
       <c r="D28" s="40" t="s">
@@ -9258,8 +9258,8 @@
       <c r="O28" s="46"/>
       <c r="P28" s="46"/>
       <c r="Q28" s="46"/>
-      <c r="R28" s="47">
-        <v>10</v>
+      <c r="R28" s="61">
+        <v>20</v>
       </c>
       <c r="S28" s="48" t="s">
         <v>252</v>
@@ -9365,7 +9365,7 @@
       <c r="B29" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="C29" s="119" t="s">
+      <c r="C29" s="116" t="s">
         <v>232</v>
       </c>
       <c r="D29" s="40" t="s">
@@ -9404,8 +9404,8 @@
       <c r="O29" s="46"/>
       <c r="P29" s="46"/>
       <c r="Q29" s="46"/>
-      <c r="R29" s="47">
-        <v>10</v>
+      <c r="R29" s="61">
+        <v>20</v>
       </c>
       <c r="S29" s="48" t="s">
         <v>126</v>
@@ -9511,7 +9511,7 @@
       <c r="B30" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="C30" s="119" t="s">
+      <c r="C30" s="116" t="s">
         <v>233</v>
       </c>
       <c r="D30" s="40" t="s">
@@ -9550,8 +9550,8 @@
       <c r="O30" s="46"/>
       <c r="P30" s="46"/>
       <c r="Q30" s="46"/>
-      <c r="R30" s="47">
-        <v>10</v>
+      <c r="R30" s="61">
+        <v>20</v>
       </c>
       <c r="S30" s="48" t="s">
         <v>127</v>
@@ -9657,7 +9657,7 @@
       <c r="B31" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="C31" s="119" t="s">
+      <c r="C31" s="116" t="s">
         <v>234</v>
       </c>
       <c r="D31" s="40" t="s">
@@ -9690,8 +9690,8 @@
       <c r="O31" s="46"/>
       <c r="P31" s="46"/>
       <c r="Q31" s="46"/>
-      <c r="R31" s="47">
-        <v>10</v>
+      <c r="R31" s="61">
+        <v>20</v>
       </c>
       <c r="S31" s="48" t="s">
         <v>252</v>
@@ -9797,7 +9797,7 @@
       <c r="B32" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="C32" s="119" t="s">
+      <c r="C32" s="116" t="s">
         <v>235</v>
       </c>
       <c r="D32" s="40" t="s">
@@ -9834,8 +9834,8 @@
       <c r="O32" s="46"/>
       <c r="P32" s="46"/>
       <c r="Q32" s="46"/>
-      <c r="R32" s="47">
-        <v>10</v>
+      <c r="R32" s="61">
+        <v>20</v>
       </c>
       <c r="S32" s="48" t="s">
         <v>252</v>
@@ -9941,7 +9941,7 @@
       <c r="B33" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="C33" s="119" t="s">
+      <c r="C33" s="116" t="s">
         <v>236</v>
       </c>
       <c r="D33" s="40" t="s">
@@ -9974,8 +9974,8 @@
       <c r="O33" s="46"/>
       <c r="P33" s="46"/>
       <c r="Q33" s="46"/>
-      <c r="R33" s="47">
-        <v>10</v>
+      <c r="R33" s="61">
+        <v>20</v>
       </c>
       <c r="S33" s="48" t="s">
         <v>99</v>
@@ -10118,252 +10118,252 @@
       <c r="O34" s="88"/>
       <c r="P34" s="88"/>
       <c r="Q34" s="88"/>
-      <c r="R34" s="89">
+      <c r="R34" s="61">
+        <v>20</v>
+      </c>
+      <c r="S34" s="89" t="s">
+        <v>126</v>
+      </c>
+      <c r="T34" s="113">
+        <v>-1</v>
+      </c>
+      <c r="U34" s="90" t="s">
+        <v>278</v>
+      </c>
+      <c r="V34" s="91" t="s">
+        <v>254</v>
+      </c>
+      <c r="W34" s="92" t="b">
+        <v>1</v>
+      </c>
+      <c r="X34" s="92">
+        <v>0</v>
+      </c>
+      <c r="Y34" s="92" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z34" s="92">
         <v>10</v>
       </c>
-      <c r="S34" s="90" t="s">
-        <v>126</v>
-      </c>
-      <c r="T34" s="116">
-        <v>-1</v>
-      </c>
-      <c r="U34" s="91" t="s">
-        <v>278</v>
-      </c>
-      <c r="V34" s="92" t="s">
-        <v>254</v>
-      </c>
-      <c r="W34" s="93" t="b">
-        <v>1</v>
-      </c>
-      <c r="X34" s="93">
-        <v>0</v>
-      </c>
-      <c r="Y34" s="93" t="s">
-        <v>26</v>
-      </c>
-      <c r="Z34" s="93">
-        <v>10</v>
-      </c>
-      <c r="AA34" s="94" t="s">
-        <v>151</v>
-      </c>
-      <c r="AB34" s="94" t="s">
-        <v>151</v>
-      </c>
-      <c r="AC34" s="94">
+      <c r="AA34" s="93" t="s">
+        <v>151</v>
+      </c>
+      <c r="AB34" s="93" t="s">
+        <v>151</v>
+      </c>
+      <c r="AC34" s="93">
         <v>2880</v>
       </c>
-      <c r="AD34" s="95" t="s">
+      <c r="AD34" s="94" t="s">
         <v>212</v>
       </c>
-      <c r="AE34" s="95" t="s">
-        <v>151</v>
-      </c>
-      <c r="AF34" s="95" t="s">
-        <v>151</v>
-      </c>
-      <c r="AG34" s="95">
+      <c r="AE34" s="94" t="s">
+        <v>151</v>
+      </c>
+      <c r="AF34" s="94" t="s">
+        <v>151</v>
+      </c>
+      <c r="AG34" s="94">
         <v>4</v>
       </c>
-      <c r="AH34" s="95" t="s">
+      <c r="AH34" s="94" t="s">
         <v>190</v>
       </c>
-      <c r="AI34" s="95" t="s">
-        <v>151</v>
-      </c>
-      <c r="AJ34" s="95" t="s">
+      <c r="AI34" s="94" t="s">
+        <v>151</v>
+      </c>
+      <c r="AJ34" s="94" t="s">
         <v>127</v>
       </c>
-      <c r="AK34" s="95" t="s">
-        <v>151</v>
-      </c>
-      <c r="AL34" s="95" t="s">
-        <v>151</v>
-      </c>
-      <c r="AM34" s="95" t="s">
-        <v>151</v>
-      </c>
-      <c r="AN34" s="95" t="s">
-        <v>151</v>
-      </c>
-      <c r="AO34" s="95" t="s">
-        <v>151</v>
-      </c>
-      <c r="AP34" s="95" t="s">
-        <v>151</v>
-      </c>
-      <c r="AQ34" s="95" t="s">
-        <v>151</v>
-      </c>
-      <c r="AR34" s="95" t="s">
-        <v>151</v>
-      </c>
-      <c r="AS34" s="95" t="s">
-        <v>151</v>
-      </c>
-      <c r="AT34" s="95" t="s">
-        <v>151</v>
-      </c>
-      <c r="AU34" s="95" t="s">
-        <v>151</v>
-      </c>
-      <c r="AV34" s="117" t="s">
+      <c r="AK34" s="94" t="s">
+        <v>151</v>
+      </c>
+      <c r="AL34" s="94" t="s">
+        <v>151</v>
+      </c>
+      <c r="AM34" s="94" t="s">
+        <v>151</v>
+      </c>
+      <c r="AN34" s="94" t="s">
+        <v>151</v>
+      </c>
+      <c r="AO34" s="94" t="s">
+        <v>151</v>
+      </c>
+      <c r="AP34" s="94" t="s">
+        <v>151</v>
+      </c>
+      <c r="AQ34" s="94" t="s">
+        <v>151</v>
+      </c>
+      <c r="AR34" s="94" t="s">
+        <v>151</v>
+      </c>
+      <c r="AS34" s="94" t="s">
+        <v>151</v>
+      </c>
+      <c r="AT34" s="94" t="s">
+        <v>151</v>
+      </c>
+      <c r="AU34" s="94" t="s">
+        <v>151</v>
+      </c>
+      <c r="AV34" s="114" t="s">
         <v>201</v>
       </c>
-      <c r="AW34" s="95" t="s">
-        <v>151</v>
-      </c>
-      <c r="AX34" s="95" t="s">
-        <v>151</v>
-      </c>
-      <c r="AY34" s="95" t="s">
+      <c r="AW34" s="94" t="s">
+        <v>151</v>
+      </c>
+      <c r="AX34" s="94" t="s">
+        <v>151</v>
+      </c>
+      <c r="AY34" s="94" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="35" spans="2:51" x14ac:dyDescent="0.25">
-      <c r="B35" s="98" t="s">
+      <c r="B35" s="97" t="s">
         <v>3</v>
       </c>
-      <c r="C35" s="126" t="s">
+      <c r="C35" s="123" t="s">
         <v>238</v>
       </c>
-      <c r="D35" s="98" t="s">
-        <v>151</v>
-      </c>
-      <c r="E35" s="98" t="s">
+      <c r="D35" s="97" t="s">
+        <v>151</v>
+      </c>
+      <c r="E35" s="97" t="s">
         <v>211</v>
       </c>
-      <c r="F35" s="99" t="b">
-        <v>1</v>
-      </c>
-      <c r="G35" s="99">
+      <c r="F35" s="98" t="b">
+        <v>1</v>
+      </c>
+      <c r="G35" s="98">
         <v>-1</v>
       </c>
-      <c r="H35" s="100" t="b">
-        <v>1</v>
-      </c>
-      <c r="I35" s="100" t="s">
+      <c r="H35" s="99" t="b">
+        <v>1</v>
+      </c>
+      <c r="I35" s="99" t="s">
         <v>27</v>
       </c>
-      <c r="J35" s="100">
+      <c r="J35" s="99">
         <v>3</v>
       </c>
-      <c r="K35" s="100" t="s">
+      <c r="K35" s="99" t="s">
         <v>250</v>
       </c>
-      <c r="L35" s="101" t="s">
+      <c r="L35" s="100" t="s">
         <v>27</v>
       </c>
-      <c r="M35" s="101">
+      <c r="M35" s="100">
         <v>3</v>
       </c>
-      <c r="N35" s="101" t="s">
+      <c r="N35" s="100" t="s">
         <v>188</v>
       </c>
-      <c r="O35" s="102"/>
-      <c r="P35" s="102"/>
-      <c r="Q35" s="102"/>
-      <c r="R35" s="103">
+      <c r="O35" s="101"/>
+      <c r="P35" s="101"/>
+      <c r="Q35" s="101"/>
+      <c r="R35" s="61">
+        <v>20</v>
+      </c>
+      <c r="S35" s="103" t="s">
+        <v>126</v>
+      </c>
+      <c r="T35" s="95">
+        <v>-1</v>
+      </c>
+      <c r="U35" s="104" t="s">
+        <v>279</v>
+      </c>
+      <c r="V35" s="105" t="s">
+        <v>254</v>
+      </c>
+      <c r="W35" s="106" t="b">
+        <v>1</v>
+      </c>
+      <c r="X35" s="106">
+        <v>0</v>
+      </c>
+      <c r="Y35" s="106" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z35" s="106">
         <v>10</v>
       </c>
-      <c r="S35" s="104" t="s">
-        <v>126</v>
-      </c>
-      <c r="T35" s="96">
-        <v>-1</v>
-      </c>
-      <c r="U35" s="105" t="s">
-        <v>279</v>
-      </c>
-      <c r="V35" s="106" t="s">
-        <v>254</v>
-      </c>
-      <c r="W35" s="107" t="b">
-        <v>1</v>
-      </c>
-      <c r="X35" s="107">
-        <v>0</v>
-      </c>
-      <c r="Y35" s="107" t="s">
-        <v>26</v>
-      </c>
-      <c r="Z35" s="107">
-        <v>10</v>
-      </c>
-      <c r="AA35" s="108" t="s">
-        <v>151</v>
-      </c>
-      <c r="AB35" s="108" t="s">
-        <v>151</v>
-      </c>
-      <c r="AC35" s="108">
+      <c r="AA35" s="107" t="s">
+        <v>151</v>
+      </c>
+      <c r="AB35" s="107" t="s">
+        <v>151</v>
+      </c>
+      <c r="AC35" s="107">
         <v>2880</v>
       </c>
-      <c r="AD35" s="109" t="s">
+      <c r="AD35" s="108" t="s">
         <v>212</v>
       </c>
-      <c r="AE35" s="109" t="s">
-        <v>151</v>
-      </c>
-      <c r="AF35" s="109" t="s">
-        <v>151</v>
-      </c>
-      <c r="AG35" s="109">
+      <c r="AE35" s="108" t="s">
+        <v>151</v>
+      </c>
+      <c r="AF35" s="108" t="s">
+        <v>151</v>
+      </c>
+      <c r="AG35" s="108">
         <v>4</v>
       </c>
-      <c r="AH35" s="109" t="s">
+      <c r="AH35" s="108" t="s">
         <v>190</v>
       </c>
-      <c r="AI35" s="109">
+      <c r="AI35" s="108">
         <v>20</v>
       </c>
-      <c r="AJ35" s="109" t="s">
-        <v>151</v>
-      </c>
-      <c r="AK35" s="109" t="s">
-        <v>151</v>
-      </c>
-      <c r="AL35" s="109" t="s">
-        <v>151</v>
-      </c>
-      <c r="AM35" s="109" t="s">
-        <v>151</v>
-      </c>
-      <c r="AN35" s="109" t="s">
-        <v>151</v>
-      </c>
-      <c r="AO35" s="109" t="s">
-        <v>151</v>
-      </c>
-      <c r="AP35" s="109" t="s">
-        <v>151</v>
-      </c>
-      <c r="AQ35" s="109" t="s">
-        <v>151</v>
-      </c>
-      <c r="AR35" s="109" t="s">
-        <v>151</v>
-      </c>
-      <c r="AS35" s="109" t="s">
-        <v>151</v>
-      </c>
-      <c r="AT35" s="109" t="s">
-        <v>151</v>
-      </c>
-      <c r="AU35" s="109" t="s">
-        <v>151</v>
-      </c>
-      <c r="AV35" s="97" t="s">
+      <c r="AJ35" s="108" t="s">
+        <v>151</v>
+      </c>
+      <c r="AK35" s="108" t="s">
+        <v>151</v>
+      </c>
+      <c r="AL35" s="108" t="s">
+        <v>151</v>
+      </c>
+      <c r="AM35" s="108" t="s">
+        <v>151</v>
+      </c>
+      <c r="AN35" s="108" t="s">
+        <v>151</v>
+      </c>
+      <c r="AO35" s="108" t="s">
+        <v>151</v>
+      </c>
+      <c r="AP35" s="108" t="s">
+        <v>151</v>
+      </c>
+      <c r="AQ35" s="108" t="s">
+        <v>151</v>
+      </c>
+      <c r="AR35" s="108" t="s">
+        <v>151</v>
+      </c>
+      <c r="AS35" s="108" t="s">
+        <v>151</v>
+      </c>
+      <c r="AT35" s="108" t="s">
+        <v>151</v>
+      </c>
+      <c r="AU35" s="108" t="s">
+        <v>151</v>
+      </c>
+      <c r="AV35" s="96" t="s">
         <v>201</v>
       </c>
-      <c r="AW35" s="109" t="s">
-        <v>151</v>
-      </c>
-      <c r="AX35" s="109" t="s">
-        <v>151</v>
-      </c>
-      <c r="AY35" s="109" t="s">
+      <c r="AW35" s="108" t="s">
+        <v>151</v>
+      </c>
+      <c r="AX35" s="108" t="s">
+        <v>151</v>
+      </c>
+      <c r="AY35" s="108" t="s">
         <v>151</v>
       </c>
     </row>
@@ -10371,7 +10371,7 @@
       <c r="B36" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="C36" s="119" t="s">
+      <c r="C36" s="116" t="s">
         <v>239</v>
       </c>
       <c r="D36" s="40" t="s">
@@ -10410,13 +10410,13 @@
       <c r="O36" s="46"/>
       <c r="P36" s="46"/>
       <c r="Q36" s="46"/>
-      <c r="R36" s="47">
-        <v>10</v>
+      <c r="R36" s="61">
+        <v>20</v>
       </c>
       <c r="S36" s="48" t="s">
         <v>127</v>
       </c>
-      <c r="T36" s="96">
+      <c r="T36" s="95">
         <v>-1</v>
       </c>
       <c r="U36" s="50" t="s">
@@ -10517,7 +10517,7 @@
       <c r="B37" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="C37" s="119" t="s">
+      <c r="C37" s="116" t="s">
         <v>240</v>
       </c>
       <c r="D37" s="40" t="s">
@@ -10562,13 +10562,13 @@
       <c r="Q37" s="46" t="s">
         <v>188</v>
       </c>
-      <c r="R37" s="47">
-        <v>10</v>
+      <c r="R37" s="61">
+        <v>20</v>
       </c>
       <c r="S37" s="48" t="s">
         <v>128</v>
       </c>
-      <c r="T37" s="96">
+      <c r="T37" s="95">
         <v>-1</v>
       </c>
       <c r="U37" s="50" t="s">
@@ -10669,7 +10669,7 @@
       <c r="B38" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="C38" s="119" t="s">
+      <c r="C38" s="116" t="s">
         <v>241</v>
       </c>
       <c r="D38" s="40" t="s">
@@ -10702,13 +10702,13 @@
       <c r="O38" s="46"/>
       <c r="P38" s="46"/>
       <c r="Q38" s="46"/>
-      <c r="R38" s="47">
-        <v>10</v>
+      <c r="R38" s="61">
+        <v>20</v>
       </c>
       <c r="S38" s="48" t="s">
         <v>128</v>
       </c>
-      <c r="T38" s="96">
+      <c r="T38" s="95">
         <v>-1</v>
       </c>
       <c r="U38" s="50" t="s">
@@ -10809,7 +10809,7 @@
       <c r="B39" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="C39" s="119" t="s">
+      <c r="C39" s="116" t="s">
         <v>242</v>
       </c>
       <c r="D39" s="40" t="s">
@@ -10842,13 +10842,13 @@
       <c r="O39" s="46"/>
       <c r="P39" s="46"/>
       <c r="Q39" s="46"/>
-      <c r="R39" s="47">
-        <v>10</v>
+      <c r="R39" s="61">
+        <v>20</v>
       </c>
       <c r="S39" s="48" t="s">
         <v>129</v>
       </c>
-      <c r="T39" s="96">
+      <c r="T39" s="95">
         <v>-1</v>
       </c>
       <c r="U39" s="50" t="s">
@@ -10949,7 +10949,7 @@
       <c r="B40" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="C40" s="119" t="s">
+      <c r="C40" s="116" t="s">
         <v>243</v>
       </c>
       <c r="D40" s="40" t="s">
@@ -10982,13 +10982,13 @@
       <c r="O40" s="46"/>
       <c r="P40" s="46"/>
       <c r="Q40" s="46"/>
-      <c r="R40" s="47">
-        <v>10</v>
+      <c r="R40" s="61">
+        <v>20</v>
       </c>
       <c r="S40" s="48" t="s">
         <v>127</v>
       </c>
-      <c r="T40" s="96">
+      <c r="T40" s="95">
         <v>-1</v>
       </c>
       <c r="U40" s="50" t="s">
@@ -11089,7 +11089,7 @@
       <c r="B41" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="C41" s="119" t="s">
+      <c r="C41" s="116" t="s">
         <v>244</v>
       </c>
       <c r="D41" s="40" t="s">
@@ -11132,13 +11132,13 @@
         <v>100</v>
       </c>
       <c r="Q41" s="46"/>
-      <c r="R41" s="47">
-        <v>10</v>
+      <c r="R41" s="61">
+        <v>20</v>
       </c>
       <c r="S41" s="48" t="s">
         <v>127</v>
       </c>
-      <c r="T41" s="96">
+      <c r="T41" s="95">
         <v>-1</v>
       </c>
       <c r="U41" s="50" t="s">
@@ -11239,7 +11239,7 @@
       <c r="B42" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="C42" s="119" t="s">
+      <c r="C42" s="116" t="s">
         <v>245</v>
       </c>
       <c r="D42" s="40" t="s">
@@ -11282,13 +11282,13 @@
         <v>250</v>
       </c>
       <c r="Q42" s="46"/>
-      <c r="R42" s="47">
-        <v>10</v>
+      <c r="R42" s="61">
+        <v>20</v>
       </c>
       <c r="S42" s="48" t="s">
         <v>253</v>
       </c>
-      <c r="T42" s="96">
+      <c r="T42" s="95">
         <v>-1</v>
       </c>
       <c r="U42" s="50" t="s">
@@ -11389,7 +11389,7 @@
       <c r="B43" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="C43" s="119" t="s">
+      <c r="C43" s="116" t="s">
         <v>246</v>
       </c>
       <c r="D43" s="40" t="s">
@@ -11432,13 +11432,13 @@
         <v>500</v>
       </c>
       <c r="Q43" s="46"/>
-      <c r="R43" s="47">
-        <v>10</v>
+      <c r="R43" s="61">
+        <v>20</v>
       </c>
       <c r="S43" s="48" t="s">
         <v>129</v>
       </c>
-      <c r="T43" s="96">
+      <c r="T43" s="95">
         <v>-1</v>
       </c>
       <c r="U43" s="50" t="s">
@@ -11539,7 +11539,7 @@
       <c r="B44" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="C44" s="119" t="s">
+      <c r="C44" s="116" t="s">
         <v>247</v>
       </c>
       <c r="D44" s="40" t="s">
@@ -11576,13 +11576,13 @@
       <c r="O44" s="46"/>
       <c r="P44" s="46"/>
       <c r="Q44" s="46"/>
-      <c r="R44" s="47">
-        <v>10</v>
+      <c r="R44" s="61">
+        <v>20</v>
       </c>
       <c r="S44" s="48" t="s">
         <v>127</v>
       </c>
-      <c r="T44" s="96">
+      <c r="T44" s="95">
         <v>-1</v>
       </c>
       <c r="U44" s="50" t="s">
@@ -11683,7 +11683,7 @@
       <c r="B45" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="C45" s="119" t="s">
+      <c r="C45" s="116" t="s">
         <v>248</v>
       </c>
       <c r="D45" s="40" t="s">
@@ -11716,13 +11716,13 @@
       <c r="O45" s="46"/>
       <c r="P45" s="46"/>
       <c r="Q45" s="46"/>
-      <c r="R45" s="47">
-        <v>10</v>
+      <c r="R45" s="61">
+        <v>20</v>
       </c>
       <c r="S45" s="48" t="s">
         <v>128</v>
       </c>
-      <c r="T45" s="96">
+      <c r="T45" s="95">
         <v>-1</v>
       </c>
       <c r="U45" s="50" t="s">
@@ -11823,7 +11823,7 @@
       <c r="B46" s="70" t="s">
         <v>3</v>
       </c>
-      <c r="C46" s="110" t="s">
+      <c r="C46" s="109" t="s">
         <v>249</v>
       </c>
       <c r="D46" s="70" t="s">
@@ -11860,13 +11860,13 @@
       <c r="O46" s="74"/>
       <c r="P46" s="74"/>
       <c r="Q46" s="74"/>
-      <c r="R46" s="75">
-        <v>10</v>
+      <c r="R46" s="61">
+        <v>20</v>
       </c>
       <c r="S46" s="76" t="s">
         <v>253</v>
       </c>
-      <c r="T46" s="96">
+      <c r="T46" s="95">
         <v>-1</v>
       </c>
       <c r="U46" s="77" t="s">
@@ -11964,154 +11964,154 @@
       </c>
     </row>
     <row r="47" spans="2:51" x14ac:dyDescent="0.25">
-      <c r="B47" s="118" t="s">
+      <c r="B47" s="115" t="s">
         <v>3</v>
       </c>
-      <c r="C47" s="129" t="s">
+      <c r="C47" s="126" t="s">
         <v>170</v>
       </c>
-      <c r="D47" s="130" t="s">
+      <c r="D47" s="127" t="s">
         <v>196</v>
       </c>
-      <c r="E47" s="98" t="s">
+      <c r="E47" s="97" t="s">
         <v>209</v>
       </c>
-      <c r="F47" s="99" t="b">
+      <c r="F47" s="98" t="b">
         <v>0</v>
       </c>
-      <c r="G47" s="99">
-        <v>1</v>
-      </c>
-      <c r="H47" s="100" t="b">
-        <v>1</v>
-      </c>
-      <c r="I47" s="100" t="s">
+      <c r="G47" s="98">
+        <v>1</v>
+      </c>
+      <c r="H47" s="99" t="b">
+        <v>1</v>
+      </c>
+      <c r="I47" s="99" t="s">
         <v>19</v>
       </c>
-      <c r="J47" s="100">
+      <c r="J47" s="99">
         <v>100</v>
       </c>
-      <c r="K47" s="100" t="s">
-        <v>151</v>
-      </c>
-      <c r="L47" s="101" t="s">
+      <c r="K47" s="99" t="s">
+        <v>151</v>
+      </c>
+      <c r="L47" s="100" t="s">
         <v>21</v>
       </c>
-      <c r="M47" s="101">
+      <c r="M47" s="100">
         <v>100000</v>
       </c>
-      <c r="N47" s="101" t="s">
-        <v>151</v>
-      </c>
-      <c r="O47" s="102" t="s">
-        <v>151</v>
-      </c>
-      <c r="P47" s="102" t="s">
-        <v>151</v>
-      </c>
-      <c r="Q47" s="102" t="s">
-        <v>151</v>
-      </c>
-      <c r="R47" s="103">
+      <c r="N47" s="100" t="s">
+        <v>151</v>
+      </c>
+      <c r="O47" s="101" t="s">
+        <v>151</v>
+      </c>
+      <c r="P47" s="101" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q47" s="101" t="s">
+        <v>151</v>
+      </c>
+      <c r="R47" s="102">
         <v>2</v>
       </c>
-      <c r="S47" s="104" t="s">
+      <c r="S47" s="103" t="s">
         <v>99</v>
       </c>
-      <c r="T47" s="96" t="s">
+      <c r="T47" s="95" t="s">
         <v>177</v>
       </c>
-      <c r="U47" s="105" t="s">
+      <c r="U47" s="104" t="s">
         <v>183</v>
       </c>
-      <c r="V47" s="106" t="s">
+      <c r="V47" s="105" t="s">
         <v>45</v>
       </c>
-      <c r="W47" s="107" t="b">
-        <v>1</v>
-      </c>
-      <c r="X47" s="107">
+      <c r="W47" s="106" t="b">
+        <v>1</v>
+      </c>
+      <c r="X47" s="106">
         <v>0</v>
       </c>
-      <c r="Y47" s="107" t="s">
+      <c r="Y47" s="106" t="s">
         <v>26</v>
       </c>
-      <c r="Z47" s="107">
+      <c r="Z47" s="106">
         <v>10</v>
       </c>
-      <c r="AA47" s="108">
+      <c r="AA47" s="107">
         <v>1526342400</v>
       </c>
-      <c r="AB47" s="108" t="s">
-        <v>151</v>
-      </c>
-      <c r="AC47" s="108">
+      <c r="AB47" s="107" t="s">
+        <v>151</v>
+      </c>
+      <c r="AC47" s="107">
         <v>1440</v>
       </c>
-      <c r="AD47" s="109" t="s">
+      <c r="AD47" s="108" t="s">
         <v>197</v>
       </c>
-      <c r="AE47" s="109" t="s">
-        <v>151</v>
-      </c>
-      <c r="AF47" s="109" t="s">
-        <v>151</v>
-      </c>
-      <c r="AG47" s="109">
+      <c r="AE47" s="108" t="s">
+        <v>151</v>
+      </c>
+      <c r="AF47" s="108" t="s">
+        <v>151</v>
+      </c>
+      <c r="AG47" s="108">
         <v>4</v>
       </c>
-      <c r="AH47" s="109" t="s">
+      <c r="AH47" s="108" t="s">
         <v>190</v>
       </c>
-      <c r="AI47" s="109">
+      <c r="AI47" s="108">
         <v>5</v>
       </c>
-      <c r="AJ47" s="109" t="s">
-        <v>151</v>
-      </c>
-      <c r="AK47" s="109" t="s">
-        <v>151</v>
-      </c>
-      <c r="AL47" s="109" t="s">
-        <v>151</v>
-      </c>
-      <c r="AM47" s="109" t="s">
-        <v>151</v>
-      </c>
-      <c r="AN47" s="109" t="s">
-        <v>151</v>
-      </c>
-      <c r="AO47" s="109" t="s">
-        <v>151</v>
-      </c>
-      <c r="AP47" s="109" t="s">
-        <v>151</v>
-      </c>
-      <c r="AQ47" s="109" t="s">
-        <v>151</v>
-      </c>
-      <c r="AR47" s="109" t="s">
-        <v>151</v>
-      </c>
-      <c r="AS47" s="109" t="s">
-        <v>151</v>
-      </c>
-      <c r="AT47" s="109" t="s">
-        <v>151</v>
-      </c>
-      <c r="AU47" s="109" t="s">
-        <v>151</v>
-      </c>
-      <c r="AV47" s="97" t="s">
+      <c r="AJ47" s="108" t="s">
+        <v>151</v>
+      </c>
+      <c r="AK47" s="108" t="s">
+        <v>151</v>
+      </c>
+      <c r="AL47" s="108" t="s">
+        <v>151</v>
+      </c>
+      <c r="AM47" s="108" t="s">
+        <v>151</v>
+      </c>
+      <c r="AN47" s="108" t="s">
+        <v>151</v>
+      </c>
+      <c r="AO47" s="108" t="s">
+        <v>151</v>
+      </c>
+      <c r="AP47" s="108" t="s">
+        <v>151</v>
+      </c>
+      <c r="AQ47" s="108" t="s">
+        <v>151</v>
+      </c>
+      <c r="AR47" s="108" t="s">
+        <v>151</v>
+      </c>
+      <c r="AS47" s="108" t="s">
+        <v>151</v>
+      </c>
+      <c r="AT47" s="108" t="s">
+        <v>151</v>
+      </c>
+      <c r="AU47" s="108" t="s">
+        <v>151</v>
+      </c>
+      <c r="AV47" s="96" t="s">
         <v>193</v>
       </c>
-      <c r="AW47" s="109" t="s">
-        <v>151</v>
-      </c>
-      <c r="AX47" s="109" t="s">
-        <v>151</v>
-      </c>
-      <c r="AY47" s="109" t="s">
+      <c r="AW47" s="108" t="s">
+        <v>151</v>
+      </c>
+      <c r="AX47" s="108" t="s">
+        <v>151</v>
+      </c>
+      <c r="AY47" s="108" t="s">
         <v>151</v>
       </c>
     </row>
@@ -12119,7 +12119,7 @@
       <c r="B48" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="C48" s="120" t="s">
+      <c r="C48" s="117" t="s">
         <v>130</v>
       </c>
       <c r="D48" s="38" t="s">
@@ -12143,7 +12143,7 @@
       <c r="J48" s="44">
         <v>3</v>
       </c>
-      <c r="K48" s="100" t="s">
+      <c r="K48" s="99" t="s">
         <v>188</v>
       </c>
       <c r="L48" s="45" t="s">
@@ -12170,7 +12170,7 @@
       <c r="S48" s="48" t="s">
         <v>125</v>
       </c>
-      <c r="T48" s="96">
+      <c r="T48" s="95">
         <v>0.85</v>
       </c>
       <c r="U48" s="50" t="s">
@@ -12271,7 +12271,7 @@
       <c r="B49" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="C49" s="120" t="s">
+      <c r="C49" s="117" t="s">
         <v>134</v>
       </c>
       <c r="D49" s="38" t="s">
@@ -12322,7 +12322,7 @@
       <c r="S49" s="48" t="s">
         <v>99</v>
       </c>
-      <c r="T49" s="96">
+      <c r="T49" s="95">
         <v>0.7</v>
       </c>
       <c r="U49" s="50" t="s">
@@ -12421,7 +12421,7 @@
       <c r="B50" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="C50" s="120" t="s">
+      <c r="C50" s="117" t="s">
         <v>136</v>
       </c>
       <c r="D50" s="38" t="s">
@@ -12472,7 +12472,7 @@
       <c r="S50" s="48" t="s">
         <v>125</v>
       </c>
-      <c r="T50" s="96">
+      <c r="T50" s="95">
         <v>0.5</v>
       </c>
       <c r="U50" s="50" t="s">
@@ -12573,7 +12573,7 @@
       <c r="B51" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="C51" s="120" t="s">
+      <c r="C51" s="117" t="s">
         <v>137</v>
       </c>
       <c r="D51" s="38" t="s">
@@ -12624,7 +12624,7 @@
       <c r="S51" s="48" t="s">
         <v>99</v>
       </c>
-      <c r="T51" s="96">
+      <c r="T51" s="95">
         <v>0.5</v>
       </c>
       <c r="U51" s="50" t="s">
@@ -12725,7 +12725,7 @@
       <c r="B52" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="C52" s="120" t="s">
+      <c r="C52" s="117" t="s">
         <v>138</v>
       </c>
       <c r="D52" s="38" t="s">
@@ -12776,7 +12776,7 @@
       <c r="S52" s="48" t="s">
         <v>126</v>
       </c>
-      <c r="T52" s="96">
+      <c r="T52" s="95">
         <v>0.5</v>
       </c>
       <c r="U52" s="50" t="s">
@@ -12877,7 +12877,7 @@
       <c r="B53" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="C53" s="120" t="s">
+      <c r="C53" s="117" t="s">
         <v>139</v>
       </c>
       <c r="D53" s="38" t="s">
@@ -12928,7 +12928,7 @@
       <c r="S53" s="48" t="s">
         <v>125</v>
       </c>
-      <c r="T53" s="96">
+      <c r="T53" s="95">
         <v>0.5</v>
       </c>
       <c r="U53" s="50" t="s">
@@ -13029,7 +13029,7 @@
       <c r="B54" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="C54" s="120" t="s">
+      <c r="C54" s="117" t="s">
         <v>140</v>
       </c>
       <c r="D54" s="38" t="s">
@@ -13080,7 +13080,7 @@
       <c r="S54" s="48" t="s">
         <v>99</v>
       </c>
-      <c r="T54" s="96">
+      <c r="T54" s="95">
         <v>0.5</v>
       </c>
       <c r="U54" s="50" t="s">
@@ -13181,7 +13181,7 @@
       <c r="B55" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="C55" s="120" t="s">
+      <c r="C55" s="117" t="s">
         <v>141</v>
       </c>
       <c r="D55" s="38" t="s">
@@ -13232,7 +13232,7 @@
       <c r="S55" s="48" t="s">
         <v>126</v>
       </c>
-      <c r="T55" s="96">
+      <c r="T55" s="95">
         <v>0.5</v>
       </c>
       <c r="U55" s="50" t="s">
@@ -13333,7 +13333,7 @@
       <c r="B56" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="C56" s="120" t="s">
+      <c r="C56" s="117" t="s">
         <v>142</v>
       </c>
       <c r="D56" s="38" t="s">
@@ -13384,7 +13384,7 @@
       <c r="S56" s="48" t="s">
         <v>127</v>
       </c>
-      <c r="T56" s="96">
+      <c r="T56" s="95">
         <v>0.5</v>
       </c>
       <c r="U56" s="50" t="s">
@@ -13485,7 +13485,7 @@
       <c r="B57" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="C57" s="120" t="s">
+      <c r="C57" s="117" t="s">
         <v>143</v>
       </c>
       <c r="D57" s="38" t="s">
@@ -13536,7 +13536,7 @@
       <c r="S57" s="48" t="s">
         <v>128</v>
       </c>
-      <c r="T57" s="96">
+      <c r="T57" s="95">
         <v>0.5</v>
       </c>
       <c r="U57" s="50" t="s">
@@ -13634,13 +13634,13 @@
       </c>
     </row>
     <row r="58" spans="2:51" x14ac:dyDescent="0.25">
-      <c r="B58" s="121" t="s">
+      <c r="B58" s="118" t="s">
         <v>3</v>
       </c>
-      <c r="C58" s="123" t="s">
+      <c r="C58" s="120" t="s">
         <v>144</v>
       </c>
-      <c r="D58" s="127" t="s">
+      <c r="D58" s="124" t="s">
         <v>151</v>
       </c>
       <c r="E58" s="70" t="s">
@@ -13688,7 +13688,7 @@
       <c r="S58" s="76" t="s">
         <v>129</v>
       </c>
-      <c r="T58" s="96">
+      <c r="T58" s="95">
         <v>0.5</v>
       </c>
       <c r="U58" s="77" t="s">
@@ -13786,13 +13786,13 @@
       </c>
     </row>
     <row r="59" spans="2:51" x14ac:dyDescent="0.25">
-      <c r="B59" s="122" t="s">
+      <c r="B59" s="119" t="s">
         <v>3</v>
       </c>
-      <c r="C59" s="125" t="s">
+      <c r="C59" s="122" t="s">
         <v>145</v>
       </c>
-      <c r="D59" s="128" t="s">
+      <c r="D59" s="125" t="s">
         <v>151</v>
       </c>
       <c r="E59" s="56" t="s">
@@ -13840,7 +13840,7 @@
       <c r="S59" s="62" t="s">
         <v>125</v>
       </c>
-      <c r="T59" s="96">
+      <c r="T59" s="95">
         <v>0.5</v>
       </c>
       <c r="U59" s="64" t="s">
@@ -13941,7 +13941,7 @@
       <c r="B60" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="C60" s="120" t="s">
+      <c r="C60" s="117" t="s">
         <v>146</v>
       </c>
       <c r="D60" s="38" t="s">
@@ -13992,7 +13992,7 @@
       <c r="S60" s="48" t="s">
         <v>99</v>
       </c>
-      <c r="T60" s="96">
+      <c r="T60" s="95">
         <v>0.5</v>
       </c>
       <c r="U60" s="50" t="s">
@@ -14093,7 +14093,7 @@
       <c r="B61" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="C61" s="120" t="s">
+      <c r="C61" s="117" t="s">
         <v>147</v>
       </c>
       <c r="D61" s="38" t="s">
@@ -14144,7 +14144,7 @@
       <c r="S61" s="48" t="s">
         <v>126</v>
       </c>
-      <c r="T61" s="96">
+      <c r="T61" s="95">
         <v>0.5</v>
       </c>
       <c r="U61" s="50" t="s">
@@ -14245,7 +14245,7 @@
       <c r="B62" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="C62" s="120" t="s">
+      <c r="C62" s="117" t="s">
         <v>148</v>
       </c>
       <c r="D62" s="38" t="s">
@@ -14296,7 +14296,7 @@
       <c r="S62" s="48" t="s">
         <v>127</v>
       </c>
-      <c r="T62" s="96">
+      <c r="T62" s="95">
         <v>0.5</v>
       </c>
       <c r="U62" s="50" t="s">
@@ -14397,7 +14397,7 @@
       <c r="B63" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="C63" s="120" t="s">
+      <c r="C63" s="117" t="s">
         <v>149</v>
       </c>
       <c r="D63" s="38" t="s">
@@ -14448,7 +14448,7 @@
       <c r="S63" s="48" t="s">
         <v>128</v>
       </c>
-      <c r="T63" s="96">
+      <c r="T63" s="95">
         <v>0.5</v>
       </c>
       <c r="U63" s="50" t="s">
@@ -14549,7 +14549,7 @@
       <c r="B64" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="C64" s="124" t="s">
+      <c r="C64" s="121" t="s">
         <v>150</v>
       </c>
       <c r="D64" s="38" t="s">
@@ -14600,7 +14600,7 @@
       <c r="S64" s="48" t="s">
         <v>129</v>
       </c>
-      <c r="T64" s="96">
+      <c r="T64" s="95">
         <v>0.5</v>
       </c>
       <c r="U64" s="50" t="s">
@@ -14701,7 +14701,7 @@
       <c r="B65" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="C65" s="124" t="s">
+      <c r="C65" s="121" t="s">
         <v>165</v>
       </c>
       <c r="D65" s="38" t="s">
@@ -14752,7 +14752,7 @@
       <c r="S65" s="48" t="s">
         <v>99</v>
       </c>
-      <c r="T65" s="96" t="s">
+      <c r="T65" s="95" t="s">
         <v>174</v>
       </c>
       <c r="U65" s="50" t="s">
@@ -14851,7 +14851,7 @@
       <c r="B66" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="C66" s="124" t="s">
+      <c r="C66" s="121" t="s">
         <v>167</v>
       </c>
       <c r="D66" s="39" t="s">
@@ -14902,7 +14902,7 @@
       <c r="S66" s="48" t="s">
         <v>99</v>
       </c>
-      <c r="T66" s="96" t="s">
+      <c r="T66" s="95" t="s">
         <v>177</v>
       </c>
       <c r="U66" s="50" t="s">
@@ -15003,7 +15003,7 @@
       <c r="B67" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="C67" s="124" t="s">
+      <c r="C67" s="121" t="s">
         <v>168</v>
       </c>
       <c r="D67" s="39" t="s">
@@ -15050,7 +15050,7 @@
       <c r="S67" s="48" t="s">
         <v>125</v>
       </c>
-      <c r="T67" s="96">
+      <c r="T67" s="95">
         <v>-1</v>
       </c>
       <c r="U67" s="50" t="s">
@@ -15151,7 +15151,7 @@
       <c r="B68" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="C68" s="124" t="s">
+      <c r="C68" s="121" t="s">
         <v>171</v>
       </c>
       <c r="D68" s="39" t="s">
@@ -15202,7 +15202,7 @@
       <c r="S68" s="48" t="s">
         <v>99</v>
       </c>
-      <c r="T68" s="96" t="s">
+      <c r="T68" s="95" t="s">
         <v>174</v>
       </c>
       <c r="U68" s="50" t="s">
@@ -15303,7 +15303,7 @@
       <c r="B69" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="C69" s="124" t="s">
+      <c r="C69" s="121" t="s">
         <v>203</v>
       </c>
       <c r="D69" s="38" t="s">
@@ -15346,7 +15346,7 @@
       <c r="S69" s="48">
         <v>4.99</v>
       </c>
-      <c r="T69" s="96" t="s">
+      <c r="T69" s="95" t="s">
         <v>175</v>
       </c>
       <c r="U69" s="50" t="s">
@@ -15480,7 +15480,7 @@
       <c r="S70" s="48">
         <v>1.99</v>
       </c>
-      <c r="T70" s="96" t="s">
+      <c r="T70" s="95" t="s">
         <v>175</v>
       </c>
       <c r="U70" s="50" t="s">
@@ -15581,13 +15581,13 @@
       <c r="B71" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="C71" s="111" t="s">
+      <c r="C71" s="110" t="s">
         <v>298</v>
       </c>
       <c r="D71" s="40" t="s">
         <v>151</v>
       </c>
-      <c r="E71" s="112" t="s">
+      <c r="E71" s="111" t="s">
         <v>210</v>
       </c>
       <c r="F71" s="43" t="b">
@@ -15733,13 +15733,13 @@
       <c r="B72" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="C72" s="111" t="s">
+      <c r="C72" s="110" t="s">
         <v>299</v>
       </c>
       <c r="D72" s="40" t="s">
         <v>151</v>
       </c>
-      <c r="E72" s="112" t="s">
+      <c r="E72" s="111" t="s">
         <v>210</v>
       </c>
       <c r="F72" s="43" t="b">
@@ -15885,13 +15885,13 @@
       <c r="B73" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="C73" s="111" t="s">
+      <c r="C73" s="110" t="s">
         <v>300</v>
       </c>
       <c r="D73" s="40" t="s">
         <v>151</v>
       </c>
-      <c r="E73" s="112" t="s">
+      <c r="E73" s="111" t="s">
         <v>210</v>
       </c>
       <c r="F73" s="43" t="b">
@@ -16037,13 +16037,13 @@
       <c r="B74" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="C74" s="111" t="s">
+      <c r="C74" s="110" t="s">
         <v>301</v>
       </c>
       <c r="D74" s="40" t="s">
         <v>151</v>
       </c>
-      <c r="E74" s="112" t="s">
+      <c r="E74" s="111" t="s">
         <v>210</v>
       </c>
       <c r="F74" s="43" t="b">
@@ -16189,13 +16189,13 @@
       <c r="B75" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="C75" s="111" t="s">
+      <c r="C75" s="110" t="s">
         <v>302</v>
       </c>
       <c r="D75" s="40" t="s">
         <v>151</v>
       </c>
-      <c r="E75" s="112" t="s">
+      <c r="E75" s="111" t="s">
         <v>210</v>
       </c>
       <c r="F75" s="43" t="b">
@@ -16341,13 +16341,13 @@
       <c r="B76" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="C76" s="113" t="s">
+      <c r="C76" s="112" t="s">
         <v>303</v>
       </c>
       <c r="D76" s="40" t="s">
         <v>151</v>
       </c>
-      <c r="E76" s="112" t="s">
+      <c r="E76" s="111" t="s">
         <v>210</v>
       </c>
       <c r="F76" s="43" t="b">
@@ -16389,16 +16389,16 @@
       <c r="R76" s="47">
         <v>10</v>
       </c>
-      <c r="S76" s="90" t="s">
+      <c r="S76" s="89" t="s">
         <v>252</v>
       </c>
       <c r="T76" s="49">
         <v>0.5</v>
       </c>
-      <c r="U76" s="91" t="s">
+      <c r="U76" s="90" t="s">
         <v>296</v>
       </c>
-      <c r="V76" s="92" t="s">
+      <c r="V76" s="91" t="s">
         <v>309</v>
       </c>
       <c r="W76" s="35" t="b">
@@ -16495,10 +16495,10 @@
     <mergeCell ref="AD1:AY1"/>
   </mergeCells>
   <conditionalFormatting sqref="F3:F76">
-    <cfRule type="containsText" dxfId="3" priority="2" operator="containsText" text="FALSE">
+    <cfRule type="containsText" dxfId="96" priority="2" operator="containsText" text="FALSE">
       <formula>NOT(ISERROR(SEARCH("FALSE",F3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="1" operator="containsText" text="TRUE">
+    <cfRule type="containsText" dxfId="95" priority="1" operator="containsText" text="TRUE">
       <formula>NOT(ISERROR(SEARCH("TRUE",F3)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17539,127 +17539,127 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="I5:N13 I15:N25 I38:N44">
-    <cfRule type="expression" dxfId="49" priority="27">
+    <cfRule type="expression" dxfId="41" priority="27">
       <formula>$B5&lt;&gt;"&lt;Definition&gt;"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E5:H13 F24:H24 E15:H23 E25:H25 E38:H44">
-    <cfRule type="expression" dxfId="48" priority="26">
+    <cfRule type="expression" dxfId="40" priority="26">
       <formula>$B5&lt;&gt;"&lt;Item&gt;"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5:D13 D15 D38:D44">
-    <cfRule type="expression" dxfId="47" priority="25">
+    <cfRule type="expression" dxfId="39" priority="25">
       <formula>$B5&lt;&gt;"&lt;Param&gt;"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16:D25">
-    <cfRule type="expression" dxfId="46" priority="22">
+    <cfRule type="expression" dxfId="38" priority="22">
       <formula>$B16&lt;&gt;"&lt;Param&gt;"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B24:D24 F24:L24 B5:N13 B15:L23 B25:L25 M15:N25 B38:N44">
-    <cfRule type="expression" dxfId="45" priority="21">
+    <cfRule type="expression" dxfId="37" priority="21">
       <formula>$B5="&lt;Definition&gt;"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E24">
-    <cfRule type="expression" dxfId="44" priority="20">
+    <cfRule type="expression" dxfId="36" priority="20">
       <formula>$B24&lt;&gt;"&lt;Item&gt;"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E24">
-    <cfRule type="expression" dxfId="43" priority="19">
+    <cfRule type="expression" dxfId="35" priority="19">
       <formula>$B24="&lt;Definition&gt;"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I14:N14">
-    <cfRule type="expression" dxfId="42" priority="18">
+    <cfRule type="expression" dxfId="34" priority="18">
       <formula>$B14&lt;&gt;"&lt;Definition&gt;"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E14:H14">
-    <cfRule type="expression" dxfId="41" priority="17">
+    <cfRule type="expression" dxfId="33" priority="17">
       <formula>$B14&lt;&gt;"&lt;Item&gt;"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D14">
-    <cfRule type="expression" dxfId="40" priority="16">
+    <cfRule type="expression" dxfId="32" priority="16">
       <formula>$B14&lt;&gt;"&lt;Param&gt;"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B14:N14">
-    <cfRule type="expression" dxfId="39" priority="15">
+    <cfRule type="expression" dxfId="31" priority="15">
       <formula>$B14="&lt;Definition&gt;"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I26:N34 I37:N37">
-    <cfRule type="expression" dxfId="38" priority="14">
+    <cfRule type="expression" dxfId="30" priority="14">
       <formula>$B26&lt;&gt;"&lt;Definition&gt;"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F34:H34 E26:H33 E37:H37">
-    <cfRule type="expression" dxfId="37" priority="13">
+    <cfRule type="expression" dxfId="29" priority="13">
       <formula>$B26&lt;&gt;"&lt;Item&gt;"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D26:D34 D37">
-    <cfRule type="expression" dxfId="36" priority="12">
+    <cfRule type="expression" dxfId="28" priority="12">
       <formula>$B26&lt;&gt;"&lt;Param&gt;"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B34:D34 F34:L34 B26:L33 M26:N34 B37:N37">
-    <cfRule type="expression" dxfId="35" priority="11">
+    <cfRule type="expression" dxfId="27" priority="11">
       <formula>$B26="&lt;Definition&gt;"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E34">
-    <cfRule type="expression" dxfId="34" priority="10">
+    <cfRule type="expression" dxfId="26" priority="10">
       <formula>$B34&lt;&gt;"&lt;Item&gt;"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E34">
-    <cfRule type="expression" dxfId="33" priority="9">
+    <cfRule type="expression" dxfId="25" priority="9">
       <formula>$B34="&lt;Definition&gt;"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I35:N35">
-    <cfRule type="expression" dxfId="32" priority="8">
+    <cfRule type="expression" dxfId="24" priority="8">
       <formula>$B35&lt;&gt;"&lt;Definition&gt;"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E35:H35">
-    <cfRule type="expression" dxfId="31" priority="7">
+    <cfRule type="expression" dxfId="23" priority="7">
       <formula>$B35&lt;&gt;"&lt;Item&gt;"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D35">
-    <cfRule type="expression" dxfId="30" priority="6">
+    <cfRule type="expression" dxfId="22" priority="6">
       <formula>$B35&lt;&gt;"&lt;Param&gt;"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B35:N35">
-    <cfRule type="expression" dxfId="29" priority="5">
+    <cfRule type="expression" dxfId="21" priority="5">
       <formula>$B35="&lt;Definition&gt;"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I36:N36">
-    <cfRule type="expression" dxfId="28" priority="4">
+    <cfRule type="expression" dxfId="20" priority="4">
       <formula>$B36&lt;&gt;"&lt;Definition&gt;"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E36:H36">
-    <cfRule type="expression" dxfId="27" priority="3">
+    <cfRule type="expression" dxfId="19" priority="3">
       <formula>$B36&lt;&gt;"&lt;Item&gt;"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D36">
-    <cfRule type="expression" dxfId="26" priority="2">
+    <cfRule type="expression" dxfId="18" priority="2">
       <formula>$B36&lt;&gt;"&lt;Param&gt;"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B36:N36">
-    <cfRule type="expression" dxfId="25" priority="1">
+    <cfRule type="expression" dxfId="17" priority="1">
       <formula>$B36="&lt;Definition&gt;"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Docs/Content/HungryDragonContent_Offers.xlsx
+++ b/Docs/Content/HungryDragonContent_Offers.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2998" uniqueCount="326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2998" uniqueCount="325">
   <si>
     <t>OFFER PACKS DEFINITIONS</t>
   </si>
@@ -991,9 +991,6 @@
   </si>
   <si>
     <t>28:999</t>
-  </si>
-  <si>
-    <t>dragon_devil</t>
   </si>
   <si>
     <t>dragon_helicopter</t>
@@ -1892,245 +1889,245 @@
     <xf numFmtId="49" fontId="9" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="10" fillId="9" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="8" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="7" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="7" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="10" fillId="9" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="8" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="16" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="8" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="11" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="17" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="17" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="10" fillId="9" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="8" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="10" fillId="9" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="8" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="7" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="7" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="10" fillId="9" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="8" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="16" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="8" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="11" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="17" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="17" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="10" fillId="9" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="8" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5623,8 +5620,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AY76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="A57" sqref="A57"/>
+    <sheetView tabSelected="1" topLeftCell="J43" workbookViewId="0">
+      <selection activeCell="J57" sqref="J57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -5675,35 +5672,35 @@
       <c r="T1" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="AA1" s="135" t="s">
+      <c r="AA1" s="213" t="s">
         <v>101</v>
       </c>
-      <c r="AB1" s="135"/>
+      <c r="AB1" s="213"/>
       <c r="AC1" s="32"/>
-      <c r="AD1" s="136" t="s">
+      <c r="AD1" s="214" t="s">
         <v>100</v>
       </c>
-      <c r="AE1" s="136"/>
-      <c r="AF1" s="136"/>
-      <c r="AG1" s="136"/>
-      <c r="AH1" s="136"/>
-      <c r="AI1" s="136"/>
-      <c r="AJ1" s="136"/>
-      <c r="AK1" s="136"/>
-      <c r="AL1" s="136"/>
-      <c r="AM1" s="136"/>
-      <c r="AN1" s="136"/>
-      <c r="AO1" s="136"/>
-      <c r="AP1" s="136"/>
-      <c r="AQ1" s="136"/>
-      <c r="AR1" s="136"/>
-      <c r="AS1" s="136"/>
-      <c r="AT1" s="136"/>
-      <c r="AU1" s="136"/>
-      <c r="AV1" s="136"/>
-      <c r="AW1" s="136"/>
-      <c r="AX1" s="136"/>
-      <c r="AY1" s="136"/>
+      <c r="AE1" s="214"/>
+      <c r="AF1" s="214"/>
+      <c r="AG1" s="214"/>
+      <c r="AH1" s="214"/>
+      <c r="AI1" s="214"/>
+      <c r="AJ1" s="214"/>
+      <c r="AK1" s="214"/>
+      <c r="AL1" s="214"/>
+      <c r="AM1" s="214"/>
+      <c r="AN1" s="214"/>
+      <c r="AO1" s="214"/>
+      <c r="AP1" s="214"/>
+      <c r="AQ1" s="214"/>
+      <c r="AR1" s="214"/>
+      <c r="AS1" s="214"/>
+      <c r="AT1" s="214"/>
+      <c r="AU1" s="214"/>
+      <c r="AV1" s="214"/>
+      <c r="AW1" s="214"/>
+      <c r="AX1" s="214"/>
+      <c r="AY1" s="214"/>
     </row>
     <row r="2" spans="2:51" ht="149.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
@@ -6884,7 +6881,7 @@
       <c r="AQ9" s="27" t="s">
         <v>151</v>
       </c>
-      <c r="AR9" s="155" t="s">
+      <c r="AR9" s="153" t="s">
         <v>151</v>
       </c>
       <c r="AS9" s="27" t="s">
@@ -6893,7 +6890,7 @@
       <c r="AT9" s="27" t="s">
         <v>151</v>
       </c>
-      <c r="AU9" s="155" t="s">
+      <c r="AU9" s="153" t="s">
         <v>151</v>
       </c>
       <c r="AV9" s="34" t="s">
@@ -6913,7 +6910,7 @@
       <c r="B10" s="119" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="177" t="s">
+      <c r="C10" s="175" t="s">
         <v>136</v>
       </c>
       <c r="D10" s="120" t="s">
@@ -7065,7 +7062,7 @@
       <c r="B11" s="116" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="138" t="s">
+      <c r="C11" s="136" t="s">
         <v>137</v>
       </c>
       <c r="D11" s="118" t="s">
@@ -7974,154 +7971,154 @@
       </c>
     </row>
     <row r="17" spans="2:51" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="139" t="s">
+      <c r="B17" s="137" t="s">
         <v>3</v>
       </c>
-      <c r="C17" s="182" t="s">
+      <c r="C17" s="180" t="s">
         <v>143</v>
       </c>
-      <c r="D17" s="185" t="s">
-        <v>151</v>
-      </c>
-      <c r="E17" s="140" t="s">
+      <c r="D17" s="183" t="s">
+        <v>151</v>
+      </c>
+      <c r="E17" s="138" t="s">
         <v>209</v>
       </c>
-      <c r="F17" s="141" t="b">
+      <c r="F17" s="139" t="b">
         <v>0</v>
       </c>
-      <c r="G17" s="141">
+      <c r="G17" s="139">
         <v>1</v>
       </c>
-      <c r="H17" s="142" t="b">
+      <c r="H17" s="140" t="b">
         <v>0</v>
       </c>
-      <c r="I17" s="142" t="s">
-        <v>151</v>
-      </c>
-      <c r="J17" s="142" t="s">
-        <v>151</v>
-      </c>
-      <c r="K17" s="142" t="s">
-        <v>151</v>
-      </c>
-      <c r="L17" s="143" t="s">
-        <v>151</v>
-      </c>
-      <c r="M17" s="143" t="s">
-        <v>151</v>
-      </c>
-      <c r="N17" s="143" t="s">
-        <v>151</v>
-      </c>
-      <c r="O17" s="144" t="s">
-        <v>151</v>
-      </c>
-      <c r="P17" s="144" t="s">
-        <v>151</v>
-      </c>
-      <c r="Q17" s="144" t="s">
-        <v>151</v>
-      </c>
-      <c r="R17" s="145">
+      <c r="I17" s="140" t="s">
+        <v>151</v>
+      </c>
+      <c r="J17" s="140" t="s">
+        <v>151</v>
+      </c>
+      <c r="K17" s="140" t="s">
+        <v>151</v>
+      </c>
+      <c r="L17" s="141" t="s">
+        <v>151</v>
+      </c>
+      <c r="M17" s="141" t="s">
+        <v>151</v>
+      </c>
+      <c r="N17" s="141" t="s">
+        <v>151</v>
+      </c>
+      <c r="O17" s="142" t="s">
+        <v>151</v>
+      </c>
+      <c r="P17" s="142" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q17" s="142" t="s">
+        <v>151</v>
+      </c>
+      <c r="R17" s="143">
         <v>0</v>
       </c>
-      <c r="S17" s="146" t="s">
+      <c r="S17" s="144" t="s">
         <v>128</v>
       </c>
-      <c r="T17" s="147">
+      <c r="T17" s="145">
         <v>0.5</v>
       </c>
-      <c r="U17" s="148" t="s">
+      <c r="U17" s="146" t="s">
         <v>117</v>
       </c>
-      <c r="V17" s="149" t="s">
+      <c r="V17" s="147" t="s">
         <v>44</v>
       </c>
-      <c r="W17" s="150" t="s">
-        <v>151</v>
-      </c>
-      <c r="X17" s="150" t="s">
-        <v>151</v>
-      </c>
-      <c r="Y17" s="150" t="s">
+      <c r="W17" s="148" t="s">
+        <v>151</v>
+      </c>
+      <c r="X17" s="148" t="s">
+        <v>151</v>
+      </c>
+      <c r="Y17" s="148" t="s">
         <v>26</v>
       </c>
-      <c r="Z17" s="150" t="s">
-        <v>151</v>
-      </c>
-      <c r="AA17" s="151" t="s">
-        <v>151</v>
-      </c>
-      <c r="AB17" s="151" t="s">
-        <v>151</v>
-      </c>
-      <c r="AC17" s="151" t="s">
-        <v>151</v>
-      </c>
-      <c r="AD17" s="152" t="s">
+      <c r="Z17" s="148" t="s">
+        <v>151</v>
+      </c>
+      <c r="AA17" s="149" t="s">
+        <v>151</v>
+      </c>
+      <c r="AB17" s="149" t="s">
+        <v>151</v>
+      </c>
+      <c r="AC17" s="149" t="s">
+        <v>151</v>
+      </c>
+      <c r="AD17" s="150" t="s">
         <v>102</v>
       </c>
-      <c r="AE17" s="152" t="s">
-        <v>151</v>
-      </c>
-      <c r="AF17" s="152" t="s">
-        <v>151</v>
-      </c>
-      <c r="AG17" s="152" t="s">
-        <v>151</v>
-      </c>
-      <c r="AH17" s="152" t="s">
-        <v>151</v>
-      </c>
-      <c r="AI17" s="152" t="s">
-        <v>151</v>
-      </c>
-      <c r="AJ17" s="152" t="s">
-        <v>151</v>
-      </c>
-      <c r="AK17" s="152" t="s">
-        <v>151</v>
-      </c>
-      <c r="AL17" s="152" t="s">
-        <v>151</v>
-      </c>
-      <c r="AM17" s="152" t="s">
-        <v>151</v>
-      </c>
-      <c r="AN17" s="152" t="s">
-        <v>151</v>
-      </c>
-      <c r="AO17" s="152" t="s">
-        <v>151</v>
-      </c>
-      <c r="AP17" s="152" t="s">
-        <v>151</v>
-      </c>
-      <c r="AQ17" s="152" t="s">
-        <v>151</v>
-      </c>
-      <c r="AR17" s="152" t="s">
-        <v>151</v>
-      </c>
-      <c r="AS17" s="152" t="s">
-        <v>151</v>
-      </c>
-      <c r="AT17" s="152" t="s">
-        <v>151</v>
-      </c>
-      <c r="AU17" s="152" t="s">
-        <v>151</v>
-      </c>
-      <c r="AV17" s="153" t="s">
-        <v>151</v>
-      </c>
-      <c r="AW17" s="152" t="s">
-        <v>151</v>
-      </c>
-      <c r="AX17" s="152" t="s">
-        <v>151</v>
-      </c>
-      <c r="AY17" s="152" t="s">
+      <c r="AE17" s="150" t="s">
+        <v>151</v>
+      </c>
+      <c r="AF17" s="150" t="s">
+        <v>151</v>
+      </c>
+      <c r="AG17" s="150" t="s">
+        <v>151</v>
+      </c>
+      <c r="AH17" s="150" t="s">
+        <v>151</v>
+      </c>
+      <c r="AI17" s="150" t="s">
+        <v>151</v>
+      </c>
+      <c r="AJ17" s="150" t="s">
+        <v>151</v>
+      </c>
+      <c r="AK17" s="150" t="s">
+        <v>151</v>
+      </c>
+      <c r="AL17" s="150" t="s">
+        <v>151</v>
+      </c>
+      <c r="AM17" s="150" t="s">
+        <v>151</v>
+      </c>
+      <c r="AN17" s="150" t="s">
+        <v>151</v>
+      </c>
+      <c r="AO17" s="150" t="s">
+        <v>151</v>
+      </c>
+      <c r="AP17" s="150" t="s">
+        <v>151</v>
+      </c>
+      <c r="AQ17" s="150" t="s">
+        <v>151</v>
+      </c>
+      <c r="AR17" s="150" t="s">
+        <v>151</v>
+      </c>
+      <c r="AS17" s="150" t="s">
+        <v>151</v>
+      </c>
+      <c r="AT17" s="150" t="s">
+        <v>151</v>
+      </c>
+      <c r="AU17" s="150" t="s">
+        <v>151</v>
+      </c>
+      <c r="AV17" s="151" t="s">
+        <v>151</v>
+      </c>
+      <c r="AW17" s="150" t="s">
+        <v>151</v>
+      </c>
+      <c r="AX17" s="150" t="s">
+        <v>151</v>
+      </c>
+      <c r="AY17" s="150" t="s">
         <v>151</v>
       </c>
     </row>
@@ -8129,7 +8126,7 @@
       <c r="B18" s="116" t="s">
         <v>3</v>
       </c>
-      <c r="C18" s="138" t="s">
+      <c r="C18" s="136" t="s">
         <v>144</v>
       </c>
       <c r="D18" s="118" t="s">
@@ -10523,7 +10520,7 @@
       <c r="B34" s="82" t="s">
         <v>3</v>
       </c>
-      <c r="C34" s="178" t="s">
+      <c r="C34" s="176" t="s">
         <v>218</v>
       </c>
       <c r="D34" s="82" t="s">
@@ -10663,7 +10660,7 @@
       <c r="B35" s="96" t="s">
         <v>3</v>
       </c>
-      <c r="C35" s="179" t="s">
+      <c r="C35" s="177" t="s">
         <v>220</v>
       </c>
       <c r="D35" s="96" t="s">
@@ -11418,13 +11415,13 @@
       <c r="O40" s="87"/>
       <c r="P40" s="87"/>
       <c r="Q40" s="87"/>
-      <c r="R40" s="159">
+      <c r="R40" s="157">
         <v>20</v>
       </c>
       <c r="S40" s="88" t="s">
         <v>126</v>
       </c>
-      <c r="T40" s="160">
+      <c r="T40" s="158">
         <v>-1</v>
       </c>
       <c r="U40" s="89" t="s">
@@ -11522,148 +11519,148 @@
       </c>
     </row>
     <row r="41" spans="2:51" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="161" t="s">
+      <c r="B41" s="159" t="s">
         <v>3</v>
       </c>
-      <c r="C41" s="183" t="s">
+      <c r="C41" s="181" t="s">
         <v>232</v>
       </c>
-      <c r="D41" s="161" t="s">
-        <v>151</v>
-      </c>
-      <c r="E41" s="161" t="s">
+      <c r="D41" s="159" t="s">
+        <v>151</v>
+      </c>
+      <c r="E41" s="159" t="s">
         <v>210</v>
       </c>
-      <c r="F41" s="162" t="b">
+      <c r="F41" s="160" t="b">
         <v>0</v>
       </c>
-      <c r="G41" s="162">
+      <c r="G41" s="160">
         <v>-1</v>
       </c>
-      <c r="H41" s="163" t="b">
+      <c r="H41" s="161" t="b">
         <v>1</v>
       </c>
-      <c r="I41" s="163" t="s">
+      <c r="I41" s="161" t="s">
         <v>27</v>
       </c>
-      <c r="J41" s="163">
+      <c r="J41" s="161">
         <v>5</v>
       </c>
-      <c r="K41" s="163" t="s">
+      <c r="K41" s="161" t="s">
         <v>249</v>
       </c>
-      <c r="L41" s="164" t="s">
+      <c r="L41" s="162" t="s">
         <v>27</v>
       </c>
-      <c r="M41" s="164">
+      <c r="M41" s="162">
         <v>10</v>
       </c>
-      <c r="N41" s="164" t="s">
+      <c r="N41" s="162" t="s">
         <v>188</v>
       </c>
-      <c r="O41" s="165"/>
-      <c r="P41" s="165"/>
-      <c r="Q41" s="165"/>
-      <c r="R41" s="166">
+      <c r="O41" s="163"/>
+      <c r="P41" s="163"/>
+      <c r="Q41" s="163"/>
+      <c r="R41" s="164">
         <v>20</v>
       </c>
-      <c r="S41" s="167" t="s">
+      <c r="S41" s="165" t="s">
         <v>127</v>
       </c>
-      <c r="T41" s="168">
+      <c r="T41" s="166">
         <v>-1</v>
       </c>
-      <c r="U41" s="169" t="s">
+      <c r="U41" s="167" t="s">
         <v>273</v>
       </c>
-      <c r="V41" s="170" t="s">
+      <c r="V41" s="168" t="s">
         <v>253</v>
       </c>
-      <c r="W41" s="171" t="b">
+      <c r="W41" s="169" t="b">
         <v>1</v>
       </c>
-      <c r="X41" s="171">
+      <c r="X41" s="169">
         <v>0</v>
       </c>
-      <c r="Y41" s="171" t="s">
+      <c r="Y41" s="169" t="s">
         <v>26</v>
       </c>
-      <c r="Z41" s="171">
+      <c r="Z41" s="169">
         <v>10</v>
       </c>
-      <c r="AA41" s="172" t="s">
-        <v>151</v>
-      </c>
-      <c r="AB41" s="172" t="s">
-        <v>151</v>
-      </c>
-      <c r="AC41" s="172">
+      <c r="AA41" s="170" t="s">
+        <v>151</v>
+      </c>
+      <c r="AB41" s="170" t="s">
+        <v>151</v>
+      </c>
+      <c r="AC41" s="170">
         <v>2880</v>
       </c>
-      <c r="AD41" s="173" t="s">
+      <c r="AD41" s="171" t="s">
         <v>211</v>
       </c>
-      <c r="AE41" s="173" t="s">
-        <v>151</v>
-      </c>
-      <c r="AF41" s="173" t="s">
-        <v>151</v>
-      </c>
-      <c r="AG41" s="173">
+      <c r="AE41" s="171" t="s">
+        <v>151</v>
+      </c>
+      <c r="AF41" s="171" t="s">
+        <v>151</v>
+      </c>
+      <c r="AG41" s="171">
         <v>4</v>
       </c>
-      <c r="AH41" s="173" t="s">
+      <c r="AH41" s="171" t="s">
         <v>190</v>
       </c>
-      <c r="AI41" s="173" t="s">
-        <v>151</v>
-      </c>
-      <c r="AJ41" s="173" t="s">
+      <c r="AI41" s="171" t="s">
+        <v>151</v>
+      </c>
+      <c r="AJ41" s="171" t="s">
         <v>127</v>
       </c>
-      <c r="AK41" s="173" t="s">
-        <v>151</v>
-      </c>
-      <c r="AL41" s="173" t="s">
-        <v>151</v>
-      </c>
-      <c r="AM41" s="173" t="s">
-        <v>151</v>
-      </c>
-      <c r="AN41" s="173" t="s">
-        <v>151</v>
-      </c>
-      <c r="AO41" s="173" t="s">
-        <v>151</v>
-      </c>
-      <c r="AP41" s="173" t="s">
-        <v>151</v>
-      </c>
-      <c r="AQ41" s="173" t="s">
-        <v>151</v>
-      </c>
-      <c r="AR41" s="173" t="s">
-        <v>151</v>
-      </c>
-      <c r="AS41" s="173" t="s">
-        <v>151</v>
-      </c>
-      <c r="AT41" s="173" t="s">
-        <v>151</v>
-      </c>
-      <c r="AU41" s="173" t="s">
-        <v>151</v>
-      </c>
-      <c r="AV41" s="174" t="s">
+      <c r="AK41" s="171" t="s">
+        <v>151</v>
+      </c>
+      <c r="AL41" s="171" t="s">
+        <v>151</v>
+      </c>
+      <c r="AM41" s="171" t="s">
+        <v>151</v>
+      </c>
+      <c r="AN41" s="171" t="s">
+        <v>151</v>
+      </c>
+      <c r="AO41" s="171" t="s">
+        <v>151</v>
+      </c>
+      <c r="AP41" s="171" t="s">
+        <v>151</v>
+      </c>
+      <c r="AQ41" s="171" t="s">
+        <v>151</v>
+      </c>
+      <c r="AR41" s="171" t="s">
+        <v>151</v>
+      </c>
+      <c r="AS41" s="171" t="s">
+        <v>151</v>
+      </c>
+      <c r="AT41" s="171" t="s">
+        <v>151</v>
+      </c>
+      <c r="AU41" s="171" t="s">
+        <v>151</v>
+      </c>
+      <c r="AV41" s="172" t="s">
         <v>200</v>
       </c>
-      <c r="AW41" s="173" t="s">
-        <v>151</v>
-      </c>
-      <c r="AX41" s="173" t="s">
-        <v>151</v>
-      </c>
-      <c r="AY41" s="173" t="s">
+      <c r="AW41" s="171" t="s">
+        <v>151</v>
+      </c>
+      <c r="AX41" s="171" t="s">
+        <v>151</v>
+      </c>
+      <c r="AY41" s="171" t="s">
         <v>151</v>
       </c>
     </row>
@@ -12385,7 +12382,7 @@
       <c r="B47" s="96" t="s">
         <v>3</v>
       </c>
-      <c r="C47" s="176" t="s">
+      <c r="C47" s="174" t="s">
         <v>240</v>
       </c>
       <c r="D47" s="96" t="s">
@@ -13138,13 +13135,13 @@
       <c r="O52" s="87"/>
       <c r="P52" s="87"/>
       <c r="Q52" s="87"/>
-      <c r="R52" s="187">
+      <c r="R52" s="185">
         <v>20</v>
       </c>
       <c r="S52" s="88" t="s">
         <v>128</v>
       </c>
-      <c r="T52" s="160">
+      <c r="T52" s="158">
         <v>-1</v>
       </c>
       <c r="U52" s="89" t="s">
@@ -13242,154 +13239,154 @@
       </c>
     </row>
     <row r="53" spans="2:51" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="188" t="s">
+      <c r="B53" s="186" t="s">
         <v>3</v>
       </c>
-      <c r="C53" s="189" t="s">
+      <c r="C53" s="187" t="s">
         <v>133</v>
       </c>
-      <c r="D53" s="190" t="s">
-        <v>151</v>
-      </c>
-      <c r="E53" s="161" t="s">
+      <c r="D53" s="188" t="s">
+        <v>151</v>
+      </c>
+      <c r="E53" s="159" t="s">
         <v>208</v>
       </c>
-      <c r="F53" s="162" t="b">
+      <c r="F53" s="160" t="b">
         <v>1</v>
       </c>
-      <c r="G53" s="162">
+      <c r="G53" s="160">
         <v>1</v>
       </c>
-      <c r="H53" s="163" t="b">
+      <c r="H53" s="161" t="b">
         <v>0</v>
       </c>
-      <c r="I53" s="163" t="s">
+      <c r="I53" s="161" t="s">
         <v>27</v>
       </c>
-      <c r="J53" s="163">
+      <c r="J53" s="161">
         <v>1</v>
       </c>
-      <c r="K53" s="163" t="s">
-        <v>323</v>
-      </c>
-      <c r="L53" s="164" t="s">
+      <c r="K53" s="161" t="s">
+        <v>322</v>
+      </c>
+      <c r="L53" s="162" t="s">
         <v>27</v>
       </c>
-      <c r="M53" s="164">
+      <c r="M53" s="162">
         <v>2</v>
       </c>
-      <c r="N53" s="164" t="s">
+      <c r="N53" s="162" t="s">
         <v>250</v>
       </c>
-      <c r="O53" s="165" t="s">
+      <c r="O53" s="163" t="s">
         <v>27</v>
       </c>
-      <c r="P53" s="165">
+      <c r="P53" s="163">
         <v>2</v>
       </c>
-      <c r="Q53" s="165" t="s">
+      <c r="Q53" s="163" t="s">
         <v>188</v>
       </c>
-      <c r="R53" s="166">
+      <c r="R53" s="164">
         <v>8</v>
       </c>
-      <c r="S53" s="167" t="s">
+      <c r="S53" s="165" t="s">
         <v>125</v>
       </c>
-      <c r="T53" s="168">
+      <c r="T53" s="166">
         <v>-1</v>
       </c>
-      <c r="U53" s="169" t="s">
+      <c r="U53" s="167" t="s">
         <v>107</v>
       </c>
-      <c r="V53" s="170" t="s">
+      <c r="V53" s="168" t="s">
         <v>316</v>
       </c>
-      <c r="W53" s="171" t="b">
+      <c r="W53" s="169" t="b">
         <v>1</v>
       </c>
-      <c r="X53" s="171">
+      <c r="X53" s="169">
         <v>0</v>
       </c>
-      <c r="Y53" s="171" t="s">
+      <c r="Y53" s="169" t="s">
         <v>26</v>
       </c>
-      <c r="Z53" s="171">
+      <c r="Z53" s="169">
         <v>20</v>
       </c>
-      <c r="AA53" s="172" t="s">
-        <v>151</v>
-      </c>
-      <c r="AB53" s="172" t="s">
-        <v>151</v>
-      </c>
-      <c r="AC53" s="172">
+      <c r="AA53" s="170" t="s">
+        <v>151</v>
+      </c>
+      <c r="AB53" s="170" t="s">
+        <v>151</v>
+      </c>
+      <c r="AC53" s="170">
         <v>2880</v>
       </c>
-      <c r="AD53" s="173" t="s">
+      <c r="AD53" s="171" t="s">
         <v>314</v>
       </c>
-      <c r="AE53" s="173" t="s">
-        <v>151</v>
-      </c>
-      <c r="AF53" s="173" t="s">
-        <v>151</v>
-      </c>
-      <c r="AG53" s="173">
+      <c r="AE53" s="171" t="s">
+        <v>151</v>
+      </c>
+      <c r="AF53" s="171" t="s">
+        <v>151</v>
+      </c>
+      <c r="AG53" s="171">
         <v>4</v>
       </c>
-      <c r="AH53" s="191" t="s">
-        <v>151</v>
-      </c>
-      <c r="AI53" s="173" t="s">
-        <v>151</v>
-      </c>
-      <c r="AJ53" s="173" t="s">
-        <v>151</v>
-      </c>
-      <c r="AK53" s="173" t="s">
-        <v>151</v>
-      </c>
-      <c r="AL53" s="173" t="s">
-        <v>151</v>
-      </c>
-      <c r="AM53" s="173" t="s">
-        <v>151</v>
-      </c>
-      <c r="AN53" s="173" t="s">
-        <v>151</v>
-      </c>
-      <c r="AO53" s="173" t="s">
-        <v>151</v>
-      </c>
-      <c r="AP53" s="173" t="s">
-        <v>151</v>
-      </c>
-      <c r="AQ53" s="173" t="s">
-        <v>151</v>
-      </c>
-      <c r="AR53" s="173" t="s">
-        <v>151</v>
-      </c>
-      <c r="AS53" s="173" t="s">
-        <v>151</v>
-      </c>
-      <c r="AT53" s="173" t="s">
-        <v>151</v>
-      </c>
-      <c r="AU53" s="173" t="s">
-        <v>151</v>
-      </c>
-      <c r="AV53" s="174" t="s">
+      <c r="AH53" s="189" t="s">
+        <v>151</v>
+      </c>
+      <c r="AI53" s="171" t="s">
+        <v>151</v>
+      </c>
+      <c r="AJ53" s="171" t="s">
+        <v>151</v>
+      </c>
+      <c r="AK53" s="171" t="s">
+        <v>151</v>
+      </c>
+      <c r="AL53" s="171" t="s">
+        <v>151</v>
+      </c>
+      <c r="AM53" s="171" t="s">
+        <v>151</v>
+      </c>
+      <c r="AN53" s="171" t="s">
+        <v>151</v>
+      </c>
+      <c r="AO53" s="171" t="s">
+        <v>151</v>
+      </c>
+      <c r="AP53" s="171" t="s">
+        <v>151</v>
+      </c>
+      <c r="AQ53" s="171" t="s">
+        <v>151</v>
+      </c>
+      <c r="AR53" s="171" t="s">
+        <v>151</v>
+      </c>
+      <c r="AS53" s="171" t="s">
+        <v>151</v>
+      </c>
+      <c r="AT53" s="171" t="s">
+        <v>151</v>
+      </c>
+      <c r="AU53" s="171" t="s">
+        <v>151</v>
+      </c>
+      <c r="AV53" s="172" t="s">
         <v>191</v>
       </c>
-      <c r="AW53" s="173" t="s">
-        <v>151</v>
-      </c>
-      <c r="AX53" s="173" t="s">
-        <v>151</v>
-      </c>
-      <c r="AY53" s="173" t="s">
+      <c r="AW53" s="171" t="s">
+        <v>151</v>
+      </c>
+      <c r="AX53" s="171" t="s">
+        <v>151</v>
+      </c>
+      <c r="AY53" s="171" t="s">
         <v>151</v>
       </c>
     </row>
@@ -13422,7 +13419,7 @@
         <v>1</v>
       </c>
       <c r="K54" s="44" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="L54" s="45" t="s">
         <v>65</v>
@@ -13430,7 +13427,7 @@
       <c r="M54" s="45">
         <v>100</v>
       </c>
-      <c r="N54" s="154" t="s">
+      <c r="N54" s="152" t="s">
         <v>151</v>
       </c>
       <c r="O54" s="46" t="s">
@@ -13474,7 +13471,7 @@
         <v>151</v>
       </c>
       <c r="AC54" s="51">
-        <v>2880</v>
+        <v>4320</v>
       </c>
       <c r="AD54" s="27" t="s">
         <v>314</v>
@@ -13488,7 +13485,7 @@
       <c r="AG54" s="27">
         <v>4</v>
       </c>
-      <c r="AH54" s="155" t="s">
+      <c r="AH54" s="153" t="s">
         <v>151</v>
       </c>
       <c r="AI54" s="27" t="s">
@@ -13510,7 +13507,7 @@
         <v>151</v>
       </c>
       <c r="AO54" s="27" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="AP54" s="27" t="s">
         <v>151</v>
@@ -13572,10 +13569,10 @@
       <c r="K55" s="44" t="s">
         <v>151</v>
       </c>
-      <c r="L55" s="154" t="s">
-        <v>151</v>
-      </c>
-      <c r="M55" s="154" t="s">
+      <c r="L55" s="152" t="s">
+        <v>151</v>
+      </c>
+      <c r="M55" s="152" t="s">
         <v>151</v>
       </c>
       <c r="N55" s="45" t="s">
@@ -13624,7 +13621,7 @@
         <v>151</v>
       </c>
       <c r="AC55" s="51">
-        <v>1440</v>
+        <v>2880</v>
       </c>
       <c r="AD55" s="27" t="s">
         <v>196</v>
@@ -13638,10 +13635,10 @@
       <c r="AG55" s="27">
         <v>4</v>
       </c>
-      <c r="AH55" s="155" t="s">
-        <v>151</v>
-      </c>
-      <c r="AI55" s="155" t="s">
+      <c r="AH55" s="153" t="s">
+        <v>151</v>
+      </c>
+      <c r="AI55" s="153" t="s">
         <v>151</v>
       </c>
       <c r="AJ55" s="27" t="s">
@@ -13721,13 +13718,13 @@
       <c r="J56" s="44">
         <v>40000</v>
       </c>
-      <c r="K56" s="156" t="s">
-        <v>151</v>
-      </c>
-      <c r="L56" s="154" t="s">
-        <v>151</v>
-      </c>
-      <c r="M56" s="154" t="s">
+      <c r="K56" s="154" t="s">
+        <v>151</v>
+      </c>
+      <c r="L56" s="152" t="s">
+        <v>151</v>
+      </c>
+      <c r="M56" s="152" t="s">
         <v>151</v>
       </c>
       <c r="N56" s="45" t="s">
@@ -13776,7 +13773,7 @@
         <v>151</v>
       </c>
       <c r="AC56" s="51">
-        <v>1440</v>
+        <v>2880</v>
       </c>
       <c r="AD56" s="27" t="s">
         <v>196</v>
@@ -13926,7 +13923,7 @@
         <v>151</v>
       </c>
       <c r="AC57" s="51">
-        <v>1440</v>
+        <v>4320</v>
       </c>
       <c r="AD57" s="27" t="s">
         <v>196</v>
@@ -13962,7 +13959,7 @@
         <v>151</v>
       </c>
       <c r="AO57" s="27" t="s">
-        <v>321</v>
+        <v>310</v>
       </c>
       <c r="AP57" s="27" t="s">
         <v>151</v>
@@ -13999,10 +13996,10 @@
       <c r="B58" s="115" t="s">
         <v>3</v>
       </c>
-      <c r="C58" s="180" t="s">
+      <c r="C58" s="178" t="s">
         <v>167</v>
       </c>
-      <c r="D58" s="184" t="s">
+      <c r="D58" s="182" t="s">
         <v>195</v>
       </c>
       <c r="E58" s="69" t="s">
@@ -14024,7 +14021,7 @@
         <v>1</v>
       </c>
       <c r="K58" s="71" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="L58" s="72" t="s">
         <v>27</v>
@@ -14077,8 +14074,8 @@
       <c r="AB58" s="79" t="s">
         <v>151</v>
       </c>
-      <c r="AC58" s="79">
-        <v>1440</v>
+      <c r="AC58" s="51">
+        <v>2880</v>
       </c>
       <c r="AD58" s="80" t="s">
         <v>196</v>
@@ -14092,7 +14089,7 @@
       <c r="AG58" s="80">
         <v>4</v>
       </c>
-      <c r="AH58" s="186" t="s">
+      <c r="AH58" s="184" t="s">
         <v>151</v>
       </c>
       <c r="AI58" s="80" t="s">
@@ -14122,7 +14119,7 @@
       <c r="AQ58" s="80" t="s">
         <v>151</v>
       </c>
-      <c r="AR58" s="186" t="s">
+      <c r="AR58" s="184" t="s">
         <v>151</v>
       </c>
       <c r="AS58" s="80" t="s">
@@ -14135,7 +14132,7 @@
         <v>151</v>
       </c>
       <c r="AV58" s="81" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="AW58" s="80" t="s">
         <v>151</v>
@@ -14151,10 +14148,10 @@
       <c r="B59" s="116" t="s">
         <v>3</v>
       </c>
-      <c r="C59" s="181" t="s">
+      <c r="C59" s="179" t="s">
         <v>168</v>
       </c>
-      <c r="D59" s="137" t="s">
+      <c r="D59" s="135" t="s">
         <v>195</v>
       </c>
       <c r="E59" s="55" t="s">
@@ -14178,10 +14175,10 @@
       <c r="K59" s="57" t="s">
         <v>151</v>
       </c>
-      <c r="L59" s="157" t="s">
-        <v>151</v>
-      </c>
-      <c r="M59" s="157" t="s">
+      <c r="L59" s="155" t="s">
+        <v>151</v>
+      </c>
+      <c r="M59" s="155" t="s">
         <v>151</v>
       </c>
       <c r="N59" s="58" t="s">
@@ -14229,8 +14226,8 @@
       <c r="AB59" s="66" t="s">
         <v>151</v>
       </c>
-      <c r="AC59" s="66">
-        <v>1440</v>
+      <c r="AC59" s="51">
+        <v>2880</v>
       </c>
       <c r="AD59" s="67" t="s">
         <v>196</v>
@@ -14244,7 +14241,7 @@
       <c r="AG59" s="67">
         <v>4</v>
       </c>
-      <c r="AH59" s="158" t="s">
+      <c r="AH59" s="156" t="s">
         <v>151</v>
       </c>
       <c r="AI59" s="67" t="s">
@@ -14300,13 +14297,13 @@
       </c>
     </row>
     <row r="60" spans="2:51" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B60" s="192" t="s">
+      <c r="B60" s="190" t="s">
         <v>3</v>
       </c>
       <c r="C60" s="117" t="s">
         <v>171</v>
       </c>
-      <c r="D60" s="193" t="s">
+      <c r="D60" s="191" t="s">
         <v>195</v>
       </c>
       <c r="E60" s="82" t="s">
@@ -14327,8 +14324,8 @@
       <c r="J60" s="85">
         <v>2</v>
       </c>
-      <c r="K60" s="194" t="s">
-        <v>323</v>
+      <c r="K60" s="192" t="s">
+        <v>322</v>
       </c>
       <c r="L60" s="86" t="s">
         <v>27</v>
@@ -14336,7 +14333,7 @@
       <c r="M60" s="86">
         <v>5</v>
       </c>
-      <c r="N60" s="195" t="s">
+      <c r="N60" s="193" t="s">
         <v>250</v>
       </c>
       <c r="O60" s="87" t="s">
@@ -14348,13 +14345,13 @@
       <c r="Q60" s="87" t="s">
         <v>249</v>
       </c>
-      <c r="R60" s="187">
+      <c r="R60" s="185">
         <v>1</v>
       </c>
       <c r="S60" s="88" t="s">
         <v>99</v>
       </c>
-      <c r="T60" s="160" t="s">
+      <c r="T60" s="158" t="s">
         <v>174</v>
       </c>
       <c r="U60" s="89" t="s">
@@ -14381,8 +14378,8 @@
       <c r="AB60" s="92" t="s">
         <v>151</v>
       </c>
-      <c r="AC60" s="92">
-        <v>1440</v>
+      <c r="AC60" s="51">
+        <v>2880</v>
       </c>
       <c r="AD60" s="93" t="s">
         <v>196</v>
@@ -14396,10 +14393,10 @@
       <c r="AG60" s="93">
         <v>4</v>
       </c>
-      <c r="AH60" s="196" t="s">
-        <v>151</v>
-      </c>
-      <c r="AI60" s="197" t="s">
+      <c r="AH60" s="194" t="s">
+        <v>151</v>
+      </c>
+      <c r="AI60" s="195" t="s">
         <v>151</v>
       </c>
       <c r="AJ60" s="93" t="s">
@@ -14426,7 +14423,7 @@
       <c r="AQ60" s="93" t="s">
         <v>151</v>
       </c>
-      <c r="AR60" s="196" t="s">
+      <c r="AR60" s="194" t="s">
         <v>151</v>
       </c>
       <c r="AS60" s="93" t="s">
@@ -14439,7 +14436,7 @@
         <v>151</v>
       </c>
       <c r="AV60" s="112" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="AW60" s="93" t="s">
         <v>151</v>
@@ -14452,148 +14449,148 @@
       </c>
     </row>
     <row r="61" spans="2:51" x14ac:dyDescent="0.25">
-      <c r="B61" s="198" t="s">
+      <c r="B61" s="196" t="s">
         <v>3</v>
       </c>
-      <c r="C61" s="199" t="s">
+      <c r="C61" s="197" t="s">
         <v>213</v>
       </c>
-      <c r="D61" s="198" t="s">
-        <v>151</v>
-      </c>
-      <c r="E61" s="198" t="s">
+      <c r="D61" s="196" t="s">
+        <v>151</v>
+      </c>
+      <c r="E61" s="196" t="s">
         <v>210</v>
       </c>
-      <c r="F61" s="200" t="b">
+      <c r="F61" s="198" t="b">
         <v>1</v>
       </c>
-      <c r="G61" s="200">
+      <c r="G61" s="198">
         <v>-1</v>
       </c>
-      <c r="H61" s="201" t="b">
+      <c r="H61" s="199" t="b">
         <v>1</v>
       </c>
-      <c r="I61" s="201" t="s">
+      <c r="I61" s="199" t="s">
         <v>19</v>
       </c>
-      <c r="J61" s="201">
+      <c r="J61" s="199">
         <v>300</v>
       </c>
-      <c r="K61" s="202" t="s">
-        <v>151</v>
-      </c>
-      <c r="L61" s="203" t="s">
+      <c r="K61" s="200" t="s">
+        <v>151</v>
+      </c>
+      <c r="L61" s="201" t="s">
         <v>21</v>
       </c>
-      <c r="M61" s="203">
+      <c r="M61" s="201">
         <v>300000</v>
       </c>
-      <c r="N61" s="204" t="s">
-        <v>151</v>
-      </c>
-      <c r="O61" s="205"/>
-      <c r="P61" s="205"/>
-      <c r="Q61" s="205"/>
-      <c r="R61" s="206">
+      <c r="N61" s="202" t="s">
+        <v>151</v>
+      </c>
+      <c r="O61" s="203"/>
+      <c r="P61" s="203"/>
+      <c r="Q61" s="203"/>
+      <c r="R61" s="204">
         <v>20</v>
       </c>
-      <c r="S61" s="207" t="s">
+      <c r="S61" s="205" t="s">
         <v>99</v>
       </c>
-      <c r="T61" s="208">
+      <c r="T61" s="206">
         <v>-1</v>
       </c>
-      <c r="U61" s="209" t="s">
+      <c r="U61" s="207" t="s">
         <v>254</v>
       </c>
-      <c r="V61" s="210" t="s">
+      <c r="V61" s="208" t="s">
         <v>253</v>
       </c>
-      <c r="W61" s="211" t="b">
+      <c r="W61" s="209" t="b">
         <v>1</v>
       </c>
-      <c r="X61" s="211">
+      <c r="X61" s="209">
         <v>0</v>
       </c>
-      <c r="Y61" s="211" t="s">
+      <c r="Y61" s="209" t="s">
         <v>26</v>
       </c>
-      <c r="Z61" s="211">
+      <c r="Z61" s="209">
         <v>10</v>
       </c>
-      <c r="AA61" s="212" t="s">
-        <v>151</v>
-      </c>
-      <c r="AB61" s="212" t="s">
-        <v>151</v>
-      </c>
-      <c r="AC61" s="212">
+      <c r="AA61" s="210" t="s">
+        <v>151</v>
+      </c>
+      <c r="AB61" s="210" t="s">
+        <v>151</v>
+      </c>
+      <c r="AC61" s="210">
         <v>2880</v>
       </c>
-      <c r="AD61" s="213" t="s">
+      <c r="AD61" s="211" t="s">
         <v>211</v>
       </c>
-      <c r="AE61" s="213" t="s">
-        <v>151</v>
-      </c>
-      <c r="AF61" s="213" t="s">
-        <v>151</v>
-      </c>
-      <c r="AG61" s="213">
+      <c r="AE61" s="211" t="s">
+        <v>151</v>
+      </c>
+      <c r="AF61" s="211" t="s">
+        <v>151</v>
+      </c>
+      <c r="AG61" s="211">
         <v>4</v>
       </c>
-      <c r="AH61" s="213" t="s">
+      <c r="AH61" s="211" t="s">
         <v>189</v>
       </c>
-      <c r="AI61" s="213" t="s">
-        <v>151</v>
-      </c>
-      <c r="AJ61" s="213" t="s">
-        <v>151</v>
-      </c>
-      <c r="AK61" s="213" t="s">
-        <v>151</v>
-      </c>
-      <c r="AL61" s="213" t="s">
-        <v>151</v>
-      </c>
-      <c r="AM61" s="213" t="s">
-        <v>151</v>
-      </c>
-      <c r="AN61" s="213" t="s">
-        <v>151</v>
-      </c>
-      <c r="AO61" s="213" t="s">
-        <v>151</v>
-      </c>
-      <c r="AP61" s="213" t="s">
-        <v>151</v>
-      </c>
-      <c r="AQ61" s="213" t="s">
-        <v>151</v>
-      </c>
-      <c r="AR61" s="213" t="s">
-        <v>151</v>
-      </c>
-      <c r="AS61" s="213" t="s">
-        <v>151</v>
-      </c>
-      <c r="AT61" s="213" t="s">
-        <v>151</v>
-      </c>
-      <c r="AU61" s="213" t="s">
-        <v>151</v>
-      </c>
-      <c r="AV61" s="214" t="s">
+      <c r="AI61" s="211" t="s">
+        <v>151</v>
+      </c>
+      <c r="AJ61" s="211" t="s">
+        <v>151</v>
+      </c>
+      <c r="AK61" s="211" t="s">
+        <v>151</v>
+      </c>
+      <c r="AL61" s="211" t="s">
+        <v>151</v>
+      </c>
+      <c r="AM61" s="211" t="s">
+        <v>151</v>
+      </c>
+      <c r="AN61" s="211" t="s">
+        <v>151</v>
+      </c>
+      <c r="AO61" s="211" t="s">
+        <v>151</v>
+      </c>
+      <c r="AP61" s="211" t="s">
+        <v>151</v>
+      </c>
+      <c r="AQ61" s="211" t="s">
+        <v>151</v>
+      </c>
+      <c r="AR61" s="211" t="s">
+        <v>151</v>
+      </c>
+      <c r="AS61" s="211" t="s">
+        <v>151</v>
+      </c>
+      <c r="AT61" s="211" t="s">
+        <v>151</v>
+      </c>
+      <c r="AU61" s="211" t="s">
+        <v>151</v>
+      </c>
+      <c r="AV61" s="212" t="s">
         <v>200</v>
       </c>
-      <c r="AW61" s="213" t="s">
-        <v>151</v>
-      </c>
-      <c r="AX61" s="213" t="s">
-        <v>151</v>
-      </c>
-      <c r="AY61" s="213" t="s">
+      <c r="AW61" s="211" t="s">
+        <v>151</v>
+      </c>
+      <c r="AX61" s="211" t="s">
+        <v>151</v>
+      </c>
+      <c r="AY61" s="211" t="s">
         <v>151</v>
       </c>
     </row>
@@ -14634,7 +14631,7 @@
       <c r="M62" s="45">
         <v>300</v>
       </c>
-      <c r="N62" s="154" t="s">
+      <c r="N62" s="152" t="s">
         <v>151</v>
       </c>
       <c r="O62" s="46"/>
@@ -14771,7 +14768,7 @@
       <c r="J63" s="44">
         <v>200</v>
       </c>
-      <c r="K63" s="156" t="s">
+      <c r="K63" s="154" t="s">
         <v>151</v>
       </c>
       <c r="L63" s="45" t="s">
@@ -14780,7 +14777,7 @@
       <c r="M63" s="45">
         <v>200</v>
       </c>
-      <c r="N63" s="154" t="s">
+      <c r="N63" s="152" t="s">
         <v>151</v>
       </c>
       <c r="O63" s="46"/>
@@ -14926,7 +14923,7 @@
       <c r="M64" s="45">
         <v>150000</v>
       </c>
-      <c r="N64" s="154" t="s">
+      <c r="N64" s="152" t="s">
         <v>151</v>
       </c>
       <c r="O64" s="46"/>
@@ -15370,7 +15367,7 @@
       <c r="M67" s="45">
         <v>100</v>
       </c>
-      <c r="N67" s="154" t="s">
+      <c r="N67" s="152" t="s">
         <v>151</v>
       </c>
       <c r="O67" s="46"/>
@@ -15507,7 +15504,7 @@
       <c r="J68" s="44">
         <v>100</v>
       </c>
-      <c r="K68" s="156" t="s">
+      <c r="K68" s="154" t="s">
         <v>151</v>
       </c>
       <c r="L68" s="45" t="s">
@@ -15516,7 +15513,7 @@
       <c r="M68" s="45">
         <v>100</v>
       </c>
-      <c r="N68" s="154" t="s">
+      <c r="N68" s="152" t="s">
         <v>151</v>
       </c>
       <c r="O68" s="46" t="s">
@@ -15657,7 +15654,7 @@
       <c r="J69" s="44">
         <v>350</v>
       </c>
-      <c r="K69" s="156" t="s">
+      <c r="K69" s="154" t="s">
         <v>151</v>
       </c>
       <c r="L69" s="45"/>
@@ -15806,7 +15803,7 @@
       <c r="M70" s="45">
         <v>150000</v>
       </c>
-      <c r="N70" s="154" t="s">
+      <c r="N70" s="152" t="s">
         <v>151</v>
       </c>
       <c r="O70" s="46"/>
@@ -15952,7 +15949,7 @@
       <c r="M71" s="45">
         <v>200000</v>
       </c>
-      <c r="N71" s="154" t="s">
+      <c r="N71" s="152" t="s">
         <v>151</v>
       </c>
       <c r="O71" s="46"/>
@@ -16089,16 +16086,16 @@
       <c r="J72" s="44">
         <v>250</v>
       </c>
-      <c r="K72" s="156" t="s">
-        <v>151</v>
-      </c>
-      <c r="L72" s="154" t="s">
-        <v>151</v>
-      </c>
-      <c r="M72" s="154" t="s">
-        <v>151</v>
-      </c>
-      <c r="N72" s="154" t="s">
+      <c r="K72" s="154" t="s">
+        <v>151</v>
+      </c>
+      <c r="L72" s="152" t="s">
+        <v>151</v>
+      </c>
+      <c r="M72" s="152" t="s">
+        <v>151</v>
+      </c>
+      <c r="N72" s="152" t="s">
         <v>151</v>
       </c>
       <c r="O72" s="46"/>
@@ -16235,25 +16232,25 @@
       <c r="J73" s="44">
         <v>1200</v>
       </c>
-      <c r="K73" s="156" t="s">
-        <v>151</v>
-      </c>
-      <c r="L73" s="154" t="s">
-        <v>151</v>
-      </c>
-      <c r="M73" s="154" t="s">
-        <v>151</v>
-      </c>
-      <c r="N73" s="154" t="s">
-        <v>151</v>
-      </c>
-      <c r="O73" s="175" t="s">
-        <v>151</v>
-      </c>
-      <c r="P73" s="175" t="s">
-        <v>151</v>
-      </c>
-      <c r="Q73" s="175" t="s">
+      <c r="K73" s="154" t="s">
+        <v>151</v>
+      </c>
+      <c r="L73" s="152" t="s">
+        <v>151</v>
+      </c>
+      <c r="M73" s="152" t="s">
+        <v>151</v>
+      </c>
+      <c r="N73" s="152" t="s">
+        <v>151</v>
+      </c>
+      <c r="O73" s="173" t="s">
+        <v>151</v>
+      </c>
+      <c r="P73" s="173" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q73" s="173" t="s">
         <v>151</v>
       </c>
       <c r="R73" s="47">

--- a/Docs/Content/HungryDragonContent_Offers.xlsx
+++ b/Docs/Content/HungryDragonContent_Offers.xlsx
@@ -16,7 +16,7 @@
     <sheet name="OLD" sheetId="1" r:id="rId2"/>
     <sheet name="ValidationData" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913" calcOnSave="0"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2998" uniqueCount="325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2999" uniqueCount="324">
   <si>
     <t>OFFER PACKS DEFINITIONS</t>
   </si>
@@ -559,9 +559,6 @@
   </si>
   <si>
     <t>0.5</t>
-  </si>
-  <si>
-    <t>0.7</t>
   </si>
   <si>
     <t>com.ubisoft.hungrydragon.intermediatepackpet</t>
@@ -1009,7 +1006,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1121,6 +1118,13 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1493,7 +1497,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="215">
+  <cellXfs count="222">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2128,6 +2132,27 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5620,8 +5645,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AY76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J43" workbookViewId="0">
-      <selection activeCell="J57" sqref="J57"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="E79" sqref="E79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -5713,7 +5738,7 @@
         <v>163</v>
       </c>
       <c r="E2" s="37" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F2" s="36" t="s">
         <v>75</v>
@@ -5806,13 +5831,13 @@
         <v>86</v>
       </c>
       <c r="AJ2" s="25" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AK2" s="25" t="s">
+        <v>196</v>
+      </c>
+      <c r="AL2" s="25" t="s">
         <v>197</v>
-      </c>
-      <c r="AL2" s="25" t="s">
-        <v>198</v>
       </c>
       <c r="AM2" s="25" t="s">
         <v>87</v>
@@ -5865,7 +5890,7 @@
         <v>151</v>
       </c>
       <c r="E3" s="40" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F3" s="56" t="b">
         <v>0</v>
@@ -5883,7 +5908,7 @@
         <v>1</v>
       </c>
       <c r="K3" s="44" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="L3" s="45" t="s">
         <v>27</v>
@@ -5892,7 +5917,7 @@
         <v>4</v>
       </c>
       <c r="N3" s="45" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="O3" s="46" t="s">
         <v>151</v>
@@ -5916,7 +5941,7 @@
         <v>106</v>
       </c>
       <c r="V3" s="11" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="W3" s="35" t="b">
         <v>1</v>
@@ -5940,7 +5965,7 @@
         <v>2880</v>
       </c>
       <c r="AD3" s="27" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="AE3" s="27" t="s">
         <v>151</v>
@@ -5952,7 +5977,7 @@
         <v>4</v>
       </c>
       <c r="AH3" s="27" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AI3" s="27" t="s">
         <v>151</v>
@@ -5994,7 +6019,7 @@
         <v>151</v>
       </c>
       <c r="AV3" s="34" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="AW3" s="27" t="s">
         <v>151</v>
@@ -6017,7 +6042,7 @@
         <v>151</v>
       </c>
       <c r="E4" s="40" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F4" s="56" t="b">
         <v>0</v>
@@ -6029,13 +6054,13 @@
         <v>1</v>
       </c>
       <c r="I4" s="44" t="s">
+        <v>308</v>
+      </c>
+      <c r="J4" s="44">
+        <v>1</v>
+      </c>
+      <c r="K4" s="44" t="s">
         <v>309</v>
-      </c>
-      <c r="J4" s="44">
-        <v>1</v>
-      </c>
-      <c r="K4" s="44" t="s">
-        <v>310</v>
       </c>
       <c r="L4" s="45" t="s">
         <v>19</v>
@@ -6053,7 +6078,7 @@
         <v>5</v>
       </c>
       <c r="Q4" s="46" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="R4" s="47">
         <v>11</v>
@@ -6068,7 +6093,7 @@
         <v>109</v>
       </c>
       <c r="V4" s="11" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="W4" s="35" t="b">
         <v>1</v>
@@ -6092,7 +6117,7 @@
         <v>1440</v>
       </c>
       <c r="AD4" s="27" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="AE4" s="27" t="s">
         <v>151</v>
@@ -6125,7 +6150,7 @@
         <v>151</v>
       </c>
       <c r="AO4" s="27" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="AP4" s="27" t="s">
         <v>151</v>
@@ -6146,7 +6171,7 @@
         <v>151</v>
       </c>
       <c r="AV4" s="34" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AW4" s="27" t="s">
         <v>151</v>
@@ -6169,7 +6194,7 @@
         <v>131</v>
       </c>
       <c r="E5" s="40" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F5" s="56" t="b">
         <v>0</v>
@@ -6181,7 +6206,7 @@
         <v>1</v>
       </c>
       <c r="I5" s="44" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="J5" s="44">
         <v>1</v>
@@ -6216,7 +6241,7 @@
         <v>105</v>
       </c>
       <c r="V5" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="W5" s="35" t="b">
         <v>1</v>
@@ -6240,7 +6265,7 @@
         <v>2880</v>
       </c>
       <c r="AD5" s="27" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="AE5" s="27" t="s">
         <v>151</v>
@@ -6252,7 +6277,7 @@
         <v>4</v>
       </c>
       <c r="AH5" s="27" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AI5" s="27" t="s">
         <v>151</v>
@@ -6294,7 +6319,7 @@
         <v>151</v>
       </c>
       <c r="AV5" s="34" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="AW5" s="27" t="s">
         <v>151</v>
@@ -6317,7 +6342,7 @@
         <v>166</v>
       </c>
       <c r="E6" s="40" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F6" s="56" t="b">
         <v>0</v>
@@ -6365,7 +6390,7 @@
         <v>176</v>
       </c>
       <c r="U6" s="50" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="V6" s="11" t="s">
         <v>45</v>
@@ -6392,7 +6417,7 @@
         <v>2880</v>
       </c>
       <c r="AD6" s="27" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AE6" s="27" t="s">
         <v>151</v>
@@ -6444,7 +6469,7 @@
         <v>151</v>
       </c>
       <c r="AV6" s="34" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AW6" s="27" t="s">
         <v>151</v>
@@ -6467,7 +6492,7 @@
         <v>172</v>
       </c>
       <c r="E7" s="40" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F7" s="56" t="b">
         <v>0</v>
@@ -6515,7 +6540,7 @@
         <v>176</v>
       </c>
       <c r="U7" s="50" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="V7" s="11" t="s">
         <v>45</v>
@@ -6542,7 +6567,7 @@
         <v>2880</v>
       </c>
       <c r="AD7" s="27" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AE7" s="27" t="s">
         <v>151</v>
@@ -6594,7 +6619,7 @@
         <v>151</v>
       </c>
       <c r="AV7" s="34" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AW7" s="27" t="s">
         <v>151</v>
@@ -6617,7 +6642,7 @@
         <v>173</v>
       </c>
       <c r="E8" s="40" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F8" s="56" t="b">
         <v>0</v>
@@ -6665,10 +6690,10 @@
         <v>-1</v>
       </c>
       <c r="U8" s="50" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="V8" s="11" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="W8" s="35" t="b">
         <v>1</v>
@@ -6690,7 +6715,7 @@
         <v>2880</v>
       </c>
       <c r="AD8" s="27" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="AE8" s="27" t="s">
         <v>151</v>
@@ -6702,7 +6727,7 @@
         <v>4</v>
       </c>
       <c r="AH8" s="27" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AI8" s="27"/>
       <c r="AJ8" s="27" t="s">
@@ -6742,7 +6767,7 @@
         <v>151</v>
       </c>
       <c r="AV8" s="34" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="AW8" s="27" t="s">
         <v>151</v>
@@ -6765,7 +6790,7 @@
         <v>131</v>
       </c>
       <c r="E9" s="40" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F9" s="56" t="b">
         <v>0</v>
@@ -6783,7 +6808,7 @@
         <v>1</v>
       </c>
       <c r="K9" s="44" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="L9" s="45" t="s">
         <v>19</v>
@@ -6813,10 +6838,10 @@
         <v>174</v>
       </c>
       <c r="U9" s="50" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="V9" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="W9" s="35" t="b">
         <v>1</v>
@@ -6840,7 +6865,7 @@
         <v>1440</v>
       </c>
       <c r="AD9" s="27" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AE9" s="27" t="s">
         <v>151</v>
@@ -6894,7 +6919,7 @@
         <v>151</v>
       </c>
       <c r="AV9" s="34" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AW9" s="27" t="s">
         <v>151</v>
@@ -6917,7 +6942,7 @@
         <v>151</v>
       </c>
       <c r="E10" s="121" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F10" s="56" t="b">
         <v>0</v>
@@ -7069,7 +7094,7 @@
         <v>151</v>
       </c>
       <c r="E11" s="55" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F11" s="56" t="b">
         <v>0</v>
@@ -7221,7 +7246,7 @@
         <v>151</v>
       </c>
       <c r="E12" s="40" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F12" s="43" t="b">
         <v>0</v>
@@ -7373,7 +7398,7 @@
         <v>151</v>
       </c>
       <c r="E13" s="40" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F13" s="43" t="b">
         <v>0</v>
@@ -7525,7 +7550,7 @@
         <v>151</v>
       </c>
       <c r="E14" s="40" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F14" s="43" t="b">
         <v>0</v>
@@ -7677,7 +7702,7 @@
         <v>151</v>
       </c>
       <c r="E15" s="40" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F15" s="43" t="b">
         <v>0</v>
@@ -7829,7 +7854,7 @@
         <v>151</v>
       </c>
       <c r="E16" s="40" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F16" s="43" t="b">
         <v>0</v>
@@ -7981,7 +8006,7 @@
         <v>151</v>
       </c>
       <c r="E17" s="138" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F17" s="139" t="b">
         <v>0</v>
@@ -8133,7 +8158,7 @@
         <v>151</v>
       </c>
       <c r="E18" s="55" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F18" s="56" t="b">
         <v>0</v>
@@ -8285,7 +8310,7 @@
         <v>151</v>
       </c>
       <c r="E19" s="40" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F19" s="43" t="b">
         <v>0</v>
@@ -8437,7 +8462,7 @@
         <v>151</v>
       </c>
       <c r="E20" s="40" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F20" s="43" t="b">
         <v>0</v>
@@ -8589,7 +8614,7 @@
         <v>151</v>
       </c>
       <c r="E21" s="40" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F21" s="43" t="b">
         <v>0</v>
@@ -8741,7 +8766,7 @@
         <v>151</v>
       </c>
       <c r="E22" s="40" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F22" s="43" t="b">
         <v>0</v>
@@ -8893,7 +8918,7 @@
         <v>151</v>
       </c>
       <c r="E23" s="40" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F23" s="43" t="b">
         <v>0</v>
@@ -9045,7 +9070,7 @@
         <v>151</v>
       </c>
       <c r="E24" s="40" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F24" s="43" t="b">
         <v>0</v>
@@ -9191,13 +9216,13 @@
         <v>3</v>
       </c>
       <c r="C25" s="52" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D25" s="38" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E25" s="40" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F25" s="43" t="b">
         <v>0</v>
@@ -9237,7 +9262,7 @@
         <v>175</v>
       </c>
       <c r="U25" s="50" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="V25" s="11" t="s">
         <v>45</v>
@@ -9264,7 +9289,7 @@
         <v>151</v>
       </c>
       <c r="AD25" s="27" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AE25" s="27" t="s">
         <v>151</v>
@@ -9335,13 +9360,13 @@
         <v>3</v>
       </c>
       <c r="C26" s="53" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D26" s="40" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E26" s="40" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F26" s="43" t="b">
         <v>0</v>
@@ -9371,7 +9396,7 @@
         <v>175</v>
       </c>
       <c r="U26" s="50" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="V26" s="11" t="s">
         <v>45</v>
@@ -9398,7 +9423,7 @@
         <v>151</v>
       </c>
       <c r="AD26" s="27" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AE26" s="27" t="s">
         <v>151</v>
@@ -9469,13 +9494,13 @@
         <v>3</v>
       </c>
       <c r="C27" s="109" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D27" s="40" t="s">
         <v>151</v>
       </c>
       <c r="E27" s="110" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F27" s="43" t="b">
         <v>0</v>
@@ -9517,16 +9542,16 @@
         <v>10</v>
       </c>
       <c r="S27" s="48" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="T27" s="49">
         <v>0.5</v>
       </c>
       <c r="U27" s="50" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="V27" s="11" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="W27" s="35" t="b">
         <v>1</v>
@@ -9550,7 +9575,7 @@
         <v>2880</v>
       </c>
       <c r="AD27" s="27" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AE27" s="27" t="s">
         <v>151</v>
@@ -9604,7 +9629,7 @@
         <v>151</v>
       </c>
       <c r="AV27" s="34" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AW27" s="27" t="s">
         <v>151</v>
@@ -9621,13 +9646,13 @@
         <v>3</v>
       </c>
       <c r="C28" s="109" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D28" s="40" t="s">
         <v>151</v>
       </c>
       <c r="E28" s="110" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F28" s="43" t="b">
         <v>0</v>
@@ -9669,16 +9694,16 @@
         <v>10</v>
       </c>
       <c r="S28" s="48" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="T28" s="49">
         <v>0.5</v>
       </c>
       <c r="U28" s="50" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="V28" s="11" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="W28" s="35" t="b">
         <v>1</v>
@@ -9702,7 +9727,7 @@
         <v>2880</v>
       </c>
       <c r="AD28" s="27" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AE28" s="27" t="s">
         <v>151</v>
@@ -9756,7 +9781,7 @@
         <v>151</v>
       </c>
       <c r="AV28" s="34" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AW28" s="27" t="s">
         <v>151</v>
@@ -9773,13 +9798,13 @@
         <v>3</v>
       </c>
       <c r="C29" s="109" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D29" s="40" t="s">
         <v>151</v>
       </c>
       <c r="E29" s="110" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F29" s="43" t="b">
         <v>0</v>
@@ -9821,16 +9846,16 @@
         <v>10</v>
       </c>
       <c r="S29" s="48" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="T29" s="49">
         <v>0.5</v>
       </c>
       <c r="U29" s="50" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="V29" s="11" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="W29" s="35" t="b">
         <v>1</v>
@@ -9854,7 +9879,7 @@
         <v>2880</v>
       </c>
       <c r="AD29" s="27" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AE29" s="27" t="s">
         <v>151</v>
@@ -9908,7 +9933,7 @@
         <v>151</v>
       </c>
       <c r="AV29" s="34" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AW29" s="27" t="s">
         <v>151</v>
@@ -9925,13 +9950,13 @@
         <v>3</v>
       </c>
       <c r="C30" s="109" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D30" s="40" t="s">
         <v>151</v>
       </c>
       <c r="E30" s="110" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F30" s="43" t="b">
         <v>0</v>
@@ -9973,16 +9998,16 @@
         <v>10</v>
       </c>
       <c r="S30" s="48" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="T30" s="49">
         <v>0.5</v>
       </c>
       <c r="U30" s="50" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="V30" s="11" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="W30" s="35" t="b">
         <v>1</v>
@@ -10006,7 +10031,7 @@
         <v>2880</v>
       </c>
       <c r="AD30" s="27" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AE30" s="27" t="s">
         <v>151</v>
@@ -10060,7 +10085,7 @@
         <v>151</v>
       </c>
       <c r="AV30" s="34" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AW30" s="27" t="s">
         <v>151</v>
@@ -10077,13 +10102,13 @@
         <v>3</v>
       </c>
       <c r="C31" s="109" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D31" s="40" t="s">
         <v>151</v>
       </c>
       <c r="E31" s="110" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F31" s="43" t="b">
         <v>0</v>
@@ -10125,16 +10150,16 @@
         <v>10</v>
       </c>
       <c r="S31" s="48" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="T31" s="49">
         <v>0.5</v>
       </c>
       <c r="U31" s="50" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="V31" s="11" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="W31" s="35" t="b">
         <v>1</v>
@@ -10158,7 +10183,7 @@
         <v>2880</v>
       </c>
       <c r="AD31" s="27" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AE31" s="27" t="s">
         <v>151</v>
@@ -10212,7 +10237,7 @@
         <v>151</v>
       </c>
       <c r="AV31" s="34" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AW31" s="27" t="s">
         <v>151</v>
@@ -10229,13 +10254,13 @@
         <v>3</v>
       </c>
       <c r="C32" s="109" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D32" s="40" t="s">
         <v>151</v>
       </c>
       <c r="E32" s="110" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F32" s="43" t="b">
         <v>0</v>
@@ -10277,16 +10302,16 @@
         <v>10</v>
       </c>
       <c r="S32" s="48" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="T32" s="49">
         <v>0.5</v>
       </c>
       <c r="U32" s="50" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="V32" s="11" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="W32" s="35" t="b">
         <v>1</v>
@@ -10310,7 +10335,7 @@
         <v>2880</v>
       </c>
       <c r="AD32" s="27" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AE32" s="27" t="s">
         <v>151</v>
@@ -10364,7 +10389,7 @@
         <v>151</v>
       </c>
       <c r="AV32" s="34" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AW32" s="27" t="s">
         <v>151</v>
@@ -10381,13 +10406,13 @@
         <v>3</v>
       </c>
       <c r="C33" s="53" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D33" s="40" t="s">
         <v>151</v>
       </c>
       <c r="E33" s="40" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F33" s="43" t="b">
         <v>0</v>
@@ -10405,7 +10430,7 @@
         <v>1</v>
       </c>
       <c r="K33" s="44" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="L33" s="45"/>
       <c r="M33" s="45"/>
@@ -10423,10 +10448,10 @@
         <v>-1</v>
       </c>
       <c r="U33" s="50" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="V33" s="11" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="W33" s="35" t="b">
         <v>1</v>
@@ -10450,7 +10475,7 @@
         <v>2880</v>
       </c>
       <c r="AD33" s="27" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AE33" s="27" t="s">
         <v>151</v>
@@ -10462,7 +10487,7 @@
         <v>4</v>
       </c>
       <c r="AH33" s="27" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AI33" s="27" t="s">
         <v>151</v>
@@ -10504,7 +10529,7 @@
         <v>151</v>
       </c>
       <c r="AV33" s="34" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AW33" s="27" t="s">
         <v>151</v>
@@ -10521,13 +10546,13 @@
         <v>3</v>
       </c>
       <c r="C34" s="176" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D34" s="82" t="s">
         <v>151</v>
       </c>
       <c r="E34" s="82" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F34" s="84" t="b">
         <v>0</v>
@@ -10563,10 +10588,10 @@
         <v>-1</v>
       </c>
       <c r="U34" s="89" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="V34" s="90" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="W34" s="91" t="b">
         <v>1</v>
@@ -10590,7 +10615,7 @@
         <v>2880</v>
       </c>
       <c r="AD34" s="93" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AE34" s="93" t="s">
         <v>151</v>
@@ -10602,7 +10627,7 @@
         <v>4</v>
       </c>
       <c r="AH34" s="93" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AI34" s="93" t="s">
         <v>151</v>
@@ -10644,7 +10669,7 @@
         <v>151</v>
       </c>
       <c r="AV34" s="112" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AW34" s="93" t="s">
         <v>151</v>
@@ -10661,13 +10686,13 @@
         <v>3</v>
       </c>
       <c r="C35" s="177" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D35" s="96" t="s">
         <v>151</v>
       </c>
       <c r="E35" s="96" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F35" s="97" t="b">
         <v>0</v>
@@ -10685,7 +10710,7 @@
         <v>1</v>
       </c>
       <c r="K35" s="98" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="L35" s="99" t="s">
         <v>19</v>
@@ -10707,10 +10732,10 @@
         <v>-1</v>
       </c>
       <c r="U35" s="103" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="V35" s="104" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="W35" s="105" t="b">
         <v>1</v>
@@ -10734,7 +10759,7 @@
         <v>2880</v>
       </c>
       <c r="AD35" s="107" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AE35" s="107" t="s">
         <v>151</v>
@@ -10746,7 +10771,7 @@
         <v>4</v>
       </c>
       <c r="AH35" s="107" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AI35" s="107" t="s">
         <v>151</v>
@@ -10788,7 +10813,7 @@
         <v>151</v>
       </c>
       <c r="AV35" s="95" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AW35" s="107" t="s">
         <v>151</v>
@@ -10805,13 +10830,13 @@
         <v>3</v>
       </c>
       <c r="C36" s="53" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D36" s="40" t="s">
         <v>151</v>
       </c>
       <c r="E36" s="40" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F36" s="43" t="b">
         <v>0</v>
@@ -10851,10 +10876,10 @@
         <v>-1</v>
       </c>
       <c r="U36" s="50" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="V36" s="11" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="W36" s="35" t="b">
         <v>1</v>
@@ -10878,7 +10903,7 @@
         <v>2880</v>
       </c>
       <c r="AD36" s="27" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AE36" s="27" t="s">
         <v>151</v>
@@ -10890,7 +10915,7 @@
         <v>4</v>
       </c>
       <c r="AH36" s="27" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AI36" s="27" t="s">
         <v>151</v>
@@ -10932,7 +10957,7 @@
         <v>151</v>
       </c>
       <c r="AV36" s="34" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AW36" s="27" t="s">
         <v>151</v>
@@ -10949,13 +10974,13 @@
         <v>3</v>
       </c>
       <c r="C37" s="53" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D37" s="40" t="s">
         <v>151</v>
       </c>
       <c r="E37" s="40" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F37" s="43" t="b">
         <v>0</v>
@@ -10995,10 +11020,10 @@
         <v>-1</v>
       </c>
       <c r="U37" s="50" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="V37" s="11" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="W37" s="35" t="b">
         <v>1</v>
@@ -11022,7 +11047,7 @@
         <v>2880</v>
       </c>
       <c r="AD37" s="27" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AE37" s="27" t="s">
         <v>151</v>
@@ -11034,7 +11059,7 @@
         <v>4</v>
       </c>
       <c r="AH37" s="27" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AI37" s="27" t="s">
         <v>151</v>
@@ -11076,7 +11101,7 @@
         <v>151</v>
       </c>
       <c r="AV37" s="34" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AW37" s="27" t="s">
         <v>151</v>
@@ -11093,13 +11118,13 @@
         <v>3</v>
       </c>
       <c r="C38" s="53" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D38" s="40" t="s">
         <v>151</v>
       </c>
       <c r="E38" s="40" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F38" s="43" t="b">
         <v>0</v>
@@ -11139,10 +11164,10 @@
         <v>-1</v>
       </c>
       <c r="U38" s="50" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="V38" s="11" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="W38" s="35" t="b">
         <v>1</v>
@@ -11166,7 +11191,7 @@
         <v>2880</v>
       </c>
       <c r="AD38" s="27" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AE38" s="27" t="s">
         <v>151</v>
@@ -11178,7 +11203,7 @@
         <v>4</v>
       </c>
       <c r="AH38" s="27" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AI38" s="27" t="s">
         <v>151</v>
@@ -11220,7 +11245,7 @@
         <v>151</v>
       </c>
       <c r="AV38" s="34" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AW38" s="27" t="s">
         <v>151</v>
@@ -11237,13 +11262,13 @@
         <v>3</v>
       </c>
       <c r="C39" s="113" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D39" s="40" t="s">
         <v>151</v>
       </c>
       <c r="E39" s="40" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F39" s="43" t="b">
         <v>0</v>
@@ -11273,16 +11298,16 @@
         <v>20</v>
       </c>
       <c r="S39" s="48" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="T39" s="94">
         <v>-1</v>
       </c>
       <c r="U39" s="50" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="V39" s="11" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="W39" s="35" t="b">
         <v>1</v>
@@ -11306,7 +11331,7 @@
         <v>2880</v>
       </c>
       <c r="AD39" s="27" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AE39" s="27" t="s">
         <v>151</v>
@@ -11318,7 +11343,7 @@
         <v>4</v>
       </c>
       <c r="AH39" s="27" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AI39" s="27" t="s">
         <v>151</v>
@@ -11360,7 +11385,7 @@
         <v>151</v>
       </c>
       <c r="AV39" s="34" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AW39" s="27" t="s">
         <v>151</v>
@@ -11377,13 +11402,13 @@
         <v>3</v>
       </c>
       <c r="C40" s="54" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D40" s="82" t="s">
         <v>151</v>
       </c>
       <c r="E40" s="82" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F40" s="84" t="b">
         <v>0</v>
@@ -11410,7 +11435,7 @@
         <v>5</v>
       </c>
       <c r="N40" s="86" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="O40" s="87"/>
       <c r="P40" s="87"/>
@@ -11425,10 +11450,10 @@
         <v>-1</v>
       </c>
       <c r="U40" s="89" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="V40" s="90" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="W40" s="91" t="b">
         <v>1</v>
@@ -11452,7 +11477,7 @@
         <v>2880</v>
       </c>
       <c r="AD40" s="93" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AE40" s="93" t="s">
         <v>151</v>
@@ -11464,7 +11489,7 @@
         <v>4</v>
       </c>
       <c r="AH40" s="93" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AI40" s="93" t="s">
         <v>151</v>
@@ -11506,7 +11531,7 @@
         <v>151</v>
       </c>
       <c r="AV40" s="112" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AW40" s="93" t="s">
         <v>151</v>
@@ -11523,13 +11548,13 @@
         <v>3</v>
       </c>
       <c r="C41" s="181" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D41" s="159" t="s">
         <v>151</v>
       </c>
       <c r="E41" s="159" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F41" s="160" t="b">
         <v>0</v>
@@ -11547,7 +11572,7 @@
         <v>5</v>
       </c>
       <c r="K41" s="161" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="L41" s="162" t="s">
         <v>27</v>
@@ -11556,7 +11581,7 @@
         <v>10</v>
       </c>
       <c r="N41" s="162" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="O41" s="163"/>
       <c r="P41" s="163"/>
@@ -11571,10 +11596,10 @@
         <v>-1</v>
       </c>
       <c r="U41" s="167" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="V41" s="168" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="W41" s="169" t="b">
         <v>1</v>
@@ -11598,7 +11623,7 @@
         <v>2880</v>
       </c>
       <c r="AD41" s="171" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AE41" s="171" t="s">
         <v>151</v>
@@ -11610,7 +11635,7 @@
         <v>4</v>
       </c>
       <c r="AH41" s="171" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AI41" s="171" t="s">
         <v>151</v>
@@ -11652,7 +11677,7 @@
         <v>151</v>
       </c>
       <c r="AV41" s="172" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AW41" s="171" t="s">
         <v>151</v>
@@ -11669,13 +11694,13 @@
         <v>3</v>
       </c>
       <c r="C42" s="113" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D42" s="40" t="s">
         <v>151</v>
       </c>
       <c r="E42" s="40" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F42" s="43" t="b">
         <v>0</v>
@@ -11693,7 +11718,7 @@
         <v>12</v>
       </c>
       <c r="K42" s="44" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="L42" s="45"/>
       <c r="M42" s="45"/>
@@ -11705,16 +11730,16 @@
         <v>20</v>
       </c>
       <c r="S42" s="48" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="T42" s="94">
         <v>-1</v>
       </c>
       <c r="U42" s="50" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="V42" s="11" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="W42" s="35" t="b">
         <v>1</v>
@@ -11738,7 +11763,7 @@
         <v>2880</v>
       </c>
       <c r="AD42" s="27" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AE42" s="27" t="s">
         <v>151</v>
@@ -11750,7 +11775,7 @@
         <v>4</v>
       </c>
       <c r="AH42" s="27" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AI42" s="27" t="s">
         <v>151</v>
@@ -11792,7 +11817,7 @@
         <v>151</v>
       </c>
       <c r="AV42" s="34" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AW42" s="27" t="s">
         <v>151</v>
@@ -11809,13 +11834,13 @@
         <v>3</v>
       </c>
       <c r="C43" s="113" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D43" s="40" t="s">
         <v>151</v>
       </c>
       <c r="E43" s="40" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F43" s="43" t="b">
         <v>0</v>
@@ -11849,16 +11874,16 @@
         <v>20</v>
       </c>
       <c r="S43" s="48" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="T43" s="94">
         <v>-1</v>
       </c>
       <c r="U43" s="50" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="V43" s="11" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="W43" s="35" t="b">
         <v>1</v>
@@ -11882,7 +11907,7 @@
         <v>2880</v>
       </c>
       <c r="AD43" s="27" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AE43" s="27" t="s">
         <v>151</v>
@@ -11894,7 +11919,7 @@
         <v>4</v>
       </c>
       <c r="AH43" s="27" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AI43" s="27" t="s">
         <v>151</v>
@@ -11936,7 +11961,7 @@
         <v>151</v>
       </c>
       <c r="AV43" s="34" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AW43" s="27" t="s">
         <v>151</v>
@@ -11953,13 +11978,13 @@
         <v>3</v>
       </c>
       <c r="C44" s="113" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D44" s="40" t="s">
         <v>151</v>
       </c>
       <c r="E44" s="40" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F44" s="43" t="b">
         <v>0</v>
@@ -11995,10 +12020,10 @@
         <v>-1</v>
       </c>
       <c r="U44" s="50" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="V44" s="11" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="W44" s="35" t="b">
         <v>1</v>
@@ -12022,7 +12047,7 @@
         <v>2880</v>
       </c>
       <c r="AD44" s="27" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AE44" s="27" t="s">
         <v>151</v>
@@ -12034,7 +12059,7 @@
         <v>4</v>
       </c>
       <c r="AH44" s="27" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AI44" s="27" t="s">
         <v>151</v>
@@ -12076,7 +12101,7 @@
         <v>151</v>
       </c>
       <c r="AV44" s="34" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AW44" s="27" t="s">
         <v>151</v>
@@ -12093,13 +12118,13 @@
         <v>3</v>
       </c>
       <c r="C45" s="113" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D45" s="40" t="s">
         <v>151</v>
       </c>
       <c r="E45" s="40" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F45" s="43" t="b">
         <v>0</v>
@@ -12139,10 +12164,10 @@
         <v>-1</v>
       </c>
       <c r="U45" s="50" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="V45" s="11" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="W45" s="35" t="b">
         <v>1</v>
@@ -12166,7 +12191,7 @@
         <v>2880</v>
       </c>
       <c r="AD45" s="27" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AE45" s="27" t="s">
         <v>151</v>
@@ -12178,7 +12203,7 @@
         <v>4</v>
       </c>
       <c r="AH45" s="27" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AI45" s="27" t="s">
         <v>151</v>
@@ -12220,7 +12245,7 @@
         <v>151</v>
       </c>
       <c r="AV45" s="34" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AW45" s="27" t="s">
         <v>151</v>
@@ -12237,13 +12262,13 @@
         <v>3</v>
       </c>
       <c r="C46" s="108" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D46" s="69" t="s">
         <v>151</v>
       </c>
       <c r="E46" s="69" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F46" s="43" t="b">
         <v>0</v>
@@ -12261,7 +12286,7 @@
         <v>4</v>
       </c>
       <c r="K46" s="71" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="L46" s="72" t="s">
         <v>27</v>
@@ -12270,7 +12295,7 @@
         <v>8</v>
       </c>
       <c r="N46" s="72" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="O46" s="73"/>
       <c r="P46" s="73"/>
@@ -12285,10 +12310,10 @@
         <v>-1</v>
       </c>
       <c r="U46" s="76" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="V46" s="77" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="W46" s="78" t="b">
         <v>1</v>
@@ -12312,7 +12337,7 @@
         <v>2880</v>
       </c>
       <c r="AD46" s="80" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AE46" s="80" t="s">
         <v>151</v>
@@ -12324,7 +12349,7 @@
         <v>4</v>
       </c>
       <c r="AH46" s="27" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AI46" s="27">
         <v>20</v>
@@ -12366,7 +12391,7 @@
         <v>151</v>
       </c>
       <c r="AV46" s="81" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AW46" s="80" t="s">
         <v>151</v>
@@ -12383,13 +12408,13 @@
         <v>3</v>
       </c>
       <c r="C47" s="174" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D47" s="96" t="s">
         <v>151</v>
       </c>
       <c r="E47" s="96" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F47" s="43" t="b">
         <v>0</v>
@@ -12425,10 +12450,10 @@
         <v>-1</v>
       </c>
       <c r="U47" s="103" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="V47" s="104" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="W47" s="105" t="b">
         <v>1</v>
@@ -12452,7 +12477,7 @@
         <v>2880</v>
       </c>
       <c r="AD47" s="107" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AE47" s="107" t="s">
         <v>151</v>
@@ -12464,7 +12489,7 @@
         <v>4</v>
       </c>
       <c r="AH47" s="107" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AI47" s="107">
         <v>20</v>
@@ -12506,7 +12531,7 @@
         <v>151</v>
       </c>
       <c r="AV47" s="95" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AW47" s="107" t="s">
         <v>151</v>
@@ -12523,13 +12548,13 @@
         <v>3</v>
       </c>
       <c r="C48" s="54" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D48" s="40" t="s">
         <v>151</v>
       </c>
       <c r="E48" s="40" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F48" s="43" t="b">
         <v>0</v>
@@ -12565,10 +12590,10 @@
         <v>-1</v>
       </c>
       <c r="U48" s="50" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="V48" s="11" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="W48" s="35" t="b">
         <v>1</v>
@@ -12592,7 +12617,7 @@
         <v>2880</v>
       </c>
       <c r="AD48" s="27" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AE48" s="27" t="s">
         <v>151</v>
@@ -12604,7 +12629,7 @@
         <v>4</v>
       </c>
       <c r="AH48" s="27" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AI48" s="27">
         <v>20</v>
@@ -12646,7 +12671,7 @@
         <v>151</v>
       </c>
       <c r="AV48" s="34" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AW48" s="27" t="s">
         <v>151</v>
@@ -12663,13 +12688,13 @@
         <v>3</v>
       </c>
       <c r="C49" s="54" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D49" s="40" t="s">
         <v>151</v>
       </c>
       <c r="E49" s="40" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F49" s="43" t="b">
         <v>0</v>
@@ -12705,10 +12730,10 @@
         <v>-1</v>
       </c>
       <c r="U49" s="50" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="V49" s="11" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="W49" s="35" t="b">
         <v>1</v>
@@ -12732,7 +12757,7 @@
         <v>2880</v>
       </c>
       <c r="AD49" s="27" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AE49" s="27" t="s">
         <v>151</v>
@@ -12744,7 +12769,7 @@
         <v>4</v>
       </c>
       <c r="AH49" s="27" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AI49" s="27">
         <v>20</v>
@@ -12786,7 +12811,7 @@
         <v>151</v>
       </c>
       <c r="AV49" s="34" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AW49" s="27" t="s">
         <v>151</v>
@@ -12803,13 +12828,13 @@
         <v>3</v>
       </c>
       <c r="C50" s="54" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D50" s="40" t="s">
         <v>151</v>
       </c>
       <c r="E50" s="40" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F50" s="43" t="b">
         <v>0</v>
@@ -12827,7 +12852,7 @@
         <v>2</v>
       </c>
       <c r="K50" s="44" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="L50" s="45" t="s">
         <v>27</v>
@@ -12836,7 +12861,7 @@
         <v>4</v>
       </c>
       <c r="N50" s="45" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="O50" s="46" t="s">
         <v>19</v>
@@ -12855,10 +12880,10 @@
         <v>-1</v>
       </c>
       <c r="U50" s="50" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="V50" s="11" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="W50" s="35" t="b">
         <v>1</v>
@@ -12882,7 +12907,7 @@
         <v>2880</v>
       </c>
       <c r="AD50" s="27" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AE50" s="27" t="s">
         <v>151</v>
@@ -12894,7 +12919,7 @@
         <v>4</v>
       </c>
       <c r="AH50" s="27" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AI50" s="27">
         <v>20</v>
@@ -12936,7 +12961,7 @@
         <v>151</v>
       </c>
       <c r="AV50" s="34" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AW50" s="27" t="s">
         <v>151</v>
@@ -12953,13 +12978,13 @@
         <v>3</v>
       </c>
       <c r="C51" s="54" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D51" s="40" t="s">
         <v>151</v>
       </c>
       <c r="E51" s="40" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F51" s="43" t="b">
         <v>0</v>
@@ -12977,7 +13002,7 @@
         <v>1</v>
       </c>
       <c r="K51" s="44" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="L51" s="45" t="s">
         <v>27</v>
@@ -12986,7 +13011,7 @@
         <v>4</v>
       </c>
       <c r="N51" s="45" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="O51" s="46" t="s">
         <v>19</v>
@@ -13005,10 +13030,10 @@
         <v>-1</v>
       </c>
       <c r="U51" s="50" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="V51" s="11" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="W51" s="35" t="b">
         <v>1</v>
@@ -13032,7 +13057,7 @@
         <v>2880</v>
       </c>
       <c r="AD51" s="27" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AE51" s="27" t="s">
         <v>151</v>
@@ -13044,7 +13069,7 @@
         <v>4</v>
       </c>
       <c r="AH51" s="27" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AI51" s="27">
         <v>20</v>
@@ -13086,7 +13111,7 @@
         <v>151</v>
       </c>
       <c r="AV51" s="34" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AW51" s="27" t="s">
         <v>151</v>
@@ -13103,13 +13128,13 @@
         <v>3</v>
       </c>
       <c r="C52" s="54" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D52" s="82" t="s">
         <v>151</v>
       </c>
       <c r="E52" s="82" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F52" s="84" t="b">
         <v>0</v>
@@ -13145,10 +13170,10 @@
         <v>-1</v>
       </c>
       <c r="U52" s="89" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="V52" s="90" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="W52" s="91" t="b">
         <v>1</v>
@@ -13172,7 +13197,7 @@
         <v>2880</v>
       </c>
       <c r="AD52" s="93" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AE52" s="93" t="s">
         <v>151</v>
@@ -13184,7 +13209,7 @@
         <v>4</v>
       </c>
       <c r="AH52" s="93" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AI52" s="93">
         <v>20</v>
@@ -13226,7 +13251,7 @@
         <v>151</v>
       </c>
       <c r="AV52" s="112" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AW52" s="93" t="s">
         <v>151</v>
@@ -13249,7 +13274,7 @@
         <v>151</v>
       </c>
       <c r="E53" s="159" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F53" s="160" t="b">
         <v>1</v>
@@ -13258,7 +13283,7 @@
         <v>1</v>
       </c>
       <c r="H53" s="161" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I53" s="161" t="s">
         <v>27</v>
@@ -13267,7 +13292,7 @@
         <v>1</v>
       </c>
       <c r="K53" s="161" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="L53" s="162" t="s">
         <v>27</v>
@@ -13276,7 +13301,7 @@
         <v>2</v>
       </c>
       <c r="N53" s="162" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="O53" s="163" t="s">
         <v>27</v>
@@ -13285,22 +13310,22 @@
         <v>2</v>
       </c>
       <c r="Q53" s="163" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="R53" s="164">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="S53" s="165" t="s">
         <v>125</v>
       </c>
-      <c r="T53" s="166">
+      <c r="T53" s="215">
         <v>-1</v>
       </c>
       <c r="U53" s="167" t="s">
         <v>107</v>
       </c>
       <c r="V53" s="168" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="W53" s="169" t="b">
         <v>1</v>
@@ -13324,7 +13349,7 @@
         <v>2880</v>
       </c>
       <c r="AD53" s="171" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="AE53" s="171" t="s">
         <v>151</v>
@@ -13378,7 +13403,7 @@
         <v>151</v>
       </c>
       <c r="AV53" s="172" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AW53" s="171" t="s">
         <v>151</v>
@@ -13398,10 +13423,10 @@
         <v>169</v>
       </c>
       <c r="D54" s="39" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E54" s="40" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F54" s="43" t="b">
         <v>1</v>
@@ -13413,13 +13438,13 @@
         <v>1</v>
       </c>
       <c r="I54" s="44" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="J54" s="44">
         <v>1</v>
       </c>
       <c r="K54" s="44" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="L54" s="45" t="s">
         <v>65</v>
@@ -13440,19 +13465,19 @@
         <v>151</v>
       </c>
       <c r="R54" s="47">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="S54" s="48" t="s">
         <v>125</v>
       </c>
-      <c r="T54" s="94">
+      <c r="T54" s="216">
         <v>-1</v>
       </c>
       <c r="U54" s="50" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="V54" s="11" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="W54" s="35" t="b">
         <v>1</v>
@@ -13474,7 +13499,7 @@
         <v>4320</v>
       </c>
       <c r="AD54" s="27" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="AE54" s="27" t="s">
         <v>151</v>
@@ -13507,7 +13532,7 @@
         <v>151</v>
       </c>
       <c r="AO54" s="27" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="AP54" s="27" t="s">
         <v>151</v>
@@ -13526,7 +13551,7 @@
         <v>151</v>
       </c>
       <c r="AV54" s="34" t="s">
-        <v>319</v>
+    